--- a/spec/data/swissmedic_package.xlsx
+++ b/spec/data/swissmedic_package.xlsx
@@ -12,16 +12,18 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false"/>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$4:$R$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">Sheet1!$3:$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$4:$R$18</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$4:$R$20</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">{#NAME?}</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_1" vbProcedure="false">Sheet1!$3:$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$4:$R$20</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_1" vbProcedure="false">Sheet1!$A$4:$R$20</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="75">
   <si>
     <t>* Das Gültigkeitsdatum entspricht den Angaben auf der Zulassungsbescheinigung. Provisorische Zulassungen, ohne Erneuerung des Gültigkeitsdatums, sind vorbehalten . Alle in der Liste aufgeführten Arzneimittel sind zum Zeitpunkt der Aktualisierung der Liste zugelassen.</t>
   </si>
@@ -142,6 +144,39 @@
     <t>globulina equina (immunisé avec tissu intestinal porcin) 8 mg, propylenglycolum, conserv.: E 216, E 218, excipiens pro suppositorio.</t>
   </si>
   <si>
+    <t>Caniphedrin 20mg ad us.vet., Tabletten</t>
+  </si>
+  <si>
+    <t>Streuli Pharma AG</t>
+  </si>
+  <si>
+    <t>QG04BX90</t>
+  </si>
+  <si>
+    <t>Tierarzneimittel</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Tablette(n)</t>
+  </si>
+  <si>
+    <t>ephedrini hydrochloridum</t>
+  </si>
+  <si>
+    <t>ephedrini hydrochloridum 20 mg, excipiens pro compresso.</t>
+  </si>
+  <si>
+    <t>Zur Behandlung der Harninkontinenz bei Hunden</t>
+  </si>
+  <si>
+    <t>Caniphedrin 50mg ad us.vet., Tabletten</t>
+  </si>
+  <si>
+    <t>ephedrini hydrochloridum 50 mg, excipiens pro compresso.</t>
+  </si>
+  <si>
     <t>Viscotears Tropfgel, Augengel</t>
   </si>
   <si>
@@ -190,9 +225,6 @@
     <t>30</t>
   </si>
   <si>
-    <t>Tablette(n)</t>
-  </si>
-  <si>
     <t>levetiracetamum</t>
   </si>
   <si>
@@ -209,9 +241,6 @@
   </si>
   <si>
     <t>levetiracetamum 500 mg, excipiens pro compressi obducti pro charta.</t>
-  </si>
-  <si>
-    <t>100</t>
   </si>
   <si>
     <t>200</t>
@@ -227,12 +256,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
     <numFmt formatCode="00000" numFmtId="165"/>
     <numFmt formatCode="DD/MM/YY" numFmtId="166"/>
     <numFmt formatCode="000" numFmtId="167"/>
     <numFmt formatCode="DD/MM/YYYY" numFmtId="168"/>
+    <numFmt formatCode="DD/MM/YYYY" numFmtId="169"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -301,7 +331,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
   </borders>
@@ -339,6 +369,9 @@
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
@@ -354,9 +387,6 @@
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
@@ -380,9 +410,6 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="90" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="90" vertical="bottom" wrapText="true"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="167" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="90" vertical="bottom" wrapText="false"/>
     </xf>
@@ -398,7 +425,9 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="168" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
     </xf>
@@ -407,6 +436,9 @@
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -429,66 +461,64 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R18"/>
+  <dimension ref="1:20"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="false" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane activePane="bottomLeft" topLeftCell="A5" xSplit="0" ySplit="4"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="false" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="A19" activeCellId="0" pane="bottomLeft" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.03137254901961"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="4.45098039215686"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="57.1411764705882"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="34.8823529411765"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="8.61176470588235"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.7647058823529"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="25.4156862745098"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="2" width="11.1960784313726"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="10.1921568627451"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="3" width="31.7294117647059"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="5.88627450980392"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="55.8470588235294"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="33.0196078431373"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="36.6039215686274"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="58.8588235294118"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="6.89019607843137"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.05882352941176"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="4.46666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="57.4313725490196"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="35.0549019607843"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="8.65490196078431"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.8156862745098"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="25.5411764705882"/>
+    <col collapsed="false" hidden="false" max="10" min="8" style="2" width="11.2509803921569"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="10.2470588235294"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="31.8901960784314"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="3" width="5.91372549019608"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="56.1294117647059"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="3" width="33.1843137254902"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="3" width="36.7843137254902"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="3" width="59.1490196078431"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="3" width="6.91764705882353"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="44.25" outlineLevel="0" r="1" s="4"/>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="48" outlineLevel="0" r="2" s="6">
-      <c r="A2" s="5" t="s">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="44.25" outlineLevel="0" r="1" s="5"/>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="48" outlineLevel="0" r="2" s="7">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="I3" s="9"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="I3" s="10"/>
       <c r="J3" s="10"/>
-      <c r="K3" s="3"/>
+      <c r="K3" s="4"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="63.75" outlineLevel="0" r="4" s="23">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="63.75" outlineLevel="0" r="4" s="22">
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
@@ -516,31 +546,31 @@
       <c r="I4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="21" t="s">
+      <c r="P4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="22" t="s">
+      <c r="Q4" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="22" t="s">
+      <c r="R4" s="21" t="s">
         <v>19</v>
       </c>
     </row>
@@ -551,7 +581,7 @@
       <c r="B5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -566,34 +596,34 @@
       <c r="G5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="24" t="n">
+      <c r="H5" s="23" t="n">
         <v>40294</v>
       </c>
-      <c r="I5" s="24" t="n">
+      <c r="I5" s="23" t="n">
         <v>40294</v>
       </c>
-      <c r="J5" s="24" t="n">
+      <c r="J5" s="23" t="n">
         <v>42119</v>
       </c>
-      <c r="K5" s="25" t="n">
+      <c r="K5" s="24" t="n">
         <v>1</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="0" t="s">
+      <c r="N5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="0" t="s">
+      <c r="O5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="0" t="s">
+      <c r="P5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="26" t="s">
+      <c r="Q5" s="25" t="s">
         <v>30</v>
       </c>
     </row>
@@ -604,7 +634,7 @@
       <c r="B6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -619,34 +649,34 @@
       <c r="G6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="24" t="n">
+      <c r="H6" s="23" t="n">
         <v>40294</v>
       </c>
-      <c r="I6" s="24" t="n">
+      <c r="I6" s="23" t="n">
         <v>40294</v>
       </c>
-      <c r="J6" s="24" t="n">
+      <c r="J6" s="23" t="n">
         <v>42119</v>
       </c>
-      <c r="K6" s="25" t="n">
+      <c r="K6" s="24" t="n">
         <v>2</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="N6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="0" t="s">
+      <c r="O6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P6" s="0" t="s">
+      <c r="P6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="26" t="s">
+      <c r="Q6" s="25" t="s">
         <v>30</v>
       </c>
     </row>
@@ -657,7 +687,7 @@
       <c r="B7" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -672,34 +702,34 @@
       <c r="G7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="24" t="n">
+      <c r="H7" s="23" t="n">
         <v>40294</v>
       </c>
-      <c r="I7" s="24" t="n">
+      <c r="I7" s="23" t="n">
         <v>40294</v>
       </c>
-      <c r="J7" s="24" t="n">
+      <c r="J7" s="23" t="n">
         <v>42119</v>
       </c>
-      <c r="K7" s="25" t="n">
+      <c r="K7" s="24" t="n">
         <v>1</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="0" t="s">
+      <c r="N7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O7" s="0" t="s">
+      <c r="O7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P7" s="0" t="s">
+      <c r="P7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q7" s="26" t="s">
+      <c r="Q7" s="25" t="s">
         <v>35</v>
       </c>
     </row>
@@ -710,7 +740,7 @@
       <c r="B8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -725,34 +755,34 @@
       <c r="G8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="24" t="n">
+      <c r="H8" s="23" t="n">
         <v>40294</v>
       </c>
-      <c r="I8" s="24" t="n">
+      <c r="I8" s="23" t="n">
         <v>40294</v>
       </c>
-      <c r="J8" s="24" t="n">
+      <c r="J8" s="23" t="n">
         <v>42119</v>
       </c>
-      <c r="K8" s="25" t="n">
+      <c r="K8" s="24" t="n">
         <v>2</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="0" t="s">
+      <c r="N8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="0" t="s">
+      <c r="O8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P8" s="0" t="s">
+      <c r="P8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q8" s="26" t="s">
+      <c r="Q8" s="25" t="s">
         <v>35</v>
       </c>
     </row>
@@ -763,7 +793,7 @@
       <c r="B9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -778,34 +808,34 @@
       <c r="G9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="24" t="n">
+      <c r="H9" s="23" t="n">
         <v>40294</v>
       </c>
-      <c r="I9" s="24" t="n">
+      <c r="I9" s="23" t="n">
         <v>40294</v>
       </c>
-      <c r="J9" s="24" t="n">
+      <c r="J9" s="23" t="n">
         <v>42119</v>
       </c>
-      <c r="K9" s="25" t="n">
+      <c r="K9" s="24" t="n">
         <v>1</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="0" t="s">
+      <c r="N9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O9" s="0" t="s">
+      <c r="O9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P9" s="0" t="s">
+      <c r="P9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q9" s="26" t="s">
+      <c r="Q9" s="25" t="s">
         <v>30</v>
       </c>
     </row>
@@ -816,7 +846,7 @@
       <c r="B10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -831,43 +861,43 @@
       <c r="G10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="24" t="n">
+      <c r="H10" s="23" t="n">
         <v>40294</v>
       </c>
-      <c r="I10" s="24" t="n">
+      <c r="I10" s="23" t="n">
         <v>40294</v>
       </c>
-      <c r="J10" s="24" t="n">
+      <c r="J10" s="23" t="n">
         <v>42119</v>
       </c>
-      <c r="K10" s="25" t="n">
+      <c r="K10" s="24" t="n">
         <v>2</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="0" t="s">
+      <c r="N10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="0" t="s">
+      <c r="O10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P10" s="0" t="s">
+      <c r="P10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q10" s="26" t="s">
+      <c r="Q10" s="25" t="s">
         <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="11">
       <c r="A11" s="1" t="n">
-        <v>48624</v>
+        <v>47066</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>39</v>
@@ -875,108 +905,2116 @@
       <c r="D11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="26" t="n">
+        <v>31239</v>
+      </c>
+      <c r="I11" s="26" t="n">
+        <v>31239</v>
+      </c>
+      <c r="J11" s="26" t="n">
+        <v>41953</v>
+      </c>
+      <c r="K11" s="24" t="n">
+        <v>18</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="24" t="n">
-        <v>31860</v>
-      </c>
-      <c r="I11" s="24" t="n">
-        <v>36859</v>
-      </c>
-      <c r="J11" s="24" t="n">
-        <v>42701</v>
-      </c>
-      <c r="K11" s="25" t="n">
-        <v>22</v>
-      </c>
-      <c r="L11" s="2" t="s">
+      <c r="M11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="N11" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="N11" s="0" t="s">
+      <c r="P11" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="O11" s="0" t="s">
+      <c r="Q11" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="P11" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q11" s="0" t="s">
-        <v>49</v>
-      </c>
+      <c r="R11" s="0"/>
+      <c r="S11" s="0"/>
+      <c r="T11" s="0"/>
+      <c r="U11" s="0"/>
+      <c r="V11" s="0"/>
+      <c r="W11" s="0"/>
+      <c r="X11" s="0"/>
+      <c r="Y11" s="0"/>
+      <c r="Z11" s="0"/>
+      <c r="AA11" s="0"/>
+      <c r="AB11" s="0"/>
+      <c r="AC11" s="0"/>
+      <c r="AD11" s="0"/>
+      <c r="AE11" s="0"/>
+      <c r="AF11" s="0"/>
+      <c r="AG11" s="0"/>
+      <c r="AH11" s="0"/>
+      <c r="AI11" s="0"/>
+      <c r="AJ11" s="0"/>
+      <c r="AK11" s="0"/>
+      <c r="AL11" s="0"/>
+      <c r="AM11" s="0"/>
+      <c r="AN11" s="0"/>
+      <c r="AO11" s="0"/>
+      <c r="AP11" s="0"/>
+      <c r="AQ11" s="0"/>
+      <c r="AR11" s="0"/>
+      <c r="AS11" s="0"/>
+      <c r="AT11" s="0"/>
+      <c r="AU11" s="0"/>
+      <c r="AV11" s="0"/>
+      <c r="AW11" s="0"/>
+      <c r="AX11" s="0"/>
+      <c r="AY11" s="0"/>
+      <c r="AZ11" s="0"/>
+      <c r="BA11" s="0"/>
+      <c r="BB11" s="0"/>
+      <c r="BC11" s="0"/>
+      <c r="BD11" s="0"/>
+      <c r="BE11" s="0"/>
+      <c r="BF11" s="0"/>
+      <c r="BG11" s="0"/>
+      <c r="BH11" s="0"/>
+      <c r="BI11" s="0"/>
+      <c r="BJ11" s="0"/>
+      <c r="BK11" s="0"/>
+      <c r="BL11" s="0"/>
+      <c r="BM11" s="0"/>
+      <c r="BN11" s="0"/>
+      <c r="BO11" s="0"/>
+      <c r="BP11" s="0"/>
+      <c r="BQ11" s="0"/>
+      <c r="BR11" s="0"/>
+      <c r="BS11" s="0"/>
+      <c r="BT11" s="0"/>
+      <c r="BU11" s="0"/>
+      <c r="BV11" s="0"/>
+      <c r="BW11" s="0"/>
+      <c r="BX11" s="0"/>
+      <c r="BY11" s="0"/>
+      <c r="BZ11" s="0"/>
+      <c r="CA11" s="0"/>
+      <c r="CB11" s="0"/>
+      <c r="CC11" s="0"/>
+      <c r="CD11" s="0"/>
+      <c r="CE11" s="0"/>
+      <c r="CF11" s="0"/>
+      <c r="CG11" s="0"/>
+      <c r="CH11" s="0"/>
+      <c r="CI11" s="0"/>
+      <c r="CJ11" s="0"/>
+      <c r="CK11" s="0"/>
+      <c r="CL11" s="0"/>
+      <c r="CM11" s="0"/>
+      <c r="CN11" s="0"/>
+      <c r="CO11" s="0"/>
+      <c r="CP11" s="0"/>
+      <c r="CQ11" s="0"/>
+      <c r="CR11" s="0"/>
+      <c r="CS11" s="0"/>
+      <c r="CT11" s="0"/>
+      <c r="CU11" s="0"/>
+      <c r="CV11" s="0"/>
+      <c r="CW11" s="0"/>
+      <c r="CX11" s="0"/>
+      <c r="CY11" s="0"/>
+      <c r="CZ11" s="0"/>
+      <c r="DA11" s="0"/>
+      <c r="DB11" s="0"/>
+      <c r="DC11" s="0"/>
+      <c r="DD11" s="0"/>
+      <c r="DE11" s="0"/>
+      <c r="DF11" s="0"/>
+      <c r="DG11" s="0"/>
+      <c r="DH11" s="0"/>
+      <c r="DI11" s="0"/>
+      <c r="DJ11" s="0"/>
+      <c r="DK11" s="0"/>
+      <c r="DL11" s="0"/>
+      <c r="DM11" s="0"/>
+      <c r="DN11" s="0"/>
+      <c r="DO11" s="0"/>
+      <c r="DP11" s="0"/>
+      <c r="DQ11" s="0"/>
+      <c r="DR11" s="0"/>
+      <c r="DS11" s="0"/>
+      <c r="DT11" s="0"/>
+      <c r="DU11" s="0"/>
+      <c r="DV11" s="0"/>
+      <c r="DW11" s="0"/>
+      <c r="DX11" s="0"/>
+      <c r="DY11" s="0"/>
+      <c r="DZ11" s="0"/>
+      <c r="EA11" s="0"/>
+      <c r="EB11" s="0"/>
+      <c r="EC11" s="0"/>
+      <c r="ED11" s="0"/>
+      <c r="EE11" s="0"/>
+      <c r="EF11" s="0"/>
+      <c r="EG11" s="0"/>
+      <c r="EH11" s="0"/>
+      <c r="EI11" s="0"/>
+      <c r="EJ11" s="0"/>
+      <c r="EK11" s="0"/>
+      <c r="EL11" s="0"/>
+      <c r="EM11" s="0"/>
+      <c r="EN11" s="0"/>
+      <c r="EO11" s="0"/>
+      <c r="EP11" s="0"/>
+      <c r="EQ11" s="0"/>
+      <c r="ER11" s="0"/>
+      <c r="ES11" s="0"/>
+      <c r="ET11" s="0"/>
+      <c r="EU11" s="0"/>
+      <c r="EV11" s="0"/>
+      <c r="EW11" s="0"/>
+      <c r="EX11" s="0"/>
+      <c r="EY11" s="0"/>
+      <c r="EZ11" s="0"/>
+      <c r="FA11" s="0"/>
+      <c r="FB11" s="0"/>
+      <c r="FC11" s="0"/>
+      <c r="FD11" s="0"/>
+      <c r="FE11" s="0"/>
+      <c r="FF11" s="0"/>
+      <c r="FG11" s="0"/>
+      <c r="FH11" s="0"/>
+      <c r="FI11" s="0"/>
+      <c r="FJ11" s="0"/>
+      <c r="FK11" s="0"/>
+      <c r="FL11" s="0"/>
+      <c r="FM11" s="0"/>
+      <c r="FN11" s="0"/>
+      <c r="FO11" s="0"/>
+      <c r="FP11" s="0"/>
+      <c r="FQ11" s="0"/>
+      <c r="FR11" s="0"/>
+      <c r="FS11" s="0"/>
+      <c r="FT11" s="0"/>
+      <c r="FU11" s="0"/>
+      <c r="FV11" s="0"/>
+      <c r="FW11" s="0"/>
+      <c r="FX11" s="0"/>
+      <c r="FY11" s="0"/>
+      <c r="FZ11" s="0"/>
+      <c r="GA11" s="0"/>
+      <c r="GB11" s="0"/>
+      <c r="GC11" s="0"/>
+      <c r="GD11" s="0"/>
+      <c r="GE11" s="0"/>
+      <c r="GF11" s="0"/>
+      <c r="GG11" s="0"/>
+      <c r="GH11" s="0"/>
+      <c r="GI11" s="0"/>
+      <c r="GJ11" s="0"/>
+      <c r="GK11" s="0"/>
+      <c r="GL11" s="0"/>
+      <c r="GM11" s="0"/>
+      <c r="GN11" s="0"/>
+      <c r="GO11" s="0"/>
+      <c r="GP11" s="0"/>
+      <c r="GQ11" s="0"/>
+      <c r="GR11" s="0"/>
+      <c r="GS11" s="0"/>
+      <c r="GT11" s="0"/>
+      <c r="GU11" s="0"/>
+      <c r="GV11" s="0"/>
+      <c r="GW11" s="0"/>
+      <c r="GX11" s="0"/>
+      <c r="GY11" s="0"/>
+      <c r="GZ11" s="0"/>
+      <c r="HA11" s="0"/>
+      <c r="HB11" s="0"/>
+      <c r="HC11" s="0"/>
+      <c r="HD11" s="0"/>
+      <c r="HE11" s="0"/>
+      <c r="HF11" s="0"/>
+      <c r="HG11" s="0"/>
+      <c r="HH11" s="0"/>
+      <c r="HI11" s="0"/>
+      <c r="HJ11" s="0"/>
+      <c r="HK11" s="0"/>
+      <c r="HL11" s="0"/>
+      <c r="HM11" s="0"/>
+      <c r="HN11" s="0"/>
+      <c r="HO11" s="0"/>
+      <c r="HP11" s="0"/>
+      <c r="HQ11" s="0"/>
+      <c r="HR11" s="0"/>
+      <c r="HS11" s="0"/>
+      <c r="HT11" s="0"/>
+      <c r="HU11" s="0"/>
+      <c r="HV11" s="0"/>
+      <c r="HW11" s="0"/>
+      <c r="HX11" s="0"/>
+      <c r="HY11" s="0"/>
+      <c r="HZ11" s="0"/>
+      <c r="IA11" s="0"/>
+      <c r="IB11" s="0"/>
+      <c r="IC11" s="0"/>
+      <c r="ID11" s="0"/>
+      <c r="IE11" s="0"/>
+      <c r="IF11" s="0"/>
+      <c r="IG11" s="0"/>
+      <c r="IH11" s="0"/>
+      <c r="II11" s="0"/>
+      <c r="IJ11" s="0"/>
+      <c r="IK11" s="0"/>
+      <c r="IL11" s="0"/>
+      <c r="IM11" s="0"/>
+      <c r="IN11" s="0"/>
+      <c r="IO11" s="0"/>
+      <c r="IP11" s="0"/>
+      <c r="IQ11" s="0"/>
+      <c r="IR11" s="0"/>
+      <c r="IS11" s="0"/>
+      <c r="IT11" s="0"/>
+      <c r="IU11" s="0"/>
+      <c r="IV11" s="0"/>
+      <c r="IW11" s="0"/>
+      <c r="IX11" s="0"/>
+      <c r="IY11" s="0"/>
+      <c r="IZ11" s="0"/>
+      <c r="JA11" s="0"/>
+      <c r="JB11" s="0"/>
+      <c r="JC11" s="0"/>
+      <c r="JD11" s="0"/>
+      <c r="JE11" s="0"/>
+      <c r="JF11" s="0"/>
+      <c r="JG11" s="0"/>
+      <c r="JH11" s="0"/>
+      <c r="JI11" s="0"/>
+      <c r="JJ11" s="0"/>
+      <c r="JK11" s="0"/>
+      <c r="JL11" s="0"/>
+      <c r="JM11" s="0"/>
+      <c r="JN11" s="0"/>
+      <c r="JO11" s="0"/>
+      <c r="JP11" s="0"/>
+      <c r="JQ11" s="0"/>
+      <c r="JR11" s="0"/>
+      <c r="JS11" s="0"/>
+      <c r="JT11" s="0"/>
+      <c r="JU11" s="0"/>
+      <c r="JV11" s="0"/>
+      <c r="JW11" s="0"/>
+      <c r="JX11" s="0"/>
+      <c r="JY11" s="0"/>
+      <c r="JZ11" s="0"/>
+      <c r="KA11" s="0"/>
+      <c r="KB11" s="0"/>
+      <c r="KC11" s="0"/>
+      <c r="KD11" s="0"/>
+      <c r="KE11" s="0"/>
+      <c r="KF11" s="0"/>
+      <c r="KG11" s="0"/>
+      <c r="KH11" s="0"/>
+      <c r="KI11" s="0"/>
+      <c r="KJ11" s="0"/>
+      <c r="KK11" s="0"/>
+      <c r="KL11" s="0"/>
+      <c r="KM11" s="0"/>
+      <c r="KN11" s="0"/>
+      <c r="KO11" s="0"/>
+      <c r="KP11" s="0"/>
+      <c r="KQ11" s="0"/>
+      <c r="KR11" s="0"/>
+      <c r="KS11" s="0"/>
+      <c r="KT11" s="0"/>
+      <c r="KU11" s="0"/>
+      <c r="KV11" s="0"/>
+      <c r="KW11" s="0"/>
+      <c r="KX11" s="0"/>
+      <c r="KY11" s="0"/>
+      <c r="KZ11" s="0"/>
+      <c r="LA11" s="0"/>
+      <c r="LB11" s="0"/>
+      <c r="LC11" s="0"/>
+      <c r="LD11" s="0"/>
+      <c r="LE11" s="0"/>
+      <c r="LF11" s="0"/>
+      <c r="LG11" s="0"/>
+      <c r="LH11" s="0"/>
+      <c r="LI11" s="0"/>
+      <c r="LJ11" s="0"/>
+      <c r="LK11" s="0"/>
+      <c r="LL11" s="0"/>
+      <c r="LM11" s="0"/>
+      <c r="LN11" s="0"/>
+      <c r="LO11" s="0"/>
+      <c r="LP11" s="0"/>
+      <c r="LQ11" s="0"/>
+      <c r="LR11" s="0"/>
+      <c r="LS11" s="0"/>
+      <c r="LT11" s="0"/>
+      <c r="LU11" s="0"/>
+      <c r="LV11" s="0"/>
+      <c r="LW11" s="0"/>
+      <c r="LX11" s="0"/>
+      <c r="LY11" s="0"/>
+      <c r="LZ11" s="0"/>
+      <c r="MA11" s="0"/>
+      <c r="MB11" s="0"/>
+      <c r="MC11" s="0"/>
+      <c r="MD11" s="0"/>
+      <c r="ME11" s="0"/>
+      <c r="MF11" s="0"/>
+      <c r="MG11" s="0"/>
+      <c r="MH11" s="0"/>
+      <c r="MI11" s="0"/>
+      <c r="MJ11" s="0"/>
+      <c r="MK11" s="0"/>
+      <c r="ML11" s="0"/>
+      <c r="MM11" s="0"/>
+      <c r="MN11" s="0"/>
+      <c r="MO11" s="0"/>
+      <c r="MP11" s="0"/>
+      <c r="MQ11" s="0"/>
+      <c r="MR11" s="0"/>
+      <c r="MS11" s="0"/>
+      <c r="MT11" s="0"/>
+      <c r="MU11" s="0"/>
+      <c r="MV11" s="0"/>
+      <c r="MW11" s="0"/>
+      <c r="MX11" s="0"/>
+      <c r="MY11" s="0"/>
+      <c r="MZ11" s="0"/>
+      <c r="NA11" s="0"/>
+      <c r="NB11" s="0"/>
+      <c r="NC11" s="0"/>
+      <c r="ND11" s="0"/>
+      <c r="NE11" s="0"/>
+      <c r="NF11" s="0"/>
+      <c r="NG11" s="0"/>
+      <c r="NH11" s="0"/>
+      <c r="NI11" s="0"/>
+      <c r="NJ11" s="0"/>
+      <c r="NK11" s="0"/>
+      <c r="NL11" s="0"/>
+      <c r="NM11" s="0"/>
+      <c r="NN11" s="0"/>
+      <c r="NO11" s="0"/>
+      <c r="NP11" s="0"/>
+      <c r="NQ11" s="0"/>
+      <c r="NR11" s="0"/>
+      <c r="NS11" s="0"/>
+      <c r="NT11" s="0"/>
+      <c r="NU11" s="0"/>
+      <c r="NV11" s="0"/>
+      <c r="NW11" s="0"/>
+      <c r="NX11" s="0"/>
+      <c r="NY11" s="0"/>
+      <c r="NZ11" s="0"/>
+      <c r="OA11" s="0"/>
+      <c r="OB11" s="0"/>
+      <c r="OC11" s="0"/>
+      <c r="OD11" s="0"/>
+      <c r="OE11" s="0"/>
+      <c r="OF11" s="0"/>
+      <c r="OG11" s="0"/>
+      <c r="OH11" s="0"/>
+      <c r="OI11" s="0"/>
+      <c r="OJ11" s="0"/>
+      <c r="OK11" s="0"/>
+      <c r="OL11" s="0"/>
+      <c r="OM11" s="0"/>
+      <c r="ON11" s="0"/>
+      <c r="OO11" s="0"/>
+      <c r="OP11" s="0"/>
+      <c r="OQ11" s="0"/>
+      <c r="OR11" s="0"/>
+      <c r="OS11" s="0"/>
+      <c r="OT11" s="0"/>
+      <c r="OU11" s="0"/>
+      <c r="OV11" s="0"/>
+      <c r="OW11" s="0"/>
+      <c r="OX11" s="0"/>
+      <c r="OY11" s="0"/>
+      <c r="OZ11" s="0"/>
+      <c r="PA11" s="0"/>
+      <c r="PB11" s="0"/>
+      <c r="PC11" s="0"/>
+      <c r="PD11" s="0"/>
+      <c r="PE11" s="0"/>
+      <c r="PF11" s="0"/>
+      <c r="PG11" s="0"/>
+      <c r="PH11" s="0"/>
+      <c r="PI11" s="0"/>
+      <c r="PJ11" s="0"/>
+      <c r="PK11" s="0"/>
+      <c r="PL11" s="0"/>
+      <c r="PM11" s="0"/>
+      <c r="PN11" s="0"/>
+      <c r="PO11" s="0"/>
+      <c r="PP11" s="0"/>
+      <c r="PQ11" s="0"/>
+      <c r="PR11" s="0"/>
+      <c r="PS11" s="0"/>
+      <c r="PT11" s="0"/>
+      <c r="PU11" s="0"/>
+      <c r="PV11" s="0"/>
+      <c r="PW11" s="0"/>
+      <c r="PX11" s="0"/>
+      <c r="PY11" s="0"/>
+      <c r="PZ11" s="0"/>
+      <c r="QA11" s="0"/>
+      <c r="QB11" s="0"/>
+      <c r="QC11" s="0"/>
+      <c r="QD11" s="0"/>
+      <c r="QE11" s="0"/>
+      <c r="QF11" s="0"/>
+      <c r="QG11" s="0"/>
+      <c r="QH11" s="0"/>
+      <c r="QI11" s="0"/>
+      <c r="QJ11" s="0"/>
+      <c r="QK11" s="0"/>
+      <c r="QL11" s="0"/>
+      <c r="QM11" s="0"/>
+      <c r="QN11" s="0"/>
+      <c r="QO11" s="0"/>
+      <c r="QP11" s="0"/>
+      <c r="QQ11" s="0"/>
+      <c r="QR11" s="0"/>
+      <c r="QS11" s="0"/>
+      <c r="QT11" s="0"/>
+      <c r="QU11" s="0"/>
+      <c r="QV11" s="0"/>
+      <c r="QW11" s="0"/>
+      <c r="QX11" s="0"/>
+      <c r="QY11" s="0"/>
+      <c r="QZ11" s="0"/>
+      <c r="RA11" s="0"/>
+      <c r="RB11" s="0"/>
+      <c r="RC11" s="0"/>
+      <c r="RD11" s="0"/>
+      <c r="RE11" s="0"/>
+      <c r="RF11" s="0"/>
+      <c r="RG11" s="0"/>
+      <c r="RH11" s="0"/>
+      <c r="RI11" s="0"/>
+      <c r="RJ11" s="0"/>
+      <c r="RK11" s="0"/>
+      <c r="RL11" s="0"/>
+      <c r="RM11" s="0"/>
+      <c r="RN11" s="0"/>
+      <c r="RO11" s="0"/>
+      <c r="RP11" s="0"/>
+      <c r="RQ11" s="0"/>
+      <c r="RR11" s="0"/>
+      <c r="RS11" s="0"/>
+      <c r="RT11" s="0"/>
+      <c r="RU11" s="0"/>
+      <c r="RV11" s="0"/>
+      <c r="RW11" s="0"/>
+      <c r="RX11" s="0"/>
+      <c r="RY11" s="0"/>
+      <c r="RZ11" s="0"/>
+      <c r="SA11" s="0"/>
+      <c r="SB11" s="0"/>
+      <c r="SC11" s="0"/>
+      <c r="SD11" s="0"/>
+      <c r="SE11" s="0"/>
+      <c r="SF11" s="0"/>
+      <c r="SG11" s="0"/>
+      <c r="SH11" s="0"/>
+      <c r="SI11" s="0"/>
+      <c r="SJ11" s="0"/>
+      <c r="SK11" s="0"/>
+      <c r="SL11" s="0"/>
+      <c r="SM11" s="0"/>
+      <c r="SN11" s="0"/>
+      <c r="SO11" s="0"/>
+      <c r="SP11" s="0"/>
+      <c r="SQ11" s="0"/>
+      <c r="SR11" s="0"/>
+      <c r="SS11" s="0"/>
+      <c r="ST11" s="0"/>
+      <c r="SU11" s="0"/>
+      <c r="SV11" s="0"/>
+      <c r="SW11" s="0"/>
+      <c r="SX11" s="0"/>
+      <c r="SY11" s="0"/>
+      <c r="SZ11" s="0"/>
+      <c r="TA11" s="0"/>
+      <c r="TB11" s="0"/>
+      <c r="TC11" s="0"/>
+      <c r="TD11" s="0"/>
+      <c r="TE11" s="0"/>
+      <c r="TF11" s="0"/>
+      <c r="TG11" s="0"/>
+      <c r="TH11" s="0"/>
+      <c r="TI11" s="0"/>
+      <c r="TJ11" s="0"/>
+      <c r="TK11" s="0"/>
+      <c r="TL11" s="0"/>
+      <c r="TM11" s="0"/>
+      <c r="TN11" s="0"/>
+      <c r="TO11" s="0"/>
+      <c r="TP11" s="0"/>
+      <c r="TQ11" s="0"/>
+      <c r="TR11" s="0"/>
+      <c r="TS11" s="0"/>
+      <c r="TT11" s="0"/>
+      <c r="TU11" s="0"/>
+      <c r="TV11" s="0"/>
+      <c r="TW11" s="0"/>
+      <c r="TX11" s="0"/>
+      <c r="TY11" s="0"/>
+      <c r="TZ11" s="0"/>
+      <c r="UA11" s="0"/>
+      <c r="UB11" s="0"/>
+      <c r="UC11" s="0"/>
+      <c r="UD11" s="0"/>
+      <c r="UE11" s="0"/>
+      <c r="UF11" s="0"/>
+      <c r="UG11" s="0"/>
+      <c r="UH11" s="0"/>
+      <c r="UI11" s="0"/>
+      <c r="UJ11" s="0"/>
+      <c r="UK11" s="0"/>
+      <c r="UL11" s="0"/>
+      <c r="UM11" s="0"/>
+      <c r="UN11" s="0"/>
+      <c r="UO11" s="0"/>
+      <c r="UP11" s="0"/>
+      <c r="UQ11" s="0"/>
+      <c r="UR11" s="0"/>
+      <c r="US11" s="0"/>
+      <c r="UT11" s="0"/>
+      <c r="UU11" s="0"/>
+      <c r="UV11" s="0"/>
+      <c r="UW11" s="0"/>
+      <c r="UX11" s="0"/>
+      <c r="UY11" s="0"/>
+      <c r="UZ11" s="0"/>
+      <c r="VA11" s="0"/>
+      <c r="VB11" s="0"/>
+      <c r="VC11" s="0"/>
+      <c r="VD11" s="0"/>
+      <c r="VE11" s="0"/>
+      <c r="VF11" s="0"/>
+      <c r="VG11" s="0"/>
+      <c r="VH11" s="0"/>
+      <c r="VI11" s="0"/>
+      <c r="VJ11" s="0"/>
+      <c r="VK11" s="0"/>
+      <c r="VL11" s="0"/>
+      <c r="VM11" s="0"/>
+      <c r="VN11" s="0"/>
+      <c r="VO11" s="0"/>
+      <c r="VP11" s="0"/>
+      <c r="VQ11" s="0"/>
+      <c r="VR11" s="0"/>
+      <c r="VS11" s="0"/>
+      <c r="VT11" s="0"/>
+      <c r="VU11" s="0"/>
+      <c r="VV11" s="0"/>
+      <c r="VW11" s="0"/>
+      <c r="VX11" s="0"/>
+      <c r="VY11" s="0"/>
+      <c r="VZ11" s="0"/>
+      <c r="WA11" s="0"/>
+      <c r="WB11" s="0"/>
+      <c r="WC11" s="0"/>
+      <c r="WD11" s="0"/>
+      <c r="WE11" s="0"/>
+      <c r="WF11" s="0"/>
+      <c r="WG11" s="0"/>
+      <c r="WH11" s="0"/>
+      <c r="WI11" s="0"/>
+      <c r="WJ11" s="0"/>
+      <c r="WK11" s="0"/>
+      <c r="WL11" s="0"/>
+      <c r="WM11" s="0"/>
+      <c r="WN11" s="0"/>
+      <c r="WO11" s="0"/>
+      <c r="WP11" s="0"/>
+      <c r="WQ11" s="0"/>
+      <c r="WR11" s="0"/>
+      <c r="WS11" s="0"/>
+      <c r="WT11" s="0"/>
+      <c r="WU11" s="0"/>
+      <c r="WV11" s="0"/>
+      <c r="WW11" s="0"/>
+      <c r="WX11" s="0"/>
+      <c r="WY11" s="0"/>
+      <c r="WZ11" s="0"/>
+      <c r="XA11" s="0"/>
+      <c r="XB11" s="0"/>
+      <c r="XC11" s="0"/>
+      <c r="XD11" s="0"/>
+      <c r="XE11" s="0"/>
+      <c r="XF11" s="0"/>
+      <c r="XG11" s="0"/>
+      <c r="XH11" s="0"/>
+      <c r="XI11" s="0"/>
+      <c r="XJ11" s="0"/>
+      <c r="XK11" s="0"/>
+      <c r="XL11" s="0"/>
+      <c r="XM11" s="0"/>
+      <c r="XN11" s="0"/>
+      <c r="XO11" s="0"/>
+      <c r="XP11" s="0"/>
+      <c r="XQ11" s="0"/>
+      <c r="XR11" s="0"/>
+      <c r="XS11" s="0"/>
+      <c r="XT11" s="0"/>
+      <c r="XU11" s="0"/>
+      <c r="XV11" s="0"/>
+      <c r="XW11" s="0"/>
+      <c r="XX11" s="0"/>
+      <c r="XY11" s="0"/>
+      <c r="XZ11" s="0"/>
+      <c r="YA11" s="0"/>
+      <c r="YB11" s="0"/>
+      <c r="YC11" s="0"/>
+      <c r="YD11" s="0"/>
+      <c r="YE11" s="0"/>
+      <c r="YF11" s="0"/>
+      <c r="YG11" s="0"/>
+      <c r="YH11" s="0"/>
+      <c r="YI11" s="0"/>
+      <c r="YJ11" s="0"/>
+      <c r="YK11" s="0"/>
+      <c r="YL11" s="0"/>
+      <c r="YM11" s="0"/>
+      <c r="YN11" s="0"/>
+      <c r="YO11" s="0"/>
+      <c r="YP11" s="0"/>
+      <c r="YQ11" s="0"/>
+      <c r="YR11" s="0"/>
+      <c r="YS11" s="0"/>
+      <c r="YT11" s="0"/>
+      <c r="YU11" s="0"/>
+      <c r="YV11" s="0"/>
+      <c r="YW11" s="0"/>
+      <c r="YX11" s="0"/>
+      <c r="YY11" s="0"/>
+      <c r="YZ11" s="0"/>
+      <c r="ZA11" s="0"/>
+      <c r="ZB11" s="0"/>
+      <c r="ZC11" s="0"/>
+      <c r="ZD11" s="0"/>
+      <c r="ZE11" s="0"/>
+      <c r="ZF11" s="0"/>
+      <c r="ZG11" s="0"/>
+      <c r="ZH11" s="0"/>
+      <c r="ZI11" s="0"/>
+      <c r="ZJ11" s="0"/>
+      <c r="ZK11" s="0"/>
+      <c r="ZL11" s="0"/>
+      <c r="ZM11" s="0"/>
+      <c r="ZN11" s="0"/>
+      <c r="ZO11" s="0"/>
+      <c r="ZP11" s="0"/>
+      <c r="ZQ11" s="0"/>
+      <c r="ZR11" s="0"/>
+      <c r="ZS11" s="0"/>
+      <c r="ZT11" s="0"/>
+      <c r="ZU11" s="0"/>
+      <c r="ZV11" s="0"/>
+      <c r="ZW11" s="0"/>
+      <c r="ZX11" s="0"/>
+      <c r="ZY11" s="0"/>
+      <c r="ZZ11" s="0"/>
+      <c r="AAA11" s="0"/>
+      <c r="AAB11" s="0"/>
+      <c r="AAC11" s="0"/>
+      <c r="AAD11" s="0"/>
+      <c r="AAE11" s="0"/>
+      <c r="AAF11" s="0"/>
+      <c r="AAG11" s="0"/>
+      <c r="AAH11" s="0"/>
+      <c r="AAI11" s="0"/>
+      <c r="AAJ11" s="0"/>
+      <c r="AAK11" s="0"/>
+      <c r="AAL11" s="0"/>
+      <c r="AAM11" s="0"/>
+      <c r="AAN11" s="0"/>
+      <c r="AAO11" s="0"/>
+      <c r="AAP11" s="0"/>
+      <c r="AAQ11" s="0"/>
+      <c r="AAR11" s="0"/>
+      <c r="AAS11" s="0"/>
+      <c r="AAT11" s="0"/>
+      <c r="AAU11" s="0"/>
+      <c r="AAV11" s="0"/>
+      <c r="AAW11" s="0"/>
+      <c r="AAX11" s="0"/>
+      <c r="AAY11" s="0"/>
+      <c r="AAZ11" s="0"/>
+      <c r="ABA11" s="0"/>
+      <c r="ABB11" s="0"/>
+      <c r="ABC11" s="0"/>
+      <c r="ABD11" s="0"/>
+      <c r="ABE11" s="0"/>
+      <c r="ABF11" s="0"/>
+      <c r="ABG11" s="0"/>
+      <c r="ABH11" s="0"/>
+      <c r="ABI11" s="0"/>
+      <c r="ABJ11" s="0"/>
+      <c r="ABK11" s="0"/>
+      <c r="ABL11" s="0"/>
+      <c r="ABM11" s="0"/>
+      <c r="ABN11" s="0"/>
+      <c r="ABO11" s="0"/>
+      <c r="ABP11" s="0"/>
+      <c r="ABQ11" s="0"/>
+      <c r="ABR11" s="0"/>
+      <c r="ABS11" s="0"/>
+      <c r="ABT11" s="0"/>
+      <c r="ABU11" s="0"/>
+      <c r="ABV11" s="0"/>
+      <c r="ABW11" s="0"/>
+      <c r="ABX11" s="0"/>
+      <c r="ABY11" s="0"/>
+      <c r="ABZ11" s="0"/>
+      <c r="ACA11" s="0"/>
+      <c r="ACB11" s="0"/>
+      <c r="ACC11" s="0"/>
+      <c r="ACD11" s="0"/>
+      <c r="ACE11" s="0"/>
+      <c r="ACF11" s="0"/>
+      <c r="ACG11" s="0"/>
+      <c r="ACH11" s="0"/>
+      <c r="ACI11" s="0"/>
+      <c r="ACJ11" s="0"/>
+      <c r="ACK11" s="0"/>
+      <c r="ACL11" s="0"/>
+      <c r="ACM11" s="0"/>
+      <c r="ACN11" s="0"/>
+      <c r="ACO11" s="0"/>
+      <c r="ACP11" s="0"/>
+      <c r="ACQ11" s="0"/>
+      <c r="ACR11" s="0"/>
+      <c r="ACS11" s="0"/>
+      <c r="ACT11" s="0"/>
+      <c r="ACU11" s="0"/>
+      <c r="ACV11" s="0"/>
+      <c r="ACW11" s="0"/>
+      <c r="ACX11" s="0"/>
+      <c r="ACY11" s="0"/>
+      <c r="ACZ11" s="0"/>
+      <c r="ADA11" s="0"/>
+      <c r="ADB11" s="0"/>
+      <c r="ADC11" s="0"/>
+      <c r="ADD11" s="0"/>
+      <c r="ADE11" s="0"/>
+      <c r="ADF11" s="0"/>
+      <c r="ADG11" s="0"/>
+      <c r="ADH11" s="0"/>
+      <c r="ADI11" s="0"/>
+      <c r="ADJ11" s="0"/>
+      <c r="ADK11" s="0"/>
+      <c r="ADL11" s="0"/>
+      <c r="ADM11" s="0"/>
+      <c r="ADN11" s="0"/>
+      <c r="ADO11" s="0"/>
+      <c r="ADP11" s="0"/>
+      <c r="ADQ11" s="0"/>
+      <c r="ADR11" s="0"/>
+      <c r="ADS11" s="0"/>
+      <c r="ADT11" s="0"/>
+      <c r="ADU11" s="0"/>
+      <c r="ADV11" s="0"/>
+      <c r="ADW11" s="0"/>
+      <c r="ADX11" s="0"/>
+      <c r="ADY11" s="0"/>
+      <c r="ADZ11" s="0"/>
+      <c r="AEA11" s="0"/>
+      <c r="AEB11" s="0"/>
+      <c r="AEC11" s="0"/>
+      <c r="AED11" s="0"/>
+      <c r="AEE11" s="0"/>
+      <c r="AEF11" s="0"/>
+      <c r="AEG11" s="0"/>
+      <c r="AEH11" s="0"/>
+      <c r="AEI11" s="0"/>
+      <c r="AEJ11" s="0"/>
+      <c r="AEK11" s="0"/>
+      <c r="AEL11" s="0"/>
+      <c r="AEM11" s="0"/>
+      <c r="AEN11" s="0"/>
+      <c r="AEO11" s="0"/>
+      <c r="AEP11" s="0"/>
+      <c r="AEQ11" s="0"/>
+      <c r="AER11" s="0"/>
+      <c r="AES11" s="0"/>
+      <c r="AET11" s="0"/>
+      <c r="AEU11" s="0"/>
+      <c r="AEV11" s="0"/>
+      <c r="AEW11" s="0"/>
+      <c r="AEX11" s="0"/>
+      <c r="AEY11" s="0"/>
+      <c r="AEZ11" s="0"/>
+      <c r="AFA11" s="0"/>
+      <c r="AFB11" s="0"/>
+      <c r="AFC11" s="0"/>
+      <c r="AFD11" s="0"/>
+      <c r="AFE11" s="0"/>
+      <c r="AFF11" s="0"/>
+      <c r="AFG11" s="0"/>
+      <c r="AFH11" s="0"/>
+      <c r="AFI11" s="0"/>
+      <c r="AFJ11" s="0"/>
+      <c r="AFK11" s="0"/>
+      <c r="AFL11" s="0"/>
+      <c r="AFM11" s="0"/>
+      <c r="AFN11" s="0"/>
+      <c r="AFO11" s="0"/>
+      <c r="AFP11" s="0"/>
+      <c r="AFQ11" s="0"/>
+      <c r="AFR11" s="0"/>
+      <c r="AFS11" s="0"/>
+      <c r="AFT11" s="0"/>
+      <c r="AFU11" s="0"/>
+      <c r="AFV11" s="0"/>
+      <c r="AFW11" s="0"/>
+      <c r="AFX11" s="0"/>
+      <c r="AFY11" s="0"/>
+      <c r="AFZ11" s="0"/>
+      <c r="AGA11" s="0"/>
+      <c r="AGB11" s="0"/>
+      <c r="AGC11" s="0"/>
+      <c r="AGD11" s="0"/>
+      <c r="AGE11" s="0"/>
+      <c r="AGF11" s="0"/>
+      <c r="AGG11" s="0"/>
+      <c r="AGH11" s="0"/>
+      <c r="AGI11" s="0"/>
+      <c r="AGJ11" s="0"/>
+      <c r="AGK11" s="0"/>
+      <c r="AGL11" s="0"/>
+      <c r="AGM11" s="0"/>
+      <c r="AGN11" s="0"/>
+      <c r="AGO11" s="0"/>
+      <c r="AGP11" s="0"/>
+      <c r="AGQ11" s="0"/>
+      <c r="AGR11" s="0"/>
+      <c r="AGS11" s="0"/>
+      <c r="AGT11" s="0"/>
+      <c r="AGU11" s="0"/>
+      <c r="AGV11" s="0"/>
+      <c r="AGW11" s="0"/>
+      <c r="AGX11" s="0"/>
+      <c r="AGY11" s="0"/>
+      <c r="AGZ11" s="0"/>
+      <c r="AHA11" s="0"/>
+      <c r="AHB11" s="0"/>
+      <c r="AHC11" s="0"/>
+      <c r="AHD11" s="0"/>
+      <c r="AHE11" s="0"/>
+      <c r="AHF11" s="0"/>
+      <c r="AHG11" s="0"/>
+      <c r="AHH11" s="0"/>
+      <c r="AHI11" s="0"/>
+      <c r="AHJ11" s="0"/>
+      <c r="AHK11" s="0"/>
+      <c r="AHL11" s="0"/>
+      <c r="AHM11" s="0"/>
+      <c r="AHN11" s="0"/>
+      <c r="AHO11" s="0"/>
+      <c r="AHP11" s="0"/>
+      <c r="AHQ11" s="0"/>
+      <c r="AHR11" s="0"/>
+      <c r="AHS11" s="0"/>
+      <c r="AHT11" s="0"/>
+      <c r="AHU11" s="0"/>
+      <c r="AHV11" s="0"/>
+      <c r="AHW11" s="0"/>
+      <c r="AHX11" s="0"/>
+      <c r="AHY11" s="0"/>
+      <c r="AHZ11" s="0"/>
+      <c r="AIA11" s="0"/>
+      <c r="AIB11" s="0"/>
+      <c r="AIC11" s="0"/>
+      <c r="AID11" s="0"/>
+      <c r="AIE11" s="0"/>
+      <c r="AIF11" s="0"/>
+      <c r="AIG11" s="0"/>
+      <c r="AIH11" s="0"/>
+      <c r="AII11" s="0"/>
+      <c r="AIJ11" s="0"/>
+      <c r="AIK11" s="0"/>
+      <c r="AIL11" s="0"/>
+      <c r="AIM11" s="0"/>
+      <c r="AIN11" s="0"/>
+      <c r="AIO11" s="0"/>
+      <c r="AIP11" s="0"/>
+      <c r="AIQ11" s="0"/>
+      <c r="AIR11" s="0"/>
+      <c r="AIS11" s="0"/>
+      <c r="AIT11" s="0"/>
+      <c r="AIU11" s="0"/>
+      <c r="AIV11" s="0"/>
+      <c r="AIW11" s="0"/>
+      <c r="AIX11" s="0"/>
+      <c r="AIY11" s="0"/>
+      <c r="AIZ11" s="0"/>
+      <c r="AJA11" s="0"/>
+      <c r="AJB11" s="0"/>
+      <c r="AJC11" s="0"/>
+      <c r="AJD11" s="0"/>
+      <c r="AJE11" s="0"/>
+      <c r="AJF11" s="0"/>
+      <c r="AJG11" s="0"/>
+      <c r="AJH11" s="0"/>
+      <c r="AJI11" s="0"/>
+      <c r="AJJ11" s="0"/>
+      <c r="AJK11" s="0"/>
+      <c r="AJL11" s="0"/>
+      <c r="AJM11" s="0"/>
+      <c r="AJN11" s="0"/>
+      <c r="AJO11" s="0"/>
+      <c r="AJP11" s="0"/>
+      <c r="AJQ11" s="0"/>
+      <c r="AJR11" s="0"/>
+      <c r="AJS11" s="0"/>
+      <c r="AJT11" s="0"/>
+      <c r="AJU11" s="0"/>
+      <c r="AJV11" s="0"/>
+      <c r="AJW11" s="0"/>
+      <c r="AJX11" s="0"/>
+      <c r="AJY11" s="0"/>
+      <c r="AJZ11" s="0"/>
+      <c r="AKA11" s="0"/>
+      <c r="AKB11" s="0"/>
+      <c r="AKC11" s="0"/>
+      <c r="AKD11" s="0"/>
+      <c r="AKE11" s="0"/>
+      <c r="AKF11" s="0"/>
+      <c r="AKG11" s="0"/>
+      <c r="AKH11" s="0"/>
+      <c r="AKI11" s="0"/>
+      <c r="AKJ11" s="0"/>
+      <c r="AKK11" s="0"/>
+      <c r="AKL11" s="0"/>
+      <c r="AKM11" s="0"/>
+      <c r="AKN11" s="0"/>
+      <c r="AKO11" s="0"/>
+      <c r="AKP11" s="0"/>
+      <c r="AKQ11" s="0"/>
+      <c r="AKR11" s="0"/>
+      <c r="AKS11" s="0"/>
+      <c r="AKT11" s="0"/>
+      <c r="AKU11" s="0"/>
+      <c r="AKV11" s="0"/>
+      <c r="AKW11" s="0"/>
+      <c r="AKX11" s="0"/>
+      <c r="AKY11" s="0"/>
+      <c r="AKZ11" s="0"/>
+      <c r="ALA11" s="0"/>
+      <c r="ALB11" s="0"/>
+      <c r="ALC11" s="0"/>
+      <c r="ALD11" s="0"/>
+      <c r="ALE11" s="0"/>
+      <c r="ALF11" s="0"/>
+      <c r="ALG11" s="0"/>
+      <c r="ALH11" s="0"/>
+      <c r="ALI11" s="0"/>
+      <c r="ALJ11" s="0"/>
+      <c r="ALK11" s="0"/>
+      <c r="ALL11" s="0"/>
+      <c r="ALM11" s="0"/>
+      <c r="ALN11" s="0"/>
+      <c r="ALO11" s="0"/>
+      <c r="ALP11" s="0"/>
+      <c r="ALQ11" s="0"/>
+      <c r="ALR11" s="0"/>
+      <c r="ALS11" s="0"/>
+      <c r="ALT11" s="0"/>
+      <c r="ALU11" s="0"/>
+      <c r="ALV11" s="0"/>
+      <c r="ALW11" s="0"/>
+      <c r="ALX11" s="0"/>
+      <c r="ALY11" s="0"/>
+      <c r="ALZ11" s="0"/>
+      <c r="AMA11" s="0"/>
+      <c r="AMB11" s="0"/>
+      <c r="AMC11" s="0"/>
+      <c r="AMD11" s="0"/>
+      <c r="AME11" s="0"/>
+      <c r="AMF11" s="0"/>
+      <c r="AMG11" s="0"/>
+      <c r="AMH11" s="0"/>
+      <c r="AMI11" s="0"/>
+      <c r="AMJ11" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="12">
       <c r="A12" s="1" t="n">
-        <v>62069</v>
+        <v>47066</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="26" t="n">
+        <v>31239</v>
+      </c>
+      <c r="I12" s="26" t="n">
+        <v>31239</v>
+      </c>
+      <c r="J12" s="26" t="n">
+        <v>41953</v>
+      </c>
+      <c r="K12" s="24" t="n">
+        <v>42</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="24" t="n">
-        <v>40610</v>
-      </c>
-      <c r="I12" s="24" t="n">
-        <v>40610</v>
-      </c>
-      <c r="J12" s="24" t="n">
-        <v>42436</v>
-      </c>
-      <c r="K12" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>55</v>
+      <c r="M12" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="N12" s="0" t="s">
         <v>27</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>58</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="R12" s="0"/>
+      <c r="S12" s="0"/>
+      <c r="T12" s="0"/>
+      <c r="U12" s="0"/>
+      <c r="V12" s="0"/>
+      <c r="W12" s="0"/>
+      <c r="X12" s="0"/>
+      <c r="Y12" s="0"/>
+      <c r="Z12" s="0"/>
+      <c r="AA12" s="0"/>
+      <c r="AB12" s="0"/>
+      <c r="AC12" s="0"/>
+      <c r="AD12" s="0"/>
+      <c r="AE12" s="0"/>
+      <c r="AF12" s="0"/>
+      <c r="AG12" s="0"/>
+      <c r="AH12" s="0"/>
+      <c r="AI12" s="0"/>
+      <c r="AJ12" s="0"/>
+      <c r="AK12" s="0"/>
+      <c r="AL12" s="0"/>
+      <c r="AM12" s="0"/>
+      <c r="AN12" s="0"/>
+      <c r="AO12" s="0"/>
+      <c r="AP12" s="0"/>
+      <c r="AQ12" s="0"/>
+      <c r="AR12" s="0"/>
+      <c r="AS12" s="0"/>
+      <c r="AT12" s="0"/>
+      <c r="AU12" s="0"/>
+      <c r="AV12" s="0"/>
+      <c r="AW12" s="0"/>
+      <c r="AX12" s="0"/>
+      <c r="AY12" s="0"/>
+      <c r="AZ12" s="0"/>
+      <c r="BA12" s="0"/>
+      <c r="BB12" s="0"/>
+      <c r="BC12" s="0"/>
+      <c r="BD12" s="0"/>
+      <c r="BE12" s="0"/>
+      <c r="BF12" s="0"/>
+      <c r="BG12" s="0"/>
+      <c r="BH12" s="0"/>
+      <c r="BI12" s="0"/>
+      <c r="BJ12" s="0"/>
+      <c r="BK12" s="0"/>
+      <c r="BL12" s="0"/>
+      <c r="BM12" s="0"/>
+      <c r="BN12" s="0"/>
+      <c r="BO12" s="0"/>
+      <c r="BP12" s="0"/>
+      <c r="BQ12" s="0"/>
+      <c r="BR12" s="0"/>
+      <c r="BS12" s="0"/>
+      <c r="BT12" s="0"/>
+      <c r="BU12" s="0"/>
+      <c r="BV12" s="0"/>
+      <c r="BW12" s="0"/>
+      <c r="BX12" s="0"/>
+      <c r="BY12" s="0"/>
+      <c r="BZ12" s="0"/>
+      <c r="CA12" s="0"/>
+      <c r="CB12" s="0"/>
+      <c r="CC12" s="0"/>
+      <c r="CD12" s="0"/>
+      <c r="CE12" s="0"/>
+      <c r="CF12" s="0"/>
+      <c r="CG12" s="0"/>
+      <c r="CH12" s="0"/>
+      <c r="CI12" s="0"/>
+      <c r="CJ12" s="0"/>
+      <c r="CK12" s="0"/>
+      <c r="CL12" s="0"/>
+      <c r="CM12" s="0"/>
+      <c r="CN12" s="0"/>
+      <c r="CO12" s="0"/>
+      <c r="CP12" s="0"/>
+      <c r="CQ12" s="0"/>
+      <c r="CR12" s="0"/>
+      <c r="CS12" s="0"/>
+      <c r="CT12" s="0"/>
+      <c r="CU12" s="0"/>
+      <c r="CV12" s="0"/>
+      <c r="CW12" s="0"/>
+      <c r="CX12" s="0"/>
+      <c r="CY12" s="0"/>
+      <c r="CZ12" s="0"/>
+      <c r="DA12" s="0"/>
+      <c r="DB12" s="0"/>
+      <c r="DC12" s="0"/>
+      <c r="DD12" s="0"/>
+      <c r="DE12" s="0"/>
+      <c r="DF12" s="0"/>
+      <c r="DG12" s="0"/>
+      <c r="DH12" s="0"/>
+      <c r="DI12" s="0"/>
+      <c r="DJ12" s="0"/>
+      <c r="DK12" s="0"/>
+      <c r="DL12" s="0"/>
+      <c r="DM12" s="0"/>
+      <c r="DN12" s="0"/>
+      <c r="DO12" s="0"/>
+      <c r="DP12" s="0"/>
+      <c r="DQ12" s="0"/>
+      <c r="DR12" s="0"/>
+      <c r="DS12" s="0"/>
+      <c r="DT12" s="0"/>
+      <c r="DU12" s="0"/>
+      <c r="DV12" s="0"/>
+      <c r="DW12" s="0"/>
+      <c r="DX12" s="0"/>
+      <c r="DY12" s="0"/>
+      <c r="DZ12" s="0"/>
+      <c r="EA12" s="0"/>
+      <c r="EB12" s="0"/>
+      <c r="EC12" s="0"/>
+      <c r="ED12" s="0"/>
+      <c r="EE12" s="0"/>
+      <c r="EF12" s="0"/>
+      <c r="EG12" s="0"/>
+      <c r="EH12" s="0"/>
+      <c r="EI12" s="0"/>
+      <c r="EJ12" s="0"/>
+      <c r="EK12" s="0"/>
+      <c r="EL12" s="0"/>
+      <c r="EM12" s="0"/>
+      <c r="EN12" s="0"/>
+      <c r="EO12" s="0"/>
+      <c r="EP12" s="0"/>
+      <c r="EQ12" s="0"/>
+      <c r="ER12" s="0"/>
+      <c r="ES12" s="0"/>
+      <c r="ET12" s="0"/>
+      <c r="EU12" s="0"/>
+      <c r="EV12" s="0"/>
+      <c r="EW12" s="0"/>
+      <c r="EX12" s="0"/>
+      <c r="EY12" s="0"/>
+      <c r="EZ12" s="0"/>
+      <c r="FA12" s="0"/>
+      <c r="FB12" s="0"/>
+      <c r="FC12" s="0"/>
+      <c r="FD12" s="0"/>
+      <c r="FE12" s="0"/>
+      <c r="FF12" s="0"/>
+      <c r="FG12" s="0"/>
+      <c r="FH12" s="0"/>
+      <c r="FI12" s="0"/>
+      <c r="FJ12" s="0"/>
+      <c r="FK12" s="0"/>
+      <c r="FL12" s="0"/>
+      <c r="FM12" s="0"/>
+      <c r="FN12" s="0"/>
+      <c r="FO12" s="0"/>
+      <c r="FP12" s="0"/>
+      <c r="FQ12" s="0"/>
+      <c r="FR12" s="0"/>
+      <c r="FS12" s="0"/>
+      <c r="FT12" s="0"/>
+      <c r="FU12" s="0"/>
+      <c r="FV12" s="0"/>
+      <c r="FW12" s="0"/>
+      <c r="FX12" s="0"/>
+      <c r="FY12" s="0"/>
+      <c r="FZ12" s="0"/>
+      <c r="GA12" s="0"/>
+      <c r="GB12" s="0"/>
+      <c r="GC12" s="0"/>
+      <c r="GD12" s="0"/>
+      <c r="GE12" s="0"/>
+      <c r="GF12" s="0"/>
+      <c r="GG12" s="0"/>
+      <c r="GH12" s="0"/>
+      <c r="GI12" s="0"/>
+      <c r="GJ12" s="0"/>
+      <c r="GK12" s="0"/>
+      <c r="GL12" s="0"/>
+      <c r="GM12" s="0"/>
+      <c r="GN12" s="0"/>
+      <c r="GO12" s="0"/>
+      <c r="GP12" s="0"/>
+      <c r="GQ12" s="0"/>
+      <c r="GR12" s="0"/>
+      <c r="GS12" s="0"/>
+      <c r="GT12" s="0"/>
+      <c r="GU12" s="0"/>
+      <c r="GV12" s="0"/>
+      <c r="GW12" s="0"/>
+      <c r="GX12" s="0"/>
+      <c r="GY12" s="0"/>
+      <c r="GZ12" s="0"/>
+      <c r="HA12" s="0"/>
+      <c r="HB12" s="0"/>
+      <c r="HC12" s="0"/>
+      <c r="HD12" s="0"/>
+      <c r="HE12" s="0"/>
+      <c r="HF12" s="0"/>
+      <c r="HG12" s="0"/>
+      <c r="HH12" s="0"/>
+      <c r="HI12" s="0"/>
+      <c r="HJ12" s="0"/>
+      <c r="HK12" s="0"/>
+      <c r="HL12" s="0"/>
+      <c r="HM12" s="0"/>
+      <c r="HN12" s="0"/>
+      <c r="HO12" s="0"/>
+      <c r="HP12" s="0"/>
+      <c r="HQ12" s="0"/>
+      <c r="HR12" s="0"/>
+      <c r="HS12" s="0"/>
+      <c r="HT12" s="0"/>
+      <c r="HU12" s="0"/>
+      <c r="HV12" s="0"/>
+      <c r="HW12" s="0"/>
+      <c r="HX12" s="0"/>
+      <c r="HY12" s="0"/>
+      <c r="HZ12" s="0"/>
+      <c r="IA12" s="0"/>
+      <c r="IB12" s="0"/>
+      <c r="IC12" s="0"/>
+      <c r="ID12" s="0"/>
+      <c r="IE12" s="0"/>
+      <c r="IF12" s="0"/>
+      <c r="IG12" s="0"/>
+      <c r="IH12" s="0"/>
+      <c r="II12" s="0"/>
+      <c r="IJ12" s="0"/>
+      <c r="IK12" s="0"/>
+      <c r="IL12" s="0"/>
+      <c r="IM12" s="0"/>
+      <c r="IN12" s="0"/>
+      <c r="IO12" s="0"/>
+      <c r="IP12" s="0"/>
+      <c r="IQ12" s="0"/>
+      <c r="IR12" s="0"/>
+      <c r="IS12" s="0"/>
+      <c r="IT12" s="0"/>
+      <c r="IU12" s="0"/>
+      <c r="IV12" s="0"/>
+      <c r="IW12" s="0"/>
+      <c r="IX12" s="0"/>
+      <c r="IY12" s="0"/>
+      <c r="IZ12" s="0"/>
+      <c r="JA12" s="0"/>
+      <c r="JB12" s="0"/>
+      <c r="JC12" s="0"/>
+      <c r="JD12" s="0"/>
+      <c r="JE12" s="0"/>
+      <c r="JF12" s="0"/>
+      <c r="JG12" s="0"/>
+      <c r="JH12" s="0"/>
+      <c r="JI12" s="0"/>
+      <c r="JJ12" s="0"/>
+      <c r="JK12" s="0"/>
+      <c r="JL12" s="0"/>
+      <c r="JM12" s="0"/>
+      <c r="JN12" s="0"/>
+      <c r="JO12" s="0"/>
+      <c r="JP12" s="0"/>
+      <c r="JQ12" s="0"/>
+      <c r="JR12" s="0"/>
+      <c r="JS12" s="0"/>
+      <c r="JT12" s="0"/>
+      <c r="JU12" s="0"/>
+      <c r="JV12" s="0"/>
+      <c r="JW12" s="0"/>
+      <c r="JX12" s="0"/>
+      <c r="JY12" s="0"/>
+      <c r="JZ12" s="0"/>
+      <c r="KA12" s="0"/>
+      <c r="KB12" s="0"/>
+      <c r="KC12" s="0"/>
+      <c r="KD12" s="0"/>
+      <c r="KE12" s="0"/>
+      <c r="KF12" s="0"/>
+      <c r="KG12" s="0"/>
+      <c r="KH12" s="0"/>
+      <c r="KI12" s="0"/>
+      <c r="KJ12" s="0"/>
+      <c r="KK12" s="0"/>
+      <c r="KL12" s="0"/>
+      <c r="KM12" s="0"/>
+      <c r="KN12" s="0"/>
+      <c r="KO12" s="0"/>
+      <c r="KP12" s="0"/>
+      <c r="KQ12" s="0"/>
+      <c r="KR12" s="0"/>
+      <c r="KS12" s="0"/>
+      <c r="KT12" s="0"/>
+      <c r="KU12" s="0"/>
+      <c r="KV12" s="0"/>
+      <c r="KW12" s="0"/>
+      <c r="KX12" s="0"/>
+      <c r="KY12" s="0"/>
+      <c r="KZ12" s="0"/>
+      <c r="LA12" s="0"/>
+      <c r="LB12" s="0"/>
+      <c r="LC12" s="0"/>
+      <c r="LD12" s="0"/>
+      <c r="LE12" s="0"/>
+      <c r="LF12" s="0"/>
+      <c r="LG12" s="0"/>
+      <c r="LH12" s="0"/>
+      <c r="LI12" s="0"/>
+      <c r="LJ12" s="0"/>
+      <c r="LK12" s="0"/>
+      <c r="LL12" s="0"/>
+      <c r="LM12" s="0"/>
+      <c r="LN12" s="0"/>
+      <c r="LO12" s="0"/>
+      <c r="LP12" s="0"/>
+      <c r="LQ12" s="0"/>
+      <c r="LR12" s="0"/>
+      <c r="LS12" s="0"/>
+      <c r="LT12" s="0"/>
+      <c r="LU12" s="0"/>
+      <c r="LV12" s="0"/>
+      <c r="LW12" s="0"/>
+      <c r="LX12" s="0"/>
+      <c r="LY12" s="0"/>
+      <c r="LZ12" s="0"/>
+      <c r="MA12" s="0"/>
+      <c r="MB12" s="0"/>
+      <c r="MC12" s="0"/>
+      <c r="MD12" s="0"/>
+      <c r="ME12" s="0"/>
+      <c r="MF12" s="0"/>
+      <c r="MG12" s="0"/>
+      <c r="MH12" s="0"/>
+      <c r="MI12" s="0"/>
+      <c r="MJ12" s="0"/>
+      <c r="MK12" s="0"/>
+      <c r="ML12" s="0"/>
+      <c r="MM12" s="0"/>
+      <c r="MN12" s="0"/>
+      <c r="MO12" s="0"/>
+      <c r="MP12" s="0"/>
+      <c r="MQ12" s="0"/>
+      <c r="MR12" s="0"/>
+      <c r="MS12" s="0"/>
+      <c r="MT12" s="0"/>
+      <c r="MU12" s="0"/>
+      <c r="MV12" s="0"/>
+      <c r="MW12" s="0"/>
+      <c r="MX12" s="0"/>
+      <c r="MY12" s="0"/>
+      <c r="MZ12" s="0"/>
+      <c r="NA12" s="0"/>
+      <c r="NB12" s="0"/>
+      <c r="NC12" s="0"/>
+      <c r="ND12" s="0"/>
+      <c r="NE12" s="0"/>
+      <c r="NF12" s="0"/>
+      <c r="NG12" s="0"/>
+      <c r="NH12" s="0"/>
+      <c r="NI12" s="0"/>
+      <c r="NJ12" s="0"/>
+      <c r="NK12" s="0"/>
+      <c r="NL12" s="0"/>
+      <c r="NM12" s="0"/>
+      <c r="NN12" s="0"/>
+      <c r="NO12" s="0"/>
+      <c r="NP12" s="0"/>
+      <c r="NQ12" s="0"/>
+      <c r="NR12" s="0"/>
+      <c r="NS12" s="0"/>
+      <c r="NT12" s="0"/>
+      <c r="NU12" s="0"/>
+      <c r="NV12" s="0"/>
+      <c r="NW12" s="0"/>
+      <c r="NX12" s="0"/>
+      <c r="NY12" s="0"/>
+      <c r="NZ12" s="0"/>
+      <c r="OA12" s="0"/>
+      <c r="OB12" s="0"/>
+      <c r="OC12" s="0"/>
+      <c r="OD12" s="0"/>
+      <c r="OE12" s="0"/>
+      <c r="OF12" s="0"/>
+      <c r="OG12" s="0"/>
+      <c r="OH12" s="0"/>
+      <c r="OI12" s="0"/>
+      <c r="OJ12" s="0"/>
+      <c r="OK12" s="0"/>
+      <c r="OL12" s="0"/>
+      <c r="OM12" s="0"/>
+      <c r="ON12" s="0"/>
+      <c r="OO12" s="0"/>
+      <c r="OP12" s="0"/>
+      <c r="OQ12" s="0"/>
+      <c r="OR12" s="0"/>
+      <c r="OS12" s="0"/>
+      <c r="OT12" s="0"/>
+      <c r="OU12" s="0"/>
+      <c r="OV12" s="0"/>
+      <c r="OW12" s="0"/>
+      <c r="OX12" s="0"/>
+      <c r="OY12" s="0"/>
+      <c r="OZ12" s="0"/>
+      <c r="PA12" s="0"/>
+      <c r="PB12" s="0"/>
+      <c r="PC12" s="0"/>
+      <c r="PD12" s="0"/>
+      <c r="PE12" s="0"/>
+      <c r="PF12" s="0"/>
+      <c r="PG12" s="0"/>
+      <c r="PH12" s="0"/>
+      <c r="PI12" s="0"/>
+      <c r="PJ12" s="0"/>
+      <c r="PK12" s="0"/>
+      <c r="PL12" s="0"/>
+      <c r="PM12" s="0"/>
+      <c r="PN12" s="0"/>
+      <c r="PO12" s="0"/>
+      <c r="PP12" s="0"/>
+      <c r="PQ12" s="0"/>
+      <c r="PR12" s="0"/>
+      <c r="PS12" s="0"/>
+      <c r="PT12" s="0"/>
+      <c r="PU12" s="0"/>
+      <c r="PV12" s="0"/>
+      <c r="PW12" s="0"/>
+      <c r="PX12" s="0"/>
+      <c r="PY12" s="0"/>
+      <c r="PZ12" s="0"/>
+      <c r="QA12" s="0"/>
+      <c r="QB12" s="0"/>
+      <c r="QC12" s="0"/>
+      <c r="QD12" s="0"/>
+      <c r="QE12" s="0"/>
+      <c r="QF12" s="0"/>
+      <c r="QG12" s="0"/>
+      <c r="QH12" s="0"/>
+      <c r="QI12" s="0"/>
+      <c r="QJ12" s="0"/>
+      <c r="QK12" s="0"/>
+      <c r="QL12" s="0"/>
+      <c r="QM12" s="0"/>
+      <c r="QN12" s="0"/>
+      <c r="QO12" s="0"/>
+      <c r="QP12" s="0"/>
+      <c r="QQ12" s="0"/>
+      <c r="QR12" s="0"/>
+      <c r="QS12" s="0"/>
+      <c r="QT12" s="0"/>
+      <c r="QU12" s="0"/>
+      <c r="QV12" s="0"/>
+      <c r="QW12" s="0"/>
+      <c r="QX12" s="0"/>
+      <c r="QY12" s="0"/>
+      <c r="QZ12" s="0"/>
+      <c r="RA12" s="0"/>
+      <c r="RB12" s="0"/>
+      <c r="RC12" s="0"/>
+      <c r="RD12" s="0"/>
+      <c r="RE12" s="0"/>
+      <c r="RF12" s="0"/>
+      <c r="RG12" s="0"/>
+      <c r="RH12" s="0"/>
+      <c r="RI12" s="0"/>
+      <c r="RJ12" s="0"/>
+      <c r="RK12" s="0"/>
+      <c r="RL12" s="0"/>
+      <c r="RM12" s="0"/>
+      <c r="RN12" s="0"/>
+      <c r="RO12" s="0"/>
+      <c r="RP12" s="0"/>
+      <c r="RQ12" s="0"/>
+      <c r="RR12" s="0"/>
+      <c r="RS12" s="0"/>
+      <c r="RT12" s="0"/>
+      <c r="RU12" s="0"/>
+      <c r="RV12" s="0"/>
+      <c r="RW12" s="0"/>
+      <c r="RX12" s="0"/>
+      <c r="RY12" s="0"/>
+      <c r="RZ12" s="0"/>
+      <c r="SA12" s="0"/>
+      <c r="SB12" s="0"/>
+      <c r="SC12" s="0"/>
+      <c r="SD12" s="0"/>
+      <c r="SE12" s="0"/>
+      <c r="SF12" s="0"/>
+      <c r="SG12" s="0"/>
+      <c r="SH12" s="0"/>
+      <c r="SI12" s="0"/>
+      <c r="SJ12" s="0"/>
+      <c r="SK12" s="0"/>
+      <c r="SL12" s="0"/>
+      <c r="SM12" s="0"/>
+      <c r="SN12" s="0"/>
+      <c r="SO12" s="0"/>
+      <c r="SP12" s="0"/>
+      <c r="SQ12" s="0"/>
+      <c r="SR12" s="0"/>
+      <c r="SS12" s="0"/>
+      <c r="ST12" s="0"/>
+      <c r="SU12" s="0"/>
+      <c r="SV12" s="0"/>
+      <c r="SW12" s="0"/>
+      <c r="SX12" s="0"/>
+      <c r="SY12" s="0"/>
+      <c r="SZ12" s="0"/>
+      <c r="TA12" s="0"/>
+      <c r="TB12" s="0"/>
+      <c r="TC12" s="0"/>
+      <c r="TD12" s="0"/>
+      <c r="TE12" s="0"/>
+      <c r="TF12" s="0"/>
+      <c r="TG12" s="0"/>
+      <c r="TH12" s="0"/>
+      <c r="TI12" s="0"/>
+      <c r="TJ12" s="0"/>
+      <c r="TK12" s="0"/>
+      <c r="TL12" s="0"/>
+      <c r="TM12" s="0"/>
+      <c r="TN12" s="0"/>
+      <c r="TO12" s="0"/>
+      <c r="TP12" s="0"/>
+      <c r="TQ12" s="0"/>
+      <c r="TR12" s="0"/>
+      <c r="TS12" s="0"/>
+      <c r="TT12" s="0"/>
+      <c r="TU12" s="0"/>
+      <c r="TV12" s="0"/>
+      <c r="TW12" s="0"/>
+      <c r="TX12" s="0"/>
+      <c r="TY12" s="0"/>
+      <c r="TZ12" s="0"/>
+      <c r="UA12" s="0"/>
+      <c r="UB12" s="0"/>
+      <c r="UC12" s="0"/>
+      <c r="UD12" s="0"/>
+      <c r="UE12" s="0"/>
+      <c r="UF12" s="0"/>
+      <c r="UG12" s="0"/>
+      <c r="UH12" s="0"/>
+      <c r="UI12" s="0"/>
+      <c r="UJ12" s="0"/>
+      <c r="UK12" s="0"/>
+      <c r="UL12" s="0"/>
+      <c r="UM12" s="0"/>
+      <c r="UN12" s="0"/>
+      <c r="UO12" s="0"/>
+      <c r="UP12" s="0"/>
+      <c r="UQ12" s="0"/>
+      <c r="UR12" s="0"/>
+      <c r="US12" s="0"/>
+      <c r="UT12" s="0"/>
+      <c r="UU12" s="0"/>
+      <c r="UV12" s="0"/>
+      <c r="UW12" s="0"/>
+      <c r="UX12" s="0"/>
+      <c r="UY12" s="0"/>
+      <c r="UZ12" s="0"/>
+      <c r="VA12" s="0"/>
+      <c r="VB12" s="0"/>
+      <c r="VC12" s="0"/>
+      <c r="VD12" s="0"/>
+      <c r="VE12" s="0"/>
+      <c r="VF12" s="0"/>
+      <c r="VG12" s="0"/>
+      <c r="VH12" s="0"/>
+      <c r="VI12" s="0"/>
+      <c r="VJ12" s="0"/>
+      <c r="VK12" s="0"/>
+      <c r="VL12" s="0"/>
+      <c r="VM12" s="0"/>
+      <c r="VN12" s="0"/>
+      <c r="VO12" s="0"/>
+      <c r="VP12" s="0"/>
+      <c r="VQ12" s="0"/>
+      <c r="VR12" s="0"/>
+      <c r="VS12" s="0"/>
+      <c r="VT12" s="0"/>
+      <c r="VU12" s="0"/>
+      <c r="VV12" s="0"/>
+      <c r="VW12" s="0"/>
+      <c r="VX12" s="0"/>
+      <c r="VY12" s="0"/>
+      <c r="VZ12" s="0"/>
+      <c r="WA12" s="0"/>
+      <c r="WB12" s="0"/>
+      <c r="WC12" s="0"/>
+      <c r="WD12" s="0"/>
+      <c r="WE12" s="0"/>
+      <c r="WF12" s="0"/>
+      <c r="WG12" s="0"/>
+      <c r="WH12" s="0"/>
+      <c r="WI12" s="0"/>
+      <c r="WJ12" s="0"/>
+      <c r="WK12" s="0"/>
+      <c r="WL12" s="0"/>
+      <c r="WM12" s="0"/>
+      <c r="WN12" s="0"/>
+      <c r="WO12" s="0"/>
+      <c r="WP12" s="0"/>
+      <c r="WQ12" s="0"/>
+      <c r="WR12" s="0"/>
+      <c r="WS12" s="0"/>
+      <c r="WT12" s="0"/>
+      <c r="WU12" s="0"/>
+      <c r="WV12" s="0"/>
+      <c r="WW12" s="0"/>
+      <c r="WX12" s="0"/>
+      <c r="WY12" s="0"/>
+      <c r="WZ12" s="0"/>
+      <c r="XA12" s="0"/>
+      <c r="XB12" s="0"/>
+      <c r="XC12" s="0"/>
+      <c r="XD12" s="0"/>
+      <c r="XE12" s="0"/>
+      <c r="XF12" s="0"/>
+      <c r="XG12" s="0"/>
+      <c r="XH12" s="0"/>
+      <c r="XI12" s="0"/>
+      <c r="XJ12" s="0"/>
+      <c r="XK12" s="0"/>
+      <c r="XL12" s="0"/>
+      <c r="XM12" s="0"/>
+      <c r="XN12" s="0"/>
+      <c r="XO12" s="0"/>
+      <c r="XP12" s="0"/>
+      <c r="XQ12" s="0"/>
+      <c r="XR12" s="0"/>
+      <c r="XS12" s="0"/>
+      <c r="XT12" s="0"/>
+      <c r="XU12" s="0"/>
+      <c r="XV12" s="0"/>
+      <c r="XW12" s="0"/>
+      <c r="XX12" s="0"/>
+      <c r="XY12" s="0"/>
+      <c r="XZ12" s="0"/>
+      <c r="YA12" s="0"/>
+      <c r="YB12" s="0"/>
+      <c r="YC12" s="0"/>
+      <c r="YD12" s="0"/>
+      <c r="YE12" s="0"/>
+      <c r="YF12" s="0"/>
+      <c r="YG12" s="0"/>
+      <c r="YH12" s="0"/>
+      <c r="YI12" s="0"/>
+      <c r="YJ12" s="0"/>
+      <c r="YK12" s="0"/>
+      <c r="YL12" s="0"/>
+      <c r="YM12" s="0"/>
+      <c r="YN12" s="0"/>
+      <c r="YO12" s="0"/>
+      <c r="YP12" s="0"/>
+      <c r="YQ12" s="0"/>
+      <c r="YR12" s="0"/>
+      <c r="YS12" s="0"/>
+      <c r="YT12" s="0"/>
+      <c r="YU12" s="0"/>
+      <c r="YV12" s="0"/>
+      <c r="YW12" s="0"/>
+      <c r="YX12" s="0"/>
+      <c r="YY12" s="0"/>
+      <c r="YZ12" s="0"/>
+      <c r="ZA12" s="0"/>
+      <c r="ZB12" s="0"/>
+      <c r="ZC12" s="0"/>
+      <c r="ZD12" s="0"/>
+      <c r="ZE12" s="0"/>
+      <c r="ZF12" s="0"/>
+      <c r="ZG12" s="0"/>
+      <c r="ZH12" s="0"/>
+      <c r="ZI12" s="0"/>
+      <c r="ZJ12" s="0"/>
+      <c r="ZK12" s="0"/>
+      <c r="ZL12" s="0"/>
+      <c r="ZM12" s="0"/>
+      <c r="ZN12" s="0"/>
+      <c r="ZO12" s="0"/>
+      <c r="ZP12" s="0"/>
+      <c r="ZQ12" s="0"/>
+      <c r="ZR12" s="0"/>
+      <c r="ZS12" s="0"/>
+      <c r="ZT12" s="0"/>
+      <c r="ZU12" s="0"/>
+      <c r="ZV12" s="0"/>
+      <c r="ZW12" s="0"/>
+      <c r="ZX12" s="0"/>
+      <c r="ZY12" s="0"/>
+      <c r="ZZ12" s="0"/>
+      <c r="AAA12" s="0"/>
+      <c r="AAB12" s="0"/>
+      <c r="AAC12" s="0"/>
+      <c r="AAD12" s="0"/>
+      <c r="AAE12" s="0"/>
+      <c r="AAF12" s="0"/>
+      <c r="AAG12" s="0"/>
+      <c r="AAH12" s="0"/>
+      <c r="AAI12" s="0"/>
+      <c r="AAJ12" s="0"/>
+      <c r="AAK12" s="0"/>
+      <c r="AAL12" s="0"/>
+      <c r="AAM12" s="0"/>
+      <c r="AAN12" s="0"/>
+      <c r="AAO12" s="0"/>
+      <c r="AAP12" s="0"/>
+      <c r="AAQ12" s="0"/>
+      <c r="AAR12" s="0"/>
+      <c r="AAS12" s="0"/>
+      <c r="AAT12" s="0"/>
+      <c r="AAU12" s="0"/>
+      <c r="AAV12" s="0"/>
+      <c r="AAW12" s="0"/>
+      <c r="AAX12" s="0"/>
+      <c r="AAY12" s="0"/>
+      <c r="AAZ12" s="0"/>
+      <c r="ABA12" s="0"/>
+      <c r="ABB12" s="0"/>
+      <c r="ABC12" s="0"/>
+      <c r="ABD12" s="0"/>
+      <c r="ABE12" s="0"/>
+      <c r="ABF12" s="0"/>
+      <c r="ABG12" s="0"/>
+      <c r="ABH12" s="0"/>
+      <c r="ABI12" s="0"/>
+      <c r="ABJ12" s="0"/>
+      <c r="ABK12" s="0"/>
+      <c r="ABL12" s="0"/>
+      <c r="ABM12" s="0"/>
+      <c r="ABN12" s="0"/>
+      <c r="ABO12" s="0"/>
+      <c r="ABP12" s="0"/>
+      <c r="ABQ12" s="0"/>
+      <c r="ABR12" s="0"/>
+      <c r="ABS12" s="0"/>
+      <c r="ABT12" s="0"/>
+      <c r="ABU12" s="0"/>
+      <c r="ABV12" s="0"/>
+      <c r="ABW12" s="0"/>
+      <c r="ABX12" s="0"/>
+      <c r="ABY12" s="0"/>
+      <c r="ABZ12" s="0"/>
+      <c r="ACA12" s="0"/>
+      <c r="ACB12" s="0"/>
+      <c r="ACC12" s="0"/>
+      <c r="ACD12" s="0"/>
+      <c r="ACE12" s="0"/>
+      <c r="ACF12" s="0"/>
+      <c r="ACG12" s="0"/>
+      <c r="ACH12" s="0"/>
+      <c r="ACI12" s="0"/>
+      <c r="ACJ12" s="0"/>
+      <c r="ACK12" s="0"/>
+      <c r="ACL12" s="0"/>
+      <c r="ACM12" s="0"/>
+      <c r="ACN12" s="0"/>
+      <c r="ACO12" s="0"/>
+      <c r="ACP12" s="0"/>
+      <c r="ACQ12" s="0"/>
+      <c r="ACR12" s="0"/>
+      <c r="ACS12" s="0"/>
+      <c r="ACT12" s="0"/>
+      <c r="ACU12" s="0"/>
+      <c r="ACV12" s="0"/>
+      <c r="ACW12" s="0"/>
+      <c r="ACX12" s="0"/>
+      <c r="ACY12" s="0"/>
+      <c r="ACZ12" s="0"/>
+      <c r="ADA12" s="0"/>
+      <c r="ADB12" s="0"/>
+      <c r="ADC12" s="0"/>
+      <c r="ADD12" s="0"/>
+      <c r="ADE12" s="0"/>
+      <c r="ADF12" s="0"/>
+      <c r="ADG12" s="0"/>
+      <c r="ADH12" s="0"/>
+      <c r="ADI12" s="0"/>
+      <c r="ADJ12" s="0"/>
+      <c r="ADK12" s="0"/>
+      <c r="ADL12" s="0"/>
+      <c r="ADM12" s="0"/>
+      <c r="ADN12" s="0"/>
+      <c r="ADO12" s="0"/>
+      <c r="ADP12" s="0"/>
+      <c r="ADQ12" s="0"/>
+      <c r="ADR12" s="0"/>
+      <c r="ADS12" s="0"/>
+      <c r="ADT12" s="0"/>
+      <c r="ADU12" s="0"/>
+      <c r="ADV12" s="0"/>
+      <c r="ADW12" s="0"/>
+      <c r="ADX12" s="0"/>
+      <c r="ADY12" s="0"/>
+      <c r="ADZ12" s="0"/>
+      <c r="AEA12" s="0"/>
+      <c r="AEB12" s="0"/>
+      <c r="AEC12" s="0"/>
+      <c r="AED12" s="0"/>
+      <c r="AEE12" s="0"/>
+      <c r="AEF12" s="0"/>
+      <c r="AEG12" s="0"/>
+      <c r="AEH12" s="0"/>
+      <c r="AEI12" s="0"/>
+      <c r="AEJ12" s="0"/>
+      <c r="AEK12" s="0"/>
+      <c r="AEL12" s="0"/>
+      <c r="AEM12" s="0"/>
+      <c r="AEN12" s="0"/>
+      <c r="AEO12" s="0"/>
+      <c r="AEP12" s="0"/>
+      <c r="AEQ12" s="0"/>
+      <c r="AER12" s="0"/>
+      <c r="AES12" s="0"/>
+      <c r="AET12" s="0"/>
+      <c r="AEU12" s="0"/>
+      <c r="AEV12" s="0"/>
+      <c r="AEW12" s="0"/>
+      <c r="AEX12" s="0"/>
+      <c r="AEY12" s="0"/>
+      <c r="AEZ12" s="0"/>
+      <c r="AFA12" s="0"/>
+      <c r="AFB12" s="0"/>
+      <c r="AFC12" s="0"/>
+      <c r="AFD12" s="0"/>
+      <c r="AFE12" s="0"/>
+      <c r="AFF12" s="0"/>
+      <c r="AFG12" s="0"/>
+      <c r="AFH12" s="0"/>
+      <c r="AFI12" s="0"/>
+      <c r="AFJ12" s="0"/>
+      <c r="AFK12" s="0"/>
+      <c r="AFL12" s="0"/>
+      <c r="AFM12" s="0"/>
+      <c r="AFN12" s="0"/>
+      <c r="AFO12" s="0"/>
+      <c r="AFP12" s="0"/>
+      <c r="AFQ12" s="0"/>
+      <c r="AFR12" s="0"/>
+      <c r="AFS12" s="0"/>
+      <c r="AFT12" s="0"/>
+      <c r="AFU12" s="0"/>
+      <c r="AFV12" s="0"/>
+      <c r="AFW12" s="0"/>
+      <c r="AFX12" s="0"/>
+      <c r="AFY12" s="0"/>
+      <c r="AFZ12" s="0"/>
+      <c r="AGA12" s="0"/>
+      <c r="AGB12" s="0"/>
+      <c r="AGC12" s="0"/>
+      <c r="AGD12" s="0"/>
+      <c r="AGE12" s="0"/>
+      <c r="AGF12" s="0"/>
+      <c r="AGG12" s="0"/>
+      <c r="AGH12" s="0"/>
+      <c r="AGI12" s="0"/>
+      <c r="AGJ12" s="0"/>
+      <c r="AGK12" s="0"/>
+      <c r="AGL12" s="0"/>
+      <c r="AGM12" s="0"/>
+      <c r="AGN12" s="0"/>
+      <c r="AGO12" s="0"/>
+      <c r="AGP12" s="0"/>
+      <c r="AGQ12" s="0"/>
+      <c r="AGR12" s="0"/>
+      <c r="AGS12" s="0"/>
+      <c r="AGT12" s="0"/>
+      <c r="AGU12" s="0"/>
+      <c r="AGV12" s="0"/>
+      <c r="AGW12" s="0"/>
+      <c r="AGX12" s="0"/>
+      <c r="AGY12" s="0"/>
+      <c r="AGZ12" s="0"/>
+      <c r="AHA12" s="0"/>
+      <c r="AHB12" s="0"/>
+      <c r="AHC12" s="0"/>
+      <c r="AHD12" s="0"/>
+      <c r="AHE12" s="0"/>
+      <c r="AHF12" s="0"/>
+      <c r="AHG12" s="0"/>
+      <c r="AHH12" s="0"/>
+      <c r="AHI12" s="0"/>
+      <c r="AHJ12" s="0"/>
+      <c r="AHK12" s="0"/>
+      <c r="AHL12" s="0"/>
+      <c r="AHM12" s="0"/>
+      <c r="AHN12" s="0"/>
+      <c r="AHO12" s="0"/>
+      <c r="AHP12" s="0"/>
+      <c r="AHQ12" s="0"/>
+      <c r="AHR12" s="0"/>
+      <c r="AHS12" s="0"/>
+      <c r="AHT12" s="0"/>
+      <c r="AHU12" s="0"/>
+      <c r="AHV12" s="0"/>
+      <c r="AHW12" s="0"/>
+      <c r="AHX12" s="0"/>
+      <c r="AHY12" s="0"/>
+      <c r="AHZ12" s="0"/>
+      <c r="AIA12" s="0"/>
+      <c r="AIB12" s="0"/>
+      <c r="AIC12" s="0"/>
+      <c r="AID12" s="0"/>
+      <c r="AIE12" s="0"/>
+      <c r="AIF12" s="0"/>
+      <c r="AIG12" s="0"/>
+      <c r="AIH12" s="0"/>
+      <c r="AII12" s="0"/>
+      <c r="AIJ12" s="0"/>
+      <c r="AIK12" s="0"/>
+      <c r="AIL12" s="0"/>
+      <c r="AIM12" s="0"/>
+      <c r="AIN12" s="0"/>
+      <c r="AIO12" s="0"/>
+      <c r="AIP12" s="0"/>
+      <c r="AIQ12" s="0"/>
+      <c r="AIR12" s="0"/>
+      <c r="AIS12" s="0"/>
+      <c r="AIT12" s="0"/>
+      <c r="AIU12" s="0"/>
+      <c r="AIV12" s="0"/>
+      <c r="AIW12" s="0"/>
+      <c r="AIX12" s="0"/>
+      <c r="AIY12" s="0"/>
+      <c r="AIZ12" s="0"/>
+      <c r="AJA12" s="0"/>
+      <c r="AJB12" s="0"/>
+      <c r="AJC12" s="0"/>
+      <c r="AJD12" s="0"/>
+      <c r="AJE12" s="0"/>
+      <c r="AJF12" s="0"/>
+      <c r="AJG12" s="0"/>
+      <c r="AJH12" s="0"/>
+      <c r="AJI12" s="0"/>
+      <c r="AJJ12" s="0"/>
+      <c r="AJK12" s="0"/>
+      <c r="AJL12" s="0"/>
+      <c r="AJM12" s="0"/>
+      <c r="AJN12" s="0"/>
+      <c r="AJO12" s="0"/>
+      <c r="AJP12" s="0"/>
+      <c r="AJQ12" s="0"/>
+      <c r="AJR12" s="0"/>
+      <c r="AJS12" s="0"/>
+      <c r="AJT12" s="0"/>
+      <c r="AJU12" s="0"/>
+      <c r="AJV12" s="0"/>
+      <c r="AJW12" s="0"/>
+      <c r="AJX12" s="0"/>
+      <c r="AJY12" s="0"/>
+      <c r="AJZ12" s="0"/>
+      <c r="AKA12" s="0"/>
+      <c r="AKB12" s="0"/>
+      <c r="AKC12" s="0"/>
+      <c r="AKD12" s="0"/>
+      <c r="AKE12" s="0"/>
+      <c r="AKF12" s="0"/>
+      <c r="AKG12" s="0"/>
+      <c r="AKH12" s="0"/>
+      <c r="AKI12" s="0"/>
+      <c r="AKJ12" s="0"/>
+      <c r="AKK12" s="0"/>
+      <c r="AKL12" s="0"/>
+      <c r="AKM12" s="0"/>
+      <c r="AKN12" s="0"/>
+      <c r="AKO12" s="0"/>
+      <c r="AKP12" s="0"/>
+      <c r="AKQ12" s="0"/>
+      <c r="AKR12" s="0"/>
+      <c r="AKS12" s="0"/>
+      <c r="AKT12" s="0"/>
+      <c r="AKU12" s="0"/>
+      <c r="AKV12" s="0"/>
+      <c r="AKW12" s="0"/>
+      <c r="AKX12" s="0"/>
+      <c r="AKY12" s="0"/>
+      <c r="AKZ12" s="0"/>
+      <c r="ALA12" s="0"/>
+      <c r="ALB12" s="0"/>
+      <c r="ALC12" s="0"/>
+      <c r="ALD12" s="0"/>
+      <c r="ALE12" s="0"/>
+      <c r="ALF12" s="0"/>
+      <c r="ALG12" s="0"/>
+      <c r="ALH12" s="0"/>
+      <c r="ALI12" s="0"/>
+      <c r="ALJ12" s="0"/>
+      <c r="ALK12" s="0"/>
+      <c r="ALL12" s="0"/>
+      <c r="ALM12" s="0"/>
+      <c r="ALN12" s="0"/>
+      <c r="ALO12" s="0"/>
+      <c r="ALP12" s="0"/>
+      <c r="ALQ12" s="0"/>
+      <c r="ALR12" s="0"/>
+      <c r="ALS12" s="0"/>
+      <c r="ALT12" s="0"/>
+      <c r="ALU12" s="0"/>
+      <c r="ALV12" s="0"/>
+      <c r="ALW12" s="0"/>
+      <c r="ALX12" s="0"/>
+      <c r="ALY12" s="0"/>
+      <c r="ALZ12" s="0"/>
+      <c r="AMA12" s="0"/>
+      <c r="AMB12" s="0"/>
+      <c r="AMC12" s="0"/>
+      <c r="AMD12" s="0"/>
+      <c r="AME12" s="0"/>
+      <c r="AMF12" s="0"/>
+      <c r="AMG12" s="0"/>
+      <c r="AMH12" s="0"/>
+      <c r="AMI12" s="0"/>
+      <c r="AMJ12" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="13">
       <c r="A13" s="1" t="n">
-        <v>62069</v>
+        <v>48624</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>59</v>
+      <c r="C13" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>51</v>
@@ -988,37 +3026,37 @@
         <v>53</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="24" t="n">
-        <v>40610</v>
-      </c>
-      <c r="I13" s="24" t="n">
-        <v>40610</v>
-      </c>
-      <c r="J13" s="24" t="n">
-        <v>42436</v>
-      </c>
-      <c r="K13" s="25" t="n">
-        <v>9</v>
+        <v>54</v>
+      </c>
+      <c r="H13" s="23" t="n">
+        <v>31860</v>
+      </c>
+      <c r="I13" s="23" t="n">
+        <v>36859</v>
+      </c>
+      <c r="J13" s="23" t="n">
+        <v>42701</v>
+      </c>
+      <c r="K13" s="24" t="n">
+        <v>22</v>
       </c>
       <c r="L13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q13" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N13" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="O13" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="P13" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q13" s="0" t="s">
-        <v>58</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="14">
@@ -1026,52 +3064,52 @@
         <v>62069</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>59</v>
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="24" t="n">
+        <v>54</v>
+      </c>
+      <c r="H14" s="23" t="n">
         <v>40610</v>
       </c>
-      <c r="I14" s="24" t="n">
+      <c r="I14" s="23" t="n">
         <v>40610</v>
       </c>
-      <c r="J14" s="24" t="n">
+      <c r="J14" s="23" t="n">
         <v>42436</v>
       </c>
-      <c r="K14" s="25" t="n">
-        <v>10</v>
+      <c r="K14" s="24" t="n">
+        <v>8</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N14" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O14" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="P14" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q14" s="0" t="s">
-        <v>58</v>
+      <c r="O14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="15">
@@ -1081,50 +3119,50 @@
       <c r="B15" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>59</v>
+      <c r="C15" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="24" t="n">
+        <v>54</v>
+      </c>
+      <c r="H15" s="23" t="n">
         <v>40610</v>
       </c>
-      <c r="I15" s="24" t="n">
+      <c r="I15" s="23" t="n">
         <v>40610</v>
       </c>
-      <c r="J15" s="24" t="n">
+      <c r="J15" s="23" t="n">
         <v>42436</v>
       </c>
-      <c r="K15" s="25" t="n">
-        <v>11</v>
+      <c r="K15" s="24" t="n">
+        <v>9</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N15" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O15" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="P15" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q15" s="0" t="s">
-        <v>58</v>
+      <c r="O15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="16">
@@ -1132,52 +3170,52 @@
         <v>62069</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="G16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="23" t="n">
+        <v>40610</v>
+      </c>
+      <c r="I16" s="23" t="n">
+        <v>40610</v>
+      </c>
+      <c r="J16" s="23" t="n">
+        <v>42436</v>
+      </c>
+      <c r="K16" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="24" t="n">
-        <v>40610</v>
-      </c>
-      <c r="I16" s="24" t="n">
-        <v>40610</v>
-      </c>
-      <c r="J16" s="24" t="n">
-        <v>42436</v>
-      </c>
-      <c r="K16" s="25" t="n">
-        <v>12</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N16" s="0" t="s">
+      <c r="M16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O16" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="P16" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q16" s="0" t="s">
-        <v>58</v>
+      <c r="O16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="17">
@@ -1185,52 +3223,52 @@
         <v>62069</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="G17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="24" t="n">
+        <v>54</v>
+      </c>
+      <c r="H17" s="23" t="n">
         <v>40610</v>
       </c>
-      <c r="I17" s="24" t="n">
+      <c r="I17" s="23" t="n">
         <v>40610</v>
       </c>
-      <c r="J17" s="24" t="n">
+      <c r="J17" s="23" t="n">
         <v>42436</v>
       </c>
-      <c r="K17" s="25" t="n">
-        <v>13</v>
+      <c r="K17" s="24" t="n">
+        <v>11</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N17" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O17" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="P17" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q17" s="0" t="s">
-        <v>58</v>
+      <c r="O17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="18">
@@ -1240,62 +3278,167 @@
       <c r="B18" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="G18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="23" t="n">
+        <v>40610</v>
+      </c>
+      <c r="I18" s="23" t="n">
+        <v>40610</v>
+      </c>
+      <c r="J18" s="23" t="n">
+        <v>42436</v>
+      </c>
+      <c r="K18" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="19">
+      <c r="A19" s="1" t="n">
+        <v>62069</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="23" t="n">
+        <v>40610</v>
+      </c>
+      <c r="I19" s="23" t="n">
+        <v>40610</v>
+      </c>
+      <c r="J19" s="23" t="n">
+        <v>42436</v>
+      </c>
+      <c r="K19" s="24" t="n">
+        <v>13</v>
+      </c>
+      <c r="L19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="24" t="n">
+      <c r="M19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="20">
+      <c r="A20" s="1" t="n">
+        <v>62069</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="23" t="n">
         <v>40610</v>
       </c>
-      <c r="I18" s="24" t="n">
+      <c r="I20" s="23" t="n">
         <v>40610</v>
       </c>
-      <c r="J18" s="24" t="n">
+      <c r="J20" s="23" t="n">
         <v>42436</v>
       </c>
-      <c r="K18" s="25" t="n">
+      <c r="K20" s="24" t="n">
         <v>14</v>
       </c>
-      <c r="L18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N18" s="0" t="s">
+      <c r="L20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O18" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="P18" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q18" s="0" t="s">
-        <v>58</v>
+      <c r="O20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:R18"/>
-  <mergeCells count="3">
-    <mergeCell ref="1:1"/>
+  <autoFilter ref="A4:R20"/>
+  <mergeCells count="2">
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:D3"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0" right="0" top="0.279861111111111" bottom="0.490277777777778" header="0.511805555555555" footer="0"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="landscape" pageOrder="downThenOver" paperSize="77" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter>&amp;CSwissmedic · Hallerstrasse 7 · CH-3000 Bern 9 · www.swissmedic.ch · Tel. +41 31 322 02 11 · Fax +41 31 322 02 12&amp;R&amp;P/&amp;N</oddFooter>

--- a/spec/data/swissmedic_package.xlsx
+++ b/spec/data/swissmedic_package.xlsx
@@ -11,21 +11,21 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$4:$R$19</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">{#name?}</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0" vbProcedure="false">{#name?}</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_1" vbProcedure="false">Sheet1!$3:$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_1" vbProcedure="false">Sheet1!#REF!</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$4:$R$19</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">sheet1!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">sheet1!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">sheet1!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_1" vbProcedure="false">sheet1!#ref!</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="108">
   <si>
     <t>Zugelassene Packungen / Conditionnements autorisés</t>
   </si>
@@ -36,7 +36,7 @@
     <r>
       <t>* Die Gültigkeitsdauer entspricht den Angaben auf der Zulassungsbescheinigung. Provisorische Zulassungen, ohne Erneuerung des Gültigkeitsdatums, sind vorbehalten. Alle in der Liste aufgeführten Arzneimittel sind zum Zeitpunkt der Aktualisierung der Liste zugelassen / 
   La durée de validité correspond aux données figurant sur le certificat d'autorisation. Les autorisations provisoires, sans report de la date d'expiration, restent réservées. Tous les médicaments énumérés dans la liste sont autorisés au moment de la mise à jour de la liste. 
-** </t>
+**</t>
     </r>
     <r>
       <rPr>
@@ -55,18 +55,16 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t> (Kategorien der Kontrollmassnahmen, denen die Betäubungsmittel unterstellt sind) / Tableaux (catégories de mesures de contrôle auxquelles sont soumis les stupéfiants)
+      <t>(Kategorien der Kontrollmassnahmen, denen die Betäubungsmittel unterstellt sind) / Tableaux (catégories de mesures de contrôle auxquelles sont soumis les stupéfiants)
 a: Unterstehen allen Kontrollmassnahmen (s. auch Anhang a der BetmVV-EDI) / Soumis à toutes les mesures de contrôle (voir aussi le tableau a de l'OTStup-DFI)
 b: Unterstehen nicht allen Kontrollmassnahmen (s. auch Anhang b der BetmVV-EDI) / Soustraits partiellement au contrôle (voir aussi le tableau b de l'OTStup-DFI)
 c: Unterstehen nicht allen Kontrollmassnahmen; in kleinen Mengen ohne Verschreibung erhältlich (s. auch Verzeichnis c der BetmVV-EDI) / Soustraits partiellement au contrôle; pouvant être obtenus en petites quantités sans ordonnance (voir aussi le tableau c de l'OTStup-DFI)
-d: Zugelassene Arzneimittel, die kontrollierte Substanzen des Verzeichnisses d gemäss BetmVV-EDI enthalten / Médicaments autorisés contenant des substances soumises à contrôle figurant dans le tableau d de l'OTStup-DFI
-</t>
+d: Zugelassene Arzneimittel, die kontrollierte Substanzen des Verzeichnisses d gemäss BetmVV-EDI enthalten / Médicaments autorisés contenant des substances soumises à contrôle figurant dans le tableau d de l'OTStup-DFI</t>
     </r>
   </si>
   <si>
     <t>Zulassungs-nummer
-Numéro d'autorisation
-</t>
+Numéro d'autorisation</t>
   </si>
   <si>
     <t>Dosisstärke-nummer
@@ -86,7 +84,7 @@
   </si>
   <si>
     <t>IT-Nummer
-N° IT </t>
+N° IT</t>
   </si>
   <si>
     <t>ATC-Code
@@ -334,6 +332,75 @@
   </si>
   <si>
     <t>Venenmittel für den äusserlichen Gebrauch</t>
+  </si>
+  <si>
+    <t>Insulin Lilly Humalog Flacon, solution injectable</t>
+  </si>
+  <si>
+    <t>Eli Lilly (Suisse) SA</t>
+  </si>
+  <si>
+    <t>Biotechnologika</t>
+  </si>
+  <si>
+    <t>07.06.1.</t>
+  </si>
+  <si>
+    <t>A10AB04</t>
+  </si>
+  <si>
+    <t>1 x 10 ml</t>
+  </si>
+  <si>
+    <t>Flasche(n)</t>
+  </si>
+  <si>
+    <t>insulinum lisprum</t>
+  </si>
+  <si>
+    <t>insulinum lisprum 100 U.I., glycerolum, zincum, natrii phosphates, conserv.: metacresolum 3.15 mg, aqua ad iniectabilia q.s. ad solutionem pro 1 ml.</t>
+  </si>
+  <si>
+    <t>Diabète sucré</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Insulinanalog: schnell wirkend</t>
+  </si>
+  <si>
+    <t>Diaphin 10 g i.v., Injektionspräparat</t>
+  </si>
+  <si>
+    <t>DiaMo Narcotics GmbH</t>
+  </si>
+  <si>
+    <t>01.01.3.</t>
+  </si>
+  <si>
+    <t>N07BC06</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Ampulle(n)</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>diamorphinum</t>
+  </si>
+  <si>
+    <t>diamorphini hydrochloridum monohydricum 10 g corresp. diamorphinum 8.71 g pro vitro.</t>
+  </si>
+  <si>
+    <t>Ergänzung der Behandlung von schwer heroinabhängigen Personen</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -451,7 +518,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -479,8 +546,12 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -497,7 +568,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -517,7 +588,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -525,83 +596,71 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="21" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="21" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="21" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -621,20 +680,44 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -661,12 +744,8 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
@@ -674,6 +753,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="Standard 2" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Standard 2" xfId="21" builtinId="54" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -683,15 +763,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>38520</xdr:colOff>
+      <xdr:colOff>65520</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>989280</xdr:colOff>
+      <xdr:colOff>1015920</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>29520</xdr:rowOff>
+      <xdr:rowOff>29160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -704,8 +784,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38520" y="360"/>
-          <a:ext cx="1693440" cy="562320"/>
+          <a:off x="65520" y="360"/>
+          <a:ext cx="1693080" cy="561960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -725,10 +805,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:20"/>
+  <dimension ref="1:22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="20:20"/>
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="21:22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -772,35 +852,35 @@
       </c>
       <c r="Q1" s="13"/>
       <c r="R1" s="13"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="23" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="22" t="s">
         <v>1</v>
       </c>
       <c r="P2" s="0"/>
       <c r="Q2" s="13"/>
       <c r="R2" s="13"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
@@ -1807,26 +1887,26 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="30"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
       <c r="Q3" s="13"/>
       <c r="R3" s="13"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
@@ -2833,28 +2913,28 @@
       <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="96.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="32"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="29"/>
       <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
@@ -3860,1020 +3940,1151 @@
       <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
     </row>
-    <row r="5" s="38" customFormat="true" ht="117.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="33" t="s">
+    <row r="5" s="35" customFormat="true" ht="117.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="33" t="s">
+      <c r="K5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="L5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="33" t="s">
+      <c r="M5" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="33" t="s">
+      <c r="N5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="36" t="s">
+      <c r="O5" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="36" t="s">
+      <c r="P5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="35" t="s">
+      <c r="Q5" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="R5" s="35" t="s">
+      <c r="R5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="S5" s="35" t="s">
+      <c r="S5" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="T5" s="35" t="s">
+      <c r="T5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="U5" s="36" t="s">
+      <c r="U5" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="V5" s="36" t="s">
+      <c r="V5" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="W5" s="36" t="s">
+      <c r="W5" s="33" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" s="44" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="39" t="n">
+    <row r="6" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="36" t="n">
         <v>277</v>
       </c>
-      <c r="B6" s="40" t="n">
+      <c r="B6" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="42" t="n">
+      <c r="H6" s="39" t="n">
         <v>40294</v>
       </c>
-      <c r="I6" s="42" t="n">
+      <c r="I6" s="39" t="n">
         <v>40294</v>
       </c>
-      <c r="J6" s="42" t="n">
+      <c r="J6" s="39" t="n">
         <v>43946</v>
       </c>
-      <c r="K6" s="43" t="n">
+      <c r="K6" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="L6" s="40" t="s">
+      <c r="L6" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="40" t="s">
+      <c r="M6" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="40" t="s">
+      <c r="N6" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="40" t="s">
+      <c r="O6" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="40" t="s">
+      <c r="P6" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="Q6" s="41" t="s">
+      <c r="Q6" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="R6" s="41" t="s">
+      <c r="R6" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="S6" s="41" t="s">
+      <c r="S6" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="T6" s="41"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
     </row>
-    <row r="7" s="44" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="39" t="n">
+    <row r="7" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="36" t="n">
         <v>277</v>
       </c>
-      <c r="B7" s="40" t="n">
+      <c r="B7" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="42" t="n">
+      <c r="H7" s="39" t="n">
         <v>40294</v>
       </c>
-      <c r="I7" s="42" t="n">
+      <c r="I7" s="39" t="n">
         <v>40294</v>
       </c>
-      <c r="J7" s="42" t="n">
+      <c r="J7" s="39" t="n">
         <v>43946</v>
       </c>
-      <c r="K7" s="43" t="n">
+      <c r="K7" s="40" t="n">
         <v>2</v>
       </c>
-      <c r="L7" s="40" t="s">
+      <c r="L7" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="40" t="s">
+      <c r="M7" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="40" t="s">
+      <c r="N7" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="40" t="s">
+      <c r="O7" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="P7" s="40" t="s">
+      <c r="P7" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" s="41" t="s">
+      <c r="Q7" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="R7" s="41" t="s">
+      <c r="R7" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="S7" s="41" t="s">
+      <c r="S7" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="T7" s="41"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
     </row>
-    <row r="8" s="44" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="39" t="n">
+    <row r="8" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="36" t="n">
         <v>278</v>
       </c>
-      <c r="B8" s="40" t="n">
+      <c r="B8" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="42" t="n">
+      <c r="H8" s="39" t="n">
         <v>40294</v>
       </c>
-      <c r="I8" s="42" t="n">
+      <c r="I8" s="39" t="n">
         <v>40294</v>
       </c>
-      <c r="J8" s="42" t="n">
+      <c r="J8" s="39" t="n">
         <v>43946</v>
       </c>
-      <c r="K8" s="43" t="n">
+      <c r="K8" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="L8" s="40" t="s">
+      <c r="L8" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="40" t="s">
+      <c r="M8" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="N8" s="40" t="s">
+      <c r="N8" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="40" t="s">
+      <c r="O8" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="P8" s="40" t="s">
+      <c r="P8" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="Q8" s="41" t="s">
+      <c r="Q8" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="R8" s="41" t="s">
+      <c r="R8" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="S8" s="41" t="s">
+      <c r="S8" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="T8" s="41"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
     </row>
-    <row r="9" s="44" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="45" t="n">
+    <row r="9" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="41" t="n">
         <v>278</v>
       </c>
-      <c r="B9" s="40" t="n">
+      <c r="B9" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="42" t="n">
+      <c r="H9" s="39" t="n">
         <v>40294</v>
       </c>
-      <c r="I9" s="42" t="n">
+      <c r="I9" s="39" t="n">
         <v>40294</v>
       </c>
-      <c r="J9" s="42" t="n">
+      <c r="J9" s="39" t="n">
         <v>43946</v>
       </c>
-      <c r="K9" s="43" t="n">
+      <c r="K9" s="40" t="n">
         <v>2</v>
       </c>
-      <c r="L9" s="40" t="s">
+      <c r="L9" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="M9" s="40" t="s">
+      <c r="M9" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="N9" s="40" t="s">
+      <c r="N9" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="40" t="s">
+      <c r="O9" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="P9" s="40" t="s">
+      <c r="P9" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="Q9" s="41" t="s">
+      <c r="Q9" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="R9" s="41" t="s">
+      <c r="R9" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="S9" s="41" t="s">
+      <c r="S9" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="T9" s="41"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
     </row>
-    <row r="10" s="44" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="39" t="n">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="36" t="n">
         <v>47066</v>
       </c>
-      <c r="B10" s="40" t="n">
+      <c r="B10" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40" t="s">
+      <c r="F10" s="37"/>
+      <c r="G10" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="42" t="n">
+      <c r="H10" s="39" t="n">
         <v>31239</v>
       </c>
-      <c r="I10" s="42" t="n">
+      <c r="I10" s="39" t="n">
         <v>31239</v>
       </c>
-      <c r="J10" s="42" t="n">
+      <c r="J10" s="39" t="n">
         <v>43779</v>
       </c>
-      <c r="K10" s="43" t="n">
+      <c r="K10" s="40" t="n">
         <v>18</v>
       </c>
-      <c r="L10" s="40" t="s">
+      <c r="L10" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="40" t="s">
+      <c r="M10" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="N10" s="40" t="s">
+      <c r="N10" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="40" t="s">
+      <c r="O10" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="P10" s="40" t="s">
+      <c r="P10" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="Q10" s="41" t="s">
+      <c r="Q10" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="R10" s="41" t="s">
+      <c r="R10" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="S10" s="41" t="s">
+      <c r="S10" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="T10" s="41"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
     </row>
-    <row r="11" s="44" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="39" t="n">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="36" t="n">
         <v>47066</v>
       </c>
-      <c r="B11" s="40" t="n">
+      <c r="B11" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40" t="s">
+      <c r="F11" s="37"/>
+      <c r="G11" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="42" t="n">
+      <c r="H11" s="39" t="n">
         <v>31239</v>
       </c>
-      <c r="I11" s="42" t="n">
+      <c r="I11" s="39" t="n">
         <v>31239</v>
       </c>
-      <c r="J11" s="42" t="n">
+      <c r="J11" s="39" t="n">
         <v>43779</v>
       </c>
-      <c r="K11" s="43" t="n">
+      <c r="K11" s="40" t="n">
         <v>26</v>
       </c>
-      <c r="L11" s="40" t="s">
+      <c r="L11" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="M11" s="40" t="s">
+      <c r="M11" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="N11" s="40" t="s">
+      <c r="N11" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="O11" s="40" t="s">
+      <c r="O11" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="P11" s="40" t="s">
+      <c r="P11" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="Q11" s="41" t="s">
+      <c r="Q11" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="R11" s="41" t="s">
+      <c r="R11" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="S11" s="41" t="s">
+      <c r="S11" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="T11" s="41"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="40"/>
-      <c r="W11" s="40"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
     </row>
-    <row r="12" s="44" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="39" t="n">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="36" t="n">
         <v>48624</v>
       </c>
-      <c r="B12" s="40" t="n">
+      <c r="B12" s="37" t="n">
         <v>2</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="42" t="n">
+      <c r="H12" s="39" t="n">
         <v>31860</v>
       </c>
-      <c r="I12" s="42" t="n">
+      <c r="I12" s="39" t="n">
         <v>36859</v>
       </c>
-      <c r="J12" s="42" t="n">
+      <c r="J12" s="39" t="n">
         <v>42701</v>
       </c>
-      <c r="K12" s="43" t="n">
+      <c r="K12" s="40" t="n">
         <v>22</v>
       </c>
-      <c r="L12" s="40" t="s">
+      <c r="L12" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="M12" s="40" t="s">
+      <c r="M12" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="N12" s="40" t="s">
+      <c r="N12" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="O12" s="40" t="s">
+      <c r="O12" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="P12" s="40" t="s">
+      <c r="P12" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="Q12" s="41" t="s">
+      <c r="Q12" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="R12" s="41" t="s">
+      <c r="R12" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="S12" s="41" t="s">
+      <c r="S12" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="T12" s="41"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="40"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
     </row>
-    <row r="13" s="44" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="39" t="n">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="36" t="n">
         <v>62069</v>
       </c>
-      <c r="B13" s="40" t="n">
+      <c r="B13" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="40" t="s">
+      <c r="F13" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="40" t="s">
+      <c r="G13" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="42" t="n">
+      <c r="H13" s="39" t="n">
         <v>40610</v>
       </c>
-      <c r="I13" s="42" t="n">
+      <c r="I13" s="39" t="n">
         <v>40610</v>
       </c>
-      <c r="J13" s="42" t="n">
+      <c r="J13" s="39" t="n">
         <v>42436</v>
       </c>
-      <c r="K13" s="43" t="n">
+      <c r="K13" s="40" t="n">
         <v>8</v>
       </c>
-      <c r="L13" s="40" t="s">
+      <c r="L13" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="M13" s="40" t="s">
+      <c r="M13" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="N13" s="40" t="s">
+      <c r="N13" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="O13" s="40" t="s">
+      <c r="O13" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="P13" s="40" t="s">
+      <c r="P13" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="Q13" s="41" t="s">
+      <c r="Q13" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="R13" s="41" t="s">
+      <c r="R13" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="S13" s="41" t="s">
+      <c r="S13" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="T13" s="41"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="40"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
     </row>
-    <row r="14" s="44" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="39" t="n">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="36" t="n">
         <v>62069</v>
       </c>
-      <c r="B14" s="40" t="n">
+      <c r="B14" s="37" t="n">
         <v>2</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="E14" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="40" t="s">
+      <c r="F14" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="40" t="s">
+      <c r="G14" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="42" t="n">
+      <c r="H14" s="39" t="n">
         <v>40610</v>
       </c>
-      <c r="I14" s="42" t="n">
+      <c r="I14" s="39" t="n">
         <v>40610</v>
       </c>
-      <c r="J14" s="42" t="n">
+      <c r="J14" s="39" t="n">
         <v>42436</v>
       </c>
-      <c r="K14" s="43" t="n">
+      <c r="K14" s="40" t="n">
         <v>9</v>
       </c>
-      <c r="L14" s="40" t="s">
+      <c r="L14" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="M14" s="40" t="s">
+      <c r="M14" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="N14" s="40" t="s">
+      <c r="N14" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="O14" s="40" t="s">
+      <c r="O14" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="P14" s="40" t="s">
+      <c r="P14" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="Q14" s="41" t="s">
+      <c r="Q14" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="R14" s="41" t="s">
+      <c r="R14" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="S14" s="41" t="s">
+      <c r="S14" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="T14" s="41"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="40"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
     </row>
-    <row r="15" s="44" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="39" t="n">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="36" t="n">
         <v>62069</v>
       </c>
-      <c r="B15" s="40" t="n">
+      <c r="B15" s="37" t="n">
         <v>2</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="G15" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="42" t="n">
+      <c r="H15" s="39" t="n">
         <v>40610</v>
       </c>
-      <c r="I15" s="42" t="n">
+      <c r="I15" s="39" t="n">
         <v>40610</v>
       </c>
-      <c r="J15" s="42" t="n">
+      <c r="J15" s="39" t="n">
         <v>42436</v>
       </c>
-      <c r="K15" s="43" t="n">
+      <c r="K15" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="L15" s="40" t="s">
+      <c r="L15" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="M15" s="40" t="s">
+      <c r="M15" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="N15" s="40" t="s">
+      <c r="N15" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="O15" s="40" t="s">
+      <c r="O15" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="P15" s="40" t="s">
+      <c r="P15" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="Q15" s="41" t="s">
+      <c r="Q15" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="R15" s="41" t="s">
+      <c r="R15" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="S15" s="41" t="s">
+      <c r="S15" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="T15" s="41"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
     </row>
-    <row r="16" s="44" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="39" t="n">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="36" t="n">
         <v>62069</v>
       </c>
-      <c r="B16" s="40" t="n">
+      <c r="B16" s="37" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="40" t="s">
+      <c r="G16" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H16" s="42" t="n">
+      <c r="H16" s="39" t="n">
         <v>40610</v>
       </c>
-      <c r="I16" s="42" t="n">
+      <c r="I16" s="39" t="n">
         <v>40610</v>
       </c>
-      <c r="J16" s="42" t="n">
+      <c r="J16" s="39" t="n">
         <v>42436</v>
       </c>
-      <c r="K16" s="43" t="n">
+      <c r="K16" s="40" t="n">
         <v>11</v>
       </c>
-      <c r="L16" s="40" t="s">
+      <c r="L16" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="M16" s="40" t="s">
+      <c r="M16" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="N16" s="40" t="s">
+      <c r="N16" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="O16" s="40" t="s">
+      <c r="O16" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="P16" s="40" t="s">
+      <c r="P16" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="Q16" s="41" t="s">
+      <c r="Q16" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="R16" s="41" t="s">
+      <c r="R16" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="S16" s="41" t="s">
+      <c r="S16" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="T16" s="41"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="40"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
     </row>
-    <row r="17" s="44" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="39" t="n">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="36" t="n">
         <v>62069</v>
       </c>
-      <c r="B17" s="40" t="n">
+      <c r="B17" s="37" t="n">
         <v>3</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="41" t="s">
+      <c r="E17" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="40" t="s">
+      <c r="F17" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="40" t="s">
+      <c r="G17" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H17" s="42" t="n">
+      <c r="H17" s="39" t="n">
         <v>40610</v>
       </c>
-      <c r="I17" s="42" t="n">
+      <c r="I17" s="39" t="n">
         <v>40610</v>
       </c>
-      <c r="J17" s="42" t="n">
+      <c r="J17" s="39" t="n">
         <v>42436</v>
       </c>
-      <c r="K17" s="43" t="n">
+      <c r="K17" s="40" t="n">
         <v>12</v>
       </c>
-      <c r="L17" s="40" t="s">
+      <c r="L17" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="M17" s="40" t="s">
+      <c r="M17" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="N17" s="40" t="s">
+      <c r="N17" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="O17" s="40" t="s">
+      <c r="O17" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="P17" s="40" t="s">
+      <c r="P17" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="Q17" s="41" t="s">
+      <c r="Q17" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="R17" s="41" t="s">
+      <c r="R17" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="S17" s="41" t="s">
+      <c r="S17" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="T17" s="41"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
     </row>
-    <row r="18" s="44" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="39" t="n">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="36" t="n">
         <v>62069</v>
       </c>
-      <c r="B18" s="40" t="n">
+      <c r="B18" s="37" t="n">
         <v>3</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="40" t="s">
+      <c r="G18" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H18" s="42" t="n">
+      <c r="H18" s="39" t="n">
         <v>40610</v>
       </c>
-      <c r="I18" s="42" t="n">
+      <c r="I18" s="39" t="n">
         <v>40610</v>
       </c>
-      <c r="J18" s="42" t="n">
+      <c r="J18" s="39" t="n">
         <v>42436</v>
       </c>
-      <c r="K18" s="43" t="n">
+      <c r="K18" s="40" t="n">
         <v>13</v>
       </c>
-      <c r="L18" s="40" t="s">
+      <c r="L18" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="M18" s="40" t="s">
+      <c r="M18" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="N18" s="40" t="s">
+      <c r="N18" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="O18" s="40" t="s">
+      <c r="O18" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="P18" s="40" t="s">
+      <c r="P18" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="Q18" s="41" t="s">
+      <c r="Q18" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="R18" s="41" t="s">
+      <c r="R18" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="S18" s="41" t="s">
+      <c r="S18" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="T18" s="41"/>
-      <c r="U18" s="40"/>
-      <c r="V18" s="40"/>
-      <c r="W18" s="40"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
     </row>
-    <row r="19" s="44" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="39" t="n">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="36" t="n">
         <v>62069</v>
       </c>
-      <c r="B19" s="40" t="n">
+      <c r="B19" s="37" t="n">
         <v>3</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="41" t="s">
+      <c r="E19" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="40" t="s">
+      <c r="F19" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="40" t="s">
+      <c r="G19" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="42" t="n">
+      <c r="H19" s="39" t="n">
         <v>40610</v>
       </c>
-      <c r="I19" s="42" t="n">
+      <c r="I19" s="39" t="n">
         <v>40610</v>
       </c>
-      <c r="J19" s="42" t="n">
+      <c r="J19" s="39" t="n">
         <v>42436</v>
       </c>
-      <c r="K19" s="43" t="n">
+      <c r="K19" s="40" t="n">
         <v>14</v>
       </c>
-      <c r="L19" s="40" t="s">
+      <c r="L19" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="M19" s="40" t="s">
+      <c r="M19" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="N19" s="40" t="s">
+      <c r="N19" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="O19" s="40" t="s">
+      <c r="O19" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="P19" s="40" t="s">
+      <c r="P19" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="Q19" s="41" t="s">
+      <c r="Q19" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="R19" s="41" t="s">
+      <c r="R19" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="S19" s="41" t="s">
+      <c r="S19" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="T19" s="41"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="40"/>
-      <c r="W19" s="40"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
     </row>
-    <row r="20" s="44" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="39" t="n">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="36" t="n">
         <v>16105</v>
       </c>
-      <c r="B20" s="40" t="n">
+      <c r="B20" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="E20" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="40" t="s">
+      <c r="F20" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="G20" s="40" t="s">
+      <c r="G20" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="H20" s="42" t="n">
+      <c r="H20" s="39" t="n">
         <v>18872</v>
       </c>
-      <c r="I20" s="42" t="n">
+      <c r="I20" s="39" t="n">
         <v>18872</v>
       </c>
-      <c r="J20" s="42" t="n">
+      <c r="J20" s="39" t="n">
         <v>43162</v>
       </c>
-      <c r="K20" s="43" t="n">
+      <c r="K20" s="40" t="n">
         <v>58</v>
       </c>
-      <c r="L20" s="40" t="s">
+      <c r="L20" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="M20" s="40" t="s">
+      <c r="M20" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="N20" s="40" t="s">
+      <c r="N20" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="O20" s="40" t="s">
+      <c r="O20" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="P20" s="40" t="s">
+      <c r="P20" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="Q20" s="41" t="s">
+      <c r="Q20" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="R20" s="41" t="s">
+      <c r="R20" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="S20" s="41" t="s">
+      <c r="S20" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="T20" s="41"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="40"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+    </row>
+    <row r="21" s="47" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="42" t="n">
+        <v>53290</v>
+      </c>
+      <c r="B21" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" s="45" t="n">
+        <v>35026</v>
+      </c>
+      <c r="I21" s="45" t="n">
+        <v>35026</v>
+      </c>
+      <c r="J21" s="45" t="n">
+        <v>43002</v>
+      </c>
+      <c r="K21" s="46" t="n">
+        <v>19</v>
+      </c>
+      <c r="L21" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="M21" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="N21" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="O21" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="P21" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q21" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="R21" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="S21" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="T21" s="44"/>
+      <c r="U21" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="V21" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="W21" s="43"/>
+    </row>
+    <row r="22" s="47" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="42" t="n">
+        <v>55561</v>
+      </c>
+      <c r="B22" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="45" t="n">
+        <v>37232</v>
+      </c>
+      <c r="I22" s="45" t="n">
+        <v>37232</v>
+      </c>
+      <c r="J22" s="45" t="n">
+        <v>43732</v>
+      </c>
+      <c r="K22" s="46" t="n">
+        <v>4</v>
+      </c>
+      <c r="L22" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="M22" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="N22" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="O22" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="P22" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q22" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="R22" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="S22" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="T22" s="44"/>
+      <c r="U22" s="43"/>
+      <c r="V22" s="43"/>
+      <c r="W22" s="43" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:R19"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>

--- a/spec/data/swissmedic_package.xlsx
+++ b/spec/data/swissmedic_package.xlsx
@@ -5,38 +5,32 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="601" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Zugelassene Packungen" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">{#name?}</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0" vbProcedure="false">{#name?}</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_1" vbProcedure="false">Sheet1!$3:$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$4:$R$19</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">sheet1!#ref!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">sheet1!#ref!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">sheet1!#ref!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_1" vbProcedure="false">sheet1!#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">'Zugelassene Packungen'!$5:$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">'Zugelassene Packungen'!$5:$5</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="217">
   <si>
     <t>Zugelassene Packungen / Conditionnements autorisés</t>
   </si>
   <si>
-    <t>Stand / Etat au: 30.06.2015</t>
+    <t>Stand / Etat au: 31.10.2015</t>
   </si>
   <si>
     <r>
       <t>* Die Gültigkeitsdauer entspricht den Angaben auf der Zulassungsbescheinigung. Provisorische Zulassungen, ohne Erneuerung des Gültigkeitsdatums, sind vorbehalten. Alle in der Liste aufgeführten Arzneimittel sind zum Zeitpunkt der Aktualisierung der Liste zugelassen / 
   La durée de validité correspond aux données figurant sur le certificat d'autorisation. Les autorisations provisoires, sans report de la date d'expiration, restent réservées. Tous les médicaments énumérés dans la liste sont autorisés au moment de la mise à jour de la liste. 
-**</t>
+** </t>
     </r>
     <r>
       <rPr>
@@ -55,16 +49,18 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>(Kategorien der Kontrollmassnahmen, denen die Betäubungsmittel unterstellt sind) / Tableaux (catégories de mesures de contrôle auxquelles sont soumis les stupéfiants)
+      <t> (Kategorien der Kontrollmassnahmen, denen die Betäubungsmittel unterstellt sind) / Tableaux (catégories de mesures de contrôle auxquelles sont soumis les stupéfiants)
 a: Unterstehen allen Kontrollmassnahmen (s. auch Anhang a der BetmVV-EDI) / Soumis à toutes les mesures de contrôle (voir aussi le tableau a de l'OTStup-DFI)
 b: Unterstehen nicht allen Kontrollmassnahmen (s. auch Anhang b der BetmVV-EDI) / Soustraits partiellement au contrôle (voir aussi le tableau b de l'OTStup-DFI)
 c: Unterstehen nicht allen Kontrollmassnahmen; in kleinen Mengen ohne Verschreibung erhältlich (s. auch Verzeichnis c der BetmVV-EDI) / Soustraits partiellement au contrôle; pouvant être obtenus en petites quantités sans ordonnance (voir aussi le tableau c de l'OTStup-DFI)
-d: Zugelassene Arzneimittel, die kontrollierte Substanzen des Verzeichnisses d gemäss BetmVV-EDI enthalten / Médicaments autorisés contenant des substances soumises à contrôle figurant dans le tableau d de l'OTStup-DFI</t>
+d: Zugelassene Arzneimittel, die kontrollierte Substanzen des Verzeichnisses d gemäss BetmVV-EDI enthalten / Médicaments autorisés contenant des substances soumises à contrôle figurant dans le tableau d de l'OTStup-DFI
+f:  Zugelassene Arzneimittel, die kontrollierte Substanzen des Verzeichnisses f gemäss BetmVV-EDI enthalten / médicaments autorisés contenant des substances soumises à contrôle figurant dans le tableau f de l'OTStup-DFI</t>
     </r>
   </si>
   <si>
     <t>Zulassungs-nummer
-Numéro d'autorisation</t>
+Numéro d'autorisation
+</t>
   </si>
   <si>
     <t>Dosisstärke-nummer
@@ -84,7 +80,7 @@
   </si>
   <si>
     <t>IT-Nummer
-N° IT</t>
+N° IT </t>
   </si>
   <si>
     <t>ATC-Code
@@ -189,83 +185,509 @@
 Possibilités d'emploi voir information professionnelle</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Colon Sérocytol, suppositoire</t>
-  </si>
-  <si>
-    <t>globulina equina (immunisé avec tissu intestinal porcin)</t>
-  </si>
-  <si>
-    <t>globulina equina (immunisé avec tissu intestinal porcin) 8 mg, propylenglycolum, conserv.: E 216, E 218, excipiens pro suppositorio.</t>
-  </si>
-  <si>
-    <t>Traitement immunomodulant  selon le Dr Thomas
-Possibilités d'emploi voir information professionnelle</t>
-  </si>
-  <si>
-    <t>Caniphedrin 20mg ad us.vet., Tabletten</t>
+    <t>Hirudoid, Creme</t>
+  </si>
+  <si>
+    <t>Medinova AG</t>
+  </si>
+  <si>
+    <t>Synthetika human</t>
+  </si>
+  <si>
+    <t>02.08.2.</t>
+  </si>
+  <si>
+    <t>C05BA</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>heparinoidum (chondroitini polysulfas)</t>
+  </si>
+  <si>
+    <t>heparinoidum (chondroitini polysulfas) 3 mg alcoholes adipis lanae, aromatica, conserv.: E 218, E 216, excipiens ad unguentum pro 1 g.</t>
+  </si>
+  <si>
+    <t>Venenmittel für den äusserlichen Gebrauch</t>
+  </si>
+  <si>
+    <t>W-Tropfen</t>
+  </si>
+  <si>
+    <t>Iromedica AG</t>
+  </si>
+  <si>
+    <t>10.07.0.</t>
+  </si>
+  <si>
+    <t>D11AF</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>ml</t>
+  </si>
+  <si>
+    <t>acidum lacticum, acidum salicylicum</t>
+  </si>
+  <si>
+    <t>acidum lacticum 40.915 mg, acidum salicylicum 100.2 mg, excipiens ad solutionem pro 1 ml.</t>
+  </si>
+  <si>
+    <t>Hühneraugen, Hornhaut, Warzen</t>
+  </si>
+  <si>
+    <t>Ancopir, Injektionslösung</t>
+  </si>
+  <si>
+    <t>Dr. Grossmann AG, Pharmaca</t>
+  </si>
+  <si>
+    <t>07.02.4.</t>
+  </si>
+  <si>
+    <t>A11DB</t>
+  </si>
+  <si>
+    <t>5 x 2 ml</t>
+  </si>
+  <si>
+    <t>Ampulle(n)</t>
+  </si>
+  <si>
+    <t>thiamini hydrochloridum, pyridoxini hydrochloridum, cyanocobalaminum, lidocaini hydrochloridum</t>
+  </si>
+  <si>
+    <t>thiamini hydrochloridum 200 mg, pyridoxini hydrochloridum 50 mg, cyanocobalaminum 1 mg, lidocaini hydrochloridum 10 mg, sorbitolum, conserv.: E 218 1.6 mg, aqua ad iniectabilia q.s. ad solutionem pro 2 ml.</t>
+  </si>
+  <si>
+    <t>Vitamin B1, B6, B12-Präparat</t>
+  </si>
+  <si>
+    <t>Lidocain 1% Streuli, Injektionslösung (Ampullen)</t>
   </si>
   <si>
     <t>Streuli Pharma AG</t>
   </si>
   <si>
-    <t>Tierarzneimittel</t>
-  </si>
-  <si>
-    <t>QG04BX90</t>
-  </si>
-  <si>
-    <t>100</t>
+    <t>01.02.2.</t>
+  </si>
+  <si>
+    <t>N01BB02</t>
+  </si>
+  <si>
+    <t>10 x  2</t>
+  </si>
+  <si>
+    <t>lidocaini hydrochloridum</t>
+  </si>
+  <si>
+    <t>lidocaini hydrochloridum 10 mg, natrii chloridum, aqua ad iniectabilia q.s. ad solutionem pro 1 ml.</t>
+  </si>
+  <si>
+    <t>Lokalanaestheticum</t>
+  </si>
+  <si>
+    <t>Ferro-Gradumet, compresse a rilascio prolungato</t>
+  </si>
+  <si>
+    <t>FARMACEUTICA TEOFARMA SUISSE SA</t>
+  </si>
+  <si>
+    <t>06.07.1.</t>
+  </si>
+  <si>
+    <t>B03AA07</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
   <si>
     <t>Tablette(n)</t>
   </si>
   <si>
-    <t>ephedrini hydrochloridum</t>
-  </si>
-  <si>
-    <t>ephedrini hydrochloridum 20 mg, excipiens pro compresso.</t>
-  </si>
-  <si>
-    <t>Zur Behandlung der Harninkontinenz bei Hunden</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>Viscotears Tropfgel, Augengel</t>
-  </si>
-  <si>
-    <t>Alcon Switzerland SA</t>
-  </si>
-  <si>
-    <t>Synthetika human</t>
-  </si>
-  <si>
-    <t>11.08.2.</t>
-  </si>
-  <si>
-    <t>S01XA20</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>carbomerum 980</t>
-  </si>
-  <si>
-    <t>carbomerum 980 2 mg, conserv.: cetrimidum, excipiens ad gelatum pro 1 g.</t>
-  </si>
-  <si>
-    <t>Tränenflüssigkeitsersatz</t>
+    <t>C</t>
+  </si>
+  <si>
+    <t>ferrum(II)</t>
+  </si>
+  <si>
+    <t>ferrum(II) 105 mg ut ferrosi sulfas dessiccatus, arom.: saccharinum natricum, color.: E 127, excipiens pro compresso.</t>
+  </si>
+  <si>
+    <t>Anemia da carenza di ferro con carenza di ferro accertata</t>
+  </si>
+  <si>
+    <t>Lansoyl, gelée</t>
+  </si>
+  <si>
+    <t>Actipharm SA</t>
+  </si>
+  <si>
+    <t>04.08.11</t>
+  </si>
+  <si>
+    <t>A06AA01</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>paraffinum liquidum</t>
+  </si>
+  <si>
+    <t>paraffinum liquidum 782.3 mg, saccharum, arom.: vanillinum, ethylvanillinum et alia, color.: E 124, excipiens ad gelatum pro 1 g.</t>
+  </si>
+  <si>
+    <t>Laxatif</t>
+  </si>
+  <si>
+    <t>Kendural, compresse a rilascio prolungato</t>
+  </si>
+  <si>
+    <t>B03AE10</t>
+  </si>
+  <si>
+    <t>ferrum(II), acidum ascorbicum</t>
+  </si>
+  <si>
+    <t>ferrum(II) 105 mg ut ferrosi sulfas dessiccatus, acidum ascorbicum 500 mg ut natrii ascorbas, color.: E 124, excipiens pro compresso obducto.</t>
+  </si>
+  <si>
+    <t>Kamillin Medipharm, Bad</t>
+  </si>
+  <si>
+    <t>Phytotherapeutika</t>
+  </si>
+  <si>
+    <t>10.08.0.</t>
+  </si>
+  <si>
+    <t>D03AX</t>
+  </si>
+  <si>
+    <t>10 x 40</t>
+  </si>
+  <si>
+    <t>matricariae extractum isopropanolicum liquidum</t>
+  </si>
+  <si>
+    <t>matricariae extractum isopropanolicum liquidum 98.9 g corresp. levomenolum 10-50 mg, ratio: 1:2-2.8, excipiens ad solutionem pro 100 g.</t>
+  </si>
+  <si>
+    <t>Bei Hauterkrankungen</t>
+  </si>
+  <si>
+    <t>Rocephin 500 mg i.v., Trockenampullen + Solvens</t>
+  </si>
+  <si>
+    <t>Roche Pharma (Schweiz) AG</t>
+  </si>
+  <si>
+    <t>08.01.3.</t>
+  </si>
+  <si>
+    <t>J01DD04</t>
+  </si>
+  <si>
+    <t>5 + 5</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>ceftriaxonum</t>
+  </si>
+  <si>
+    <t>Praeparatio sicca: ceftriaxonum 500 mg ut ceftriaxonum natricum pro vitro.
+Solvens: aqua ad iniectabilia 5 ml.</t>
+  </si>
+  <si>
+    <t>Infektionskrankheiten</t>
+  </si>
+  <si>
+    <t>Magnesiumchlorid 0,5 molar B. Braun, Zusatzampulle für              Infusionslösungen</t>
+  </si>
+  <si>
+    <t>B. Braun Medical AG</t>
+  </si>
+  <si>
+    <t>05.03.2.</t>
+  </si>
+  <si>
+    <t>B05XA11</t>
+  </si>
+  <si>
+    <t>5 x 10 mL</t>
+  </si>
+  <si>
+    <t>magnesium, chloridum</t>
+  </si>
+  <si>
+    <t>magnesium 500 mmol, chloridum 1000 mmol, aqua ad iniectabilia q.s. ad solutionem pro 1000 ml.</t>
+  </si>
+  <si>
+    <t>Magnesiummangel</t>
+  </si>
+  <si>
+    <t>Insulin Lilly Humalog Flacon, solution injectable</t>
+  </si>
+  <si>
+    <t>Eli Lilly (Suisse) SA</t>
+  </si>
+  <si>
+    <t>Biotechnologika</t>
+  </si>
+  <si>
+    <t>07.06.1.</t>
+  </si>
+  <si>
+    <t>A10AB04</t>
+  </si>
+  <si>
+    <t>1 x 10 ml</t>
+  </si>
+  <si>
+    <t>Flasche(n)</t>
+  </si>
+  <si>
+    <t>insulinum lisprum</t>
+  </si>
+  <si>
+    <t>insulinum lisprum 100 U.I., glycerolum, zincum, natrii phosphates, conserv.: metacresolum 3.15 mg, aqua ad iniectabilia q.s. ad solutionem pro 1 ml.</t>
+  </si>
+  <si>
+    <t>Diabète sucré</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Insulinanalog: schnell wirkend</t>
+  </si>
+  <si>
+    <t>3TC 150 mg, Filmtabletten</t>
+  </si>
+  <si>
+    <t>ViiV Healthcare GmbH</t>
+  </si>
+  <si>
+    <t>08.03.0.</t>
+  </si>
+  <si>
+    <t>J05AF05</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>lamivudinum</t>
+  </si>
+  <si>
+    <t>lamivudinum 150 mg, excipiens pro compresso obducto.</t>
+  </si>
+  <si>
+    <t>HIV-Infektionen</t>
+  </si>
+  <si>
+    <t>Naropin 0,2 %, Infusionslösung / Injektionslösung</t>
+  </si>
+  <si>
+    <t>AstraZeneca AG</t>
+  </si>
+  <si>
+    <t>N01BB09</t>
+  </si>
+  <si>
+    <t>5 x 10</t>
+  </si>
+  <si>
+    <t>ropivacainum</t>
+  </si>
+  <si>
+    <t>ropivacaini hydrochloridum 2 mg, natrii chloridum, aqua ad iniectabilia q.s. ad solutionem pro 1 ml.</t>
+  </si>
+  <si>
+    <t>Lokalanästhetikum</t>
+  </si>
+  <si>
+    <t>Zyvoxid 600 mg, Filmtabletten</t>
+  </si>
+  <si>
+    <t>Pfizer AG</t>
+  </si>
+  <si>
+    <t>08.01.9.</t>
+  </si>
+  <si>
+    <t>J01XX08</t>
+  </si>
+  <si>
+    <t>linezolidum</t>
+  </si>
+  <si>
+    <t>linezolidum 600 mg, excipiens pro compresso obducto.</t>
+  </si>
+  <si>
+    <t>Diaphin 10 g i.v., Injektionspräparat</t>
+  </si>
+  <si>
+    <t>DiaMo Narcotics GmbH</t>
+  </si>
+  <si>
+    <t>01.01.3.</t>
+  </si>
+  <si>
+    <t>N07BC06</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>diamorphinum</t>
+  </si>
+  <si>
+    <t>diamorphini hydrochloridum monohydricum 10 g corresp. diamorphinum 8.71 g pro vitro.</t>
+  </si>
+  <si>
+    <t>Ergänzung der Behandlung von schwer heroinabhängigen Personen</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Nutriflex Lipid plus, Infusionsemulsion, 1250ml</t>
+  </si>
+  <si>
+    <t>07.01.2.</t>
+  </si>
+  <si>
+    <t>B05BA10</t>
+  </si>
+  <si>
+    <t>5 x 1250</t>
+  </si>
+  <si>
+    <t>glucosum anhydricum, natrii dihydrogenophosphas dihydricus, zinci acetas dihydricus, isoleucinum, leucinum, lysinum anhydricum, methioninum, phenylalaninum, threoninum, tryptophanum, valinum, argininum, histidinum, alaninum, acidum asparticum, acidum glutamicum, glycinum, prolinum, serinum, natrii hydroxidum, natrii chloridum, natrii acetas trihydricus, kalii acetas, magnesii acetas tetrahydricus, calcii chloridum dihydricum, aminoacida, nitrogenia, carbohydrata, materia crassa, natrium, kalium, magnesium, calcium, zincum, chloridum, phosphas, acetas, sojae oleum, triglycerida saturata media</t>
+  </si>
+  <si>
+    <t>I) Glucoselösung: glucosum anhydricum 150 g ut glucosum monohydricum, natrii dihydrogenophosphas dihydricus 2.34 g, zinci acetas dihydricus 6.58 mg, aqua ad iniectabilia q.s. ad solutionem pro 500 ml.
+II) Fettemulsion: sojae oleum 25 g, triglycerida saturata media 25 g, lecithinum ex ovo, glycerolum, natrii oleas, aqua ad iniectabilia q.s. ad emulsionem pro 250 ml.
+III) Aminosäurenlösung: isoleucinum 2.82 g, leucinum 3.76 g, lysinum anhydricum 2.73 g ut lysinum monohydricum, methioninum 2.35 g, phenylalaninum 4.21 g, threoninum 2.18 g, tryptophanum 680 mg, valinum 3.12 g, argininum 3.24 g, histidinum 1.5 g ut histidini hydrochloridum monohydricum, alaninum 5.82 g, acidum asparticum 1.8 g, acidum glutamicum 4.21 g, glycinum 1.98 g, prolinum 4.08 g, serinum 3.6 g, natrii hydroxidum 0.976 g, natrii chloridum 0.503 g, natrii acetas trihydricus 0.277 g, kalii acetas 3.434 g, magnesii acetas tetrahydricus 0.858 g, calcii chloridum dihydricum 0.588 g, aqua ad iniectabilia q.s. ad solutionem pro 500 ml.
+.
+I) et II) et III) corresp.: aminoacida 38.4 g/l, nitrogenia 5.44 g/l, carbohydrata 120 g/l, materia crassa 40 g/l, natrium 40 mmol/l, kalium 28 mmol/l, magnesium 3.2 mmol/l, calcium 3.2 mmol/l, zincum 0.024 mmol/l, chloridum 36 mmol/l, phosphas 12 mmol/l, acetas 36 mmol/l, in emulsione recenter mixta 1000 ml.
+Corresp. 4240 kJ pro 1 l.</t>
+  </si>
+  <si>
+    <t>Parenterale Ernährung</t>
+  </si>
+  <si>
+    <t>Caverject DC 10, Injektionspräparat</t>
+  </si>
+  <si>
+    <t>05.99.0.</t>
+  </si>
+  <si>
+    <t>G04BE01</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Spritze(n)</t>
+  </si>
+  <si>
+    <t>alprostadilum</t>
+  </si>
+  <si>
+    <t>Praeparatio cryodesiccata: alprostadilum 10 µg, alfadexum, lactosum anhydricum, natrii citras dihydricus, acidum hydrochloridum aut natrii hydroxidum, pro vitro.
+Solvens: conserv.: alcohol benzylicus 4.45 mg, aqua ad iniectabilia q.s. ad solutionem pro 0.5 ml.</t>
+  </si>
+  <si>
+    <t>Erektile Dysfunktion</t>
+  </si>
+  <si>
+    <t>Apligraf</t>
+  </si>
+  <si>
+    <t>Organogenesis Switzerland GmbH</t>
+  </si>
+  <si>
+    <t>Transplantat: Gewebeprodukt</t>
+  </si>
+  <si>
+    <t>10.06.0.</t>
+  </si>
+  <si>
+    <t>75 mm</t>
+  </si>
+  <si>
+    <t>Scheibe(n)/disque(s)</t>
+  </si>
+  <si>
+    <t>Wundbehandlung (Hautäquivalent)</t>
+  </si>
+  <si>
+    <t>Behandlung von chronischen venösen Beinulzera sowie von diabetischen Fussulzera 
+Behandlung von Muco-Gingivalen Läsionen (Anwendung nur nach  Herstellung  mit Rinderhypophysenextrakt aus einem Land Kategorie A)</t>
+  </si>
+  <si>
+    <t>Agrippal, Injektionssuspension</t>
+  </si>
+  <si>
+    <t>Novartis Pharma Schweiz AG</t>
+  </si>
+  <si>
+    <t>Impfstoffe</t>
+  </si>
+  <si>
+    <t>08.08.</t>
+  </si>
+  <si>
+    <t>J07BB02</t>
+  </si>
+  <si>
+    <t>1 x 0.5 ml</t>
+  </si>
+  <si>
+    <t>Fertigspritze(n)</t>
+  </si>
+  <si>
+    <t>haemagglutininum influenzae A (H1N1), neuraminidasum inactivatum (Virus-Stamm A/California/7/2009 (H1N1)-like: reassortant virus NYMC X-181), haemagglutininum influenzae A (H3N2), haemagglutininum influenzae B</t>
+  </si>
+  <si>
+    <t>haemagglutininum influenzae A (H1N1) 15 µg et neuraminidasum inactivatum (Virus-Stamm A/California/7/2009 (H1N1)-like: reassortant virus NYMC X-181), haemagglutininum influenzae A (H3N2) 15 µg et neuraminidasum inactivatum (Virus-Stamm A/Switzerland/9715293/2013 (H3N2)-like: reassortant virus NIB-88), haemagglutininum influenzae B 15 µg et neuraminidasum inactivatum (Virus-Stamm B/Phuket/3073/2013-like: B/Brisbane/9/2014), natrii chloridum, kalii chloridum, kalii dihydrogenophosphas, dinatrii phosphas dihydricus, magnesii chloridum hexahydricum, calcii chloridum dihydricum, aqua ad iniectabilia q.s. ad suspensionem pro 0.5 ml.</t>
+  </si>
+  <si>
+    <t>aktive Immunisierung gegen Influenza, bei Kindern und Erwachsenen</t>
+  </si>
+  <si>
+    <t>Nutriflex Omega special, Infusionsemulsion 625 ml</t>
+  </si>
+  <si>
+    <t>5 x 625 ml</t>
+  </si>
+  <si>
+    <t>Beutel</t>
+  </si>
+  <si>
+    <t>glucosum anhydricum, natrii dihydrogenophosphas dihydricus, zinci acetas dihydricus, isoleucinum, leucinum, lysinum anhydricum, methioninum, phenylalaninum, threoninum, tryptophanum, valinum, argininum, histidinum, alaninum, acidum asparticum, acidum glutamicum, glycinum, prolinum, serinum, natrii hydroxidum, natrii chloridum, natrii acetas trihydricus, kalii acetas, magnesii acetas tetrahydricus, calcii chloridum dihydricum, aminoacida, nitrogenia, carbohydrata, materia crassa, natrium, kalium, magnesium, calcium, zincum, chloridum, phosphas, acetas, sojae oleum, triglycerida saturata media, omega-3 acidorum triglycerida</t>
+  </si>
+  <si>
+    <t>I) Glucoselösung: glucosum anhydricum 90 g ut glucosum monohydricum, natrii dihydrogenophosphas dihydricus 1.56 g, zinci acetas dihydricus 4.39 mg, aqua ad iniectabilia q.s. ad solutionem pro 250 ml.
+II) Fettemulsion: sojae oleum 10 g, triglycerida saturata media 12.5 g, omega-3 acidorum triglycerida 2.5 g, glycerolum, lecithinum ex ovo, natrii oleas, antiox.: E 307 25 mg, aqua ad iniectabilia q.s. ad emulsionem pro 125 ml.
+III) Aminosäurenlösung: isoleucinum 2.06 g, leucinum 2.74 g, lysinum anhydricum 1.99 g ut lysini hydrochloridum, methioninum 1.71 g, phenylalaninum 3.08 g, threoninum 1.59 g, tryptophanum 500 mg, valinum 2.26 g, argininum 2.37 g, histidinum 1.1 g ut histidini hydrochloridum monohydricum, alaninum 4.25 g, acidum asparticum 1.32 g, acidum glutamicum 3.07 g, glycinum 1.45 g, prolinum 2.98 g, serinum 2.63 g, natrii hydroxidum 732 mg, natrii chloridum 237 mg, natrii acetas trihydricus 157 mg, kalii acetas 2.306 g, magnesii acetas tetrahydricus 569 mg, calcii chloridum dihydricum 390 mg, aqua ad iniectabilia q.s. ad solutionem pro 250 ml.
+.
+I) et II) et III) corresp.: aminoacida 57.44 g/l, nitrogenia 8 g/l, carbohydrata 144 g/l, materia crassa 40 g/l, natrium 53.6 mmol/l, kalium 37.6 mmol/l, magnesium 4.24 mmol/l, calcium 4.24 mmol/l, zincum 0.032 mmol/l, chloridum 48 mmol/l, phosphas 16 mmol/l, acetas 48 mmol/l, in emulsione recenter mixta 1000 ml.
+Corresp. 4941 kJ pro 1 l.</t>
   </si>
   <si>
     <t>Levetiracetam Desitin 250 mg, Minipacks mit Mini-Filmtabletten</t>
@@ -280,9 +702,6 @@
     <t>N03AX14</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>levetiracetamum</t>
   </si>
   <si>
@@ -292,115 +711,31 @@
     <t>Antiepileptikum</t>
   </si>
   <si>
-    <t>Levetiracetam Desitin 500 mg, Minipacks mit Mini-Filmtabletten</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>levetiracetamum 500 mg, excipiens pro compressi obducti pro charta.</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>Levetiracetam Desitin 1000 mg, Minipacks mit Mini-Filmtabletten</t>
-  </si>
-  <si>
-    <t>levetiracetamum 1000 mg, excipiens pro compressi obducti pro charta.</t>
-  </si>
-  <si>
-    <t>Hirudoid, Creme</t>
-  </si>
-  <si>
-    <t>Medinova AG</t>
-  </si>
-  <si>
-    <t>02.08.2.</t>
-  </si>
-  <si>
-    <t>C05BA</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>heparinoidum (chondroitini polysulfas)</t>
-  </si>
-  <si>
-    <t>heparinoidum (chondroitini polysulfas) 3 mg alcoholes adipis lanae, aromatica, conserv.: E 218, E 216, excipiens ad unguentum pro 1 g.</t>
-  </si>
-  <si>
-    <t>Venenmittel für den äusserlichen Gebrauch</t>
-  </si>
-  <si>
-    <t>Insulin Lilly Humalog Flacon, solution injectable</t>
-  </si>
-  <si>
-    <t>Eli Lilly (Suisse) SA</t>
-  </si>
-  <si>
-    <t>Biotechnologika</t>
-  </si>
-  <si>
-    <t>07.06.1.</t>
-  </si>
-  <si>
-    <t>A10AB04</t>
-  </si>
-  <si>
-    <t>1 x 10 ml</t>
-  </si>
-  <si>
-    <t>Flasche(n)</t>
-  </si>
-  <si>
-    <t>insulinum lisprum</t>
-  </si>
-  <si>
-    <t>insulinum lisprum 100 U.I., glycerolum, zincum, natrii phosphates, conserv.: metacresolum 3.15 mg, aqua ad iniectabilia q.s. ad solutionem pro 1 ml.</t>
-  </si>
-  <si>
-    <t>Diabète sucré</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Insulinanalog: schnell wirkend</t>
-  </si>
-  <si>
-    <t>Diaphin 10 g i.v., Injektionspräparat</t>
-  </si>
-  <si>
-    <t>DiaMo Narcotics GmbH</t>
-  </si>
-  <si>
-    <t>01.01.3.</t>
-  </si>
-  <si>
-    <t>N07BC06</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Ampulle(n)</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>diamorphinum</t>
-  </si>
-  <si>
-    <t>diamorphini hydrochloridum monohydricum 10 g corresp. diamorphinum 8.71 g pro vitro.</t>
-  </si>
-  <si>
-    <t>Ergänzung der Behandlung von schwer heroinabhängigen Personen</t>
-  </si>
-  <si>
-    <t>d</t>
+    <t>Adcetris, Pulver zur Herstellung einer Infusionslösung</t>
+  </si>
+  <si>
+    <t>Takeda Pharma AG</t>
+  </si>
+  <si>
+    <t>07.16.1.</t>
+  </si>
+  <si>
+    <t>L01XC12</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Durchstechflasche(n)</t>
+  </si>
+  <si>
+    <t>brentuximabum vedotinum</t>
+  </si>
+  <si>
+    <t>Praeparatio cryodesiccata: brentuximabum vedotinum 50 mg, acidum citricum monohydricum, natrii citras dihydricus, trehalosum dihydricum, polysorbatum 80, pro vitro.</t>
+  </si>
+  <si>
+    <t>Behandlung des anaplatischen grosszelligen Lymphoms; Behandlung des Hodgkin-Lymphoms</t>
   </si>
 </sst>
 </file>
@@ -409,15 +744,15 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YY;@"/>
-    <numFmt numFmtId="166" formatCode="00000"/>
+    <numFmt numFmtId="165" formatCode="00000"/>
+    <numFmt numFmtId="166" formatCode="DD/MM/YY;@"/>
     <numFmt numFmtId="167" formatCode="000"/>
   </numFmts>
   <fonts count="12">
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="ARIAL"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -518,9 +853,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
@@ -546,29 +881,41 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+  </cellStyleXfs>
+  <cellXfs count="48">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="48">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -588,79 +935,91 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="21" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="21" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="21" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -680,15 +1039,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -696,31 +1055,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -732,7 +1067,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -740,12 +1075,8 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
@@ -753,7 +1084,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="Standard 2" xfId="20" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Standard 2" xfId="21" builtinId="54" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -763,15 +1093,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>65520</xdr:colOff>
+      <xdr:colOff>36360</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1015920</xdr:colOff>
+      <xdr:colOff>446040</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
+      <xdr:rowOff>38520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -784,8 +1114,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="65520" y="360"/>
-          <a:ext cx="1693080" cy="561960"/>
+          <a:off x="36360" y="360"/>
+          <a:ext cx="1686600" cy="571320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -805,86 +1135,95 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:22"/>
+  <dimension ref="1:28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="21:22"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.06632653061225"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="4.46428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="57.4336734693878"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="35.0510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="8.65816326530612"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.8163265306122"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="25.5408163265306"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="1" width="11.25"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="4.9030612244898"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="10.2397959183673"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="3" width="31.8826530612245"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="5.91326530612245"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="56.1275510204082"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="33.1785714285714"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="36.7908163265306"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="59.1428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="2" width="6.91836734693878"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.09767441860465"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="7.4"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="33.8976744186046"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="22.9953488372093"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="15.8976744186047"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="7.90232558139535"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="8.09767441860465"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="4" width="10.2"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="4" width="10.0976744186047"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="4" width="9.1953488372093"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="11"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="11.4046511627907"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="10.4046511627907"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="6" width="10.4046511627907"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="10.4046511627907"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="3" width="22.093023255814"/>
+    <col collapsed="false" hidden="false" max="20" min="19" style="3" width="26.4"/>
+    <col collapsed="false" hidden="false" max="22" min="21" style="2" width="16.0976744186047"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="14.093023255814"/>
+    <col collapsed="false" hidden="false" max="27" min="25" style="7" width="7.2046511627907"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="7" width="8.4"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="7" width="7.2046511627907"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="7" width="14.2"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="7" width="7.2046511627907"/>
+    <col collapsed="false" hidden="false" max="1025" min="32" style="7" width="5.9953488372093"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="11" t="s">
+    <row r="1" s="16" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
     </row>
     <row r="2" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="22" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="27" t="s">
         <v>1</v>
       </c>
       <c r="P2" s="0"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="0"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
       <c r="Y2" s="0"/>
       <c r="Z2" s="0"/>
       <c r="AA2" s="0"/>
@@ -1887,30 +2226,29 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="0"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
       <c r="Y3" s="0"/>
       <c r="Z3" s="0"/>
       <c r="AA3" s="0"/>
@@ -2912,33 +3250,32 @@
       <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="96.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="28" t="s">
+    <row r="4" customFormat="false" ht="102" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="0"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
       <c r="Y4" s="0"/>
       <c r="Z4" s="0"/>
       <c r="AA4" s="0"/>
@@ -3940,1160 +4277,1540 @@
       <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
     </row>
-    <row r="5" s="35" customFormat="true" ht="117.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="30" t="s">
+    <row r="5" s="42" customFormat="true" ht="61.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="34" t="s">
+      <c r="J5" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="K5" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="L5" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="30" t="s">
+      <c r="M5" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="N5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="33" t="s">
+      <c r="O5" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="33" t="s">
+      <c r="P5" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="32" t="s">
+      <c r="Q5" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="R5" s="32" t="s">
+      <c r="R5" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="S5" s="32" t="s">
+      <c r="S5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T5" s="32" t="s">
+      <c r="T5" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="U5" s="33" t="s">
+      <c r="U5" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="V5" s="33" t="s">
+      <c r="V5" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="W5" s="33" t="s">
+      <c r="W5" s="40" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="36" t="n">
+    <row r="6" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="43" t="n">
         <v>277</v>
       </c>
-      <c r="B6" s="37" t="n">
+      <c r="B6" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="39" t="n">
+      <c r="H6" s="46" t="n">
         <v>40294</v>
       </c>
-      <c r="I6" s="39" t="n">
+      <c r="I6" s="46" t="n">
         <v>40294</v>
       </c>
-      <c r="J6" s="39" t="n">
+      <c r="J6" s="46" t="n">
         <v>43946</v>
       </c>
-      <c r="K6" s="40" t="n">
+      <c r="K6" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="L6" s="37" t="s">
+      <c r="L6" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="37" t="s">
+      <c r="M6" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="37" t="s">
+      <c r="N6" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="37" t="s">
+      <c r="O6" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="37" t="s">
+      <c r="P6" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="Q6" s="38" t="s">
+      <c r="Q6" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="R6" s="38" t="s">
+      <c r="R6" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="S6" s="38" t="s">
+      <c r="S6" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="T6" s="38"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
     </row>
-    <row r="7" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="36" t="n">
-        <v>277</v>
-      </c>
-      <c r="B7" s="37" t="n">
+    <row r="7" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="43" t="n">
+        <v>16105</v>
+      </c>
+      <c r="B7" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="39" t="n">
-        <v>40294</v>
-      </c>
-      <c r="I7" s="39" t="n">
-        <v>40294</v>
-      </c>
-      <c r="J7" s="39" t="n">
-        <v>43946</v>
-      </c>
-      <c r="K7" s="40" t="n">
+      <c r="C7" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="46" t="n">
+        <v>18872</v>
+      </c>
+      <c r="I7" s="46" t="n">
+        <v>18872</v>
+      </c>
+      <c r="J7" s="46" t="n">
+        <v>43162</v>
+      </c>
+      <c r="K7" s="47" t="n">
+        <v>58</v>
+      </c>
+      <c r="L7" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="R7" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="S7" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="T7" s="45"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+    </row>
+    <row r="8" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="43" t="n">
+        <v>16598</v>
+      </c>
+      <c r="B8" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="46" t="n">
+        <v>18833</v>
+      </c>
+      <c r="I8" s="46" t="n">
+        <v>18833</v>
+      </c>
+      <c r="J8" s="46" t="n">
+        <v>43085</v>
+      </c>
+      <c r="K8" s="47" t="n">
+        <v>11</v>
+      </c>
+      <c r="L8" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="R8" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="S8" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="T8" s="45"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="44"/>
+    </row>
+    <row r="9" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="43" t="n">
+        <v>28486</v>
+      </c>
+      <c r="B9" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="46" t="n">
+        <v>22699</v>
+      </c>
+      <c r="I9" s="46" t="n">
+        <v>22699</v>
+      </c>
+      <c r="J9" s="46" t="n">
+        <v>42513</v>
+      </c>
+      <c r="K9" s="47" t="n">
+        <v>14</v>
+      </c>
+      <c r="L9" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="M9" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="N9" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="R9" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="S9" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="T9" s="45"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="44"/>
+    </row>
+    <row r="10" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="43" t="n">
+        <v>30015</v>
+      </c>
+      <c r="B10" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="L7" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="37" t="s">
+      <c r="C10" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="46" t="n">
+        <v>23410</v>
+      </c>
+      <c r="I10" s="46" t="n">
+        <v>23410</v>
+      </c>
+      <c r="J10" s="46" t="n">
+        <v>43552</v>
+      </c>
+      <c r="K10" s="47" t="n">
+        <v>10</v>
+      </c>
+      <c r="L10" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="M10" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="37" t="s">
+      <c r="O10" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="P7" s="37" t="s">
+      <c r="P10" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="R7" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="S7" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="T7" s="38"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
+      <c r="Q10" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="R10" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="S10" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="T10" s="45"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="44"/>
     </row>
-    <row r="8" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="36" t="n">
-        <v>278</v>
-      </c>
-      <c r="B8" s="37" t="n">
+    <row r="11" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="43" t="n">
+        <v>31644</v>
+      </c>
+      <c r="B11" s="44" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="46" t="n">
+        <v>24645</v>
+      </c>
+      <c r="I11" s="46" t="n">
+        <v>34421</v>
+      </c>
+      <c r="J11" s="46" t="n">
+        <v>42781</v>
+      </c>
+      <c r="K11" s="47" t="n">
+        <v>11</v>
+      </c>
+      <c r="L11" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="M11" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="N11" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="O11" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="P11" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q11" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="R11" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="S11" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="T11" s="45"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="44"/>
+    </row>
+    <row r="12" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="43" t="n">
+        <v>32475</v>
+      </c>
+      <c r="B12" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="39" t="n">
-        <v>40294</v>
-      </c>
-      <c r="I8" s="39" t="n">
-        <v>40294</v>
-      </c>
-      <c r="J8" s="39" t="n">
-        <v>43946</v>
-      </c>
-      <c r="K8" s="40" t="n">
+      <c r="C12" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="46" t="n">
+        <v>24267</v>
+      </c>
+      <c r="I12" s="46" t="n">
+        <v>24267</v>
+      </c>
+      <c r="J12" s="46" t="n">
+        <v>42480</v>
+      </c>
+      <c r="K12" s="47" t="n">
+        <v>19</v>
+      </c>
+      <c r="L12" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="M12" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="N12" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="P12" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q12" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="R12" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="S12" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="T12" s="45"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="44"/>
+    </row>
+    <row r="13" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="43" t="n">
+        <v>35366</v>
+      </c>
+      <c r="B13" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="L8" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" s="37" t="s">
+      <c r="C13" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="46" t="n">
+        <v>25696</v>
+      </c>
+      <c r="I13" s="46" t="n">
+        <v>25696</v>
+      </c>
+      <c r="J13" s="46" t="n">
+        <v>42781</v>
+      </c>
+      <c r="K13" s="47" t="n">
+        <v>16</v>
+      </c>
+      <c r="L13" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="M13" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="N13" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="O13" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q13" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="R13" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="S13" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="T13" s="45"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+    </row>
+    <row r="14" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="43" t="n">
+        <v>43454</v>
+      </c>
+      <c r="B14" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" s="46" t="n">
+        <v>29650</v>
+      </c>
+      <c r="I14" s="46" t="n">
+        <v>29650</v>
+      </c>
+      <c r="J14" s="46" t="n">
+        <v>43905</v>
+      </c>
+      <c r="K14" s="47" t="n">
+        <v>99</v>
+      </c>
+      <c r="L14" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="M14" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="N14" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="O14" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="P14" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="R14" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="S14" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="T14" s="45"/>
+      <c r="U14" s="44"/>
+      <c r="V14" s="44"/>
+      <c r="W14" s="44"/>
+    </row>
+    <row r="15" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="43" t="n">
+        <v>44625</v>
+      </c>
+      <c r="B15" s="44" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" s="46" t="n">
+        <v>30098</v>
+      </c>
+      <c r="I15" s="46" t="n">
+        <v>30098</v>
+      </c>
+      <c r="J15" s="46" t="n">
+        <v>42842</v>
+      </c>
+      <c r="K15" s="47" t="n">
+        <v>59</v>
+      </c>
+      <c r="L15" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="M15" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="N15" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="O15" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="P15" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q15" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="R15" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="S15" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="T15" s="45"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="44"/>
+    </row>
+    <row r="16" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="43" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B16" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" s="46" t="n">
+        <v>31180</v>
+      </c>
+      <c r="I16" s="46" t="n">
+        <v>31180</v>
+      </c>
+      <c r="J16" s="46" t="n">
+        <v>43340</v>
+      </c>
+      <c r="K16" s="47" t="n">
+        <v>20</v>
+      </c>
+      <c r="L16" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="M16" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="N16" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="37" t="s">
+      <c r="O16" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="P8" s="37" t="s">
+      <c r="P16" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="Q8" s="38" t="s">
+      <c r="Q16" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="R16" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="S16" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="T16" s="45"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="44"/>
+    </row>
+    <row r="17" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="43" t="n">
+        <v>53290</v>
+      </c>
+      <c r="B17" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" s="46" t="n">
+        <v>35026</v>
+      </c>
+      <c r="I17" s="46" t="n">
+        <v>35026</v>
+      </c>
+      <c r="J17" s="46" t="n">
+        <v>43002</v>
+      </c>
+      <c r="K17" s="47" t="n">
+        <v>19</v>
+      </c>
+      <c r="L17" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="M17" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="N17" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="O17" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="P17" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q17" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="R17" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="S17" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="T17" s="45"/>
+      <c r="U17" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="V17" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="W17" s="44"/>
+    </row>
+    <row r="18" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="43" t="n">
+        <v>53662</v>
+      </c>
+      <c r="B18" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="R8" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="S8" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="T8" s="38"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
+      <c r="F18" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="G18" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="H18" s="46" t="n">
+        <v>35123</v>
+      </c>
+      <c r="I18" s="46" t="n">
+        <v>35123</v>
+      </c>
+      <c r="J18" s="46" t="n">
+        <v>42851</v>
+      </c>
+      <c r="K18" s="47" t="n">
+        <v>13</v>
+      </c>
+      <c r="L18" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="M18" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="N18" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="O18" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="P18" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q18" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="R18" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="S18" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="T18" s="45"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
     </row>
-    <row r="9" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="41" t="n">
-        <v>278</v>
-      </c>
-      <c r="B9" s="37" t="n">
+    <row r="19" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="43" t="n">
+        <v>54015</v>
+      </c>
+      <c r="B19" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="39" t="n">
-        <v>40294</v>
-      </c>
-      <c r="I9" s="39" t="n">
-        <v>40294</v>
-      </c>
-      <c r="J9" s="39" t="n">
-        <v>43946</v>
-      </c>
-      <c r="K9" s="40" t="n">
+      <c r="C19" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="H19" s="46" t="n">
+        <v>35488</v>
+      </c>
+      <c r="I19" s="46" t="n">
+        <v>35488</v>
+      </c>
+      <c r="J19" s="46" t="n">
+        <v>42921</v>
+      </c>
+      <c r="K19" s="47" t="n">
+        <v>11</v>
+      </c>
+      <c r="L19" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="M19" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="N19" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="O19" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="P19" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q19" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="R19" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="S19" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="T19" s="45"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+    </row>
+    <row r="20" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="43" t="n">
+        <v>55558</v>
+      </c>
+      <c r="B20" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="L9" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="37" t="s">
+      <c r="C20" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="G20" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="H20" s="46" t="n">
+        <v>37232</v>
+      </c>
+      <c r="I20" s="46" t="n">
+        <v>37232</v>
+      </c>
+      <c r="J20" s="46" t="n">
+        <v>42896</v>
+      </c>
+      <c r="K20" s="47" t="n">
+        <v>5</v>
+      </c>
+      <c r="L20" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="M20" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="N20" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="O20" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="P20" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q20" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="R20" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="S20" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="T20" s="45"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+    </row>
+    <row r="21" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="43" t="n">
+        <v>55561</v>
+      </c>
+      <c r="B21" s="44" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="G21" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="H21" s="46" t="n">
+        <v>37232</v>
+      </c>
+      <c r="I21" s="46" t="n">
+        <v>37232</v>
+      </c>
+      <c r="J21" s="46" t="n">
+        <v>43732</v>
+      </c>
+      <c r="K21" s="47" t="n">
+        <v>4</v>
+      </c>
+      <c r="L21" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="M21" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="N21" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="O21" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="P21" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q21" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="R21" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="S21" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="T21" s="45"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="44" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="43" t="n">
+        <v>55594</v>
+      </c>
+      <c r="B22" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="G22" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="H22" s="46" t="n">
+        <v>37172</v>
+      </c>
+      <c r="I22" s="46" t="n">
+        <v>37172</v>
+      </c>
+      <c r="J22" s="46" t="n">
+        <v>43863</v>
+      </c>
+      <c r="K22" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="M22" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="N22" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="37" t="s">
+      <c r="O22" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="P9" s="37" t="s">
+      <c r="P22" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="Q9" s="38" t="s">
+      <c r="Q22" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="R22" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="S22" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="T22" s="45"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="44"/>
+    </row>
+    <row r="23" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="43" t="n">
+        <v>55674</v>
+      </c>
+      <c r="B23" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="R9" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="S9" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="T9" s="38"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
+      <c r="F23" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="G23" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="H23" s="46" t="n">
+        <v>37321</v>
+      </c>
+      <c r="I23" s="46" t="n">
+        <v>37321</v>
+      </c>
+      <c r="J23" s="46" t="n">
+        <v>42798</v>
+      </c>
+      <c r="K23" s="47" t="n">
+        <v>5</v>
+      </c>
+      <c r="L23" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="M23" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="N23" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="O23" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="P23" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q23" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="R23" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="S23" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="T23" s="45"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="44"/>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="36" t="n">
-        <v>47066</v>
-      </c>
-      <c r="B10" s="37" t="n">
+    <row r="24" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="43" t="n">
+        <v>58943</v>
+      </c>
+      <c r="B24" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="39" t="n">
-        <v>31239</v>
-      </c>
-      <c r="I10" s="39" t="n">
-        <v>31239</v>
-      </c>
-      <c r="J10" s="39" t="n">
+      <c r="C24" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="E24" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="F24" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="G24" s="44"/>
+      <c r="H24" s="46" t="n">
+        <v>42110</v>
+      </c>
+      <c r="I24" s="46" t="n">
+        <v>42110</v>
+      </c>
+      <c r="J24" s="46" t="n">
+        <v>43936</v>
+      </c>
+      <c r="K24" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="M24" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="N24" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="O24" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="P24" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="T24" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="U24" s="44"/>
+      <c r="V24" s="44"/>
+      <c r="W24" s="44"/>
+    </row>
+    <row r="25" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="43" t="n">
+        <v>59267</v>
+      </c>
+      <c r="B25" s="44" t="n">
+        <v>7</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="E25" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="F25" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="G25" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="H25" s="46" t="n">
+        <v>40128</v>
+      </c>
+      <c r="I25" s="46" t="n">
+        <v>42257</v>
+      </c>
+      <c r="J25" s="46" t="n">
         <v>43779</v>
       </c>
-      <c r="K10" s="40" t="n">
-        <v>18</v>
-      </c>
-      <c r="L10" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="M10" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="N10" s="37" t="s">
+      <c r="K25" s="47" t="n">
+        <v>11</v>
+      </c>
+      <c r="L25" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="M25" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="N25" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="37" t="s">
+      <c r="O25" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="P10" s="37" t="s">
+      <c r="P25" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="Q10" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="R10" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="S10" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="T10" s="38"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
+      <c r="Q25" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="R25" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="S25" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="T25" s="45"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="44"/>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="36" t="n">
-        <v>47066</v>
-      </c>
-      <c r="B11" s="37" t="n">
+    <row r="26" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="43" t="n">
+        <v>61186</v>
+      </c>
+      <c r="B26" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="39" t="n">
-        <v>31239</v>
-      </c>
-      <c r="I11" s="39" t="n">
-        <v>31239</v>
-      </c>
-      <c r="J11" s="39" t="n">
-        <v>43779</v>
-      </c>
-      <c r="K11" s="40" t="n">
-        <v>26</v>
-      </c>
-      <c r="L11" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="M11" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="N11" s="37" t="s">
+      <c r="C26" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="D26" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="G26" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="H26" s="46" t="n">
+        <v>40522</v>
+      </c>
+      <c r="I26" s="46" t="n">
+        <v>40522</v>
+      </c>
+      <c r="J26" s="46" t="n">
+        <v>44174</v>
+      </c>
+      <c r="K26" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="M26" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="N26" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="O11" s="37" t="s">
+      <c r="O26" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="P11" s="37" t="s">
+      <c r="P26" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="Q11" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="R11" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="S11" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="T11" s="38"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
+      <c r="Q26" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="R26" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="S26" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="T26" s="45"/>
+      <c r="U26" s="44"/>
+      <c r="V26" s="44"/>
+      <c r="W26" s="44"/>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="36" t="n">
-        <v>48624</v>
-      </c>
-      <c r="B12" s="37" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="39" t="n">
-        <v>31860</v>
-      </c>
-      <c r="I12" s="39" t="n">
-        <v>36859</v>
-      </c>
-      <c r="J12" s="39" t="n">
-        <v>42701</v>
-      </c>
-      <c r="K12" s="40" t="n">
-        <v>22</v>
-      </c>
-      <c r="L12" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="M12" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="N12" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="O12" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="P12" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q12" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="R12" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="S12" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="T12" s="38"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
+    <row r="27" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="43" t="n">
+        <v>62069</v>
+      </c>
+      <c r="B27" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="E27" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="G27" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="H27" s="46" t="n">
+        <v>40610</v>
+      </c>
+      <c r="I27" s="46" t="n">
+        <v>40610</v>
+      </c>
+      <c r="J27" s="46" t="n">
+        <v>44262</v>
+      </c>
+      <c r="K27" s="47" t="n">
+        <v>8</v>
+      </c>
+      <c r="L27" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="M27" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="N27" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="O27" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="P27" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q27" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="R27" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="S27" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="T27" s="45"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="36" t="n">
-        <v>62069</v>
-      </c>
-      <c r="B13" s="37" t="n">
+    <row r="28" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="43" t="n">
+        <v>62132</v>
+      </c>
+      <c r="B28" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="39" t="n">
-        <v>40610</v>
-      </c>
-      <c r="I13" s="39" t="n">
-        <v>40610</v>
-      </c>
-      <c r="J13" s="39" t="n">
-        <v>42436</v>
-      </c>
-      <c r="K13" s="40" t="n">
-        <v>8</v>
-      </c>
-      <c r="L13" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="M13" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="N13" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="O13" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="P13" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q13" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="R13" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="S13" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="T13" s="38"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="36" t="n">
-        <v>62069</v>
-      </c>
-      <c r="B14" s="37" t="n">
-        <v>2</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="39" t="n">
-        <v>40610</v>
-      </c>
-      <c r="I14" s="39" t="n">
-        <v>40610</v>
-      </c>
-      <c r="J14" s="39" t="n">
-        <v>42436</v>
-      </c>
-      <c r="K14" s="40" t="n">
-        <v>9</v>
-      </c>
-      <c r="L14" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="M14" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="N14" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="O14" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="P14" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q14" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="R14" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="S14" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="T14" s="38"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="36" t="n">
-        <v>62069</v>
-      </c>
-      <c r="B15" s="37" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" s="39" t="n">
-        <v>40610</v>
-      </c>
-      <c r="I15" s="39" t="n">
-        <v>40610</v>
-      </c>
-      <c r="J15" s="39" t="n">
-        <v>42436</v>
-      </c>
-      <c r="K15" s="40" t="n">
-        <v>10</v>
-      </c>
-      <c r="L15" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="M15" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="N15" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="O15" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="P15" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q15" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="R15" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="S15" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="T15" s="38"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="36" t="n">
-        <v>62069</v>
-      </c>
-      <c r="B16" s="37" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" s="39" t="n">
-        <v>40610</v>
-      </c>
-      <c r="I16" s="39" t="n">
-        <v>40610</v>
-      </c>
-      <c r="J16" s="39" t="n">
-        <v>42436</v>
-      </c>
-      <c r="K16" s="40" t="n">
-        <v>11</v>
-      </c>
-      <c r="L16" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="M16" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="N16" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="O16" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="P16" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q16" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="R16" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="S16" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="T16" s="38"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="36" t="n">
-        <v>62069</v>
-      </c>
-      <c r="B17" s="37" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" s="39" t="n">
-        <v>40610</v>
-      </c>
-      <c r="I17" s="39" t="n">
-        <v>40610</v>
-      </c>
-      <c r="J17" s="39" t="n">
-        <v>42436</v>
-      </c>
-      <c r="K17" s="40" t="n">
-        <v>12</v>
-      </c>
-      <c r="L17" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="M17" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="N17" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="O17" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="P17" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q17" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="R17" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="S17" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="T17" s="38"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="36" t="n">
-        <v>62069</v>
-      </c>
-      <c r="B18" s="37" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" s="39" t="n">
-        <v>40610</v>
-      </c>
-      <c r="I18" s="39" t="n">
-        <v>40610</v>
-      </c>
-      <c r="J18" s="39" t="n">
-        <v>42436</v>
-      </c>
-      <c r="K18" s="40" t="n">
-        <v>13</v>
-      </c>
-      <c r="L18" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="M18" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="N18" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="O18" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="P18" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q18" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="R18" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="S18" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="T18" s="38"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="36" t="n">
-        <v>62069</v>
-      </c>
-      <c r="B19" s="37" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="H19" s="39" t="n">
-        <v>40610</v>
-      </c>
-      <c r="I19" s="39" t="n">
-        <v>40610</v>
-      </c>
-      <c r="J19" s="39" t="n">
-        <v>42436</v>
-      </c>
-      <c r="K19" s="40" t="n">
-        <v>14</v>
-      </c>
-      <c r="L19" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="M19" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="N19" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="O19" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="P19" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q19" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="R19" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="S19" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="T19" s="38"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="36" t="n">
-        <v>16105</v>
-      </c>
-      <c r="B20" s="37" t="n">
+      <c r="C28" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>209</v>
+      </c>
+      <c r="E28" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" s="44" t="s">
+        <v>210</v>
+      </c>
+      <c r="G28" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="H28" s="46" t="n">
+        <v>41337</v>
+      </c>
+      <c r="I28" s="46" t="n">
+        <v>41337</v>
+      </c>
+      <c r="J28" s="46" t="n">
+        <v>43162</v>
+      </c>
+      <c r="K28" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="G20" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="H20" s="39" t="n">
-        <v>18872</v>
-      </c>
-      <c r="I20" s="39" t="n">
-        <v>18872</v>
-      </c>
-      <c r="J20" s="39" t="n">
-        <v>43162</v>
-      </c>
-      <c r="K20" s="40" t="n">
-        <v>58</v>
-      </c>
-      <c r="L20" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="M20" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="N20" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="O20" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="P20" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q20" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="R20" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="S20" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="T20" s="38"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
-    </row>
-    <row r="21" s="47" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="42" t="n">
-        <v>53290</v>
-      </c>
-      <c r="B21" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="H21" s="45" t="n">
-        <v>35026</v>
-      </c>
-      <c r="I21" s="45" t="n">
-        <v>35026</v>
-      </c>
-      <c r="J21" s="45" t="n">
-        <v>43002</v>
-      </c>
-      <c r="K21" s="46" t="n">
-        <v>19</v>
-      </c>
-      <c r="L21" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="M21" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="N21" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="O21" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="P21" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q21" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="R21" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="S21" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="T21" s="44"/>
-      <c r="U21" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="V21" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="W21" s="43"/>
-    </row>
-    <row r="22" s="47" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="42" t="n">
-        <v>55561</v>
-      </c>
-      <c r="B22" s="43" t="n">
-        <v>2</v>
-      </c>
-      <c r="C22" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="H22" s="45" t="n">
-        <v>37232</v>
-      </c>
-      <c r="I22" s="45" t="n">
-        <v>37232</v>
-      </c>
-      <c r="J22" s="45" t="n">
-        <v>43732</v>
-      </c>
-      <c r="K22" s="46" t="n">
-        <v>4</v>
-      </c>
-      <c r="L22" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="M22" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="N22" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="O22" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="P22" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q22" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="R22" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="S22" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="T22" s="44"/>
-      <c r="U22" s="43"/>
-      <c r="V22" s="43"/>
-      <c r="W22" s="43" t="s">
-        <v>107</v>
-      </c>
+      <c r="L28" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="M28" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="N28" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="O28" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="P28" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q28" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="R28" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="S28" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="T28" s="45"/>
+      <c r="U28" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="V28" s="44"/>
+      <c r="W28" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0" right="0" top="0.279861111111111" bottom="0.490277777777778" header="0.511805555555555" footer="0"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.340277777777778" right="0" top="0.275694444444444" bottom="0.472222222222222" header="0.511805555555555" footer="0.0784722222222222"/>
+  <pageSetup paperSize="8" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
-    <oddFooter>&amp;CSwissmedic · Hallerstrasse 7 · CH-3000 Bern 9 · www.swissmedic.ch · Tel. +41 31 322 02 11 · Fax +41 31 322 02 12&amp;R&amp;P/&amp;N</oddFooter>
+    <oddFooter>&amp;C&amp;9Swissmedic · Hallerstrasse 7 · CH-3000 Bern 9 · www.swissmedic.ch · Tel. +41 58 462 02 11 · Fax +41 58 462 02 12&amp;R&amp;9&amp;P/&amp;N</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/spec/data/swissmedic_package.xlsx
+++ b/spec/data/swissmedic_package.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="225">
   <si>
     <t>Zugelassene Packungen / Conditionnements autorisés</t>
   </si>
@@ -185,15 +185,45 @@
 Possibilités d'emploi voir information professionnelle</t>
   </si>
   <si>
+    <t>Zymafluor 0.25 mg, Tabletten</t>
+  </si>
+  <si>
+    <t>MEDA Pharma GmbH</t>
+  </si>
+  <si>
+    <t>Synthetika human</t>
+  </si>
+  <si>
+    <t>13.05.1.</t>
+  </si>
+  <si>
+    <t>A01AA01</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>Tablette(n)</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>fluoridum</t>
+  </si>
+  <si>
+    <t>fluoridum 0.25 mg ut natrii fluoridum, aromatica, excipiens pro compresso.</t>
+  </si>
+  <si>
+    <t>Kariesprophylaxe</t>
+  </si>
+  <si>
     <t>Hirudoid, Creme</t>
   </si>
   <si>
     <t>Medinova AG</t>
   </si>
   <si>
-    <t>Synthetika human</t>
-  </si>
-  <si>
     <t>02.08.2.</t>
   </si>
   <si>
@@ -309,12 +339,6 @@
   </si>
   <si>
     <t>30</t>
-  </si>
-  <si>
-    <t>Tablette(n)</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
   <si>
     <t>ferrum(II)</t>
@@ -1135,12 +1159,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:28"/>
+  <dimension ref="1:29"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="7:7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4413,7 +4437,7 @@
     </row>
     <row r="7" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="43" t="n">
-        <v>16105</v>
+        <v>15219</v>
       </c>
       <c r="B7" s="44" t="n">
         <v>1</v>
@@ -4434,16 +4458,16 @@
         <v>41</v>
       </c>
       <c r="H7" s="46" t="n">
-        <v>18872</v>
+        <v>18429</v>
       </c>
       <c r="I7" s="46" t="n">
-        <v>18872</v>
+        <v>18429</v>
       </c>
       <c r="J7" s="46" t="n">
-        <v>43162</v>
+        <v>43100</v>
       </c>
       <c r="K7" s="47" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="L7" s="44" t="s">
         <v>42</v>
@@ -4476,7 +4500,7 @@
     </row>
     <row r="8" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="43" t="n">
-        <v>16598</v>
+        <v>16105</v>
       </c>
       <c r="B8" s="44" t="n">
         <v>1</v>
@@ -4497,16 +4521,16 @@
         <v>51</v>
       </c>
       <c r="H8" s="46" t="n">
-        <v>18833</v>
+        <v>18872</v>
       </c>
       <c r="I8" s="46" t="n">
-        <v>18833</v>
+        <v>18872</v>
       </c>
       <c r="J8" s="46" t="n">
-        <v>43085</v>
+        <v>43162</v>
       </c>
       <c r="K8" s="47" t="n">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="L8" s="44" t="s">
         <v>52</v>
@@ -4515,22 +4539,22 @@
         <v>53</v>
       </c>
       <c r="N8" s="44" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="O8" s="44" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="P8" s="44" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="Q8" s="45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R8" s="45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S8" s="45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T8" s="45"/>
       <c r="U8" s="44"/>
@@ -4539,61 +4563,61 @@
     </row>
     <row r="9" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="43" t="n">
-        <v>28486</v>
+        <v>16598</v>
       </c>
       <c r="B9" s="44" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E9" s="45" t="s">
         <v>39</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H9" s="46" t="n">
-        <v>22699</v>
+        <v>18833</v>
       </c>
       <c r="I9" s="46" t="n">
-        <v>22699</v>
+        <v>18833</v>
       </c>
       <c r="J9" s="46" t="n">
-        <v>42513</v>
+        <v>43085</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L9" s="44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M9" s="44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N9" s="44" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="O9" s="44" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="P9" s="44" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="45" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R9" s="45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S9" s="45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T9" s="45"/>
       <c r="U9" s="44"/>
@@ -4602,43 +4626,43 @@
     </row>
     <row r="10" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="43" t="n">
-        <v>30015</v>
+        <v>28486</v>
       </c>
       <c r="B10" s="44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E10" s="45" t="s">
         <v>39</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G10" s="44" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H10" s="46" t="n">
-        <v>23410</v>
+        <v>22699</v>
       </c>
       <c r="I10" s="46" t="n">
-        <v>23410</v>
+        <v>22699</v>
       </c>
       <c r="J10" s="46" t="n">
-        <v>43552</v>
+        <v>42513</v>
       </c>
       <c r="K10" s="47" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L10" s="44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M10" s="44" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="N10" s="44" t="s">
         <v>33</v>
@@ -4650,13 +4674,13 @@
         <v>33</v>
       </c>
       <c r="Q10" s="45" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="R10" s="45" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S10" s="45" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T10" s="45"/>
       <c r="U10" s="44"/>
@@ -4665,52 +4689,52 @@
     </row>
     <row r="11" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="43" t="n">
-        <v>31644</v>
+        <v>30015</v>
       </c>
       <c r="B11" s="44" t="n">
         <v>2</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E11" s="45" t="s">
         <v>39</v>
       </c>
       <c r="F11" s="44" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G11" s="44" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H11" s="46" t="n">
-        <v>24645</v>
+        <v>23410</v>
       </c>
       <c r="I11" s="46" t="n">
-        <v>34421</v>
+        <v>23410</v>
       </c>
       <c r="J11" s="46" t="n">
-        <v>42781</v>
+        <v>43552</v>
       </c>
       <c r="K11" s="47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L11" s="44" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M11" s="44" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="N11" s="44" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="O11" s="44" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="P11" s="44" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="Q11" s="45" t="s">
         <v>81</v>
@@ -4728,10 +4752,10 @@
     </row>
     <row r="12" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="43" t="n">
-        <v>32475</v>
+        <v>31644</v>
       </c>
       <c r="B12" s="44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="45" t="s">
         <v>84</v>
@@ -4749,16 +4773,16 @@
         <v>87</v>
       </c>
       <c r="H12" s="46" t="n">
-        <v>24267</v>
+        <v>24645</v>
       </c>
       <c r="I12" s="46" t="n">
-        <v>24267</v>
+        <v>34421</v>
       </c>
       <c r="J12" s="46" t="n">
-        <v>42480</v>
+        <v>42781</v>
       </c>
       <c r="K12" s="47" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L12" s="44" t="s">
         <v>88</v>
@@ -4791,7 +4815,7 @@
     </row>
     <row r="13" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="43" t="n">
-        <v>35366</v>
+        <v>32475</v>
       </c>
       <c r="B13" s="44" t="n">
         <v>1</v>
@@ -4800,52 +4824,52 @@
         <v>92</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="E13" s="45" t="s">
         <v>39</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H13" s="46" t="n">
-        <v>25696</v>
+        <v>24267</v>
       </c>
       <c r="I13" s="46" t="n">
-        <v>25696</v>
+        <v>24267</v>
       </c>
       <c r="J13" s="46" t="n">
-        <v>42781</v>
+        <v>42480</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L13" s="44" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="M13" s="44" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="N13" s="44" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="O13" s="44" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="P13" s="44" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="Q13" s="45" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="R13" s="45" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="S13" s="45" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="T13" s="45"/>
       <c r="U13" s="44"/>
@@ -4854,43 +4878,43 @@
     </row>
     <row r="14" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="43" t="n">
-        <v>43454</v>
+        <v>35366</v>
       </c>
       <c r="B14" s="44" t="n">
         <v>1</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D14" s="45" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="F14" s="44" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H14" s="46" t="n">
-        <v>29650</v>
+        <v>25696</v>
       </c>
       <c r="I14" s="46" t="n">
-        <v>29650</v>
+        <v>25696</v>
       </c>
       <c r="J14" s="46" t="n">
-        <v>43905</v>
+        <v>42781</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="L14" s="44" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="M14" s="44" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="N14" s="44" t="s">
         <v>44</v>
@@ -4902,13 +4926,13 @@
         <v>44</v>
       </c>
       <c r="Q14" s="45" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R14" s="45" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="S14" s="45" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="T14" s="45"/>
       <c r="U14" s="44"/>
@@ -4917,19 +4941,19 @@
     </row>
     <row r="15" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="43" t="n">
-        <v>44625</v>
+        <v>43454</v>
       </c>
       <c r="B15" s="44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="45" t="s">
         <v>104</v>
       </c>
       <c r="D15" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="45" t="s">
         <v>105</v>
-      </c>
-      <c r="E15" s="45" t="s">
-        <v>39</v>
       </c>
       <c r="F15" s="44" t="s">
         <v>106</v>
@@ -4938,40 +4962,40 @@
         <v>107</v>
       </c>
       <c r="H15" s="46" t="n">
-        <v>30098</v>
+        <v>29650</v>
       </c>
       <c r="I15" s="46" t="n">
-        <v>30098</v>
+        <v>29650</v>
       </c>
       <c r="J15" s="46" t="n">
-        <v>42842</v>
+        <v>43905</v>
       </c>
       <c r="K15" s="47" t="n">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="L15" s="44" t="s">
         <v>108</v>
       </c>
       <c r="M15" s="44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N15" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="O15" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="P15" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q15" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="O15" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="P15" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q15" s="45" t="s">
+      <c r="R15" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="R15" s="45" t="s">
+      <c r="S15" s="45" t="s">
         <v>111</v>
-      </c>
-      <c r="S15" s="45" t="s">
-        <v>112</v>
       </c>
       <c r="T15" s="45"/>
       <c r="U15" s="44"/>
@@ -4980,52 +5004,52 @@
     </row>
     <row r="16" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="43" t="n">
-        <v>45882</v>
+        <v>44625</v>
       </c>
       <c r="B16" s="44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="45" t="s">
         <v>113</v>
-      </c>
-      <c r="D16" s="45" t="s">
-        <v>114</v>
       </c>
       <c r="E16" s="45" t="s">
         <v>39</v>
       </c>
       <c r="F16" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="G16" s="44" t="s">
+      <c r="H16" s="46" t="n">
+        <v>30098</v>
+      </c>
+      <c r="I16" s="46" t="n">
+        <v>30098</v>
+      </c>
+      <c r="J16" s="46" t="n">
+        <v>42842</v>
+      </c>
+      <c r="K16" s="47" t="n">
+        <v>59</v>
+      </c>
+      <c r="L16" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="46" t="n">
-        <v>31180</v>
-      </c>
-      <c r="I16" s="46" t="n">
-        <v>31180</v>
-      </c>
-      <c r="J16" s="46" t="n">
-        <v>43340</v>
-      </c>
-      <c r="K16" s="47" t="n">
-        <v>20</v>
-      </c>
-      <c r="L16" s="44" t="s">
+      <c r="M16" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="N16" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="M16" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="N16" s="44" t="s">
-        <v>33</v>
-      </c>
       <c r="O16" s="44" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="P16" s="44" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="Q16" s="45" t="s">
         <v>118</v>
@@ -5043,7 +5067,7 @@
     </row>
     <row r="17" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="43" t="n">
-        <v>53290</v>
+        <v>45882</v>
       </c>
       <c r="B17" s="44" t="n">
         <v>1</v>
@@ -5055,31 +5079,31 @@
         <v>122</v>
       </c>
       <c r="E17" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="F17" s="44" t="s">
+      <c r="G17" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="G17" s="44" t="s">
+      <c r="H17" s="46" t="n">
+        <v>31180</v>
+      </c>
+      <c r="I17" s="46" t="n">
+        <v>31180</v>
+      </c>
+      <c r="J17" s="46" t="n">
+        <v>43340</v>
+      </c>
+      <c r="K17" s="47" t="n">
+        <v>20</v>
+      </c>
+      <c r="L17" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="H17" s="46" t="n">
-        <v>35026</v>
-      </c>
-      <c r="I17" s="46" t="n">
-        <v>35026</v>
-      </c>
-      <c r="J17" s="46" t="n">
-        <v>43002</v>
-      </c>
-      <c r="K17" s="47" t="n">
-        <v>19</v>
-      </c>
-      <c r="L17" s="44" t="s">
-        <v>126</v>
-      </c>
       <c r="M17" s="44" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="N17" s="44" t="s">
         <v>33</v>
@@ -5091,89 +5115,89 @@
         <v>33</v>
       </c>
       <c r="Q17" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="R17" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="S17" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="R17" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="S17" s="45" t="s">
-        <v>130</v>
-      </c>
       <c r="T17" s="45"/>
-      <c r="U17" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="V17" s="44" t="s">
-        <v>132</v>
-      </c>
+      <c r="U17" s="44"/>
+      <c r="V17" s="44"/>
       <c r="W17" s="44"/>
     </row>
     <row r="18" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="43" t="n">
-        <v>53662</v>
+        <v>53290</v>
       </c>
       <c r="B18" s="44" t="n">
         <v>1</v>
       </c>
       <c r="C18" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="D18" s="45" t="s">
+      <c r="H18" s="46" t="n">
+        <v>35026</v>
+      </c>
+      <c r="I18" s="46" t="n">
+        <v>35026</v>
+      </c>
+      <c r="J18" s="46" t="n">
+        <v>43002</v>
+      </c>
+      <c r="K18" s="47" t="n">
+        <v>19</v>
+      </c>
+      <c r="L18" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="E18" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="44" t="s">
+      <c r="M18" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="G18" s="44" t="s">
+      <c r="N18" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="O18" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="P18" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q18" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="H18" s="46" t="n">
-        <v>35123</v>
-      </c>
-      <c r="I18" s="46" t="n">
-        <v>35123</v>
-      </c>
-      <c r="J18" s="46" t="n">
-        <v>42851</v>
-      </c>
-      <c r="K18" s="47" t="n">
-        <v>13</v>
-      </c>
-      <c r="L18" s="44" t="s">
+      <c r="R18" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="M18" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="N18" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="O18" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="P18" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q18" s="45" t="s">
+      <c r="S18" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="R18" s="45" t="s">
+      <c r="T18" s="45"/>
+      <c r="U18" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="S18" s="45" t="s">
+      <c r="V18" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="T18" s="45"/>
-      <c r="U18" s="44"/>
-      <c r="V18" s="44"/>
       <c r="W18" s="44"/>
     </row>
     <row r="19" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="43" t="n">
-        <v>54015</v>
+        <v>53662</v>
       </c>
       <c r="B19" s="44" t="n">
         <v>1</v>
@@ -5188,46 +5212,46 @@
         <v>39</v>
       </c>
       <c r="F19" s="44" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c r="G19" s="44" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H19" s="46" t="n">
-        <v>35488</v>
+        <v>35123</v>
       </c>
       <c r="I19" s="46" t="n">
-        <v>35488</v>
+        <v>35123</v>
       </c>
       <c r="J19" s="46" t="n">
-        <v>42921</v>
+        <v>42851</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L19" s="44" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M19" s="44" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="N19" s="44" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="O19" s="44" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="P19" s="44" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="Q19" s="45" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="R19" s="45" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S19" s="45" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="T19" s="45"/>
       <c r="U19" s="44"/>
@@ -5236,61 +5260,61 @@
     </row>
     <row r="20" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="43" t="n">
-        <v>55558</v>
+        <v>54015</v>
       </c>
       <c r="B20" s="44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E20" s="45" t="s">
         <v>39</v>
       </c>
       <c r="F20" s="44" t="s">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="G20" s="44" t="s">
         <v>151</v>
       </c>
       <c r="H20" s="46" t="n">
-        <v>37232</v>
+        <v>35488</v>
       </c>
       <c r="I20" s="46" t="n">
-        <v>37232</v>
+        <v>35488</v>
       </c>
       <c r="J20" s="46" t="n">
-        <v>42896</v>
+        <v>42921</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L20" s="44" t="s">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="M20" s="44" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="N20" s="44" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="O20" s="44" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="P20" s="44" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="Q20" s="45" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="R20" s="45" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="S20" s="45" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="T20" s="45"/>
       <c r="U20" s="44"/>
@@ -5299,25 +5323,25 @@
     </row>
     <row r="21" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="43" t="n">
-        <v>55561</v>
+        <v>55558</v>
       </c>
       <c r="B21" s="44" t="n">
         <v>2</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D21" s="45" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E21" s="45" t="s">
         <v>39</v>
       </c>
       <c r="F21" s="44" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G21" s="44" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H21" s="46" t="n">
         <v>37232</v>
@@ -5326,54 +5350,52 @@
         <v>37232</v>
       </c>
       <c r="J21" s="46" t="n">
-        <v>43732</v>
+        <v>42896</v>
       </c>
       <c r="K21" s="47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L21" s="44" t="s">
-        <v>158</v>
+        <v>62</v>
       </c>
       <c r="M21" s="44" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="N21" s="44" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O21" s="44" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="P21" s="44" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="Q21" s="45" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="R21" s="45" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S21" s="45" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="T21" s="45"/>
       <c r="U21" s="44"/>
       <c r="V21" s="44"/>
-      <c r="W21" s="44" t="s">
-        <v>162</v>
-      </c>
+      <c r="W21" s="44"/>
     </row>
     <row r="22" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="43" t="n">
-        <v>55594</v>
+        <v>55561</v>
       </c>
       <c r="B22" s="44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="D22" s="45" t="s">
         <v>163</v>
-      </c>
-      <c r="D22" s="45" t="s">
-        <v>114</v>
       </c>
       <c r="E22" s="45" t="s">
         <v>39</v>
@@ -5385,31 +5407,31 @@
         <v>165</v>
       </c>
       <c r="H22" s="46" t="n">
-        <v>37172</v>
+        <v>37232</v>
       </c>
       <c r="I22" s="46" t="n">
-        <v>37172</v>
+        <v>37232</v>
       </c>
       <c r="J22" s="46" t="n">
-        <v>43863</v>
+        <v>43732</v>
       </c>
       <c r="K22" s="47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L22" s="44" t="s">
         <v>166</v>
       </c>
       <c r="M22" s="44" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="N22" s="44" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="O22" s="44" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="P22" s="44" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="Q22" s="45" t="s">
         <v>167</v>
@@ -5423,56 +5445,58 @@
       <c r="T22" s="45"/>
       <c r="U22" s="44"/>
       <c r="V22" s="44"/>
-      <c r="W22" s="44"/>
+      <c r="W22" s="44" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="23" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="43" t="n">
-        <v>55674</v>
+        <v>55594</v>
       </c>
       <c r="B23" s="44" t="n">
         <v>1</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D23" s="45" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="E23" s="45" t="s">
         <v>39</v>
       </c>
       <c r="F23" s="44" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G23" s="44" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H23" s="46" t="n">
-        <v>37321</v>
+        <v>37172</v>
       </c>
       <c r="I23" s="46" t="n">
-        <v>37321</v>
+        <v>37172</v>
       </c>
       <c r="J23" s="46" t="n">
-        <v>42798</v>
+        <v>43863</v>
       </c>
       <c r="K23" s="47" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L23" s="44" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M23" s="44" t="s">
-        <v>174</v>
+        <v>63</v>
       </c>
       <c r="N23" s="44" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="O23" s="44" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="P23" s="44" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="Q23" s="45" t="s">
         <v>175</v>
@@ -5490,7 +5514,7 @@
     </row>
     <row r="24" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="43" t="n">
-        <v>58943</v>
+        <v>55674</v>
       </c>
       <c r="B24" s="44" t="n">
         <v>1</v>
@@ -5499,60 +5523,64 @@
         <v>178</v>
       </c>
       <c r="D24" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="E24" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="E24" s="45" t="s">
+      <c r="G24" s="44" t="s">
         <v>180</v>
       </c>
-      <c r="F24" s="44" t="s">
+      <c r="H24" s="46" t="n">
+        <v>37321</v>
+      </c>
+      <c r="I24" s="46" t="n">
+        <v>37321</v>
+      </c>
+      <c r="J24" s="46" t="n">
+        <v>42798</v>
+      </c>
+      <c r="K24" s="47" t="n">
+        <v>5</v>
+      </c>
+      <c r="L24" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="G24" s="44"/>
-      <c r="H24" s="46" t="n">
-        <v>42110</v>
-      </c>
-      <c r="I24" s="46" t="n">
-        <v>42110</v>
-      </c>
-      <c r="J24" s="46" t="n">
-        <v>43936</v>
-      </c>
-      <c r="K24" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="L24" s="44" t="s">
+      <c r="M24" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="M24" s="44" t="s">
+      <c r="N24" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="O24" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="P24" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q24" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="N24" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="O24" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="P24" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="45"/>
+      <c r="R24" s="45" t="s">
+        <v>184</v>
+      </c>
       <c r="S24" s="45" t="s">
-        <v>184</v>
-      </c>
-      <c r="T24" s="45" t="s">
         <v>185</v>
       </c>
+      <c r="T24" s="45"/>
       <c r="U24" s="44"/>
       <c r="V24" s="44"/>
       <c r="W24" s="44"/>
     </row>
     <row r="25" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="43" t="n">
-        <v>59267</v>
+        <v>58943</v>
       </c>
       <c r="B25" s="44" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C25" s="45" t="s">
         <v>186</v>
@@ -5566,89 +5594,85 @@
       <c r="F25" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="G25" s="44" t="s">
+      <c r="G25" s="44"/>
+      <c r="H25" s="46" t="n">
+        <v>42110</v>
+      </c>
+      <c r="I25" s="46" t="n">
+        <v>42110</v>
+      </c>
+      <c r="J25" s="46" t="n">
+        <v>43936</v>
+      </c>
+      <c r="K25" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="H25" s="46" t="n">
-        <v>40128</v>
-      </c>
-      <c r="I25" s="46" t="n">
-        <v>42257</v>
-      </c>
-      <c r="J25" s="46" t="n">
-        <v>43779</v>
-      </c>
-      <c r="K25" s="47" t="n">
-        <v>11</v>
-      </c>
-      <c r="L25" s="44" t="s">
+      <c r="M25" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="M25" s="44" t="s">
+      <c r="N25" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="O25" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="P25" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="N25" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="O25" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="P25" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q25" s="45" t="s">
+      <c r="T25" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="R25" s="45" t="s">
-        <v>194</v>
-      </c>
-      <c r="S25" s="45" t="s">
-        <v>195</v>
-      </c>
-      <c r="T25" s="45"/>
       <c r="U25" s="44"/>
       <c r="V25" s="44"/>
       <c r="W25" s="44"/>
     </row>
     <row r="26" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="43" t="n">
-        <v>61186</v>
+        <v>59267</v>
       </c>
       <c r="B26" s="44" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C26" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="D26" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="E26" s="45" t="s">
         <v>196</v>
       </c>
-      <c r="D26" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="E26" s="45" t="s">
-        <v>39</v>
-      </c>
       <c r="F26" s="44" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="G26" s="44" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="H26" s="46" t="n">
-        <v>40522</v>
+        <v>40128</v>
       </c>
       <c r="I26" s="46" t="n">
-        <v>40522</v>
+        <v>42257</v>
       </c>
       <c r="J26" s="46" t="n">
-        <v>44174</v>
+        <v>43779</v>
       </c>
       <c r="K26" s="47" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L26" s="44" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M26" s="44" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N26" s="44" t="s">
         <v>33</v>
@@ -5660,13 +5684,13 @@
         <v>33</v>
       </c>
       <c r="Q26" s="45" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="R26" s="45" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="S26" s="45" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="T26" s="45"/>
       <c r="U26" s="44"/>
@@ -5675,43 +5699,43 @@
     </row>
     <row r="27" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="43" t="n">
-        <v>62069</v>
+        <v>61186</v>
       </c>
       <c r="B27" s="44" t="n">
         <v>1</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D27" s="45" t="s">
-        <v>202</v>
+        <v>122</v>
       </c>
       <c r="E27" s="45" t="s">
         <v>39</v>
       </c>
       <c r="F27" s="44" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="G27" s="44" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="H27" s="46" t="n">
-        <v>40610</v>
+        <v>40522</v>
       </c>
       <c r="I27" s="46" t="n">
-        <v>40610</v>
+        <v>40522</v>
       </c>
       <c r="J27" s="46" t="n">
-        <v>44262</v>
+        <v>44174</v>
       </c>
       <c r="K27" s="47" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L27" s="44" t="s">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="M27" s="44" t="s">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="N27" s="44" t="s">
         <v>33</v>
@@ -5723,13 +5747,13 @@
         <v>33</v>
       </c>
       <c r="Q27" s="45" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="R27" s="45" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="S27" s="45" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="T27" s="45"/>
       <c r="U27" s="44"/>
@@ -5738,68 +5762,131 @@
     </row>
     <row r="28" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="43" t="n">
-        <v>62132</v>
+        <v>62069</v>
       </c>
       <c r="B28" s="44" t="n">
         <v>1</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D28" s="45" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E28" s="45" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="F28" s="44" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G28" s="44" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H28" s="46" t="n">
-        <v>41337</v>
+        <v>40610</v>
       </c>
       <c r="I28" s="46" t="n">
-        <v>41337</v>
+        <v>40610</v>
       </c>
       <c r="J28" s="46" t="n">
-        <v>43162</v>
+        <v>44262</v>
       </c>
       <c r="K28" s="47" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L28" s="44" t="s">
-        <v>212</v>
+        <v>88</v>
       </c>
       <c r="M28" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="N28" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="O28" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="P28" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q28" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="N28" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="O28" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="P28" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q28" s="45" t="s">
+      <c r="R28" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="R28" s="45" t="s">
+      <c r="S28" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="S28" s="45" t="s">
-        <v>216</v>
-      </c>
       <c r="T28" s="45"/>
-      <c r="U28" s="44" t="s">
-        <v>131</v>
-      </c>
+      <c r="U28" s="44"/>
       <c r="V28" s="44"/>
       <c r="W28" s="44"/>
+    </row>
+    <row r="29" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="43" t="n">
+        <v>62132</v>
+      </c>
+      <c r="B29" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="D29" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="E29" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="F29" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="G29" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="H29" s="46" t="n">
+        <v>41337</v>
+      </c>
+      <c r="I29" s="46" t="n">
+        <v>41337</v>
+      </c>
+      <c r="J29" s="46" t="n">
+        <v>43162</v>
+      </c>
+      <c r="K29" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="M29" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="N29" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="O29" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="P29" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q29" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="R29" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="S29" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="T29" s="45"/>
+      <c r="U29" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="V29" s="44"/>
+      <c r="W29" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/spec/data/swissmedic_package.xlsx
+++ b/spec/data/swissmedic_package.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="601" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Zugelassene Packungen" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,22 +13,35 @@
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">'Zugelassene Packungen'!$5:$5</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">'Zugelassene Packungen'!$5:$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0" vbProcedure="false">'Zugelassene Packungen'!$5:$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0" vbProcedure="false">'Zugelassene Packungen'!$5:$5</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="225">
-  <si>
-    <t>Zugelassene Packungen / Conditionnements autorisés</t>
-  </si>
-  <si>
-    <t>Stand / Etat au: 31.10.2015</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="251">
+  <si>
+    <t xml:space="preserve">Zugelassene Packungen / Conditionnements autorisés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stand / Etat au: 31.10.2015</t>
   </si>
   <si>
     <r>
-      <t>* Die Gültigkeitsdauer entspricht den Angaben auf der Zulassungsbescheinigung. Provisorische Zulassungen, ohne Erneuerung des Gültigkeitsdatums, sind vorbehalten. Alle in der Liste aufgeführten Arzneimittel sind zum Zeitpunkt der Aktualisierung der Liste zugelassen / 
+      <rPr>
+        <sz val="8.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">* Die Gültigkeitsdauer entspricht den Angaben auf der Zulassungsbescheinigung. Provisorische Zulassungen, ohne Erneuerung des Gültigkeitsdatums, sind vorbehalten. Alle in der Liste aufgeführten Arzneimittel sind zum Zeitpunkt der Aktualisierung der Liste zugelassen / 
   La durée de validité correspond aux données figurant sur le certificat d'autorisation. Les autorisations provisoires, sans report de la date d'expiration, restent réservées. Tous les médicaments énumérés dans la liste sont autorisés au moment de la mise à jour de la liste. 
 ** </t>
     </r>
@@ -40,7 +53,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>Verzeichnisse</t>
+      <t xml:space="preserve">Verzeichnisse</t>
     </r>
     <r>
       <rPr>
@@ -49,7 +62,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t> (Kategorien der Kontrollmassnahmen, denen die Betäubungsmittel unterstellt sind) / Tableaux (catégories de mesures de contrôle auxquelles sont soumis les stupéfiants)
+      <t xml:space="preserve"> (Kategorien der Kontrollmassnahmen, denen die Betäubungsmittel unterstellt sind) / Tableaux (catégories de mesures de contrôle auxquelles sont soumis les stupéfiants)
 a: Unterstehen allen Kontrollmassnahmen (s. auch Anhang a der BetmVV-EDI) / Soumis à toutes les mesures de contrôle (voir aussi le tableau a de l'OTStup-DFI)
 b: Unterstehen nicht allen Kontrollmassnahmen (s. auch Anhang b der BetmVV-EDI) / Soustraits partiellement au contrôle (voir aussi le tableau b de l'OTStup-DFI)
 c: Unterstehen nicht allen Kontrollmassnahmen; in kleinen Mengen ohne Verschreibung erhältlich (s. auch Verzeichnis c der BetmVV-EDI) / Soustraits partiellement au contrôle; pouvant être obtenus en petites quantités sans ordonnance (voir aussi le tableau c de l'OTStup-DFI)
@@ -58,552 +71,573 @@
     </r>
   </si>
   <si>
-    <t>Zulassungs-nummer
+    <t xml:space="preserve">Zulassungs-nummer
 Numéro d'autorisation
 </t>
   </si>
   <si>
-    <t>Dosisstärke-nummer
+    <t xml:space="preserve">Dosisstärke-nummer
 Numéro de dosage</t>
   </si>
   <si>
-    <t>Präparatebezeichnung  
+    <t xml:space="preserve">Präparatebezeichnung  
 Dénomination de la préparation</t>
   </si>
   <si>
-    <t>Zulassungsinhaberin
+    <t xml:space="preserve">Zulassungsinhaberin
 Titulaire de l'autorisation</t>
   </si>
   <si>
-    <t>Heilmittelcode
+    <t xml:space="preserve">Heilmittelcode
 Catégorie de la préparation</t>
   </si>
   <si>
-    <t>IT-Nummer
+    <t xml:space="preserve">IT-Nummer
 N° IT </t>
   </si>
   <si>
-    <t>ATC-Code
+    <t xml:space="preserve">ATC-Code
 Code ATC</t>
   </si>
   <si>
-    <t>Erstzulassungs-datum Präparat
+    <t xml:space="preserve">Erstzulassungs-datum Präparat
 Date de première autorisation de la préparation</t>
   </si>
   <si>
-    <t>Zul.datum Dosisstärke 
+    <t xml:space="preserve">Zul.datum Dosisstärke 
 Date d'autorisation du dosage</t>
   </si>
   <si>
-    <t>Gültigkeitsdauer der Zulassung * 
+    <t xml:space="preserve">Gültigkeitsdauer der Zulassung * 
 Durée de validité de l'AMM  *</t>
   </si>
   <si>
-    <t>Packungscode
+    <t xml:space="preserve">Packungscode
 Code d'emballage</t>
   </si>
   <si>
-    <t>Packungsgrösse
+    <t xml:space="preserve">Packungsgrösse
 Conditionnement</t>
   </si>
   <si>
-    <t>Einheit
+    <t xml:space="preserve">Einheit
 Unité</t>
   </si>
   <si>
-    <t>Abgabekategorie Packung
+    <t xml:space="preserve">Abgabekategorie Packung
 Cat. de remise du conditionnement</t>
   </si>
   <si>
-    <t>Abgabekategorie Dosisstärke 
+    <t xml:space="preserve">Abgabekategorie Dosisstärke 
 Cat. de remise du dosage</t>
   </si>
   <si>
-    <t>Abgabekategorie Präparat
+    <t xml:space="preserve">Abgabekategorie Präparat
 Cat. de remise de la préparation</t>
   </si>
   <si>
-    <t>Wirkstoff(e)
+    <t xml:space="preserve">Wirkstoff(e)
 Principe(s) actif(s)</t>
   </si>
   <si>
-    <t>Zusammensetzung
+    <t xml:space="preserve">Zusammensetzung
 Composition</t>
   </si>
   <si>
-    <t>Anwendungsgebiet Präparat
+    <t xml:space="preserve">Anwendungsgebiet Präparat
 Champ d'application de la préparation</t>
   </si>
   <si>
-    <t>Anwendungsgebiet Dosisstärke
+    <t xml:space="preserve">Anwendungsgebiet Dosisstärke
 Champ d'application du dosage</t>
   </si>
   <si>
-    <t>Gentechnisch hergestellte Wirkstoffe
+    <t xml:space="preserve">Gentechnisch hergestellte Wirkstoffe
 Principes actifs produits par génie génétique</t>
   </si>
   <si>
-    <t>Kategorie bei Insulinen
+    <t xml:space="preserve">Kategorie bei Insulinen
 Catégorie en cas d'insuline</t>
   </si>
   <si>
-    <t>Verz. bei betäubunsmittel-haltigen Präparaten** 
+    <t xml:space="preserve">Verz. bei betäubunsmittel-haltigen Präparaten** 
 N° du tabl. si préparations à base de stupéfiants**</t>
   </si>
   <si>
-    <t>Coeur-Vaisseaux Sérocytol, suppositoire</t>
-  </si>
-  <si>
-    <t>Sérolab, société anonyme</t>
-  </si>
-  <si>
-    <t>Blutprodukte</t>
-  </si>
-  <si>
-    <t>08.07.</t>
-  </si>
-  <si>
-    <t>J06AA</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Suppositorien</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>globulina equina (immunisé avec coeur, endothélium vasculaire porcins)</t>
-  </si>
-  <si>
-    <t>globulina equina (immunisé avec coeur, endothélium vasculaire porcins) 8 mg, propylenglycolum, conserv.: E 216, E 218, excipiens pro suppositorio.</t>
-  </si>
-  <si>
-    <t>Traitement immunomodulant selon le Dr Thomas
+    <t xml:space="preserve">Coeur-Vaisseaux Sérocytol, suppositoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sérolab, société anonyme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blutprodukte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08.07.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J06AA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suppositorien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">globulina equina (immunisé avec coeur, endothélium vasculaire porcins)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">globulina equina (immunisé avec coeur, endothélium vasculaire porcins) 8 mg, propylenglycolum, conserv.: E 216, E 218, excipiens pro suppositorio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traitement immunomodulant selon le Dr Thomas
 Possibilités d'emploi voir information professionnelle</t>
   </si>
   <si>
-    <t>Zymafluor 0.25 mg, Tabletten</t>
-  </si>
-  <si>
-    <t>MEDA Pharma GmbH</t>
-  </si>
-  <si>
-    <t>Synthetika human</t>
-  </si>
-  <si>
-    <t>13.05.1.</t>
-  </si>
-  <si>
-    <t>A01AA01</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>Tablette(n)</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>fluoridum</t>
-  </si>
-  <si>
-    <t>fluoridum 0.25 mg ut natrii fluoridum, aromatica, excipiens pro compresso.</t>
-  </si>
-  <si>
-    <t>Kariesprophylaxe</t>
-  </si>
-  <si>
-    <t>Hirudoid, Creme</t>
-  </si>
-  <si>
-    <t>Medinova AG</t>
-  </si>
-  <si>
-    <t>02.08.2.</t>
-  </si>
-  <si>
-    <t>C05BA</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>heparinoidum (chondroitini polysulfas)</t>
-  </si>
-  <si>
-    <t>heparinoidum (chondroitini polysulfas) 3 mg alcoholes adipis lanae, aromatica, conserv.: E 218, E 216, excipiens ad unguentum pro 1 g.</t>
-  </si>
-  <si>
-    <t>Venenmittel für den äusserlichen Gebrauch</t>
-  </si>
-  <si>
-    <t>W-Tropfen</t>
-  </si>
-  <si>
-    <t>Iromedica AG</t>
-  </si>
-  <si>
-    <t>10.07.0.</t>
-  </si>
-  <si>
-    <t>D11AF</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>ml</t>
-  </si>
-  <si>
-    <t>acidum lacticum, acidum salicylicum</t>
-  </si>
-  <si>
-    <t>acidum lacticum 40.915 mg, acidum salicylicum 100.2 mg, excipiens ad solutionem pro 1 ml.</t>
-  </si>
-  <si>
-    <t>Hühneraugen, Hornhaut, Warzen</t>
-  </si>
-  <si>
-    <t>Ancopir, Injektionslösung</t>
-  </si>
-  <si>
-    <t>Dr. Grossmann AG, Pharmaca</t>
-  </si>
-  <si>
-    <t>07.02.4.</t>
-  </si>
-  <si>
-    <t>A11DB</t>
-  </si>
-  <si>
-    <t>5 x 2 ml</t>
-  </si>
-  <si>
-    <t>Ampulle(n)</t>
-  </si>
-  <si>
-    <t>thiamini hydrochloridum, pyridoxini hydrochloridum, cyanocobalaminum, lidocaini hydrochloridum</t>
-  </si>
-  <si>
-    <t>thiamini hydrochloridum 200 mg, pyridoxini hydrochloridum 50 mg, cyanocobalaminum 1 mg, lidocaini hydrochloridum 10 mg, sorbitolum, conserv.: E 218 1.6 mg, aqua ad iniectabilia q.s. ad solutionem pro 2 ml.</t>
-  </si>
-  <si>
-    <t>Vitamin B1, B6, B12-Präparat</t>
-  </si>
-  <si>
-    <t>Lidocain 1% Streuli, Injektionslösung (Ampullen)</t>
-  </si>
-  <si>
-    <t>Streuli Pharma AG</t>
-  </si>
-  <si>
-    <t>01.02.2.</t>
-  </si>
-  <si>
-    <t>N01BB02</t>
-  </si>
-  <si>
-    <t>10 x  2</t>
-  </si>
-  <si>
-    <t>lidocaini hydrochloridum</t>
-  </si>
-  <si>
-    <t>lidocaini hydrochloridum 10 mg, natrii chloridum, aqua ad iniectabilia q.s. ad solutionem pro 1 ml.</t>
-  </si>
-  <si>
-    <t>Lokalanaestheticum</t>
-  </si>
-  <si>
-    <t>Ferro-Gradumet, compresse a rilascio prolungato</t>
-  </si>
-  <si>
-    <t>FARMACEUTICA TEOFARMA SUISSE SA</t>
-  </si>
-  <si>
-    <t>06.07.1.</t>
-  </si>
-  <si>
-    <t>B03AA07</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>ferrum(II)</t>
-  </si>
-  <si>
-    <t>ferrum(II) 105 mg ut ferrosi sulfas dessiccatus, arom.: saccharinum natricum, color.: E 127, excipiens pro compresso.</t>
-  </si>
-  <si>
-    <t>Anemia da carenza di ferro con carenza di ferro accertata</t>
-  </si>
-  <si>
-    <t>Lansoyl, gelée</t>
-  </si>
-  <si>
-    <t>Actipharm SA</t>
-  </si>
-  <si>
-    <t>04.08.11</t>
-  </si>
-  <si>
-    <t>A06AA01</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>paraffinum liquidum</t>
-  </si>
-  <si>
-    <t>paraffinum liquidum 782.3 mg, saccharum, arom.: vanillinum, ethylvanillinum et alia, color.: E 124, excipiens ad gelatum pro 1 g.</t>
-  </si>
-  <si>
-    <t>Laxatif</t>
-  </si>
-  <si>
-    <t>Kendural, compresse a rilascio prolungato</t>
-  </si>
-  <si>
-    <t>B03AE10</t>
-  </si>
-  <si>
-    <t>ferrum(II), acidum ascorbicum</t>
-  </si>
-  <si>
-    <t>ferrum(II) 105 mg ut ferrosi sulfas dessiccatus, acidum ascorbicum 500 mg ut natrii ascorbas, color.: E 124, excipiens pro compresso obducto.</t>
-  </si>
-  <si>
-    <t>Kamillin Medipharm, Bad</t>
-  </si>
-  <si>
-    <t>Phytotherapeutika</t>
-  </si>
-  <si>
-    <t>10.08.0.</t>
-  </si>
-  <si>
-    <t>D03AX</t>
-  </si>
-  <si>
-    <t>10 x 40</t>
-  </si>
-  <si>
-    <t>matricariae extractum isopropanolicum liquidum</t>
-  </si>
-  <si>
-    <t>matricariae extractum isopropanolicum liquidum 98.9 g corresp. levomenolum 10-50 mg, ratio: 1:2-2.8, excipiens ad solutionem pro 100 g.</t>
-  </si>
-  <si>
-    <t>Bei Hauterkrankungen</t>
-  </si>
-  <si>
-    <t>Rocephin 500 mg i.v., Trockenampullen + Solvens</t>
-  </si>
-  <si>
-    <t>Roche Pharma (Schweiz) AG</t>
-  </si>
-  <si>
-    <t>08.01.3.</t>
-  </si>
-  <si>
-    <t>J01DD04</t>
-  </si>
-  <si>
-    <t>5 + 5</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>ceftriaxonum</t>
-  </si>
-  <si>
-    <t>Praeparatio sicca: ceftriaxonum 500 mg ut ceftriaxonum natricum pro vitro.
+    <t xml:space="preserve">Zymafluor 0.25 mg, Tabletten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEDA Pharma GmbH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synthetika human</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.05.1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A01AA01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tablette(n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fluoridum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fluoridum 0.25 mg ut natrii fluoridum, aromatica, excipiens pro compresso.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kariesprophylaxe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hirudoid, Creme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medinova AG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02.08.2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C05BA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heparinoidum (chondroitini polysulfas)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heparinoidum (chondroitini polysulfas) 3 mg alcoholes adipis lanae, aromatica, conserv.: E 218, E 216, excipiens ad unguentum pro 1 g.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venenmittel für den äusserlichen Gebrauch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W-Tropfen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iromedica AG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.07.0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D11AF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acidum lacticum, acidum salicylicum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acidum lacticum 40.915 mg, acidum salicylicum 100.2 mg, excipiens ad solutionem pro 1 ml.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hühneraugen, Hornhaut, Warzen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ancopir, Injektionslösung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Grossmann AG, Pharmaca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.02.4.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A11DB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 x 2 ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ampulle(n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thiamini hydrochloridum, pyridoxini hydrochloridum, cyanocobalaminum, lidocaini hydrochloridum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thiamini hydrochloridum 200 mg, pyridoxini hydrochloridum 50 mg, cyanocobalaminum 1 mg, lidocaini hydrochloridum 10 mg, sorbitolum, conserv.: E 218 1.6 mg, aqua ad iniectabilia q.s. ad solutionem pro 2 ml.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitamin B1, B6, B12-Präparat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lidocain 1% Streuli, Injektionslösung (Ampullen)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Streuli Pharma AG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.02.2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N01BB02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 x  2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lidocaini hydrochloridum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lidocaini hydrochloridum 10 mg, natrii chloridum, aqua ad iniectabilia q.s. ad solutionem pro 1 ml.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lokalanaestheticum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ferro-Gradumet, compresse a rilascio prolungato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FARMACEUTICA TEOFARMA SUISSE SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06.07.1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B03AA07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ferrum(II)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ferrum(II) 105 mg ut ferrosi sulfas dessiccatus, arom.: saccharinum natricum, color.: E 127, excipiens pro compresso.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anemia da carenza di ferro con carenza di ferro accertata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lansoyl, gelée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actipharm SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04.08.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A06AA01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paraffinum liquidum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paraffinum liquidum 782.3 mg, saccharum, arom.: vanillinum, ethylvanillinum et alia, color.: E 124, excipiens ad gelatum pro 1 g.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laxatif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kendural, compresse a rilascio prolungato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B03AE10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ferrum(II), acidum ascorbicum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ferrum(II) 105 mg ut ferrosi sulfas dessiccatus, acidum ascorbicum 500 mg ut natrii ascorbas, color.: E 124, excipiens pro compresso obducto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamillin Medipharm, Bad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phytotherapeutika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.08.0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D03AX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 x 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matricariae extractum isopropanolicum liquidum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matricariae extractum isopropanolicum liquidum 98.9 g corresp. levomenolum 10-50 mg, ratio: 1:2-2.8, excipiens ad solutionem pro 100 g.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bei Hauterkrankungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rocephin 500 mg i.v., Trockenampullen + Solvens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roche Pharma (Schweiz) AG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08.01.3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J01DD04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 + 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ceftriaxonum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Praeparatio sicca: ceftriaxonum 500 mg ut ceftriaxonum natricum pro vitro.
 Solvens: aqua ad iniectabilia 5 ml.</t>
   </si>
   <si>
-    <t>Infektionskrankheiten</t>
-  </si>
-  <si>
-    <t>Magnesiumchlorid 0,5 molar B. Braun, Zusatzampulle für              Infusionslösungen</t>
-  </si>
-  <si>
-    <t>B. Braun Medical AG</t>
-  </si>
-  <si>
-    <t>05.03.2.</t>
-  </si>
-  <si>
-    <t>B05XA11</t>
-  </si>
-  <si>
-    <t>5 x 10 mL</t>
-  </si>
-  <si>
-    <t>magnesium, chloridum</t>
-  </si>
-  <si>
-    <t>magnesium 500 mmol, chloridum 1000 mmol, aqua ad iniectabilia q.s. ad solutionem pro 1000 ml.</t>
-  </si>
-  <si>
-    <t>Magnesiummangel</t>
-  </si>
-  <si>
-    <t>Insulin Lilly Humalog Flacon, solution injectable</t>
-  </si>
-  <si>
-    <t>Eli Lilly (Suisse) SA</t>
-  </si>
-  <si>
-    <t>Biotechnologika</t>
-  </si>
-  <si>
-    <t>07.06.1.</t>
-  </si>
-  <si>
-    <t>A10AB04</t>
-  </si>
-  <si>
-    <t>1 x 10 ml</t>
-  </si>
-  <si>
-    <t>Flasche(n)</t>
-  </si>
-  <si>
-    <t>insulinum lisprum</t>
-  </si>
-  <si>
-    <t>insulinum lisprum 100 U.I., glycerolum, zincum, natrii phosphates, conserv.: metacresolum 3.15 mg, aqua ad iniectabilia q.s. ad solutionem pro 1 ml.</t>
-  </si>
-  <si>
-    <t>Diabète sucré</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Insulinanalog: schnell wirkend</t>
-  </si>
-  <si>
-    <t>3TC 150 mg, Filmtabletten</t>
-  </si>
-  <si>
-    <t>ViiV Healthcare GmbH</t>
-  </si>
-  <si>
-    <t>08.03.0.</t>
-  </si>
-  <si>
-    <t>J05AF05</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>lamivudinum</t>
-  </si>
-  <si>
-    <t>lamivudinum 150 mg, excipiens pro compresso obducto.</t>
-  </si>
-  <si>
-    <t>HIV-Infektionen</t>
-  </si>
-  <si>
-    <t>Naropin 0,2 %, Infusionslösung / Injektionslösung</t>
-  </si>
-  <si>
-    <t>AstraZeneca AG</t>
-  </si>
-  <si>
-    <t>N01BB09</t>
-  </si>
-  <si>
-    <t>5 x 10</t>
-  </si>
-  <si>
-    <t>ropivacainum</t>
-  </si>
-  <si>
-    <t>ropivacaini hydrochloridum 2 mg, natrii chloridum, aqua ad iniectabilia q.s. ad solutionem pro 1 ml.</t>
-  </si>
-  <si>
-    <t>Lokalanästhetikum</t>
-  </si>
-  <si>
-    <t>Zyvoxid 600 mg, Filmtabletten</t>
-  </si>
-  <si>
-    <t>Pfizer AG</t>
-  </si>
-  <si>
-    <t>08.01.9.</t>
-  </si>
-  <si>
-    <t>J01XX08</t>
-  </si>
-  <si>
-    <t>linezolidum</t>
-  </si>
-  <si>
-    <t>linezolidum 600 mg, excipiens pro compresso obducto.</t>
-  </si>
-  <si>
-    <t>Diaphin 10 g i.v., Injektionspräparat</t>
-  </si>
-  <si>
-    <t>DiaMo Narcotics GmbH</t>
-  </si>
-  <si>
-    <t>01.01.3.</t>
-  </si>
-  <si>
-    <t>N07BC06</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>diamorphinum</t>
-  </si>
-  <si>
-    <t>diamorphini hydrochloridum monohydricum 10 g corresp. diamorphinum 8.71 g pro vitro.</t>
-  </si>
-  <si>
-    <t>Ergänzung der Behandlung von schwer heroinabhängigen Personen</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>Nutriflex Lipid plus, Infusionsemulsion, 1250ml</t>
-  </si>
-  <si>
-    <t>07.01.2.</t>
-  </si>
-  <si>
-    <t>B05BA10</t>
-  </si>
-  <si>
-    <t>5 x 1250</t>
-  </si>
-  <si>
-    <t>glucosum anhydricum, natrii dihydrogenophosphas dihydricus, zinci acetas dihydricus, isoleucinum, leucinum, lysinum anhydricum, methioninum, phenylalaninum, threoninum, tryptophanum, valinum, argininum, histidinum, alaninum, acidum asparticum, acidum glutamicum, glycinum, prolinum, serinum, natrii hydroxidum, natrii chloridum, natrii acetas trihydricus, kalii acetas, magnesii acetas tetrahydricus, calcii chloridum dihydricum, aminoacida, nitrogenia, carbohydrata, materia crassa, natrium, kalium, magnesium, calcium, zincum, chloridum, phosphas, acetas, sojae oleum, triglycerida saturata media</t>
-  </si>
-  <si>
-    <t>I) Glucoselösung: glucosum anhydricum 150 g ut glucosum monohydricum, natrii dihydrogenophosphas dihydricus 2.34 g, zinci acetas dihydricus 6.58 mg, aqua ad iniectabilia q.s. ad solutionem pro 500 ml.
+    <t xml:space="preserve">Infektionskrankheiten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnesiumchlorid 0,5 molar B. Braun, Zusatzampulle für              Infusionslösungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B. Braun Medical AG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05.03.2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B05XA11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 x 10 mL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">magnesium, chloridum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">magnesium 500 mmol, chloridum 1000 mmol, aqua ad iniectabilia q.s. ad solutionem pro 1000 ml.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnesiummangel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insulin Lilly Humalog Flacon, solution injectable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eli Lilly (Suisse) SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biotechnologika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.06.1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A10AB04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 10 ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flasche(n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insulinum lisprum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insulinum lisprum 100 U.I., glycerolum, zincum, natrii phosphates, conserv.: metacresolum 3.15 mg, aqua ad iniectabilia q.s. ad solutionem pro 1 ml.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diabète sucré</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insulinanalog: schnell wirkend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3TC 150 mg, Filmtabletten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ViiV Healthcare GmbH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08.03.0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J05AF05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lamivudinum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lamivudinum 150 mg, excipiens pro compresso obducto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIV-Infektionen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naropin 0,2 %, Infusionslösung / Injektionslösung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AstraZeneca AG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N01BB09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 x 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ropivacainum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ropivacaini hydrochloridum 2 mg, natrii chloridum, aqua ad iniectabilia q.s. ad solutionem pro 1 ml.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lokalanästhetikum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tebokan 240, Filmtabletten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schwabe Pharma AG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02.97.0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N06DX02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ginkgonis extractum siccum raffinatum et quantificatum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ginkgonis extractum siccum raffinatum et quantificatum 240 mg corresp. flavonglycosida ginkgo 52.8-64.8 mg et terpenlactona ginkgo 12.96-15.84 mg, DER: 35-67:1, Auszugsmittel acetonum 60% (m/m), antiox.: E 200, excipiens pro compresso obducto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bei nachlassender geistiger Leistungsfähigkeit; bei Claudicatio intermittens; bei Vertigo und Tinnitus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zyvoxid 600 mg, Filmtabletten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pfizer AG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08.01.9.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J01XX08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linezolidum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linezolidum 600 mg, excipiens pro compresso obducto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diaphin 10 g i.v., Injektionspräparat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DiaMo Narcotics GmbH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.01.3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N07BC06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diamorphinum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diamorphini hydrochloridum monohydricum 10 g corresp. diamorphinum 8.71 g pro vitro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ergänzung der Behandlung von schwer heroinabhängigen Personen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nutriflex Lipid plus, Infusionsemulsion, 1250ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.01.2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B05BA10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 x 1250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glucosum anhydricum, natrii dihydrogenophosphas dihydricus, zinci acetas dihydricus, isoleucinum, leucinum, lysinum anhydricum, methioninum, phenylalaninum, threoninum, tryptophanum, valinum, argininum, histidinum, alaninum, acidum asparticum, acidum glutamicum, glycinum, prolinum, serinum, natrii hydroxidum, natrii chloridum, natrii acetas trihydricus, kalii acetas, magnesii acetas tetrahydricus, calcii chloridum dihydricum, aminoacida, nitrogenia, carbohydrata, materia crassa, natrium, kalium, magnesium, calcium, zincum, chloridum, phosphas, acetas, sojae oleum, triglycerida saturata media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I) Glucoselösung: glucosum anhydricum 150 g ut glucosum monohydricum, natrii dihydrogenophosphas dihydricus 2.34 g, zinci acetas dihydricus 6.58 mg, aqua ad iniectabilia q.s. ad solutionem pro 500 ml.
 II) Fettemulsion: sojae oleum 25 g, triglycerida saturata media 25 g, lecithinum ex ovo, glycerolum, natrii oleas, aqua ad iniectabilia q.s. ad emulsionem pro 250 ml.
 III) Aminosäurenlösung: isoleucinum 2.82 g, leucinum 3.76 g, lysinum anhydricum 2.73 g ut lysinum monohydricum, methioninum 2.35 g, phenylalaninum 4.21 g, threoninum 2.18 g, tryptophanum 680 mg, valinum 3.12 g, argininum 3.24 g, histidinum 1.5 g ut histidini hydrochloridum monohydricum, alaninum 5.82 g, acidum asparticum 1.8 g, acidum glutamicum 4.21 g, glycinum 1.98 g, prolinum 4.08 g, serinum 3.6 g, natrii hydroxidum 0.976 g, natrii chloridum 0.503 g, natrii acetas trihydricus 0.277 g, kalii acetas 3.434 g, magnesii acetas tetrahydricus 0.858 g, calcii chloridum dihydricum 0.588 g, aqua ad iniectabilia q.s. ad solutionem pro 500 ml.
 .
@@ -611,102 +645,129 @@
 Corresp. 4240 kJ pro 1 l.</t>
   </si>
   <si>
-    <t>Parenterale Ernährung</t>
-  </si>
-  <si>
-    <t>Caverject DC 10, Injektionspräparat</t>
-  </si>
-  <si>
-    <t>05.99.0.</t>
-  </si>
-  <si>
-    <t>G04BE01</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Spritze(n)</t>
-  </si>
-  <si>
-    <t>alprostadilum</t>
-  </si>
-  <si>
-    <t>Praeparatio cryodesiccata: alprostadilum 10 µg, alfadexum, lactosum anhydricum, natrii citras dihydricus, acidum hydrochloridum aut natrii hydroxidum, pro vitro.
+    <t xml:space="preserve">Parenterale Ernährung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caverject DC 10, Injektionspräparat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05.99.0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G04BE01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spritze(n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alprostadilum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Praeparatio cryodesiccata: alprostadilum 10 µg, alfadexum, lactosum anhydricum, natrii citras dihydricus, acidum hydrochloridum aut natrii hydroxidum, pro vitro.
 Solvens: conserv.: alcohol benzylicus 4.45 mg, aqua ad iniectabilia q.s. ad solutionem pro 0.5 ml.</t>
   </si>
   <si>
-    <t>Erektile Dysfunktion</t>
-  </si>
-  <si>
-    <t>Apligraf</t>
-  </si>
-  <si>
-    <t>Organogenesis Switzerland GmbH</t>
-  </si>
-  <si>
-    <t>Transplantat: Gewebeprodukt</t>
-  </si>
-  <si>
-    <t>10.06.0.</t>
-  </si>
-  <si>
-    <t>75 mm</t>
-  </si>
-  <si>
-    <t>Scheibe(n)/disque(s)</t>
-  </si>
-  <si>
-    <t>Wundbehandlung (Hautäquivalent)</t>
-  </si>
-  <si>
-    <t>Behandlung von chronischen venösen Beinulzera sowie von diabetischen Fussulzera 
+    <t xml:space="preserve">Erektile Dysfunktion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advate 250 U.I. (2 ml), Lyophilisat und Lösungsmittel zur intravenösen Injektion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shire Switzerland GmbH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06.01.1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B02BD02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">octocogum alfa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Praeparatio cryodesiccata: octocogum alfa 250 U.I., trehalosum dihydricum, histidinum, trometamolum, natrii chloridum, calcii chloridum dihydricum, polysorbatum 80, mannitolum, antiox.: l-glutathionum 0.4 mg, pro vitro, solvens: aqua ad iniectabilia 2 ml.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hämophilie A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apligraf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organogenesis Switzerland GmbH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transplantat: Gewebeprodukt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.06.0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scheibe(n)/disque(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wundbehandlung (Hautäquivalent)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behandlung von chronischen venösen Beinulzera sowie von diabetischen Fussulzera 
 Behandlung von Muco-Gingivalen Läsionen (Anwendung nur nach  Herstellung  mit Rinderhypophysenextrakt aus einem Land Kategorie A)</t>
   </si>
   <si>
-    <t>Agrippal, Injektionssuspension</t>
-  </si>
-  <si>
-    <t>Novartis Pharma Schweiz AG</t>
-  </si>
-  <si>
-    <t>Impfstoffe</t>
-  </si>
-  <si>
-    <t>08.08.</t>
-  </si>
-  <si>
-    <t>J07BB02</t>
-  </si>
-  <si>
-    <t>1 x 0.5 ml</t>
-  </si>
-  <si>
-    <t>Fertigspritze(n)</t>
-  </si>
-  <si>
-    <t>haemagglutininum influenzae A (H1N1), neuraminidasum inactivatum (Virus-Stamm A/California/7/2009 (H1N1)-like: reassortant virus NYMC X-181), haemagglutininum influenzae A (H3N2), haemagglutininum influenzae B</t>
-  </si>
-  <si>
-    <t>haemagglutininum influenzae A (H1N1) 15 µg et neuraminidasum inactivatum (Virus-Stamm A/California/7/2009 (H1N1)-like: reassortant virus NYMC X-181), haemagglutininum influenzae A (H3N2) 15 µg et neuraminidasum inactivatum (Virus-Stamm A/Switzerland/9715293/2013 (H3N2)-like: reassortant virus NIB-88), haemagglutininum influenzae B 15 µg et neuraminidasum inactivatum (Virus-Stamm B/Phuket/3073/2013-like: B/Brisbane/9/2014), natrii chloridum, kalii chloridum, kalii dihydrogenophosphas, dinatrii phosphas dihydricus, magnesii chloridum hexahydricum, calcii chloridum dihydricum, aqua ad iniectabilia q.s. ad suspensionem pro 0.5 ml.</t>
-  </si>
-  <si>
-    <t>aktive Immunisierung gegen Influenza, bei Kindern und Erwachsenen</t>
-  </si>
-  <si>
-    <t>Nutriflex Omega special, Infusionsemulsion 625 ml</t>
-  </si>
-  <si>
-    <t>5 x 625 ml</t>
-  </si>
-  <si>
-    <t>Beutel</t>
-  </si>
-  <si>
-    <t>glucosum anhydricum, natrii dihydrogenophosphas dihydricus, zinci acetas dihydricus, isoleucinum, leucinum, lysinum anhydricum, methioninum, phenylalaninum, threoninum, tryptophanum, valinum, argininum, histidinum, alaninum, acidum asparticum, acidum glutamicum, glycinum, prolinum, serinum, natrii hydroxidum, natrii chloridum, natrii acetas trihydricus, kalii acetas, magnesii acetas tetrahydricus, calcii chloridum dihydricum, aminoacida, nitrogenia, carbohydrata, materia crassa, natrium, kalium, magnesium, calcium, zincum, chloridum, phosphas, acetas, sojae oleum, triglycerida saturata media, omega-3 acidorum triglycerida</t>
-  </si>
-  <si>
-    <t>I) Glucoselösung: glucosum anhydricum 90 g ut glucosum monohydricum, natrii dihydrogenophosphas dihydricus 1.56 g, zinci acetas dihydricus 4.39 mg, aqua ad iniectabilia q.s. ad solutionem pro 250 ml.
+    <t xml:space="preserve">Agrippal, Injektionssuspension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Novartis Pharma Schweiz AG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impfstoffe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08.08.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J07BB02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 0.5 ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fertigspritze(n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haemagglutininum influenzae A (H1N1), neuraminidasum inactivatum (Virus-Stamm A/California/7/2009 (H1N1)-like: reassortant virus NYMC X-181), haemagglutininum influenzae A (H3N2), haemagglutininum influenzae B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haemagglutininum influenzae A (H1N1) 15 µg et neuraminidasum inactivatum (Virus-Stamm A/California/7/2009 (H1N1)-like: reassortant virus NYMC X-181), haemagglutininum influenzae A (H3N2) 15 µg et neuraminidasum inactivatum (Virus-Stamm A/Switzerland/9715293/2013 (H3N2)-like: reassortant virus NIB-88), haemagglutininum influenzae B 15 µg et neuraminidasum inactivatum (Virus-Stamm B/Phuket/3073/2013-like: B/Brisbane/9/2014), natrii chloridum, kalii chloridum, kalii dihydrogenophosphas, dinatrii phosphas dihydricus, magnesii chloridum hexahydricum, calcii chloridum dihydricum, aqua ad iniectabilia q.s. ad suspensionem pro 0.5 ml.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aktive Immunisierung gegen Influenza, bei Kindern und Erwachsenen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nutriflex Omega special, Infusionsemulsion 625 ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 x 625 ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beutel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glucosum anhydricum, natrii dihydrogenophosphas dihydricus, zinci acetas dihydricus, isoleucinum, leucinum, lysinum anhydricum, methioninum, phenylalaninum, threoninum, tryptophanum, valinum, argininum, histidinum, alaninum, acidum asparticum, acidum glutamicum, glycinum, prolinum, serinum, natrii hydroxidum, natrii chloridum, natrii acetas trihydricus, kalii acetas, magnesii acetas tetrahydricus, calcii chloridum dihydricum, aminoacida, nitrogenia, carbohydrata, materia crassa, natrium, kalium, magnesium, calcium, zincum, chloridum, phosphas, acetas, sojae oleum, triglycerida saturata media, omega-3 acidorum triglycerida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I) Glucoselösung: glucosum anhydricum 90 g ut glucosum monohydricum, natrii dihydrogenophosphas dihydricus 1.56 g, zinci acetas dihydricus 4.39 mg, aqua ad iniectabilia q.s. ad solutionem pro 250 ml.
 II) Fettemulsion: sojae oleum 10 g, triglycerida saturata media 12.5 g, omega-3 acidorum triglycerida 2.5 g, glycerolum, lecithinum ex ovo, natrii oleas, antiox.: E 307 25 mg, aqua ad iniectabilia q.s. ad emulsionem pro 125 ml.
 III) Aminosäurenlösung: isoleucinum 2.06 g, leucinum 2.74 g, lysinum anhydricum 1.99 g ut lysini hydrochloridum, methioninum 1.71 g, phenylalaninum 3.08 g, threoninum 1.59 g, tryptophanum 500 mg, valinum 2.26 g, argininum 2.37 g, histidinum 1.1 g ut histidini hydrochloridum monohydricum, alaninum 4.25 g, acidum asparticum 1.32 g, acidum glutamicum 3.07 g, glycinum 1.45 g, prolinum 2.98 g, serinum 2.63 g, natrii hydroxidum 732 mg, natrii chloridum 237 mg, natrii acetas trihydricus 157 mg, kalii acetas 2.306 g, magnesii acetas tetrahydricus 569 mg, calcii chloridum dihydricum 390 mg, aqua ad iniectabilia q.s. ad solutionem pro 250 ml.
 .
@@ -714,65 +775,98 @@
 Corresp. 4941 kJ pro 1 l.</t>
   </si>
   <si>
-    <t>Levetiracetam Desitin 250 mg, Minipacks mit Mini-Filmtabletten</t>
-  </si>
-  <si>
-    <t>Desitin Pharma GmbH</t>
-  </si>
-  <si>
-    <t>01.07.1.</t>
-  </si>
-  <si>
-    <t>N03AX14</t>
-  </si>
-  <si>
-    <t>levetiracetamum</t>
-  </si>
-  <si>
-    <t>levetiracetamum 250 mg, excipiens pro compressi obducti pro charta.</t>
-  </si>
-  <si>
-    <t>Antiepileptikum</t>
-  </si>
-  <si>
-    <t>Adcetris, Pulver zur Herstellung einer Infusionslösung</t>
-  </si>
-  <si>
-    <t>Takeda Pharma AG</t>
-  </si>
-  <si>
-    <t>07.16.1.</t>
-  </si>
-  <si>
-    <t>L01XC12</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Durchstechflasche(n)</t>
-  </si>
-  <si>
-    <t>brentuximabum vedotinum</t>
-  </si>
-  <si>
-    <t>Praeparatio cryodesiccata: brentuximabum vedotinum 50 mg, acidum citricum monohydricum, natrii citras dihydricus, trehalosum dihydricum, polysorbatum 80, pro vitro.</t>
-  </si>
-  <si>
-    <t>Behandlung des anaplatischen grosszelligen Lymphoms; Behandlung des Hodgkin-Lymphoms</t>
+    <t xml:space="preserve">Levetiracetam Desitin 250 mg, Minipacks mit Mini-Filmtabletten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desitin Pharma GmbH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.07.1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N03AX14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">levetiracetamum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">levetiracetamum 250 mg, excipiens pro compressi obducti pro charta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antiepileptikum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adcetris, Pulver zur Herstellung einer Infusionslösung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Takeda Pharma AG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.16.1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L01XC12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durchstechflasche(n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brentuximabum vedotinum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Praeparatio cryodesiccata: brentuximabum vedotinum 50 mg, acidum citricum monohydricum, natrii citras dihydricus, trehalosum dihydricum, polysorbatum 80, pro vitro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behandlung des anaplatischen grosszelligen Lymphoms; Behandlung des Hodgkin-Lymphoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIBASE 10'000, orale Tropflösung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gebro Pharma AG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.02.3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A11CC05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cholecalciferolum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cholecalciferolum 10000 U.I., excipiens ad solutionem pro 1 ml corresp. 50 gutta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitamin D-Präparat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIBASE 25'000, Lösung zum Einnehmen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B/D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cholecalciferolum 25000 U.I. corresp. cholecalciferolum 0.625 mg, excipiens ad solutionem pro 2.5 ml.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+  <numFmts count="7">
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="00000"/>
     <numFmt numFmtId="166" formatCode="DD/MM/YY;@"/>
-    <numFmt numFmtId="167" formatCode="000"/>
+    <numFmt numFmtId="167" formatCode="00"/>
+    <numFmt numFmtId="168" formatCode="DD/MM/YYYY"/>
+    <numFmt numFmtId="169" formatCode="000"/>
+    <numFmt numFmtId="170" formatCode="DD/MM/YYYY"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -852,6 +946,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -861,7 +962,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -876,8 +977,50 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -905,42 +1048,42 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="59">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -959,91 +1102,67 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="21" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="21" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="21" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1063,15 +1182,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1079,36 +1198,169 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Standard 2" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Standard 2" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFD9D9D9"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1123,9 +1375,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>446040</xdr:colOff>
+      <xdr:colOff>445320</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>38520</xdr:rowOff>
+      <xdr:rowOff>37800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1139,7 +1391,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="36360" y="360"/>
-          <a:ext cx="1686600" cy="571320"/>
+          <a:ext cx="1685880" cy="570600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1159,95 +1411,81 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:29"/>
+  <dimension ref="A1:AMJ34"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="7:7"/>
+      <selection pane="bottomLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.09767441860465"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="7.4"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="33.8976744186046"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="22.9953488372093"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="15.8976744186047"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="7.90232558139535"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="8.09767441860465"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="4" width="10.2"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="4" width="10.0976744186047"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="4" width="9.1953488372093"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="11"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="11.4046511627907"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="10.4046511627907"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="6" width="10.4046511627907"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="10.4046511627907"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="3" width="22.093023255814"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="3" width="26.4"/>
-    <col collapsed="false" hidden="false" max="22" min="21" style="2" width="16.0976744186047"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="14.093023255814"/>
-    <col collapsed="false" hidden="false" max="27" min="25" style="7" width="7.2046511627907"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="7" width="8.4"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="7" width="7.2046511627907"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="7" width="14.2"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="7" width="7.2046511627907"/>
-    <col collapsed="false" hidden="false" max="1025" min="32" style="7" width="5.9953488372093"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="7.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="33.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="15.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="7.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="8.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="4" width="10.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="10.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="9.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="11.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="5" width="10.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="6" width="10.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="10.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="3" width="22.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="3" width="26.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="2" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="2" width="14.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="25" style="7" width="7.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="7" width="8.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="7" width="7.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="7" width="14.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="7" width="7.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="32" style="7" width="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="16" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="15" t="s">
+    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="2"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
+      <c r="P1" s="7"/>
+      <c r="X1" s="7"/>
     </row>
     <row r="2" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="27" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="22" t="s">
         <v>1</v>
       </c>
       <c r="P2" s="0"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
       <c r="Y2" s="0"/>
       <c r="Z2" s="0"/>
       <c r="AA2" s="0"/>
@@ -2250,29 +2488,21 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="2"/>
       <c r="Y3" s="0"/>
       <c r="Z3" s="0"/>
       <c r="AA3" s="0"/>
@@ -3275,31 +3505,24 @@
       <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="102" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="29"/>
       <c r="Y4" s="0"/>
       <c r="Z4" s="0"/>
       <c r="AA4" s="0"/>
@@ -4301,1592 +4524,4909 @@
       <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
     </row>
-    <row r="5" s="42" customFormat="true" ht="61.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="37" t="s">
+    <row r="5" s="35" customFormat="true" ht="61.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="41" t="s">
+      <c r="J5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="L5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="37" t="s">
+      <c r="M5" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="37" t="s">
+      <c r="N5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="40" t="s">
+      <c r="O5" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="40" t="s">
+      <c r="P5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="39" t="s">
+      <c r="Q5" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="R5" s="39" t="s">
+      <c r="R5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="S5" s="39" t="s">
+      <c r="S5" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="T5" s="39" t="s">
+      <c r="T5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="U5" s="40" t="s">
+      <c r="U5" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="V5" s="40" t="s">
+      <c r="V5" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="W5" s="40" t="s">
+      <c r="W5" s="33" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="43" t="n">
+    <row r="6" s="43" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="36" t="n">
         <v>277</v>
       </c>
-      <c r="B6" s="44" t="n">
+      <c r="B6" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="46" t="n">
+      <c r="H6" s="40" t="n">
         <v>40294</v>
       </c>
-      <c r="I6" s="46" t="n">
+      <c r="I6" s="40" t="n">
         <v>40294</v>
       </c>
-      <c r="J6" s="46" t="n">
+      <c r="J6" s="41" t="n">
         <v>43946</v>
       </c>
-      <c r="K6" s="47" t="n">
+      <c r="K6" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="L6" s="44" t="s">
+      <c r="L6" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="44" t="s">
+      <c r="M6" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="44" t="s">
+      <c r="N6" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="44" t="s">
+      <c r="O6" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="44" t="s">
+      <c r="P6" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q6" s="45" t="s">
+      <c r="Q6" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="R6" s="45" t="s">
+      <c r="R6" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="S6" s="45" t="s">
+      <c r="S6" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="T6" s="45"/>
-      <c r="U6" s="44"/>
-      <c r="V6" s="44"/>
-      <c r="W6" s="44"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="39"/>
     </row>
     <row r="7" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="43" t="n">
+      <c r="A7" s="44" t="n">
         <v>15219</v>
       </c>
-      <c r="B7" s="44" t="n">
+      <c r="B7" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="46" t="n">
+      <c r="H7" s="47" t="n">
         <v>18429</v>
       </c>
-      <c r="I7" s="46" t="n">
+      <c r="I7" s="47" t="n">
         <v>18429</v>
       </c>
-      <c r="J7" s="46" t="n">
+      <c r="J7" s="47" t="n">
         <v>43100</v>
       </c>
-      <c r="K7" s="47" t="n">
+      <c r="K7" s="48" t="n">
         <v>68</v>
       </c>
-      <c r="L7" s="44" t="s">
+      <c r="L7" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="44" t="s">
+      <c r="M7" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="N7" s="44" t="s">
+      <c r="N7" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="44" t="s">
+      <c r="O7" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="P7" s="44" t="s">
+      <c r="P7" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="Q7" s="45" t="s">
+      <c r="Q7" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="R7" s="45" t="s">
+      <c r="R7" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="S7" s="45" t="s">
+      <c r="S7" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="T7" s="45"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
     </row>
     <row r="8" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="43" t="n">
+      <c r="A8" s="44" t="n">
         <v>16105</v>
       </c>
-      <c r="B8" s="44" t="n">
+      <c r="B8" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="46" t="n">
+      <c r="H8" s="47" t="n">
         <v>18872</v>
       </c>
-      <c r="I8" s="46" t="n">
+      <c r="I8" s="47" t="n">
         <v>18872</v>
       </c>
-      <c r="J8" s="46" t="n">
+      <c r="J8" s="47" t="n">
         <v>43162</v>
       </c>
-      <c r="K8" s="47" t="n">
+      <c r="K8" s="48" t="n">
         <v>58</v>
       </c>
-      <c r="L8" s="44" t="s">
+      <c r="L8" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="M8" s="44" t="s">
+      <c r="M8" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="N8" s="44" t="s">
+      <c r="N8" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="O8" s="44" t="s">
+      <c r="O8" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="P8" s="44" t="s">
+      <c r="P8" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="Q8" s="45" t="s">
+      <c r="Q8" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="R8" s="45" t="s">
+      <c r="R8" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="S8" s="45" t="s">
+      <c r="S8" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="T8" s="45"/>
-      <c r="U8" s="44"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="44"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
     </row>
     <row r="9" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="43" t="n">
+      <c r="A9" s="44" t="n">
         <v>16598</v>
       </c>
-      <c r="B9" s="44" t="n">
+      <c r="B9" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="44" t="s">
+      <c r="G9" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="46" t="n">
+      <c r="H9" s="47" t="n">
         <v>18833</v>
       </c>
-      <c r="I9" s="46" t="n">
+      <c r="I9" s="47" t="n">
         <v>18833</v>
       </c>
-      <c r="J9" s="46" t="n">
+      <c r="J9" s="47" t="n">
         <v>43085</v>
       </c>
-      <c r="K9" s="47" t="n">
+      <c r="K9" s="48" t="n">
         <v>11</v>
       </c>
-      <c r="L9" s="44" t="s">
+      <c r="L9" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="M9" s="44" t="s">
+      <c r="M9" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="N9" s="44" t="s">
+      <c r="N9" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="O9" s="44" t="s">
+      <c r="O9" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="P9" s="44" t="s">
+      <c r="P9" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="Q9" s="45" t="s">
+      <c r="Q9" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="R9" s="45" t="s">
+      <c r="R9" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="S9" s="45" t="s">
+      <c r="S9" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="T9" s="45"/>
-      <c r="U9" s="44"/>
-      <c r="V9" s="44"/>
-      <c r="W9" s="44"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
     </row>
     <row r="10" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="43" t="n">
+      <c r="A10" s="44" t="n">
         <v>28486</v>
       </c>
-      <c r="B10" s="44" t="n">
+      <c r="B10" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="46" t="n">
+      <c r="H10" s="47" t="n">
         <v>22699</v>
       </c>
-      <c r="I10" s="46" t="n">
+      <c r="I10" s="47" t="n">
         <v>22699</v>
       </c>
-      <c r="J10" s="46" t="n">
+      <c r="J10" s="47" t="n">
         <v>42513</v>
       </c>
-      <c r="K10" s="47" t="n">
+      <c r="K10" s="48" t="n">
         <v>14</v>
       </c>
-      <c r="L10" s="44" t="s">
+      <c r="L10" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="M10" s="44" t="s">
+      <c r="M10" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="N10" s="44" t="s">
+      <c r="N10" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="44" t="s">
+      <c r="O10" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="P10" s="44" t="s">
+      <c r="P10" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="Q10" s="45" t="s">
+      <c r="Q10" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="R10" s="45" t="s">
+      <c r="R10" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="S10" s="45" t="s">
+      <c r="S10" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="T10" s="45"/>
-      <c r="U10" s="44"/>
-      <c r="V10" s="44"/>
-      <c r="W10" s="44"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
     </row>
     <row r="11" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="43" t="n">
+      <c r="A11" s="44" t="n">
         <v>30015</v>
       </c>
-      <c r="B11" s="44" t="n">
+      <c r="B11" s="45" t="n">
         <v>2</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="44" t="s">
+      <c r="G11" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="46" t="n">
+      <c r="H11" s="47" t="n">
         <v>23410</v>
       </c>
-      <c r="I11" s="46" t="n">
+      <c r="I11" s="47" t="n">
         <v>23410</v>
       </c>
-      <c r="J11" s="46" t="n">
+      <c r="J11" s="47" t="n">
         <v>43552</v>
       </c>
-      <c r="K11" s="47" t="n">
+      <c r="K11" s="48" t="n">
         <v>10</v>
       </c>
-      <c r="L11" s="44" t="s">
+      <c r="L11" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="M11" s="44" t="s">
+      <c r="M11" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="N11" s="44" t="s">
+      <c r="N11" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="O11" s="44" t="s">
+      <c r="O11" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="P11" s="44" t="s">
+      <c r="P11" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="Q11" s="45" t="s">
+      <c r="Q11" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="R11" s="45" t="s">
+      <c r="R11" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="S11" s="45" t="s">
+      <c r="S11" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="T11" s="45"/>
-      <c r="U11" s="44"/>
-      <c r="V11" s="44"/>
-      <c r="W11" s="44"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
     </row>
     <row r="12" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="43" t="n">
+      <c r="A12" s="44" t="n">
         <v>31644</v>
       </c>
-      <c r="B12" s="44" t="n">
+      <c r="B12" s="45" t="n">
         <v>2</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="H12" s="46" t="n">
+      <c r="H12" s="47" t="n">
         <v>24645</v>
       </c>
-      <c r="I12" s="46" t="n">
+      <c r="I12" s="47" t="n">
         <v>34421</v>
       </c>
-      <c r="J12" s="46" t="n">
+      <c r="J12" s="47" t="n">
         <v>42781</v>
       </c>
-      <c r="K12" s="47" t="n">
+      <c r="K12" s="48" t="n">
         <v>11</v>
       </c>
-      <c r="L12" s="44" t="s">
+      <c r="L12" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="M12" s="44" t="s">
+      <c r="M12" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="N12" s="44" t="s">
+      <c r="N12" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="O12" s="44" t="s">
+      <c r="O12" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="P12" s="44" t="s">
+      <c r="P12" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="Q12" s="45" t="s">
+      <c r="Q12" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="R12" s="45" t="s">
+      <c r="R12" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="S12" s="45" t="s">
+      <c r="S12" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="T12" s="45"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="44"/>
-      <c r="W12" s="44"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
     </row>
     <row r="13" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="43" t="n">
+      <c r="A13" s="44" t="n">
         <v>32475</v>
       </c>
-      <c r="B13" s="44" t="n">
+      <c r="B13" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="G13" s="44" t="s">
+      <c r="G13" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="46" t="n">
+      <c r="H13" s="47" t="n">
         <v>24267</v>
       </c>
-      <c r="I13" s="46" t="n">
+      <c r="I13" s="47" t="n">
         <v>24267</v>
       </c>
-      <c r="J13" s="46" t="n">
+      <c r="J13" s="47" t="n">
         <v>42480</v>
       </c>
-      <c r="K13" s="47" t="n">
+      <c r="K13" s="48" t="n">
         <v>19</v>
       </c>
-      <c r="L13" s="44" t="s">
+      <c r="L13" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="M13" s="44" t="s">
+      <c r="M13" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="N13" s="44" t="s">
+      <c r="N13" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="O13" s="44" t="s">
+      <c r="O13" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="P13" s="44" t="s">
+      <c r="P13" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="Q13" s="45" t="s">
+      <c r="Q13" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="R13" s="45" t="s">
+      <c r="R13" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="S13" s="45" t="s">
+      <c r="S13" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="T13" s="45"/>
-      <c r="U13" s="44"/>
-      <c r="V13" s="44"/>
-      <c r="W13" s="44"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
     </row>
     <row r="14" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="43" t="n">
+      <c r="A14" s="44" t="n">
         <v>35366</v>
       </c>
-      <c r="B14" s="44" t="n">
+      <c r="B14" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="44" t="s">
+      <c r="F14" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="44" t="s">
+      <c r="G14" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="H14" s="46" t="n">
+      <c r="H14" s="47" t="n">
         <v>25696</v>
       </c>
-      <c r="I14" s="46" t="n">
+      <c r="I14" s="47" t="n">
         <v>25696</v>
       </c>
-      <c r="J14" s="46" t="n">
+      <c r="J14" s="47" t="n">
         <v>42781</v>
       </c>
-      <c r="K14" s="47" t="n">
+      <c r="K14" s="48" t="n">
         <v>16</v>
       </c>
-      <c r="L14" s="44" t="s">
+      <c r="L14" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="M14" s="44" t="s">
+      <c r="M14" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="N14" s="44" t="s">
+      <c r="N14" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="O14" s="44" t="s">
+      <c r="O14" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="P14" s="44" t="s">
+      <c r="P14" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="Q14" s="45" t="s">
+      <c r="Q14" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="R14" s="45" t="s">
+      <c r="R14" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="S14" s="45" t="s">
+      <c r="S14" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="T14" s="45"/>
-      <c r="U14" s="44"/>
-      <c r="V14" s="44"/>
-      <c r="W14" s="44"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="45"/>
     </row>
     <row r="15" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="43" t="n">
+      <c r="A15" s="44" t="n">
         <v>43454</v>
       </c>
-      <c r="B15" s="44" t="n">
+      <c r="B15" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="G15" s="44" t="s">
+      <c r="G15" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="46" t="n">
+      <c r="H15" s="47" t="n">
         <v>29650</v>
       </c>
-      <c r="I15" s="46" t="n">
+      <c r="I15" s="47" t="n">
         <v>29650</v>
       </c>
-      <c r="J15" s="46" t="n">
+      <c r="J15" s="47" t="n">
         <v>43905</v>
       </c>
-      <c r="K15" s="47" t="n">
+      <c r="K15" s="48" t="n">
         <v>99</v>
       </c>
-      <c r="L15" s="44" t="s">
+      <c r="L15" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="M15" s="44" t="s">
+      <c r="M15" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="N15" s="44" t="s">
+      <c r="N15" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="O15" s="44" t="s">
+      <c r="O15" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="P15" s="44" t="s">
+      <c r="P15" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="Q15" s="45" t="s">
+      <c r="Q15" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="R15" s="45" t="s">
+      <c r="R15" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="S15" s="45" t="s">
+      <c r="S15" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="T15" s="45"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="44"/>
-      <c r="W15" s="44"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="45"/>
     </row>
     <row r="16" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="43" t="n">
+      <c r="A16" s="44" t="n">
         <v>44625</v>
       </c>
-      <c r="B16" s="44" t="n">
+      <c r="B16" s="45" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="44" t="s">
+      <c r="F16" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="G16" s="44" t="s">
+      <c r="G16" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="H16" s="46" t="n">
+      <c r="H16" s="47" t="n">
         <v>30098</v>
       </c>
-      <c r="I16" s="46" t="n">
+      <c r="I16" s="47" t="n">
         <v>30098</v>
       </c>
-      <c r="J16" s="46" t="n">
+      <c r="J16" s="47" t="n">
         <v>42842</v>
       </c>
-      <c r="K16" s="47" t="n">
+      <c r="K16" s="48" t="n">
         <v>59</v>
       </c>
-      <c r="L16" s="44" t="s">
+      <c r="L16" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="M16" s="44" t="s">
+      <c r="M16" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="N16" s="44" t="s">
+      <c r="N16" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="O16" s="44" t="s">
+      <c r="O16" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="P16" s="44" t="s">
+      <c r="P16" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="Q16" s="45" t="s">
+      <c r="Q16" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="R16" s="45" t="s">
+      <c r="R16" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="S16" s="45" t="s">
+      <c r="S16" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="T16" s="45"/>
-      <c r="U16" s="44"/>
-      <c r="V16" s="44"/>
-      <c r="W16" s="44"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="45"/>
+      <c r="W16" s="45"/>
     </row>
     <row r="17" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="43" t="n">
+      <c r="A17" s="44" t="n">
         <v>45882</v>
       </c>
-      <c r="B17" s="44" t="n">
+      <c r="B17" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="44" t="s">
+      <c r="F17" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="G17" s="44" t="s">
+      <c r="G17" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="H17" s="46" t="n">
+      <c r="H17" s="47" t="n">
         <v>31180</v>
       </c>
-      <c r="I17" s="46" t="n">
+      <c r="I17" s="47" t="n">
         <v>31180</v>
       </c>
-      <c r="J17" s="46" t="n">
+      <c r="J17" s="47" t="n">
         <v>43340</v>
       </c>
-      <c r="K17" s="47" t="n">
+      <c r="K17" s="48" t="n">
         <v>20</v>
       </c>
-      <c r="L17" s="44" t="s">
+      <c r="L17" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="M17" s="44" t="s">
+      <c r="M17" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="N17" s="44" t="s">
+      <c r="N17" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="O17" s="44" t="s">
+      <c r="O17" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="P17" s="44" t="s">
+      <c r="P17" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="Q17" s="45" t="s">
+      <c r="Q17" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="R17" s="45" t="s">
+      <c r="R17" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="S17" s="45" t="s">
+      <c r="S17" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="T17" s="45"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="44"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="45"/>
     </row>
     <row r="18" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="43" t="n">
+      <c r="A18" s="44" t="n">
         <v>53290</v>
       </c>
-      <c r="B18" s="44" t="n">
+      <c r="B18" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="D18" s="45" t="s">
+      <c r="D18" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="E18" s="45" t="s">
+      <c r="E18" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="F18" s="44" t="s">
+      <c r="F18" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="G18" s="44" t="s">
+      <c r="G18" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="H18" s="46" t="n">
+      <c r="H18" s="47" t="n">
         <v>35026</v>
       </c>
-      <c r="I18" s="46" t="n">
+      <c r="I18" s="47" t="n">
         <v>35026</v>
       </c>
-      <c r="J18" s="46" t="n">
+      <c r="J18" s="47" t="n">
         <v>43002</v>
       </c>
-      <c r="K18" s="47" t="n">
+      <c r="K18" s="48" t="n">
         <v>19</v>
       </c>
-      <c r="L18" s="44" t="s">
+      <c r="L18" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="M18" s="44" t="s">
+      <c r="M18" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="N18" s="44" t="s">
+      <c r="N18" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="O18" s="44" t="s">
+      <c r="O18" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="P18" s="44" t="s">
+      <c r="P18" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="Q18" s="45" t="s">
+      <c r="Q18" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="R18" s="45" t="s">
+      <c r="R18" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="S18" s="45" t="s">
+      <c r="S18" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="T18" s="45"/>
-      <c r="U18" s="44" t="s">
+      <c r="T18" s="46"/>
+      <c r="U18" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="V18" s="44" t="s">
+      <c r="V18" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="W18" s="44"/>
+      <c r="W18" s="45"/>
     </row>
     <row r="19" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="43" t="n">
+      <c r="A19" s="44" t="n">
         <v>53662</v>
       </c>
-      <c r="B19" s="44" t="n">
+      <c r="B19" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="D19" s="45" t="s">
+      <c r="D19" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="E19" s="45" t="s">
+      <c r="E19" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="44" t="s">
+      <c r="F19" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="G19" s="44" t="s">
+      <c r="G19" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="H19" s="46" t="n">
+      <c r="H19" s="47" t="n">
         <v>35123</v>
       </c>
-      <c r="I19" s="46" t="n">
+      <c r="I19" s="47" t="n">
         <v>35123</v>
       </c>
-      <c r="J19" s="46" t="n">
+      <c r="J19" s="47" t="n">
         <v>42851</v>
       </c>
-      <c r="K19" s="47" t="n">
+      <c r="K19" s="48" t="n">
         <v>13</v>
       </c>
-      <c r="L19" s="44" t="s">
+      <c r="L19" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="M19" s="44" t="s">
+      <c r="M19" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="N19" s="44" t="s">
+      <c r="N19" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="O19" s="44" t="s">
+      <c r="O19" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="P19" s="44" t="s">
+      <c r="P19" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="Q19" s="45" t="s">
+      <c r="Q19" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="R19" s="45" t="s">
+      <c r="R19" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="S19" s="45" t="s">
+      <c r="S19" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="T19" s="45"/>
-      <c r="U19" s="44"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="44"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="45"/>
+      <c r="W19" s="45"/>
     </row>
     <row r="20" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="43" t="n">
+      <c r="A20" s="44" t="n">
         <v>54015</v>
       </c>
-      <c r="B20" s="44" t="n">
+      <c r="B20" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="D20" s="45" t="s">
+      <c r="D20" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="E20" s="45" t="s">
+      <c r="E20" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="44" t="s">
+      <c r="F20" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="G20" s="44" t="s">
+      <c r="G20" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="H20" s="46" t="n">
+      <c r="H20" s="47" t="n">
         <v>35488</v>
       </c>
-      <c r="I20" s="46" t="n">
+      <c r="I20" s="47" t="n">
         <v>35488</v>
       </c>
-      <c r="J20" s="46" t="n">
+      <c r="J20" s="47" t="n">
         <v>42921</v>
       </c>
-      <c r="K20" s="47" t="n">
+      <c r="K20" s="48" t="n">
         <v>11</v>
       </c>
-      <c r="L20" s="44" t="s">
+      <c r="L20" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="M20" s="44" t="s">
+      <c r="M20" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="N20" s="44" t="s">
+      <c r="N20" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="O20" s="44" t="s">
+      <c r="O20" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="P20" s="44" t="s">
+      <c r="P20" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="Q20" s="45" t="s">
+      <c r="Q20" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="R20" s="45" t="s">
+      <c r="R20" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="S20" s="45" t="s">
+      <c r="S20" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="T20" s="45"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="44"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="45"/>
+      <c r="W20" s="45"/>
     </row>
     <row r="21" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="43" t="n">
-        <v>55558</v>
-      </c>
-      <c r="B21" s="44" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" s="45" t="s">
+      <c r="A21" s="36" t="n">
+        <v>54534</v>
+      </c>
+      <c r="B21" s="45" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="D21" s="45" t="s">
+      <c r="D21" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="E21" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="44" t="s">
+      <c r="E21" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="G21" s="44" t="s">
+      <c r="G21" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="H21" s="46" t="n">
-        <v>37232</v>
-      </c>
-      <c r="I21" s="46" t="n">
-        <v>37232</v>
-      </c>
-      <c r="J21" s="46" t="n">
-        <v>42896</v>
-      </c>
-      <c r="K21" s="47" t="n">
-        <v>5</v>
-      </c>
-      <c r="L21" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="M21" s="44" t="s">
+      <c r="H21" s="40" t="n">
+        <v>36879</v>
+      </c>
+      <c r="I21" s="40" t="n">
+        <v>42480</v>
+      </c>
+      <c r="J21" s="41" t="n">
+        <v>44143</v>
+      </c>
+      <c r="K21" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="M21" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="N21" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="O21" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="P21" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q21" s="45" t="s">
+      <c r="N21" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="O21" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="P21" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q21" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="R21" s="45" t="s">
+      <c r="R21" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="S21" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="T21" s="45"/>
-      <c r="U21" s="44"/>
-      <c r="V21" s="44"/>
-      <c r="W21" s="44"/>
+      <c r="S21" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="T21" s="38"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="39"/>
     </row>
     <row r="22" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="43" t="n">
-        <v>55561</v>
-      </c>
-      <c r="B22" s="44" t="n">
+      <c r="A22" s="44" t="n">
+        <v>55558</v>
+      </c>
+      <c r="B22" s="45" t="n">
         <v>2</v>
       </c>
-      <c r="C22" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="D22" s="45" t="s">
+      <c r="C22" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="E22" s="45" t="s">
+      <c r="D22" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="E22" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="G22" s="44" t="s">
+      <c r="F22" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="H22" s="46" t="n">
+      <c r="G22" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="H22" s="47" t="n">
         <v>37232</v>
       </c>
-      <c r="I22" s="46" t="n">
+      <c r="I22" s="47" t="n">
         <v>37232</v>
       </c>
-      <c r="J22" s="46" t="n">
-        <v>43732</v>
-      </c>
-      <c r="K22" s="47" t="n">
-        <v>4</v>
-      </c>
-      <c r="L22" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="M22" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="N22" s="44" t="s">
+      <c r="J22" s="47" t="n">
+        <v>42896</v>
+      </c>
+      <c r="K22" s="48" t="n">
+        <v>5</v>
+      </c>
+      <c r="L22" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="M22" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="N22" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="O22" s="44" t="s">
+      <c r="O22" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="P22" s="44" t="s">
+      <c r="P22" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="Q22" s="45" t="s">
+      <c r="Q22" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="R22" s="45" t="s">
+      <c r="R22" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="S22" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="T22" s="45"/>
-      <c r="U22" s="44"/>
-      <c r="V22" s="44"/>
-      <c r="W22" s="44" t="s">
-        <v>170</v>
-      </c>
+      <c r="S22" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="T22" s="46"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="45"/>
+      <c r="W22" s="45"/>
     </row>
     <row r="23" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="43" t="n">
-        <v>55594</v>
-      </c>
-      <c r="B23" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="45" t="s">
+      <c r="A23" s="44" t="n">
+        <v>55561</v>
+      </c>
+      <c r="B23" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="E23" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="D23" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="E23" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="44" t="s">
+      <c r="G23" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="G23" s="44" t="s">
+      <c r="H23" s="47" t="n">
+        <v>37232</v>
+      </c>
+      <c r="I23" s="47" t="n">
+        <v>37232</v>
+      </c>
+      <c r="J23" s="47" t="n">
+        <v>43732</v>
+      </c>
+      <c r="K23" s="48" t="n">
+        <v>4</v>
+      </c>
+      <c r="L23" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="H23" s="46" t="n">
-        <v>37172</v>
-      </c>
-      <c r="I23" s="46" t="n">
-        <v>37172</v>
-      </c>
-      <c r="J23" s="46" t="n">
-        <v>43863</v>
-      </c>
-      <c r="K23" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" s="44" t="s">
+      <c r="M23" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="N23" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="O23" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="P23" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q23" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="M23" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="N23" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="O23" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="P23" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q23" s="45" t="s">
+      <c r="R23" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="R23" s="45" t="s">
+      <c r="S23" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="S23" s="45" t="s">
+      <c r="T23" s="46"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="45"/>
+      <c r="W23" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="T23" s="45"/>
-      <c r="U23" s="44"/>
-      <c r="V23" s="44"/>
-      <c r="W23" s="44"/>
     </row>
     <row r="24" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="43" t="n">
-        <v>55674</v>
-      </c>
-      <c r="B24" s="44" t="n">
+      <c r="A24" s="44" t="n">
+        <v>55594</v>
+      </c>
+      <c r="B24" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="D24" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="E24" s="45" t="s">
+      <c r="D24" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="44" t="s">
+      <c r="F24" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="G24" s="44" t="s">
+      <c r="G24" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="H24" s="46" t="n">
-        <v>37321</v>
-      </c>
-      <c r="I24" s="46" t="n">
-        <v>37321</v>
-      </c>
-      <c r="J24" s="46" t="n">
-        <v>42798</v>
-      </c>
-      <c r="K24" s="47" t="n">
-        <v>5</v>
-      </c>
-      <c r="L24" s="44" t="s">
+      <c r="H24" s="47" t="n">
+        <v>37172</v>
+      </c>
+      <c r="I24" s="47" t="n">
+        <v>37172</v>
+      </c>
+      <c r="J24" s="47" t="n">
+        <v>43863</v>
+      </c>
+      <c r="K24" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="M24" s="44" t="s">
+      <c r="M24" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="N24" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="O24" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="P24" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q24" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="N24" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="O24" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="P24" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q24" s="45" t="s">
+      <c r="R24" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="R24" s="45" t="s">
+      <c r="S24" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="S24" s="45" t="s">
-        <v>185</v>
-      </c>
-      <c r="T24" s="45"/>
-      <c r="U24" s="44"/>
-      <c r="V24" s="44"/>
-      <c r="W24" s="44"/>
+      <c r="T24" s="46"/>
+      <c r="U24" s="45"/>
+      <c r="V24" s="45"/>
+      <c r="W24" s="45"/>
     </row>
     <row r="25" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="43" t="n">
-        <v>58943</v>
-      </c>
-      <c r="B25" s="44" t="n">
+      <c r="A25" s="44" t="n">
+        <v>55674</v>
+      </c>
+      <c r="B25" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="E25" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="D25" s="45" t="s">
+      <c r="G25" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="E25" s="45" t="s">
+      <c r="H25" s="47" t="n">
+        <v>37321</v>
+      </c>
+      <c r="I25" s="47" t="n">
+        <v>37321</v>
+      </c>
+      <c r="J25" s="47" t="n">
+        <v>42798</v>
+      </c>
+      <c r="K25" s="48" t="n">
+        <v>5</v>
+      </c>
+      <c r="L25" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="F25" s="44" t="s">
+      <c r="M25" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="G25" s="44"/>
-      <c r="H25" s="46" t="n">
-        <v>42110</v>
-      </c>
-      <c r="I25" s="46" t="n">
-        <v>42110</v>
-      </c>
-      <c r="J25" s="46" t="n">
-        <v>43936</v>
-      </c>
-      <c r="K25" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="L25" s="44" t="s">
+      <c r="N25" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="O25" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="P25" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q25" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="M25" s="44" t="s">
+      <c r="R25" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="N25" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="O25" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="P25" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="45" t="s">
+      <c r="S25" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="T25" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="U25" s="44"/>
-      <c r="V25" s="44"/>
-      <c r="W25" s="44"/>
+      <c r="T25" s="46"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="45"/>
+      <c r="W25" s="45"/>
     </row>
     <row r="26" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="43" t="n">
-        <v>59267</v>
-      </c>
-      <c r="B26" s="44" t="n">
+      <c r="A26" s="36" t="n">
+        <v>56352</v>
+      </c>
+      <c r="B26" s="50" t="n">
         <v>7</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="D26" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="D26" s="45" t="s">
+      <c r="E26" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="E26" s="45" t="s">
+      <c r="G26" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="F26" s="44" t="s">
+      <c r="H26" s="40" t="n">
+        <v>38034</v>
+      </c>
+      <c r="I26" s="40" t="n">
+        <v>41071</v>
+      </c>
+      <c r="J26" s="41" t="n">
+        <v>43512</v>
+      </c>
+      <c r="K26" s="49" t="n">
+        <v>17</v>
+      </c>
+      <c r="L26" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="G26" s="44" t="s">
+      <c r="M26" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="H26" s="46" t="n">
-        <v>40128</v>
-      </c>
-      <c r="I26" s="46" t="n">
-        <v>42257</v>
-      </c>
-      <c r="J26" s="46" t="n">
-        <v>43779</v>
-      </c>
-      <c r="K26" s="47" t="n">
-        <v>11</v>
-      </c>
-      <c r="L26" s="44" t="s">
+      <c r="N26" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="O26" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="P26" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q26" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="M26" s="44" t="s">
+      <c r="R26" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="N26" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="O26" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="P26" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q26" s="45" t="s">
+      <c r="S26" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="R26" s="45" t="s">
-        <v>202</v>
-      </c>
-      <c r="S26" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="T26" s="45"/>
-      <c r="U26" s="44"/>
-      <c r="V26" s="44"/>
-      <c r="W26" s="44"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="V26" s="38"/>
+      <c r="W26" s="39"/>
     </row>
     <row r="27" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="43" t="n">
-        <v>61186</v>
-      </c>
-      <c r="B27" s="44" t="n">
+      <c r="A27" s="44" t="n">
+        <v>58943</v>
+      </c>
+      <c r="B27" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="46" t="s">
+        <v>202</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="E27" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="D27" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="E27" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="G27" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="H27" s="46" t="n">
-        <v>40522</v>
-      </c>
-      <c r="I27" s="46" t="n">
-        <v>40522</v>
-      </c>
-      <c r="J27" s="46" t="n">
-        <v>44174</v>
-      </c>
-      <c r="K27" s="47" t="n">
+      <c r="F27" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="G27" s="45"/>
+      <c r="H27" s="47" t="n">
+        <v>42110</v>
+      </c>
+      <c r="I27" s="47" t="n">
+        <v>42110</v>
+      </c>
+      <c r="J27" s="47" t="n">
+        <v>43936</v>
+      </c>
+      <c r="K27" s="48" t="n">
         <v>1</v>
       </c>
-      <c r="L27" s="44" t="s">
-        <v>205</v>
-      </c>
-      <c r="M27" s="44" t="s">
+      <c r="L27" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="N27" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="O27" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="P27" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q27" s="45" t="s">
+      <c r="M27" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="R27" s="45" t="s">
+      <c r="N27" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="O27" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="P27" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="S27" s="45" t="s">
-        <v>177</v>
-      </c>
-      <c r="T27" s="45"/>
-      <c r="U27" s="44"/>
-      <c r="V27" s="44"/>
-      <c r="W27" s="44"/>
+      <c r="T27" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="U27" s="45"/>
+      <c r="V27" s="45"/>
+      <c r="W27" s="45"/>
     </row>
     <row r="28" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="43" t="n">
-        <v>62069</v>
-      </c>
-      <c r="B28" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" s="45" t="s">
-        <v>209</v>
-      </c>
-      <c r="D28" s="45" t="s">
+      <c r="A28" s="44" t="n">
+        <v>59267</v>
+      </c>
+      <c r="B28" s="45" t="n">
+        <v>7</v>
+      </c>
+      <c r="C28" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="E28" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="44" t="s">
+      <c r="D28" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="G28" s="44" t="s">
+      <c r="E28" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="H28" s="46" t="n">
-        <v>40610</v>
-      </c>
-      <c r="I28" s="46" t="n">
-        <v>40610</v>
-      </c>
-      <c r="J28" s="46" t="n">
-        <v>44262</v>
-      </c>
-      <c r="K28" s="47" t="n">
-        <v>8</v>
-      </c>
-      <c r="L28" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="M28" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="N28" s="44" t="s">
+      <c r="F28" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="G28" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="H28" s="47" t="n">
+        <v>40128</v>
+      </c>
+      <c r="I28" s="47" t="n">
+        <v>42257</v>
+      </c>
+      <c r="J28" s="47" t="n">
+        <v>43779</v>
+      </c>
+      <c r="K28" s="48" t="n">
+        <v>11</v>
+      </c>
+      <c r="L28" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="M28" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="N28" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="O28" s="44" t="s">
+      <c r="O28" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="P28" s="44" t="s">
+      <c r="P28" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="Q28" s="45" t="s">
-        <v>213</v>
-      </c>
-      <c r="R28" s="45" t="s">
-        <v>214</v>
-      </c>
-      <c r="S28" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="T28" s="45"/>
-      <c r="U28" s="44"/>
-      <c r="V28" s="44"/>
-      <c r="W28" s="44"/>
+      <c r="Q28" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="R28" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="S28" s="46" t="s">
+        <v>219</v>
+      </c>
+      <c r="T28" s="46"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="45"/>
+      <c r="W28" s="45"/>
     </row>
     <row r="29" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="43" t="n">
+      <c r="A29" s="44" t="n">
+        <v>61186</v>
+      </c>
+      <c r="B29" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="46" t="s">
+        <v>220</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="G29" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="H29" s="47" t="n">
+        <v>40522</v>
+      </c>
+      <c r="I29" s="47" t="n">
+        <v>40522</v>
+      </c>
+      <c r="J29" s="47" t="n">
+        <v>44174</v>
+      </c>
+      <c r="K29" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="M29" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="N29" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="O29" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="P29" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q29" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="R29" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="S29" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="T29" s="46"/>
+      <c r="U29" s="45"/>
+      <c r="V29" s="45"/>
+      <c r="W29" s="45"/>
+    </row>
+    <row r="30" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="44" t="n">
+        <v>62069</v>
+      </c>
+      <c r="B30" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>226</v>
+      </c>
+      <c r="E30" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="G30" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="H30" s="47" t="n">
+        <v>40610</v>
+      </c>
+      <c r="I30" s="47" t="n">
+        <v>40610</v>
+      </c>
+      <c r="J30" s="47" t="n">
+        <v>44262</v>
+      </c>
+      <c r="K30" s="48" t="n">
+        <v>8</v>
+      </c>
+      <c r="L30" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="M30" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="N30" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="O30" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="P30" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q30" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="R30" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="S30" s="46" t="s">
+        <v>231</v>
+      </c>
+      <c r="T30" s="46"/>
+      <c r="U30" s="45"/>
+      <c r="V30" s="45"/>
+      <c r="W30" s="45"/>
+      <c r="Y30" s="0"/>
+      <c r="Z30" s="0"/>
+      <c r="AA30" s="0"/>
+      <c r="AB30" s="0"/>
+      <c r="AC30" s="0"/>
+      <c r="AD30" s="0"/>
+      <c r="AE30" s="0"/>
+      <c r="AF30" s="0"/>
+      <c r="AG30" s="0"/>
+      <c r="AH30" s="0"/>
+      <c r="AI30" s="0"/>
+      <c r="AJ30" s="0"/>
+      <c r="AK30" s="0"/>
+      <c r="AL30" s="0"/>
+      <c r="AM30" s="0"/>
+      <c r="AN30" s="0"/>
+      <c r="AO30" s="0"/>
+      <c r="AP30" s="0"/>
+      <c r="AQ30" s="0"/>
+      <c r="AR30" s="0"/>
+      <c r="AS30" s="0"/>
+      <c r="AT30" s="0"/>
+      <c r="AU30" s="0"/>
+      <c r="AV30" s="0"/>
+      <c r="AW30" s="0"/>
+      <c r="AX30" s="0"/>
+      <c r="AY30" s="0"/>
+      <c r="AZ30" s="0"/>
+      <c r="BA30" s="0"/>
+      <c r="BB30" s="0"/>
+      <c r="BC30" s="0"/>
+      <c r="BD30" s="0"/>
+      <c r="BE30" s="0"/>
+      <c r="BF30" s="0"/>
+      <c r="BG30" s="0"/>
+      <c r="BH30" s="0"/>
+      <c r="BI30" s="0"/>
+      <c r="BJ30" s="0"/>
+      <c r="BK30" s="0"/>
+      <c r="BL30" s="0"/>
+      <c r="BM30" s="0"/>
+      <c r="BN30" s="0"/>
+      <c r="BO30" s="0"/>
+      <c r="BP30" s="0"/>
+      <c r="BQ30" s="0"/>
+      <c r="BR30" s="0"/>
+      <c r="BS30" s="0"/>
+      <c r="BT30" s="0"/>
+      <c r="BU30" s="0"/>
+      <c r="BV30" s="0"/>
+      <c r="BW30" s="0"/>
+      <c r="BX30" s="0"/>
+      <c r="BY30" s="0"/>
+      <c r="BZ30" s="0"/>
+      <c r="CA30" s="0"/>
+      <c r="CB30" s="0"/>
+      <c r="CC30" s="0"/>
+      <c r="CD30" s="0"/>
+      <c r="CE30" s="0"/>
+      <c r="CF30" s="0"/>
+      <c r="CG30" s="0"/>
+      <c r="CH30" s="0"/>
+      <c r="CI30" s="0"/>
+      <c r="CJ30" s="0"/>
+      <c r="CK30" s="0"/>
+      <c r="CL30" s="0"/>
+      <c r="CM30" s="0"/>
+      <c r="CN30" s="0"/>
+      <c r="CO30" s="0"/>
+      <c r="CP30" s="0"/>
+      <c r="CQ30" s="0"/>
+      <c r="CR30" s="0"/>
+      <c r="CS30" s="0"/>
+      <c r="CT30" s="0"/>
+      <c r="CU30" s="0"/>
+      <c r="CV30" s="0"/>
+      <c r="CW30" s="0"/>
+      <c r="CX30" s="0"/>
+      <c r="CY30" s="0"/>
+      <c r="CZ30" s="0"/>
+      <c r="DA30" s="0"/>
+      <c r="DB30" s="0"/>
+      <c r="DC30" s="0"/>
+      <c r="DD30" s="0"/>
+      <c r="DE30" s="0"/>
+      <c r="DF30" s="0"/>
+      <c r="DG30" s="0"/>
+      <c r="DH30" s="0"/>
+      <c r="DI30" s="0"/>
+      <c r="DJ30" s="0"/>
+      <c r="DK30" s="0"/>
+      <c r="DL30" s="0"/>
+      <c r="DM30" s="0"/>
+      <c r="DN30" s="0"/>
+      <c r="DO30" s="0"/>
+      <c r="DP30" s="0"/>
+      <c r="DQ30" s="0"/>
+      <c r="DR30" s="0"/>
+      <c r="DS30" s="0"/>
+      <c r="DT30" s="0"/>
+      <c r="DU30" s="0"/>
+      <c r="DV30" s="0"/>
+      <c r="DW30" s="0"/>
+      <c r="DX30" s="0"/>
+      <c r="DY30" s="0"/>
+      <c r="DZ30" s="0"/>
+      <c r="EA30" s="0"/>
+      <c r="EB30" s="0"/>
+      <c r="EC30" s="0"/>
+      <c r="ED30" s="0"/>
+      <c r="EE30" s="0"/>
+      <c r="EF30" s="0"/>
+      <c r="EG30" s="0"/>
+      <c r="EH30" s="0"/>
+      <c r="EI30" s="0"/>
+      <c r="EJ30" s="0"/>
+      <c r="EK30" s="0"/>
+      <c r="EL30" s="0"/>
+      <c r="EM30" s="0"/>
+      <c r="EN30" s="0"/>
+      <c r="EO30" s="0"/>
+      <c r="EP30" s="0"/>
+      <c r="EQ30" s="0"/>
+      <c r="ER30" s="0"/>
+      <c r="ES30" s="0"/>
+      <c r="ET30" s="0"/>
+      <c r="EU30" s="0"/>
+      <c r="EV30" s="0"/>
+      <c r="EW30" s="0"/>
+      <c r="EX30" s="0"/>
+      <c r="EY30" s="0"/>
+      <c r="EZ30" s="0"/>
+      <c r="FA30" s="0"/>
+      <c r="FB30" s="0"/>
+      <c r="FC30" s="0"/>
+      <c r="FD30" s="0"/>
+      <c r="FE30" s="0"/>
+      <c r="FF30" s="0"/>
+      <c r="FG30" s="0"/>
+      <c r="FH30" s="0"/>
+      <c r="FI30" s="0"/>
+      <c r="FJ30" s="0"/>
+      <c r="FK30" s="0"/>
+      <c r="FL30" s="0"/>
+      <c r="FM30" s="0"/>
+      <c r="FN30" s="0"/>
+      <c r="FO30" s="0"/>
+      <c r="FP30" s="0"/>
+      <c r="FQ30" s="0"/>
+      <c r="FR30" s="0"/>
+      <c r="FS30" s="0"/>
+      <c r="FT30" s="0"/>
+      <c r="FU30" s="0"/>
+      <c r="FV30" s="0"/>
+      <c r="FW30" s="0"/>
+      <c r="FX30" s="0"/>
+      <c r="FY30" s="0"/>
+      <c r="FZ30" s="0"/>
+      <c r="GA30" s="0"/>
+      <c r="GB30" s="0"/>
+      <c r="GC30" s="0"/>
+      <c r="GD30" s="0"/>
+      <c r="GE30" s="0"/>
+      <c r="GF30" s="0"/>
+      <c r="GG30" s="0"/>
+      <c r="GH30" s="0"/>
+      <c r="GI30" s="0"/>
+      <c r="GJ30" s="0"/>
+      <c r="GK30" s="0"/>
+      <c r="GL30" s="0"/>
+      <c r="GM30" s="0"/>
+      <c r="GN30" s="0"/>
+      <c r="GO30" s="0"/>
+      <c r="GP30" s="0"/>
+      <c r="GQ30" s="0"/>
+      <c r="GR30" s="0"/>
+      <c r="GS30" s="0"/>
+      <c r="GT30" s="0"/>
+      <c r="GU30" s="0"/>
+      <c r="GV30" s="0"/>
+      <c r="GW30" s="0"/>
+      <c r="GX30" s="0"/>
+      <c r="GY30" s="0"/>
+      <c r="GZ30" s="0"/>
+      <c r="HA30" s="0"/>
+      <c r="HB30" s="0"/>
+      <c r="HC30" s="0"/>
+      <c r="HD30" s="0"/>
+      <c r="HE30" s="0"/>
+      <c r="HF30" s="0"/>
+      <c r="HG30" s="0"/>
+      <c r="HH30" s="0"/>
+      <c r="HI30" s="0"/>
+      <c r="HJ30" s="0"/>
+      <c r="HK30" s="0"/>
+      <c r="HL30" s="0"/>
+      <c r="HM30" s="0"/>
+      <c r="HN30" s="0"/>
+      <c r="HO30" s="0"/>
+      <c r="HP30" s="0"/>
+      <c r="HQ30" s="0"/>
+      <c r="HR30" s="0"/>
+      <c r="HS30" s="0"/>
+      <c r="HT30" s="0"/>
+      <c r="HU30" s="0"/>
+      <c r="HV30" s="0"/>
+      <c r="HW30" s="0"/>
+      <c r="HX30" s="0"/>
+      <c r="HY30" s="0"/>
+      <c r="HZ30" s="0"/>
+      <c r="IA30" s="0"/>
+      <c r="IB30" s="0"/>
+      <c r="IC30" s="0"/>
+      <c r="ID30" s="0"/>
+      <c r="IE30" s="0"/>
+      <c r="IF30" s="0"/>
+      <c r="IG30" s="0"/>
+      <c r="IH30" s="0"/>
+      <c r="II30" s="0"/>
+      <c r="IJ30" s="0"/>
+      <c r="IK30" s="0"/>
+      <c r="IL30" s="0"/>
+      <c r="IM30" s="0"/>
+      <c r="IN30" s="0"/>
+      <c r="IO30" s="0"/>
+      <c r="IP30" s="0"/>
+      <c r="IQ30" s="0"/>
+      <c r="IR30" s="0"/>
+      <c r="IS30" s="0"/>
+      <c r="IT30" s="0"/>
+      <c r="IU30" s="0"/>
+      <c r="IV30" s="0"/>
+      <c r="IW30" s="0"/>
+      <c r="IX30" s="0"/>
+      <c r="IY30" s="0"/>
+      <c r="IZ30" s="0"/>
+      <c r="JA30" s="0"/>
+      <c r="JB30" s="0"/>
+      <c r="JC30" s="0"/>
+      <c r="JD30" s="0"/>
+      <c r="JE30" s="0"/>
+      <c r="JF30" s="0"/>
+      <c r="JG30" s="0"/>
+      <c r="JH30" s="0"/>
+      <c r="JI30" s="0"/>
+      <c r="JJ30" s="0"/>
+      <c r="JK30" s="0"/>
+      <c r="JL30" s="0"/>
+      <c r="JM30" s="0"/>
+      <c r="JN30" s="0"/>
+      <c r="JO30" s="0"/>
+      <c r="JP30" s="0"/>
+      <c r="JQ30" s="0"/>
+      <c r="JR30" s="0"/>
+      <c r="JS30" s="0"/>
+      <c r="JT30" s="0"/>
+      <c r="JU30" s="0"/>
+      <c r="JV30" s="0"/>
+      <c r="JW30" s="0"/>
+      <c r="JX30" s="0"/>
+      <c r="JY30" s="0"/>
+      <c r="JZ30" s="0"/>
+      <c r="KA30" s="0"/>
+      <c r="KB30" s="0"/>
+      <c r="KC30" s="0"/>
+      <c r="KD30" s="0"/>
+      <c r="KE30" s="0"/>
+      <c r="KF30" s="0"/>
+      <c r="KG30" s="0"/>
+      <c r="KH30" s="0"/>
+      <c r="KI30" s="0"/>
+      <c r="KJ30" s="0"/>
+      <c r="KK30" s="0"/>
+      <c r="KL30" s="0"/>
+      <c r="KM30" s="0"/>
+      <c r="KN30" s="0"/>
+      <c r="KO30" s="0"/>
+      <c r="KP30" s="0"/>
+      <c r="KQ30" s="0"/>
+      <c r="KR30" s="0"/>
+      <c r="KS30" s="0"/>
+      <c r="KT30" s="0"/>
+      <c r="KU30" s="0"/>
+      <c r="KV30" s="0"/>
+      <c r="KW30" s="0"/>
+      <c r="KX30" s="0"/>
+      <c r="KY30" s="0"/>
+      <c r="KZ30" s="0"/>
+      <c r="LA30" s="0"/>
+      <c r="LB30" s="0"/>
+      <c r="LC30" s="0"/>
+      <c r="LD30" s="0"/>
+      <c r="LE30" s="0"/>
+      <c r="LF30" s="0"/>
+      <c r="LG30" s="0"/>
+      <c r="LH30" s="0"/>
+      <c r="LI30" s="0"/>
+      <c r="LJ30" s="0"/>
+      <c r="LK30" s="0"/>
+      <c r="LL30" s="0"/>
+      <c r="LM30" s="0"/>
+      <c r="LN30" s="0"/>
+      <c r="LO30" s="0"/>
+      <c r="LP30" s="0"/>
+      <c r="LQ30" s="0"/>
+      <c r="LR30" s="0"/>
+      <c r="LS30" s="0"/>
+      <c r="LT30" s="0"/>
+      <c r="LU30" s="0"/>
+      <c r="LV30" s="0"/>
+      <c r="LW30" s="0"/>
+      <c r="LX30" s="0"/>
+      <c r="LY30" s="0"/>
+      <c r="LZ30" s="0"/>
+      <c r="MA30" s="0"/>
+      <c r="MB30" s="0"/>
+      <c r="MC30" s="0"/>
+      <c r="MD30" s="0"/>
+      <c r="ME30" s="0"/>
+      <c r="MF30" s="0"/>
+      <c r="MG30" s="0"/>
+      <c r="MH30" s="0"/>
+      <c r="MI30" s="0"/>
+      <c r="MJ30" s="0"/>
+      <c r="MK30" s="0"/>
+      <c r="ML30" s="0"/>
+      <c r="MM30" s="0"/>
+      <c r="MN30" s="0"/>
+      <c r="MO30" s="0"/>
+      <c r="MP30" s="0"/>
+      <c r="MQ30" s="0"/>
+      <c r="MR30" s="0"/>
+      <c r="MS30" s="0"/>
+      <c r="MT30" s="0"/>
+      <c r="MU30" s="0"/>
+      <c r="MV30" s="0"/>
+      <c r="MW30" s="0"/>
+      <c r="MX30" s="0"/>
+      <c r="MY30" s="0"/>
+      <c r="MZ30" s="0"/>
+      <c r="NA30" s="0"/>
+      <c r="NB30" s="0"/>
+      <c r="NC30" s="0"/>
+      <c r="ND30" s="0"/>
+      <c r="NE30" s="0"/>
+      <c r="NF30" s="0"/>
+      <c r="NG30" s="0"/>
+      <c r="NH30" s="0"/>
+      <c r="NI30" s="0"/>
+      <c r="NJ30" s="0"/>
+      <c r="NK30" s="0"/>
+      <c r="NL30" s="0"/>
+      <c r="NM30" s="0"/>
+      <c r="NN30" s="0"/>
+      <c r="NO30" s="0"/>
+      <c r="NP30" s="0"/>
+      <c r="NQ30" s="0"/>
+      <c r="NR30" s="0"/>
+      <c r="NS30" s="0"/>
+      <c r="NT30" s="0"/>
+      <c r="NU30" s="0"/>
+      <c r="NV30" s="0"/>
+      <c r="NW30" s="0"/>
+      <c r="NX30" s="0"/>
+      <c r="NY30" s="0"/>
+      <c r="NZ30" s="0"/>
+      <c r="OA30" s="0"/>
+      <c r="OB30" s="0"/>
+      <c r="OC30" s="0"/>
+      <c r="OD30" s="0"/>
+      <c r="OE30" s="0"/>
+      <c r="OF30" s="0"/>
+      <c r="OG30" s="0"/>
+      <c r="OH30" s="0"/>
+      <c r="OI30" s="0"/>
+      <c r="OJ30" s="0"/>
+      <c r="OK30" s="0"/>
+      <c r="OL30" s="0"/>
+      <c r="OM30" s="0"/>
+      <c r="ON30" s="0"/>
+      <c r="OO30" s="0"/>
+      <c r="OP30" s="0"/>
+      <c r="OQ30" s="0"/>
+      <c r="OR30" s="0"/>
+      <c r="OS30" s="0"/>
+      <c r="OT30" s="0"/>
+      <c r="OU30" s="0"/>
+      <c r="OV30" s="0"/>
+      <c r="OW30" s="0"/>
+      <c r="OX30" s="0"/>
+      <c r="OY30" s="0"/>
+      <c r="OZ30" s="0"/>
+      <c r="PA30" s="0"/>
+      <c r="PB30" s="0"/>
+      <c r="PC30" s="0"/>
+      <c r="PD30" s="0"/>
+      <c r="PE30" s="0"/>
+      <c r="PF30" s="0"/>
+      <c r="PG30" s="0"/>
+      <c r="PH30" s="0"/>
+      <c r="PI30" s="0"/>
+      <c r="PJ30" s="0"/>
+      <c r="PK30" s="0"/>
+      <c r="PL30" s="0"/>
+      <c r="PM30" s="0"/>
+      <c r="PN30" s="0"/>
+      <c r="PO30" s="0"/>
+      <c r="PP30" s="0"/>
+      <c r="PQ30" s="0"/>
+      <c r="PR30" s="0"/>
+      <c r="PS30" s="0"/>
+      <c r="PT30" s="0"/>
+      <c r="PU30" s="0"/>
+      <c r="PV30" s="0"/>
+      <c r="PW30" s="0"/>
+      <c r="PX30" s="0"/>
+      <c r="PY30" s="0"/>
+      <c r="PZ30" s="0"/>
+      <c r="QA30" s="0"/>
+      <c r="QB30" s="0"/>
+      <c r="QC30" s="0"/>
+      <c r="QD30" s="0"/>
+      <c r="QE30" s="0"/>
+      <c r="QF30" s="0"/>
+      <c r="QG30" s="0"/>
+      <c r="QH30" s="0"/>
+      <c r="QI30" s="0"/>
+      <c r="QJ30" s="0"/>
+      <c r="QK30" s="0"/>
+      <c r="QL30" s="0"/>
+      <c r="QM30" s="0"/>
+      <c r="QN30" s="0"/>
+      <c r="QO30" s="0"/>
+      <c r="QP30" s="0"/>
+      <c r="QQ30" s="0"/>
+      <c r="QR30" s="0"/>
+      <c r="QS30" s="0"/>
+      <c r="QT30" s="0"/>
+      <c r="QU30" s="0"/>
+      <c r="QV30" s="0"/>
+      <c r="QW30" s="0"/>
+      <c r="QX30" s="0"/>
+      <c r="QY30" s="0"/>
+      <c r="QZ30" s="0"/>
+      <c r="RA30" s="0"/>
+      <c r="RB30" s="0"/>
+      <c r="RC30" s="0"/>
+      <c r="RD30" s="0"/>
+      <c r="RE30" s="0"/>
+      <c r="RF30" s="0"/>
+      <c r="RG30" s="0"/>
+      <c r="RH30" s="0"/>
+      <c r="RI30" s="0"/>
+      <c r="RJ30" s="0"/>
+      <c r="RK30" s="0"/>
+      <c r="RL30" s="0"/>
+      <c r="RM30" s="0"/>
+      <c r="RN30" s="0"/>
+      <c r="RO30" s="0"/>
+      <c r="RP30" s="0"/>
+      <c r="RQ30" s="0"/>
+      <c r="RR30" s="0"/>
+      <c r="RS30" s="0"/>
+      <c r="RT30" s="0"/>
+      <c r="RU30" s="0"/>
+      <c r="RV30" s="0"/>
+      <c r="RW30" s="0"/>
+      <c r="RX30" s="0"/>
+      <c r="RY30" s="0"/>
+      <c r="RZ30" s="0"/>
+      <c r="SA30" s="0"/>
+      <c r="SB30" s="0"/>
+      <c r="SC30" s="0"/>
+      <c r="SD30" s="0"/>
+      <c r="SE30" s="0"/>
+      <c r="SF30" s="0"/>
+      <c r="SG30" s="0"/>
+      <c r="SH30" s="0"/>
+      <c r="SI30" s="0"/>
+      <c r="SJ30" s="0"/>
+      <c r="SK30" s="0"/>
+      <c r="SL30" s="0"/>
+      <c r="SM30" s="0"/>
+      <c r="SN30" s="0"/>
+      <c r="SO30" s="0"/>
+      <c r="SP30" s="0"/>
+      <c r="SQ30" s="0"/>
+      <c r="SR30" s="0"/>
+      <c r="SS30" s="0"/>
+      <c r="ST30" s="0"/>
+      <c r="SU30" s="0"/>
+      <c r="SV30" s="0"/>
+      <c r="SW30" s="0"/>
+      <c r="SX30" s="0"/>
+      <c r="SY30" s="0"/>
+      <c r="SZ30" s="0"/>
+      <c r="TA30" s="0"/>
+      <c r="TB30" s="0"/>
+      <c r="TC30" s="0"/>
+      <c r="TD30" s="0"/>
+      <c r="TE30" s="0"/>
+      <c r="TF30" s="0"/>
+      <c r="TG30" s="0"/>
+      <c r="TH30" s="0"/>
+      <c r="TI30" s="0"/>
+      <c r="TJ30" s="0"/>
+      <c r="TK30" s="0"/>
+      <c r="TL30" s="0"/>
+      <c r="TM30" s="0"/>
+      <c r="TN30" s="0"/>
+      <c r="TO30" s="0"/>
+      <c r="TP30" s="0"/>
+      <c r="TQ30" s="0"/>
+      <c r="TR30" s="0"/>
+      <c r="TS30" s="0"/>
+      <c r="TT30" s="0"/>
+      <c r="TU30" s="0"/>
+      <c r="TV30" s="0"/>
+      <c r="TW30" s="0"/>
+      <c r="TX30" s="0"/>
+      <c r="TY30" s="0"/>
+      <c r="TZ30" s="0"/>
+      <c r="UA30" s="0"/>
+      <c r="UB30" s="0"/>
+      <c r="UC30" s="0"/>
+      <c r="UD30" s="0"/>
+      <c r="UE30" s="0"/>
+      <c r="UF30" s="0"/>
+      <c r="UG30" s="0"/>
+      <c r="UH30" s="0"/>
+      <c r="UI30" s="0"/>
+      <c r="UJ30" s="0"/>
+      <c r="UK30" s="0"/>
+      <c r="UL30" s="0"/>
+      <c r="UM30" s="0"/>
+      <c r="UN30" s="0"/>
+      <c r="UO30" s="0"/>
+      <c r="UP30" s="0"/>
+      <c r="UQ30" s="0"/>
+      <c r="UR30" s="0"/>
+      <c r="US30" s="0"/>
+      <c r="UT30" s="0"/>
+      <c r="UU30" s="0"/>
+      <c r="UV30" s="0"/>
+      <c r="UW30" s="0"/>
+      <c r="UX30" s="0"/>
+      <c r="UY30" s="0"/>
+      <c r="UZ30" s="0"/>
+      <c r="VA30" s="0"/>
+      <c r="VB30" s="0"/>
+      <c r="VC30" s="0"/>
+      <c r="VD30" s="0"/>
+      <c r="VE30" s="0"/>
+      <c r="VF30" s="0"/>
+      <c r="VG30" s="0"/>
+      <c r="VH30" s="0"/>
+      <c r="VI30" s="0"/>
+      <c r="VJ30" s="0"/>
+      <c r="VK30" s="0"/>
+      <c r="VL30" s="0"/>
+      <c r="VM30" s="0"/>
+      <c r="VN30" s="0"/>
+      <c r="VO30" s="0"/>
+      <c r="VP30" s="0"/>
+      <c r="VQ30" s="0"/>
+      <c r="VR30" s="0"/>
+      <c r="VS30" s="0"/>
+      <c r="VT30" s="0"/>
+      <c r="VU30" s="0"/>
+      <c r="VV30" s="0"/>
+      <c r="VW30" s="0"/>
+      <c r="VX30" s="0"/>
+      <c r="VY30" s="0"/>
+      <c r="VZ30" s="0"/>
+      <c r="WA30" s="0"/>
+      <c r="WB30" s="0"/>
+      <c r="WC30" s="0"/>
+      <c r="WD30" s="0"/>
+      <c r="WE30" s="0"/>
+      <c r="WF30" s="0"/>
+      <c r="WG30" s="0"/>
+      <c r="WH30" s="0"/>
+      <c r="WI30" s="0"/>
+      <c r="WJ30" s="0"/>
+      <c r="WK30" s="0"/>
+      <c r="WL30" s="0"/>
+      <c r="WM30" s="0"/>
+      <c r="WN30" s="0"/>
+      <c r="WO30" s="0"/>
+      <c r="WP30" s="0"/>
+      <c r="WQ30" s="0"/>
+      <c r="WR30" s="0"/>
+      <c r="WS30" s="0"/>
+      <c r="WT30" s="0"/>
+      <c r="WU30" s="0"/>
+      <c r="WV30" s="0"/>
+      <c r="WW30" s="0"/>
+      <c r="WX30" s="0"/>
+      <c r="WY30" s="0"/>
+      <c r="WZ30" s="0"/>
+      <c r="XA30" s="0"/>
+      <c r="XB30" s="0"/>
+      <c r="XC30" s="0"/>
+      <c r="XD30" s="0"/>
+      <c r="XE30" s="0"/>
+      <c r="XF30" s="0"/>
+      <c r="XG30" s="0"/>
+      <c r="XH30" s="0"/>
+      <c r="XI30" s="0"/>
+      <c r="XJ30" s="0"/>
+      <c r="XK30" s="0"/>
+      <c r="XL30" s="0"/>
+      <c r="XM30" s="0"/>
+      <c r="XN30" s="0"/>
+      <c r="XO30" s="0"/>
+      <c r="XP30" s="0"/>
+      <c r="XQ30" s="0"/>
+      <c r="XR30" s="0"/>
+      <c r="XS30" s="0"/>
+      <c r="XT30" s="0"/>
+      <c r="XU30" s="0"/>
+      <c r="XV30" s="0"/>
+      <c r="XW30" s="0"/>
+      <c r="XX30" s="0"/>
+      <c r="XY30" s="0"/>
+      <c r="XZ30" s="0"/>
+      <c r="YA30" s="0"/>
+      <c r="YB30" s="0"/>
+      <c r="YC30" s="0"/>
+      <c r="YD30" s="0"/>
+      <c r="YE30" s="0"/>
+      <c r="YF30" s="0"/>
+      <c r="YG30" s="0"/>
+      <c r="YH30" s="0"/>
+      <c r="YI30" s="0"/>
+      <c r="YJ30" s="0"/>
+      <c r="YK30" s="0"/>
+      <c r="YL30" s="0"/>
+      <c r="YM30" s="0"/>
+      <c r="YN30" s="0"/>
+      <c r="YO30" s="0"/>
+      <c r="YP30" s="0"/>
+      <c r="YQ30" s="0"/>
+      <c r="YR30" s="0"/>
+      <c r="YS30" s="0"/>
+      <c r="YT30" s="0"/>
+      <c r="YU30" s="0"/>
+      <c r="YV30" s="0"/>
+      <c r="YW30" s="0"/>
+      <c r="YX30" s="0"/>
+      <c r="YY30" s="0"/>
+      <c r="YZ30" s="0"/>
+      <c r="ZA30" s="0"/>
+      <c r="ZB30" s="0"/>
+      <c r="ZC30" s="0"/>
+      <c r="ZD30" s="0"/>
+      <c r="ZE30" s="0"/>
+      <c r="ZF30" s="0"/>
+      <c r="ZG30" s="0"/>
+      <c r="ZH30" s="0"/>
+      <c r="ZI30" s="0"/>
+      <c r="ZJ30" s="0"/>
+      <c r="ZK30" s="0"/>
+      <c r="ZL30" s="0"/>
+      <c r="ZM30" s="0"/>
+      <c r="ZN30" s="0"/>
+      <c r="ZO30" s="0"/>
+      <c r="ZP30" s="0"/>
+      <c r="ZQ30" s="0"/>
+      <c r="ZR30" s="0"/>
+      <c r="ZS30" s="0"/>
+      <c r="ZT30" s="0"/>
+      <c r="ZU30" s="0"/>
+      <c r="ZV30" s="0"/>
+      <c r="ZW30" s="0"/>
+      <c r="ZX30" s="0"/>
+      <c r="ZY30" s="0"/>
+      <c r="ZZ30" s="0"/>
+      <c r="AAA30" s="0"/>
+      <c r="AAB30" s="0"/>
+      <c r="AAC30" s="0"/>
+      <c r="AAD30" s="0"/>
+      <c r="AAE30" s="0"/>
+      <c r="AAF30" s="0"/>
+      <c r="AAG30" s="0"/>
+      <c r="AAH30" s="0"/>
+      <c r="AAI30" s="0"/>
+      <c r="AAJ30" s="0"/>
+      <c r="AAK30" s="0"/>
+      <c r="AAL30" s="0"/>
+      <c r="AAM30" s="0"/>
+      <c r="AAN30" s="0"/>
+      <c r="AAO30" s="0"/>
+      <c r="AAP30" s="0"/>
+      <c r="AAQ30" s="0"/>
+      <c r="AAR30" s="0"/>
+      <c r="AAS30" s="0"/>
+      <c r="AAT30" s="0"/>
+      <c r="AAU30" s="0"/>
+      <c r="AAV30" s="0"/>
+      <c r="AAW30" s="0"/>
+      <c r="AAX30" s="0"/>
+      <c r="AAY30" s="0"/>
+      <c r="AAZ30" s="0"/>
+      <c r="ABA30" s="0"/>
+      <c r="ABB30" s="0"/>
+      <c r="ABC30" s="0"/>
+      <c r="ABD30" s="0"/>
+      <c r="ABE30" s="0"/>
+      <c r="ABF30" s="0"/>
+      <c r="ABG30" s="0"/>
+      <c r="ABH30" s="0"/>
+      <c r="ABI30" s="0"/>
+      <c r="ABJ30" s="0"/>
+      <c r="ABK30" s="0"/>
+      <c r="ABL30" s="0"/>
+      <c r="ABM30" s="0"/>
+      <c r="ABN30" s="0"/>
+      <c r="ABO30" s="0"/>
+      <c r="ABP30" s="0"/>
+      <c r="ABQ30" s="0"/>
+      <c r="ABR30" s="0"/>
+      <c r="ABS30" s="0"/>
+      <c r="ABT30" s="0"/>
+      <c r="ABU30" s="0"/>
+      <c r="ABV30" s="0"/>
+      <c r="ABW30" s="0"/>
+      <c r="ABX30" s="0"/>
+      <c r="ABY30" s="0"/>
+      <c r="ABZ30" s="0"/>
+      <c r="ACA30" s="0"/>
+      <c r="ACB30" s="0"/>
+      <c r="ACC30" s="0"/>
+      <c r="ACD30" s="0"/>
+      <c r="ACE30" s="0"/>
+      <c r="ACF30" s="0"/>
+      <c r="ACG30" s="0"/>
+      <c r="ACH30" s="0"/>
+      <c r="ACI30" s="0"/>
+      <c r="ACJ30" s="0"/>
+      <c r="ACK30" s="0"/>
+      <c r="ACL30" s="0"/>
+      <c r="ACM30" s="0"/>
+      <c r="ACN30" s="0"/>
+      <c r="ACO30" s="0"/>
+      <c r="ACP30" s="0"/>
+      <c r="ACQ30" s="0"/>
+      <c r="ACR30" s="0"/>
+      <c r="ACS30" s="0"/>
+      <c r="ACT30" s="0"/>
+      <c r="ACU30" s="0"/>
+      <c r="ACV30" s="0"/>
+      <c r="ACW30" s="0"/>
+      <c r="ACX30" s="0"/>
+      <c r="ACY30" s="0"/>
+      <c r="ACZ30" s="0"/>
+      <c r="ADA30" s="0"/>
+      <c r="ADB30" s="0"/>
+      <c r="ADC30" s="0"/>
+      <c r="ADD30" s="0"/>
+      <c r="ADE30" s="0"/>
+      <c r="ADF30" s="0"/>
+      <c r="ADG30" s="0"/>
+      <c r="ADH30" s="0"/>
+      <c r="ADI30" s="0"/>
+      <c r="ADJ30" s="0"/>
+      <c r="ADK30" s="0"/>
+      <c r="ADL30" s="0"/>
+      <c r="ADM30" s="0"/>
+      <c r="ADN30" s="0"/>
+      <c r="ADO30" s="0"/>
+      <c r="ADP30" s="0"/>
+      <c r="ADQ30" s="0"/>
+      <c r="ADR30" s="0"/>
+      <c r="ADS30" s="0"/>
+      <c r="ADT30" s="0"/>
+      <c r="ADU30" s="0"/>
+      <c r="ADV30" s="0"/>
+      <c r="ADW30" s="0"/>
+      <c r="ADX30" s="0"/>
+      <c r="ADY30" s="0"/>
+      <c r="ADZ30" s="0"/>
+      <c r="AEA30" s="0"/>
+      <c r="AEB30" s="0"/>
+      <c r="AEC30" s="0"/>
+      <c r="AED30" s="0"/>
+      <c r="AEE30" s="0"/>
+      <c r="AEF30" s="0"/>
+      <c r="AEG30" s="0"/>
+      <c r="AEH30" s="0"/>
+      <c r="AEI30" s="0"/>
+      <c r="AEJ30" s="0"/>
+      <c r="AEK30" s="0"/>
+      <c r="AEL30" s="0"/>
+      <c r="AEM30" s="0"/>
+      <c r="AEN30" s="0"/>
+      <c r="AEO30" s="0"/>
+      <c r="AEP30" s="0"/>
+      <c r="AEQ30" s="0"/>
+      <c r="AER30" s="0"/>
+      <c r="AES30" s="0"/>
+      <c r="AET30" s="0"/>
+      <c r="AEU30" s="0"/>
+      <c r="AEV30" s="0"/>
+      <c r="AEW30" s="0"/>
+      <c r="AEX30" s="0"/>
+      <c r="AEY30" s="0"/>
+      <c r="AEZ30" s="0"/>
+      <c r="AFA30" s="0"/>
+      <c r="AFB30" s="0"/>
+      <c r="AFC30" s="0"/>
+      <c r="AFD30" s="0"/>
+      <c r="AFE30" s="0"/>
+      <c r="AFF30" s="0"/>
+      <c r="AFG30" s="0"/>
+      <c r="AFH30" s="0"/>
+      <c r="AFI30" s="0"/>
+      <c r="AFJ30" s="0"/>
+      <c r="AFK30" s="0"/>
+      <c r="AFL30" s="0"/>
+      <c r="AFM30" s="0"/>
+      <c r="AFN30" s="0"/>
+      <c r="AFO30" s="0"/>
+      <c r="AFP30" s="0"/>
+      <c r="AFQ30" s="0"/>
+      <c r="AFR30" s="0"/>
+      <c r="AFS30" s="0"/>
+      <c r="AFT30" s="0"/>
+      <c r="AFU30" s="0"/>
+      <c r="AFV30" s="0"/>
+      <c r="AFW30" s="0"/>
+      <c r="AFX30" s="0"/>
+      <c r="AFY30" s="0"/>
+      <c r="AFZ30" s="0"/>
+      <c r="AGA30" s="0"/>
+      <c r="AGB30" s="0"/>
+      <c r="AGC30" s="0"/>
+      <c r="AGD30" s="0"/>
+      <c r="AGE30" s="0"/>
+      <c r="AGF30" s="0"/>
+      <c r="AGG30" s="0"/>
+      <c r="AGH30" s="0"/>
+      <c r="AGI30" s="0"/>
+      <c r="AGJ30" s="0"/>
+      <c r="AGK30" s="0"/>
+      <c r="AGL30" s="0"/>
+      <c r="AGM30" s="0"/>
+      <c r="AGN30" s="0"/>
+      <c r="AGO30" s="0"/>
+      <c r="AGP30" s="0"/>
+      <c r="AGQ30" s="0"/>
+      <c r="AGR30" s="0"/>
+      <c r="AGS30" s="0"/>
+      <c r="AGT30" s="0"/>
+      <c r="AGU30" s="0"/>
+      <c r="AGV30" s="0"/>
+      <c r="AGW30" s="0"/>
+      <c r="AGX30" s="0"/>
+      <c r="AGY30" s="0"/>
+      <c r="AGZ30" s="0"/>
+      <c r="AHA30" s="0"/>
+      <c r="AHB30" s="0"/>
+      <c r="AHC30" s="0"/>
+      <c r="AHD30" s="0"/>
+      <c r="AHE30" s="0"/>
+      <c r="AHF30" s="0"/>
+      <c r="AHG30" s="0"/>
+      <c r="AHH30" s="0"/>
+      <c r="AHI30" s="0"/>
+      <c r="AHJ30" s="0"/>
+      <c r="AHK30" s="0"/>
+      <c r="AHL30" s="0"/>
+      <c r="AHM30" s="0"/>
+      <c r="AHN30" s="0"/>
+      <c r="AHO30" s="0"/>
+      <c r="AHP30" s="0"/>
+      <c r="AHQ30" s="0"/>
+      <c r="AHR30" s="0"/>
+      <c r="AHS30" s="0"/>
+      <c r="AHT30" s="0"/>
+      <c r="AHU30" s="0"/>
+      <c r="AHV30" s="0"/>
+      <c r="AHW30" s="0"/>
+      <c r="AHX30" s="0"/>
+      <c r="AHY30" s="0"/>
+      <c r="AHZ30" s="0"/>
+      <c r="AIA30" s="0"/>
+      <c r="AIB30" s="0"/>
+      <c r="AIC30" s="0"/>
+      <c r="AID30" s="0"/>
+      <c r="AIE30" s="0"/>
+      <c r="AIF30" s="0"/>
+      <c r="AIG30" s="0"/>
+      <c r="AIH30" s="0"/>
+      <c r="AII30" s="0"/>
+      <c r="AIJ30" s="0"/>
+      <c r="AIK30" s="0"/>
+      <c r="AIL30" s="0"/>
+      <c r="AIM30" s="0"/>
+      <c r="AIN30" s="0"/>
+      <c r="AIO30" s="0"/>
+      <c r="AIP30" s="0"/>
+      <c r="AIQ30" s="0"/>
+      <c r="AIR30" s="0"/>
+      <c r="AIS30" s="0"/>
+      <c r="AIT30" s="0"/>
+      <c r="AIU30" s="0"/>
+      <c r="AIV30" s="0"/>
+      <c r="AIW30" s="0"/>
+      <c r="AIX30" s="0"/>
+      <c r="AIY30" s="0"/>
+      <c r="AIZ30" s="0"/>
+      <c r="AJA30" s="0"/>
+      <c r="AJB30" s="0"/>
+      <c r="AJC30" s="0"/>
+      <c r="AJD30" s="0"/>
+      <c r="AJE30" s="0"/>
+      <c r="AJF30" s="0"/>
+      <c r="AJG30" s="0"/>
+      <c r="AJH30" s="0"/>
+      <c r="AJI30" s="0"/>
+      <c r="AJJ30" s="0"/>
+      <c r="AJK30" s="0"/>
+      <c r="AJL30" s="0"/>
+      <c r="AJM30" s="0"/>
+      <c r="AJN30" s="0"/>
+      <c r="AJO30" s="0"/>
+      <c r="AJP30" s="0"/>
+      <c r="AJQ30" s="0"/>
+      <c r="AJR30" s="0"/>
+      <c r="AJS30" s="0"/>
+      <c r="AJT30" s="0"/>
+      <c r="AJU30" s="0"/>
+      <c r="AJV30" s="0"/>
+      <c r="AJW30" s="0"/>
+      <c r="AJX30" s="0"/>
+      <c r="AJY30" s="0"/>
+      <c r="AJZ30" s="0"/>
+      <c r="AKA30" s="0"/>
+      <c r="AKB30" s="0"/>
+      <c r="AKC30" s="0"/>
+      <c r="AKD30" s="0"/>
+      <c r="AKE30" s="0"/>
+      <c r="AKF30" s="0"/>
+      <c r="AKG30" s="0"/>
+      <c r="AKH30" s="0"/>
+      <c r="AKI30" s="0"/>
+      <c r="AKJ30" s="0"/>
+      <c r="AKK30" s="0"/>
+      <c r="AKL30" s="0"/>
+      <c r="AKM30" s="0"/>
+      <c r="AKN30" s="0"/>
+      <c r="AKO30" s="0"/>
+      <c r="AKP30" s="0"/>
+      <c r="AKQ30" s="0"/>
+      <c r="AKR30" s="0"/>
+      <c r="AKS30" s="0"/>
+      <c r="AKT30" s="0"/>
+      <c r="AKU30" s="0"/>
+      <c r="AKV30" s="0"/>
+      <c r="AKW30" s="0"/>
+      <c r="AKX30" s="0"/>
+      <c r="AKY30" s="0"/>
+      <c r="AKZ30" s="0"/>
+      <c r="ALA30" s="0"/>
+      <c r="ALB30" s="0"/>
+      <c r="ALC30" s="0"/>
+      <c r="ALD30" s="0"/>
+      <c r="ALE30" s="0"/>
+      <c r="ALF30" s="0"/>
+      <c r="ALG30" s="0"/>
+      <c r="ALH30" s="0"/>
+      <c r="ALI30" s="0"/>
+      <c r="ALJ30" s="0"/>
+      <c r="ALK30" s="0"/>
+      <c r="ALL30" s="0"/>
+      <c r="ALM30" s="0"/>
+      <c r="ALN30" s="0"/>
+      <c r="ALO30" s="0"/>
+      <c r="ALP30" s="0"/>
+      <c r="ALQ30" s="0"/>
+      <c r="ALR30" s="0"/>
+      <c r="ALS30" s="0"/>
+      <c r="ALT30" s="0"/>
+      <c r="ALU30" s="0"/>
+      <c r="ALV30" s="0"/>
+      <c r="ALW30" s="0"/>
+      <c r="ALX30" s="0"/>
+      <c r="ALY30" s="0"/>
+      <c r="ALZ30" s="0"/>
+      <c r="AMA30" s="0"/>
+      <c r="AMB30" s="0"/>
+      <c r="AMC30" s="0"/>
+      <c r="AMD30" s="0"/>
+      <c r="AME30" s="0"/>
+      <c r="AMF30" s="0"/>
+      <c r="AMG30" s="0"/>
+      <c r="AMH30" s="0"/>
+      <c r="AMI30" s="0"/>
+      <c r="AMJ30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="44" t="n">
         <v>62132</v>
       </c>
-      <c r="B29" s="44" t="n">
+      <c r="B31" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="C29" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="D29" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="E29" s="45" t="s">
+      <c r="C31" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="D31" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="E31" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="F29" s="44" t="s">
-        <v>218</v>
-      </c>
-      <c r="G29" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="H29" s="46" t="n">
+      <c r="F31" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="G31" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="H31" s="47" t="n">
         <v>41337</v>
       </c>
-      <c r="I29" s="46" t="n">
+      <c r="I31" s="47" t="n">
         <v>41337</v>
       </c>
-      <c r="J29" s="46" t="n">
+      <c r="J31" s="47" t="n">
         <v>43162</v>
       </c>
-      <c r="K29" s="47" t="n">
+      <c r="K31" s="48" t="n">
         <v>1</v>
       </c>
-      <c r="L29" s="44" t="s">
-        <v>220</v>
-      </c>
-      <c r="M29" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="N29" s="44" t="s">
+      <c r="L31" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="M31" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="N31" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="O29" s="44" t="s">
+      <c r="O31" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="P29" s="44" t="s">
+      <c r="P31" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="Q29" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="R29" s="45" t="s">
-        <v>223</v>
-      </c>
-      <c r="S29" s="45" t="s">
-        <v>224</v>
-      </c>
-      <c r="T29" s="45"/>
-      <c r="U29" s="44" t="s">
+      <c r="Q31" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="R31" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="S31" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="T31" s="46"/>
+      <c r="U31" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="V29" s="44"/>
-      <c r="W29" s="44"/>
+      <c r="V31" s="45"/>
+      <c r="W31" s="45"/>
+      <c r="Y31" s="0"/>
+      <c r="Z31" s="0"/>
+      <c r="AA31" s="0"/>
+      <c r="AB31" s="0"/>
+      <c r="AC31" s="0"/>
+      <c r="AD31" s="0"/>
+      <c r="AE31" s="0"/>
+      <c r="AF31" s="0"/>
+      <c r="AG31" s="0"/>
+      <c r="AH31" s="0"/>
+      <c r="AI31" s="0"/>
+      <c r="AJ31" s="0"/>
+      <c r="AK31" s="0"/>
+      <c r="AL31" s="0"/>
+      <c r="AM31" s="0"/>
+      <c r="AN31" s="0"/>
+      <c r="AO31" s="0"/>
+      <c r="AP31" s="0"/>
+      <c r="AQ31" s="0"/>
+      <c r="AR31" s="0"/>
+      <c r="AS31" s="0"/>
+      <c r="AT31" s="0"/>
+      <c r="AU31" s="0"/>
+      <c r="AV31" s="0"/>
+      <c r="AW31" s="0"/>
+      <c r="AX31" s="0"/>
+      <c r="AY31" s="0"/>
+      <c r="AZ31" s="0"/>
+      <c r="BA31" s="0"/>
+      <c r="BB31" s="0"/>
+      <c r="BC31" s="0"/>
+      <c r="BD31" s="0"/>
+      <c r="BE31" s="0"/>
+      <c r="BF31" s="0"/>
+      <c r="BG31" s="0"/>
+      <c r="BH31" s="0"/>
+      <c r="BI31" s="0"/>
+      <c r="BJ31" s="0"/>
+      <c r="BK31" s="0"/>
+      <c r="BL31" s="0"/>
+      <c r="BM31" s="0"/>
+      <c r="BN31" s="0"/>
+      <c r="BO31" s="0"/>
+      <c r="BP31" s="0"/>
+      <c r="BQ31" s="0"/>
+      <c r="BR31" s="0"/>
+      <c r="BS31" s="0"/>
+      <c r="BT31" s="0"/>
+      <c r="BU31" s="0"/>
+      <c r="BV31" s="0"/>
+      <c r="BW31" s="0"/>
+      <c r="BX31" s="0"/>
+      <c r="BY31" s="0"/>
+      <c r="BZ31" s="0"/>
+      <c r="CA31" s="0"/>
+      <c r="CB31" s="0"/>
+      <c r="CC31" s="0"/>
+      <c r="CD31" s="0"/>
+      <c r="CE31" s="0"/>
+      <c r="CF31" s="0"/>
+      <c r="CG31" s="0"/>
+      <c r="CH31" s="0"/>
+      <c r="CI31" s="0"/>
+      <c r="CJ31" s="0"/>
+      <c r="CK31" s="0"/>
+      <c r="CL31" s="0"/>
+      <c r="CM31" s="0"/>
+      <c r="CN31" s="0"/>
+      <c r="CO31" s="0"/>
+      <c r="CP31" s="0"/>
+      <c r="CQ31" s="0"/>
+      <c r="CR31" s="0"/>
+      <c r="CS31" s="0"/>
+      <c r="CT31" s="0"/>
+      <c r="CU31" s="0"/>
+      <c r="CV31" s="0"/>
+      <c r="CW31" s="0"/>
+      <c r="CX31" s="0"/>
+      <c r="CY31" s="0"/>
+      <c r="CZ31" s="0"/>
+      <c r="DA31" s="0"/>
+      <c r="DB31" s="0"/>
+      <c r="DC31" s="0"/>
+      <c r="DD31" s="0"/>
+      <c r="DE31" s="0"/>
+      <c r="DF31" s="0"/>
+      <c r="DG31" s="0"/>
+      <c r="DH31" s="0"/>
+      <c r="DI31" s="0"/>
+      <c r="DJ31" s="0"/>
+      <c r="DK31" s="0"/>
+      <c r="DL31" s="0"/>
+      <c r="DM31" s="0"/>
+      <c r="DN31" s="0"/>
+      <c r="DO31" s="0"/>
+      <c r="DP31" s="0"/>
+      <c r="DQ31" s="0"/>
+      <c r="DR31" s="0"/>
+      <c r="DS31" s="0"/>
+      <c r="DT31" s="0"/>
+      <c r="DU31" s="0"/>
+      <c r="DV31" s="0"/>
+      <c r="DW31" s="0"/>
+      <c r="DX31" s="0"/>
+      <c r="DY31" s="0"/>
+      <c r="DZ31" s="0"/>
+      <c r="EA31" s="0"/>
+      <c r="EB31" s="0"/>
+      <c r="EC31" s="0"/>
+      <c r="ED31" s="0"/>
+      <c r="EE31" s="0"/>
+      <c r="EF31" s="0"/>
+      <c r="EG31" s="0"/>
+      <c r="EH31" s="0"/>
+      <c r="EI31" s="0"/>
+      <c r="EJ31" s="0"/>
+      <c r="EK31" s="0"/>
+      <c r="EL31" s="0"/>
+      <c r="EM31" s="0"/>
+      <c r="EN31" s="0"/>
+      <c r="EO31" s="0"/>
+      <c r="EP31" s="0"/>
+      <c r="EQ31" s="0"/>
+      <c r="ER31" s="0"/>
+      <c r="ES31" s="0"/>
+      <c r="ET31" s="0"/>
+      <c r="EU31" s="0"/>
+      <c r="EV31" s="0"/>
+      <c r="EW31" s="0"/>
+      <c r="EX31" s="0"/>
+      <c r="EY31" s="0"/>
+      <c r="EZ31" s="0"/>
+      <c r="FA31" s="0"/>
+      <c r="FB31" s="0"/>
+      <c r="FC31" s="0"/>
+      <c r="FD31" s="0"/>
+      <c r="FE31" s="0"/>
+      <c r="FF31" s="0"/>
+      <c r="FG31" s="0"/>
+      <c r="FH31" s="0"/>
+      <c r="FI31" s="0"/>
+      <c r="FJ31" s="0"/>
+      <c r="FK31" s="0"/>
+      <c r="FL31" s="0"/>
+      <c r="FM31" s="0"/>
+      <c r="FN31" s="0"/>
+      <c r="FO31" s="0"/>
+      <c r="FP31" s="0"/>
+      <c r="FQ31" s="0"/>
+      <c r="FR31" s="0"/>
+      <c r="FS31" s="0"/>
+      <c r="FT31" s="0"/>
+      <c r="FU31" s="0"/>
+      <c r="FV31" s="0"/>
+      <c r="FW31" s="0"/>
+      <c r="FX31" s="0"/>
+      <c r="FY31" s="0"/>
+      <c r="FZ31" s="0"/>
+      <c r="GA31" s="0"/>
+      <c r="GB31" s="0"/>
+      <c r="GC31" s="0"/>
+      <c r="GD31" s="0"/>
+      <c r="GE31" s="0"/>
+      <c r="GF31" s="0"/>
+      <c r="GG31" s="0"/>
+      <c r="GH31" s="0"/>
+      <c r="GI31" s="0"/>
+      <c r="GJ31" s="0"/>
+      <c r="GK31" s="0"/>
+      <c r="GL31" s="0"/>
+      <c r="GM31" s="0"/>
+      <c r="GN31" s="0"/>
+      <c r="GO31" s="0"/>
+      <c r="GP31" s="0"/>
+      <c r="GQ31" s="0"/>
+      <c r="GR31" s="0"/>
+      <c r="GS31" s="0"/>
+      <c r="GT31" s="0"/>
+      <c r="GU31" s="0"/>
+      <c r="GV31" s="0"/>
+      <c r="GW31" s="0"/>
+      <c r="GX31" s="0"/>
+      <c r="GY31" s="0"/>
+      <c r="GZ31" s="0"/>
+      <c r="HA31" s="0"/>
+      <c r="HB31" s="0"/>
+      <c r="HC31" s="0"/>
+      <c r="HD31" s="0"/>
+      <c r="HE31" s="0"/>
+      <c r="HF31" s="0"/>
+      <c r="HG31" s="0"/>
+      <c r="HH31" s="0"/>
+      <c r="HI31" s="0"/>
+      <c r="HJ31" s="0"/>
+      <c r="HK31" s="0"/>
+      <c r="HL31" s="0"/>
+      <c r="HM31" s="0"/>
+      <c r="HN31" s="0"/>
+      <c r="HO31" s="0"/>
+      <c r="HP31" s="0"/>
+      <c r="HQ31" s="0"/>
+      <c r="HR31" s="0"/>
+      <c r="HS31" s="0"/>
+      <c r="HT31" s="0"/>
+      <c r="HU31" s="0"/>
+      <c r="HV31" s="0"/>
+      <c r="HW31" s="0"/>
+      <c r="HX31" s="0"/>
+      <c r="HY31" s="0"/>
+      <c r="HZ31" s="0"/>
+      <c r="IA31" s="0"/>
+      <c r="IB31" s="0"/>
+      <c r="IC31" s="0"/>
+      <c r="ID31" s="0"/>
+      <c r="IE31" s="0"/>
+      <c r="IF31" s="0"/>
+      <c r="IG31" s="0"/>
+      <c r="IH31" s="0"/>
+      <c r="II31" s="0"/>
+      <c r="IJ31" s="0"/>
+      <c r="IK31" s="0"/>
+      <c r="IL31" s="0"/>
+      <c r="IM31" s="0"/>
+      <c r="IN31" s="0"/>
+      <c r="IO31" s="0"/>
+      <c r="IP31" s="0"/>
+      <c r="IQ31" s="0"/>
+      <c r="IR31" s="0"/>
+      <c r="IS31" s="0"/>
+      <c r="IT31" s="0"/>
+      <c r="IU31" s="0"/>
+      <c r="IV31" s="0"/>
+      <c r="IW31" s="0"/>
+      <c r="IX31" s="0"/>
+      <c r="IY31" s="0"/>
+      <c r="IZ31" s="0"/>
+      <c r="JA31" s="0"/>
+      <c r="JB31" s="0"/>
+      <c r="JC31" s="0"/>
+      <c r="JD31" s="0"/>
+      <c r="JE31" s="0"/>
+      <c r="JF31" s="0"/>
+      <c r="JG31" s="0"/>
+      <c r="JH31" s="0"/>
+      <c r="JI31" s="0"/>
+      <c r="JJ31" s="0"/>
+      <c r="JK31" s="0"/>
+      <c r="JL31" s="0"/>
+      <c r="JM31" s="0"/>
+      <c r="JN31" s="0"/>
+      <c r="JO31" s="0"/>
+      <c r="JP31" s="0"/>
+      <c r="JQ31" s="0"/>
+      <c r="JR31" s="0"/>
+      <c r="JS31" s="0"/>
+      <c r="JT31" s="0"/>
+      <c r="JU31" s="0"/>
+      <c r="JV31" s="0"/>
+      <c r="JW31" s="0"/>
+      <c r="JX31" s="0"/>
+      <c r="JY31" s="0"/>
+      <c r="JZ31" s="0"/>
+      <c r="KA31" s="0"/>
+      <c r="KB31" s="0"/>
+      <c r="KC31" s="0"/>
+      <c r="KD31" s="0"/>
+      <c r="KE31" s="0"/>
+      <c r="KF31" s="0"/>
+      <c r="KG31" s="0"/>
+      <c r="KH31" s="0"/>
+      <c r="KI31" s="0"/>
+      <c r="KJ31" s="0"/>
+      <c r="KK31" s="0"/>
+      <c r="KL31" s="0"/>
+      <c r="KM31" s="0"/>
+      <c r="KN31" s="0"/>
+      <c r="KO31" s="0"/>
+      <c r="KP31" s="0"/>
+      <c r="KQ31" s="0"/>
+      <c r="KR31" s="0"/>
+      <c r="KS31" s="0"/>
+      <c r="KT31" s="0"/>
+      <c r="KU31" s="0"/>
+      <c r="KV31" s="0"/>
+      <c r="KW31" s="0"/>
+      <c r="KX31" s="0"/>
+      <c r="KY31" s="0"/>
+      <c r="KZ31" s="0"/>
+      <c r="LA31" s="0"/>
+      <c r="LB31" s="0"/>
+      <c r="LC31" s="0"/>
+      <c r="LD31" s="0"/>
+      <c r="LE31" s="0"/>
+      <c r="LF31" s="0"/>
+      <c r="LG31" s="0"/>
+      <c r="LH31" s="0"/>
+      <c r="LI31" s="0"/>
+      <c r="LJ31" s="0"/>
+      <c r="LK31" s="0"/>
+      <c r="LL31" s="0"/>
+      <c r="LM31" s="0"/>
+      <c r="LN31" s="0"/>
+      <c r="LO31" s="0"/>
+      <c r="LP31" s="0"/>
+      <c r="LQ31" s="0"/>
+      <c r="LR31" s="0"/>
+      <c r="LS31" s="0"/>
+      <c r="LT31" s="0"/>
+      <c r="LU31" s="0"/>
+      <c r="LV31" s="0"/>
+      <c r="LW31" s="0"/>
+      <c r="LX31" s="0"/>
+      <c r="LY31" s="0"/>
+      <c r="LZ31" s="0"/>
+      <c r="MA31" s="0"/>
+      <c r="MB31" s="0"/>
+      <c r="MC31" s="0"/>
+      <c r="MD31" s="0"/>
+      <c r="ME31" s="0"/>
+      <c r="MF31" s="0"/>
+      <c r="MG31" s="0"/>
+      <c r="MH31" s="0"/>
+      <c r="MI31" s="0"/>
+      <c r="MJ31" s="0"/>
+      <c r="MK31" s="0"/>
+      <c r="ML31" s="0"/>
+      <c r="MM31" s="0"/>
+      <c r="MN31" s="0"/>
+      <c r="MO31" s="0"/>
+      <c r="MP31" s="0"/>
+      <c r="MQ31" s="0"/>
+      <c r="MR31" s="0"/>
+      <c r="MS31" s="0"/>
+      <c r="MT31" s="0"/>
+      <c r="MU31" s="0"/>
+      <c r="MV31" s="0"/>
+      <c r="MW31" s="0"/>
+      <c r="MX31" s="0"/>
+      <c r="MY31" s="0"/>
+      <c r="MZ31" s="0"/>
+      <c r="NA31" s="0"/>
+      <c r="NB31" s="0"/>
+      <c r="NC31" s="0"/>
+      <c r="ND31" s="0"/>
+      <c r="NE31" s="0"/>
+      <c r="NF31" s="0"/>
+      <c r="NG31" s="0"/>
+      <c r="NH31" s="0"/>
+      <c r="NI31" s="0"/>
+      <c r="NJ31" s="0"/>
+      <c r="NK31" s="0"/>
+      <c r="NL31" s="0"/>
+      <c r="NM31" s="0"/>
+      <c r="NN31" s="0"/>
+      <c r="NO31" s="0"/>
+      <c r="NP31" s="0"/>
+      <c r="NQ31" s="0"/>
+      <c r="NR31" s="0"/>
+      <c r="NS31" s="0"/>
+      <c r="NT31" s="0"/>
+      <c r="NU31" s="0"/>
+      <c r="NV31" s="0"/>
+      <c r="NW31" s="0"/>
+      <c r="NX31" s="0"/>
+      <c r="NY31" s="0"/>
+      <c r="NZ31" s="0"/>
+      <c r="OA31" s="0"/>
+      <c r="OB31" s="0"/>
+      <c r="OC31" s="0"/>
+      <c r="OD31" s="0"/>
+      <c r="OE31" s="0"/>
+      <c r="OF31" s="0"/>
+      <c r="OG31" s="0"/>
+      <c r="OH31" s="0"/>
+      <c r="OI31" s="0"/>
+      <c r="OJ31" s="0"/>
+      <c r="OK31" s="0"/>
+      <c r="OL31" s="0"/>
+      <c r="OM31" s="0"/>
+      <c r="ON31" s="0"/>
+      <c r="OO31" s="0"/>
+      <c r="OP31" s="0"/>
+      <c r="OQ31" s="0"/>
+      <c r="OR31" s="0"/>
+      <c r="OS31" s="0"/>
+      <c r="OT31" s="0"/>
+      <c r="OU31" s="0"/>
+      <c r="OV31" s="0"/>
+      <c r="OW31" s="0"/>
+      <c r="OX31" s="0"/>
+      <c r="OY31" s="0"/>
+      <c r="OZ31" s="0"/>
+      <c r="PA31" s="0"/>
+      <c r="PB31" s="0"/>
+      <c r="PC31" s="0"/>
+      <c r="PD31" s="0"/>
+      <c r="PE31" s="0"/>
+      <c r="PF31" s="0"/>
+      <c r="PG31" s="0"/>
+      <c r="PH31" s="0"/>
+      <c r="PI31" s="0"/>
+      <c r="PJ31" s="0"/>
+      <c r="PK31" s="0"/>
+      <c r="PL31" s="0"/>
+      <c r="PM31" s="0"/>
+      <c r="PN31" s="0"/>
+      <c r="PO31" s="0"/>
+      <c r="PP31" s="0"/>
+      <c r="PQ31" s="0"/>
+      <c r="PR31" s="0"/>
+      <c r="PS31" s="0"/>
+      <c r="PT31" s="0"/>
+      <c r="PU31" s="0"/>
+      <c r="PV31" s="0"/>
+      <c r="PW31" s="0"/>
+      <c r="PX31" s="0"/>
+      <c r="PY31" s="0"/>
+      <c r="PZ31" s="0"/>
+      <c r="QA31" s="0"/>
+      <c r="QB31" s="0"/>
+      <c r="QC31" s="0"/>
+      <c r="QD31" s="0"/>
+      <c r="QE31" s="0"/>
+      <c r="QF31" s="0"/>
+      <c r="QG31" s="0"/>
+      <c r="QH31" s="0"/>
+      <c r="QI31" s="0"/>
+      <c r="QJ31" s="0"/>
+      <c r="QK31" s="0"/>
+      <c r="QL31" s="0"/>
+      <c r="QM31" s="0"/>
+      <c r="QN31" s="0"/>
+      <c r="QO31" s="0"/>
+      <c r="QP31" s="0"/>
+      <c r="QQ31" s="0"/>
+      <c r="QR31" s="0"/>
+      <c r="QS31" s="0"/>
+      <c r="QT31" s="0"/>
+      <c r="QU31" s="0"/>
+      <c r="QV31" s="0"/>
+      <c r="QW31" s="0"/>
+      <c r="QX31" s="0"/>
+      <c r="QY31" s="0"/>
+      <c r="QZ31" s="0"/>
+      <c r="RA31" s="0"/>
+      <c r="RB31" s="0"/>
+      <c r="RC31" s="0"/>
+      <c r="RD31" s="0"/>
+      <c r="RE31" s="0"/>
+      <c r="RF31" s="0"/>
+      <c r="RG31" s="0"/>
+      <c r="RH31" s="0"/>
+      <c r="RI31" s="0"/>
+      <c r="RJ31" s="0"/>
+      <c r="RK31" s="0"/>
+      <c r="RL31" s="0"/>
+      <c r="RM31" s="0"/>
+      <c r="RN31" s="0"/>
+      <c r="RO31" s="0"/>
+      <c r="RP31" s="0"/>
+      <c r="RQ31" s="0"/>
+      <c r="RR31" s="0"/>
+      <c r="RS31" s="0"/>
+      <c r="RT31" s="0"/>
+      <c r="RU31" s="0"/>
+      <c r="RV31" s="0"/>
+      <c r="RW31" s="0"/>
+      <c r="RX31" s="0"/>
+      <c r="RY31" s="0"/>
+      <c r="RZ31" s="0"/>
+      <c r="SA31" s="0"/>
+      <c r="SB31" s="0"/>
+      <c r="SC31" s="0"/>
+      <c r="SD31" s="0"/>
+      <c r="SE31" s="0"/>
+      <c r="SF31" s="0"/>
+      <c r="SG31" s="0"/>
+      <c r="SH31" s="0"/>
+      <c r="SI31" s="0"/>
+      <c r="SJ31" s="0"/>
+      <c r="SK31" s="0"/>
+      <c r="SL31" s="0"/>
+      <c r="SM31" s="0"/>
+      <c r="SN31" s="0"/>
+      <c r="SO31" s="0"/>
+      <c r="SP31" s="0"/>
+      <c r="SQ31" s="0"/>
+      <c r="SR31" s="0"/>
+      <c r="SS31" s="0"/>
+      <c r="ST31" s="0"/>
+      <c r="SU31" s="0"/>
+      <c r="SV31" s="0"/>
+      <c r="SW31" s="0"/>
+      <c r="SX31" s="0"/>
+      <c r="SY31" s="0"/>
+      <c r="SZ31" s="0"/>
+      <c r="TA31" s="0"/>
+      <c r="TB31" s="0"/>
+      <c r="TC31" s="0"/>
+      <c r="TD31" s="0"/>
+      <c r="TE31" s="0"/>
+      <c r="TF31" s="0"/>
+      <c r="TG31" s="0"/>
+      <c r="TH31" s="0"/>
+      <c r="TI31" s="0"/>
+      <c r="TJ31" s="0"/>
+      <c r="TK31" s="0"/>
+      <c r="TL31" s="0"/>
+      <c r="TM31" s="0"/>
+      <c r="TN31" s="0"/>
+      <c r="TO31" s="0"/>
+      <c r="TP31" s="0"/>
+      <c r="TQ31" s="0"/>
+      <c r="TR31" s="0"/>
+      <c r="TS31" s="0"/>
+      <c r="TT31" s="0"/>
+      <c r="TU31" s="0"/>
+      <c r="TV31" s="0"/>
+      <c r="TW31" s="0"/>
+      <c r="TX31" s="0"/>
+      <c r="TY31" s="0"/>
+      <c r="TZ31" s="0"/>
+      <c r="UA31" s="0"/>
+      <c r="UB31" s="0"/>
+      <c r="UC31" s="0"/>
+      <c r="UD31" s="0"/>
+      <c r="UE31" s="0"/>
+      <c r="UF31" s="0"/>
+      <c r="UG31" s="0"/>
+      <c r="UH31" s="0"/>
+      <c r="UI31" s="0"/>
+      <c r="UJ31" s="0"/>
+      <c r="UK31" s="0"/>
+      <c r="UL31" s="0"/>
+      <c r="UM31" s="0"/>
+      <c r="UN31" s="0"/>
+      <c r="UO31" s="0"/>
+      <c r="UP31" s="0"/>
+      <c r="UQ31" s="0"/>
+      <c r="UR31" s="0"/>
+      <c r="US31" s="0"/>
+      <c r="UT31" s="0"/>
+      <c r="UU31" s="0"/>
+      <c r="UV31" s="0"/>
+      <c r="UW31" s="0"/>
+      <c r="UX31" s="0"/>
+      <c r="UY31" s="0"/>
+      <c r="UZ31" s="0"/>
+      <c r="VA31" s="0"/>
+      <c r="VB31" s="0"/>
+      <c r="VC31" s="0"/>
+      <c r="VD31" s="0"/>
+      <c r="VE31" s="0"/>
+      <c r="VF31" s="0"/>
+      <c r="VG31" s="0"/>
+      <c r="VH31" s="0"/>
+      <c r="VI31" s="0"/>
+      <c r="VJ31" s="0"/>
+      <c r="VK31" s="0"/>
+      <c r="VL31" s="0"/>
+      <c r="VM31" s="0"/>
+      <c r="VN31" s="0"/>
+      <c r="VO31" s="0"/>
+      <c r="VP31" s="0"/>
+      <c r="VQ31" s="0"/>
+      <c r="VR31" s="0"/>
+      <c r="VS31" s="0"/>
+      <c r="VT31" s="0"/>
+      <c r="VU31" s="0"/>
+      <c r="VV31" s="0"/>
+      <c r="VW31" s="0"/>
+      <c r="VX31" s="0"/>
+      <c r="VY31" s="0"/>
+      <c r="VZ31" s="0"/>
+      <c r="WA31" s="0"/>
+      <c r="WB31" s="0"/>
+      <c r="WC31" s="0"/>
+      <c r="WD31" s="0"/>
+      <c r="WE31" s="0"/>
+      <c r="WF31" s="0"/>
+      <c r="WG31" s="0"/>
+      <c r="WH31" s="0"/>
+      <c r="WI31" s="0"/>
+      <c r="WJ31" s="0"/>
+      <c r="WK31" s="0"/>
+      <c r="WL31" s="0"/>
+      <c r="WM31" s="0"/>
+      <c r="WN31" s="0"/>
+      <c r="WO31" s="0"/>
+      <c r="WP31" s="0"/>
+      <c r="WQ31" s="0"/>
+      <c r="WR31" s="0"/>
+      <c r="WS31" s="0"/>
+      <c r="WT31" s="0"/>
+      <c r="WU31" s="0"/>
+      <c r="WV31" s="0"/>
+      <c r="WW31" s="0"/>
+      <c r="WX31" s="0"/>
+      <c r="WY31" s="0"/>
+      <c r="WZ31" s="0"/>
+      <c r="XA31" s="0"/>
+      <c r="XB31" s="0"/>
+      <c r="XC31" s="0"/>
+      <c r="XD31" s="0"/>
+      <c r="XE31" s="0"/>
+      <c r="XF31" s="0"/>
+      <c r="XG31" s="0"/>
+      <c r="XH31" s="0"/>
+      <c r="XI31" s="0"/>
+      <c r="XJ31" s="0"/>
+      <c r="XK31" s="0"/>
+      <c r="XL31" s="0"/>
+      <c r="XM31" s="0"/>
+      <c r="XN31" s="0"/>
+      <c r="XO31" s="0"/>
+      <c r="XP31" s="0"/>
+      <c r="XQ31" s="0"/>
+      <c r="XR31" s="0"/>
+      <c r="XS31" s="0"/>
+      <c r="XT31" s="0"/>
+      <c r="XU31" s="0"/>
+      <c r="XV31" s="0"/>
+      <c r="XW31" s="0"/>
+      <c r="XX31" s="0"/>
+      <c r="XY31" s="0"/>
+      <c r="XZ31" s="0"/>
+      <c r="YA31" s="0"/>
+      <c r="YB31" s="0"/>
+      <c r="YC31" s="0"/>
+      <c r="YD31" s="0"/>
+      <c r="YE31" s="0"/>
+      <c r="YF31" s="0"/>
+      <c r="YG31" s="0"/>
+      <c r="YH31" s="0"/>
+      <c r="YI31" s="0"/>
+      <c r="YJ31" s="0"/>
+      <c r="YK31" s="0"/>
+      <c r="YL31" s="0"/>
+      <c r="YM31" s="0"/>
+      <c r="YN31" s="0"/>
+      <c r="YO31" s="0"/>
+      <c r="YP31" s="0"/>
+      <c r="YQ31" s="0"/>
+      <c r="YR31" s="0"/>
+      <c r="YS31" s="0"/>
+      <c r="YT31" s="0"/>
+      <c r="YU31" s="0"/>
+      <c r="YV31" s="0"/>
+      <c r="YW31" s="0"/>
+      <c r="YX31" s="0"/>
+      <c r="YY31" s="0"/>
+      <c r="YZ31" s="0"/>
+      <c r="ZA31" s="0"/>
+      <c r="ZB31" s="0"/>
+      <c r="ZC31" s="0"/>
+      <c r="ZD31" s="0"/>
+      <c r="ZE31" s="0"/>
+      <c r="ZF31" s="0"/>
+      <c r="ZG31" s="0"/>
+      <c r="ZH31" s="0"/>
+      <c r="ZI31" s="0"/>
+      <c r="ZJ31" s="0"/>
+      <c r="ZK31" s="0"/>
+      <c r="ZL31" s="0"/>
+      <c r="ZM31" s="0"/>
+      <c r="ZN31" s="0"/>
+      <c r="ZO31" s="0"/>
+      <c r="ZP31" s="0"/>
+      <c r="ZQ31" s="0"/>
+      <c r="ZR31" s="0"/>
+      <c r="ZS31" s="0"/>
+      <c r="ZT31" s="0"/>
+      <c r="ZU31" s="0"/>
+      <c r="ZV31" s="0"/>
+      <c r="ZW31" s="0"/>
+      <c r="ZX31" s="0"/>
+      <c r="ZY31" s="0"/>
+      <c r="ZZ31" s="0"/>
+      <c r="AAA31" s="0"/>
+      <c r="AAB31" s="0"/>
+      <c r="AAC31" s="0"/>
+      <c r="AAD31" s="0"/>
+      <c r="AAE31" s="0"/>
+      <c r="AAF31" s="0"/>
+      <c r="AAG31" s="0"/>
+      <c r="AAH31" s="0"/>
+      <c r="AAI31" s="0"/>
+      <c r="AAJ31" s="0"/>
+      <c r="AAK31" s="0"/>
+      <c r="AAL31" s="0"/>
+      <c r="AAM31" s="0"/>
+      <c r="AAN31" s="0"/>
+      <c r="AAO31" s="0"/>
+      <c r="AAP31" s="0"/>
+      <c r="AAQ31" s="0"/>
+      <c r="AAR31" s="0"/>
+      <c r="AAS31" s="0"/>
+      <c r="AAT31" s="0"/>
+      <c r="AAU31" s="0"/>
+      <c r="AAV31" s="0"/>
+      <c r="AAW31" s="0"/>
+      <c r="AAX31" s="0"/>
+      <c r="AAY31" s="0"/>
+      <c r="AAZ31" s="0"/>
+      <c r="ABA31" s="0"/>
+      <c r="ABB31" s="0"/>
+      <c r="ABC31" s="0"/>
+      <c r="ABD31" s="0"/>
+      <c r="ABE31" s="0"/>
+      <c r="ABF31" s="0"/>
+      <c r="ABG31" s="0"/>
+      <c r="ABH31" s="0"/>
+      <c r="ABI31" s="0"/>
+      <c r="ABJ31" s="0"/>
+      <c r="ABK31" s="0"/>
+      <c r="ABL31" s="0"/>
+      <c r="ABM31" s="0"/>
+      <c r="ABN31" s="0"/>
+      <c r="ABO31" s="0"/>
+      <c r="ABP31" s="0"/>
+      <c r="ABQ31" s="0"/>
+      <c r="ABR31" s="0"/>
+      <c r="ABS31" s="0"/>
+      <c r="ABT31" s="0"/>
+      <c r="ABU31" s="0"/>
+      <c r="ABV31" s="0"/>
+      <c r="ABW31" s="0"/>
+      <c r="ABX31" s="0"/>
+      <c r="ABY31" s="0"/>
+      <c r="ABZ31" s="0"/>
+      <c r="ACA31" s="0"/>
+      <c r="ACB31" s="0"/>
+      <c r="ACC31" s="0"/>
+      <c r="ACD31" s="0"/>
+      <c r="ACE31" s="0"/>
+      <c r="ACF31" s="0"/>
+      <c r="ACG31" s="0"/>
+      <c r="ACH31" s="0"/>
+      <c r="ACI31" s="0"/>
+      <c r="ACJ31" s="0"/>
+      <c r="ACK31" s="0"/>
+      <c r="ACL31" s="0"/>
+      <c r="ACM31" s="0"/>
+      <c r="ACN31" s="0"/>
+      <c r="ACO31" s="0"/>
+      <c r="ACP31" s="0"/>
+      <c r="ACQ31" s="0"/>
+      <c r="ACR31" s="0"/>
+      <c r="ACS31" s="0"/>
+      <c r="ACT31" s="0"/>
+      <c r="ACU31" s="0"/>
+      <c r="ACV31" s="0"/>
+      <c r="ACW31" s="0"/>
+      <c r="ACX31" s="0"/>
+      <c r="ACY31" s="0"/>
+      <c r="ACZ31" s="0"/>
+      <c r="ADA31" s="0"/>
+      <c r="ADB31" s="0"/>
+      <c r="ADC31" s="0"/>
+      <c r="ADD31" s="0"/>
+      <c r="ADE31" s="0"/>
+      <c r="ADF31" s="0"/>
+      <c r="ADG31" s="0"/>
+      <c r="ADH31" s="0"/>
+      <c r="ADI31" s="0"/>
+      <c r="ADJ31" s="0"/>
+      <c r="ADK31" s="0"/>
+      <c r="ADL31" s="0"/>
+      <c r="ADM31" s="0"/>
+      <c r="ADN31" s="0"/>
+      <c r="ADO31" s="0"/>
+      <c r="ADP31" s="0"/>
+      <c r="ADQ31" s="0"/>
+      <c r="ADR31" s="0"/>
+      <c r="ADS31" s="0"/>
+      <c r="ADT31" s="0"/>
+      <c r="ADU31" s="0"/>
+      <c r="ADV31" s="0"/>
+      <c r="ADW31" s="0"/>
+      <c r="ADX31" s="0"/>
+      <c r="ADY31" s="0"/>
+      <c r="ADZ31" s="0"/>
+      <c r="AEA31" s="0"/>
+      <c r="AEB31" s="0"/>
+      <c r="AEC31" s="0"/>
+      <c r="AED31" s="0"/>
+      <c r="AEE31" s="0"/>
+      <c r="AEF31" s="0"/>
+      <c r="AEG31" s="0"/>
+      <c r="AEH31" s="0"/>
+      <c r="AEI31" s="0"/>
+      <c r="AEJ31" s="0"/>
+      <c r="AEK31" s="0"/>
+      <c r="AEL31" s="0"/>
+      <c r="AEM31" s="0"/>
+      <c r="AEN31" s="0"/>
+      <c r="AEO31" s="0"/>
+      <c r="AEP31" s="0"/>
+      <c r="AEQ31" s="0"/>
+      <c r="AER31" s="0"/>
+      <c r="AES31" s="0"/>
+      <c r="AET31" s="0"/>
+      <c r="AEU31" s="0"/>
+      <c r="AEV31" s="0"/>
+      <c r="AEW31" s="0"/>
+      <c r="AEX31" s="0"/>
+      <c r="AEY31" s="0"/>
+      <c r="AEZ31" s="0"/>
+      <c r="AFA31" s="0"/>
+      <c r="AFB31" s="0"/>
+      <c r="AFC31" s="0"/>
+      <c r="AFD31" s="0"/>
+      <c r="AFE31" s="0"/>
+      <c r="AFF31" s="0"/>
+      <c r="AFG31" s="0"/>
+      <c r="AFH31" s="0"/>
+      <c r="AFI31" s="0"/>
+      <c r="AFJ31" s="0"/>
+      <c r="AFK31" s="0"/>
+      <c r="AFL31" s="0"/>
+      <c r="AFM31" s="0"/>
+      <c r="AFN31" s="0"/>
+      <c r="AFO31" s="0"/>
+      <c r="AFP31" s="0"/>
+      <c r="AFQ31" s="0"/>
+      <c r="AFR31" s="0"/>
+      <c r="AFS31" s="0"/>
+      <c r="AFT31" s="0"/>
+      <c r="AFU31" s="0"/>
+      <c r="AFV31" s="0"/>
+      <c r="AFW31" s="0"/>
+      <c r="AFX31" s="0"/>
+      <c r="AFY31" s="0"/>
+      <c r="AFZ31" s="0"/>
+      <c r="AGA31" s="0"/>
+      <c r="AGB31" s="0"/>
+      <c r="AGC31" s="0"/>
+      <c r="AGD31" s="0"/>
+      <c r="AGE31" s="0"/>
+      <c r="AGF31" s="0"/>
+      <c r="AGG31" s="0"/>
+      <c r="AGH31" s="0"/>
+      <c r="AGI31" s="0"/>
+      <c r="AGJ31" s="0"/>
+      <c r="AGK31" s="0"/>
+      <c r="AGL31" s="0"/>
+      <c r="AGM31" s="0"/>
+      <c r="AGN31" s="0"/>
+      <c r="AGO31" s="0"/>
+      <c r="AGP31" s="0"/>
+      <c r="AGQ31" s="0"/>
+      <c r="AGR31" s="0"/>
+      <c r="AGS31" s="0"/>
+      <c r="AGT31" s="0"/>
+      <c r="AGU31" s="0"/>
+      <c r="AGV31" s="0"/>
+      <c r="AGW31" s="0"/>
+      <c r="AGX31" s="0"/>
+      <c r="AGY31" s="0"/>
+      <c r="AGZ31" s="0"/>
+      <c r="AHA31" s="0"/>
+      <c r="AHB31" s="0"/>
+      <c r="AHC31" s="0"/>
+      <c r="AHD31" s="0"/>
+      <c r="AHE31" s="0"/>
+      <c r="AHF31" s="0"/>
+      <c r="AHG31" s="0"/>
+      <c r="AHH31" s="0"/>
+      <c r="AHI31" s="0"/>
+      <c r="AHJ31" s="0"/>
+      <c r="AHK31" s="0"/>
+      <c r="AHL31" s="0"/>
+      <c r="AHM31" s="0"/>
+      <c r="AHN31" s="0"/>
+      <c r="AHO31" s="0"/>
+      <c r="AHP31" s="0"/>
+      <c r="AHQ31" s="0"/>
+      <c r="AHR31" s="0"/>
+      <c r="AHS31" s="0"/>
+      <c r="AHT31" s="0"/>
+      <c r="AHU31" s="0"/>
+      <c r="AHV31" s="0"/>
+      <c r="AHW31" s="0"/>
+      <c r="AHX31" s="0"/>
+      <c r="AHY31" s="0"/>
+      <c r="AHZ31" s="0"/>
+      <c r="AIA31" s="0"/>
+      <c r="AIB31" s="0"/>
+      <c r="AIC31" s="0"/>
+      <c r="AID31" s="0"/>
+      <c r="AIE31" s="0"/>
+      <c r="AIF31" s="0"/>
+      <c r="AIG31" s="0"/>
+      <c r="AIH31" s="0"/>
+      <c r="AII31" s="0"/>
+      <c r="AIJ31" s="0"/>
+      <c r="AIK31" s="0"/>
+      <c r="AIL31" s="0"/>
+      <c r="AIM31" s="0"/>
+      <c r="AIN31" s="0"/>
+      <c r="AIO31" s="0"/>
+      <c r="AIP31" s="0"/>
+      <c r="AIQ31" s="0"/>
+      <c r="AIR31" s="0"/>
+      <c r="AIS31" s="0"/>
+      <c r="AIT31" s="0"/>
+      <c r="AIU31" s="0"/>
+      <c r="AIV31" s="0"/>
+      <c r="AIW31" s="0"/>
+      <c r="AIX31" s="0"/>
+      <c r="AIY31" s="0"/>
+      <c r="AIZ31" s="0"/>
+      <c r="AJA31" s="0"/>
+      <c r="AJB31" s="0"/>
+      <c r="AJC31" s="0"/>
+      <c r="AJD31" s="0"/>
+      <c r="AJE31" s="0"/>
+      <c r="AJF31" s="0"/>
+      <c r="AJG31" s="0"/>
+      <c r="AJH31" s="0"/>
+      <c r="AJI31" s="0"/>
+      <c r="AJJ31" s="0"/>
+      <c r="AJK31" s="0"/>
+      <c r="AJL31" s="0"/>
+      <c r="AJM31" s="0"/>
+      <c r="AJN31" s="0"/>
+      <c r="AJO31" s="0"/>
+      <c r="AJP31" s="0"/>
+      <c r="AJQ31" s="0"/>
+      <c r="AJR31" s="0"/>
+      <c r="AJS31" s="0"/>
+      <c r="AJT31" s="0"/>
+      <c r="AJU31" s="0"/>
+      <c r="AJV31" s="0"/>
+      <c r="AJW31" s="0"/>
+      <c r="AJX31" s="0"/>
+      <c r="AJY31" s="0"/>
+      <c r="AJZ31" s="0"/>
+      <c r="AKA31" s="0"/>
+      <c r="AKB31" s="0"/>
+      <c r="AKC31" s="0"/>
+      <c r="AKD31" s="0"/>
+      <c r="AKE31" s="0"/>
+      <c r="AKF31" s="0"/>
+      <c r="AKG31" s="0"/>
+      <c r="AKH31" s="0"/>
+      <c r="AKI31" s="0"/>
+      <c r="AKJ31" s="0"/>
+      <c r="AKK31" s="0"/>
+      <c r="AKL31" s="0"/>
+      <c r="AKM31" s="0"/>
+      <c r="AKN31" s="0"/>
+      <c r="AKO31" s="0"/>
+      <c r="AKP31" s="0"/>
+      <c r="AKQ31" s="0"/>
+      <c r="AKR31" s="0"/>
+      <c r="AKS31" s="0"/>
+      <c r="AKT31" s="0"/>
+      <c r="AKU31" s="0"/>
+      <c r="AKV31" s="0"/>
+      <c r="AKW31" s="0"/>
+      <c r="AKX31" s="0"/>
+      <c r="AKY31" s="0"/>
+      <c r="AKZ31" s="0"/>
+      <c r="ALA31" s="0"/>
+      <c r="ALB31" s="0"/>
+      <c r="ALC31" s="0"/>
+      <c r="ALD31" s="0"/>
+      <c r="ALE31" s="0"/>
+      <c r="ALF31" s="0"/>
+      <c r="ALG31" s="0"/>
+      <c r="ALH31" s="0"/>
+      <c r="ALI31" s="0"/>
+      <c r="ALJ31" s="0"/>
+      <c r="ALK31" s="0"/>
+      <c r="ALL31" s="0"/>
+      <c r="ALM31" s="0"/>
+      <c r="ALN31" s="0"/>
+      <c r="ALO31" s="0"/>
+      <c r="ALP31" s="0"/>
+      <c r="ALQ31" s="0"/>
+      <c r="ALR31" s="0"/>
+      <c r="ALS31" s="0"/>
+      <c r="ALT31" s="0"/>
+      <c r="ALU31" s="0"/>
+      <c r="ALV31" s="0"/>
+      <c r="ALW31" s="0"/>
+      <c r="ALX31" s="0"/>
+      <c r="ALY31" s="0"/>
+      <c r="ALZ31" s="0"/>
+      <c r="AMA31" s="0"/>
+      <c r="AMB31" s="0"/>
+      <c r="AMC31" s="0"/>
+      <c r="AMD31" s="0"/>
+      <c r="AME31" s="0"/>
+      <c r="AMF31" s="0"/>
+      <c r="AMG31" s="0"/>
+      <c r="AMH31" s="0"/>
+      <c r="AMI31" s="0"/>
+      <c r="AMJ31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="51" t="n">
+        <v>65856</v>
+      </c>
+      <c r="B32" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="53" t="s">
+        <v>240</v>
+      </c>
+      <c r="D32" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="E32" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="54" t="s">
+        <v>242</v>
+      </c>
+      <c r="G32" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="H32" s="55" t="n">
+        <v>42404</v>
+      </c>
+      <c r="I32" s="55" t="n">
+        <v>42404</v>
+      </c>
+      <c r="J32" s="56" t="n">
+        <v>44230</v>
+      </c>
+      <c r="K32" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="M32" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="N32" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="O32" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="P32" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q32" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="R32" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="S32" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="T32" s="53"/>
+      <c r="U32" s="54"/>
+      <c r="V32" s="53"/>
+      <c r="W32" s="54"/>
+      <c r="Y32" s="0"/>
+      <c r="Z32" s="0"/>
+      <c r="AA32" s="0"/>
+      <c r="AB32" s="0"/>
+      <c r="AC32" s="0"/>
+      <c r="AD32" s="0"/>
+      <c r="AE32" s="0"/>
+      <c r="AF32" s="0"/>
+      <c r="AG32" s="0"/>
+      <c r="AH32" s="0"/>
+      <c r="AI32" s="0"/>
+      <c r="AJ32" s="0"/>
+      <c r="AK32" s="0"/>
+      <c r="AL32" s="0"/>
+      <c r="AM32" s="0"/>
+      <c r="AN32" s="0"/>
+      <c r="AO32" s="0"/>
+      <c r="AP32" s="0"/>
+      <c r="AQ32" s="0"/>
+      <c r="AR32" s="0"/>
+      <c r="AS32" s="0"/>
+      <c r="AT32" s="0"/>
+      <c r="AU32" s="0"/>
+      <c r="AV32" s="0"/>
+      <c r="AW32" s="0"/>
+      <c r="AX32" s="0"/>
+      <c r="AY32" s="0"/>
+      <c r="AZ32" s="0"/>
+      <c r="BA32" s="0"/>
+      <c r="BB32" s="0"/>
+      <c r="BC32" s="0"/>
+      <c r="BD32" s="0"/>
+      <c r="BE32" s="0"/>
+      <c r="BF32" s="0"/>
+      <c r="BG32" s="0"/>
+      <c r="BH32" s="0"/>
+      <c r="BI32" s="0"/>
+      <c r="BJ32" s="0"/>
+      <c r="BK32" s="0"/>
+      <c r="BL32" s="0"/>
+      <c r="BM32" s="0"/>
+      <c r="BN32" s="0"/>
+      <c r="BO32" s="0"/>
+      <c r="BP32" s="0"/>
+      <c r="BQ32" s="0"/>
+      <c r="BR32" s="0"/>
+      <c r="BS32" s="0"/>
+      <c r="BT32" s="0"/>
+      <c r="BU32" s="0"/>
+      <c r="BV32" s="0"/>
+      <c r="BW32" s="0"/>
+      <c r="BX32" s="0"/>
+      <c r="BY32" s="0"/>
+      <c r="BZ32" s="0"/>
+      <c r="CA32" s="0"/>
+      <c r="CB32" s="0"/>
+      <c r="CC32" s="0"/>
+      <c r="CD32" s="0"/>
+      <c r="CE32" s="0"/>
+      <c r="CF32" s="0"/>
+      <c r="CG32" s="0"/>
+      <c r="CH32" s="0"/>
+      <c r="CI32" s="0"/>
+      <c r="CJ32" s="0"/>
+      <c r="CK32" s="0"/>
+      <c r="CL32" s="0"/>
+      <c r="CM32" s="0"/>
+      <c r="CN32" s="0"/>
+      <c r="CO32" s="0"/>
+      <c r="CP32" s="0"/>
+      <c r="CQ32" s="0"/>
+      <c r="CR32" s="0"/>
+      <c r="CS32" s="0"/>
+      <c r="CT32" s="0"/>
+      <c r="CU32" s="0"/>
+      <c r="CV32" s="0"/>
+      <c r="CW32" s="0"/>
+      <c r="CX32" s="0"/>
+      <c r="CY32" s="0"/>
+      <c r="CZ32" s="0"/>
+      <c r="DA32" s="0"/>
+      <c r="DB32" s="0"/>
+      <c r="DC32" s="0"/>
+      <c r="DD32" s="0"/>
+      <c r="DE32" s="0"/>
+      <c r="DF32" s="0"/>
+      <c r="DG32" s="0"/>
+      <c r="DH32" s="0"/>
+      <c r="DI32" s="0"/>
+      <c r="DJ32" s="0"/>
+      <c r="DK32" s="0"/>
+      <c r="DL32" s="0"/>
+      <c r="DM32" s="0"/>
+      <c r="DN32" s="0"/>
+      <c r="DO32" s="0"/>
+      <c r="DP32" s="0"/>
+      <c r="DQ32" s="0"/>
+      <c r="DR32" s="0"/>
+      <c r="DS32" s="0"/>
+      <c r="DT32" s="0"/>
+      <c r="DU32" s="0"/>
+      <c r="DV32" s="0"/>
+      <c r="DW32" s="0"/>
+      <c r="DX32" s="0"/>
+      <c r="DY32" s="0"/>
+      <c r="DZ32" s="0"/>
+      <c r="EA32" s="0"/>
+      <c r="EB32" s="0"/>
+      <c r="EC32" s="0"/>
+      <c r="ED32" s="0"/>
+      <c r="EE32" s="0"/>
+      <c r="EF32" s="0"/>
+      <c r="EG32" s="0"/>
+      <c r="EH32" s="0"/>
+      <c r="EI32" s="0"/>
+      <c r="EJ32" s="0"/>
+      <c r="EK32" s="0"/>
+      <c r="EL32" s="0"/>
+      <c r="EM32" s="0"/>
+      <c r="EN32" s="0"/>
+      <c r="EO32" s="0"/>
+      <c r="EP32" s="0"/>
+      <c r="EQ32" s="0"/>
+      <c r="ER32" s="0"/>
+      <c r="ES32" s="0"/>
+      <c r="ET32" s="0"/>
+      <c r="EU32" s="0"/>
+      <c r="EV32" s="0"/>
+      <c r="EW32" s="0"/>
+      <c r="EX32" s="0"/>
+      <c r="EY32" s="0"/>
+      <c r="EZ32" s="0"/>
+      <c r="FA32" s="0"/>
+      <c r="FB32" s="0"/>
+      <c r="FC32" s="0"/>
+      <c r="FD32" s="0"/>
+      <c r="FE32" s="0"/>
+      <c r="FF32" s="0"/>
+      <c r="FG32" s="0"/>
+      <c r="FH32" s="0"/>
+      <c r="FI32" s="0"/>
+      <c r="FJ32" s="0"/>
+      <c r="FK32" s="0"/>
+      <c r="FL32" s="0"/>
+      <c r="FM32" s="0"/>
+      <c r="FN32" s="0"/>
+      <c r="FO32" s="0"/>
+      <c r="FP32" s="0"/>
+      <c r="FQ32" s="0"/>
+      <c r="FR32" s="0"/>
+      <c r="FS32" s="0"/>
+      <c r="FT32" s="0"/>
+      <c r="FU32" s="0"/>
+      <c r="FV32" s="0"/>
+      <c r="FW32" s="0"/>
+      <c r="FX32" s="0"/>
+      <c r="FY32" s="0"/>
+      <c r="FZ32" s="0"/>
+      <c r="GA32" s="0"/>
+      <c r="GB32" s="0"/>
+      <c r="GC32" s="0"/>
+      <c r="GD32" s="0"/>
+      <c r="GE32" s="0"/>
+      <c r="GF32" s="0"/>
+      <c r="GG32" s="0"/>
+      <c r="GH32" s="0"/>
+      <c r="GI32" s="0"/>
+      <c r="GJ32" s="0"/>
+      <c r="GK32" s="0"/>
+      <c r="GL32" s="0"/>
+      <c r="GM32" s="0"/>
+      <c r="GN32" s="0"/>
+      <c r="GO32" s="0"/>
+      <c r="GP32" s="0"/>
+      <c r="GQ32" s="0"/>
+      <c r="GR32" s="0"/>
+      <c r="GS32" s="0"/>
+      <c r="GT32" s="0"/>
+      <c r="GU32" s="0"/>
+      <c r="GV32" s="0"/>
+      <c r="GW32" s="0"/>
+      <c r="GX32" s="0"/>
+      <c r="GY32" s="0"/>
+      <c r="GZ32" s="0"/>
+      <c r="HA32" s="0"/>
+      <c r="HB32" s="0"/>
+      <c r="HC32" s="0"/>
+      <c r="HD32" s="0"/>
+      <c r="HE32" s="0"/>
+      <c r="HF32" s="0"/>
+      <c r="HG32" s="0"/>
+      <c r="HH32" s="0"/>
+      <c r="HI32" s="0"/>
+      <c r="HJ32" s="0"/>
+      <c r="HK32" s="0"/>
+      <c r="HL32" s="0"/>
+      <c r="HM32" s="0"/>
+      <c r="HN32" s="0"/>
+      <c r="HO32" s="0"/>
+      <c r="HP32" s="0"/>
+      <c r="HQ32" s="0"/>
+      <c r="HR32" s="0"/>
+      <c r="HS32" s="0"/>
+      <c r="HT32" s="0"/>
+      <c r="HU32" s="0"/>
+      <c r="HV32" s="0"/>
+      <c r="HW32" s="0"/>
+      <c r="HX32" s="0"/>
+      <c r="HY32" s="0"/>
+      <c r="HZ32" s="0"/>
+      <c r="IA32" s="0"/>
+      <c r="IB32" s="0"/>
+      <c r="IC32" s="0"/>
+      <c r="ID32" s="0"/>
+      <c r="IE32" s="0"/>
+      <c r="IF32" s="0"/>
+      <c r="IG32" s="0"/>
+      <c r="IH32" s="0"/>
+      <c r="II32" s="0"/>
+      <c r="IJ32" s="0"/>
+      <c r="IK32" s="0"/>
+      <c r="IL32" s="0"/>
+      <c r="IM32" s="0"/>
+      <c r="IN32" s="0"/>
+      <c r="IO32" s="0"/>
+      <c r="IP32" s="0"/>
+      <c r="IQ32" s="0"/>
+      <c r="IR32" s="0"/>
+      <c r="IS32" s="0"/>
+      <c r="IT32" s="0"/>
+      <c r="IU32" s="0"/>
+      <c r="IV32" s="0"/>
+      <c r="IW32" s="0"/>
+      <c r="IX32" s="0"/>
+      <c r="IY32" s="0"/>
+      <c r="IZ32" s="0"/>
+      <c r="JA32" s="0"/>
+      <c r="JB32" s="0"/>
+      <c r="JC32" s="0"/>
+      <c r="JD32" s="0"/>
+      <c r="JE32" s="0"/>
+      <c r="JF32" s="0"/>
+      <c r="JG32" s="0"/>
+      <c r="JH32" s="0"/>
+      <c r="JI32" s="0"/>
+      <c r="JJ32" s="0"/>
+      <c r="JK32" s="0"/>
+      <c r="JL32" s="0"/>
+      <c r="JM32" s="0"/>
+      <c r="JN32" s="0"/>
+      <c r="JO32" s="0"/>
+      <c r="JP32" s="0"/>
+      <c r="JQ32" s="0"/>
+      <c r="JR32" s="0"/>
+      <c r="JS32" s="0"/>
+      <c r="JT32" s="0"/>
+      <c r="JU32" s="0"/>
+      <c r="JV32" s="0"/>
+      <c r="JW32" s="0"/>
+      <c r="JX32" s="0"/>
+      <c r="JY32" s="0"/>
+      <c r="JZ32" s="0"/>
+      <c r="KA32" s="0"/>
+      <c r="KB32" s="0"/>
+      <c r="KC32" s="0"/>
+      <c r="KD32" s="0"/>
+      <c r="KE32" s="0"/>
+      <c r="KF32" s="0"/>
+      <c r="KG32" s="0"/>
+      <c r="KH32" s="0"/>
+      <c r="KI32" s="0"/>
+      <c r="KJ32" s="0"/>
+      <c r="KK32" s="0"/>
+      <c r="KL32" s="0"/>
+      <c r="KM32" s="0"/>
+      <c r="KN32" s="0"/>
+      <c r="KO32" s="0"/>
+      <c r="KP32" s="0"/>
+      <c r="KQ32" s="0"/>
+      <c r="KR32" s="0"/>
+      <c r="KS32" s="0"/>
+      <c r="KT32" s="0"/>
+      <c r="KU32" s="0"/>
+      <c r="KV32" s="0"/>
+      <c r="KW32" s="0"/>
+      <c r="KX32" s="0"/>
+      <c r="KY32" s="0"/>
+      <c r="KZ32" s="0"/>
+      <c r="LA32" s="0"/>
+      <c r="LB32" s="0"/>
+      <c r="LC32" s="0"/>
+      <c r="LD32" s="0"/>
+      <c r="LE32" s="0"/>
+      <c r="LF32" s="0"/>
+      <c r="LG32" s="0"/>
+      <c r="LH32" s="0"/>
+      <c r="LI32" s="0"/>
+      <c r="LJ32" s="0"/>
+      <c r="LK32" s="0"/>
+      <c r="LL32" s="0"/>
+      <c r="LM32" s="0"/>
+      <c r="LN32" s="0"/>
+      <c r="LO32" s="0"/>
+      <c r="LP32" s="0"/>
+      <c r="LQ32" s="0"/>
+      <c r="LR32" s="0"/>
+      <c r="LS32" s="0"/>
+      <c r="LT32" s="0"/>
+      <c r="LU32" s="0"/>
+      <c r="LV32" s="0"/>
+      <c r="LW32" s="0"/>
+      <c r="LX32" s="0"/>
+      <c r="LY32" s="0"/>
+      <c r="LZ32" s="0"/>
+      <c r="MA32" s="0"/>
+      <c r="MB32" s="0"/>
+      <c r="MC32" s="0"/>
+      <c r="MD32" s="0"/>
+      <c r="ME32" s="0"/>
+      <c r="MF32" s="0"/>
+      <c r="MG32" s="0"/>
+      <c r="MH32" s="0"/>
+      <c r="MI32" s="0"/>
+      <c r="MJ32" s="0"/>
+      <c r="MK32" s="0"/>
+      <c r="ML32" s="0"/>
+      <c r="MM32" s="0"/>
+      <c r="MN32" s="0"/>
+      <c r="MO32" s="0"/>
+      <c r="MP32" s="0"/>
+      <c r="MQ32" s="0"/>
+      <c r="MR32" s="0"/>
+      <c r="MS32" s="0"/>
+      <c r="MT32" s="0"/>
+      <c r="MU32" s="0"/>
+      <c r="MV32" s="0"/>
+      <c r="MW32" s="0"/>
+      <c r="MX32" s="0"/>
+      <c r="MY32" s="0"/>
+      <c r="MZ32" s="0"/>
+      <c r="NA32" s="0"/>
+      <c r="NB32" s="0"/>
+      <c r="NC32" s="0"/>
+      <c r="ND32" s="0"/>
+      <c r="NE32" s="0"/>
+      <c r="NF32" s="0"/>
+      <c r="NG32" s="0"/>
+      <c r="NH32" s="0"/>
+      <c r="NI32" s="0"/>
+      <c r="NJ32" s="0"/>
+      <c r="NK32" s="0"/>
+      <c r="NL32" s="0"/>
+      <c r="NM32" s="0"/>
+      <c r="NN32" s="0"/>
+      <c r="NO32" s="0"/>
+      <c r="NP32" s="0"/>
+      <c r="NQ32" s="0"/>
+      <c r="NR32" s="0"/>
+      <c r="NS32" s="0"/>
+      <c r="NT32" s="0"/>
+      <c r="NU32" s="0"/>
+      <c r="NV32" s="0"/>
+      <c r="NW32" s="0"/>
+      <c r="NX32" s="0"/>
+      <c r="NY32" s="0"/>
+      <c r="NZ32" s="0"/>
+      <c r="OA32" s="0"/>
+      <c r="OB32" s="0"/>
+      <c r="OC32" s="0"/>
+      <c r="OD32" s="0"/>
+      <c r="OE32" s="0"/>
+      <c r="OF32" s="0"/>
+      <c r="OG32" s="0"/>
+      <c r="OH32" s="0"/>
+      <c r="OI32" s="0"/>
+      <c r="OJ32" s="0"/>
+      <c r="OK32" s="0"/>
+      <c r="OL32" s="0"/>
+      <c r="OM32" s="0"/>
+      <c r="ON32" s="0"/>
+      <c r="OO32" s="0"/>
+      <c r="OP32" s="0"/>
+      <c r="OQ32" s="0"/>
+      <c r="OR32" s="0"/>
+      <c r="OS32" s="0"/>
+      <c r="OT32" s="0"/>
+      <c r="OU32" s="0"/>
+      <c r="OV32" s="0"/>
+      <c r="OW32" s="0"/>
+      <c r="OX32" s="0"/>
+      <c r="OY32" s="0"/>
+      <c r="OZ32" s="0"/>
+      <c r="PA32" s="0"/>
+      <c r="PB32" s="0"/>
+      <c r="PC32" s="0"/>
+      <c r="PD32" s="0"/>
+      <c r="PE32" s="0"/>
+      <c r="PF32" s="0"/>
+      <c r="PG32" s="0"/>
+      <c r="PH32" s="0"/>
+      <c r="PI32" s="0"/>
+      <c r="PJ32" s="0"/>
+      <c r="PK32" s="0"/>
+      <c r="PL32" s="0"/>
+      <c r="PM32" s="0"/>
+      <c r="PN32" s="0"/>
+      <c r="PO32" s="0"/>
+      <c r="PP32" s="0"/>
+      <c r="PQ32" s="0"/>
+      <c r="PR32" s="0"/>
+      <c r="PS32" s="0"/>
+      <c r="PT32" s="0"/>
+      <c r="PU32" s="0"/>
+      <c r="PV32" s="0"/>
+      <c r="PW32" s="0"/>
+      <c r="PX32" s="0"/>
+      <c r="PY32" s="0"/>
+      <c r="PZ32" s="0"/>
+      <c r="QA32" s="0"/>
+      <c r="QB32" s="0"/>
+      <c r="QC32" s="0"/>
+      <c r="QD32" s="0"/>
+      <c r="QE32" s="0"/>
+      <c r="QF32" s="0"/>
+      <c r="QG32" s="0"/>
+      <c r="QH32" s="0"/>
+      <c r="QI32" s="0"/>
+      <c r="QJ32" s="0"/>
+      <c r="QK32" s="0"/>
+      <c r="QL32" s="0"/>
+      <c r="QM32" s="0"/>
+      <c r="QN32" s="0"/>
+      <c r="QO32" s="0"/>
+      <c r="QP32" s="0"/>
+      <c r="QQ32" s="0"/>
+      <c r="QR32" s="0"/>
+      <c r="QS32" s="0"/>
+      <c r="QT32" s="0"/>
+      <c r="QU32" s="0"/>
+      <c r="QV32" s="0"/>
+      <c r="QW32" s="0"/>
+      <c r="QX32" s="0"/>
+      <c r="QY32" s="0"/>
+      <c r="QZ32" s="0"/>
+      <c r="RA32" s="0"/>
+      <c r="RB32" s="0"/>
+      <c r="RC32" s="0"/>
+      <c r="RD32" s="0"/>
+      <c r="RE32" s="0"/>
+      <c r="RF32" s="0"/>
+      <c r="RG32" s="0"/>
+      <c r="RH32" s="0"/>
+      <c r="RI32" s="0"/>
+      <c r="RJ32" s="0"/>
+      <c r="RK32" s="0"/>
+      <c r="RL32" s="0"/>
+      <c r="RM32" s="0"/>
+      <c r="RN32" s="0"/>
+      <c r="RO32" s="0"/>
+      <c r="RP32" s="0"/>
+      <c r="RQ32" s="0"/>
+      <c r="RR32" s="0"/>
+      <c r="RS32" s="0"/>
+      <c r="RT32" s="0"/>
+      <c r="RU32" s="0"/>
+      <c r="RV32" s="0"/>
+      <c r="RW32" s="0"/>
+      <c r="RX32" s="0"/>
+      <c r="RY32" s="0"/>
+      <c r="RZ32" s="0"/>
+      <c r="SA32" s="0"/>
+      <c r="SB32" s="0"/>
+      <c r="SC32" s="0"/>
+      <c r="SD32" s="0"/>
+      <c r="SE32" s="0"/>
+      <c r="SF32" s="0"/>
+      <c r="SG32" s="0"/>
+      <c r="SH32" s="0"/>
+      <c r="SI32" s="0"/>
+      <c r="SJ32" s="0"/>
+      <c r="SK32" s="0"/>
+      <c r="SL32" s="0"/>
+      <c r="SM32" s="0"/>
+      <c r="SN32" s="0"/>
+      <c r="SO32" s="0"/>
+      <c r="SP32" s="0"/>
+      <c r="SQ32" s="0"/>
+      <c r="SR32" s="0"/>
+      <c r="SS32" s="0"/>
+      <c r="ST32" s="0"/>
+      <c r="SU32" s="0"/>
+      <c r="SV32" s="0"/>
+      <c r="SW32" s="0"/>
+      <c r="SX32" s="0"/>
+      <c r="SY32" s="0"/>
+      <c r="SZ32" s="0"/>
+      <c r="TA32" s="0"/>
+      <c r="TB32" s="0"/>
+      <c r="TC32" s="0"/>
+      <c r="TD32" s="0"/>
+      <c r="TE32" s="0"/>
+      <c r="TF32" s="0"/>
+      <c r="TG32" s="0"/>
+      <c r="TH32" s="0"/>
+      <c r="TI32" s="0"/>
+      <c r="TJ32" s="0"/>
+      <c r="TK32" s="0"/>
+      <c r="TL32" s="0"/>
+      <c r="TM32" s="0"/>
+      <c r="TN32" s="0"/>
+      <c r="TO32" s="0"/>
+      <c r="TP32" s="0"/>
+      <c r="TQ32" s="0"/>
+      <c r="TR32" s="0"/>
+      <c r="TS32" s="0"/>
+      <c r="TT32" s="0"/>
+      <c r="TU32" s="0"/>
+      <c r="TV32" s="0"/>
+      <c r="TW32" s="0"/>
+      <c r="TX32" s="0"/>
+      <c r="TY32" s="0"/>
+      <c r="TZ32" s="0"/>
+      <c r="UA32" s="0"/>
+      <c r="UB32" s="0"/>
+      <c r="UC32" s="0"/>
+      <c r="UD32" s="0"/>
+      <c r="UE32" s="0"/>
+      <c r="UF32" s="0"/>
+      <c r="UG32" s="0"/>
+      <c r="UH32" s="0"/>
+      <c r="UI32" s="0"/>
+      <c r="UJ32" s="0"/>
+      <c r="UK32" s="0"/>
+      <c r="UL32" s="0"/>
+      <c r="UM32" s="0"/>
+      <c r="UN32" s="0"/>
+      <c r="UO32" s="0"/>
+      <c r="UP32" s="0"/>
+      <c r="UQ32" s="0"/>
+      <c r="UR32" s="0"/>
+      <c r="US32" s="0"/>
+      <c r="UT32" s="0"/>
+      <c r="UU32" s="0"/>
+      <c r="UV32" s="0"/>
+      <c r="UW32" s="0"/>
+      <c r="UX32" s="0"/>
+      <c r="UY32" s="0"/>
+      <c r="UZ32" s="0"/>
+      <c r="VA32" s="0"/>
+      <c r="VB32" s="0"/>
+      <c r="VC32" s="0"/>
+      <c r="VD32" s="0"/>
+      <c r="VE32" s="0"/>
+      <c r="VF32" s="0"/>
+      <c r="VG32" s="0"/>
+      <c r="VH32" s="0"/>
+      <c r="VI32" s="0"/>
+      <c r="VJ32" s="0"/>
+      <c r="VK32" s="0"/>
+      <c r="VL32" s="0"/>
+      <c r="VM32" s="0"/>
+      <c r="VN32" s="0"/>
+      <c r="VO32" s="0"/>
+      <c r="VP32" s="0"/>
+      <c r="VQ32" s="0"/>
+      <c r="VR32" s="0"/>
+      <c r="VS32" s="0"/>
+      <c r="VT32" s="0"/>
+      <c r="VU32" s="0"/>
+      <c r="VV32" s="0"/>
+      <c r="VW32" s="0"/>
+      <c r="VX32" s="0"/>
+      <c r="VY32" s="0"/>
+      <c r="VZ32" s="0"/>
+      <c r="WA32" s="0"/>
+      <c r="WB32" s="0"/>
+      <c r="WC32" s="0"/>
+      <c r="WD32" s="0"/>
+      <c r="WE32" s="0"/>
+      <c r="WF32" s="0"/>
+      <c r="WG32" s="0"/>
+      <c r="WH32" s="0"/>
+      <c r="WI32" s="0"/>
+      <c r="WJ32" s="0"/>
+      <c r="WK32" s="0"/>
+      <c r="WL32" s="0"/>
+      <c r="WM32" s="0"/>
+      <c r="WN32" s="0"/>
+      <c r="WO32" s="0"/>
+      <c r="WP32" s="0"/>
+      <c r="WQ32" s="0"/>
+      <c r="WR32" s="0"/>
+      <c r="WS32" s="0"/>
+      <c r="WT32" s="0"/>
+      <c r="WU32" s="0"/>
+      <c r="WV32" s="0"/>
+      <c r="WW32" s="0"/>
+      <c r="WX32" s="0"/>
+      <c r="WY32" s="0"/>
+      <c r="WZ32" s="0"/>
+      <c r="XA32" s="0"/>
+      <c r="XB32" s="0"/>
+      <c r="XC32" s="0"/>
+      <c r="XD32" s="0"/>
+      <c r="XE32" s="0"/>
+      <c r="XF32" s="0"/>
+      <c r="XG32" s="0"/>
+      <c r="XH32" s="0"/>
+      <c r="XI32" s="0"/>
+      <c r="XJ32" s="0"/>
+      <c r="XK32" s="0"/>
+      <c r="XL32" s="0"/>
+      <c r="XM32" s="0"/>
+      <c r="XN32" s="0"/>
+      <c r="XO32" s="0"/>
+      <c r="XP32" s="0"/>
+      <c r="XQ32" s="0"/>
+      <c r="XR32" s="0"/>
+      <c r="XS32" s="0"/>
+      <c r="XT32" s="0"/>
+      <c r="XU32" s="0"/>
+      <c r="XV32" s="0"/>
+      <c r="XW32" s="0"/>
+      <c r="XX32" s="0"/>
+      <c r="XY32" s="0"/>
+      <c r="XZ32" s="0"/>
+      <c r="YA32" s="0"/>
+      <c r="YB32" s="0"/>
+      <c r="YC32" s="0"/>
+      <c r="YD32" s="0"/>
+      <c r="YE32" s="0"/>
+      <c r="YF32" s="0"/>
+      <c r="YG32" s="0"/>
+      <c r="YH32" s="0"/>
+      <c r="YI32" s="0"/>
+      <c r="YJ32" s="0"/>
+      <c r="YK32" s="0"/>
+      <c r="YL32" s="0"/>
+      <c r="YM32" s="0"/>
+      <c r="YN32" s="0"/>
+      <c r="YO32" s="0"/>
+      <c r="YP32" s="0"/>
+      <c r="YQ32" s="0"/>
+      <c r="YR32" s="0"/>
+      <c r="YS32" s="0"/>
+      <c r="YT32" s="0"/>
+      <c r="YU32" s="0"/>
+      <c r="YV32" s="0"/>
+      <c r="YW32" s="0"/>
+      <c r="YX32" s="0"/>
+      <c r="YY32" s="0"/>
+      <c r="YZ32" s="0"/>
+      <c r="ZA32" s="0"/>
+      <c r="ZB32" s="0"/>
+      <c r="ZC32" s="0"/>
+      <c r="ZD32" s="0"/>
+      <c r="ZE32" s="0"/>
+      <c r="ZF32" s="0"/>
+      <c r="ZG32" s="0"/>
+      <c r="ZH32" s="0"/>
+      <c r="ZI32" s="0"/>
+      <c r="ZJ32" s="0"/>
+      <c r="ZK32" s="0"/>
+      <c r="ZL32" s="0"/>
+      <c r="ZM32" s="0"/>
+      <c r="ZN32" s="0"/>
+      <c r="ZO32" s="0"/>
+      <c r="ZP32" s="0"/>
+      <c r="ZQ32" s="0"/>
+      <c r="ZR32" s="0"/>
+      <c r="ZS32" s="0"/>
+      <c r="ZT32" s="0"/>
+      <c r="ZU32" s="0"/>
+      <c r="ZV32" s="0"/>
+      <c r="ZW32" s="0"/>
+      <c r="ZX32" s="0"/>
+      <c r="ZY32" s="0"/>
+      <c r="ZZ32" s="0"/>
+      <c r="AAA32" s="0"/>
+      <c r="AAB32" s="0"/>
+      <c r="AAC32" s="0"/>
+      <c r="AAD32" s="0"/>
+      <c r="AAE32" s="0"/>
+      <c r="AAF32" s="0"/>
+      <c r="AAG32" s="0"/>
+      <c r="AAH32" s="0"/>
+      <c r="AAI32" s="0"/>
+      <c r="AAJ32" s="0"/>
+      <c r="AAK32" s="0"/>
+      <c r="AAL32" s="0"/>
+      <c r="AAM32" s="0"/>
+      <c r="AAN32" s="0"/>
+      <c r="AAO32" s="0"/>
+      <c r="AAP32" s="0"/>
+      <c r="AAQ32" s="0"/>
+      <c r="AAR32" s="0"/>
+      <c r="AAS32" s="0"/>
+      <c r="AAT32" s="0"/>
+      <c r="AAU32" s="0"/>
+      <c r="AAV32" s="0"/>
+      <c r="AAW32" s="0"/>
+      <c r="AAX32" s="0"/>
+      <c r="AAY32" s="0"/>
+      <c r="AAZ32" s="0"/>
+      <c r="ABA32" s="0"/>
+      <c r="ABB32" s="0"/>
+      <c r="ABC32" s="0"/>
+      <c r="ABD32" s="0"/>
+      <c r="ABE32" s="0"/>
+      <c r="ABF32" s="0"/>
+      <c r="ABG32" s="0"/>
+      <c r="ABH32" s="0"/>
+      <c r="ABI32" s="0"/>
+      <c r="ABJ32" s="0"/>
+      <c r="ABK32" s="0"/>
+      <c r="ABL32" s="0"/>
+      <c r="ABM32" s="0"/>
+      <c r="ABN32" s="0"/>
+      <c r="ABO32" s="0"/>
+      <c r="ABP32" s="0"/>
+      <c r="ABQ32" s="0"/>
+      <c r="ABR32" s="0"/>
+      <c r="ABS32" s="0"/>
+      <c r="ABT32" s="0"/>
+      <c r="ABU32" s="0"/>
+      <c r="ABV32" s="0"/>
+      <c r="ABW32" s="0"/>
+      <c r="ABX32" s="0"/>
+      <c r="ABY32" s="0"/>
+      <c r="ABZ32" s="0"/>
+      <c r="ACA32" s="0"/>
+      <c r="ACB32" s="0"/>
+      <c r="ACC32" s="0"/>
+      <c r="ACD32" s="0"/>
+      <c r="ACE32" s="0"/>
+      <c r="ACF32" s="0"/>
+      <c r="ACG32" s="0"/>
+      <c r="ACH32" s="0"/>
+      <c r="ACI32" s="0"/>
+      <c r="ACJ32" s="0"/>
+      <c r="ACK32" s="0"/>
+      <c r="ACL32" s="0"/>
+      <c r="ACM32" s="0"/>
+      <c r="ACN32" s="0"/>
+      <c r="ACO32" s="0"/>
+      <c r="ACP32" s="0"/>
+      <c r="ACQ32" s="0"/>
+      <c r="ACR32" s="0"/>
+      <c r="ACS32" s="0"/>
+      <c r="ACT32" s="0"/>
+      <c r="ACU32" s="0"/>
+      <c r="ACV32" s="0"/>
+      <c r="ACW32" s="0"/>
+      <c r="ACX32" s="0"/>
+      <c r="ACY32" s="0"/>
+      <c r="ACZ32" s="0"/>
+      <c r="ADA32" s="0"/>
+      <c r="ADB32" s="0"/>
+      <c r="ADC32" s="0"/>
+      <c r="ADD32" s="0"/>
+      <c r="ADE32" s="0"/>
+      <c r="ADF32" s="0"/>
+      <c r="ADG32" s="0"/>
+      <c r="ADH32" s="0"/>
+      <c r="ADI32" s="0"/>
+      <c r="ADJ32" s="0"/>
+      <c r="ADK32" s="0"/>
+      <c r="ADL32" s="0"/>
+      <c r="ADM32" s="0"/>
+      <c r="ADN32" s="0"/>
+      <c r="ADO32" s="0"/>
+      <c r="ADP32" s="0"/>
+      <c r="ADQ32" s="0"/>
+      <c r="ADR32" s="0"/>
+      <c r="ADS32" s="0"/>
+      <c r="ADT32" s="0"/>
+      <c r="ADU32" s="0"/>
+      <c r="ADV32" s="0"/>
+      <c r="ADW32" s="0"/>
+      <c r="ADX32" s="0"/>
+      <c r="ADY32" s="0"/>
+      <c r="ADZ32" s="0"/>
+      <c r="AEA32" s="0"/>
+      <c r="AEB32" s="0"/>
+      <c r="AEC32" s="0"/>
+      <c r="AED32" s="0"/>
+      <c r="AEE32" s="0"/>
+      <c r="AEF32" s="0"/>
+      <c r="AEG32" s="0"/>
+      <c r="AEH32" s="0"/>
+      <c r="AEI32" s="0"/>
+      <c r="AEJ32" s="0"/>
+      <c r="AEK32" s="0"/>
+      <c r="AEL32" s="0"/>
+      <c r="AEM32" s="0"/>
+      <c r="AEN32" s="0"/>
+      <c r="AEO32" s="0"/>
+      <c r="AEP32" s="0"/>
+      <c r="AEQ32" s="0"/>
+      <c r="AER32" s="0"/>
+      <c r="AES32" s="0"/>
+      <c r="AET32" s="0"/>
+      <c r="AEU32" s="0"/>
+      <c r="AEV32" s="0"/>
+      <c r="AEW32" s="0"/>
+      <c r="AEX32" s="0"/>
+      <c r="AEY32" s="0"/>
+      <c r="AEZ32" s="0"/>
+      <c r="AFA32" s="0"/>
+      <c r="AFB32" s="0"/>
+      <c r="AFC32" s="0"/>
+      <c r="AFD32" s="0"/>
+      <c r="AFE32" s="0"/>
+      <c r="AFF32" s="0"/>
+      <c r="AFG32" s="0"/>
+      <c r="AFH32" s="0"/>
+      <c r="AFI32" s="0"/>
+      <c r="AFJ32" s="0"/>
+      <c r="AFK32" s="0"/>
+      <c r="AFL32" s="0"/>
+      <c r="AFM32" s="0"/>
+      <c r="AFN32" s="0"/>
+      <c r="AFO32" s="0"/>
+      <c r="AFP32" s="0"/>
+      <c r="AFQ32" s="0"/>
+      <c r="AFR32" s="0"/>
+      <c r="AFS32" s="0"/>
+      <c r="AFT32" s="0"/>
+      <c r="AFU32" s="0"/>
+      <c r="AFV32" s="0"/>
+      <c r="AFW32" s="0"/>
+      <c r="AFX32" s="0"/>
+      <c r="AFY32" s="0"/>
+      <c r="AFZ32" s="0"/>
+      <c r="AGA32" s="0"/>
+      <c r="AGB32" s="0"/>
+      <c r="AGC32" s="0"/>
+      <c r="AGD32" s="0"/>
+      <c r="AGE32" s="0"/>
+      <c r="AGF32" s="0"/>
+      <c r="AGG32" s="0"/>
+      <c r="AGH32" s="0"/>
+      <c r="AGI32" s="0"/>
+      <c r="AGJ32" s="0"/>
+      <c r="AGK32" s="0"/>
+      <c r="AGL32" s="0"/>
+      <c r="AGM32" s="0"/>
+      <c r="AGN32" s="0"/>
+      <c r="AGO32" s="0"/>
+      <c r="AGP32" s="0"/>
+      <c r="AGQ32" s="0"/>
+      <c r="AGR32" s="0"/>
+      <c r="AGS32" s="0"/>
+      <c r="AGT32" s="0"/>
+      <c r="AGU32" s="0"/>
+      <c r="AGV32" s="0"/>
+      <c r="AGW32" s="0"/>
+      <c r="AGX32" s="0"/>
+      <c r="AGY32" s="0"/>
+      <c r="AGZ32" s="0"/>
+      <c r="AHA32" s="0"/>
+      <c r="AHB32" s="0"/>
+      <c r="AHC32" s="0"/>
+      <c r="AHD32" s="0"/>
+      <c r="AHE32" s="0"/>
+      <c r="AHF32" s="0"/>
+      <c r="AHG32" s="0"/>
+      <c r="AHH32" s="0"/>
+      <c r="AHI32" s="0"/>
+      <c r="AHJ32" s="0"/>
+      <c r="AHK32" s="0"/>
+      <c r="AHL32" s="0"/>
+      <c r="AHM32" s="0"/>
+      <c r="AHN32" s="0"/>
+      <c r="AHO32" s="0"/>
+      <c r="AHP32" s="0"/>
+      <c r="AHQ32" s="0"/>
+      <c r="AHR32" s="0"/>
+      <c r="AHS32" s="0"/>
+      <c r="AHT32" s="0"/>
+      <c r="AHU32" s="0"/>
+      <c r="AHV32" s="0"/>
+      <c r="AHW32" s="0"/>
+      <c r="AHX32" s="0"/>
+      <c r="AHY32" s="0"/>
+      <c r="AHZ32" s="0"/>
+      <c r="AIA32" s="0"/>
+      <c r="AIB32" s="0"/>
+      <c r="AIC32" s="0"/>
+      <c r="AID32" s="0"/>
+      <c r="AIE32" s="0"/>
+      <c r="AIF32" s="0"/>
+      <c r="AIG32" s="0"/>
+      <c r="AIH32" s="0"/>
+      <c r="AII32" s="0"/>
+      <c r="AIJ32" s="0"/>
+      <c r="AIK32" s="0"/>
+      <c r="AIL32" s="0"/>
+      <c r="AIM32" s="0"/>
+      <c r="AIN32" s="0"/>
+      <c r="AIO32" s="0"/>
+      <c r="AIP32" s="0"/>
+      <c r="AIQ32" s="0"/>
+      <c r="AIR32" s="0"/>
+      <c r="AIS32" s="0"/>
+      <c r="AIT32" s="0"/>
+      <c r="AIU32" s="0"/>
+      <c r="AIV32" s="0"/>
+      <c r="AIW32" s="0"/>
+      <c r="AIX32" s="0"/>
+      <c r="AIY32" s="0"/>
+      <c r="AIZ32" s="0"/>
+      <c r="AJA32" s="0"/>
+      <c r="AJB32" s="0"/>
+      <c r="AJC32" s="0"/>
+      <c r="AJD32" s="0"/>
+      <c r="AJE32" s="0"/>
+      <c r="AJF32" s="0"/>
+      <c r="AJG32" s="0"/>
+      <c r="AJH32" s="0"/>
+      <c r="AJI32" s="0"/>
+      <c r="AJJ32" s="0"/>
+      <c r="AJK32" s="0"/>
+      <c r="AJL32" s="0"/>
+      <c r="AJM32" s="0"/>
+      <c r="AJN32" s="0"/>
+      <c r="AJO32" s="0"/>
+      <c r="AJP32" s="0"/>
+      <c r="AJQ32" s="0"/>
+      <c r="AJR32" s="0"/>
+      <c r="AJS32" s="0"/>
+      <c r="AJT32" s="0"/>
+      <c r="AJU32" s="0"/>
+      <c r="AJV32" s="0"/>
+      <c r="AJW32" s="0"/>
+      <c r="AJX32" s="0"/>
+      <c r="AJY32" s="0"/>
+      <c r="AJZ32" s="0"/>
+      <c r="AKA32" s="0"/>
+      <c r="AKB32" s="0"/>
+      <c r="AKC32" s="0"/>
+      <c r="AKD32" s="0"/>
+      <c r="AKE32" s="0"/>
+      <c r="AKF32" s="0"/>
+      <c r="AKG32" s="0"/>
+      <c r="AKH32" s="0"/>
+      <c r="AKI32" s="0"/>
+      <c r="AKJ32" s="0"/>
+      <c r="AKK32" s="0"/>
+      <c r="AKL32" s="0"/>
+      <c r="AKM32" s="0"/>
+      <c r="AKN32" s="0"/>
+      <c r="AKO32" s="0"/>
+      <c r="AKP32" s="0"/>
+      <c r="AKQ32" s="0"/>
+      <c r="AKR32" s="0"/>
+      <c r="AKS32" s="0"/>
+      <c r="AKT32" s="0"/>
+      <c r="AKU32" s="0"/>
+      <c r="AKV32" s="0"/>
+      <c r="AKW32" s="0"/>
+      <c r="AKX32" s="0"/>
+      <c r="AKY32" s="0"/>
+      <c r="AKZ32" s="0"/>
+      <c r="ALA32" s="0"/>
+      <c r="ALB32" s="0"/>
+      <c r="ALC32" s="0"/>
+      <c r="ALD32" s="0"/>
+      <c r="ALE32" s="0"/>
+      <c r="ALF32" s="0"/>
+      <c r="ALG32" s="0"/>
+      <c r="ALH32" s="0"/>
+      <c r="ALI32" s="0"/>
+      <c r="ALJ32" s="0"/>
+      <c r="ALK32" s="0"/>
+      <c r="ALL32" s="0"/>
+      <c r="ALM32" s="0"/>
+      <c r="ALN32" s="0"/>
+      <c r="ALO32" s="0"/>
+      <c r="ALP32" s="0"/>
+      <c r="ALQ32" s="0"/>
+      <c r="ALR32" s="0"/>
+      <c r="ALS32" s="0"/>
+      <c r="ALT32" s="0"/>
+      <c r="ALU32" s="0"/>
+      <c r="ALV32" s="0"/>
+      <c r="ALW32" s="0"/>
+      <c r="ALX32" s="0"/>
+      <c r="ALY32" s="0"/>
+      <c r="ALZ32" s="0"/>
+      <c r="AMA32" s="0"/>
+      <c r="AMB32" s="0"/>
+      <c r="AMC32" s="0"/>
+      <c r="AMD32" s="0"/>
+      <c r="AME32" s="0"/>
+      <c r="AMF32" s="0"/>
+      <c r="AMG32" s="0"/>
+      <c r="AMH32" s="0"/>
+      <c r="AMI32" s="0"/>
+      <c r="AMJ32" s="0"/>
+    </row>
+    <row r="33" s="58" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="51" t="n">
+        <v>65857</v>
+      </c>
+      <c r="B33" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="53" t="s">
+        <v>247</v>
+      </c>
+      <c r="D33" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="E33" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="54" t="s">
+        <v>242</v>
+      </c>
+      <c r="G33" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="H33" s="55" t="n">
+        <v>42929</v>
+      </c>
+      <c r="I33" s="55" t="n">
+        <v>42929</v>
+      </c>
+      <c r="J33" s="56" t="n">
+        <v>44754</v>
+      </c>
+      <c r="K33" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="M33" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="N33" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="O33" s="54" t="s">
+        <v>248</v>
+      </c>
+      <c r="P33" s="54" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q33" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="R33" s="53" t="s">
+        <v>249</v>
+      </c>
+      <c r="S33" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="T33" s="53"/>
+      <c r="U33" s="54"/>
+      <c r="V33" s="53"/>
+      <c r="W33" s="54"/>
+    </row>
+    <row r="34" s="58" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="51" t="n">
+        <v>65857</v>
+      </c>
+      <c r="B34" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="53" t="s">
+        <v>247</v>
+      </c>
+      <c r="D34" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="E34" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="54" t="s">
+        <v>242</v>
+      </c>
+      <c r="G34" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="H34" s="55" t="n">
+        <v>42929</v>
+      </c>
+      <c r="I34" s="55" t="n">
+        <v>42929</v>
+      </c>
+      <c r="J34" s="56" t="n">
+        <v>44754</v>
+      </c>
+      <c r="K34" s="57" t="n">
+        <v>2</v>
+      </c>
+      <c r="L34" s="51" t="s">
+        <v>250</v>
+      </c>
+      <c r="M34" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="N34" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="O34" s="54" t="s">
+        <v>248</v>
+      </c>
+      <c r="P34" s="54" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q34" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="R34" s="53" t="s">
+        <v>249</v>
+      </c>
+      <c r="S34" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="T34" s="53"/>
+      <c r="U34" s="54"/>
+      <c r="V34" s="53"/>
+      <c r="W34" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5894,7 +9434,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.340277777777778" right="0" top="0.275694444444444" bottom="0.472222222222222" header="0.511805555555555" footer="0.0784722222222222"/>
-  <pageSetup paperSize="8" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="8" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter>&amp;C&amp;9Swissmedic · Hallerstrasse 7 · CH-3000 Bern 9 · www.swissmedic.ch · Tel. +41 58 462 02 11 · Fax +41 58 462 02 12&amp;R&amp;9&amp;P/&amp;N</oddFooter>

--- a/spec/data/swissmedic_package.xlsx
+++ b/spec/data/swissmedic_package.xlsx
@@ -15,6 +15,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">'Zugelassene Packungen'!$5:$5</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0" vbProcedure="false">'Zugelassene Packungen'!$5:$5</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0" vbProcedure="false">'Zugelassene Packungen'!$5:$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0" vbProcedure="false">'Zugelassene Packungen'!$5:$5</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="274">
   <si>
     <t xml:space="preserve">Zugelassene Packungen / Conditionnements autorisés</t>
   </si>
@@ -595,31 +596,34 @@
     <t xml:space="preserve">linezolidum 600 mg, excipiens pro compresso obducto.</t>
   </si>
   <si>
-    <t xml:space="preserve">Diaphin 10 g i.v., Injektionspräparat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DiaMo Narcotics GmbH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.3.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N07BC06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diamorphinum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diamorphini hydrochloridum monohydricum 10 g corresp. diamorphinum 8.71 g pro vitro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ergänzung der Behandlung von schwer heroinabhängigen Personen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d</t>
+    <t xml:space="preserve">Coop Vitality Bronchialpastillen mit Codein, Pastillen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coop Vitality Health Care GmbH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03.03.1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R05DA04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stück</t>
+  </si>
+  <si>
+    <t xml:space="preserve">codeini phosphas hemihydricus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">codeini phosphas hemihydricus 3 mg, arom.: eucalypti aetheroleum, balsami tolutani sirupus, anisi stellati aetheroleum, levomentholum, anisi aetheroleum, liquiritiae succus, aspartamum, color.: E 150, conserv.: E 202, E 219, excipiens pro pastillo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Husten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
   </si>
   <si>
     <t xml:space="preserve">Nutriflex Lipid plus, Infusionsemulsion, 1250ml</t>
@@ -851,6 +855,78 @@
   </si>
   <si>
     <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caverject DC 20, Injektionspräparat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pfizer PFE Switzerland GmbH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Praeparatio cryodesiccata: alprostadilum 20 µg, alfadexum, lactosum anhydricum, natrii citras dihydricus, pro vitro.
+Solvens: conserv.: alcohol benzylicus 4.45 mg, aqua ad iniectabilia q.s. ad solutionem pro 0.5 ml.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 x 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nutriflex Omega special, Infusionsemulsion 2500 ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 x 2500 ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I) Glucoselösung: glucosum anhydricum 360 g ut glucosum monohydricum, natrii dihydrogenophosphas dihydricus 6.24 g, zinci acetas dihydricus 17.56 mg, aqua ad iniectabilia q.s. ad solutionem pro 1000 ml.
+II) Fettemulsion: sojae oleum 40 g, triglycerida saturata media 50 g, omega-3 acidorum triglycerida 10 g, glycerolum, lecithinum ex ovo, natrii oleas, antiox.: E 307 100 mg, aqua ad iniectabilia q.s. ad emulsionem pro 500 ml.
+III) Aminosäurenlösung: isoleucinum 8.21 g, leucinum 10.96 g, lysinum anhydricum 7.95 g ut lysinum monohydricum, methioninum 6.84 g, phenylalaninum 12.29 g, threoninum 6.35 g, tryptophanum 2 g, valinum 9.01 g, argininum 9.45 g, histidinum 4.38 g ut histidini hydrochloridum monohydricum, alaninum 16.98 g, acidum asparticum 5.25 g, acidum glutamicum 12.27 g, glycinum 5.78 g, prolinum 11.9 g, serinum 10.5 g, natrii hydroxidum 2.928 g, natrii chloridum 946 mg, natrii acetas trihydricus 626 mg, kalii acetas 9.222 g, magnesii acetas tetrahydricus 2.274 g, calcii chloridum dihydricum 1.558 g, aqua ad iniectabilia q.s. ad solutionem pro 1000 ml.
+.
+I) et II) et III) corresp.: aminoacida 57.44 g/l, nitrogenia 8 g/l, carbohydrata 144 g/l, materia crassa 40 g/l, natrium 53.6 mmol/l, kalium 37.6 mmol/l, magnesium 4.24 mmol/l, calcium 4.24 mmol/l, zincum 0.032 mmol/l, chloridum 48 mmol/l, phosphas 16 mmol/l, acetas 48 mmol/l, in emulsione recenter mixta 1000 ml.
+Corresp. 4941 kJ pro 1 l.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yondelis 0,25 mg, Pulver zur Herstellung eines Infusionslösungskonzentrats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PharmaMar AG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L01CX01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trabectedinum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Praeparatio cryodesiccata: trabectedinum 0.25 mg, saccharum, kalii dihydrogenophosphas, pro vitro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behandlung von Patienten mit Liposarkom und Leiomyosarkom nach Versagen oder Intoleranz von Anthrazyklinien und Ifosfamid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diaphin 10 g i.v., Injektionspräparat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DiaMo Narcotics GmbH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.01.3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N07BC06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diamorphinum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diamorphini hydrochloridum monohydricum 10 g corresp. diamorphinum 8.71 g pro vitro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ergänzung der Behandlung von schwer heroinabhängigen Personen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1129,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1198,36 +1274,32 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1250,7 +1322,11 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1258,36 +1334,32 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1375,9 +1447,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>445320</xdr:colOff>
+      <xdr:colOff>444960</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>37440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1391,7 +1463,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="36360" y="360"/>
-          <a:ext cx="1685880" cy="570600"/>
+          <a:ext cx="1685520" cy="570240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1411,12 +1483,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ34"/>
+  <dimension ref="A1:AMJ39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="5" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+      <selection pane="bottomLeft" activeCell="A39" activeCellId="0" sqref="39:39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4595,7 +4667,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" s="43" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="36" t="n">
         <v>277</v>
       </c>
@@ -4657,898 +4729,1898 @@
       <c r="U6" s="39"/>
       <c r="V6" s="38"/>
       <c r="W6" s="39"/>
+      <c r="Y6" s="0"/>
+      <c r="Z6" s="0"/>
+      <c r="AA6" s="0"/>
+      <c r="AB6" s="0"/>
+      <c r="AC6" s="0"/>
+      <c r="AD6" s="0"/>
+      <c r="AE6" s="0"/>
+      <c r="AF6" s="0"/>
+      <c r="AG6" s="0"/>
+      <c r="AH6" s="0"/>
+      <c r="AI6" s="0"/>
+      <c r="AJ6" s="0"/>
+      <c r="AK6" s="0"/>
+      <c r="AL6" s="0"/>
+      <c r="AM6" s="0"/>
+      <c r="AN6" s="0"/>
+      <c r="AO6" s="0"/>
+      <c r="AP6" s="0"/>
+      <c r="AQ6" s="0"/>
+      <c r="AR6" s="0"/>
+      <c r="AS6" s="0"/>
+      <c r="AT6" s="0"/>
+      <c r="AU6" s="0"/>
+      <c r="AV6" s="0"/>
+      <c r="AW6" s="0"/>
+      <c r="AX6" s="0"/>
+      <c r="AY6" s="0"/>
+      <c r="AZ6" s="0"/>
+      <c r="BA6" s="0"/>
+      <c r="BB6" s="0"/>
+      <c r="BC6" s="0"/>
+      <c r="BD6" s="0"/>
+      <c r="BE6" s="0"/>
+      <c r="BF6" s="0"/>
+      <c r="BG6" s="0"/>
+      <c r="BH6" s="0"/>
+      <c r="BI6" s="0"/>
+      <c r="BJ6" s="0"/>
+      <c r="BK6" s="0"/>
+      <c r="BL6" s="0"/>
+      <c r="BM6" s="0"/>
+      <c r="BN6" s="0"/>
+      <c r="BO6" s="0"/>
+      <c r="BP6" s="0"/>
+      <c r="BQ6" s="0"/>
+      <c r="BR6" s="0"/>
+      <c r="BS6" s="0"/>
+      <c r="BT6" s="0"/>
+      <c r="BU6" s="0"/>
+      <c r="BV6" s="0"/>
+      <c r="BW6" s="0"/>
+      <c r="BX6" s="0"/>
+      <c r="BY6" s="0"/>
+      <c r="BZ6" s="0"/>
+      <c r="CA6" s="0"/>
+      <c r="CB6" s="0"/>
+      <c r="CC6" s="0"/>
+      <c r="CD6" s="0"/>
+      <c r="CE6" s="0"/>
+      <c r="CF6" s="0"/>
+      <c r="CG6" s="0"/>
+      <c r="CH6" s="0"/>
+      <c r="CI6" s="0"/>
+      <c r="CJ6" s="0"/>
+      <c r="CK6" s="0"/>
+      <c r="CL6" s="0"/>
+      <c r="CM6" s="0"/>
+      <c r="CN6" s="0"/>
+      <c r="CO6" s="0"/>
+      <c r="CP6" s="0"/>
+      <c r="CQ6" s="0"/>
+      <c r="CR6" s="0"/>
+      <c r="CS6" s="0"/>
+      <c r="CT6" s="0"/>
+      <c r="CU6" s="0"/>
+      <c r="CV6" s="0"/>
+      <c r="CW6" s="0"/>
+      <c r="CX6" s="0"/>
+      <c r="CY6" s="0"/>
+      <c r="CZ6" s="0"/>
+      <c r="DA6" s="0"/>
+      <c r="DB6" s="0"/>
+      <c r="DC6" s="0"/>
+      <c r="DD6" s="0"/>
+      <c r="DE6" s="0"/>
+      <c r="DF6" s="0"/>
+      <c r="DG6" s="0"/>
+      <c r="DH6" s="0"/>
+      <c r="DI6" s="0"/>
+      <c r="DJ6" s="0"/>
+      <c r="DK6" s="0"/>
+      <c r="DL6" s="0"/>
+      <c r="DM6" s="0"/>
+      <c r="DN6" s="0"/>
+      <c r="DO6" s="0"/>
+      <c r="DP6" s="0"/>
+      <c r="DQ6" s="0"/>
+      <c r="DR6" s="0"/>
+      <c r="DS6" s="0"/>
+      <c r="DT6" s="0"/>
+      <c r="DU6" s="0"/>
+      <c r="DV6" s="0"/>
+      <c r="DW6" s="0"/>
+      <c r="DX6" s="0"/>
+      <c r="DY6" s="0"/>
+      <c r="DZ6" s="0"/>
+      <c r="EA6" s="0"/>
+      <c r="EB6" s="0"/>
+      <c r="EC6" s="0"/>
+      <c r="ED6" s="0"/>
+      <c r="EE6" s="0"/>
+      <c r="EF6" s="0"/>
+      <c r="EG6" s="0"/>
+      <c r="EH6" s="0"/>
+      <c r="EI6" s="0"/>
+      <c r="EJ6" s="0"/>
+      <c r="EK6" s="0"/>
+      <c r="EL6" s="0"/>
+      <c r="EM6" s="0"/>
+      <c r="EN6" s="0"/>
+      <c r="EO6" s="0"/>
+      <c r="EP6" s="0"/>
+      <c r="EQ6" s="0"/>
+      <c r="ER6" s="0"/>
+      <c r="ES6" s="0"/>
+      <c r="ET6" s="0"/>
+      <c r="EU6" s="0"/>
+      <c r="EV6" s="0"/>
+      <c r="EW6" s="0"/>
+      <c r="EX6" s="0"/>
+      <c r="EY6" s="0"/>
+      <c r="EZ6" s="0"/>
+      <c r="FA6" s="0"/>
+      <c r="FB6" s="0"/>
+      <c r="FC6" s="0"/>
+      <c r="FD6" s="0"/>
+      <c r="FE6" s="0"/>
+      <c r="FF6" s="0"/>
+      <c r="FG6" s="0"/>
+      <c r="FH6" s="0"/>
+      <c r="FI6" s="0"/>
+      <c r="FJ6" s="0"/>
+      <c r="FK6" s="0"/>
+      <c r="FL6" s="0"/>
+      <c r="FM6" s="0"/>
+      <c r="FN6" s="0"/>
+      <c r="FO6" s="0"/>
+      <c r="FP6" s="0"/>
+      <c r="FQ6" s="0"/>
+      <c r="FR6" s="0"/>
+      <c r="FS6" s="0"/>
+      <c r="FT6" s="0"/>
+      <c r="FU6" s="0"/>
+      <c r="FV6" s="0"/>
+      <c r="FW6" s="0"/>
+      <c r="FX6" s="0"/>
+      <c r="FY6" s="0"/>
+      <c r="FZ6" s="0"/>
+      <c r="GA6" s="0"/>
+      <c r="GB6" s="0"/>
+      <c r="GC6" s="0"/>
+      <c r="GD6" s="0"/>
+      <c r="GE6" s="0"/>
+      <c r="GF6" s="0"/>
+      <c r="GG6" s="0"/>
+      <c r="GH6" s="0"/>
+      <c r="GI6" s="0"/>
+      <c r="GJ6" s="0"/>
+      <c r="GK6" s="0"/>
+      <c r="GL6" s="0"/>
+      <c r="GM6" s="0"/>
+      <c r="GN6" s="0"/>
+      <c r="GO6" s="0"/>
+      <c r="GP6" s="0"/>
+      <c r="GQ6" s="0"/>
+      <c r="GR6" s="0"/>
+      <c r="GS6" s="0"/>
+      <c r="GT6" s="0"/>
+      <c r="GU6" s="0"/>
+      <c r="GV6" s="0"/>
+      <c r="GW6" s="0"/>
+      <c r="GX6" s="0"/>
+      <c r="GY6" s="0"/>
+      <c r="GZ6" s="0"/>
+      <c r="HA6" s="0"/>
+      <c r="HB6" s="0"/>
+      <c r="HC6" s="0"/>
+      <c r="HD6" s="0"/>
+      <c r="HE6" s="0"/>
+      <c r="HF6" s="0"/>
+      <c r="HG6" s="0"/>
+      <c r="HH6" s="0"/>
+      <c r="HI6" s="0"/>
+      <c r="HJ6" s="0"/>
+      <c r="HK6" s="0"/>
+      <c r="HL6" s="0"/>
+      <c r="HM6" s="0"/>
+      <c r="HN6" s="0"/>
+      <c r="HO6" s="0"/>
+      <c r="HP6" s="0"/>
+      <c r="HQ6" s="0"/>
+      <c r="HR6" s="0"/>
+      <c r="HS6" s="0"/>
+      <c r="HT6" s="0"/>
+      <c r="HU6" s="0"/>
+      <c r="HV6" s="0"/>
+      <c r="HW6" s="0"/>
+      <c r="HX6" s="0"/>
+      <c r="HY6" s="0"/>
+      <c r="HZ6" s="0"/>
+      <c r="IA6" s="0"/>
+      <c r="IB6" s="0"/>
+      <c r="IC6" s="0"/>
+      <c r="ID6" s="0"/>
+      <c r="IE6" s="0"/>
+      <c r="IF6" s="0"/>
+      <c r="IG6" s="0"/>
+      <c r="IH6" s="0"/>
+      <c r="II6" s="0"/>
+      <c r="IJ6" s="0"/>
+      <c r="IK6" s="0"/>
+      <c r="IL6" s="0"/>
+      <c r="IM6" s="0"/>
+      <c r="IN6" s="0"/>
+      <c r="IO6" s="0"/>
+      <c r="IP6" s="0"/>
+      <c r="IQ6" s="0"/>
+      <c r="IR6" s="0"/>
+      <c r="IS6" s="0"/>
+      <c r="IT6" s="0"/>
+      <c r="IU6" s="0"/>
+      <c r="IV6" s="0"/>
+      <c r="IW6" s="0"/>
+      <c r="IX6" s="0"/>
+      <c r="IY6" s="0"/>
+      <c r="IZ6" s="0"/>
+      <c r="JA6" s="0"/>
+      <c r="JB6" s="0"/>
+      <c r="JC6" s="0"/>
+      <c r="JD6" s="0"/>
+      <c r="JE6" s="0"/>
+      <c r="JF6" s="0"/>
+      <c r="JG6" s="0"/>
+      <c r="JH6" s="0"/>
+      <c r="JI6" s="0"/>
+      <c r="JJ6" s="0"/>
+      <c r="JK6" s="0"/>
+      <c r="JL6" s="0"/>
+      <c r="JM6" s="0"/>
+      <c r="JN6" s="0"/>
+      <c r="JO6" s="0"/>
+      <c r="JP6" s="0"/>
+      <c r="JQ6" s="0"/>
+      <c r="JR6" s="0"/>
+      <c r="JS6" s="0"/>
+      <c r="JT6" s="0"/>
+      <c r="JU6" s="0"/>
+      <c r="JV6" s="0"/>
+      <c r="JW6" s="0"/>
+      <c r="JX6" s="0"/>
+      <c r="JY6" s="0"/>
+      <c r="JZ6" s="0"/>
+      <c r="KA6" s="0"/>
+      <c r="KB6" s="0"/>
+      <c r="KC6" s="0"/>
+      <c r="KD6" s="0"/>
+      <c r="KE6" s="0"/>
+      <c r="KF6" s="0"/>
+      <c r="KG6" s="0"/>
+      <c r="KH6" s="0"/>
+      <c r="KI6" s="0"/>
+      <c r="KJ6" s="0"/>
+      <c r="KK6" s="0"/>
+      <c r="KL6" s="0"/>
+      <c r="KM6" s="0"/>
+      <c r="KN6" s="0"/>
+      <c r="KO6" s="0"/>
+      <c r="KP6" s="0"/>
+      <c r="KQ6" s="0"/>
+      <c r="KR6" s="0"/>
+      <c r="KS6" s="0"/>
+      <c r="KT6" s="0"/>
+      <c r="KU6" s="0"/>
+      <c r="KV6" s="0"/>
+      <c r="KW6" s="0"/>
+      <c r="KX6" s="0"/>
+      <c r="KY6" s="0"/>
+      <c r="KZ6" s="0"/>
+      <c r="LA6" s="0"/>
+      <c r="LB6" s="0"/>
+      <c r="LC6" s="0"/>
+      <c r="LD6" s="0"/>
+      <c r="LE6" s="0"/>
+      <c r="LF6" s="0"/>
+      <c r="LG6" s="0"/>
+      <c r="LH6" s="0"/>
+      <c r="LI6" s="0"/>
+      <c r="LJ6" s="0"/>
+      <c r="LK6" s="0"/>
+      <c r="LL6" s="0"/>
+      <c r="LM6" s="0"/>
+      <c r="LN6" s="0"/>
+      <c r="LO6" s="0"/>
+      <c r="LP6" s="0"/>
+      <c r="LQ6" s="0"/>
+      <c r="LR6" s="0"/>
+      <c r="LS6" s="0"/>
+      <c r="LT6" s="0"/>
+      <c r="LU6" s="0"/>
+      <c r="LV6" s="0"/>
+      <c r="LW6" s="0"/>
+      <c r="LX6" s="0"/>
+      <c r="LY6" s="0"/>
+      <c r="LZ6" s="0"/>
+      <c r="MA6" s="0"/>
+      <c r="MB6" s="0"/>
+      <c r="MC6" s="0"/>
+      <c r="MD6" s="0"/>
+      <c r="ME6" s="0"/>
+      <c r="MF6" s="0"/>
+      <c r="MG6" s="0"/>
+      <c r="MH6" s="0"/>
+      <c r="MI6" s="0"/>
+      <c r="MJ6" s="0"/>
+      <c r="MK6" s="0"/>
+      <c r="ML6" s="0"/>
+      <c r="MM6" s="0"/>
+      <c r="MN6" s="0"/>
+      <c r="MO6" s="0"/>
+      <c r="MP6" s="0"/>
+      <c r="MQ6" s="0"/>
+      <c r="MR6" s="0"/>
+      <c r="MS6" s="0"/>
+      <c r="MT6" s="0"/>
+      <c r="MU6" s="0"/>
+      <c r="MV6" s="0"/>
+      <c r="MW6" s="0"/>
+      <c r="MX6" s="0"/>
+      <c r="MY6" s="0"/>
+      <c r="MZ6" s="0"/>
+      <c r="NA6" s="0"/>
+      <c r="NB6" s="0"/>
+      <c r="NC6" s="0"/>
+      <c r="ND6" s="0"/>
+      <c r="NE6" s="0"/>
+      <c r="NF6" s="0"/>
+      <c r="NG6" s="0"/>
+      <c r="NH6" s="0"/>
+      <c r="NI6" s="0"/>
+      <c r="NJ6" s="0"/>
+      <c r="NK6" s="0"/>
+      <c r="NL6" s="0"/>
+      <c r="NM6" s="0"/>
+      <c r="NN6" s="0"/>
+      <c r="NO6" s="0"/>
+      <c r="NP6" s="0"/>
+      <c r="NQ6" s="0"/>
+      <c r="NR6" s="0"/>
+      <c r="NS6" s="0"/>
+      <c r="NT6" s="0"/>
+      <c r="NU6" s="0"/>
+      <c r="NV6" s="0"/>
+      <c r="NW6" s="0"/>
+      <c r="NX6" s="0"/>
+      <c r="NY6" s="0"/>
+      <c r="NZ6" s="0"/>
+      <c r="OA6" s="0"/>
+      <c r="OB6" s="0"/>
+      <c r="OC6" s="0"/>
+      <c r="OD6" s="0"/>
+      <c r="OE6" s="0"/>
+      <c r="OF6" s="0"/>
+      <c r="OG6" s="0"/>
+      <c r="OH6" s="0"/>
+      <c r="OI6" s="0"/>
+      <c r="OJ6" s="0"/>
+      <c r="OK6" s="0"/>
+      <c r="OL6" s="0"/>
+      <c r="OM6" s="0"/>
+      <c r="ON6" s="0"/>
+      <c r="OO6" s="0"/>
+      <c r="OP6" s="0"/>
+      <c r="OQ6" s="0"/>
+      <c r="OR6" s="0"/>
+      <c r="OS6" s="0"/>
+      <c r="OT6" s="0"/>
+      <c r="OU6" s="0"/>
+      <c r="OV6" s="0"/>
+      <c r="OW6" s="0"/>
+      <c r="OX6" s="0"/>
+      <c r="OY6" s="0"/>
+      <c r="OZ6" s="0"/>
+      <c r="PA6" s="0"/>
+      <c r="PB6" s="0"/>
+      <c r="PC6" s="0"/>
+      <c r="PD6" s="0"/>
+      <c r="PE6" s="0"/>
+      <c r="PF6" s="0"/>
+      <c r="PG6" s="0"/>
+      <c r="PH6" s="0"/>
+      <c r="PI6" s="0"/>
+      <c r="PJ6" s="0"/>
+      <c r="PK6" s="0"/>
+      <c r="PL6" s="0"/>
+      <c r="PM6" s="0"/>
+      <c r="PN6" s="0"/>
+      <c r="PO6" s="0"/>
+      <c r="PP6" s="0"/>
+      <c r="PQ6" s="0"/>
+      <c r="PR6" s="0"/>
+      <c r="PS6" s="0"/>
+      <c r="PT6" s="0"/>
+      <c r="PU6" s="0"/>
+      <c r="PV6" s="0"/>
+      <c r="PW6" s="0"/>
+      <c r="PX6" s="0"/>
+      <c r="PY6" s="0"/>
+      <c r="PZ6" s="0"/>
+      <c r="QA6" s="0"/>
+      <c r="QB6" s="0"/>
+      <c r="QC6" s="0"/>
+      <c r="QD6" s="0"/>
+      <c r="QE6" s="0"/>
+      <c r="QF6" s="0"/>
+      <c r="QG6" s="0"/>
+      <c r="QH6" s="0"/>
+      <c r="QI6" s="0"/>
+      <c r="QJ6" s="0"/>
+      <c r="QK6" s="0"/>
+      <c r="QL6" s="0"/>
+      <c r="QM6" s="0"/>
+      <c r="QN6" s="0"/>
+      <c r="QO6" s="0"/>
+      <c r="QP6" s="0"/>
+      <c r="QQ6" s="0"/>
+      <c r="QR6" s="0"/>
+      <c r="QS6" s="0"/>
+      <c r="QT6" s="0"/>
+      <c r="QU6" s="0"/>
+      <c r="QV6" s="0"/>
+      <c r="QW6" s="0"/>
+      <c r="QX6" s="0"/>
+      <c r="QY6" s="0"/>
+      <c r="QZ6" s="0"/>
+      <c r="RA6" s="0"/>
+      <c r="RB6" s="0"/>
+      <c r="RC6" s="0"/>
+      <c r="RD6" s="0"/>
+      <c r="RE6" s="0"/>
+      <c r="RF6" s="0"/>
+      <c r="RG6" s="0"/>
+      <c r="RH6" s="0"/>
+      <c r="RI6" s="0"/>
+      <c r="RJ6" s="0"/>
+      <c r="RK6" s="0"/>
+      <c r="RL6" s="0"/>
+      <c r="RM6" s="0"/>
+      <c r="RN6" s="0"/>
+      <c r="RO6" s="0"/>
+      <c r="RP6" s="0"/>
+      <c r="RQ6" s="0"/>
+      <c r="RR6" s="0"/>
+      <c r="RS6" s="0"/>
+      <c r="RT6" s="0"/>
+      <c r="RU6" s="0"/>
+      <c r="RV6" s="0"/>
+      <c r="RW6" s="0"/>
+      <c r="RX6" s="0"/>
+      <c r="RY6" s="0"/>
+      <c r="RZ6" s="0"/>
+      <c r="SA6" s="0"/>
+      <c r="SB6" s="0"/>
+      <c r="SC6" s="0"/>
+      <c r="SD6" s="0"/>
+      <c r="SE6" s="0"/>
+      <c r="SF6" s="0"/>
+      <c r="SG6" s="0"/>
+      <c r="SH6" s="0"/>
+      <c r="SI6" s="0"/>
+      <c r="SJ6" s="0"/>
+      <c r="SK6" s="0"/>
+      <c r="SL6" s="0"/>
+      <c r="SM6" s="0"/>
+      <c r="SN6" s="0"/>
+      <c r="SO6" s="0"/>
+      <c r="SP6" s="0"/>
+      <c r="SQ6" s="0"/>
+      <c r="SR6" s="0"/>
+      <c r="SS6" s="0"/>
+      <c r="ST6" s="0"/>
+      <c r="SU6" s="0"/>
+      <c r="SV6" s="0"/>
+      <c r="SW6" s="0"/>
+      <c r="SX6" s="0"/>
+      <c r="SY6" s="0"/>
+      <c r="SZ6" s="0"/>
+      <c r="TA6" s="0"/>
+      <c r="TB6" s="0"/>
+      <c r="TC6" s="0"/>
+      <c r="TD6" s="0"/>
+      <c r="TE6" s="0"/>
+      <c r="TF6" s="0"/>
+      <c r="TG6" s="0"/>
+      <c r="TH6" s="0"/>
+      <c r="TI6" s="0"/>
+      <c r="TJ6" s="0"/>
+      <c r="TK6" s="0"/>
+      <c r="TL6" s="0"/>
+      <c r="TM6" s="0"/>
+      <c r="TN6" s="0"/>
+      <c r="TO6" s="0"/>
+      <c r="TP6" s="0"/>
+      <c r="TQ6" s="0"/>
+      <c r="TR6" s="0"/>
+      <c r="TS6" s="0"/>
+      <c r="TT6" s="0"/>
+      <c r="TU6" s="0"/>
+      <c r="TV6" s="0"/>
+      <c r="TW6" s="0"/>
+      <c r="TX6" s="0"/>
+      <c r="TY6" s="0"/>
+      <c r="TZ6" s="0"/>
+      <c r="UA6" s="0"/>
+      <c r="UB6" s="0"/>
+      <c r="UC6" s="0"/>
+      <c r="UD6" s="0"/>
+      <c r="UE6" s="0"/>
+      <c r="UF6" s="0"/>
+      <c r="UG6" s="0"/>
+      <c r="UH6" s="0"/>
+      <c r="UI6" s="0"/>
+      <c r="UJ6" s="0"/>
+      <c r="UK6" s="0"/>
+      <c r="UL6" s="0"/>
+      <c r="UM6" s="0"/>
+      <c r="UN6" s="0"/>
+      <c r="UO6" s="0"/>
+      <c r="UP6" s="0"/>
+      <c r="UQ6" s="0"/>
+      <c r="UR6" s="0"/>
+      <c r="US6" s="0"/>
+      <c r="UT6" s="0"/>
+      <c r="UU6" s="0"/>
+      <c r="UV6" s="0"/>
+      <c r="UW6" s="0"/>
+      <c r="UX6" s="0"/>
+      <c r="UY6" s="0"/>
+      <c r="UZ6" s="0"/>
+      <c r="VA6" s="0"/>
+      <c r="VB6" s="0"/>
+      <c r="VC6" s="0"/>
+      <c r="VD6" s="0"/>
+      <c r="VE6" s="0"/>
+      <c r="VF6" s="0"/>
+      <c r="VG6" s="0"/>
+      <c r="VH6" s="0"/>
+      <c r="VI6" s="0"/>
+      <c r="VJ6" s="0"/>
+      <c r="VK6" s="0"/>
+      <c r="VL6" s="0"/>
+      <c r="VM6" s="0"/>
+      <c r="VN6" s="0"/>
+      <c r="VO6" s="0"/>
+      <c r="VP6" s="0"/>
+      <c r="VQ6" s="0"/>
+      <c r="VR6" s="0"/>
+      <c r="VS6" s="0"/>
+      <c r="VT6" s="0"/>
+      <c r="VU6" s="0"/>
+      <c r="VV6" s="0"/>
+      <c r="VW6" s="0"/>
+      <c r="VX6" s="0"/>
+      <c r="VY6" s="0"/>
+      <c r="VZ6" s="0"/>
+      <c r="WA6" s="0"/>
+      <c r="WB6" s="0"/>
+      <c r="WC6" s="0"/>
+      <c r="WD6" s="0"/>
+      <c r="WE6" s="0"/>
+      <c r="WF6" s="0"/>
+      <c r="WG6" s="0"/>
+      <c r="WH6" s="0"/>
+      <c r="WI6" s="0"/>
+      <c r="WJ6" s="0"/>
+      <c r="WK6" s="0"/>
+      <c r="WL6" s="0"/>
+      <c r="WM6" s="0"/>
+      <c r="WN6" s="0"/>
+      <c r="WO6" s="0"/>
+      <c r="WP6" s="0"/>
+      <c r="WQ6" s="0"/>
+      <c r="WR6" s="0"/>
+      <c r="WS6" s="0"/>
+      <c r="WT6" s="0"/>
+      <c r="WU6" s="0"/>
+      <c r="WV6" s="0"/>
+      <c r="WW6" s="0"/>
+      <c r="WX6" s="0"/>
+      <c r="WY6" s="0"/>
+      <c r="WZ6" s="0"/>
+      <c r="XA6" s="0"/>
+      <c r="XB6" s="0"/>
+      <c r="XC6" s="0"/>
+      <c r="XD6" s="0"/>
+      <c r="XE6" s="0"/>
+      <c r="XF6" s="0"/>
+      <c r="XG6" s="0"/>
+      <c r="XH6" s="0"/>
+      <c r="XI6" s="0"/>
+      <c r="XJ6" s="0"/>
+      <c r="XK6" s="0"/>
+      <c r="XL6" s="0"/>
+      <c r="XM6" s="0"/>
+      <c r="XN6" s="0"/>
+      <c r="XO6" s="0"/>
+      <c r="XP6" s="0"/>
+      <c r="XQ6" s="0"/>
+      <c r="XR6" s="0"/>
+      <c r="XS6" s="0"/>
+      <c r="XT6" s="0"/>
+      <c r="XU6" s="0"/>
+      <c r="XV6" s="0"/>
+      <c r="XW6" s="0"/>
+      <c r="XX6" s="0"/>
+      <c r="XY6" s="0"/>
+      <c r="XZ6" s="0"/>
+      <c r="YA6" s="0"/>
+      <c r="YB6" s="0"/>
+      <c r="YC6" s="0"/>
+      <c r="YD6" s="0"/>
+      <c r="YE6" s="0"/>
+      <c r="YF6" s="0"/>
+      <c r="YG6" s="0"/>
+      <c r="YH6" s="0"/>
+      <c r="YI6" s="0"/>
+      <c r="YJ6" s="0"/>
+      <c r="YK6" s="0"/>
+      <c r="YL6" s="0"/>
+      <c r="YM6" s="0"/>
+      <c r="YN6" s="0"/>
+      <c r="YO6" s="0"/>
+      <c r="YP6" s="0"/>
+      <c r="YQ6" s="0"/>
+      <c r="YR6" s="0"/>
+      <c r="YS6" s="0"/>
+      <c r="YT6" s="0"/>
+      <c r="YU6" s="0"/>
+      <c r="YV6" s="0"/>
+      <c r="YW6" s="0"/>
+      <c r="YX6" s="0"/>
+      <c r="YY6" s="0"/>
+      <c r="YZ6" s="0"/>
+      <c r="ZA6" s="0"/>
+      <c r="ZB6" s="0"/>
+      <c r="ZC6" s="0"/>
+      <c r="ZD6" s="0"/>
+      <c r="ZE6" s="0"/>
+      <c r="ZF6" s="0"/>
+      <c r="ZG6" s="0"/>
+      <c r="ZH6" s="0"/>
+      <c r="ZI6" s="0"/>
+      <c r="ZJ6" s="0"/>
+      <c r="ZK6" s="0"/>
+      <c r="ZL6" s="0"/>
+      <c r="ZM6" s="0"/>
+      <c r="ZN6" s="0"/>
+      <c r="ZO6" s="0"/>
+      <c r="ZP6" s="0"/>
+      <c r="ZQ6" s="0"/>
+      <c r="ZR6" s="0"/>
+      <c r="ZS6" s="0"/>
+      <c r="ZT6" s="0"/>
+      <c r="ZU6" s="0"/>
+      <c r="ZV6" s="0"/>
+      <c r="ZW6" s="0"/>
+      <c r="ZX6" s="0"/>
+      <c r="ZY6" s="0"/>
+      <c r="ZZ6" s="0"/>
+      <c r="AAA6" s="0"/>
+      <c r="AAB6" s="0"/>
+      <c r="AAC6" s="0"/>
+      <c r="AAD6" s="0"/>
+      <c r="AAE6" s="0"/>
+      <c r="AAF6" s="0"/>
+      <c r="AAG6" s="0"/>
+      <c r="AAH6" s="0"/>
+      <c r="AAI6" s="0"/>
+      <c r="AAJ6" s="0"/>
+      <c r="AAK6" s="0"/>
+      <c r="AAL6" s="0"/>
+      <c r="AAM6" s="0"/>
+      <c r="AAN6" s="0"/>
+      <c r="AAO6" s="0"/>
+      <c r="AAP6" s="0"/>
+      <c r="AAQ6" s="0"/>
+      <c r="AAR6" s="0"/>
+      <c r="AAS6" s="0"/>
+      <c r="AAT6" s="0"/>
+      <c r="AAU6" s="0"/>
+      <c r="AAV6" s="0"/>
+      <c r="AAW6" s="0"/>
+      <c r="AAX6" s="0"/>
+      <c r="AAY6" s="0"/>
+      <c r="AAZ6" s="0"/>
+      <c r="ABA6" s="0"/>
+      <c r="ABB6" s="0"/>
+      <c r="ABC6" s="0"/>
+      <c r="ABD6" s="0"/>
+      <c r="ABE6" s="0"/>
+      <c r="ABF6" s="0"/>
+      <c r="ABG6" s="0"/>
+      <c r="ABH6" s="0"/>
+      <c r="ABI6" s="0"/>
+      <c r="ABJ6" s="0"/>
+      <c r="ABK6" s="0"/>
+      <c r="ABL6" s="0"/>
+      <c r="ABM6" s="0"/>
+      <c r="ABN6" s="0"/>
+      <c r="ABO6" s="0"/>
+      <c r="ABP6" s="0"/>
+      <c r="ABQ6" s="0"/>
+      <c r="ABR6" s="0"/>
+      <c r="ABS6" s="0"/>
+      <c r="ABT6" s="0"/>
+      <c r="ABU6" s="0"/>
+      <c r="ABV6" s="0"/>
+      <c r="ABW6" s="0"/>
+      <c r="ABX6" s="0"/>
+      <c r="ABY6" s="0"/>
+      <c r="ABZ6" s="0"/>
+      <c r="ACA6" s="0"/>
+      <c r="ACB6" s="0"/>
+      <c r="ACC6" s="0"/>
+      <c r="ACD6" s="0"/>
+      <c r="ACE6" s="0"/>
+      <c r="ACF6" s="0"/>
+      <c r="ACG6" s="0"/>
+      <c r="ACH6" s="0"/>
+      <c r="ACI6" s="0"/>
+      <c r="ACJ6" s="0"/>
+      <c r="ACK6" s="0"/>
+      <c r="ACL6" s="0"/>
+      <c r="ACM6" s="0"/>
+      <c r="ACN6" s="0"/>
+      <c r="ACO6" s="0"/>
+      <c r="ACP6" s="0"/>
+      <c r="ACQ6" s="0"/>
+      <c r="ACR6" s="0"/>
+      <c r="ACS6" s="0"/>
+      <c r="ACT6" s="0"/>
+      <c r="ACU6" s="0"/>
+      <c r="ACV6" s="0"/>
+      <c r="ACW6" s="0"/>
+      <c r="ACX6" s="0"/>
+      <c r="ACY6" s="0"/>
+      <c r="ACZ6" s="0"/>
+      <c r="ADA6" s="0"/>
+      <c r="ADB6" s="0"/>
+      <c r="ADC6" s="0"/>
+      <c r="ADD6" s="0"/>
+      <c r="ADE6" s="0"/>
+      <c r="ADF6" s="0"/>
+      <c r="ADG6" s="0"/>
+      <c r="ADH6" s="0"/>
+      <c r="ADI6" s="0"/>
+      <c r="ADJ6" s="0"/>
+      <c r="ADK6" s="0"/>
+      <c r="ADL6" s="0"/>
+      <c r="ADM6" s="0"/>
+      <c r="ADN6" s="0"/>
+      <c r="ADO6" s="0"/>
+      <c r="ADP6" s="0"/>
+      <c r="ADQ6" s="0"/>
+      <c r="ADR6" s="0"/>
+      <c r="ADS6" s="0"/>
+      <c r="ADT6" s="0"/>
+      <c r="ADU6" s="0"/>
+      <c r="ADV6" s="0"/>
+      <c r="ADW6" s="0"/>
+      <c r="ADX6" s="0"/>
+      <c r="ADY6" s="0"/>
+      <c r="ADZ6" s="0"/>
+      <c r="AEA6" s="0"/>
+      <c r="AEB6" s="0"/>
+      <c r="AEC6" s="0"/>
+      <c r="AED6" s="0"/>
+      <c r="AEE6" s="0"/>
+      <c r="AEF6" s="0"/>
+      <c r="AEG6" s="0"/>
+      <c r="AEH6" s="0"/>
+      <c r="AEI6" s="0"/>
+      <c r="AEJ6" s="0"/>
+      <c r="AEK6" s="0"/>
+      <c r="AEL6" s="0"/>
+      <c r="AEM6" s="0"/>
+      <c r="AEN6" s="0"/>
+      <c r="AEO6" s="0"/>
+      <c r="AEP6" s="0"/>
+      <c r="AEQ6" s="0"/>
+      <c r="AER6" s="0"/>
+      <c r="AES6" s="0"/>
+      <c r="AET6" s="0"/>
+      <c r="AEU6" s="0"/>
+      <c r="AEV6" s="0"/>
+      <c r="AEW6" s="0"/>
+      <c r="AEX6" s="0"/>
+      <c r="AEY6" s="0"/>
+      <c r="AEZ6" s="0"/>
+      <c r="AFA6" s="0"/>
+      <c r="AFB6" s="0"/>
+      <c r="AFC6" s="0"/>
+      <c r="AFD6" s="0"/>
+      <c r="AFE6" s="0"/>
+      <c r="AFF6" s="0"/>
+      <c r="AFG6" s="0"/>
+      <c r="AFH6" s="0"/>
+      <c r="AFI6" s="0"/>
+      <c r="AFJ6" s="0"/>
+      <c r="AFK6" s="0"/>
+      <c r="AFL6" s="0"/>
+      <c r="AFM6" s="0"/>
+      <c r="AFN6" s="0"/>
+      <c r="AFO6" s="0"/>
+      <c r="AFP6" s="0"/>
+      <c r="AFQ6" s="0"/>
+      <c r="AFR6" s="0"/>
+      <c r="AFS6" s="0"/>
+      <c r="AFT6" s="0"/>
+      <c r="AFU6" s="0"/>
+      <c r="AFV6" s="0"/>
+      <c r="AFW6" s="0"/>
+      <c r="AFX6" s="0"/>
+      <c r="AFY6" s="0"/>
+      <c r="AFZ6" s="0"/>
+      <c r="AGA6" s="0"/>
+      <c r="AGB6" s="0"/>
+      <c r="AGC6" s="0"/>
+      <c r="AGD6" s="0"/>
+      <c r="AGE6" s="0"/>
+      <c r="AGF6" s="0"/>
+      <c r="AGG6" s="0"/>
+      <c r="AGH6" s="0"/>
+      <c r="AGI6" s="0"/>
+      <c r="AGJ6" s="0"/>
+      <c r="AGK6" s="0"/>
+      <c r="AGL6" s="0"/>
+      <c r="AGM6" s="0"/>
+      <c r="AGN6" s="0"/>
+      <c r="AGO6" s="0"/>
+      <c r="AGP6" s="0"/>
+      <c r="AGQ6" s="0"/>
+      <c r="AGR6" s="0"/>
+      <c r="AGS6" s="0"/>
+      <c r="AGT6" s="0"/>
+      <c r="AGU6" s="0"/>
+      <c r="AGV6" s="0"/>
+      <c r="AGW6" s="0"/>
+      <c r="AGX6" s="0"/>
+      <c r="AGY6" s="0"/>
+      <c r="AGZ6" s="0"/>
+      <c r="AHA6" s="0"/>
+      <c r="AHB6" s="0"/>
+      <c r="AHC6" s="0"/>
+      <c r="AHD6" s="0"/>
+      <c r="AHE6" s="0"/>
+      <c r="AHF6" s="0"/>
+      <c r="AHG6" s="0"/>
+      <c r="AHH6" s="0"/>
+      <c r="AHI6" s="0"/>
+      <c r="AHJ6" s="0"/>
+      <c r="AHK6" s="0"/>
+      <c r="AHL6" s="0"/>
+      <c r="AHM6" s="0"/>
+      <c r="AHN6" s="0"/>
+      <c r="AHO6" s="0"/>
+      <c r="AHP6" s="0"/>
+      <c r="AHQ6" s="0"/>
+      <c r="AHR6" s="0"/>
+      <c r="AHS6" s="0"/>
+      <c r="AHT6" s="0"/>
+      <c r="AHU6" s="0"/>
+      <c r="AHV6" s="0"/>
+      <c r="AHW6" s="0"/>
+      <c r="AHX6" s="0"/>
+      <c r="AHY6" s="0"/>
+      <c r="AHZ6" s="0"/>
+      <c r="AIA6" s="0"/>
+      <c r="AIB6" s="0"/>
+      <c r="AIC6" s="0"/>
+      <c r="AID6" s="0"/>
+      <c r="AIE6" s="0"/>
+      <c r="AIF6" s="0"/>
+      <c r="AIG6" s="0"/>
+      <c r="AIH6" s="0"/>
+      <c r="AII6" s="0"/>
+      <c r="AIJ6" s="0"/>
+      <c r="AIK6" s="0"/>
+      <c r="AIL6" s="0"/>
+      <c r="AIM6" s="0"/>
+      <c r="AIN6" s="0"/>
+      <c r="AIO6" s="0"/>
+      <c r="AIP6" s="0"/>
+      <c r="AIQ6" s="0"/>
+      <c r="AIR6" s="0"/>
+      <c r="AIS6" s="0"/>
+      <c r="AIT6" s="0"/>
+      <c r="AIU6" s="0"/>
+      <c r="AIV6" s="0"/>
+      <c r="AIW6" s="0"/>
+      <c r="AIX6" s="0"/>
+      <c r="AIY6" s="0"/>
+      <c r="AIZ6" s="0"/>
+      <c r="AJA6" s="0"/>
+      <c r="AJB6" s="0"/>
+      <c r="AJC6" s="0"/>
+      <c r="AJD6" s="0"/>
+      <c r="AJE6" s="0"/>
+      <c r="AJF6" s="0"/>
+      <c r="AJG6" s="0"/>
+      <c r="AJH6" s="0"/>
+      <c r="AJI6" s="0"/>
+      <c r="AJJ6" s="0"/>
+      <c r="AJK6" s="0"/>
+      <c r="AJL6" s="0"/>
+      <c r="AJM6" s="0"/>
+      <c r="AJN6" s="0"/>
+      <c r="AJO6" s="0"/>
+      <c r="AJP6" s="0"/>
+      <c r="AJQ6" s="0"/>
+      <c r="AJR6" s="0"/>
+      <c r="AJS6" s="0"/>
+      <c r="AJT6" s="0"/>
+      <c r="AJU6" s="0"/>
+      <c r="AJV6" s="0"/>
+      <c r="AJW6" s="0"/>
+      <c r="AJX6" s="0"/>
+      <c r="AJY6" s="0"/>
+      <c r="AJZ6" s="0"/>
+      <c r="AKA6" s="0"/>
+      <c r="AKB6" s="0"/>
+      <c r="AKC6" s="0"/>
+      <c r="AKD6" s="0"/>
+      <c r="AKE6" s="0"/>
+      <c r="AKF6" s="0"/>
+      <c r="AKG6" s="0"/>
+      <c r="AKH6" s="0"/>
+      <c r="AKI6" s="0"/>
+      <c r="AKJ6" s="0"/>
+      <c r="AKK6" s="0"/>
+      <c r="AKL6" s="0"/>
+      <c r="AKM6" s="0"/>
+      <c r="AKN6" s="0"/>
+      <c r="AKO6" s="0"/>
+      <c r="AKP6" s="0"/>
+      <c r="AKQ6" s="0"/>
+      <c r="AKR6" s="0"/>
+      <c r="AKS6" s="0"/>
+      <c r="AKT6" s="0"/>
+      <c r="AKU6" s="0"/>
+      <c r="AKV6" s="0"/>
+      <c r="AKW6" s="0"/>
+      <c r="AKX6" s="0"/>
+      <c r="AKY6" s="0"/>
+      <c r="AKZ6" s="0"/>
+      <c r="ALA6" s="0"/>
+      <c r="ALB6" s="0"/>
+      <c r="ALC6" s="0"/>
+      <c r="ALD6" s="0"/>
+      <c r="ALE6" s="0"/>
+      <c r="ALF6" s="0"/>
+      <c r="ALG6" s="0"/>
+      <c r="ALH6" s="0"/>
+      <c r="ALI6" s="0"/>
+      <c r="ALJ6" s="0"/>
+      <c r="ALK6" s="0"/>
+      <c r="ALL6" s="0"/>
+      <c r="ALM6" s="0"/>
+      <c r="ALN6" s="0"/>
+      <c r="ALO6" s="0"/>
+      <c r="ALP6" s="0"/>
+      <c r="ALQ6" s="0"/>
+      <c r="ALR6" s="0"/>
+      <c r="ALS6" s="0"/>
+      <c r="ALT6" s="0"/>
+      <c r="ALU6" s="0"/>
+      <c r="ALV6" s="0"/>
+      <c r="ALW6" s="0"/>
+      <c r="ALX6" s="0"/>
+      <c r="ALY6" s="0"/>
+      <c r="ALZ6" s="0"/>
+      <c r="AMA6" s="0"/>
+      <c r="AMB6" s="0"/>
+      <c r="AMC6" s="0"/>
+      <c r="AMD6" s="0"/>
+      <c r="AME6" s="0"/>
+      <c r="AMF6" s="0"/>
+      <c r="AMG6" s="0"/>
+      <c r="AMH6" s="0"/>
+      <c r="AMI6" s="0"/>
+      <c r="AMJ6" s="0"/>
     </row>
     <row r="7" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="44" t="n">
+      <c r="A7" s="43" t="n">
         <v>15219</v>
       </c>
-      <c r="B7" s="45" t="n">
+      <c r="B7" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="45" t="s">
+      <c r="G7" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="47" t="n">
+      <c r="H7" s="46" t="n">
         <v>18429</v>
       </c>
-      <c r="I7" s="47" t="n">
+      <c r="I7" s="46" t="n">
         <v>18429</v>
       </c>
-      <c r="J7" s="47" t="n">
+      <c r="J7" s="46" t="n">
         <v>43100</v>
       </c>
-      <c r="K7" s="48" t="n">
+      <c r="K7" s="47" t="n">
         <v>68</v>
       </c>
-      <c r="L7" s="45" t="s">
+      <c r="L7" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="45" t="s">
+      <c r="M7" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="N7" s="45" t="s">
+      <c r="N7" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="45" t="s">
+      <c r="O7" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="P7" s="45" t="s">
+      <c r="P7" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="Q7" s="46" t="s">
+      <c r="Q7" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="R7" s="46" t="s">
+      <c r="R7" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="S7" s="46" t="s">
+      <c r="S7" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="T7" s="46"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
     </row>
     <row r="8" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="44" t="n">
+      <c r="A8" s="43" t="n">
         <v>16105</v>
       </c>
-      <c r="B8" s="45" t="n">
+      <c r="B8" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="45" t="s">
+      <c r="F8" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="45" t="s">
+      <c r="G8" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="47" t="n">
+      <c r="H8" s="46" t="n">
         <v>18872</v>
       </c>
-      <c r="I8" s="47" t="n">
+      <c r="I8" s="46" t="n">
         <v>18872</v>
       </c>
-      <c r="J8" s="47" t="n">
+      <c r="J8" s="46" t="n">
         <v>43162</v>
       </c>
-      <c r="K8" s="48" t="n">
+      <c r="K8" s="47" t="n">
         <v>58</v>
       </c>
-      <c r="L8" s="45" t="s">
+      <c r="L8" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="M8" s="45" t="s">
+      <c r="M8" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="N8" s="45" t="s">
+      <c r="N8" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="O8" s="45" t="s">
+      <c r="O8" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="P8" s="45" t="s">
+      <c r="P8" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="Q8" s="46" t="s">
+      <c r="Q8" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="R8" s="46" t="s">
+      <c r="R8" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="S8" s="46" t="s">
+      <c r="S8" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="T8" s="46"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="44"/>
     </row>
     <row r="9" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="44" t="n">
+      <c r="A9" s="43" t="n">
         <v>16598</v>
       </c>
-      <c r="B9" s="45" t="n">
+      <c r="B9" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="F9" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="47" t="n">
+      <c r="H9" s="46" t="n">
         <v>18833</v>
       </c>
-      <c r="I9" s="47" t="n">
+      <c r="I9" s="46" t="n">
         <v>18833</v>
       </c>
-      <c r="J9" s="47" t="n">
+      <c r="J9" s="46" t="n">
         <v>43085</v>
       </c>
-      <c r="K9" s="48" t="n">
+      <c r="K9" s="47" t="n">
         <v>11</v>
       </c>
-      <c r="L9" s="45" t="s">
+      <c r="L9" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="M9" s="45" t="s">
+      <c r="M9" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="N9" s="45" t="s">
+      <c r="N9" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="O9" s="45" t="s">
+      <c r="O9" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="P9" s="45" t="s">
+      <c r="P9" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="Q9" s="46" t="s">
+      <c r="Q9" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="R9" s="46" t="s">
+      <c r="R9" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="S9" s="46" t="s">
+      <c r="S9" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="T9" s="46"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="44"/>
     </row>
     <row r="10" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="44" t="n">
+      <c r="A10" s="43" t="n">
         <v>28486</v>
       </c>
-      <c r="B10" s="45" t="n">
+      <c r="B10" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="47" t="n">
+      <c r="H10" s="46" t="n">
         <v>22699</v>
       </c>
-      <c r="I10" s="47" t="n">
+      <c r="I10" s="46" t="n">
         <v>22699</v>
       </c>
-      <c r="J10" s="47" t="n">
+      <c r="J10" s="46" t="n">
         <v>42513</v>
       </c>
-      <c r="K10" s="48" t="n">
+      <c r="K10" s="47" t="n">
         <v>14</v>
       </c>
-      <c r="L10" s="45" t="s">
+      <c r="L10" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="M10" s="45" t="s">
+      <c r="M10" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="N10" s="45" t="s">
+      <c r="N10" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="45" t="s">
+      <c r="O10" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="P10" s="45" t="s">
+      <c r="P10" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="Q10" s="46" t="s">
+      <c r="Q10" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="R10" s="46" t="s">
+      <c r="R10" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="S10" s="46" t="s">
+      <c r="S10" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="T10" s="46"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="44"/>
     </row>
     <row r="11" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="44" t="n">
+      <c r="A11" s="43" t="n">
         <v>30015</v>
       </c>
-      <c r="B11" s="45" t="n">
+      <c r="B11" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="45" t="s">
+      <c r="G11" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="47" t="n">
+      <c r="H11" s="46" t="n">
         <v>23410</v>
       </c>
-      <c r="I11" s="47" t="n">
+      <c r="I11" s="46" t="n">
         <v>23410</v>
       </c>
-      <c r="J11" s="47" t="n">
+      <c r="J11" s="46" t="n">
         <v>43552</v>
       </c>
-      <c r="K11" s="48" t="n">
+      <c r="K11" s="47" t="n">
         <v>10</v>
       </c>
-      <c r="L11" s="45" t="s">
+      <c r="L11" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="M11" s="45" t="s">
+      <c r="M11" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="N11" s="45" t="s">
+      <c r="N11" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="O11" s="45" t="s">
+      <c r="O11" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="P11" s="45" t="s">
+      <c r="P11" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="Q11" s="46" t="s">
+      <c r="Q11" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="R11" s="46" t="s">
+      <c r="R11" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="S11" s="46" t="s">
+      <c r="S11" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="T11" s="46"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="44"/>
     </row>
     <row r="12" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="44" t="n">
+      <c r="A12" s="43" t="n">
         <v>31644</v>
       </c>
-      <c r="B12" s="45" t="n">
+      <c r="B12" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="45" t="s">
+      <c r="F12" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="45" t="s">
+      <c r="G12" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="H12" s="47" t="n">
+      <c r="H12" s="46" t="n">
         <v>24645</v>
       </c>
-      <c r="I12" s="47" t="n">
+      <c r="I12" s="46" t="n">
         <v>34421</v>
       </c>
-      <c r="J12" s="47" t="n">
+      <c r="J12" s="46" t="n">
         <v>42781</v>
       </c>
-      <c r="K12" s="48" t="n">
+      <c r="K12" s="47" t="n">
         <v>11</v>
       </c>
-      <c r="L12" s="45" t="s">
+      <c r="L12" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="M12" s="45" t="s">
+      <c r="M12" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="N12" s="45" t="s">
+      <c r="N12" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="O12" s="45" t="s">
+      <c r="O12" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="P12" s="45" t="s">
+      <c r="P12" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="Q12" s="46" t="s">
+      <c r="Q12" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="R12" s="46" t="s">
+      <c r="R12" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="S12" s="46" t="s">
+      <c r="S12" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="T12" s="46"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="44"/>
     </row>
     <row r="13" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="44" t="n">
+      <c r="A13" s="43" t="n">
         <v>32475</v>
       </c>
-      <c r="B13" s="45" t="n">
+      <c r="B13" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="G13" s="45" t="s">
+      <c r="G13" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="47" t="n">
+      <c r="H13" s="46" t="n">
         <v>24267</v>
       </c>
-      <c r="I13" s="47" t="n">
+      <c r="I13" s="46" t="n">
         <v>24267</v>
       </c>
-      <c r="J13" s="47" t="n">
+      <c r="J13" s="46" t="n">
         <v>42480</v>
       </c>
-      <c r="K13" s="48" t="n">
+      <c r="K13" s="47" t="n">
         <v>19</v>
       </c>
-      <c r="L13" s="45" t="s">
+      <c r="L13" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="M13" s="45" t="s">
+      <c r="M13" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="N13" s="45" t="s">
+      <c r="N13" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="O13" s="45" t="s">
+      <c r="O13" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="P13" s="45" t="s">
+      <c r="P13" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="Q13" s="46" t="s">
+      <c r="Q13" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="R13" s="46" t="s">
+      <c r="R13" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="S13" s="46" t="s">
+      <c r="S13" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="T13" s="46"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
-      <c r="W13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
     </row>
     <row r="14" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="44" t="n">
+      <c r="A14" s="43" t="n">
         <v>35366</v>
       </c>
-      <c r="B14" s="45" t="n">
+      <c r="B14" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="46" t="s">
+      <c r="E14" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="45" t="s">
+      <c r="F14" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="45" t="s">
+      <c r="G14" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="H14" s="47" t="n">
+      <c r="H14" s="46" t="n">
         <v>25696</v>
       </c>
-      <c r="I14" s="47" t="n">
+      <c r="I14" s="46" t="n">
         <v>25696</v>
       </c>
-      <c r="J14" s="47" t="n">
+      <c r="J14" s="46" t="n">
         <v>42781</v>
       </c>
-      <c r="K14" s="48" t="n">
+      <c r="K14" s="47" t="n">
         <v>16</v>
       </c>
-      <c r="L14" s="45" t="s">
+      <c r="L14" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="M14" s="45" t="s">
+      <c r="M14" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="N14" s="45" t="s">
+      <c r="N14" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="O14" s="45" t="s">
+      <c r="O14" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="P14" s="45" t="s">
+      <c r="P14" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="Q14" s="46" t="s">
+      <c r="Q14" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="R14" s="46" t="s">
+      <c r="R14" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="S14" s="46" t="s">
+      <c r="S14" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="T14" s="46"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="45"/>
-      <c r="W14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="44"/>
+      <c r="V14" s="44"/>
+      <c r="W14" s="44"/>
     </row>
     <row r="15" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="44" t="n">
+      <c r="A15" s="43" t="n">
         <v>43454</v>
       </c>
-      <c r="B15" s="45" t="n">
+      <c r="B15" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="G15" s="45" t="s">
+      <c r="G15" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="47" t="n">
+      <c r="H15" s="46" t="n">
         <v>29650</v>
       </c>
-      <c r="I15" s="47" t="n">
+      <c r="I15" s="46" t="n">
         <v>29650</v>
       </c>
-      <c r="J15" s="47" t="n">
+      <c r="J15" s="46" t="n">
         <v>43905</v>
       </c>
-      <c r="K15" s="48" t="n">
+      <c r="K15" s="47" t="n">
         <v>99</v>
       </c>
-      <c r="L15" s="45" t="s">
+      <c r="L15" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="M15" s="45" t="s">
+      <c r="M15" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="N15" s="45" t="s">
+      <c r="N15" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="O15" s="45" t="s">
+      <c r="O15" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="P15" s="45" t="s">
+      <c r="P15" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="Q15" s="46" t="s">
+      <c r="Q15" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="R15" s="46" t="s">
+      <c r="R15" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="S15" s="46" t="s">
+      <c r="S15" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="T15" s="46"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="45"/>
-      <c r="W15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="44"/>
     </row>
     <row r="16" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="44" t="n">
+      <c r="A16" s="43" t="n">
         <v>44625</v>
       </c>
-      <c r="B16" s="45" t="n">
+      <c r="B16" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="E16" s="46" t="s">
+      <c r="E16" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="45" t="s">
+      <c r="F16" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="G16" s="45" t="s">
+      <c r="G16" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="H16" s="47" t="n">
+      <c r="H16" s="46" t="n">
         <v>30098</v>
       </c>
-      <c r="I16" s="47" t="n">
+      <c r="I16" s="46" t="n">
         <v>30098</v>
       </c>
-      <c r="J16" s="47" t="n">
+      <c r="J16" s="46" t="n">
         <v>42842</v>
       </c>
-      <c r="K16" s="48" t="n">
+      <c r="K16" s="47" t="n">
         <v>59</v>
       </c>
-      <c r="L16" s="45" t="s">
+      <c r="L16" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="M16" s="45" t="s">
+      <c r="M16" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="N16" s="45" t="s">
+      <c r="N16" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="O16" s="45" t="s">
+      <c r="O16" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="P16" s="45" t="s">
+      <c r="P16" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="Q16" s="46" t="s">
+      <c r="Q16" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="R16" s="46" t="s">
+      <c r="R16" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="S16" s="46" t="s">
+      <c r="S16" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="T16" s="46"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="44"/>
     </row>
     <row r="17" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="44" t="n">
+      <c r="A17" s="43" t="n">
         <v>45882</v>
       </c>
-      <c r="B17" s="45" t="n">
+      <c r="B17" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="E17" s="46" t="s">
+      <c r="E17" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="G17" s="45" t="s">
+      <c r="G17" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="H17" s="47" t="n">
+      <c r="H17" s="46" t="n">
         <v>31180</v>
       </c>
-      <c r="I17" s="47" t="n">
+      <c r="I17" s="46" t="n">
         <v>31180</v>
       </c>
-      <c r="J17" s="47" t="n">
+      <c r="J17" s="46" t="n">
         <v>43340</v>
       </c>
-      <c r="K17" s="48" t="n">
+      <c r="K17" s="47" t="n">
         <v>20</v>
       </c>
-      <c r="L17" s="45" t="s">
+      <c r="L17" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="M17" s="45" t="s">
+      <c r="M17" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="N17" s="45" t="s">
+      <c r="N17" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="O17" s="45" t="s">
+      <c r="O17" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="P17" s="45" t="s">
+      <c r="P17" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="Q17" s="46" t="s">
+      <c r="Q17" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="R17" s="46" t="s">
+      <c r="R17" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="S17" s="46" t="s">
+      <c r="S17" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="T17" s="46"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="45"/>
-      <c r="W17" s="45"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="44"/>
     </row>
     <row r="18" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="44" t="n">
+      <c r="A18" s="43" t="n">
         <v>53290</v>
       </c>
-      <c r="B18" s="45" t="n">
+      <c r="B18" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="E18" s="46" t="s">
+      <c r="E18" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="F18" s="45" t="s">
+      <c r="F18" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="G18" s="45" t="s">
+      <c r="G18" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="H18" s="47" t="n">
+      <c r="H18" s="46" t="n">
         <v>35026</v>
       </c>
-      <c r="I18" s="47" t="n">
+      <c r="I18" s="46" t="n">
         <v>35026</v>
       </c>
-      <c r="J18" s="47" t="n">
+      <c r="J18" s="46" t="n">
         <v>43002</v>
       </c>
-      <c r="K18" s="48" t="n">
+      <c r="K18" s="47" t="n">
         <v>19</v>
       </c>
-      <c r="L18" s="45" t="s">
+      <c r="L18" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="M18" s="45" t="s">
+      <c r="M18" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="N18" s="45" t="s">
+      <c r="N18" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="O18" s="45" t="s">
+      <c r="O18" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="P18" s="45" t="s">
+      <c r="P18" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="Q18" s="46" t="s">
+      <c r="Q18" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="R18" s="46" t="s">
+      <c r="R18" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="S18" s="46" t="s">
+      <c r="S18" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="T18" s="46"/>
-      <c r="U18" s="45" t="s">
+      <c r="T18" s="45"/>
+      <c r="U18" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="V18" s="45" t="s">
+      <c r="V18" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="W18" s="45"/>
+      <c r="W18" s="44"/>
     </row>
     <row r="19" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="44" t="n">
+      <c r="A19" s="43" t="n">
         <v>53662</v>
       </c>
-      <c r="B19" s="45" t="n">
+      <c r="B19" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="D19" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="E19" s="46" t="s">
+      <c r="E19" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="45" t="s">
+      <c r="F19" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="G19" s="45" t="s">
+      <c r="G19" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="H19" s="47" t="n">
+      <c r="H19" s="46" t="n">
         <v>35123</v>
       </c>
-      <c r="I19" s="47" t="n">
+      <c r="I19" s="46" t="n">
         <v>35123</v>
       </c>
-      <c r="J19" s="47" t="n">
+      <c r="J19" s="46" t="n">
         <v>42851</v>
       </c>
-      <c r="K19" s="48" t="n">
+      <c r="K19" s="47" t="n">
         <v>13</v>
       </c>
-      <c r="L19" s="45" t="s">
+      <c r="L19" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="M19" s="45" t="s">
+      <c r="M19" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="N19" s="45" t="s">
+      <c r="N19" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="O19" s="45" t="s">
+      <c r="O19" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="P19" s="45" t="s">
+      <c r="P19" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="Q19" s="46" t="s">
+      <c r="Q19" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="R19" s="46" t="s">
+      <c r="R19" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="S19" s="46" t="s">
+      <c r="S19" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="T19" s="46"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="45"/>
-      <c r="W19" s="45"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
     </row>
     <row r="20" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="44" t="n">
+      <c r="A20" s="43" t="n">
         <v>54015</v>
       </c>
-      <c r="B20" s="45" t="n">
+      <c r="B20" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="46" t="s">
+      <c r="C20" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="E20" s="46" t="s">
+      <c r="E20" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="45" t="s">
+      <c r="F20" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="G20" s="45" t="s">
+      <c r="G20" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="H20" s="47" t="n">
+      <c r="H20" s="46" t="n">
         <v>35488</v>
       </c>
-      <c r="I20" s="47" t="n">
+      <c r="I20" s="46" t="n">
         <v>35488</v>
       </c>
-      <c r="J20" s="47" t="n">
+      <c r="J20" s="46" t="n">
         <v>42921</v>
       </c>
-      <c r="K20" s="48" t="n">
+      <c r="K20" s="47" t="n">
         <v>11</v>
       </c>
-      <c r="L20" s="45" t="s">
+      <c r="L20" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="M20" s="45" t="s">
+      <c r="M20" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="N20" s="45" t="s">
+      <c r="N20" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="O20" s="45" t="s">
+      <c r="O20" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="P20" s="45" t="s">
+      <c r="P20" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="Q20" s="46" t="s">
+      <c r="Q20" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="R20" s="46" t="s">
+      <c r="R20" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="S20" s="46" t="s">
+      <c r="S20" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="T20" s="46"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
     </row>
-    <row r="21" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="36" t="n">
         <v>54534</v>
       </c>
-      <c r="B21" s="45" t="n">
+      <c r="B21" s="44" t="n">
         <v>4</v>
       </c>
       <c r="C21" s="38" t="s">
@@ -5575,7 +6647,7 @@
       <c r="J21" s="41" t="n">
         <v>44143</v>
       </c>
-      <c r="K21" s="49" t="n">
+      <c r="K21" s="48" t="n">
         <v>1</v>
       </c>
       <c r="L21" s="36" t="s">
@@ -5607,281 +6679,281 @@
       <c r="V21" s="38"/>
       <c r="W21" s="39"/>
     </row>
-    <row r="22" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="44" t="n">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="43" t="n">
         <v>55558</v>
       </c>
-      <c r="B22" s="45" t="n">
+      <c r="B22" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="45" t="s">
         <v>163</v>
       </c>
-      <c r="D22" s="46" t="s">
+      <c r="D22" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="E22" s="46" t="s">
+      <c r="E22" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="45" t="s">
+      <c r="F22" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="G22" s="45" t="s">
+      <c r="G22" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="H22" s="47" t="n">
+      <c r="H22" s="46" t="n">
         <v>37232</v>
       </c>
-      <c r="I22" s="47" t="n">
+      <c r="I22" s="46" t="n">
         <v>37232</v>
       </c>
-      <c r="J22" s="47" t="n">
+      <c r="J22" s="46" t="n">
         <v>42896</v>
       </c>
-      <c r="K22" s="48" t="n">
+      <c r="K22" s="47" t="n">
         <v>5</v>
       </c>
-      <c r="L22" s="45" t="s">
+      <c r="L22" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="M22" s="45" t="s">
+      <c r="M22" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="N22" s="45" t="s">
+      <c r="N22" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="O22" s="45" t="s">
+      <c r="O22" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="P22" s="45" t="s">
+      <c r="P22" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="Q22" s="46" t="s">
+      <c r="Q22" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="R22" s="46" t="s">
+      <c r="R22" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="S22" s="46" t="s">
+      <c r="S22" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="T22" s="46"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="45"/>
-      <c r="W22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="44"/>
     </row>
-    <row r="23" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="44" t="n">
-        <v>55561</v>
-      </c>
-      <c r="B23" s="45" t="n">
-        <v>2</v>
-      </c>
-      <c r="C23" s="46" t="s">
+    <row r="23" s="56" customFormat="true" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="49" t="n">
+        <v>66297</v>
+      </c>
+      <c r="B23" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="E23" s="46" t="s">
+      <c r="E23" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="45" t="s">
+      <c r="F23" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="G23" s="45" t="s">
+      <c r="G23" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="H23" s="47" t="n">
-        <v>37232</v>
-      </c>
-      <c r="I23" s="47" t="n">
-        <v>37232</v>
-      </c>
-      <c r="J23" s="47" t="n">
-        <v>43732</v>
-      </c>
-      <c r="K23" s="48" t="n">
-        <v>4</v>
-      </c>
-      <c r="L23" s="45" t="s">
+      <c r="H23" s="53" t="n">
+        <v>42559</v>
+      </c>
+      <c r="I23" s="53" t="n">
+        <v>42559</v>
+      </c>
+      <c r="J23" s="54" t="n">
+        <v>44384</v>
+      </c>
+      <c r="K23" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="M23" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="N23" s="45" t="s">
+      <c r="M23" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="N23" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="O23" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="P23" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q23" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="R23" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="S23" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="T23" s="51"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="51"/>
+      <c r="W23" s="52" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="43" t="n">
+        <v>55594</v>
+      </c>
+      <c r="B24" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="G24" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="H24" s="46" t="n">
+        <v>37172</v>
+      </c>
+      <c r="I24" s="46" t="n">
+        <v>37172</v>
+      </c>
+      <c r="J24" s="46" t="n">
+        <v>43863</v>
+      </c>
+      <c r="K24" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="M24" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="N24" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="O24" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="P24" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q24" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="R24" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="S24" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="T24" s="45"/>
+      <c r="U24" s="44"/>
+      <c r="V24" s="44"/>
+      <c r="W24" s="44"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="43" t="n">
+        <v>55674</v>
+      </c>
+      <c r="B25" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="E25" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="G25" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="H25" s="46" t="n">
+        <v>37321</v>
+      </c>
+      <c r="I25" s="46" t="n">
+        <v>37321</v>
+      </c>
+      <c r="J25" s="46" t="n">
+        <v>42798</v>
+      </c>
+      <c r="K25" s="47" t="n">
+        <v>5</v>
+      </c>
+      <c r="L25" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="M25" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="N25" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="O23" s="45" t="s">
+      <c r="O25" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="P23" s="45" t="s">
+      <c r="P25" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="Q23" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="R23" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="S23" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="T23" s="46"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="45"/>
-      <c r="W23" s="45" t="s">
-        <v>177</v>
-      </c>
+      <c r="Q25" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="R25" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="S25" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="T25" s="45"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="44"/>
     </row>
-    <row r="24" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="44" t="n">
-        <v>55594</v>
-      </c>
-      <c r="B24" s="45" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="D24" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="E24" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" s="45" t="s">
-        <v>179</v>
-      </c>
-      <c r="G24" s="45" t="s">
-        <v>180</v>
-      </c>
-      <c r="H24" s="47" t="n">
-        <v>37172</v>
-      </c>
-      <c r="I24" s="47" t="n">
-        <v>37172</v>
-      </c>
-      <c r="J24" s="47" t="n">
-        <v>43863</v>
-      </c>
-      <c r="K24" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="L24" s="45" t="s">
-        <v>181</v>
-      </c>
-      <c r="M24" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="N24" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="O24" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="P24" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q24" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="R24" s="46" t="s">
-        <v>183</v>
-      </c>
-      <c r="S24" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="T24" s="46"/>
-      <c r="U24" s="45"/>
-      <c r="V24" s="45"/>
-      <c r="W24" s="45"/>
-    </row>
-    <row r="25" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="44" t="n">
-        <v>55674</v>
-      </c>
-      <c r="B25" s="45" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="D25" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="E25" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="G25" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="H25" s="47" t="n">
-        <v>37321</v>
-      </c>
-      <c r="I25" s="47" t="n">
-        <v>37321</v>
-      </c>
-      <c r="J25" s="47" t="n">
-        <v>42798</v>
-      </c>
-      <c r="K25" s="48" t="n">
-        <v>5</v>
-      </c>
-      <c r="L25" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="M25" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="N25" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="O25" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="P25" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q25" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="R25" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="S25" s="46" t="s">
-        <v>192</v>
-      </c>
-      <c r="T25" s="46"/>
-      <c r="U25" s="45"/>
-      <c r="V25" s="45"/>
-      <c r="W25" s="45"/>
-    </row>
-    <row r="26" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="36" t="n">
         <v>56352</v>
       </c>
-      <c r="B26" s="50" t="n">
+      <c r="B26" s="57" t="n">
         <v>7</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E26" s="39" t="s">
         <v>131</v>
       </c>
       <c r="F26" s="39" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G26" s="39" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H26" s="40" t="n">
         <v>38034</v>
@@ -5892,14 +6964,14 @@
       <c r="J26" s="41" t="n">
         <v>43512</v>
       </c>
-      <c r="K26" s="49" t="n">
+      <c r="K26" s="48" t="n">
         <v>17</v>
       </c>
       <c r="L26" s="36" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M26" s="38" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N26" s="39" t="s">
         <v>33</v>
@@ -5911,13 +6983,13 @@
         <v>33</v>
       </c>
       <c r="Q26" s="38" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="R26" s="38" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="S26" s="38" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="T26" s="38"/>
       <c r="U26" s="39" t="s">
@@ -5926,253 +6998,253 @@
       <c r="V26" s="38"/>
       <c r="W26" s="39"/>
     </row>
-    <row r="27" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="44" t="n">
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="43" t="n">
         <v>58943</v>
       </c>
-      <c r="B27" s="45" t="n">
+      <c r="B27" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="C27" s="46" t="s">
-        <v>202</v>
-      </c>
-      <c r="D27" s="46" t="s">
+      <c r="C27" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="E27" s="46" t="s">
+      <c r="D27" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="F27" s="45" t="s">
+      <c r="E27" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="G27" s="45"/>
-      <c r="H27" s="47" t="n">
+      <c r="F27" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="G27" s="44"/>
+      <c r="H27" s="46" t="n">
         <v>42110</v>
       </c>
-      <c r="I27" s="47" t="n">
+      <c r="I27" s="46" t="n">
         <v>42110</v>
       </c>
-      <c r="J27" s="47" t="n">
+      <c r="J27" s="46" t="n">
         <v>43936</v>
       </c>
-      <c r="K27" s="48" t="n">
+      <c r="K27" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="L27" s="45" t="s">
-        <v>206</v>
-      </c>
-      <c r="M27" s="45" t="s">
+      <c r="L27" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="N27" s="45" t="s">
+      <c r="M27" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="N27" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="O27" s="45" t="s">
+      <c r="O27" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="P27" s="45" t="s">
+      <c r="P27" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="46" t="s">
-        <v>208</v>
-      </c>
-      <c r="T27" s="46" t="s">
+      <c r="Q27" s="45"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="U27" s="45"/>
-      <c r="V27" s="45"/>
-      <c r="W27" s="45"/>
+      <c r="T27" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
     </row>
-    <row r="28" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="44" t="n">
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="43" t="n">
         <v>59267</v>
       </c>
-      <c r="B28" s="45" t="n">
+      <c r="B28" s="44" t="n">
         <v>7</v>
       </c>
-      <c r="C28" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="D28" s="46" t="s">
+      <c r="C28" s="45" t="s">
         <v>211</v>
       </c>
-      <c r="E28" s="46" t="s">
+      <c r="D28" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="F28" s="45" t="s">
+      <c r="E28" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="G28" s="45" t="s">
+      <c r="F28" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="H28" s="47" t="n">
+      <c r="G28" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="H28" s="46" t="n">
         <v>40128</v>
       </c>
-      <c r="I28" s="47" t="n">
+      <c r="I28" s="46" t="n">
         <v>42257</v>
       </c>
-      <c r="J28" s="47" t="n">
+      <c r="J28" s="46" t="n">
         <v>43779</v>
       </c>
-      <c r="K28" s="48" t="n">
+      <c r="K28" s="47" t="n">
         <v>11</v>
       </c>
-      <c r="L28" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="M28" s="45" t="s">
+      <c r="L28" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="N28" s="45" t="s">
+      <c r="M28" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="N28" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="O28" s="45" t="s">
+      <c r="O28" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="P28" s="45" t="s">
+      <c r="P28" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="Q28" s="46" t="s">
-        <v>217</v>
-      </c>
-      <c r="R28" s="46" t="s">
+      <c r="Q28" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="S28" s="46" t="s">
+      <c r="R28" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="T28" s="46"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="45"/>
-      <c r="W28" s="45"/>
+      <c r="S28" s="45" t="s">
+        <v>220</v>
+      </c>
+      <c r="T28" s="45"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="44"/>
+      <c r="W28" s="44"/>
     </row>
-    <row r="29" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="44" t="n">
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="43" t="n">
         <v>61186</v>
       </c>
-      <c r="B29" s="45" t="n">
+      <c r="B29" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="C29" s="46" t="s">
-        <v>220</v>
-      </c>
-      <c r="D29" s="46" t="s">
+      <c r="C29" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="D29" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="46" t="s">
+      <c r="E29" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="45" t="s">
-        <v>179</v>
-      </c>
-      <c r="G29" s="45" t="s">
+      <c r="F29" s="44" t="s">
         <v>180</v>
       </c>
-      <c r="H29" s="47" t="n">
+      <c r="G29" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="H29" s="46" t="n">
         <v>40522</v>
       </c>
-      <c r="I29" s="47" t="n">
+      <c r="I29" s="46" t="n">
         <v>40522</v>
       </c>
-      <c r="J29" s="47" t="n">
+      <c r="J29" s="46" t="n">
         <v>44174</v>
       </c>
-      <c r="K29" s="48" t="n">
+      <c r="K29" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="L29" s="45" t="s">
-        <v>221</v>
-      </c>
-      <c r="M29" s="45" t="s">
+      <c r="L29" s="44" t="s">
         <v>222</v>
       </c>
-      <c r="N29" s="45" t="s">
+      <c r="M29" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="N29" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="O29" s="45" t="s">
+      <c r="O29" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="P29" s="45" t="s">
+      <c r="P29" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="Q29" s="46" t="s">
-        <v>223</v>
-      </c>
-      <c r="R29" s="46" t="s">
+      <c r="Q29" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="S29" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="T29" s="46"/>
-      <c r="U29" s="45"/>
-      <c r="V29" s="45"/>
-      <c r="W29" s="45"/>
+      <c r="R29" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="S29" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="T29" s="45"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="44"/>
+      <c r="W29" s="44"/>
     </row>
     <row r="30" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="44" t="n">
+      <c r="A30" s="43" t="n">
         <v>62069</v>
       </c>
-      <c r="B30" s="45" t="n">
+      <c r="B30" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="C30" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="D30" s="46" t="s">
+      <c r="C30" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="E30" s="46" t="s">
+      <c r="D30" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E30" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="45" t="s">
-        <v>227</v>
-      </c>
-      <c r="G30" s="45" t="s">
+      <c r="F30" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="H30" s="47" t="n">
+      <c r="G30" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="H30" s="46" t="n">
         <v>40610</v>
       </c>
-      <c r="I30" s="47" t="n">
+      <c r="I30" s="46" t="n">
         <v>40610</v>
       </c>
-      <c r="J30" s="47" t="n">
+      <c r="J30" s="46" t="n">
         <v>44262</v>
       </c>
-      <c r="K30" s="48" t="n">
+      <c r="K30" s="47" t="n">
         <v>8</v>
       </c>
-      <c r="L30" s="45" t="s">
+      <c r="L30" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="M30" s="45" t="s">
+      <c r="M30" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="N30" s="45" t="s">
+      <c r="N30" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="O30" s="45" t="s">
+      <c r="O30" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="P30" s="45" t="s">
+      <c r="P30" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="Q30" s="46" t="s">
-        <v>229</v>
-      </c>
-      <c r="R30" s="46" t="s">
+      <c r="Q30" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="S30" s="46" t="s">
+      <c r="R30" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="T30" s="46"/>
-      <c r="U30" s="45"/>
-      <c r="V30" s="45"/>
-      <c r="W30" s="45"/>
+      <c r="S30" s="45" t="s">
+        <v>232</v>
+      </c>
+      <c r="T30" s="45"/>
+      <c r="U30" s="44"/>
+      <c r="V30" s="44"/>
+      <c r="W30" s="44"/>
       <c r="Y30" s="0"/>
       <c r="Z30" s="0"/>
       <c r="AA30" s="0"/>
@@ -7175,69 +8247,69 @@
       <c r="AMJ30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="44" t="n">
+      <c r="A31" s="43" t="n">
         <v>62132</v>
       </c>
-      <c r="B31" s="45" t="n">
+      <c r="B31" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="C31" s="46" t="s">
-        <v>232</v>
-      </c>
-      <c r="D31" s="46" t="s">
+      <c r="C31" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="E31" s="46" t="s">
+      <c r="D31" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="E31" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="F31" s="45" t="s">
-        <v>234</v>
-      </c>
-      <c r="G31" s="45" t="s">
+      <c r="F31" s="44" t="s">
         <v>235</v>
       </c>
-      <c r="H31" s="47" t="n">
+      <c r="G31" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="H31" s="46" t="n">
         <v>41337</v>
       </c>
-      <c r="I31" s="47" t="n">
+      <c r="I31" s="46" t="n">
         <v>41337</v>
       </c>
-      <c r="J31" s="47" t="n">
+      <c r="J31" s="46" t="n">
         <v>43162</v>
       </c>
-      <c r="K31" s="48" t="n">
+      <c r="K31" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="L31" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="M31" s="45" t="s">
-        <v>236</v>
-      </c>
-      <c r="N31" s="45" t="s">
+      <c r="L31" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="M31" s="44" t="s">
+        <v>237</v>
+      </c>
+      <c r="N31" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="O31" s="45" t="s">
+      <c r="O31" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="P31" s="45" t="s">
+      <c r="P31" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="Q31" s="46" t="s">
-        <v>237</v>
-      </c>
-      <c r="R31" s="46" t="s">
+      <c r="Q31" s="45" t="s">
         <v>238</v>
       </c>
-      <c r="S31" s="46" t="s">
+      <c r="R31" s="45" t="s">
         <v>239</v>
       </c>
-      <c r="T31" s="46"/>
-      <c r="U31" s="45" t="s">
+      <c r="S31" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="T31" s="45"/>
+      <c r="U31" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="V31" s="45"/>
-      <c r="W31" s="45"/>
+      <c r="V31" s="44"/>
+      <c r="W31" s="44"/>
       <c r="Y31" s="0"/>
       <c r="Z31" s="0"/>
       <c r="AA31" s="0"/>
@@ -8240,67 +9312,67 @@
       <c r="AMJ31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="51" t="n">
+      <c r="A32" s="36" t="n">
         <v>65856</v>
       </c>
-      <c r="B32" s="52" t="n">
+      <c r="B32" s="57" t="n">
         <v>1</v>
       </c>
-      <c r="C32" s="53" t="s">
-        <v>240</v>
-      </c>
-      <c r="D32" s="53" t="s">
+      <c r="C32" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="E32" s="54" t="s">
+      <c r="D32" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="E32" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="F32" s="54" t="s">
-        <v>242</v>
-      </c>
-      <c r="G32" s="54" t="s">
+      <c r="F32" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="H32" s="55" t="n">
+      <c r="G32" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="H32" s="40" t="n">
         <v>42404</v>
       </c>
-      <c r="I32" s="55" t="n">
+      <c r="I32" s="40" t="n">
         <v>42404</v>
       </c>
-      <c r="J32" s="56" t="n">
+      <c r="J32" s="41" t="n">
         <v>44230</v>
       </c>
-      <c r="K32" s="57" t="n">
+      <c r="K32" s="48" t="n">
         <v>1</v>
       </c>
-      <c r="L32" s="51" t="s">
+      <c r="L32" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="M32" s="53" t="s">
+      <c r="M32" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="N32" s="54" t="s">
+      <c r="N32" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="O32" s="54" t="s">
+      <c r="O32" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="P32" s="54" t="s">
+      <c r="P32" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="Q32" s="53" t="s">
-        <v>244</v>
-      </c>
-      <c r="R32" s="53" t="s">
+      <c r="Q32" s="38" t="s">
         <v>245</v>
       </c>
-      <c r="S32" s="53" t="s">
+      <c r="R32" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="T32" s="53"/>
-      <c r="U32" s="54"/>
-      <c r="V32" s="53"/>
-      <c r="W32" s="54"/>
+      <c r="S32" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="T32" s="38"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="38"/>
+      <c r="W32" s="39"/>
       <c r="Y32" s="0"/>
       <c r="Z32" s="0"/>
       <c r="AA32" s="0"/>
@@ -9302,131 +10374,2448 @@
       <c r="AMI32" s="0"/>
       <c r="AMJ32" s="0"/>
     </row>
-    <row r="33" s="58" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="51" t="n">
+    <row r="33" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="36" t="n">
         <v>65857</v>
       </c>
-      <c r="B33" s="52" t="n">
+      <c r="B33" s="57" t="n">
         <v>1</v>
       </c>
-      <c r="C33" s="53" t="s">
+      <c r="C33" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="G33" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="H33" s="40" t="n">
+        <v>42929</v>
+      </c>
+      <c r="I33" s="40" t="n">
+        <v>42929</v>
+      </c>
+      <c r="J33" s="41" t="n">
+        <v>44754</v>
+      </c>
+      <c r="K33" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="M33" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="N33" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="O33" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="P33" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q33" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="R33" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="S33" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="D33" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="E33" s="54" t="s">
+      <c r="T33" s="38"/>
+      <c r="U33" s="39"/>
+      <c r="V33" s="38"/>
+      <c r="W33" s="39"/>
+      <c r="Y33" s="0"/>
+      <c r="Z33" s="0"/>
+      <c r="AA33" s="0"/>
+      <c r="AB33" s="0"/>
+      <c r="AC33" s="0"/>
+      <c r="AD33" s="0"/>
+      <c r="AE33" s="0"/>
+      <c r="AF33" s="0"/>
+      <c r="AG33" s="0"/>
+      <c r="AH33" s="0"/>
+      <c r="AI33" s="0"/>
+      <c r="AJ33" s="0"/>
+      <c r="AK33" s="0"/>
+      <c r="AL33" s="0"/>
+      <c r="AM33" s="0"/>
+      <c r="AN33" s="0"/>
+      <c r="AO33" s="0"/>
+      <c r="AP33" s="0"/>
+      <c r="AQ33" s="0"/>
+      <c r="AR33" s="0"/>
+      <c r="AS33" s="0"/>
+      <c r="AT33" s="0"/>
+      <c r="AU33" s="0"/>
+      <c r="AV33" s="0"/>
+      <c r="AW33" s="0"/>
+      <c r="AX33" s="0"/>
+      <c r="AY33" s="0"/>
+      <c r="AZ33" s="0"/>
+      <c r="BA33" s="0"/>
+      <c r="BB33" s="0"/>
+      <c r="BC33" s="0"/>
+      <c r="BD33" s="0"/>
+      <c r="BE33" s="0"/>
+      <c r="BF33" s="0"/>
+      <c r="BG33" s="0"/>
+      <c r="BH33" s="0"/>
+      <c r="BI33" s="0"/>
+      <c r="BJ33" s="0"/>
+      <c r="BK33" s="0"/>
+      <c r="BL33" s="0"/>
+      <c r="BM33" s="0"/>
+      <c r="BN33" s="0"/>
+      <c r="BO33" s="0"/>
+      <c r="BP33" s="0"/>
+      <c r="BQ33" s="0"/>
+      <c r="BR33" s="0"/>
+      <c r="BS33" s="0"/>
+      <c r="BT33" s="0"/>
+      <c r="BU33" s="0"/>
+      <c r="BV33" s="0"/>
+      <c r="BW33" s="0"/>
+      <c r="BX33" s="0"/>
+      <c r="BY33" s="0"/>
+      <c r="BZ33" s="0"/>
+      <c r="CA33" s="0"/>
+      <c r="CB33" s="0"/>
+      <c r="CC33" s="0"/>
+      <c r="CD33" s="0"/>
+      <c r="CE33" s="0"/>
+      <c r="CF33" s="0"/>
+      <c r="CG33" s="0"/>
+      <c r="CH33" s="0"/>
+      <c r="CI33" s="0"/>
+      <c r="CJ33" s="0"/>
+      <c r="CK33" s="0"/>
+      <c r="CL33" s="0"/>
+      <c r="CM33" s="0"/>
+      <c r="CN33" s="0"/>
+      <c r="CO33" s="0"/>
+      <c r="CP33" s="0"/>
+      <c r="CQ33" s="0"/>
+      <c r="CR33" s="0"/>
+      <c r="CS33" s="0"/>
+      <c r="CT33" s="0"/>
+      <c r="CU33" s="0"/>
+      <c r="CV33" s="0"/>
+      <c r="CW33" s="0"/>
+      <c r="CX33" s="0"/>
+      <c r="CY33" s="0"/>
+      <c r="CZ33" s="0"/>
+      <c r="DA33" s="0"/>
+      <c r="DB33" s="0"/>
+      <c r="DC33" s="0"/>
+      <c r="DD33" s="0"/>
+      <c r="DE33" s="0"/>
+      <c r="DF33" s="0"/>
+      <c r="DG33" s="0"/>
+      <c r="DH33" s="0"/>
+      <c r="DI33" s="0"/>
+      <c r="DJ33" s="0"/>
+      <c r="DK33" s="0"/>
+      <c r="DL33" s="0"/>
+      <c r="DM33" s="0"/>
+      <c r="DN33" s="0"/>
+      <c r="DO33" s="0"/>
+      <c r="DP33" s="0"/>
+      <c r="DQ33" s="0"/>
+      <c r="DR33" s="0"/>
+      <c r="DS33" s="0"/>
+      <c r="DT33" s="0"/>
+      <c r="DU33" s="0"/>
+      <c r="DV33" s="0"/>
+      <c r="DW33" s="0"/>
+      <c r="DX33" s="0"/>
+      <c r="DY33" s="0"/>
+      <c r="DZ33" s="0"/>
+      <c r="EA33" s="0"/>
+      <c r="EB33" s="0"/>
+      <c r="EC33" s="0"/>
+      <c r="ED33" s="0"/>
+      <c r="EE33" s="0"/>
+      <c r="EF33" s="0"/>
+      <c r="EG33" s="0"/>
+      <c r="EH33" s="0"/>
+      <c r="EI33" s="0"/>
+      <c r="EJ33" s="0"/>
+      <c r="EK33" s="0"/>
+      <c r="EL33" s="0"/>
+      <c r="EM33" s="0"/>
+      <c r="EN33" s="0"/>
+      <c r="EO33" s="0"/>
+      <c r="EP33" s="0"/>
+      <c r="EQ33" s="0"/>
+      <c r="ER33" s="0"/>
+      <c r="ES33" s="0"/>
+      <c r="ET33" s="0"/>
+      <c r="EU33" s="0"/>
+      <c r="EV33" s="0"/>
+      <c r="EW33" s="0"/>
+      <c r="EX33" s="0"/>
+      <c r="EY33" s="0"/>
+      <c r="EZ33" s="0"/>
+      <c r="FA33" s="0"/>
+      <c r="FB33" s="0"/>
+      <c r="FC33" s="0"/>
+      <c r="FD33" s="0"/>
+      <c r="FE33" s="0"/>
+      <c r="FF33" s="0"/>
+      <c r="FG33" s="0"/>
+      <c r="FH33" s="0"/>
+      <c r="FI33" s="0"/>
+      <c r="FJ33" s="0"/>
+      <c r="FK33" s="0"/>
+      <c r="FL33" s="0"/>
+      <c r="FM33" s="0"/>
+      <c r="FN33" s="0"/>
+      <c r="FO33" s="0"/>
+      <c r="FP33" s="0"/>
+      <c r="FQ33" s="0"/>
+      <c r="FR33" s="0"/>
+      <c r="FS33" s="0"/>
+      <c r="FT33" s="0"/>
+      <c r="FU33" s="0"/>
+      <c r="FV33" s="0"/>
+      <c r="FW33" s="0"/>
+      <c r="FX33" s="0"/>
+      <c r="FY33" s="0"/>
+      <c r="FZ33" s="0"/>
+      <c r="GA33" s="0"/>
+      <c r="GB33" s="0"/>
+      <c r="GC33" s="0"/>
+      <c r="GD33" s="0"/>
+      <c r="GE33" s="0"/>
+      <c r="GF33" s="0"/>
+      <c r="GG33" s="0"/>
+      <c r="GH33" s="0"/>
+      <c r="GI33" s="0"/>
+      <c r="GJ33" s="0"/>
+      <c r="GK33" s="0"/>
+      <c r="GL33" s="0"/>
+      <c r="GM33" s="0"/>
+      <c r="GN33" s="0"/>
+      <c r="GO33" s="0"/>
+      <c r="GP33" s="0"/>
+      <c r="GQ33" s="0"/>
+      <c r="GR33" s="0"/>
+      <c r="GS33" s="0"/>
+      <c r="GT33" s="0"/>
+      <c r="GU33" s="0"/>
+      <c r="GV33" s="0"/>
+      <c r="GW33" s="0"/>
+      <c r="GX33" s="0"/>
+      <c r="GY33" s="0"/>
+      <c r="GZ33" s="0"/>
+      <c r="HA33" s="0"/>
+      <c r="HB33" s="0"/>
+      <c r="HC33" s="0"/>
+      <c r="HD33" s="0"/>
+      <c r="HE33" s="0"/>
+      <c r="HF33" s="0"/>
+      <c r="HG33" s="0"/>
+      <c r="HH33" s="0"/>
+      <c r="HI33" s="0"/>
+      <c r="HJ33" s="0"/>
+      <c r="HK33" s="0"/>
+      <c r="HL33" s="0"/>
+      <c r="HM33" s="0"/>
+      <c r="HN33" s="0"/>
+      <c r="HO33" s="0"/>
+      <c r="HP33" s="0"/>
+      <c r="HQ33" s="0"/>
+      <c r="HR33" s="0"/>
+      <c r="HS33" s="0"/>
+      <c r="HT33" s="0"/>
+      <c r="HU33" s="0"/>
+      <c r="HV33" s="0"/>
+      <c r="HW33" s="0"/>
+      <c r="HX33" s="0"/>
+      <c r="HY33" s="0"/>
+      <c r="HZ33" s="0"/>
+      <c r="IA33" s="0"/>
+      <c r="IB33" s="0"/>
+      <c r="IC33" s="0"/>
+      <c r="ID33" s="0"/>
+      <c r="IE33" s="0"/>
+      <c r="IF33" s="0"/>
+      <c r="IG33" s="0"/>
+      <c r="IH33" s="0"/>
+      <c r="II33" s="0"/>
+      <c r="IJ33" s="0"/>
+      <c r="IK33" s="0"/>
+      <c r="IL33" s="0"/>
+      <c r="IM33" s="0"/>
+      <c r="IN33" s="0"/>
+      <c r="IO33" s="0"/>
+      <c r="IP33" s="0"/>
+      <c r="IQ33" s="0"/>
+      <c r="IR33" s="0"/>
+      <c r="IS33" s="0"/>
+      <c r="IT33" s="0"/>
+      <c r="IU33" s="0"/>
+      <c r="IV33" s="0"/>
+      <c r="IW33" s="0"/>
+      <c r="IX33" s="0"/>
+      <c r="IY33" s="0"/>
+      <c r="IZ33" s="0"/>
+      <c r="JA33" s="0"/>
+      <c r="JB33" s="0"/>
+      <c r="JC33" s="0"/>
+      <c r="JD33" s="0"/>
+      <c r="JE33" s="0"/>
+      <c r="JF33" s="0"/>
+      <c r="JG33" s="0"/>
+      <c r="JH33" s="0"/>
+      <c r="JI33" s="0"/>
+      <c r="JJ33" s="0"/>
+      <c r="JK33" s="0"/>
+      <c r="JL33" s="0"/>
+      <c r="JM33" s="0"/>
+      <c r="JN33" s="0"/>
+      <c r="JO33" s="0"/>
+      <c r="JP33" s="0"/>
+      <c r="JQ33" s="0"/>
+      <c r="JR33" s="0"/>
+      <c r="JS33" s="0"/>
+      <c r="JT33" s="0"/>
+      <c r="JU33" s="0"/>
+      <c r="JV33" s="0"/>
+      <c r="JW33" s="0"/>
+      <c r="JX33" s="0"/>
+      <c r="JY33" s="0"/>
+      <c r="JZ33" s="0"/>
+      <c r="KA33" s="0"/>
+      <c r="KB33" s="0"/>
+      <c r="KC33" s="0"/>
+      <c r="KD33" s="0"/>
+      <c r="KE33" s="0"/>
+      <c r="KF33" s="0"/>
+      <c r="KG33" s="0"/>
+      <c r="KH33" s="0"/>
+      <c r="KI33" s="0"/>
+      <c r="KJ33" s="0"/>
+      <c r="KK33" s="0"/>
+      <c r="KL33" s="0"/>
+      <c r="KM33" s="0"/>
+      <c r="KN33" s="0"/>
+      <c r="KO33" s="0"/>
+      <c r="KP33" s="0"/>
+      <c r="KQ33" s="0"/>
+      <c r="KR33" s="0"/>
+      <c r="KS33" s="0"/>
+      <c r="KT33" s="0"/>
+      <c r="KU33" s="0"/>
+      <c r="KV33" s="0"/>
+      <c r="KW33" s="0"/>
+      <c r="KX33" s="0"/>
+      <c r="KY33" s="0"/>
+      <c r="KZ33" s="0"/>
+      <c r="LA33" s="0"/>
+      <c r="LB33" s="0"/>
+      <c r="LC33" s="0"/>
+      <c r="LD33" s="0"/>
+      <c r="LE33" s="0"/>
+      <c r="LF33" s="0"/>
+      <c r="LG33" s="0"/>
+      <c r="LH33" s="0"/>
+      <c r="LI33" s="0"/>
+      <c r="LJ33" s="0"/>
+      <c r="LK33" s="0"/>
+      <c r="LL33" s="0"/>
+      <c r="LM33" s="0"/>
+      <c r="LN33" s="0"/>
+      <c r="LO33" s="0"/>
+      <c r="LP33" s="0"/>
+      <c r="LQ33" s="0"/>
+      <c r="LR33" s="0"/>
+      <c r="LS33" s="0"/>
+      <c r="LT33" s="0"/>
+      <c r="LU33" s="0"/>
+      <c r="LV33" s="0"/>
+      <c r="LW33" s="0"/>
+      <c r="LX33" s="0"/>
+      <c r="LY33" s="0"/>
+      <c r="LZ33" s="0"/>
+      <c r="MA33" s="0"/>
+      <c r="MB33" s="0"/>
+      <c r="MC33" s="0"/>
+      <c r="MD33" s="0"/>
+      <c r="ME33" s="0"/>
+      <c r="MF33" s="0"/>
+      <c r="MG33" s="0"/>
+      <c r="MH33" s="0"/>
+      <c r="MI33" s="0"/>
+      <c r="MJ33" s="0"/>
+      <c r="MK33" s="0"/>
+      <c r="ML33" s="0"/>
+      <c r="MM33" s="0"/>
+      <c r="MN33" s="0"/>
+      <c r="MO33" s="0"/>
+      <c r="MP33" s="0"/>
+      <c r="MQ33" s="0"/>
+      <c r="MR33" s="0"/>
+      <c r="MS33" s="0"/>
+      <c r="MT33" s="0"/>
+      <c r="MU33" s="0"/>
+      <c r="MV33" s="0"/>
+      <c r="MW33" s="0"/>
+      <c r="MX33" s="0"/>
+      <c r="MY33" s="0"/>
+      <c r="MZ33" s="0"/>
+      <c r="NA33" s="0"/>
+      <c r="NB33" s="0"/>
+      <c r="NC33" s="0"/>
+      <c r="ND33" s="0"/>
+      <c r="NE33" s="0"/>
+      <c r="NF33" s="0"/>
+      <c r="NG33" s="0"/>
+      <c r="NH33" s="0"/>
+      <c r="NI33" s="0"/>
+      <c r="NJ33" s="0"/>
+      <c r="NK33" s="0"/>
+      <c r="NL33" s="0"/>
+      <c r="NM33" s="0"/>
+      <c r="NN33" s="0"/>
+      <c r="NO33" s="0"/>
+      <c r="NP33" s="0"/>
+      <c r="NQ33" s="0"/>
+      <c r="NR33" s="0"/>
+      <c r="NS33" s="0"/>
+      <c r="NT33" s="0"/>
+      <c r="NU33" s="0"/>
+      <c r="NV33" s="0"/>
+      <c r="NW33" s="0"/>
+      <c r="NX33" s="0"/>
+      <c r="NY33" s="0"/>
+      <c r="NZ33" s="0"/>
+      <c r="OA33" s="0"/>
+      <c r="OB33" s="0"/>
+      <c r="OC33" s="0"/>
+      <c r="OD33" s="0"/>
+      <c r="OE33" s="0"/>
+      <c r="OF33" s="0"/>
+      <c r="OG33" s="0"/>
+      <c r="OH33" s="0"/>
+      <c r="OI33" s="0"/>
+      <c r="OJ33" s="0"/>
+      <c r="OK33" s="0"/>
+      <c r="OL33" s="0"/>
+      <c r="OM33" s="0"/>
+      <c r="ON33" s="0"/>
+      <c r="OO33" s="0"/>
+      <c r="OP33" s="0"/>
+      <c r="OQ33" s="0"/>
+      <c r="OR33" s="0"/>
+      <c r="OS33" s="0"/>
+      <c r="OT33" s="0"/>
+      <c r="OU33" s="0"/>
+      <c r="OV33" s="0"/>
+      <c r="OW33" s="0"/>
+      <c r="OX33" s="0"/>
+      <c r="OY33" s="0"/>
+      <c r="OZ33" s="0"/>
+      <c r="PA33" s="0"/>
+      <c r="PB33" s="0"/>
+      <c r="PC33" s="0"/>
+      <c r="PD33" s="0"/>
+      <c r="PE33" s="0"/>
+      <c r="PF33" s="0"/>
+      <c r="PG33" s="0"/>
+      <c r="PH33" s="0"/>
+      <c r="PI33" s="0"/>
+      <c r="PJ33" s="0"/>
+      <c r="PK33" s="0"/>
+      <c r="PL33" s="0"/>
+      <c r="PM33" s="0"/>
+      <c r="PN33" s="0"/>
+      <c r="PO33" s="0"/>
+      <c r="PP33" s="0"/>
+      <c r="PQ33" s="0"/>
+      <c r="PR33" s="0"/>
+      <c r="PS33" s="0"/>
+      <c r="PT33" s="0"/>
+      <c r="PU33" s="0"/>
+      <c r="PV33" s="0"/>
+      <c r="PW33" s="0"/>
+      <c r="PX33" s="0"/>
+      <c r="PY33" s="0"/>
+      <c r="PZ33" s="0"/>
+      <c r="QA33" s="0"/>
+      <c r="QB33" s="0"/>
+      <c r="QC33" s="0"/>
+      <c r="QD33" s="0"/>
+      <c r="QE33" s="0"/>
+      <c r="QF33" s="0"/>
+      <c r="QG33" s="0"/>
+      <c r="QH33" s="0"/>
+      <c r="QI33" s="0"/>
+      <c r="QJ33" s="0"/>
+      <c r="QK33" s="0"/>
+      <c r="QL33" s="0"/>
+      <c r="QM33" s="0"/>
+      <c r="QN33" s="0"/>
+      <c r="QO33" s="0"/>
+      <c r="QP33" s="0"/>
+      <c r="QQ33" s="0"/>
+      <c r="QR33" s="0"/>
+      <c r="QS33" s="0"/>
+      <c r="QT33" s="0"/>
+      <c r="QU33" s="0"/>
+      <c r="QV33" s="0"/>
+      <c r="QW33" s="0"/>
+      <c r="QX33" s="0"/>
+      <c r="QY33" s="0"/>
+      <c r="QZ33" s="0"/>
+      <c r="RA33" s="0"/>
+      <c r="RB33" s="0"/>
+      <c r="RC33" s="0"/>
+      <c r="RD33" s="0"/>
+      <c r="RE33" s="0"/>
+      <c r="RF33" s="0"/>
+      <c r="RG33" s="0"/>
+      <c r="RH33" s="0"/>
+      <c r="RI33" s="0"/>
+      <c r="RJ33" s="0"/>
+      <c r="RK33" s="0"/>
+      <c r="RL33" s="0"/>
+      <c r="RM33" s="0"/>
+      <c r="RN33" s="0"/>
+      <c r="RO33" s="0"/>
+      <c r="RP33" s="0"/>
+      <c r="RQ33" s="0"/>
+      <c r="RR33" s="0"/>
+      <c r="RS33" s="0"/>
+      <c r="RT33" s="0"/>
+      <c r="RU33" s="0"/>
+      <c r="RV33" s="0"/>
+      <c r="RW33" s="0"/>
+      <c r="RX33" s="0"/>
+      <c r="RY33" s="0"/>
+      <c r="RZ33" s="0"/>
+      <c r="SA33" s="0"/>
+      <c r="SB33" s="0"/>
+      <c r="SC33" s="0"/>
+      <c r="SD33" s="0"/>
+      <c r="SE33" s="0"/>
+      <c r="SF33" s="0"/>
+      <c r="SG33" s="0"/>
+      <c r="SH33" s="0"/>
+      <c r="SI33" s="0"/>
+      <c r="SJ33" s="0"/>
+      <c r="SK33" s="0"/>
+      <c r="SL33" s="0"/>
+      <c r="SM33" s="0"/>
+      <c r="SN33" s="0"/>
+      <c r="SO33" s="0"/>
+      <c r="SP33" s="0"/>
+      <c r="SQ33" s="0"/>
+      <c r="SR33" s="0"/>
+      <c r="SS33" s="0"/>
+      <c r="ST33" s="0"/>
+      <c r="SU33" s="0"/>
+      <c r="SV33" s="0"/>
+      <c r="SW33" s="0"/>
+      <c r="SX33" s="0"/>
+      <c r="SY33" s="0"/>
+      <c r="SZ33" s="0"/>
+      <c r="TA33" s="0"/>
+      <c r="TB33" s="0"/>
+      <c r="TC33" s="0"/>
+      <c r="TD33" s="0"/>
+      <c r="TE33" s="0"/>
+      <c r="TF33" s="0"/>
+      <c r="TG33" s="0"/>
+      <c r="TH33" s="0"/>
+      <c r="TI33" s="0"/>
+      <c r="TJ33" s="0"/>
+      <c r="TK33" s="0"/>
+      <c r="TL33" s="0"/>
+      <c r="TM33" s="0"/>
+      <c r="TN33" s="0"/>
+      <c r="TO33" s="0"/>
+      <c r="TP33" s="0"/>
+      <c r="TQ33" s="0"/>
+      <c r="TR33" s="0"/>
+      <c r="TS33" s="0"/>
+      <c r="TT33" s="0"/>
+      <c r="TU33" s="0"/>
+      <c r="TV33" s="0"/>
+      <c r="TW33" s="0"/>
+      <c r="TX33" s="0"/>
+      <c r="TY33" s="0"/>
+      <c r="TZ33" s="0"/>
+      <c r="UA33" s="0"/>
+      <c r="UB33" s="0"/>
+      <c r="UC33" s="0"/>
+      <c r="UD33" s="0"/>
+      <c r="UE33" s="0"/>
+      <c r="UF33" s="0"/>
+      <c r="UG33" s="0"/>
+      <c r="UH33" s="0"/>
+      <c r="UI33" s="0"/>
+      <c r="UJ33" s="0"/>
+      <c r="UK33" s="0"/>
+      <c r="UL33" s="0"/>
+      <c r="UM33" s="0"/>
+      <c r="UN33" s="0"/>
+      <c r="UO33" s="0"/>
+      <c r="UP33" s="0"/>
+      <c r="UQ33" s="0"/>
+      <c r="UR33" s="0"/>
+      <c r="US33" s="0"/>
+      <c r="UT33" s="0"/>
+      <c r="UU33" s="0"/>
+      <c r="UV33" s="0"/>
+      <c r="UW33" s="0"/>
+      <c r="UX33" s="0"/>
+      <c r="UY33" s="0"/>
+      <c r="UZ33" s="0"/>
+      <c r="VA33" s="0"/>
+      <c r="VB33" s="0"/>
+      <c r="VC33" s="0"/>
+      <c r="VD33" s="0"/>
+      <c r="VE33" s="0"/>
+      <c r="VF33" s="0"/>
+      <c r="VG33" s="0"/>
+      <c r="VH33" s="0"/>
+      <c r="VI33" s="0"/>
+      <c r="VJ33" s="0"/>
+      <c r="VK33" s="0"/>
+      <c r="VL33" s="0"/>
+      <c r="VM33" s="0"/>
+      <c r="VN33" s="0"/>
+      <c r="VO33" s="0"/>
+      <c r="VP33" s="0"/>
+      <c r="VQ33" s="0"/>
+      <c r="VR33" s="0"/>
+      <c r="VS33" s="0"/>
+      <c r="VT33" s="0"/>
+      <c r="VU33" s="0"/>
+      <c r="VV33" s="0"/>
+      <c r="VW33" s="0"/>
+      <c r="VX33" s="0"/>
+      <c r="VY33" s="0"/>
+      <c r="VZ33" s="0"/>
+      <c r="WA33" s="0"/>
+      <c r="WB33" s="0"/>
+      <c r="WC33" s="0"/>
+      <c r="WD33" s="0"/>
+      <c r="WE33" s="0"/>
+      <c r="WF33" s="0"/>
+      <c r="WG33" s="0"/>
+      <c r="WH33" s="0"/>
+      <c r="WI33" s="0"/>
+      <c r="WJ33" s="0"/>
+      <c r="WK33" s="0"/>
+      <c r="WL33" s="0"/>
+      <c r="WM33" s="0"/>
+      <c r="WN33" s="0"/>
+      <c r="WO33" s="0"/>
+      <c r="WP33" s="0"/>
+      <c r="WQ33" s="0"/>
+      <c r="WR33" s="0"/>
+      <c r="WS33" s="0"/>
+      <c r="WT33" s="0"/>
+      <c r="WU33" s="0"/>
+      <c r="WV33" s="0"/>
+      <c r="WW33" s="0"/>
+      <c r="WX33" s="0"/>
+      <c r="WY33" s="0"/>
+      <c r="WZ33" s="0"/>
+      <c r="XA33" s="0"/>
+      <c r="XB33" s="0"/>
+      <c r="XC33" s="0"/>
+      <c r="XD33" s="0"/>
+      <c r="XE33" s="0"/>
+      <c r="XF33" s="0"/>
+      <c r="XG33" s="0"/>
+      <c r="XH33" s="0"/>
+      <c r="XI33" s="0"/>
+      <c r="XJ33" s="0"/>
+      <c r="XK33" s="0"/>
+      <c r="XL33" s="0"/>
+      <c r="XM33" s="0"/>
+      <c r="XN33" s="0"/>
+      <c r="XO33" s="0"/>
+      <c r="XP33" s="0"/>
+      <c r="XQ33" s="0"/>
+      <c r="XR33" s="0"/>
+      <c r="XS33" s="0"/>
+      <c r="XT33" s="0"/>
+      <c r="XU33" s="0"/>
+      <c r="XV33" s="0"/>
+      <c r="XW33" s="0"/>
+      <c r="XX33" s="0"/>
+      <c r="XY33" s="0"/>
+      <c r="XZ33" s="0"/>
+      <c r="YA33" s="0"/>
+      <c r="YB33" s="0"/>
+      <c r="YC33" s="0"/>
+      <c r="YD33" s="0"/>
+      <c r="YE33" s="0"/>
+      <c r="YF33" s="0"/>
+      <c r="YG33" s="0"/>
+      <c r="YH33" s="0"/>
+      <c r="YI33" s="0"/>
+      <c r="YJ33" s="0"/>
+      <c r="YK33" s="0"/>
+      <c r="YL33" s="0"/>
+      <c r="YM33" s="0"/>
+      <c r="YN33" s="0"/>
+      <c r="YO33" s="0"/>
+      <c r="YP33" s="0"/>
+      <c r="YQ33" s="0"/>
+      <c r="YR33" s="0"/>
+      <c r="YS33" s="0"/>
+      <c r="YT33" s="0"/>
+      <c r="YU33" s="0"/>
+      <c r="YV33" s="0"/>
+      <c r="YW33" s="0"/>
+      <c r="YX33" s="0"/>
+      <c r="YY33" s="0"/>
+      <c r="YZ33" s="0"/>
+      <c r="ZA33" s="0"/>
+      <c r="ZB33" s="0"/>
+      <c r="ZC33" s="0"/>
+      <c r="ZD33" s="0"/>
+      <c r="ZE33" s="0"/>
+      <c r="ZF33" s="0"/>
+      <c r="ZG33" s="0"/>
+      <c r="ZH33" s="0"/>
+      <c r="ZI33" s="0"/>
+      <c r="ZJ33" s="0"/>
+      <c r="ZK33" s="0"/>
+      <c r="ZL33" s="0"/>
+      <c r="ZM33" s="0"/>
+      <c r="ZN33" s="0"/>
+      <c r="ZO33" s="0"/>
+      <c r="ZP33" s="0"/>
+      <c r="ZQ33" s="0"/>
+      <c r="ZR33" s="0"/>
+      <c r="ZS33" s="0"/>
+      <c r="ZT33" s="0"/>
+      <c r="ZU33" s="0"/>
+      <c r="ZV33" s="0"/>
+      <c r="ZW33" s="0"/>
+      <c r="ZX33" s="0"/>
+      <c r="ZY33" s="0"/>
+      <c r="ZZ33" s="0"/>
+      <c r="AAA33" s="0"/>
+      <c r="AAB33" s="0"/>
+      <c r="AAC33" s="0"/>
+      <c r="AAD33" s="0"/>
+      <c r="AAE33" s="0"/>
+      <c r="AAF33" s="0"/>
+      <c r="AAG33" s="0"/>
+      <c r="AAH33" s="0"/>
+      <c r="AAI33" s="0"/>
+      <c r="AAJ33" s="0"/>
+      <c r="AAK33" s="0"/>
+      <c r="AAL33" s="0"/>
+      <c r="AAM33" s="0"/>
+      <c r="AAN33" s="0"/>
+      <c r="AAO33" s="0"/>
+      <c r="AAP33" s="0"/>
+      <c r="AAQ33" s="0"/>
+      <c r="AAR33" s="0"/>
+      <c r="AAS33" s="0"/>
+      <c r="AAT33" s="0"/>
+      <c r="AAU33" s="0"/>
+      <c r="AAV33" s="0"/>
+      <c r="AAW33" s="0"/>
+      <c r="AAX33" s="0"/>
+      <c r="AAY33" s="0"/>
+      <c r="AAZ33" s="0"/>
+      <c r="ABA33" s="0"/>
+      <c r="ABB33" s="0"/>
+      <c r="ABC33" s="0"/>
+      <c r="ABD33" s="0"/>
+      <c r="ABE33" s="0"/>
+      <c r="ABF33" s="0"/>
+      <c r="ABG33" s="0"/>
+      <c r="ABH33" s="0"/>
+      <c r="ABI33" s="0"/>
+      <c r="ABJ33" s="0"/>
+      <c r="ABK33" s="0"/>
+      <c r="ABL33" s="0"/>
+      <c r="ABM33" s="0"/>
+      <c r="ABN33" s="0"/>
+      <c r="ABO33" s="0"/>
+      <c r="ABP33" s="0"/>
+      <c r="ABQ33" s="0"/>
+      <c r="ABR33" s="0"/>
+      <c r="ABS33" s="0"/>
+      <c r="ABT33" s="0"/>
+      <c r="ABU33" s="0"/>
+      <c r="ABV33" s="0"/>
+      <c r="ABW33" s="0"/>
+      <c r="ABX33" s="0"/>
+      <c r="ABY33" s="0"/>
+      <c r="ABZ33" s="0"/>
+      <c r="ACA33" s="0"/>
+      <c r="ACB33" s="0"/>
+      <c r="ACC33" s="0"/>
+      <c r="ACD33" s="0"/>
+      <c r="ACE33" s="0"/>
+      <c r="ACF33" s="0"/>
+      <c r="ACG33" s="0"/>
+      <c r="ACH33" s="0"/>
+      <c r="ACI33" s="0"/>
+      <c r="ACJ33" s="0"/>
+      <c r="ACK33" s="0"/>
+      <c r="ACL33" s="0"/>
+      <c r="ACM33" s="0"/>
+      <c r="ACN33" s="0"/>
+      <c r="ACO33" s="0"/>
+      <c r="ACP33" s="0"/>
+      <c r="ACQ33" s="0"/>
+      <c r="ACR33" s="0"/>
+      <c r="ACS33" s="0"/>
+      <c r="ACT33" s="0"/>
+      <c r="ACU33" s="0"/>
+      <c r="ACV33" s="0"/>
+      <c r="ACW33" s="0"/>
+      <c r="ACX33" s="0"/>
+      <c r="ACY33" s="0"/>
+      <c r="ACZ33" s="0"/>
+      <c r="ADA33" s="0"/>
+      <c r="ADB33" s="0"/>
+      <c r="ADC33" s="0"/>
+      <c r="ADD33" s="0"/>
+      <c r="ADE33" s="0"/>
+      <c r="ADF33" s="0"/>
+      <c r="ADG33" s="0"/>
+      <c r="ADH33" s="0"/>
+      <c r="ADI33" s="0"/>
+      <c r="ADJ33" s="0"/>
+      <c r="ADK33" s="0"/>
+      <c r="ADL33" s="0"/>
+      <c r="ADM33" s="0"/>
+      <c r="ADN33" s="0"/>
+      <c r="ADO33" s="0"/>
+      <c r="ADP33" s="0"/>
+      <c r="ADQ33" s="0"/>
+      <c r="ADR33" s="0"/>
+      <c r="ADS33" s="0"/>
+      <c r="ADT33" s="0"/>
+      <c r="ADU33" s="0"/>
+      <c r="ADV33" s="0"/>
+      <c r="ADW33" s="0"/>
+      <c r="ADX33" s="0"/>
+      <c r="ADY33" s="0"/>
+      <c r="ADZ33" s="0"/>
+      <c r="AEA33" s="0"/>
+      <c r="AEB33" s="0"/>
+      <c r="AEC33" s="0"/>
+      <c r="AED33" s="0"/>
+      <c r="AEE33" s="0"/>
+      <c r="AEF33" s="0"/>
+      <c r="AEG33" s="0"/>
+      <c r="AEH33" s="0"/>
+      <c r="AEI33" s="0"/>
+      <c r="AEJ33" s="0"/>
+      <c r="AEK33" s="0"/>
+      <c r="AEL33" s="0"/>
+      <c r="AEM33" s="0"/>
+      <c r="AEN33" s="0"/>
+      <c r="AEO33" s="0"/>
+      <c r="AEP33" s="0"/>
+      <c r="AEQ33" s="0"/>
+      <c r="AER33" s="0"/>
+      <c r="AES33" s="0"/>
+      <c r="AET33" s="0"/>
+      <c r="AEU33" s="0"/>
+      <c r="AEV33" s="0"/>
+      <c r="AEW33" s="0"/>
+      <c r="AEX33" s="0"/>
+      <c r="AEY33" s="0"/>
+      <c r="AEZ33" s="0"/>
+      <c r="AFA33" s="0"/>
+      <c r="AFB33" s="0"/>
+      <c r="AFC33" s="0"/>
+      <c r="AFD33" s="0"/>
+      <c r="AFE33" s="0"/>
+      <c r="AFF33" s="0"/>
+      <c r="AFG33" s="0"/>
+      <c r="AFH33" s="0"/>
+      <c r="AFI33" s="0"/>
+      <c r="AFJ33" s="0"/>
+      <c r="AFK33" s="0"/>
+      <c r="AFL33" s="0"/>
+      <c r="AFM33" s="0"/>
+      <c r="AFN33" s="0"/>
+      <c r="AFO33" s="0"/>
+      <c r="AFP33" s="0"/>
+      <c r="AFQ33" s="0"/>
+      <c r="AFR33" s="0"/>
+      <c r="AFS33" s="0"/>
+      <c r="AFT33" s="0"/>
+      <c r="AFU33" s="0"/>
+      <c r="AFV33" s="0"/>
+      <c r="AFW33" s="0"/>
+      <c r="AFX33" s="0"/>
+      <c r="AFY33" s="0"/>
+      <c r="AFZ33" s="0"/>
+      <c r="AGA33" s="0"/>
+      <c r="AGB33" s="0"/>
+      <c r="AGC33" s="0"/>
+      <c r="AGD33" s="0"/>
+      <c r="AGE33" s="0"/>
+      <c r="AGF33" s="0"/>
+      <c r="AGG33" s="0"/>
+      <c r="AGH33" s="0"/>
+      <c r="AGI33" s="0"/>
+      <c r="AGJ33" s="0"/>
+      <c r="AGK33" s="0"/>
+      <c r="AGL33" s="0"/>
+      <c r="AGM33" s="0"/>
+      <c r="AGN33" s="0"/>
+      <c r="AGO33" s="0"/>
+      <c r="AGP33" s="0"/>
+      <c r="AGQ33" s="0"/>
+      <c r="AGR33" s="0"/>
+      <c r="AGS33" s="0"/>
+      <c r="AGT33" s="0"/>
+      <c r="AGU33" s="0"/>
+      <c r="AGV33" s="0"/>
+      <c r="AGW33" s="0"/>
+      <c r="AGX33" s="0"/>
+      <c r="AGY33" s="0"/>
+      <c r="AGZ33" s="0"/>
+      <c r="AHA33" s="0"/>
+      <c r="AHB33" s="0"/>
+      <c r="AHC33" s="0"/>
+      <c r="AHD33" s="0"/>
+      <c r="AHE33" s="0"/>
+      <c r="AHF33" s="0"/>
+      <c r="AHG33" s="0"/>
+      <c r="AHH33" s="0"/>
+      <c r="AHI33" s="0"/>
+      <c r="AHJ33" s="0"/>
+      <c r="AHK33" s="0"/>
+      <c r="AHL33" s="0"/>
+      <c r="AHM33" s="0"/>
+      <c r="AHN33" s="0"/>
+      <c r="AHO33" s="0"/>
+      <c r="AHP33" s="0"/>
+      <c r="AHQ33" s="0"/>
+      <c r="AHR33" s="0"/>
+      <c r="AHS33" s="0"/>
+      <c r="AHT33" s="0"/>
+      <c r="AHU33" s="0"/>
+      <c r="AHV33" s="0"/>
+      <c r="AHW33" s="0"/>
+      <c r="AHX33" s="0"/>
+      <c r="AHY33" s="0"/>
+      <c r="AHZ33" s="0"/>
+      <c r="AIA33" s="0"/>
+      <c r="AIB33" s="0"/>
+      <c r="AIC33" s="0"/>
+      <c r="AID33" s="0"/>
+      <c r="AIE33" s="0"/>
+      <c r="AIF33" s="0"/>
+      <c r="AIG33" s="0"/>
+      <c r="AIH33" s="0"/>
+      <c r="AII33" s="0"/>
+      <c r="AIJ33" s="0"/>
+      <c r="AIK33" s="0"/>
+      <c r="AIL33" s="0"/>
+      <c r="AIM33" s="0"/>
+      <c r="AIN33" s="0"/>
+      <c r="AIO33" s="0"/>
+      <c r="AIP33" s="0"/>
+      <c r="AIQ33" s="0"/>
+      <c r="AIR33" s="0"/>
+      <c r="AIS33" s="0"/>
+      <c r="AIT33" s="0"/>
+      <c r="AIU33" s="0"/>
+      <c r="AIV33" s="0"/>
+      <c r="AIW33" s="0"/>
+      <c r="AIX33" s="0"/>
+      <c r="AIY33" s="0"/>
+      <c r="AIZ33" s="0"/>
+      <c r="AJA33" s="0"/>
+      <c r="AJB33" s="0"/>
+      <c r="AJC33" s="0"/>
+      <c r="AJD33" s="0"/>
+      <c r="AJE33" s="0"/>
+      <c r="AJF33" s="0"/>
+      <c r="AJG33" s="0"/>
+      <c r="AJH33" s="0"/>
+      <c r="AJI33" s="0"/>
+      <c r="AJJ33" s="0"/>
+      <c r="AJK33" s="0"/>
+      <c r="AJL33" s="0"/>
+      <c r="AJM33" s="0"/>
+      <c r="AJN33" s="0"/>
+      <c r="AJO33" s="0"/>
+      <c r="AJP33" s="0"/>
+      <c r="AJQ33" s="0"/>
+      <c r="AJR33" s="0"/>
+      <c r="AJS33" s="0"/>
+      <c r="AJT33" s="0"/>
+      <c r="AJU33" s="0"/>
+      <c r="AJV33" s="0"/>
+      <c r="AJW33" s="0"/>
+      <c r="AJX33" s="0"/>
+      <c r="AJY33" s="0"/>
+      <c r="AJZ33" s="0"/>
+      <c r="AKA33" s="0"/>
+      <c r="AKB33" s="0"/>
+      <c r="AKC33" s="0"/>
+      <c r="AKD33" s="0"/>
+      <c r="AKE33" s="0"/>
+      <c r="AKF33" s="0"/>
+      <c r="AKG33" s="0"/>
+      <c r="AKH33" s="0"/>
+      <c r="AKI33" s="0"/>
+      <c r="AKJ33" s="0"/>
+      <c r="AKK33" s="0"/>
+      <c r="AKL33" s="0"/>
+      <c r="AKM33" s="0"/>
+      <c r="AKN33" s="0"/>
+      <c r="AKO33" s="0"/>
+      <c r="AKP33" s="0"/>
+      <c r="AKQ33" s="0"/>
+      <c r="AKR33" s="0"/>
+      <c r="AKS33" s="0"/>
+      <c r="AKT33" s="0"/>
+      <c r="AKU33" s="0"/>
+      <c r="AKV33" s="0"/>
+      <c r="AKW33" s="0"/>
+      <c r="AKX33" s="0"/>
+      <c r="AKY33" s="0"/>
+      <c r="AKZ33" s="0"/>
+      <c r="ALA33" s="0"/>
+      <c r="ALB33" s="0"/>
+      <c r="ALC33" s="0"/>
+      <c r="ALD33" s="0"/>
+      <c r="ALE33" s="0"/>
+      <c r="ALF33" s="0"/>
+      <c r="ALG33" s="0"/>
+      <c r="ALH33" s="0"/>
+      <c r="ALI33" s="0"/>
+      <c r="ALJ33" s="0"/>
+      <c r="ALK33" s="0"/>
+      <c r="ALL33" s="0"/>
+      <c r="ALM33" s="0"/>
+      <c r="ALN33" s="0"/>
+      <c r="ALO33" s="0"/>
+      <c r="ALP33" s="0"/>
+      <c r="ALQ33" s="0"/>
+      <c r="ALR33" s="0"/>
+      <c r="ALS33" s="0"/>
+      <c r="ALT33" s="0"/>
+      <c r="ALU33" s="0"/>
+      <c r="ALV33" s="0"/>
+      <c r="ALW33" s="0"/>
+      <c r="ALX33" s="0"/>
+      <c r="ALY33" s="0"/>
+      <c r="ALZ33" s="0"/>
+      <c r="AMA33" s="0"/>
+      <c r="AMB33" s="0"/>
+      <c r="AMC33" s="0"/>
+      <c r="AMD33" s="0"/>
+      <c r="AME33" s="0"/>
+      <c r="AMF33" s="0"/>
+      <c r="AMG33" s="0"/>
+      <c r="AMH33" s="0"/>
+      <c r="AMI33" s="0"/>
+      <c r="AMJ33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="36" t="n">
+        <v>65857</v>
+      </c>
+      <c r="B34" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="E34" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="54" t="s">
-        <v>242</v>
-      </c>
-      <c r="G33" s="54" t="s">
+      <c r="F34" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="H33" s="55" t="n">
+      <c r="G34" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="H34" s="40" t="n">
         <v>42929</v>
       </c>
-      <c r="I33" s="55" t="n">
+      <c r="I34" s="40" t="n">
         <v>42929</v>
       </c>
-      <c r="J33" s="56" t="n">
+      <c r="J34" s="41" t="n">
         <v>44754</v>
       </c>
-      <c r="K33" s="57" t="n">
+      <c r="K34" s="48" t="n">
+        <v>2</v>
+      </c>
+      <c r="L34" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="M34" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="N34" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="O34" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="P34" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q34" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="R34" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="S34" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="T34" s="38"/>
+      <c r="U34" s="39"/>
+      <c r="V34" s="38"/>
+      <c r="W34" s="39"/>
+      <c r="Y34" s="0"/>
+      <c r="Z34" s="0"/>
+      <c r="AA34" s="0"/>
+      <c r="AB34" s="0"/>
+      <c r="AC34" s="0"/>
+      <c r="AD34" s="0"/>
+      <c r="AE34" s="0"/>
+      <c r="AF34" s="0"/>
+      <c r="AG34" s="0"/>
+      <c r="AH34" s="0"/>
+      <c r="AI34" s="0"/>
+      <c r="AJ34" s="0"/>
+      <c r="AK34" s="0"/>
+      <c r="AL34" s="0"/>
+      <c r="AM34" s="0"/>
+      <c r="AN34" s="0"/>
+      <c r="AO34" s="0"/>
+      <c r="AP34" s="0"/>
+      <c r="AQ34" s="0"/>
+      <c r="AR34" s="0"/>
+      <c r="AS34" s="0"/>
+      <c r="AT34" s="0"/>
+      <c r="AU34" s="0"/>
+      <c r="AV34" s="0"/>
+      <c r="AW34" s="0"/>
+      <c r="AX34" s="0"/>
+      <c r="AY34" s="0"/>
+      <c r="AZ34" s="0"/>
+      <c r="BA34" s="0"/>
+      <c r="BB34" s="0"/>
+      <c r="BC34" s="0"/>
+      <c r="BD34" s="0"/>
+      <c r="BE34" s="0"/>
+      <c r="BF34" s="0"/>
+      <c r="BG34" s="0"/>
+      <c r="BH34" s="0"/>
+      <c r="BI34" s="0"/>
+      <c r="BJ34" s="0"/>
+      <c r="BK34" s="0"/>
+      <c r="BL34" s="0"/>
+      <c r="BM34" s="0"/>
+      <c r="BN34" s="0"/>
+      <c r="BO34" s="0"/>
+      <c r="BP34" s="0"/>
+      <c r="BQ34" s="0"/>
+      <c r="BR34" s="0"/>
+      <c r="BS34" s="0"/>
+      <c r="BT34" s="0"/>
+      <c r="BU34" s="0"/>
+      <c r="BV34" s="0"/>
+      <c r="BW34" s="0"/>
+      <c r="BX34" s="0"/>
+      <c r="BY34" s="0"/>
+      <c r="BZ34" s="0"/>
+      <c r="CA34" s="0"/>
+      <c r="CB34" s="0"/>
+      <c r="CC34" s="0"/>
+      <c r="CD34" s="0"/>
+      <c r="CE34" s="0"/>
+      <c r="CF34" s="0"/>
+      <c r="CG34" s="0"/>
+      <c r="CH34" s="0"/>
+      <c r="CI34" s="0"/>
+      <c r="CJ34" s="0"/>
+      <c r="CK34" s="0"/>
+      <c r="CL34" s="0"/>
+      <c r="CM34" s="0"/>
+      <c r="CN34" s="0"/>
+      <c r="CO34" s="0"/>
+      <c r="CP34" s="0"/>
+      <c r="CQ34" s="0"/>
+      <c r="CR34" s="0"/>
+      <c r="CS34" s="0"/>
+      <c r="CT34" s="0"/>
+      <c r="CU34" s="0"/>
+      <c r="CV34" s="0"/>
+      <c r="CW34" s="0"/>
+      <c r="CX34" s="0"/>
+      <c r="CY34" s="0"/>
+      <c r="CZ34" s="0"/>
+      <c r="DA34" s="0"/>
+      <c r="DB34" s="0"/>
+      <c r="DC34" s="0"/>
+      <c r="DD34" s="0"/>
+      <c r="DE34" s="0"/>
+      <c r="DF34" s="0"/>
+      <c r="DG34" s="0"/>
+      <c r="DH34" s="0"/>
+      <c r="DI34" s="0"/>
+      <c r="DJ34" s="0"/>
+      <c r="DK34" s="0"/>
+      <c r="DL34" s="0"/>
+      <c r="DM34" s="0"/>
+      <c r="DN34" s="0"/>
+      <c r="DO34" s="0"/>
+      <c r="DP34" s="0"/>
+      <c r="DQ34" s="0"/>
+      <c r="DR34" s="0"/>
+      <c r="DS34" s="0"/>
+      <c r="DT34" s="0"/>
+      <c r="DU34" s="0"/>
+      <c r="DV34" s="0"/>
+      <c r="DW34" s="0"/>
+      <c r="DX34" s="0"/>
+      <c r="DY34" s="0"/>
+      <c r="DZ34" s="0"/>
+      <c r="EA34" s="0"/>
+      <c r="EB34" s="0"/>
+      <c r="EC34" s="0"/>
+      <c r="ED34" s="0"/>
+      <c r="EE34" s="0"/>
+      <c r="EF34" s="0"/>
+      <c r="EG34" s="0"/>
+      <c r="EH34" s="0"/>
+      <c r="EI34" s="0"/>
+      <c r="EJ34" s="0"/>
+      <c r="EK34" s="0"/>
+      <c r="EL34" s="0"/>
+      <c r="EM34" s="0"/>
+      <c r="EN34" s="0"/>
+      <c r="EO34" s="0"/>
+      <c r="EP34" s="0"/>
+      <c r="EQ34" s="0"/>
+      <c r="ER34" s="0"/>
+      <c r="ES34" s="0"/>
+      <c r="ET34" s="0"/>
+      <c r="EU34" s="0"/>
+      <c r="EV34" s="0"/>
+      <c r="EW34" s="0"/>
+      <c r="EX34" s="0"/>
+      <c r="EY34" s="0"/>
+      <c r="EZ34" s="0"/>
+      <c r="FA34" s="0"/>
+      <c r="FB34" s="0"/>
+      <c r="FC34" s="0"/>
+      <c r="FD34" s="0"/>
+      <c r="FE34" s="0"/>
+      <c r="FF34" s="0"/>
+      <c r="FG34" s="0"/>
+      <c r="FH34" s="0"/>
+      <c r="FI34" s="0"/>
+      <c r="FJ34" s="0"/>
+      <c r="FK34" s="0"/>
+      <c r="FL34" s="0"/>
+      <c r="FM34" s="0"/>
+      <c r="FN34" s="0"/>
+      <c r="FO34" s="0"/>
+      <c r="FP34" s="0"/>
+      <c r="FQ34" s="0"/>
+      <c r="FR34" s="0"/>
+      <c r="FS34" s="0"/>
+      <c r="FT34" s="0"/>
+      <c r="FU34" s="0"/>
+      <c r="FV34" s="0"/>
+      <c r="FW34" s="0"/>
+      <c r="FX34" s="0"/>
+      <c r="FY34" s="0"/>
+      <c r="FZ34" s="0"/>
+      <c r="GA34" s="0"/>
+      <c r="GB34" s="0"/>
+      <c r="GC34" s="0"/>
+      <c r="GD34" s="0"/>
+      <c r="GE34" s="0"/>
+      <c r="GF34" s="0"/>
+      <c r="GG34" s="0"/>
+      <c r="GH34" s="0"/>
+      <c r="GI34" s="0"/>
+      <c r="GJ34" s="0"/>
+      <c r="GK34" s="0"/>
+      <c r="GL34" s="0"/>
+      <c r="GM34" s="0"/>
+      <c r="GN34" s="0"/>
+      <c r="GO34" s="0"/>
+      <c r="GP34" s="0"/>
+      <c r="GQ34" s="0"/>
+      <c r="GR34" s="0"/>
+      <c r="GS34" s="0"/>
+      <c r="GT34" s="0"/>
+      <c r="GU34" s="0"/>
+      <c r="GV34" s="0"/>
+      <c r="GW34" s="0"/>
+      <c r="GX34" s="0"/>
+      <c r="GY34" s="0"/>
+      <c r="GZ34" s="0"/>
+      <c r="HA34" s="0"/>
+      <c r="HB34" s="0"/>
+      <c r="HC34" s="0"/>
+      <c r="HD34" s="0"/>
+      <c r="HE34" s="0"/>
+      <c r="HF34" s="0"/>
+      <c r="HG34" s="0"/>
+      <c r="HH34" s="0"/>
+      <c r="HI34" s="0"/>
+      <c r="HJ34" s="0"/>
+      <c r="HK34" s="0"/>
+      <c r="HL34" s="0"/>
+      <c r="HM34" s="0"/>
+      <c r="HN34" s="0"/>
+      <c r="HO34" s="0"/>
+      <c r="HP34" s="0"/>
+      <c r="HQ34" s="0"/>
+      <c r="HR34" s="0"/>
+      <c r="HS34" s="0"/>
+      <c r="HT34" s="0"/>
+      <c r="HU34" s="0"/>
+      <c r="HV34" s="0"/>
+      <c r="HW34" s="0"/>
+      <c r="HX34" s="0"/>
+      <c r="HY34" s="0"/>
+      <c r="HZ34" s="0"/>
+      <c r="IA34" s="0"/>
+      <c r="IB34" s="0"/>
+      <c r="IC34" s="0"/>
+      <c r="ID34" s="0"/>
+      <c r="IE34" s="0"/>
+      <c r="IF34" s="0"/>
+      <c r="IG34" s="0"/>
+      <c r="IH34" s="0"/>
+      <c r="II34" s="0"/>
+      <c r="IJ34" s="0"/>
+      <c r="IK34" s="0"/>
+      <c r="IL34" s="0"/>
+      <c r="IM34" s="0"/>
+      <c r="IN34" s="0"/>
+      <c r="IO34" s="0"/>
+      <c r="IP34" s="0"/>
+      <c r="IQ34" s="0"/>
+      <c r="IR34" s="0"/>
+      <c r="IS34" s="0"/>
+      <c r="IT34" s="0"/>
+      <c r="IU34" s="0"/>
+      <c r="IV34" s="0"/>
+      <c r="IW34" s="0"/>
+      <c r="IX34" s="0"/>
+      <c r="IY34" s="0"/>
+      <c r="IZ34" s="0"/>
+      <c r="JA34" s="0"/>
+      <c r="JB34" s="0"/>
+      <c r="JC34" s="0"/>
+      <c r="JD34" s="0"/>
+      <c r="JE34" s="0"/>
+      <c r="JF34" s="0"/>
+      <c r="JG34" s="0"/>
+      <c r="JH34" s="0"/>
+      <c r="JI34" s="0"/>
+      <c r="JJ34" s="0"/>
+      <c r="JK34" s="0"/>
+      <c r="JL34" s="0"/>
+      <c r="JM34" s="0"/>
+      <c r="JN34" s="0"/>
+      <c r="JO34" s="0"/>
+      <c r="JP34" s="0"/>
+      <c r="JQ34" s="0"/>
+      <c r="JR34" s="0"/>
+      <c r="JS34" s="0"/>
+      <c r="JT34" s="0"/>
+      <c r="JU34" s="0"/>
+      <c r="JV34" s="0"/>
+      <c r="JW34" s="0"/>
+      <c r="JX34" s="0"/>
+      <c r="JY34" s="0"/>
+      <c r="JZ34" s="0"/>
+      <c r="KA34" s="0"/>
+      <c r="KB34" s="0"/>
+      <c r="KC34" s="0"/>
+      <c r="KD34" s="0"/>
+      <c r="KE34" s="0"/>
+      <c r="KF34" s="0"/>
+      <c r="KG34" s="0"/>
+      <c r="KH34" s="0"/>
+      <c r="KI34" s="0"/>
+      <c r="KJ34" s="0"/>
+      <c r="KK34" s="0"/>
+      <c r="KL34" s="0"/>
+      <c r="KM34" s="0"/>
+      <c r="KN34" s="0"/>
+      <c r="KO34" s="0"/>
+      <c r="KP34" s="0"/>
+      <c r="KQ34" s="0"/>
+      <c r="KR34" s="0"/>
+      <c r="KS34" s="0"/>
+      <c r="KT34" s="0"/>
+      <c r="KU34" s="0"/>
+      <c r="KV34" s="0"/>
+      <c r="KW34" s="0"/>
+      <c r="KX34" s="0"/>
+      <c r="KY34" s="0"/>
+      <c r="KZ34" s="0"/>
+      <c r="LA34" s="0"/>
+      <c r="LB34" s="0"/>
+      <c r="LC34" s="0"/>
+      <c r="LD34" s="0"/>
+      <c r="LE34" s="0"/>
+      <c r="LF34" s="0"/>
+      <c r="LG34" s="0"/>
+      <c r="LH34" s="0"/>
+      <c r="LI34" s="0"/>
+      <c r="LJ34" s="0"/>
+      <c r="LK34" s="0"/>
+      <c r="LL34" s="0"/>
+      <c r="LM34" s="0"/>
+      <c r="LN34" s="0"/>
+      <c r="LO34" s="0"/>
+      <c r="LP34" s="0"/>
+      <c r="LQ34" s="0"/>
+      <c r="LR34" s="0"/>
+      <c r="LS34" s="0"/>
+      <c r="LT34" s="0"/>
+      <c r="LU34" s="0"/>
+      <c r="LV34" s="0"/>
+      <c r="LW34" s="0"/>
+      <c r="LX34" s="0"/>
+      <c r="LY34" s="0"/>
+      <c r="LZ34" s="0"/>
+      <c r="MA34" s="0"/>
+      <c r="MB34" s="0"/>
+      <c r="MC34" s="0"/>
+      <c r="MD34" s="0"/>
+      <c r="ME34" s="0"/>
+      <c r="MF34" s="0"/>
+      <c r="MG34" s="0"/>
+      <c r="MH34" s="0"/>
+      <c r="MI34" s="0"/>
+      <c r="MJ34" s="0"/>
+      <c r="MK34" s="0"/>
+      <c r="ML34" s="0"/>
+      <c r="MM34" s="0"/>
+      <c r="MN34" s="0"/>
+      <c r="MO34" s="0"/>
+      <c r="MP34" s="0"/>
+      <c r="MQ34" s="0"/>
+      <c r="MR34" s="0"/>
+      <c r="MS34" s="0"/>
+      <c r="MT34" s="0"/>
+      <c r="MU34" s="0"/>
+      <c r="MV34" s="0"/>
+      <c r="MW34" s="0"/>
+      <c r="MX34" s="0"/>
+      <c r="MY34" s="0"/>
+      <c r="MZ34" s="0"/>
+      <c r="NA34" s="0"/>
+      <c r="NB34" s="0"/>
+      <c r="NC34" s="0"/>
+      <c r="ND34" s="0"/>
+      <c r="NE34" s="0"/>
+      <c r="NF34" s="0"/>
+      <c r="NG34" s="0"/>
+      <c r="NH34" s="0"/>
+      <c r="NI34" s="0"/>
+      <c r="NJ34" s="0"/>
+      <c r="NK34" s="0"/>
+      <c r="NL34" s="0"/>
+      <c r="NM34" s="0"/>
+      <c r="NN34" s="0"/>
+      <c r="NO34" s="0"/>
+      <c r="NP34" s="0"/>
+      <c r="NQ34" s="0"/>
+      <c r="NR34" s="0"/>
+      <c r="NS34" s="0"/>
+      <c r="NT34" s="0"/>
+      <c r="NU34" s="0"/>
+      <c r="NV34" s="0"/>
+      <c r="NW34" s="0"/>
+      <c r="NX34" s="0"/>
+      <c r="NY34" s="0"/>
+      <c r="NZ34" s="0"/>
+      <c r="OA34" s="0"/>
+      <c r="OB34" s="0"/>
+      <c r="OC34" s="0"/>
+      <c r="OD34" s="0"/>
+      <c r="OE34" s="0"/>
+      <c r="OF34" s="0"/>
+      <c r="OG34" s="0"/>
+      <c r="OH34" s="0"/>
+      <c r="OI34" s="0"/>
+      <c r="OJ34" s="0"/>
+      <c r="OK34" s="0"/>
+      <c r="OL34" s="0"/>
+      <c r="OM34" s="0"/>
+      <c r="ON34" s="0"/>
+      <c r="OO34" s="0"/>
+      <c r="OP34" s="0"/>
+      <c r="OQ34" s="0"/>
+      <c r="OR34" s="0"/>
+      <c r="OS34" s="0"/>
+      <c r="OT34" s="0"/>
+      <c r="OU34" s="0"/>
+      <c r="OV34" s="0"/>
+      <c r="OW34" s="0"/>
+      <c r="OX34" s="0"/>
+      <c r="OY34" s="0"/>
+      <c r="OZ34" s="0"/>
+      <c r="PA34" s="0"/>
+      <c r="PB34" s="0"/>
+      <c r="PC34" s="0"/>
+      <c r="PD34" s="0"/>
+      <c r="PE34" s="0"/>
+      <c r="PF34" s="0"/>
+      <c r="PG34" s="0"/>
+      <c r="PH34" s="0"/>
+      <c r="PI34" s="0"/>
+      <c r="PJ34" s="0"/>
+      <c r="PK34" s="0"/>
+      <c r="PL34" s="0"/>
+      <c r="PM34" s="0"/>
+      <c r="PN34" s="0"/>
+      <c r="PO34" s="0"/>
+      <c r="PP34" s="0"/>
+      <c r="PQ34" s="0"/>
+      <c r="PR34" s="0"/>
+      <c r="PS34" s="0"/>
+      <c r="PT34" s="0"/>
+      <c r="PU34" s="0"/>
+      <c r="PV34" s="0"/>
+      <c r="PW34" s="0"/>
+      <c r="PX34" s="0"/>
+      <c r="PY34" s="0"/>
+      <c r="PZ34" s="0"/>
+      <c r="QA34" s="0"/>
+      <c r="QB34" s="0"/>
+      <c r="QC34" s="0"/>
+      <c r="QD34" s="0"/>
+      <c r="QE34" s="0"/>
+      <c r="QF34" s="0"/>
+      <c r="QG34" s="0"/>
+      <c r="QH34" s="0"/>
+      <c r="QI34" s="0"/>
+      <c r="QJ34" s="0"/>
+      <c r="QK34" s="0"/>
+      <c r="QL34" s="0"/>
+      <c r="QM34" s="0"/>
+      <c r="QN34" s="0"/>
+      <c r="QO34" s="0"/>
+      <c r="QP34" s="0"/>
+      <c r="QQ34" s="0"/>
+      <c r="QR34" s="0"/>
+      <c r="QS34" s="0"/>
+      <c r="QT34" s="0"/>
+      <c r="QU34" s="0"/>
+      <c r="QV34" s="0"/>
+      <c r="QW34" s="0"/>
+      <c r="QX34" s="0"/>
+      <c r="QY34" s="0"/>
+      <c r="QZ34" s="0"/>
+      <c r="RA34" s="0"/>
+      <c r="RB34" s="0"/>
+      <c r="RC34" s="0"/>
+      <c r="RD34" s="0"/>
+      <c r="RE34" s="0"/>
+      <c r="RF34" s="0"/>
+      <c r="RG34" s="0"/>
+      <c r="RH34" s="0"/>
+      <c r="RI34" s="0"/>
+      <c r="RJ34" s="0"/>
+      <c r="RK34" s="0"/>
+      <c r="RL34" s="0"/>
+      <c r="RM34" s="0"/>
+      <c r="RN34" s="0"/>
+      <c r="RO34" s="0"/>
+      <c r="RP34" s="0"/>
+      <c r="RQ34" s="0"/>
+      <c r="RR34" s="0"/>
+      <c r="RS34" s="0"/>
+      <c r="RT34" s="0"/>
+      <c r="RU34" s="0"/>
+      <c r="RV34" s="0"/>
+      <c r="RW34" s="0"/>
+      <c r="RX34" s="0"/>
+      <c r="RY34" s="0"/>
+      <c r="RZ34" s="0"/>
+      <c r="SA34" s="0"/>
+      <c r="SB34" s="0"/>
+      <c r="SC34" s="0"/>
+      <c r="SD34" s="0"/>
+      <c r="SE34" s="0"/>
+      <c r="SF34" s="0"/>
+      <c r="SG34" s="0"/>
+      <c r="SH34" s="0"/>
+      <c r="SI34" s="0"/>
+      <c r="SJ34" s="0"/>
+      <c r="SK34" s="0"/>
+      <c r="SL34" s="0"/>
+      <c r="SM34" s="0"/>
+      <c r="SN34" s="0"/>
+      <c r="SO34" s="0"/>
+      <c r="SP34" s="0"/>
+      <c r="SQ34" s="0"/>
+      <c r="SR34" s="0"/>
+      <c r="SS34" s="0"/>
+      <c r="ST34" s="0"/>
+      <c r="SU34" s="0"/>
+      <c r="SV34" s="0"/>
+      <c r="SW34" s="0"/>
+      <c r="SX34" s="0"/>
+      <c r="SY34" s="0"/>
+      <c r="SZ34" s="0"/>
+      <c r="TA34" s="0"/>
+      <c r="TB34" s="0"/>
+      <c r="TC34" s="0"/>
+      <c r="TD34" s="0"/>
+      <c r="TE34" s="0"/>
+      <c r="TF34" s="0"/>
+      <c r="TG34" s="0"/>
+      <c r="TH34" s="0"/>
+      <c r="TI34" s="0"/>
+      <c r="TJ34" s="0"/>
+      <c r="TK34" s="0"/>
+      <c r="TL34" s="0"/>
+      <c r="TM34" s="0"/>
+      <c r="TN34" s="0"/>
+      <c r="TO34" s="0"/>
+      <c r="TP34" s="0"/>
+      <c r="TQ34" s="0"/>
+      <c r="TR34" s="0"/>
+      <c r="TS34" s="0"/>
+      <c r="TT34" s="0"/>
+      <c r="TU34" s="0"/>
+      <c r="TV34" s="0"/>
+      <c r="TW34" s="0"/>
+      <c r="TX34" s="0"/>
+      <c r="TY34" s="0"/>
+      <c r="TZ34" s="0"/>
+      <c r="UA34" s="0"/>
+      <c r="UB34" s="0"/>
+      <c r="UC34" s="0"/>
+      <c r="UD34" s="0"/>
+      <c r="UE34" s="0"/>
+      <c r="UF34" s="0"/>
+      <c r="UG34" s="0"/>
+      <c r="UH34" s="0"/>
+      <c r="UI34" s="0"/>
+      <c r="UJ34" s="0"/>
+      <c r="UK34" s="0"/>
+      <c r="UL34" s="0"/>
+      <c r="UM34" s="0"/>
+      <c r="UN34" s="0"/>
+      <c r="UO34" s="0"/>
+      <c r="UP34" s="0"/>
+      <c r="UQ34" s="0"/>
+      <c r="UR34" s="0"/>
+      <c r="US34" s="0"/>
+      <c r="UT34" s="0"/>
+      <c r="UU34" s="0"/>
+      <c r="UV34" s="0"/>
+      <c r="UW34" s="0"/>
+      <c r="UX34" s="0"/>
+      <c r="UY34" s="0"/>
+      <c r="UZ34" s="0"/>
+      <c r="VA34" s="0"/>
+      <c r="VB34" s="0"/>
+      <c r="VC34" s="0"/>
+      <c r="VD34" s="0"/>
+      <c r="VE34" s="0"/>
+      <c r="VF34" s="0"/>
+      <c r="VG34" s="0"/>
+      <c r="VH34" s="0"/>
+      <c r="VI34" s="0"/>
+      <c r="VJ34" s="0"/>
+      <c r="VK34" s="0"/>
+      <c r="VL34" s="0"/>
+      <c r="VM34" s="0"/>
+      <c r="VN34" s="0"/>
+      <c r="VO34" s="0"/>
+      <c r="VP34" s="0"/>
+      <c r="VQ34" s="0"/>
+      <c r="VR34" s="0"/>
+      <c r="VS34" s="0"/>
+      <c r="VT34" s="0"/>
+      <c r="VU34" s="0"/>
+      <c r="VV34" s="0"/>
+      <c r="VW34" s="0"/>
+      <c r="VX34" s="0"/>
+      <c r="VY34" s="0"/>
+      <c r="VZ34" s="0"/>
+      <c r="WA34" s="0"/>
+      <c r="WB34" s="0"/>
+      <c r="WC34" s="0"/>
+      <c r="WD34" s="0"/>
+      <c r="WE34" s="0"/>
+      <c r="WF34" s="0"/>
+      <c r="WG34" s="0"/>
+      <c r="WH34" s="0"/>
+      <c r="WI34" s="0"/>
+      <c r="WJ34" s="0"/>
+      <c r="WK34" s="0"/>
+      <c r="WL34" s="0"/>
+      <c r="WM34" s="0"/>
+      <c r="WN34" s="0"/>
+      <c r="WO34" s="0"/>
+      <c r="WP34" s="0"/>
+      <c r="WQ34" s="0"/>
+      <c r="WR34" s="0"/>
+      <c r="WS34" s="0"/>
+      <c r="WT34" s="0"/>
+      <c r="WU34" s="0"/>
+      <c r="WV34" s="0"/>
+      <c r="WW34" s="0"/>
+      <c r="WX34" s="0"/>
+      <c r="WY34" s="0"/>
+      <c r="WZ34" s="0"/>
+      <c r="XA34" s="0"/>
+      <c r="XB34" s="0"/>
+      <c r="XC34" s="0"/>
+      <c r="XD34" s="0"/>
+      <c r="XE34" s="0"/>
+      <c r="XF34" s="0"/>
+      <c r="XG34" s="0"/>
+      <c r="XH34" s="0"/>
+      <c r="XI34" s="0"/>
+      <c r="XJ34" s="0"/>
+      <c r="XK34" s="0"/>
+      <c r="XL34" s="0"/>
+      <c r="XM34" s="0"/>
+      <c r="XN34" s="0"/>
+      <c r="XO34" s="0"/>
+      <c r="XP34" s="0"/>
+      <c r="XQ34" s="0"/>
+      <c r="XR34" s="0"/>
+      <c r="XS34" s="0"/>
+      <c r="XT34" s="0"/>
+      <c r="XU34" s="0"/>
+      <c r="XV34" s="0"/>
+      <c r="XW34" s="0"/>
+      <c r="XX34" s="0"/>
+      <c r="XY34" s="0"/>
+      <c r="XZ34" s="0"/>
+      <c r="YA34" s="0"/>
+      <c r="YB34" s="0"/>
+      <c r="YC34" s="0"/>
+      <c r="YD34" s="0"/>
+      <c r="YE34" s="0"/>
+      <c r="YF34" s="0"/>
+      <c r="YG34" s="0"/>
+      <c r="YH34" s="0"/>
+      <c r="YI34" s="0"/>
+      <c r="YJ34" s="0"/>
+      <c r="YK34" s="0"/>
+      <c r="YL34" s="0"/>
+      <c r="YM34" s="0"/>
+      <c r="YN34" s="0"/>
+      <c r="YO34" s="0"/>
+      <c r="YP34" s="0"/>
+      <c r="YQ34" s="0"/>
+      <c r="YR34" s="0"/>
+      <c r="YS34" s="0"/>
+      <c r="YT34" s="0"/>
+      <c r="YU34" s="0"/>
+      <c r="YV34" s="0"/>
+      <c r="YW34" s="0"/>
+      <c r="YX34" s="0"/>
+      <c r="YY34" s="0"/>
+      <c r="YZ34" s="0"/>
+      <c r="ZA34" s="0"/>
+      <c r="ZB34" s="0"/>
+      <c r="ZC34" s="0"/>
+      <c r="ZD34" s="0"/>
+      <c r="ZE34" s="0"/>
+      <c r="ZF34" s="0"/>
+      <c r="ZG34" s="0"/>
+      <c r="ZH34" s="0"/>
+      <c r="ZI34" s="0"/>
+      <c r="ZJ34" s="0"/>
+      <c r="ZK34" s="0"/>
+      <c r="ZL34" s="0"/>
+      <c r="ZM34" s="0"/>
+      <c r="ZN34" s="0"/>
+      <c r="ZO34" s="0"/>
+      <c r="ZP34" s="0"/>
+      <c r="ZQ34" s="0"/>
+      <c r="ZR34" s="0"/>
+      <c r="ZS34" s="0"/>
+      <c r="ZT34" s="0"/>
+      <c r="ZU34" s="0"/>
+      <c r="ZV34" s="0"/>
+      <c r="ZW34" s="0"/>
+      <c r="ZX34" s="0"/>
+      <c r="ZY34" s="0"/>
+      <c r="ZZ34" s="0"/>
+      <c r="AAA34" s="0"/>
+      <c r="AAB34" s="0"/>
+      <c r="AAC34" s="0"/>
+      <c r="AAD34" s="0"/>
+      <c r="AAE34" s="0"/>
+      <c r="AAF34" s="0"/>
+      <c r="AAG34" s="0"/>
+      <c r="AAH34" s="0"/>
+      <c r="AAI34" s="0"/>
+      <c r="AAJ34" s="0"/>
+      <c r="AAK34" s="0"/>
+      <c r="AAL34" s="0"/>
+      <c r="AAM34" s="0"/>
+      <c r="AAN34" s="0"/>
+      <c r="AAO34" s="0"/>
+      <c r="AAP34" s="0"/>
+      <c r="AAQ34" s="0"/>
+      <c r="AAR34" s="0"/>
+      <c r="AAS34" s="0"/>
+      <c r="AAT34" s="0"/>
+      <c r="AAU34" s="0"/>
+      <c r="AAV34" s="0"/>
+      <c r="AAW34" s="0"/>
+      <c r="AAX34" s="0"/>
+      <c r="AAY34" s="0"/>
+      <c r="AAZ34" s="0"/>
+      <c r="ABA34" s="0"/>
+      <c r="ABB34" s="0"/>
+      <c r="ABC34" s="0"/>
+      <c r="ABD34" s="0"/>
+      <c r="ABE34" s="0"/>
+      <c r="ABF34" s="0"/>
+      <c r="ABG34" s="0"/>
+      <c r="ABH34" s="0"/>
+      <c r="ABI34" s="0"/>
+      <c r="ABJ34" s="0"/>
+      <c r="ABK34" s="0"/>
+      <c r="ABL34" s="0"/>
+      <c r="ABM34" s="0"/>
+      <c r="ABN34" s="0"/>
+      <c r="ABO34" s="0"/>
+      <c r="ABP34" s="0"/>
+      <c r="ABQ34" s="0"/>
+      <c r="ABR34" s="0"/>
+      <c r="ABS34" s="0"/>
+      <c r="ABT34" s="0"/>
+      <c r="ABU34" s="0"/>
+      <c r="ABV34" s="0"/>
+      <c r="ABW34" s="0"/>
+      <c r="ABX34" s="0"/>
+      <c r="ABY34" s="0"/>
+      <c r="ABZ34" s="0"/>
+      <c r="ACA34" s="0"/>
+      <c r="ACB34" s="0"/>
+      <c r="ACC34" s="0"/>
+      <c r="ACD34" s="0"/>
+      <c r="ACE34" s="0"/>
+      <c r="ACF34" s="0"/>
+      <c r="ACG34" s="0"/>
+      <c r="ACH34" s="0"/>
+      <c r="ACI34" s="0"/>
+      <c r="ACJ34" s="0"/>
+      <c r="ACK34" s="0"/>
+      <c r="ACL34" s="0"/>
+      <c r="ACM34" s="0"/>
+      <c r="ACN34" s="0"/>
+      <c r="ACO34" s="0"/>
+      <c r="ACP34" s="0"/>
+      <c r="ACQ34" s="0"/>
+      <c r="ACR34" s="0"/>
+      <c r="ACS34" s="0"/>
+      <c r="ACT34" s="0"/>
+      <c r="ACU34" s="0"/>
+      <c r="ACV34" s="0"/>
+      <c r="ACW34" s="0"/>
+      <c r="ACX34" s="0"/>
+      <c r="ACY34" s="0"/>
+      <c r="ACZ34" s="0"/>
+      <c r="ADA34" s="0"/>
+      <c r="ADB34" s="0"/>
+      <c r="ADC34" s="0"/>
+      <c r="ADD34" s="0"/>
+      <c r="ADE34" s="0"/>
+      <c r="ADF34" s="0"/>
+      <c r="ADG34" s="0"/>
+      <c r="ADH34" s="0"/>
+      <c r="ADI34" s="0"/>
+      <c r="ADJ34" s="0"/>
+      <c r="ADK34" s="0"/>
+      <c r="ADL34" s="0"/>
+      <c r="ADM34" s="0"/>
+      <c r="ADN34" s="0"/>
+      <c r="ADO34" s="0"/>
+      <c r="ADP34" s="0"/>
+      <c r="ADQ34" s="0"/>
+      <c r="ADR34" s="0"/>
+      <c r="ADS34" s="0"/>
+      <c r="ADT34" s="0"/>
+      <c r="ADU34" s="0"/>
+      <c r="ADV34" s="0"/>
+      <c r="ADW34" s="0"/>
+      <c r="ADX34" s="0"/>
+      <c r="ADY34" s="0"/>
+      <c r="ADZ34" s="0"/>
+      <c r="AEA34" s="0"/>
+      <c r="AEB34" s="0"/>
+      <c r="AEC34" s="0"/>
+      <c r="AED34" s="0"/>
+      <c r="AEE34" s="0"/>
+      <c r="AEF34" s="0"/>
+      <c r="AEG34" s="0"/>
+      <c r="AEH34" s="0"/>
+      <c r="AEI34" s="0"/>
+      <c r="AEJ34" s="0"/>
+      <c r="AEK34" s="0"/>
+      <c r="AEL34" s="0"/>
+      <c r="AEM34" s="0"/>
+      <c r="AEN34" s="0"/>
+      <c r="AEO34" s="0"/>
+      <c r="AEP34" s="0"/>
+      <c r="AEQ34" s="0"/>
+      <c r="AER34" s="0"/>
+      <c r="AES34" s="0"/>
+      <c r="AET34" s="0"/>
+      <c r="AEU34" s="0"/>
+      <c r="AEV34" s="0"/>
+      <c r="AEW34" s="0"/>
+      <c r="AEX34" s="0"/>
+      <c r="AEY34" s="0"/>
+      <c r="AEZ34" s="0"/>
+      <c r="AFA34" s="0"/>
+      <c r="AFB34" s="0"/>
+      <c r="AFC34" s="0"/>
+      <c r="AFD34" s="0"/>
+      <c r="AFE34" s="0"/>
+      <c r="AFF34" s="0"/>
+      <c r="AFG34" s="0"/>
+      <c r="AFH34" s="0"/>
+      <c r="AFI34" s="0"/>
+      <c r="AFJ34" s="0"/>
+      <c r="AFK34" s="0"/>
+      <c r="AFL34" s="0"/>
+      <c r="AFM34" s="0"/>
+      <c r="AFN34" s="0"/>
+      <c r="AFO34" s="0"/>
+      <c r="AFP34" s="0"/>
+      <c r="AFQ34" s="0"/>
+      <c r="AFR34" s="0"/>
+      <c r="AFS34" s="0"/>
+      <c r="AFT34" s="0"/>
+      <c r="AFU34" s="0"/>
+      <c r="AFV34" s="0"/>
+      <c r="AFW34" s="0"/>
+      <c r="AFX34" s="0"/>
+      <c r="AFY34" s="0"/>
+      <c r="AFZ34" s="0"/>
+      <c r="AGA34" s="0"/>
+      <c r="AGB34" s="0"/>
+      <c r="AGC34" s="0"/>
+      <c r="AGD34" s="0"/>
+      <c r="AGE34" s="0"/>
+      <c r="AGF34" s="0"/>
+      <c r="AGG34" s="0"/>
+      <c r="AGH34" s="0"/>
+      <c r="AGI34" s="0"/>
+      <c r="AGJ34" s="0"/>
+      <c r="AGK34" s="0"/>
+      <c r="AGL34" s="0"/>
+      <c r="AGM34" s="0"/>
+      <c r="AGN34" s="0"/>
+      <c r="AGO34" s="0"/>
+      <c r="AGP34" s="0"/>
+      <c r="AGQ34" s="0"/>
+      <c r="AGR34" s="0"/>
+      <c r="AGS34" s="0"/>
+      <c r="AGT34" s="0"/>
+      <c r="AGU34" s="0"/>
+      <c r="AGV34" s="0"/>
+      <c r="AGW34" s="0"/>
+      <c r="AGX34" s="0"/>
+      <c r="AGY34" s="0"/>
+      <c r="AGZ34" s="0"/>
+      <c r="AHA34" s="0"/>
+      <c r="AHB34" s="0"/>
+      <c r="AHC34" s="0"/>
+      <c r="AHD34" s="0"/>
+      <c r="AHE34" s="0"/>
+      <c r="AHF34" s="0"/>
+      <c r="AHG34" s="0"/>
+      <c r="AHH34" s="0"/>
+      <c r="AHI34" s="0"/>
+      <c r="AHJ34" s="0"/>
+      <c r="AHK34" s="0"/>
+      <c r="AHL34" s="0"/>
+      <c r="AHM34" s="0"/>
+      <c r="AHN34" s="0"/>
+      <c r="AHO34" s="0"/>
+      <c r="AHP34" s="0"/>
+      <c r="AHQ34" s="0"/>
+      <c r="AHR34" s="0"/>
+      <c r="AHS34" s="0"/>
+      <c r="AHT34" s="0"/>
+      <c r="AHU34" s="0"/>
+      <c r="AHV34" s="0"/>
+      <c r="AHW34" s="0"/>
+      <c r="AHX34" s="0"/>
+      <c r="AHY34" s="0"/>
+      <c r="AHZ34" s="0"/>
+      <c r="AIA34" s="0"/>
+      <c r="AIB34" s="0"/>
+      <c r="AIC34" s="0"/>
+      <c r="AID34" s="0"/>
+      <c r="AIE34" s="0"/>
+      <c r="AIF34" s="0"/>
+      <c r="AIG34" s="0"/>
+      <c r="AIH34" s="0"/>
+      <c r="AII34" s="0"/>
+      <c r="AIJ34" s="0"/>
+      <c r="AIK34" s="0"/>
+      <c r="AIL34" s="0"/>
+      <c r="AIM34" s="0"/>
+      <c r="AIN34" s="0"/>
+      <c r="AIO34" s="0"/>
+      <c r="AIP34" s="0"/>
+      <c r="AIQ34" s="0"/>
+      <c r="AIR34" s="0"/>
+      <c r="AIS34" s="0"/>
+      <c r="AIT34" s="0"/>
+      <c r="AIU34" s="0"/>
+      <c r="AIV34" s="0"/>
+      <c r="AIW34" s="0"/>
+      <c r="AIX34" s="0"/>
+      <c r="AIY34" s="0"/>
+      <c r="AIZ34" s="0"/>
+      <c r="AJA34" s="0"/>
+      <c r="AJB34" s="0"/>
+      <c r="AJC34" s="0"/>
+      <c r="AJD34" s="0"/>
+      <c r="AJE34" s="0"/>
+      <c r="AJF34" s="0"/>
+      <c r="AJG34" s="0"/>
+      <c r="AJH34" s="0"/>
+      <c r="AJI34" s="0"/>
+      <c r="AJJ34" s="0"/>
+      <c r="AJK34" s="0"/>
+      <c r="AJL34" s="0"/>
+      <c r="AJM34" s="0"/>
+      <c r="AJN34" s="0"/>
+      <c r="AJO34" s="0"/>
+      <c r="AJP34" s="0"/>
+      <c r="AJQ34" s="0"/>
+      <c r="AJR34" s="0"/>
+      <c r="AJS34" s="0"/>
+      <c r="AJT34" s="0"/>
+      <c r="AJU34" s="0"/>
+      <c r="AJV34" s="0"/>
+      <c r="AJW34" s="0"/>
+      <c r="AJX34" s="0"/>
+      <c r="AJY34" s="0"/>
+      <c r="AJZ34" s="0"/>
+      <c r="AKA34" s="0"/>
+      <c r="AKB34" s="0"/>
+      <c r="AKC34" s="0"/>
+      <c r="AKD34" s="0"/>
+      <c r="AKE34" s="0"/>
+      <c r="AKF34" s="0"/>
+      <c r="AKG34" s="0"/>
+      <c r="AKH34" s="0"/>
+      <c r="AKI34" s="0"/>
+      <c r="AKJ34" s="0"/>
+      <c r="AKK34" s="0"/>
+      <c r="AKL34" s="0"/>
+      <c r="AKM34" s="0"/>
+      <c r="AKN34" s="0"/>
+      <c r="AKO34" s="0"/>
+      <c r="AKP34" s="0"/>
+      <c r="AKQ34" s="0"/>
+      <c r="AKR34" s="0"/>
+      <c r="AKS34" s="0"/>
+      <c r="AKT34" s="0"/>
+      <c r="AKU34" s="0"/>
+      <c r="AKV34" s="0"/>
+      <c r="AKW34" s="0"/>
+      <c r="AKX34" s="0"/>
+      <c r="AKY34" s="0"/>
+      <c r="AKZ34" s="0"/>
+      <c r="ALA34" s="0"/>
+      <c r="ALB34" s="0"/>
+      <c r="ALC34" s="0"/>
+      <c r="ALD34" s="0"/>
+      <c r="ALE34" s="0"/>
+      <c r="ALF34" s="0"/>
+      <c r="ALG34" s="0"/>
+      <c r="ALH34" s="0"/>
+      <c r="ALI34" s="0"/>
+      <c r="ALJ34" s="0"/>
+      <c r="ALK34" s="0"/>
+      <c r="ALL34" s="0"/>
+      <c r="ALM34" s="0"/>
+      <c r="ALN34" s="0"/>
+      <c r="ALO34" s="0"/>
+      <c r="ALP34" s="0"/>
+      <c r="ALQ34" s="0"/>
+      <c r="ALR34" s="0"/>
+      <c r="ALS34" s="0"/>
+      <c r="ALT34" s="0"/>
+      <c r="ALU34" s="0"/>
+      <c r="ALV34" s="0"/>
+      <c r="ALW34" s="0"/>
+      <c r="ALX34" s="0"/>
+      <c r="ALY34" s="0"/>
+      <c r="ALZ34" s="0"/>
+      <c r="AMA34" s="0"/>
+      <c r="AMB34" s="0"/>
+      <c r="AMC34" s="0"/>
+      <c r="AMD34" s="0"/>
+      <c r="AME34" s="0"/>
+      <c r="AMF34" s="0"/>
+      <c r="AMG34" s="0"/>
+      <c r="AMH34" s="0"/>
+      <c r="AMI34" s="0"/>
+      <c r="AMJ34" s="0"/>
+    </row>
+    <row r="35" s="56" customFormat="true" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="49" t="n">
+        <v>55674</v>
+      </c>
+      <c r="B35" s="50" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="D35" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="E35" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="G35" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="H35" s="53" t="n">
+        <v>37321</v>
+      </c>
+      <c r="I35" s="53" t="n">
+        <v>37321</v>
+      </c>
+      <c r="J35" s="54" t="n">
+        <v>44624</v>
+      </c>
+      <c r="K35" s="55" t="n">
+        <v>7</v>
+      </c>
+      <c r="L35" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="M35" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="N35" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="O35" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="P35" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q35" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="R35" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="S35" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="T35" s="51"/>
+      <c r="U35" s="52"/>
+      <c r="V35" s="51"/>
+      <c r="W35" s="52"/>
+    </row>
+    <row r="36" s="56" customFormat="true" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="49" t="n">
+        <v>43454</v>
+      </c>
+      <c r="B36" s="50" t="n">
         <v>1</v>
       </c>
-      <c r="L33" s="51" t="s">
-        <v>197</v>
-      </c>
-      <c r="M33" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="N33" s="54" t="s">
+      <c r="C36" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="G36" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="H36" s="53" t="n">
+        <v>29650</v>
+      </c>
+      <c r="I36" s="53" t="n">
+        <v>29650</v>
+      </c>
+      <c r="J36" s="54" t="n">
+        <v>43905</v>
+      </c>
+      <c r="K36" s="55" t="n">
+        <v>101</v>
+      </c>
+      <c r="L36" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="M36" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="N36" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="O33" s="54" t="s">
-        <v>248</v>
-      </c>
-      <c r="P33" s="54" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q33" s="53" t="s">
-        <v>244</v>
-      </c>
-      <c r="R33" s="53" t="s">
-        <v>249</v>
-      </c>
-      <c r="S33" s="53" t="s">
-        <v>246</v>
-      </c>
-      <c r="T33" s="53"/>
-      <c r="U33" s="54"/>
-      <c r="V33" s="53"/>
-      <c r="W33" s="54"/>
+      <c r="O36" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="P36" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q36" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="R36" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="S36" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="T36" s="51"/>
+      <c r="U36" s="52"/>
+      <c r="V36" s="51"/>
+      <c r="W36" s="52"/>
     </row>
-    <row r="34" s="58" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="51" t="n">
-        <v>65857</v>
-      </c>
-      <c r="B34" s="52" t="n">
+    <row r="37" s="56" customFormat="true" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="49" t="n">
+        <v>61186</v>
+      </c>
+      <c r="B37" s="50" t="n">
+        <v>4</v>
+      </c>
+      <c r="C37" s="51" t="s">
+        <v>256</v>
+      </c>
+      <c r="D37" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="G37" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="H37" s="53" t="n">
+        <v>40522</v>
+      </c>
+      <c r="I37" s="53" t="n">
+        <v>40522</v>
+      </c>
+      <c r="J37" s="54" t="n">
+        <v>44174</v>
+      </c>
+      <c r="K37" s="55" t="n">
+        <v>4</v>
+      </c>
+      <c r="L37" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="M37" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="N37" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="O37" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="P37" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q37" s="51" t="s">
+        <v>224</v>
+      </c>
+      <c r="R37" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="S37" s="51" t="s">
+        <v>185</v>
+      </c>
+      <c r="T37" s="51"/>
+      <c r="U37" s="52"/>
+      <c r="V37" s="51"/>
+      <c r="W37" s="52"/>
+    </row>
+    <row r="38" s="56" customFormat="true" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="49" t="n">
+        <v>58734</v>
+      </c>
+      <c r="B38" s="50" t="n">
         <v>1</v>
       </c>
-      <c r="C34" s="53" t="s">
-        <v>247</v>
-      </c>
-      <c r="D34" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="E34" s="54" t="s">
+      <c r="C38" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="D38" s="51" t="s">
+        <v>260</v>
+      </c>
+      <c r="E38" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="F34" s="54" t="s">
-        <v>242</v>
-      </c>
-      <c r="G34" s="54" t="s">
-        <v>243</v>
-      </c>
-      <c r="H34" s="55" t="n">
-        <v>42929</v>
-      </c>
-      <c r="I34" s="55" t="n">
-        <v>42929</v>
-      </c>
-      <c r="J34" s="56" t="n">
-        <v>44754</v>
-      </c>
-      <c r="K34" s="57" t="n">
+      <c r="F38" s="52" t="s">
+        <v>235</v>
+      </c>
+      <c r="G38" s="52" t="s">
+        <v>261</v>
+      </c>
+      <c r="H38" s="53" t="n">
+        <v>39848</v>
+      </c>
+      <c r="I38" s="53" t="n">
+        <v>39848</v>
+      </c>
+      <c r="J38" s="54" t="n">
+        <v>43499</v>
+      </c>
+      <c r="K38" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="M38" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="N38" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="O38" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="P38" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q38" s="51" t="s">
+        <v>262</v>
+      </c>
+      <c r="R38" s="51" t="s">
+        <v>263</v>
+      </c>
+      <c r="S38" s="51" t="s">
+        <v>264</v>
+      </c>
+      <c r="T38" s="51"/>
+      <c r="U38" s="52"/>
+      <c r="V38" s="51"/>
+      <c r="W38" s="52"/>
+    </row>
+    <row r="39" s="56" customFormat="true" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="49" t="n">
+        <v>55561</v>
+      </c>
+      <c r="B39" s="50" t="n">
         <v>2</v>
       </c>
-      <c r="L34" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="M34" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="N34" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="O34" s="54" t="s">
-        <v>248</v>
-      </c>
-      <c r="P34" s="54" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q34" s="53" t="s">
-        <v>244</v>
-      </c>
-      <c r="R34" s="53" t="s">
-        <v>249</v>
-      </c>
-      <c r="S34" s="53" t="s">
-        <v>246</v>
-      </c>
-      <c r="T34" s="53"/>
-      <c r="U34" s="54"/>
-      <c r="V34" s="53"/>
-      <c r="W34" s="54"/>
+      <c r="C39" s="51" t="s">
+        <v>265</v>
+      </c>
+      <c r="D39" s="51" t="s">
+        <v>266</v>
+      </c>
+      <c r="E39" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="G39" s="52" t="s">
+        <v>268</v>
+      </c>
+      <c r="H39" s="53" t="n">
+        <v>37232</v>
+      </c>
+      <c r="I39" s="53" t="n">
+        <v>37232</v>
+      </c>
+      <c r="J39" s="54" t="n">
+        <v>43732</v>
+      </c>
+      <c r="K39" s="55" t="n">
+        <v>4</v>
+      </c>
+      <c r="L39" s="49" t="s">
+        <v>269</v>
+      </c>
+      <c r="M39" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="N39" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="O39" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="P39" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q39" s="51" t="s">
+        <v>270</v>
+      </c>
+      <c r="R39" s="51" t="s">
+        <v>271</v>
+      </c>
+      <c r="S39" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="T39" s="51"/>
+      <c r="U39" s="52"/>
+      <c r="V39" s="51"/>
+      <c r="W39" s="52" t="s">
+        <v>273</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/spec/data/swissmedic_package.xlsx
+++ b/spec/data/swissmedic_package.xlsx
@@ -16,6 +16,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0" vbProcedure="false">'Zugelassene Packungen'!$5:$5</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0" vbProcedure="false">'Zugelassene Packungen'!$5:$5</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0" vbProcedure="false">'Zugelassene Packungen'!$5:$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0" vbProcedure="false">'Zugelassene Packungen'!$5:$5</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="283">
   <si>
     <t xml:space="preserve">Zugelassene Packungen / Conditionnements autorisés</t>
   </si>
@@ -928,19 +929,45 @@
   <si>
     <t xml:space="preserve">d</t>
   </si>
+  <si>
+    <t xml:space="preserve">Lynparza 50 mg, Kapseln</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L01XX46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016/01/14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021/01/13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 x 112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapsel(n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">olaparibum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">olaparibum 50 mg, excipiens pro capsula.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onkologikum</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="00000"/>
     <numFmt numFmtId="166" formatCode="DD/MM/YY;@"/>
     <numFmt numFmtId="167" formatCode="00"/>
     <numFmt numFmtId="168" formatCode="DD/MM/YYYY"/>
     <numFmt numFmtId="169" formatCode="000"/>
-    <numFmt numFmtId="170" formatCode="DD/MM/YYYY"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -1096,7 +1123,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1124,41 +1151,37 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="50">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1182,63 +1205,63 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="21" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="21" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="21" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1258,15 +1281,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1302,23 +1325,23 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1326,52 +1349,19 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Standard 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1447,9 +1437,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>444960</xdr:colOff>
+      <xdr:colOff>444600</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>37440</xdr:rowOff>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1463,7 +1453,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="36360" y="360"/>
-          <a:ext cx="1685520" cy="570240"/>
+          <a:ext cx="1685160" cy="569880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1483,12 +1473,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ39"/>
+  <dimension ref="A1:AMJ40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="5" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A39" activeCellId="0" sqref="39:39"/>
+      <selection pane="bottomLeft" activeCell="A40" activeCellId="0" sqref="40:40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6742,70 +6732,1070 @@
       <c r="V22" s="44"/>
       <c r="W22" s="44"/>
     </row>
-    <row r="23" s="56" customFormat="true" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="49" t="n">
+    <row r="23" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="36" t="n">
         <v>66297</v>
       </c>
-      <c r="B23" s="50" t="n">
+      <c r="B23" s="49" t="n">
         <v>1</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D23" s="51" t="s">
+      <c r="D23" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="E23" s="52" t="s">
+      <c r="E23" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="52" t="s">
+      <c r="F23" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="G23" s="52" t="s">
+      <c r="G23" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="H23" s="53" t="n">
+      <c r="H23" s="40" t="n">
         <v>42559</v>
       </c>
-      <c r="I23" s="53" t="n">
+      <c r="I23" s="40" t="n">
         <v>42559</v>
       </c>
-      <c r="J23" s="54" t="n">
+      <c r="J23" s="41" t="n">
         <v>44384</v>
       </c>
-      <c r="K23" s="55" t="n">
+      <c r="K23" s="48" t="n">
         <v>1</v>
       </c>
-      <c r="L23" s="49" t="s">
+      <c r="L23" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="M23" s="51" t="s">
+      <c r="M23" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="N23" s="52" t="s">
+      <c r="N23" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="O23" s="52" t="s">
+      <c r="O23" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="P23" s="52" t="s">
+      <c r="P23" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="Q23" s="51" t="s">
+      <c r="Q23" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="R23" s="51" t="s">
+      <c r="R23" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="S23" s="51" t="s">
+      <c r="S23" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="T23" s="51"/>
-      <c r="U23" s="52"/>
-      <c r="V23" s="51"/>
-      <c r="W23" s="52" t="s">
+      <c r="T23" s="38"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="39" t="s">
         <v>178</v>
       </c>
+      <c r="Y23" s="0"/>
+      <c r="Z23" s="0"/>
+      <c r="AA23" s="0"/>
+      <c r="AB23" s="0"/>
+      <c r="AC23" s="0"/>
+      <c r="AD23" s="0"/>
+      <c r="AE23" s="0"/>
+      <c r="AF23" s="0"/>
+      <c r="AG23" s="0"/>
+      <c r="AH23" s="0"/>
+      <c r="AI23" s="0"/>
+      <c r="AJ23" s="0"/>
+      <c r="AK23" s="0"/>
+      <c r="AL23" s="0"/>
+      <c r="AM23" s="0"/>
+      <c r="AN23" s="0"/>
+      <c r="AO23" s="0"/>
+      <c r="AP23" s="0"/>
+      <c r="AQ23" s="0"/>
+      <c r="AR23" s="0"/>
+      <c r="AS23" s="0"/>
+      <c r="AT23" s="0"/>
+      <c r="AU23" s="0"/>
+      <c r="AV23" s="0"/>
+      <c r="AW23" s="0"/>
+      <c r="AX23" s="0"/>
+      <c r="AY23" s="0"/>
+      <c r="AZ23" s="0"/>
+      <c r="BA23" s="0"/>
+      <c r="BB23" s="0"/>
+      <c r="BC23" s="0"/>
+      <c r="BD23" s="0"/>
+      <c r="BE23" s="0"/>
+      <c r="BF23" s="0"/>
+      <c r="BG23" s="0"/>
+      <c r="BH23" s="0"/>
+      <c r="BI23" s="0"/>
+      <c r="BJ23" s="0"/>
+      <c r="BK23" s="0"/>
+      <c r="BL23" s="0"/>
+      <c r="BM23" s="0"/>
+      <c r="BN23" s="0"/>
+      <c r="BO23" s="0"/>
+      <c r="BP23" s="0"/>
+      <c r="BQ23" s="0"/>
+      <c r="BR23" s="0"/>
+      <c r="BS23" s="0"/>
+      <c r="BT23" s="0"/>
+      <c r="BU23" s="0"/>
+      <c r="BV23" s="0"/>
+      <c r="BW23" s="0"/>
+      <c r="BX23" s="0"/>
+      <c r="BY23" s="0"/>
+      <c r="BZ23" s="0"/>
+      <c r="CA23" s="0"/>
+      <c r="CB23" s="0"/>
+      <c r="CC23" s="0"/>
+      <c r="CD23" s="0"/>
+      <c r="CE23" s="0"/>
+      <c r="CF23" s="0"/>
+      <c r="CG23" s="0"/>
+      <c r="CH23" s="0"/>
+      <c r="CI23" s="0"/>
+      <c r="CJ23" s="0"/>
+      <c r="CK23" s="0"/>
+      <c r="CL23" s="0"/>
+      <c r="CM23" s="0"/>
+      <c r="CN23" s="0"/>
+      <c r="CO23" s="0"/>
+      <c r="CP23" s="0"/>
+      <c r="CQ23" s="0"/>
+      <c r="CR23" s="0"/>
+      <c r="CS23" s="0"/>
+      <c r="CT23" s="0"/>
+      <c r="CU23" s="0"/>
+      <c r="CV23" s="0"/>
+      <c r="CW23" s="0"/>
+      <c r="CX23" s="0"/>
+      <c r="CY23" s="0"/>
+      <c r="CZ23" s="0"/>
+      <c r="DA23" s="0"/>
+      <c r="DB23" s="0"/>
+      <c r="DC23" s="0"/>
+      <c r="DD23" s="0"/>
+      <c r="DE23" s="0"/>
+      <c r="DF23" s="0"/>
+      <c r="DG23" s="0"/>
+      <c r="DH23" s="0"/>
+      <c r="DI23" s="0"/>
+      <c r="DJ23" s="0"/>
+      <c r="DK23" s="0"/>
+      <c r="DL23" s="0"/>
+      <c r="DM23" s="0"/>
+      <c r="DN23" s="0"/>
+      <c r="DO23" s="0"/>
+      <c r="DP23" s="0"/>
+      <c r="DQ23" s="0"/>
+      <c r="DR23" s="0"/>
+      <c r="DS23" s="0"/>
+      <c r="DT23" s="0"/>
+      <c r="DU23" s="0"/>
+      <c r="DV23" s="0"/>
+      <c r="DW23" s="0"/>
+      <c r="DX23" s="0"/>
+      <c r="DY23" s="0"/>
+      <c r="DZ23" s="0"/>
+      <c r="EA23" s="0"/>
+      <c r="EB23" s="0"/>
+      <c r="EC23" s="0"/>
+      <c r="ED23" s="0"/>
+      <c r="EE23" s="0"/>
+      <c r="EF23" s="0"/>
+      <c r="EG23" s="0"/>
+      <c r="EH23" s="0"/>
+      <c r="EI23" s="0"/>
+      <c r="EJ23" s="0"/>
+      <c r="EK23" s="0"/>
+      <c r="EL23" s="0"/>
+      <c r="EM23" s="0"/>
+      <c r="EN23" s="0"/>
+      <c r="EO23" s="0"/>
+      <c r="EP23" s="0"/>
+      <c r="EQ23" s="0"/>
+      <c r="ER23" s="0"/>
+      <c r="ES23" s="0"/>
+      <c r="ET23" s="0"/>
+      <c r="EU23" s="0"/>
+      <c r="EV23" s="0"/>
+      <c r="EW23" s="0"/>
+      <c r="EX23" s="0"/>
+      <c r="EY23" s="0"/>
+      <c r="EZ23" s="0"/>
+      <c r="FA23" s="0"/>
+      <c r="FB23" s="0"/>
+      <c r="FC23" s="0"/>
+      <c r="FD23" s="0"/>
+      <c r="FE23" s="0"/>
+      <c r="FF23" s="0"/>
+      <c r="FG23" s="0"/>
+      <c r="FH23" s="0"/>
+      <c r="FI23" s="0"/>
+      <c r="FJ23" s="0"/>
+      <c r="FK23" s="0"/>
+      <c r="FL23" s="0"/>
+      <c r="FM23" s="0"/>
+      <c r="FN23" s="0"/>
+      <c r="FO23" s="0"/>
+      <c r="FP23" s="0"/>
+      <c r="FQ23" s="0"/>
+      <c r="FR23" s="0"/>
+      <c r="FS23" s="0"/>
+      <c r="FT23" s="0"/>
+      <c r="FU23" s="0"/>
+      <c r="FV23" s="0"/>
+      <c r="FW23" s="0"/>
+      <c r="FX23" s="0"/>
+      <c r="FY23" s="0"/>
+      <c r="FZ23" s="0"/>
+      <c r="GA23" s="0"/>
+      <c r="GB23" s="0"/>
+      <c r="GC23" s="0"/>
+      <c r="GD23" s="0"/>
+      <c r="GE23" s="0"/>
+      <c r="GF23" s="0"/>
+      <c r="GG23" s="0"/>
+      <c r="GH23" s="0"/>
+      <c r="GI23" s="0"/>
+      <c r="GJ23" s="0"/>
+      <c r="GK23" s="0"/>
+      <c r="GL23" s="0"/>
+      <c r="GM23" s="0"/>
+      <c r="GN23" s="0"/>
+      <c r="GO23" s="0"/>
+      <c r="GP23" s="0"/>
+      <c r="GQ23" s="0"/>
+      <c r="GR23" s="0"/>
+      <c r="GS23" s="0"/>
+      <c r="GT23" s="0"/>
+      <c r="GU23" s="0"/>
+      <c r="GV23" s="0"/>
+      <c r="GW23" s="0"/>
+      <c r="GX23" s="0"/>
+      <c r="GY23" s="0"/>
+      <c r="GZ23" s="0"/>
+      <c r="HA23" s="0"/>
+      <c r="HB23" s="0"/>
+      <c r="HC23" s="0"/>
+      <c r="HD23" s="0"/>
+      <c r="HE23" s="0"/>
+      <c r="HF23" s="0"/>
+      <c r="HG23" s="0"/>
+      <c r="HH23" s="0"/>
+      <c r="HI23" s="0"/>
+      <c r="HJ23" s="0"/>
+      <c r="HK23" s="0"/>
+      <c r="HL23" s="0"/>
+      <c r="HM23" s="0"/>
+      <c r="HN23" s="0"/>
+      <c r="HO23" s="0"/>
+      <c r="HP23" s="0"/>
+      <c r="HQ23" s="0"/>
+      <c r="HR23" s="0"/>
+      <c r="HS23" s="0"/>
+      <c r="HT23" s="0"/>
+      <c r="HU23" s="0"/>
+      <c r="HV23" s="0"/>
+      <c r="HW23" s="0"/>
+      <c r="HX23" s="0"/>
+      <c r="HY23" s="0"/>
+      <c r="HZ23" s="0"/>
+      <c r="IA23" s="0"/>
+      <c r="IB23" s="0"/>
+      <c r="IC23" s="0"/>
+      <c r="ID23" s="0"/>
+      <c r="IE23" s="0"/>
+      <c r="IF23" s="0"/>
+      <c r="IG23" s="0"/>
+      <c r="IH23" s="0"/>
+      <c r="II23" s="0"/>
+      <c r="IJ23" s="0"/>
+      <c r="IK23" s="0"/>
+      <c r="IL23" s="0"/>
+      <c r="IM23" s="0"/>
+      <c r="IN23" s="0"/>
+      <c r="IO23" s="0"/>
+      <c r="IP23" s="0"/>
+      <c r="IQ23" s="0"/>
+      <c r="IR23" s="0"/>
+      <c r="IS23" s="0"/>
+      <c r="IT23" s="0"/>
+      <c r="IU23" s="0"/>
+      <c r="IV23" s="0"/>
+      <c r="IW23" s="0"/>
+      <c r="IX23" s="0"/>
+      <c r="IY23" s="0"/>
+      <c r="IZ23" s="0"/>
+      <c r="JA23" s="0"/>
+      <c r="JB23" s="0"/>
+      <c r="JC23" s="0"/>
+      <c r="JD23" s="0"/>
+      <c r="JE23" s="0"/>
+      <c r="JF23" s="0"/>
+      <c r="JG23" s="0"/>
+      <c r="JH23" s="0"/>
+      <c r="JI23" s="0"/>
+      <c r="JJ23" s="0"/>
+      <c r="JK23" s="0"/>
+      <c r="JL23" s="0"/>
+      <c r="JM23" s="0"/>
+      <c r="JN23" s="0"/>
+      <c r="JO23" s="0"/>
+      <c r="JP23" s="0"/>
+      <c r="JQ23" s="0"/>
+      <c r="JR23" s="0"/>
+      <c r="JS23" s="0"/>
+      <c r="JT23" s="0"/>
+      <c r="JU23" s="0"/>
+      <c r="JV23" s="0"/>
+      <c r="JW23" s="0"/>
+      <c r="JX23" s="0"/>
+      <c r="JY23" s="0"/>
+      <c r="JZ23" s="0"/>
+      <c r="KA23" s="0"/>
+      <c r="KB23" s="0"/>
+      <c r="KC23" s="0"/>
+      <c r="KD23" s="0"/>
+      <c r="KE23" s="0"/>
+      <c r="KF23" s="0"/>
+      <c r="KG23" s="0"/>
+      <c r="KH23" s="0"/>
+      <c r="KI23" s="0"/>
+      <c r="KJ23" s="0"/>
+      <c r="KK23" s="0"/>
+      <c r="KL23" s="0"/>
+      <c r="KM23" s="0"/>
+      <c r="KN23" s="0"/>
+      <c r="KO23" s="0"/>
+      <c r="KP23" s="0"/>
+      <c r="KQ23" s="0"/>
+      <c r="KR23" s="0"/>
+      <c r="KS23" s="0"/>
+      <c r="KT23" s="0"/>
+      <c r="KU23" s="0"/>
+      <c r="KV23" s="0"/>
+      <c r="KW23" s="0"/>
+      <c r="KX23" s="0"/>
+      <c r="KY23" s="0"/>
+      <c r="KZ23" s="0"/>
+      <c r="LA23" s="0"/>
+      <c r="LB23" s="0"/>
+      <c r="LC23" s="0"/>
+      <c r="LD23" s="0"/>
+      <c r="LE23" s="0"/>
+      <c r="LF23" s="0"/>
+      <c r="LG23" s="0"/>
+      <c r="LH23" s="0"/>
+      <c r="LI23" s="0"/>
+      <c r="LJ23" s="0"/>
+      <c r="LK23" s="0"/>
+      <c r="LL23" s="0"/>
+      <c r="LM23" s="0"/>
+      <c r="LN23" s="0"/>
+      <c r="LO23" s="0"/>
+      <c r="LP23" s="0"/>
+      <c r="LQ23" s="0"/>
+      <c r="LR23" s="0"/>
+      <c r="LS23" s="0"/>
+      <c r="LT23" s="0"/>
+      <c r="LU23" s="0"/>
+      <c r="LV23" s="0"/>
+      <c r="LW23" s="0"/>
+      <c r="LX23" s="0"/>
+      <c r="LY23" s="0"/>
+      <c r="LZ23" s="0"/>
+      <c r="MA23" s="0"/>
+      <c r="MB23" s="0"/>
+      <c r="MC23" s="0"/>
+      <c r="MD23" s="0"/>
+      <c r="ME23" s="0"/>
+      <c r="MF23" s="0"/>
+      <c r="MG23" s="0"/>
+      <c r="MH23" s="0"/>
+      <c r="MI23" s="0"/>
+      <c r="MJ23" s="0"/>
+      <c r="MK23" s="0"/>
+      <c r="ML23" s="0"/>
+      <c r="MM23" s="0"/>
+      <c r="MN23" s="0"/>
+      <c r="MO23" s="0"/>
+      <c r="MP23" s="0"/>
+      <c r="MQ23" s="0"/>
+      <c r="MR23" s="0"/>
+      <c r="MS23" s="0"/>
+      <c r="MT23" s="0"/>
+      <c r="MU23" s="0"/>
+      <c r="MV23" s="0"/>
+      <c r="MW23" s="0"/>
+      <c r="MX23" s="0"/>
+      <c r="MY23" s="0"/>
+      <c r="MZ23" s="0"/>
+      <c r="NA23" s="0"/>
+      <c r="NB23" s="0"/>
+      <c r="NC23" s="0"/>
+      <c r="ND23" s="0"/>
+      <c r="NE23" s="0"/>
+      <c r="NF23" s="0"/>
+      <c r="NG23" s="0"/>
+      <c r="NH23" s="0"/>
+      <c r="NI23" s="0"/>
+      <c r="NJ23" s="0"/>
+      <c r="NK23" s="0"/>
+      <c r="NL23" s="0"/>
+      <c r="NM23" s="0"/>
+      <c r="NN23" s="0"/>
+      <c r="NO23" s="0"/>
+      <c r="NP23" s="0"/>
+      <c r="NQ23" s="0"/>
+      <c r="NR23" s="0"/>
+      <c r="NS23" s="0"/>
+      <c r="NT23" s="0"/>
+      <c r="NU23" s="0"/>
+      <c r="NV23" s="0"/>
+      <c r="NW23" s="0"/>
+      <c r="NX23" s="0"/>
+      <c r="NY23" s="0"/>
+      <c r="NZ23" s="0"/>
+      <c r="OA23" s="0"/>
+      <c r="OB23" s="0"/>
+      <c r="OC23" s="0"/>
+      <c r="OD23" s="0"/>
+      <c r="OE23" s="0"/>
+      <c r="OF23" s="0"/>
+      <c r="OG23" s="0"/>
+      <c r="OH23" s="0"/>
+      <c r="OI23" s="0"/>
+      <c r="OJ23" s="0"/>
+      <c r="OK23" s="0"/>
+      <c r="OL23" s="0"/>
+      <c r="OM23" s="0"/>
+      <c r="ON23" s="0"/>
+      <c r="OO23" s="0"/>
+      <c r="OP23" s="0"/>
+      <c r="OQ23" s="0"/>
+      <c r="OR23" s="0"/>
+      <c r="OS23" s="0"/>
+      <c r="OT23" s="0"/>
+      <c r="OU23" s="0"/>
+      <c r="OV23" s="0"/>
+      <c r="OW23" s="0"/>
+      <c r="OX23" s="0"/>
+      <c r="OY23" s="0"/>
+      <c r="OZ23" s="0"/>
+      <c r="PA23" s="0"/>
+      <c r="PB23" s="0"/>
+      <c r="PC23" s="0"/>
+      <c r="PD23" s="0"/>
+      <c r="PE23" s="0"/>
+      <c r="PF23" s="0"/>
+      <c r="PG23" s="0"/>
+      <c r="PH23" s="0"/>
+      <c r="PI23" s="0"/>
+      <c r="PJ23" s="0"/>
+      <c r="PK23" s="0"/>
+      <c r="PL23" s="0"/>
+      <c r="PM23" s="0"/>
+      <c r="PN23" s="0"/>
+      <c r="PO23" s="0"/>
+      <c r="PP23" s="0"/>
+      <c r="PQ23" s="0"/>
+      <c r="PR23" s="0"/>
+      <c r="PS23" s="0"/>
+      <c r="PT23" s="0"/>
+      <c r="PU23" s="0"/>
+      <c r="PV23" s="0"/>
+      <c r="PW23" s="0"/>
+      <c r="PX23" s="0"/>
+      <c r="PY23" s="0"/>
+      <c r="PZ23" s="0"/>
+      <c r="QA23" s="0"/>
+      <c r="QB23" s="0"/>
+      <c r="QC23" s="0"/>
+      <c r="QD23" s="0"/>
+      <c r="QE23" s="0"/>
+      <c r="QF23" s="0"/>
+      <c r="QG23" s="0"/>
+      <c r="QH23" s="0"/>
+      <c r="QI23" s="0"/>
+      <c r="QJ23" s="0"/>
+      <c r="QK23" s="0"/>
+      <c r="QL23" s="0"/>
+      <c r="QM23" s="0"/>
+      <c r="QN23" s="0"/>
+      <c r="QO23" s="0"/>
+      <c r="QP23" s="0"/>
+      <c r="QQ23" s="0"/>
+      <c r="QR23" s="0"/>
+      <c r="QS23" s="0"/>
+      <c r="QT23" s="0"/>
+      <c r="QU23" s="0"/>
+      <c r="QV23" s="0"/>
+      <c r="QW23" s="0"/>
+      <c r="QX23" s="0"/>
+      <c r="QY23" s="0"/>
+      <c r="QZ23" s="0"/>
+      <c r="RA23" s="0"/>
+      <c r="RB23" s="0"/>
+      <c r="RC23" s="0"/>
+      <c r="RD23" s="0"/>
+      <c r="RE23" s="0"/>
+      <c r="RF23" s="0"/>
+      <c r="RG23" s="0"/>
+      <c r="RH23" s="0"/>
+      <c r="RI23" s="0"/>
+      <c r="RJ23" s="0"/>
+      <c r="RK23" s="0"/>
+      <c r="RL23" s="0"/>
+      <c r="RM23" s="0"/>
+      <c r="RN23" s="0"/>
+      <c r="RO23" s="0"/>
+      <c r="RP23" s="0"/>
+      <c r="RQ23" s="0"/>
+      <c r="RR23" s="0"/>
+      <c r="RS23" s="0"/>
+      <c r="RT23" s="0"/>
+      <c r="RU23" s="0"/>
+      <c r="RV23" s="0"/>
+      <c r="RW23" s="0"/>
+      <c r="RX23" s="0"/>
+      <c r="RY23" s="0"/>
+      <c r="RZ23" s="0"/>
+      <c r="SA23" s="0"/>
+      <c r="SB23" s="0"/>
+      <c r="SC23" s="0"/>
+      <c r="SD23" s="0"/>
+      <c r="SE23" s="0"/>
+      <c r="SF23" s="0"/>
+      <c r="SG23" s="0"/>
+      <c r="SH23" s="0"/>
+      <c r="SI23" s="0"/>
+      <c r="SJ23" s="0"/>
+      <c r="SK23" s="0"/>
+      <c r="SL23" s="0"/>
+      <c r="SM23" s="0"/>
+      <c r="SN23" s="0"/>
+      <c r="SO23" s="0"/>
+      <c r="SP23" s="0"/>
+      <c r="SQ23" s="0"/>
+      <c r="SR23" s="0"/>
+      <c r="SS23" s="0"/>
+      <c r="ST23" s="0"/>
+      <c r="SU23" s="0"/>
+      <c r="SV23" s="0"/>
+      <c r="SW23" s="0"/>
+      <c r="SX23" s="0"/>
+      <c r="SY23" s="0"/>
+      <c r="SZ23" s="0"/>
+      <c r="TA23" s="0"/>
+      <c r="TB23" s="0"/>
+      <c r="TC23" s="0"/>
+      <c r="TD23" s="0"/>
+      <c r="TE23" s="0"/>
+      <c r="TF23" s="0"/>
+      <c r="TG23" s="0"/>
+      <c r="TH23" s="0"/>
+      <c r="TI23" s="0"/>
+      <c r="TJ23" s="0"/>
+      <c r="TK23" s="0"/>
+      <c r="TL23" s="0"/>
+      <c r="TM23" s="0"/>
+      <c r="TN23" s="0"/>
+      <c r="TO23" s="0"/>
+      <c r="TP23" s="0"/>
+      <c r="TQ23" s="0"/>
+      <c r="TR23" s="0"/>
+      <c r="TS23" s="0"/>
+      <c r="TT23" s="0"/>
+      <c r="TU23" s="0"/>
+      <c r="TV23" s="0"/>
+      <c r="TW23" s="0"/>
+      <c r="TX23" s="0"/>
+      <c r="TY23" s="0"/>
+      <c r="TZ23" s="0"/>
+      <c r="UA23" s="0"/>
+      <c r="UB23" s="0"/>
+      <c r="UC23" s="0"/>
+      <c r="UD23" s="0"/>
+      <c r="UE23" s="0"/>
+      <c r="UF23" s="0"/>
+      <c r="UG23" s="0"/>
+      <c r="UH23" s="0"/>
+      <c r="UI23" s="0"/>
+      <c r="UJ23" s="0"/>
+      <c r="UK23" s="0"/>
+      <c r="UL23" s="0"/>
+      <c r="UM23" s="0"/>
+      <c r="UN23" s="0"/>
+      <c r="UO23" s="0"/>
+      <c r="UP23" s="0"/>
+      <c r="UQ23" s="0"/>
+      <c r="UR23" s="0"/>
+      <c r="US23" s="0"/>
+      <c r="UT23" s="0"/>
+      <c r="UU23" s="0"/>
+      <c r="UV23" s="0"/>
+      <c r="UW23" s="0"/>
+      <c r="UX23" s="0"/>
+      <c r="UY23" s="0"/>
+      <c r="UZ23" s="0"/>
+      <c r="VA23" s="0"/>
+      <c r="VB23" s="0"/>
+      <c r="VC23" s="0"/>
+      <c r="VD23" s="0"/>
+      <c r="VE23" s="0"/>
+      <c r="VF23" s="0"/>
+      <c r="VG23" s="0"/>
+      <c r="VH23" s="0"/>
+      <c r="VI23" s="0"/>
+      <c r="VJ23" s="0"/>
+      <c r="VK23" s="0"/>
+      <c r="VL23" s="0"/>
+      <c r="VM23" s="0"/>
+      <c r="VN23" s="0"/>
+      <c r="VO23" s="0"/>
+      <c r="VP23" s="0"/>
+      <c r="VQ23" s="0"/>
+      <c r="VR23" s="0"/>
+      <c r="VS23" s="0"/>
+      <c r="VT23" s="0"/>
+      <c r="VU23" s="0"/>
+      <c r="VV23" s="0"/>
+      <c r="VW23" s="0"/>
+      <c r="VX23" s="0"/>
+      <c r="VY23" s="0"/>
+      <c r="VZ23" s="0"/>
+      <c r="WA23" s="0"/>
+      <c r="WB23" s="0"/>
+      <c r="WC23" s="0"/>
+      <c r="WD23" s="0"/>
+      <c r="WE23" s="0"/>
+      <c r="WF23" s="0"/>
+      <c r="WG23" s="0"/>
+      <c r="WH23" s="0"/>
+      <c r="WI23" s="0"/>
+      <c r="WJ23" s="0"/>
+      <c r="WK23" s="0"/>
+      <c r="WL23" s="0"/>
+      <c r="WM23" s="0"/>
+      <c r="WN23" s="0"/>
+      <c r="WO23" s="0"/>
+      <c r="WP23" s="0"/>
+      <c r="WQ23" s="0"/>
+      <c r="WR23" s="0"/>
+      <c r="WS23" s="0"/>
+      <c r="WT23" s="0"/>
+      <c r="WU23" s="0"/>
+      <c r="WV23" s="0"/>
+      <c r="WW23" s="0"/>
+      <c r="WX23" s="0"/>
+      <c r="WY23" s="0"/>
+      <c r="WZ23" s="0"/>
+      <c r="XA23" s="0"/>
+      <c r="XB23" s="0"/>
+      <c r="XC23" s="0"/>
+      <c r="XD23" s="0"/>
+      <c r="XE23" s="0"/>
+      <c r="XF23" s="0"/>
+      <c r="XG23" s="0"/>
+      <c r="XH23" s="0"/>
+      <c r="XI23" s="0"/>
+      <c r="XJ23" s="0"/>
+      <c r="XK23" s="0"/>
+      <c r="XL23" s="0"/>
+      <c r="XM23" s="0"/>
+      <c r="XN23" s="0"/>
+      <c r="XO23" s="0"/>
+      <c r="XP23" s="0"/>
+      <c r="XQ23" s="0"/>
+      <c r="XR23" s="0"/>
+      <c r="XS23" s="0"/>
+      <c r="XT23" s="0"/>
+      <c r="XU23" s="0"/>
+      <c r="XV23" s="0"/>
+      <c r="XW23" s="0"/>
+      <c r="XX23" s="0"/>
+      <c r="XY23" s="0"/>
+      <c r="XZ23" s="0"/>
+      <c r="YA23" s="0"/>
+      <c r="YB23" s="0"/>
+      <c r="YC23" s="0"/>
+      <c r="YD23" s="0"/>
+      <c r="YE23" s="0"/>
+      <c r="YF23" s="0"/>
+      <c r="YG23" s="0"/>
+      <c r="YH23" s="0"/>
+      <c r="YI23" s="0"/>
+      <c r="YJ23" s="0"/>
+      <c r="YK23" s="0"/>
+      <c r="YL23" s="0"/>
+      <c r="YM23" s="0"/>
+      <c r="YN23" s="0"/>
+      <c r="YO23" s="0"/>
+      <c r="YP23" s="0"/>
+      <c r="YQ23" s="0"/>
+      <c r="YR23" s="0"/>
+      <c r="YS23" s="0"/>
+      <c r="YT23" s="0"/>
+      <c r="YU23" s="0"/>
+      <c r="YV23" s="0"/>
+      <c r="YW23" s="0"/>
+      <c r="YX23" s="0"/>
+      <c r="YY23" s="0"/>
+      <c r="YZ23" s="0"/>
+      <c r="ZA23" s="0"/>
+      <c r="ZB23" s="0"/>
+      <c r="ZC23" s="0"/>
+      <c r="ZD23" s="0"/>
+      <c r="ZE23" s="0"/>
+      <c r="ZF23" s="0"/>
+      <c r="ZG23" s="0"/>
+      <c r="ZH23" s="0"/>
+      <c r="ZI23" s="0"/>
+      <c r="ZJ23" s="0"/>
+      <c r="ZK23" s="0"/>
+      <c r="ZL23" s="0"/>
+      <c r="ZM23" s="0"/>
+      <c r="ZN23" s="0"/>
+      <c r="ZO23" s="0"/>
+      <c r="ZP23" s="0"/>
+      <c r="ZQ23" s="0"/>
+      <c r="ZR23" s="0"/>
+      <c r="ZS23" s="0"/>
+      <c r="ZT23" s="0"/>
+      <c r="ZU23" s="0"/>
+      <c r="ZV23" s="0"/>
+      <c r="ZW23" s="0"/>
+      <c r="ZX23" s="0"/>
+      <c r="ZY23" s="0"/>
+      <c r="ZZ23" s="0"/>
+      <c r="AAA23" s="0"/>
+      <c r="AAB23" s="0"/>
+      <c r="AAC23" s="0"/>
+      <c r="AAD23" s="0"/>
+      <c r="AAE23" s="0"/>
+      <c r="AAF23" s="0"/>
+      <c r="AAG23" s="0"/>
+      <c r="AAH23" s="0"/>
+      <c r="AAI23" s="0"/>
+      <c r="AAJ23" s="0"/>
+      <c r="AAK23" s="0"/>
+      <c r="AAL23" s="0"/>
+      <c r="AAM23" s="0"/>
+      <c r="AAN23" s="0"/>
+      <c r="AAO23" s="0"/>
+      <c r="AAP23" s="0"/>
+      <c r="AAQ23" s="0"/>
+      <c r="AAR23" s="0"/>
+      <c r="AAS23" s="0"/>
+      <c r="AAT23" s="0"/>
+      <c r="AAU23" s="0"/>
+      <c r="AAV23" s="0"/>
+      <c r="AAW23" s="0"/>
+      <c r="AAX23" s="0"/>
+      <c r="AAY23" s="0"/>
+      <c r="AAZ23" s="0"/>
+      <c r="ABA23" s="0"/>
+      <c r="ABB23" s="0"/>
+      <c r="ABC23" s="0"/>
+      <c r="ABD23" s="0"/>
+      <c r="ABE23" s="0"/>
+      <c r="ABF23" s="0"/>
+      <c r="ABG23" s="0"/>
+      <c r="ABH23" s="0"/>
+      <c r="ABI23" s="0"/>
+      <c r="ABJ23" s="0"/>
+      <c r="ABK23" s="0"/>
+      <c r="ABL23" s="0"/>
+      <c r="ABM23" s="0"/>
+      <c r="ABN23" s="0"/>
+      <c r="ABO23" s="0"/>
+      <c r="ABP23" s="0"/>
+      <c r="ABQ23" s="0"/>
+      <c r="ABR23" s="0"/>
+      <c r="ABS23" s="0"/>
+      <c r="ABT23" s="0"/>
+      <c r="ABU23" s="0"/>
+      <c r="ABV23" s="0"/>
+      <c r="ABW23" s="0"/>
+      <c r="ABX23" s="0"/>
+      <c r="ABY23" s="0"/>
+      <c r="ABZ23" s="0"/>
+      <c r="ACA23" s="0"/>
+      <c r="ACB23" s="0"/>
+      <c r="ACC23" s="0"/>
+      <c r="ACD23" s="0"/>
+      <c r="ACE23" s="0"/>
+      <c r="ACF23" s="0"/>
+      <c r="ACG23" s="0"/>
+      <c r="ACH23" s="0"/>
+      <c r="ACI23" s="0"/>
+      <c r="ACJ23" s="0"/>
+      <c r="ACK23" s="0"/>
+      <c r="ACL23" s="0"/>
+      <c r="ACM23" s="0"/>
+      <c r="ACN23" s="0"/>
+      <c r="ACO23" s="0"/>
+      <c r="ACP23" s="0"/>
+      <c r="ACQ23" s="0"/>
+      <c r="ACR23" s="0"/>
+      <c r="ACS23" s="0"/>
+      <c r="ACT23" s="0"/>
+      <c r="ACU23" s="0"/>
+      <c r="ACV23" s="0"/>
+      <c r="ACW23" s="0"/>
+      <c r="ACX23" s="0"/>
+      <c r="ACY23" s="0"/>
+      <c r="ACZ23" s="0"/>
+      <c r="ADA23" s="0"/>
+      <c r="ADB23" s="0"/>
+      <c r="ADC23" s="0"/>
+      <c r="ADD23" s="0"/>
+      <c r="ADE23" s="0"/>
+      <c r="ADF23" s="0"/>
+      <c r="ADG23" s="0"/>
+      <c r="ADH23" s="0"/>
+      <c r="ADI23" s="0"/>
+      <c r="ADJ23" s="0"/>
+      <c r="ADK23" s="0"/>
+      <c r="ADL23" s="0"/>
+      <c r="ADM23" s="0"/>
+      <c r="ADN23" s="0"/>
+      <c r="ADO23" s="0"/>
+      <c r="ADP23" s="0"/>
+      <c r="ADQ23" s="0"/>
+      <c r="ADR23" s="0"/>
+      <c r="ADS23" s="0"/>
+      <c r="ADT23" s="0"/>
+      <c r="ADU23" s="0"/>
+      <c r="ADV23" s="0"/>
+      <c r="ADW23" s="0"/>
+      <c r="ADX23" s="0"/>
+      <c r="ADY23" s="0"/>
+      <c r="ADZ23" s="0"/>
+      <c r="AEA23" s="0"/>
+      <c r="AEB23" s="0"/>
+      <c r="AEC23" s="0"/>
+      <c r="AED23" s="0"/>
+      <c r="AEE23" s="0"/>
+      <c r="AEF23" s="0"/>
+      <c r="AEG23" s="0"/>
+      <c r="AEH23" s="0"/>
+      <c r="AEI23" s="0"/>
+      <c r="AEJ23" s="0"/>
+      <c r="AEK23" s="0"/>
+      <c r="AEL23" s="0"/>
+      <c r="AEM23" s="0"/>
+      <c r="AEN23" s="0"/>
+      <c r="AEO23" s="0"/>
+      <c r="AEP23" s="0"/>
+      <c r="AEQ23" s="0"/>
+      <c r="AER23" s="0"/>
+      <c r="AES23" s="0"/>
+      <c r="AET23" s="0"/>
+      <c r="AEU23" s="0"/>
+      <c r="AEV23" s="0"/>
+      <c r="AEW23" s="0"/>
+      <c r="AEX23" s="0"/>
+      <c r="AEY23" s="0"/>
+      <c r="AEZ23" s="0"/>
+      <c r="AFA23" s="0"/>
+      <c r="AFB23" s="0"/>
+      <c r="AFC23" s="0"/>
+      <c r="AFD23" s="0"/>
+      <c r="AFE23" s="0"/>
+      <c r="AFF23" s="0"/>
+      <c r="AFG23" s="0"/>
+      <c r="AFH23" s="0"/>
+      <c r="AFI23" s="0"/>
+      <c r="AFJ23" s="0"/>
+      <c r="AFK23" s="0"/>
+      <c r="AFL23" s="0"/>
+      <c r="AFM23" s="0"/>
+      <c r="AFN23" s="0"/>
+      <c r="AFO23" s="0"/>
+      <c r="AFP23" s="0"/>
+      <c r="AFQ23" s="0"/>
+      <c r="AFR23" s="0"/>
+      <c r="AFS23" s="0"/>
+      <c r="AFT23" s="0"/>
+      <c r="AFU23" s="0"/>
+      <c r="AFV23" s="0"/>
+      <c r="AFW23" s="0"/>
+      <c r="AFX23" s="0"/>
+      <c r="AFY23" s="0"/>
+      <c r="AFZ23" s="0"/>
+      <c r="AGA23" s="0"/>
+      <c r="AGB23" s="0"/>
+      <c r="AGC23" s="0"/>
+      <c r="AGD23" s="0"/>
+      <c r="AGE23" s="0"/>
+      <c r="AGF23" s="0"/>
+      <c r="AGG23" s="0"/>
+      <c r="AGH23" s="0"/>
+      <c r="AGI23" s="0"/>
+      <c r="AGJ23" s="0"/>
+      <c r="AGK23" s="0"/>
+      <c r="AGL23" s="0"/>
+      <c r="AGM23" s="0"/>
+      <c r="AGN23" s="0"/>
+      <c r="AGO23" s="0"/>
+      <c r="AGP23" s="0"/>
+      <c r="AGQ23" s="0"/>
+      <c r="AGR23" s="0"/>
+      <c r="AGS23" s="0"/>
+      <c r="AGT23" s="0"/>
+      <c r="AGU23" s="0"/>
+      <c r="AGV23" s="0"/>
+      <c r="AGW23" s="0"/>
+      <c r="AGX23" s="0"/>
+      <c r="AGY23" s="0"/>
+      <c r="AGZ23" s="0"/>
+      <c r="AHA23" s="0"/>
+      <c r="AHB23" s="0"/>
+      <c r="AHC23" s="0"/>
+      <c r="AHD23" s="0"/>
+      <c r="AHE23" s="0"/>
+      <c r="AHF23" s="0"/>
+      <c r="AHG23" s="0"/>
+      <c r="AHH23" s="0"/>
+      <c r="AHI23" s="0"/>
+      <c r="AHJ23" s="0"/>
+      <c r="AHK23" s="0"/>
+      <c r="AHL23" s="0"/>
+      <c r="AHM23" s="0"/>
+      <c r="AHN23" s="0"/>
+      <c r="AHO23" s="0"/>
+      <c r="AHP23" s="0"/>
+      <c r="AHQ23" s="0"/>
+      <c r="AHR23" s="0"/>
+      <c r="AHS23" s="0"/>
+      <c r="AHT23" s="0"/>
+      <c r="AHU23" s="0"/>
+      <c r="AHV23" s="0"/>
+      <c r="AHW23" s="0"/>
+      <c r="AHX23" s="0"/>
+      <c r="AHY23" s="0"/>
+      <c r="AHZ23" s="0"/>
+      <c r="AIA23" s="0"/>
+      <c r="AIB23" s="0"/>
+      <c r="AIC23" s="0"/>
+      <c r="AID23" s="0"/>
+      <c r="AIE23" s="0"/>
+      <c r="AIF23" s="0"/>
+      <c r="AIG23" s="0"/>
+      <c r="AIH23" s="0"/>
+      <c r="AII23" s="0"/>
+      <c r="AIJ23" s="0"/>
+      <c r="AIK23" s="0"/>
+      <c r="AIL23" s="0"/>
+      <c r="AIM23" s="0"/>
+      <c r="AIN23" s="0"/>
+      <c r="AIO23" s="0"/>
+      <c r="AIP23" s="0"/>
+      <c r="AIQ23" s="0"/>
+      <c r="AIR23" s="0"/>
+      <c r="AIS23" s="0"/>
+      <c r="AIT23" s="0"/>
+      <c r="AIU23" s="0"/>
+      <c r="AIV23" s="0"/>
+      <c r="AIW23" s="0"/>
+      <c r="AIX23" s="0"/>
+      <c r="AIY23" s="0"/>
+      <c r="AIZ23" s="0"/>
+      <c r="AJA23" s="0"/>
+      <c r="AJB23" s="0"/>
+      <c r="AJC23" s="0"/>
+      <c r="AJD23" s="0"/>
+      <c r="AJE23" s="0"/>
+      <c r="AJF23" s="0"/>
+      <c r="AJG23" s="0"/>
+      <c r="AJH23" s="0"/>
+      <c r="AJI23" s="0"/>
+      <c r="AJJ23" s="0"/>
+      <c r="AJK23" s="0"/>
+      <c r="AJL23" s="0"/>
+      <c r="AJM23" s="0"/>
+      <c r="AJN23" s="0"/>
+      <c r="AJO23" s="0"/>
+      <c r="AJP23" s="0"/>
+      <c r="AJQ23" s="0"/>
+      <c r="AJR23" s="0"/>
+      <c r="AJS23" s="0"/>
+      <c r="AJT23" s="0"/>
+      <c r="AJU23" s="0"/>
+      <c r="AJV23" s="0"/>
+      <c r="AJW23" s="0"/>
+      <c r="AJX23" s="0"/>
+      <c r="AJY23" s="0"/>
+      <c r="AJZ23" s="0"/>
+      <c r="AKA23" s="0"/>
+      <c r="AKB23" s="0"/>
+      <c r="AKC23" s="0"/>
+      <c r="AKD23" s="0"/>
+      <c r="AKE23" s="0"/>
+      <c r="AKF23" s="0"/>
+      <c r="AKG23" s="0"/>
+      <c r="AKH23" s="0"/>
+      <c r="AKI23" s="0"/>
+      <c r="AKJ23" s="0"/>
+      <c r="AKK23" s="0"/>
+      <c r="AKL23" s="0"/>
+      <c r="AKM23" s="0"/>
+      <c r="AKN23" s="0"/>
+      <c r="AKO23" s="0"/>
+      <c r="AKP23" s="0"/>
+      <c r="AKQ23" s="0"/>
+      <c r="AKR23" s="0"/>
+      <c r="AKS23" s="0"/>
+      <c r="AKT23" s="0"/>
+      <c r="AKU23" s="0"/>
+      <c r="AKV23" s="0"/>
+      <c r="AKW23" s="0"/>
+      <c r="AKX23" s="0"/>
+      <c r="AKY23" s="0"/>
+      <c r="AKZ23" s="0"/>
+      <c r="ALA23" s="0"/>
+      <c r="ALB23" s="0"/>
+      <c r="ALC23" s="0"/>
+      <c r="ALD23" s="0"/>
+      <c r="ALE23" s="0"/>
+      <c r="ALF23" s="0"/>
+      <c r="ALG23" s="0"/>
+      <c r="ALH23" s="0"/>
+      <c r="ALI23" s="0"/>
+      <c r="ALJ23" s="0"/>
+      <c r="ALK23" s="0"/>
+      <c r="ALL23" s="0"/>
+      <c r="ALM23" s="0"/>
+      <c r="ALN23" s="0"/>
+      <c r="ALO23" s="0"/>
+      <c r="ALP23" s="0"/>
+      <c r="ALQ23" s="0"/>
+      <c r="ALR23" s="0"/>
+      <c r="ALS23" s="0"/>
+      <c r="ALT23" s="0"/>
+      <c r="ALU23" s="0"/>
+      <c r="ALV23" s="0"/>
+      <c r="ALW23" s="0"/>
+      <c r="ALX23" s="0"/>
+      <c r="ALY23" s="0"/>
+      <c r="ALZ23" s="0"/>
+      <c r="AMA23" s="0"/>
+      <c r="AMB23" s="0"/>
+      <c r="AMC23" s="0"/>
+      <c r="AMD23" s="0"/>
+      <c r="AME23" s="0"/>
+      <c r="AMF23" s="0"/>
+      <c r="AMG23" s="0"/>
+      <c r="AMH23" s="0"/>
+      <c r="AMI23" s="0"/>
+      <c r="AMJ23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="43" t="n">
@@ -6937,7 +7927,7 @@
       <c r="A26" s="36" t="n">
         <v>56352</v>
       </c>
-      <c r="B26" s="57" t="n">
+      <c r="B26" s="49" t="n">
         <v>7</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -9315,7 +10305,7 @@
       <c r="A32" s="36" t="n">
         <v>65856</v>
       </c>
-      <c r="B32" s="57" t="n">
+      <c r="B32" s="49" t="n">
         <v>1</v>
       </c>
       <c r="C32" s="38" t="s">
@@ -10378,7 +11368,7 @@
       <c r="A33" s="36" t="n">
         <v>65857</v>
       </c>
-      <c r="B33" s="57" t="n">
+      <c r="B33" s="49" t="n">
         <v>1</v>
       </c>
       <c r="C33" s="38" t="s">
@@ -11441,7 +12431,7 @@
       <c r="A34" s="36" t="n">
         <v>65857</v>
       </c>
-      <c r="B34" s="57" t="n">
+      <c r="B34" s="49" t="n">
         <v>1</v>
       </c>
       <c r="C34" s="38" t="s">
@@ -12500,322 +13490,6385 @@
       <c r="AMI34" s="0"/>
       <c r="AMJ34" s="0"/>
     </row>
-    <row r="35" s="56" customFormat="true" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="49" t="n">
+    <row r="35" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="36" t="n">
         <v>55674</v>
       </c>
-      <c r="B35" s="50" t="n">
+      <c r="B35" s="49" t="n">
         <v>2</v>
       </c>
-      <c r="C35" s="51" t="s">
+      <c r="C35" s="38" t="s">
         <v>252</v>
       </c>
-      <c r="D35" s="51" t="s">
+      <c r="D35" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="E35" s="52" t="s">
+      <c r="E35" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="F35" s="52" t="s">
+      <c r="F35" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="G35" s="52" t="s">
+      <c r="G35" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="H35" s="53" t="n">
+      <c r="H35" s="40" t="n">
         <v>37321</v>
       </c>
-      <c r="I35" s="53" t="n">
+      <c r="I35" s="40" t="n">
         <v>37321</v>
       </c>
-      <c r="J35" s="54" t="n">
+      <c r="J35" s="41" t="n">
         <v>44624</v>
       </c>
-      <c r="K35" s="55" t="n">
+      <c r="K35" s="48" t="n">
         <v>7</v>
       </c>
-      <c r="L35" s="49" t="s">
+      <c r="L35" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="M35" s="51" t="s">
+      <c r="M35" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="N35" s="52" t="s">
+      <c r="N35" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="O35" s="52" t="s">
+      <c r="O35" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="P35" s="52" t="s">
+      <c r="P35" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="Q35" s="51" t="s">
+      <c r="Q35" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="R35" s="51" t="s">
+      <c r="R35" s="38" t="s">
         <v>254</v>
       </c>
-      <c r="S35" s="51" t="s">
+      <c r="S35" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="T35" s="51"/>
-      <c r="U35" s="52"/>
-      <c r="V35" s="51"/>
-      <c r="W35" s="52"/>
+      <c r="T35" s="38"/>
+      <c r="U35" s="39"/>
+      <c r="V35" s="38"/>
+      <c r="W35" s="39"/>
+      <c r="Y35" s="0"/>
+      <c r="Z35" s="0"/>
+      <c r="AA35" s="0"/>
+      <c r="AB35" s="0"/>
+      <c r="AC35" s="0"/>
+      <c r="AD35" s="0"/>
+      <c r="AE35" s="0"/>
+      <c r="AF35" s="0"/>
+      <c r="AG35" s="0"/>
+      <c r="AH35" s="0"/>
+      <c r="AI35" s="0"/>
+      <c r="AJ35" s="0"/>
+      <c r="AK35" s="0"/>
+      <c r="AL35" s="0"/>
+      <c r="AM35" s="0"/>
+      <c r="AN35" s="0"/>
+      <c r="AO35" s="0"/>
+      <c r="AP35" s="0"/>
+      <c r="AQ35" s="0"/>
+      <c r="AR35" s="0"/>
+      <c r="AS35" s="0"/>
+      <c r="AT35" s="0"/>
+      <c r="AU35" s="0"/>
+      <c r="AV35" s="0"/>
+      <c r="AW35" s="0"/>
+      <c r="AX35" s="0"/>
+      <c r="AY35" s="0"/>
+      <c r="AZ35" s="0"/>
+      <c r="BA35" s="0"/>
+      <c r="BB35" s="0"/>
+      <c r="BC35" s="0"/>
+      <c r="BD35" s="0"/>
+      <c r="BE35" s="0"/>
+      <c r="BF35" s="0"/>
+      <c r="BG35" s="0"/>
+      <c r="BH35" s="0"/>
+      <c r="BI35" s="0"/>
+      <c r="BJ35" s="0"/>
+      <c r="BK35" s="0"/>
+      <c r="BL35" s="0"/>
+      <c r="BM35" s="0"/>
+      <c r="BN35" s="0"/>
+      <c r="BO35" s="0"/>
+      <c r="BP35" s="0"/>
+      <c r="BQ35" s="0"/>
+      <c r="BR35" s="0"/>
+      <c r="BS35" s="0"/>
+      <c r="BT35" s="0"/>
+      <c r="BU35" s="0"/>
+      <c r="BV35" s="0"/>
+      <c r="BW35" s="0"/>
+      <c r="BX35" s="0"/>
+      <c r="BY35" s="0"/>
+      <c r="BZ35" s="0"/>
+      <c r="CA35" s="0"/>
+      <c r="CB35" s="0"/>
+      <c r="CC35" s="0"/>
+      <c r="CD35" s="0"/>
+      <c r="CE35" s="0"/>
+      <c r="CF35" s="0"/>
+      <c r="CG35" s="0"/>
+      <c r="CH35" s="0"/>
+      <c r="CI35" s="0"/>
+      <c r="CJ35" s="0"/>
+      <c r="CK35" s="0"/>
+      <c r="CL35" s="0"/>
+      <c r="CM35" s="0"/>
+      <c r="CN35" s="0"/>
+      <c r="CO35" s="0"/>
+      <c r="CP35" s="0"/>
+      <c r="CQ35" s="0"/>
+      <c r="CR35" s="0"/>
+      <c r="CS35" s="0"/>
+      <c r="CT35" s="0"/>
+      <c r="CU35" s="0"/>
+      <c r="CV35" s="0"/>
+      <c r="CW35" s="0"/>
+      <c r="CX35" s="0"/>
+      <c r="CY35" s="0"/>
+      <c r="CZ35" s="0"/>
+      <c r="DA35" s="0"/>
+      <c r="DB35" s="0"/>
+      <c r="DC35" s="0"/>
+      <c r="DD35" s="0"/>
+      <c r="DE35" s="0"/>
+      <c r="DF35" s="0"/>
+      <c r="DG35" s="0"/>
+      <c r="DH35" s="0"/>
+      <c r="DI35" s="0"/>
+      <c r="DJ35" s="0"/>
+      <c r="DK35" s="0"/>
+      <c r="DL35" s="0"/>
+      <c r="DM35" s="0"/>
+      <c r="DN35" s="0"/>
+      <c r="DO35" s="0"/>
+      <c r="DP35" s="0"/>
+      <c r="DQ35" s="0"/>
+      <c r="DR35" s="0"/>
+      <c r="DS35" s="0"/>
+      <c r="DT35" s="0"/>
+      <c r="DU35" s="0"/>
+      <c r="DV35" s="0"/>
+      <c r="DW35" s="0"/>
+      <c r="DX35" s="0"/>
+      <c r="DY35" s="0"/>
+      <c r="DZ35" s="0"/>
+      <c r="EA35" s="0"/>
+      <c r="EB35" s="0"/>
+      <c r="EC35" s="0"/>
+      <c r="ED35" s="0"/>
+      <c r="EE35" s="0"/>
+      <c r="EF35" s="0"/>
+      <c r="EG35" s="0"/>
+      <c r="EH35" s="0"/>
+      <c r="EI35" s="0"/>
+      <c r="EJ35" s="0"/>
+      <c r="EK35" s="0"/>
+      <c r="EL35" s="0"/>
+      <c r="EM35" s="0"/>
+      <c r="EN35" s="0"/>
+      <c r="EO35" s="0"/>
+      <c r="EP35" s="0"/>
+      <c r="EQ35" s="0"/>
+      <c r="ER35" s="0"/>
+      <c r="ES35" s="0"/>
+      <c r="ET35" s="0"/>
+      <c r="EU35" s="0"/>
+      <c r="EV35" s="0"/>
+      <c r="EW35" s="0"/>
+      <c r="EX35" s="0"/>
+      <c r="EY35" s="0"/>
+      <c r="EZ35" s="0"/>
+      <c r="FA35" s="0"/>
+      <c r="FB35" s="0"/>
+      <c r="FC35" s="0"/>
+      <c r="FD35" s="0"/>
+      <c r="FE35" s="0"/>
+      <c r="FF35" s="0"/>
+      <c r="FG35" s="0"/>
+      <c r="FH35" s="0"/>
+      <c r="FI35" s="0"/>
+      <c r="FJ35" s="0"/>
+      <c r="FK35" s="0"/>
+      <c r="FL35" s="0"/>
+      <c r="FM35" s="0"/>
+      <c r="FN35" s="0"/>
+      <c r="FO35" s="0"/>
+      <c r="FP35" s="0"/>
+      <c r="FQ35" s="0"/>
+      <c r="FR35" s="0"/>
+      <c r="FS35" s="0"/>
+      <c r="FT35" s="0"/>
+      <c r="FU35" s="0"/>
+      <c r="FV35" s="0"/>
+      <c r="FW35" s="0"/>
+      <c r="FX35" s="0"/>
+      <c r="FY35" s="0"/>
+      <c r="FZ35" s="0"/>
+      <c r="GA35" s="0"/>
+      <c r="GB35" s="0"/>
+      <c r="GC35" s="0"/>
+      <c r="GD35" s="0"/>
+      <c r="GE35" s="0"/>
+      <c r="GF35" s="0"/>
+      <c r="GG35" s="0"/>
+      <c r="GH35" s="0"/>
+      <c r="GI35" s="0"/>
+      <c r="GJ35" s="0"/>
+      <c r="GK35" s="0"/>
+      <c r="GL35" s="0"/>
+      <c r="GM35" s="0"/>
+      <c r="GN35" s="0"/>
+      <c r="GO35" s="0"/>
+      <c r="GP35" s="0"/>
+      <c r="GQ35" s="0"/>
+      <c r="GR35" s="0"/>
+      <c r="GS35" s="0"/>
+      <c r="GT35" s="0"/>
+      <c r="GU35" s="0"/>
+      <c r="GV35" s="0"/>
+      <c r="GW35" s="0"/>
+      <c r="GX35" s="0"/>
+      <c r="GY35" s="0"/>
+      <c r="GZ35" s="0"/>
+      <c r="HA35" s="0"/>
+      <c r="HB35" s="0"/>
+      <c r="HC35" s="0"/>
+      <c r="HD35" s="0"/>
+      <c r="HE35" s="0"/>
+      <c r="HF35" s="0"/>
+      <c r="HG35" s="0"/>
+      <c r="HH35" s="0"/>
+      <c r="HI35" s="0"/>
+      <c r="HJ35" s="0"/>
+      <c r="HK35" s="0"/>
+      <c r="HL35" s="0"/>
+      <c r="HM35" s="0"/>
+      <c r="HN35" s="0"/>
+      <c r="HO35" s="0"/>
+      <c r="HP35" s="0"/>
+      <c r="HQ35" s="0"/>
+      <c r="HR35" s="0"/>
+      <c r="HS35" s="0"/>
+      <c r="HT35" s="0"/>
+      <c r="HU35" s="0"/>
+      <c r="HV35" s="0"/>
+      <c r="HW35" s="0"/>
+      <c r="HX35" s="0"/>
+      <c r="HY35" s="0"/>
+      <c r="HZ35" s="0"/>
+      <c r="IA35" s="0"/>
+      <c r="IB35" s="0"/>
+      <c r="IC35" s="0"/>
+      <c r="ID35" s="0"/>
+      <c r="IE35" s="0"/>
+      <c r="IF35" s="0"/>
+      <c r="IG35" s="0"/>
+      <c r="IH35" s="0"/>
+      <c r="II35" s="0"/>
+      <c r="IJ35" s="0"/>
+      <c r="IK35" s="0"/>
+      <c r="IL35" s="0"/>
+      <c r="IM35" s="0"/>
+      <c r="IN35" s="0"/>
+      <c r="IO35" s="0"/>
+      <c r="IP35" s="0"/>
+      <c r="IQ35" s="0"/>
+      <c r="IR35" s="0"/>
+      <c r="IS35" s="0"/>
+      <c r="IT35" s="0"/>
+      <c r="IU35" s="0"/>
+      <c r="IV35" s="0"/>
+      <c r="IW35" s="0"/>
+      <c r="IX35" s="0"/>
+      <c r="IY35" s="0"/>
+      <c r="IZ35" s="0"/>
+      <c r="JA35" s="0"/>
+      <c r="JB35" s="0"/>
+      <c r="JC35" s="0"/>
+      <c r="JD35" s="0"/>
+      <c r="JE35" s="0"/>
+      <c r="JF35" s="0"/>
+      <c r="JG35" s="0"/>
+      <c r="JH35" s="0"/>
+      <c r="JI35" s="0"/>
+      <c r="JJ35" s="0"/>
+      <c r="JK35" s="0"/>
+      <c r="JL35" s="0"/>
+      <c r="JM35" s="0"/>
+      <c r="JN35" s="0"/>
+      <c r="JO35" s="0"/>
+      <c r="JP35" s="0"/>
+      <c r="JQ35" s="0"/>
+      <c r="JR35" s="0"/>
+      <c r="JS35" s="0"/>
+      <c r="JT35" s="0"/>
+      <c r="JU35" s="0"/>
+      <c r="JV35" s="0"/>
+      <c r="JW35" s="0"/>
+      <c r="JX35" s="0"/>
+      <c r="JY35" s="0"/>
+      <c r="JZ35" s="0"/>
+      <c r="KA35" s="0"/>
+      <c r="KB35" s="0"/>
+      <c r="KC35" s="0"/>
+      <c r="KD35" s="0"/>
+      <c r="KE35" s="0"/>
+      <c r="KF35" s="0"/>
+      <c r="KG35" s="0"/>
+      <c r="KH35" s="0"/>
+      <c r="KI35" s="0"/>
+      <c r="KJ35" s="0"/>
+      <c r="KK35" s="0"/>
+      <c r="KL35" s="0"/>
+      <c r="KM35" s="0"/>
+      <c r="KN35" s="0"/>
+      <c r="KO35" s="0"/>
+      <c r="KP35" s="0"/>
+      <c r="KQ35" s="0"/>
+      <c r="KR35" s="0"/>
+      <c r="KS35" s="0"/>
+      <c r="KT35" s="0"/>
+      <c r="KU35" s="0"/>
+      <c r="KV35" s="0"/>
+      <c r="KW35" s="0"/>
+      <c r="KX35" s="0"/>
+      <c r="KY35" s="0"/>
+      <c r="KZ35" s="0"/>
+      <c r="LA35" s="0"/>
+      <c r="LB35" s="0"/>
+      <c r="LC35" s="0"/>
+      <c r="LD35" s="0"/>
+      <c r="LE35" s="0"/>
+      <c r="LF35" s="0"/>
+      <c r="LG35" s="0"/>
+      <c r="LH35" s="0"/>
+      <c r="LI35" s="0"/>
+      <c r="LJ35" s="0"/>
+      <c r="LK35" s="0"/>
+      <c r="LL35" s="0"/>
+      <c r="LM35" s="0"/>
+      <c r="LN35" s="0"/>
+      <c r="LO35" s="0"/>
+      <c r="LP35" s="0"/>
+      <c r="LQ35" s="0"/>
+      <c r="LR35" s="0"/>
+      <c r="LS35" s="0"/>
+      <c r="LT35" s="0"/>
+      <c r="LU35" s="0"/>
+      <c r="LV35" s="0"/>
+      <c r="LW35" s="0"/>
+      <c r="LX35" s="0"/>
+      <c r="LY35" s="0"/>
+      <c r="LZ35" s="0"/>
+      <c r="MA35" s="0"/>
+      <c r="MB35" s="0"/>
+      <c r="MC35" s="0"/>
+      <c r="MD35" s="0"/>
+      <c r="ME35" s="0"/>
+      <c r="MF35" s="0"/>
+      <c r="MG35" s="0"/>
+      <c r="MH35" s="0"/>
+      <c r="MI35" s="0"/>
+      <c r="MJ35" s="0"/>
+      <c r="MK35" s="0"/>
+      <c r="ML35" s="0"/>
+      <c r="MM35" s="0"/>
+      <c r="MN35" s="0"/>
+      <c r="MO35" s="0"/>
+      <c r="MP35" s="0"/>
+      <c r="MQ35" s="0"/>
+      <c r="MR35" s="0"/>
+      <c r="MS35" s="0"/>
+      <c r="MT35" s="0"/>
+      <c r="MU35" s="0"/>
+      <c r="MV35" s="0"/>
+      <c r="MW35" s="0"/>
+      <c r="MX35" s="0"/>
+      <c r="MY35" s="0"/>
+      <c r="MZ35" s="0"/>
+      <c r="NA35" s="0"/>
+      <c r="NB35" s="0"/>
+      <c r="NC35" s="0"/>
+      <c r="ND35" s="0"/>
+      <c r="NE35" s="0"/>
+      <c r="NF35" s="0"/>
+      <c r="NG35" s="0"/>
+      <c r="NH35" s="0"/>
+      <c r="NI35" s="0"/>
+      <c r="NJ35" s="0"/>
+      <c r="NK35" s="0"/>
+      <c r="NL35" s="0"/>
+      <c r="NM35" s="0"/>
+      <c r="NN35" s="0"/>
+      <c r="NO35" s="0"/>
+      <c r="NP35" s="0"/>
+      <c r="NQ35" s="0"/>
+      <c r="NR35" s="0"/>
+      <c r="NS35" s="0"/>
+      <c r="NT35" s="0"/>
+      <c r="NU35" s="0"/>
+      <c r="NV35" s="0"/>
+      <c r="NW35" s="0"/>
+      <c r="NX35" s="0"/>
+      <c r="NY35" s="0"/>
+      <c r="NZ35" s="0"/>
+      <c r="OA35" s="0"/>
+      <c r="OB35" s="0"/>
+      <c r="OC35" s="0"/>
+      <c r="OD35" s="0"/>
+      <c r="OE35" s="0"/>
+      <c r="OF35" s="0"/>
+      <c r="OG35" s="0"/>
+      <c r="OH35" s="0"/>
+      <c r="OI35" s="0"/>
+      <c r="OJ35" s="0"/>
+      <c r="OK35" s="0"/>
+      <c r="OL35" s="0"/>
+      <c r="OM35" s="0"/>
+      <c r="ON35" s="0"/>
+      <c r="OO35" s="0"/>
+      <c r="OP35" s="0"/>
+      <c r="OQ35" s="0"/>
+      <c r="OR35" s="0"/>
+      <c r="OS35" s="0"/>
+      <c r="OT35" s="0"/>
+      <c r="OU35" s="0"/>
+      <c r="OV35" s="0"/>
+      <c r="OW35" s="0"/>
+      <c r="OX35" s="0"/>
+      <c r="OY35" s="0"/>
+      <c r="OZ35" s="0"/>
+      <c r="PA35" s="0"/>
+      <c r="PB35" s="0"/>
+      <c r="PC35" s="0"/>
+      <c r="PD35" s="0"/>
+      <c r="PE35" s="0"/>
+      <c r="PF35" s="0"/>
+      <c r="PG35" s="0"/>
+      <c r="PH35" s="0"/>
+      <c r="PI35" s="0"/>
+      <c r="PJ35" s="0"/>
+      <c r="PK35" s="0"/>
+      <c r="PL35" s="0"/>
+      <c r="PM35" s="0"/>
+      <c r="PN35" s="0"/>
+      <c r="PO35" s="0"/>
+      <c r="PP35" s="0"/>
+      <c r="PQ35" s="0"/>
+      <c r="PR35" s="0"/>
+      <c r="PS35" s="0"/>
+      <c r="PT35" s="0"/>
+      <c r="PU35" s="0"/>
+      <c r="PV35" s="0"/>
+      <c r="PW35" s="0"/>
+      <c r="PX35" s="0"/>
+      <c r="PY35" s="0"/>
+      <c r="PZ35" s="0"/>
+      <c r="QA35" s="0"/>
+      <c r="QB35" s="0"/>
+      <c r="QC35" s="0"/>
+      <c r="QD35" s="0"/>
+      <c r="QE35" s="0"/>
+      <c r="QF35" s="0"/>
+      <c r="QG35" s="0"/>
+      <c r="QH35" s="0"/>
+      <c r="QI35" s="0"/>
+      <c r="QJ35" s="0"/>
+      <c r="QK35" s="0"/>
+      <c r="QL35" s="0"/>
+      <c r="QM35" s="0"/>
+      <c r="QN35" s="0"/>
+      <c r="QO35" s="0"/>
+      <c r="QP35" s="0"/>
+      <c r="QQ35" s="0"/>
+      <c r="QR35" s="0"/>
+      <c r="QS35" s="0"/>
+      <c r="QT35" s="0"/>
+      <c r="QU35" s="0"/>
+      <c r="QV35" s="0"/>
+      <c r="QW35" s="0"/>
+      <c r="QX35" s="0"/>
+      <c r="QY35" s="0"/>
+      <c r="QZ35" s="0"/>
+      <c r="RA35" s="0"/>
+      <c r="RB35" s="0"/>
+      <c r="RC35" s="0"/>
+      <c r="RD35" s="0"/>
+      <c r="RE35" s="0"/>
+      <c r="RF35" s="0"/>
+      <c r="RG35" s="0"/>
+      <c r="RH35" s="0"/>
+      <c r="RI35" s="0"/>
+      <c r="RJ35" s="0"/>
+      <c r="RK35" s="0"/>
+      <c r="RL35" s="0"/>
+      <c r="RM35" s="0"/>
+      <c r="RN35" s="0"/>
+      <c r="RO35" s="0"/>
+      <c r="RP35" s="0"/>
+      <c r="RQ35" s="0"/>
+      <c r="RR35" s="0"/>
+      <c r="RS35" s="0"/>
+      <c r="RT35" s="0"/>
+      <c r="RU35" s="0"/>
+      <c r="RV35" s="0"/>
+      <c r="RW35" s="0"/>
+      <c r="RX35" s="0"/>
+      <c r="RY35" s="0"/>
+      <c r="RZ35" s="0"/>
+      <c r="SA35" s="0"/>
+      <c r="SB35" s="0"/>
+      <c r="SC35" s="0"/>
+      <c r="SD35" s="0"/>
+      <c r="SE35" s="0"/>
+      <c r="SF35" s="0"/>
+      <c r="SG35" s="0"/>
+      <c r="SH35" s="0"/>
+      <c r="SI35" s="0"/>
+      <c r="SJ35" s="0"/>
+      <c r="SK35" s="0"/>
+      <c r="SL35" s="0"/>
+      <c r="SM35" s="0"/>
+      <c r="SN35" s="0"/>
+      <c r="SO35" s="0"/>
+      <c r="SP35" s="0"/>
+      <c r="SQ35" s="0"/>
+      <c r="SR35" s="0"/>
+      <c r="SS35" s="0"/>
+      <c r="ST35" s="0"/>
+      <c r="SU35" s="0"/>
+      <c r="SV35" s="0"/>
+      <c r="SW35" s="0"/>
+      <c r="SX35" s="0"/>
+      <c r="SY35" s="0"/>
+      <c r="SZ35" s="0"/>
+      <c r="TA35" s="0"/>
+      <c r="TB35" s="0"/>
+      <c r="TC35" s="0"/>
+      <c r="TD35" s="0"/>
+      <c r="TE35" s="0"/>
+      <c r="TF35" s="0"/>
+      <c r="TG35" s="0"/>
+      <c r="TH35" s="0"/>
+      <c r="TI35" s="0"/>
+      <c r="TJ35" s="0"/>
+      <c r="TK35" s="0"/>
+      <c r="TL35" s="0"/>
+      <c r="TM35" s="0"/>
+      <c r="TN35" s="0"/>
+      <c r="TO35" s="0"/>
+      <c r="TP35" s="0"/>
+      <c r="TQ35" s="0"/>
+      <c r="TR35" s="0"/>
+      <c r="TS35" s="0"/>
+      <c r="TT35" s="0"/>
+      <c r="TU35" s="0"/>
+      <c r="TV35" s="0"/>
+      <c r="TW35" s="0"/>
+      <c r="TX35" s="0"/>
+      <c r="TY35" s="0"/>
+      <c r="TZ35" s="0"/>
+      <c r="UA35" s="0"/>
+      <c r="UB35" s="0"/>
+      <c r="UC35" s="0"/>
+      <c r="UD35" s="0"/>
+      <c r="UE35" s="0"/>
+      <c r="UF35" s="0"/>
+      <c r="UG35" s="0"/>
+      <c r="UH35" s="0"/>
+      <c r="UI35" s="0"/>
+      <c r="UJ35" s="0"/>
+      <c r="UK35" s="0"/>
+      <c r="UL35" s="0"/>
+      <c r="UM35" s="0"/>
+      <c r="UN35" s="0"/>
+      <c r="UO35" s="0"/>
+      <c r="UP35" s="0"/>
+      <c r="UQ35" s="0"/>
+      <c r="UR35" s="0"/>
+      <c r="US35" s="0"/>
+      <c r="UT35" s="0"/>
+      <c r="UU35" s="0"/>
+      <c r="UV35" s="0"/>
+      <c r="UW35" s="0"/>
+      <c r="UX35" s="0"/>
+      <c r="UY35" s="0"/>
+      <c r="UZ35" s="0"/>
+      <c r="VA35" s="0"/>
+      <c r="VB35" s="0"/>
+      <c r="VC35" s="0"/>
+      <c r="VD35" s="0"/>
+      <c r="VE35" s="0"/>
+      <c r="VF35" s="0"/>
+      <c r="VG35" s="0"/>
+      <c r="VH35" s="0"/>
+      <c r="VI35" s="0"/>
+      <c r="VJ35" s="0"/>
+      <c r="VK35" s="0"/>
+      <c r="VL35" s="0"/>
+      <c r="VM35" s="0"/>
+      <c r="VN35" s="0"/>
+      <c r="VO35" s="0"/>
+      <c r="VP35" s="0"/>
+      <c r="VQ35" s="0"/>
+      <c r="VR35" s="0"/>
+      <c r="VS35" s="0"/>
+      <c r="VT35" s="0"/>
+      <c r="VU35" s="0"/>
+      <c r="VV35" s="0"/>
+      <c r="VW35" s="0"/>
+      <c r="VX35" s="0"/>
+      <c r="VY35" s="0"/>
+      <c r="VZ35" s="0"/>
+      <c r="WA35" s="0"/>
+      <c r="WB35" s="0"/>
+      <c r="WC35" s="0"/>
+      <c r="WD35" s="0"/>
+      <c r="WE35" s="0"/>
+      <c r="WF35" s="0"/>
+      <c r="WG35" s="0"/>
+      <c r="WH35" s="0"/>
+      <c r="WI35" s="0"/>
+      <c r="WJ35" s="0"/>
+      <c r="WK35" s="0"/>
+      <c r="WL35" s="0"/>
+      <c r="WM35" s="0"/>
+      <c r="WN35" s="0"/>
+      <c r="WO35" s="0"/>
+      <c r="WP35" s="0"/>
+      <c r="WQ35" s="0"/>
+      <c r="WR35" s="0"/>
+      <c r="WS35" s="0"/>
+      <c r="WT35" s="0"/>
+      <c r="WU35" s="0"/>
+      <c r="WV35" s="0"/>
+      <c r="WW35" s="0"/>
+      <c r="WX35" s="0"/>
+      <c r="WY35" s="0"/>
+      <c r="WZ35" s="0"/>
+      <c r="XA35" s="0"/>
+      <c r="XB35" s="0"/>
+      <c r="XC35" s="0"/>
+      <c r="XD35" s="0"/>
+      <c r="XE35" s="0"/>
+      <c r="XF35" s="0"/>
+      <c r="XG35" s="0"/>
+      <c r="XH35" s="0"/>
+      <c r="XI35" s="0"/>
+      <c r="XJ35" s="0"/>
+      <c r="XK35" s="0"/>
+      <c r="XL35" s="0"/>
+      <c r="XM35" s="0"/>
+      <c r="XN35" s="0"/>
+      <c r="XO35" s="0"/>
+      <c r="XP35" s="0"/>
+      <c r="XQ35" s="0"/>
+      <c r="XR35" s="0"/>
+      <c r="XS35" s="0"/>
+      <c r="XT35" s="0"/>
+      <c r="XU35" s="0"/>
+      <c r="XV35" s="0"/>
+      <c r="XW35" s="0"/>
+      <c r="XX35" s="0"/>
+      <c r="XY35" s="0"/>
+      <c r="XZ35" s="0"/>
+      <c r="YA35" s="0"/>
+      <c r="YB35" s="0"/>
+      <c r="YC35" s="0"/>
+      <c r="YD35" s="0"/>
+      <c r="YE35" s="0"/>
+      <c r="YF35" s="0"/>
+      <c r="YG35" s="0"/>
+      <c r="YH35" s="0"/>
+      <c r="YI35" s="0"/>
+      <c r="YJ35" s="0"/>
+      <c r="YK35" s="0"/>
+      <c r="YL35" s="0"/>
+      <c r="YM35" s="0"/>
+      <c r="YN35" s="0"/>
+      <c r="YO35" s="0"/>
+      <c r="YP35" s="0"/>
+      <c r="YQ35" s="0"/>
+      <c r="YR35" s="0"/>
+      <c r="YS35" s="0"/>
+      <c r="YT35" s="0"/>
+      <c r="YU35" s="0"/>
+      <c r="YV35" s="0"/>
+      <c r="YW35" s="0"/>
+      <c r="YX35" s="0"/>
+      <c r="YY35" s="0"/>
+      <c r="YZ35" s="0"/>
+      <c r="ZA35" s="0"/>
+      <c r="ZB35" s="0"/>
+      <c r="ZC35" s="0"/>
+      <c r="ZD35" s="0"/>
+      <c r="ZE35" s="0"/>
+      <c r="ZF35" s="0"/>
+      <c r="ZG35" s="0"/>
+      <c r="ZH35" s="0"/>
+      <c r="ZI35" s="0"/>
+      <c r="ZJ35" s="0"/>
+      <c r="ZK35" s="0"/>
+      <c r="ZL35" s="0"/>
+      <c r="ZM35" s="0"/>
+      <c r="ZN35" s="0"/>
+      <c r="ZO35" s="0"/>
+      <c r="ZP35" s="0"/>
+      <c r="ZQ35" s="0"/>
+      <c r="ZR35" s="0"/>
+      <c r="ZS35" s="0"/>
+      <c r="ZT35" s="0"/>
+      <c r="ZU35" s="0"/>
+      <c r="ZV35" s="0"/>
+      <c r="ZW35" s="0"/>
+      <c r="ZX35" s="0"/>
+      <c r="ZY35" s="0"/>
+      <c r="ZZ35" s="0"/>
+      <c r="AAA35" s="0"/>
+      <c r="AAB35" s="0"/>
+      <c r="AAC35" s="0"/>
+      <c r="AAD35" s="0"/>
+      <c r="AAE35" s="0"/>
+      <c r="AAF35" s="0"/>
+      <c r="AAG35" s="0"/>
+      <c r="AAH35" s="0"/>
+      <c r="AAI35" s="0"/>
+      <c r="AAJ35" s="0"/>
+      <c r="AAK35" s="0"/>
+      <c r="AAL35" s="0"/>
+      <c r="AAM35" s="0"/>
+      <c r="AAN35" s="0"/>
+      <c r="AAO35" s="0"/>
+      <c r="AAP35" s="0"/>
+      <c r="AAQ35" s="0"/>
+      <c r="AAR35" s="0"/>
+      <c r="AAS35" s="0"/>
+      <c r="AAT35" s="0"/>
+      <c r="AAU35" s="0"/>
+      <c r="AAV35" s="0"/>
+      <c r="AAW35" s="0"/>
+      <c r="AAX35" s="0"/>
+      <c r="AAY35" s="0"/>
+      <c r="AAZ35" s="0"/>
+      <c r="ABA35" s="0"/>
+      <c r="ABB35" s="0"/>
+      <c r="ABC35" s="0"/>
+      <c r="ABD35" s="0"/>
+      <c r="ABE35" s="0"/>
+      <c r="ABF35" s="0"/>
+      <c r="ABG35" s="0"/>
+      <c r="ABH35" s="0"/>
+      <c r="ABI35" s="0"/>
+      <c r="ABJ35" s="0"/>
+      <c r="ABK35" s="0"/>
+      <c r="ABL35" s="0"/>
+      <c r="ABM35" s="0"/>
+      <c r="ABN35" s="0"/>
+      <c r="ABO35" s="0"/>
+      <c r="ABP35" s="0"/>
+      <c r="ABQ35" s="0"/>
+      <c r="ABR35" s="0"/>
+      <c r="ABS35" s="0"/>
+      <c r="ABT35" s="0"/>
+      <c r="ABU35" s="0"/>
+      <c r="ABV35" s="0"/>
+      <c r="ABW35" s="0"/>
+      <c r="ABX35" s="0"/>
+      <c r="ABY35" s="0"/>
+      <c r="ABZ35" s="0"/>
+      <c r="ACA35" s="0"/>
+      <c r="ACB35" s="0"/>
+      <c r="ACC35" s="0"/>
+      <c r="ACD35" s="0"/>
+      <c r="ACE35" s="0"/>
+      <c r="ACF35" s="0"/>
+      <c r="ACG35" s="0"/>
+      <c r="ACH35" s="0"/>
+      <c r="ACI35" s="0"/>
+      <c r="ACJ35" s="0"/>
+      <c r="ACK35" s="0"/>
+      <c r="ACL35" s="0"/>
+      <c r="ACM35" s="0"/>
+      <c r="ACN35" s="0"/>
+      <c r="ACO35" s="0"/>
+      <c r="ACP35" s="0"/>
+      <c r="ACQ35" s="0"/>
+      <c r="ACR35" s="0"/>
+      <c r="ACS35" s="0"/>
+      <c r="ACT35" s="0"/>
+      <c r="ACU35" s="0"/>
+      <c r="ACV35" s="0"/>
+      <c r="ACW35" s="0"/>
+      <c r="ACX35" s="0"/>
+      <c r="ACY35" s="0"/>
+      <c r="ACZ35" s="0"/>
+      <c r="ADA35" s="0"/>
+      <c r="ADB35" s="0"/>
+      <c r="ADC35" s="0"/>
+      <c r="ADD35" s="0"/>
+      <c r="ADE35" s="0"/>
+      <c r="ADF35" s="0"/>
+      <c r="ADG35" s="0"/>
+      <c r="ADH35" s="0"/>
+      <c r="ADI35" s="0"/>
+      <c r="ADJ35" s="0"/>
+      <c r="ADK35" s="0"/>
+      <c r="ADL35" s="0"/>
+      <c r="ADM35" s="0"/>
+      <c r="ADN35" s="0"/>
+      <c r="ADO35" s="0"/>
+      <c r="ADP35" s="0"/>
+      <c r="ADQ35" s="0"/>
+      <c r="ADR35" s="0"/>
+      <c r="ADS35" s="0"/>
+      <c r="ADT35" s="0"/>
+      <c r="ADU35" s="0"/>
+      <c r="ADV35" s="0"/>
+      <c r="ADW35" s="0"/>
+      <c r="ADX35" s="0"/>
+      <c r="ADY35" s="0"/>
+      <c r="ADZ35" s="0"/>
+      <c r="AEA35" s="0"/>
+      <c r="AEB35" s="0"/>
+      <c r="AEC35" s="0"/>
+      <c r="AED35" s="0"/>
+      <c r="AEE35" s="0"/>
+      <c r="AEF35" s="0"/>
+      <c r="AEG35" s="0"/>
+      <c r="AEH35" s="0"/>
+      <c r="AEI35" s="0"/>
+      <c r="AEJ35" s="0"/>
+      <c r="AEK35" s="0"/>
+      <c r="AEL35" s="0"/>
+      <c r="AEM35" s="0"/>
+      <c r="AEN35" s="0"/>
+      <c r="AEO35" s="0"/>
+      <c r="AEP35" s="0"/>
+      <c r="AEQ35" s="0"/>
+      <c r="AER35" s="0"/>
+      <c r="AES35" s="0"/>
+      <c r="AET35" s="0"/>
+      <c r="AEU35" s="0"/>
+      <c r="AEV35" s="0"/>
+      <c r="AEW35" s="0"/>
+      <c r="AEX35" s="0"/>
+      <c r="AEY35" s="0"/>
+      <c r="AEZ35" s="0"/>
+      <c r="AFA35" s="0"/>
+      <c r="AFB35" s="0"/>
+      <c r="AFC35" s="0"/>
+      <c r="AFD35" s="0"/>
+      <c r="AFE35" s="0"/>
+      <c r="AFF35" s="0"/>
+      <c r="AFG35" s="0"/>
+      <c r="AFH35" s="0"/>
+      <c r="AFI35" s="0"/>
+      <c r="AFJ35" s="0"/>
+      <c r="AFK35" s="0"/>
+      <c r="AFL35" s="0"/>
+      <c r="AFM35" s="0"/>
+      <c r="AFN35" s="0"/>
+      <c r="AFO35" s="0"/>
+      <c r="AFP35" s="0"/>
+      <c r="AFQ35" s="0"/>
+      <c r="AFR35" s="0"/>
+      <c r="AFS35" s="0"/>
+      <c r="AFT35" s="0"/>
+      <c r="AFU35" s="0"/>
+      <c r="AFV35" s="0"/>
+      <c r="AFW35" s="0"/>
+      <c r="AFX35" s="0"/>
+      <c r="AFY35" s="0"/>
+      <c r="AFZ35" s="0"/>
+      <c r="AGA35" s="0"/>
+      <c r="AGB35" s="0"/>
+      <c r="AGC35" s="0"/>
+      <c r="AGD35" s="0"/>
+      <c r="AGE35" s="0"/>
+      <c r="AGF35" s="0"/>
+      <c r="AGG35" s="0"/>
+      <c r="AGH35" s="0"/>
+      <c r="AGI35" s="0"/>
+      <c r="AGJ35" s="0"/>
+      <c r="AGK35" s="0"/>
+      <c r="AGL35" s="0"/>
+      <c r="AGM35" s="0"/>
+      <c r="AGN35" s="0"/>
+      <c r="AGO35" s="0"/>
+      <c r="AGP35" s="0"/>
+      <c r="AGQ35" s="0"/>
+      <c r="AGR35" s="0"/>
+      <c r="AGS35" s="0"/>
+      <c r="AGT35" s="0"/>
+      <c r="AGU35" s="0"/>
+      <c r="AGV35" s="0"/>
+      <c r="AGW35" s="0"/>
+      <c r="AGX35" s="0"/>
+      <c r="AGY35" s="0"/>
+      <c r="AGZ35" s="0"/>
+      <c r="AHA35" s="0"/>
+      <c r="AHB35" s="0"/>
+      <c r="AHC35" s="0"/>
+      <c r="AHD35" s="0"/>
+      <c r="AHE35" s="0"/>
+      <c r="AHF35" s="0"/>
+      <c r="AHG35" s="0"/>
+      <c r="AHH35" s="0"/>
+      <c r="AHI35" s="0"/>
+      <c r="AHJ35" s="0"/>
+      <c r="AHK35" s="0"/>
+      <c r="AHL35" s="0"/>
+      <c r="AHM35" s="0"/>
+      <c r="AHN35" s="0"/>
+      <c r="AHO35" s="0"/>
+      <c r="AHP35" s="0"/>
+      <c r="AHQ35" s="0"/>
+      <c r="AHR35" s="0"/>
+      <c r="AHS35" s="0"/>
+      <c r="AHT35" s="0"/>
+      <c r="AHU35" s="0"/>
+      <c r="AHV35" s="0"/>
+      <c r="AHW35" s="0"/>
+      <c r="AHX35" s="0"/>
+      <c r="AHY35" s="0"/>
+      <c r="AHZ35" s="0"/>
+      <c r="AIA35" s="0"/>
+      <c r="AIB35" s="0"/>
+      <c r="AIC35" s="0"/>
+      <c r="AID35" s="0"/>
+      <c r="AIE35" s="0"/>
+      <c r="AIF35" s="0"/>
+      <c r="AIG35" s="0"/>
+      <c r="AIH35" s="0"/>
+      <c r="AII35" s="0"/>
+      <c r="AIJ35" s="0"/>
+      <c r="AIK35" s="0"/>
+      <c r="AIL35" s="0"/>
+      <c r="AIM35" s="0"/>
+      <c r="AIN35" s="0"/>
+      <c r="AIO35" s="0"/>
+      <c r="AIP35" s="0"/>
+      <c r="AIQ35" s="0"/>
+      <c r="AIR35" s="0"/>
+      <c r="AIS35" s="0"/>
+      <c r="AIT35" s="0"/>
+      <c r="AIU35" s="0"/>
+      <c r="AIV35" s="0"/>
+      <c r="AIW35" s="0"/>
+      <c r="AIX35" s="0"/>
+      <c r="AIY35" s="0"/>
+      <c r="AIZ35" s="0"/>
+      <c r="AJA35" s="0"/>
+      <c r="AJB35" s="0"/>
+      <c r="AJC35" s="0"/>
+      <c r="AJD35" s="0"/>
+      <c r="AJE35" s="0"/>
+      <c r="AJF35" s="0"/>
+      <c r="AJG35" s="0"/>
+      <c r="AJH35" s="0"/>
+      <c r="AJI35" s="0"/>
+      <c r="AJJ35" s="0"/>
+      <c r="AJK35" s="0"/>
+      <c r="AJL35" s="0"/>
+      <c r="AJM35" s="0"/>
+      <c r="AJN35" s="0"/>
+      <c r="AJO35" s="0"/>
+      <c r="AJP35" s="0"/>
+      <c r="AJQ35" s="0"/>
+      <c r="AJR35" s="0"/>
+      <c r="AJS35" s="0"/>
+      <c r="AJT35" s="0"/>
+      <c r="AJU35" s="0"/>
+      <c r="AJV35" s="0"/>
+      <c r="AJW35" s="0"/>
+      <c r="AJX35" s="0"/>
+      <c r="AJY35" s="0"/>
+      <c r="AJZ35" s="0"/>
+      <c r="AKA35" s="0"/>
+      <c r="AKB35" s="0"/>
+      <c r="AKC35" s="0"/>
+      <c r="AKD35" s="0"/>
+      <c r="AKE35" s="0"/>
+      <c r="AKF35" s="0"/>
+      <c r="AKG35" s="0"/>
+      <c r="AKH35" s="0"/>
+      <c r="AKI35" s="0"/>
+      <c r="AKJ35" s="0"/>
+      <c r="AKK35" s="0"/>
+      <c r="AKL35" s="0"/>
+      <c r="AKM35" s="0"/>
+      <c r="AKN35" s="0"/>
+      <c r="AKO35" s="0"/>
+      <c r="AKP35" s="0"/>
+      <c r="AKQ35" s="0"/>
+      <c r="AKR35" s="0"/>
+      <c r="AKS35" s="0"/>
+      <c r="AKT35" s="0"/>
+      <c r="AKU35" s="0"/>
+      <c r="AKV35" s="0"/>
+      <c r="AKW35" s="0"/>
+      <c r="AKX35" s="0"/>
+      <c r="AKY35" s="0"/>
+      <c r="AKZ35" s="0"/>
+      <c r="ALA35" s="0"/>
+      <c r="ALB35" s="0"/>
+      <c r="ALC35" s="0"/>
+      <c r="ALD35" s="0"/>
+      <c r="ALE35" s="0"/>
+      <c r="ALF35" s="0"/>
+      <c r="ALG35" s="0"/>
+      <c r="ALH35" s="0"/>
+      <c r="ALI35" s="0"/>
+      <c r="ALJ35" s="0"/>
+      <c r="ALK35" s="0"/>
+      <c r="ALL35" s="0"/>
+      <c r="ALM35" s="0"/>
+      <c r="ALN35" s="0"/>
+      <c r="ALO35" s="0"/>
+      <c r="ALP35" s="0"/>
+      <c r="ALQ35" s="0"/>
+      <c r="ALR35" s="0"/>
+      <c r="ALS35" s="0"/>
+      <c r="ALT35" s="0"/>
+      <c r="ALU35" s="0"/>
+      <c r="ALV35" s="0"/>
+      <c r="ALW35" s="0"/>
+      <c r="ALX35" s="0"/>
+      <c r="ALY35" s="0"/>
+      <c r="ALZ35" s="0"/>
+      <c r="AMA35" s="0"/>
+      <c r="AMB35" s="0"/>
+      <c r="AMC35" s="0"/>
+      <c r="AMD35" s="0"/>
+      <c r="AME35" s="0"/>
+      <c r="AMF35" s="0"/>
+      <c r="AMG35" s="0"/>
+      <c r="AMH35" s="0"/>
+      <c r="AMI35" s="0"/>
+      <c r="AMJ35" s="0"/>
     </row>
-    <row r="36" s="56" customFormat="true" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="49" t="n">
+    <row r="36" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="36" t="n">
         <v>43454</v>
       </c>
-      <c r="B36" s="50" t="n">
+      <c r="B36" s="49" t="n">
         <v>1</v>
       </c>
-      <c r="C36" s="51" t="s">
+      <c r="C36" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="D36" s="51" t="s">
+      <c r="D36" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="52" t="s">
+      <c r="E36" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="F36" s="52" t="s">
+      <c r="F36" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="G36" s="52" t="s">
+      <c r="G36" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="H36" s="53" t="n">
+      <c r="H36" s="40" t="n">
         <v>29650</v>
       </c>
-      <c r="I36" s="53" t="n">
+      <c r="I36" s="40" t="n">
         <v>29650</v>
       </c>
-      <c r="J36" s="54" t="n">
+      <c r="J36" s="41" t="n">
         <v>43905</v>
       </c>
-      <c r="K36" s="55" t="n">
+      <c r="K36" s="48" t="n">
         <v>101</v>
       </c>
-      <c r="L36" s="49" t="s">
+      <c r="L36" s="36" t="s">
         <v>255</v>
       </c>
-      <c r="M36" s="51" t="s">
+      <c r="M36" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="N36" s="52" t="s">
+      <c r="N36" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="O36" s="52" t="s">
+      <c r="O36" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="P36" s="52" t="s">
+      <c r="P36" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="Q36" s="51" t="s">
+      <c r="Q36" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="R36" s="51" t="s">
+      <c r="R36" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="S36" s="51" t="s">
+      <c r="S36" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="T36" s="51"/>
-      <c r="U36" s="52"/>
-      <c r="V36" s="51"/>
-      <c r="W36" s="52"/>
+      <c r="T36" s="38"/>
+      <c r="U36" s="39"/>
+      <c r="V36" s="38"/>
+      <c r="W36" s="39"/>
+      <c r="Y36" s="0"/>
+      <c r="Z36" s="0"/>
+      <c r="AA36" s="0"/>
+      <c r="AB36" s="0"/>
+      <c r="AC36" s="0"/>
+      <c r="AD36" s="0"/>
+      <c r="AE36" s="0"/>
+      <c r="AF36" s="0"/>
+      <c r="AG36" s="0"/>
+      <c r="AH36" s="0"/>
+      <c r="AI36" s="0"/>
+      <c r="AJ36" s="0"/>
+      <c r="AK36" s="0"/>
+      <c r="AL36" s="0"/>
+      <c r="AM36" s="0"/>
+      <c r="AN36" s="0"/>
+      <c r="AO36" s="0"/>
+      <c r="AP36" s="0"/>
+      <c r="AQ36" s="0"/>
+      <c r="AR36" s="0"/>
+      <c r="AS36" s="0"/>
+      <c r="AT36" s="0"/>
+      <c r="AU36" s="0"/>
+      <c r="AV36" s="0"/>
+      <c r="AW36" s="0"/>
+      <c r="AX36" s="0"/>
+      <c r="AY36" s="0"/>
+      <c r="AZ36" s="0"/>
+      <c r="BA36" s="0"/>
+      <c r="BB36" s="0"/>
+      <c r="BC36" s="0"/>
+      <c r="BD36" s="0"/>
+      <c r="BE36" s="0"/>
+      <c r="BF36" s="0"/>
+      <c r="BG36" s="0"/>
+      <c r="BH36" s="0"/>
+      <c r="BI36" s="0"/>
+      <c r="BJ36" s="0"/>
+      <c r="BK36" s="0"/>
+      <c r="BL36" s="0"/>
+      <c r="BM36" s="0"/>
+      <c r="BN36" s="0"/>
+      <c r="BO36" s="0"/>
+      <c r="BP36" s="0"/>
+      <c r="BQ36" s="0"/>
+      <c r="BR36" s="0"/>
+      <c r="BS36" s="0"/>
+      <c r="BT36" s="0"/>
+      <c r="BU36" s="0"/>
+      <c r="BV36" s="0"/>
+      <c r="BW36" s="0"/>
+      <c r="BX36" s="0"/>
+      <c r="BY36" s="0"/>
+      <c r="BZ36" s="0"/>
+      <c r="CA36" s="0"/>
+      <c r="CB36" s="0"/>
+      <c r="CC36" s="0"/>
+      <c r="CD36" s="0"/>
+      <c r="CE36" s="0"/>
+      <c r="CF36" s="0"/>
+      <c r="CG36" s="0"/>
+      <c r="CH36" s="0"/>
+      <c r="CI36" s="0"/>
+      <c r="CJ36" s="0"/>
+      <c r="CK36" s="0"/>
+      <c r="CL36" s="0"/>
+      <c r="CM36" s="0"/>
+      <c r="CN36" s="0"/>
+      <c r="CO36" s="0"/>
+      <c r="CP36" s="0"/>
+      <c r="CQ36" s="0"/>
+      <c r="CR36" s="0"/>
+      <c r="CS36" s="0"/>
+      <c r="CT36" s="0"/>
+      <c r="CU36" s="0"/>
+      <c r="CV36" s="0"/>
+      <c r="CW36" s="0"/>
+      <c r="CX36" s="0"/>
+      <c r="CY36" s="0"/>
+      <c r="CZ36" s="0"/>
+      <c r="DA36" s="0"/>
+      <c r="DB36" s="0"/>
+      <c r="DC36" s="0"/>
+      <c r="DD36" s="0"/>
+      <c r="DE36" s="0"/>
+      <c r="DF36" s="0"/>
+      <c r="DG36" s="0"/>
+      <c r="DH36" s="0"/>
+      <c r="DI36" s="0"/>
+      <c r="DJ36" s="0"/>
+      <c r="DK36" s="0"/>
+      <c r="DL36" s="0"/>
+      <c r="DM36" s="0"/>
+      <c r="DN36" s="0"/>
+      <c r="DO36" s="0"/>
+      <c r="DP36" s="0"/>
+      <c r="DQ36" s="0"/>
+      <c r="DR36" s="0"/>
+      <c r="DS36" s="0"/>
+      <c r="DT36" s="0"/>
+      <c r="DU36" s="0"/>
+      <c r="DV36" s="0"/>
+      <c r="DW36" s="0"/>
+      <c r="DX36" s="0"/>
+      <c r="DY36" s="0"/>
+      <c r="DZ36" s="0"/>
+      <c r="EA36" s="0"/>
+      <c r="EB36" s="0"/>
+      <c r="EC36" s="0"/>
+      <c r="ED36" s="0"/>
+      <c r="EE36" s="0"/>
+      <c r="EF36" s="0"/>
+      <c r="EG36" s="0"/>
+      <c r="EH36" s="0"/>
+      <c r="EI36" s="0"/>
+      <c r="EJ36" s="0"/>
+      <c r="EK36" s="0"/>
+      <c r="EL36" s="0"/>
+      <c r="EM36" s="0"/>
+      <c r="EN36" s="0"/>
+      <c r="EO36" s="0"/>
+      <c r="EP36" s="0"/>
+      <c r="EQ36" s="0"/>
+      <c r="ER36" s="0"/>
+      <c r="ES36" s="0"/>
+      <c r="ET36" s="0"/>
+      <c r="EU36" s="0"/>
+      <c r="EV36" s="0"/>
+      <c r="EW36" s="0"/>
+      <c r="EX36" s="0"/>
+      <c r="EY36" s="0"/>
+      <c r="EZ36" s="0"/>
+      <c r="FA36" s="0"/>
+      <c r="FB36" s="0"/>
+      <c r="FC36" s="0"/>
+      <c r="FD36" s="0"/>
+      <c r="FE36" s="0"/>
+      <c r="FF36" s="0"/>
+      <c r="FG36" s="0"/>
+      <c r="FH36" s="0"/>
+      <c r="FI36" s="0"/>
+      <c r="FJ36" s="0"/>
+      <c r="FK36" s="0"/>
+      <c r="FL36" s="0"/>
+      <c r="FM36" s="0"/>
+      <c r="FN36" s="0"/>
+      <c r="FO36" s="0"/>
+      <c r="FP36" s="0"/>
+      <c r="FQ36" s="0"/>
+      <c r="FR36" s="0"/>
+      <c r="FS36" s="0"/>
+      <c r="FT36" s="0"/>
+      <c r="FU36" s="0"/>
+      <c r="FV36" s="0"/>
+      <c r="FW36" s="0"/>
+      <c r="FX36" s="0"/>
+      <c r="FY36" s="0"/>
+      <c r="FZ36" s="0"/>
+      <c r="GA36" s="0"/>
+      <c r="GB36" s="0"/>
+      <c r="GC36" s="0"/>
+      <c r="GD36" s="0"/>
+      <c r="GE36" s="0"/>
+      <c r="GF36" s="0"/>
+      <c r="GG36" s="0"/>
+      <c r="GH36" s="0"/>
+      <c r="GI36" s="0"/>
+      <c r="GJ36" s="0"/>
+      <c r="GK36" s="0"/>
+      <c r="GL36" s="0"/>
+      <c r="GM36" s="0"/>
+      <c r="GN36" s="0"/>
+      <c r="GO36" s="0"/>
+      <c r="GP36" s="0"/>
+      <c r="GQ36" s="0"/>
+      <c r="GR36" s="0"/>
+      <c r="GS36" s="0"/>
+      <c r="GT36" s="0"/>
+      <c r="GU36" s="0"/>
+      <c r="GV36" s="0"/>
+      <c r="GW36" s="0"/>
+      <c r="GX36" s="0"/>
+      <c r="GY36" s="0"/>
+      <c r="GZ36" s="0"/>
+      <c r="HA36" s="0"/>
+      <c r="HB36" s="0"/>
+      <c r="HC36" s="0"/>
+      <c r="HD36" s="0"/>
+      <c r="HE36" s="0"/>
+      <c r="HF36" s="0"/>
+      <c r="HG36" s="0"/>
+      <c r="HH36" s="0"/>
+      <c r="HI36" s="0"/>
+      <c r="HJ36" s="0"/>
+      <c r="HK36" s="0"/>
+      <c r="HL36" s="0"/>
+      <c r="HM36" s="0"/>
+      <c r="HN36" s="0"/>
+      <c r="HO36" s="0"/>
+      <c r="HP36" s="0"/>
+      <c r="HQ36" s="0"/>
+      <c r="HR36" s="0"/>
+      <c r="HS36" s="0"/>
+      <c r="HT36" s="0"/>
+      <c r="HU36" s="0"/>
+      <c r="HV36" s="0"/>
+      <c r="HW36" s="0"/>
+      <c r="HX36" s="0"/>
+      <c r="HY36" s="0"/>
+      <c r="HZ36" s="0"/>
+      <c r="IA36" s="0"/>
+      <c r="IB36" s="0"/>
+      <c r="IC36" s="0"/>
+      <c r="ID36" s="0"/>
+      <c r="IE36" s="0"/>
+      <c r="IF36" s="0"/>
+      <c r="IG36" s="0"/>
+      <c r="IH36" s="0"/>
+      <c r="II36" s="0"/>
+      <c r="IJ36" s="0"/>
+      <c r="IK36" s="0"/>
+      <c r="IL36" s="0"/>
+      <c r="IM36" s="0"/>
+      <c r="IN36" s="0"/>
+      <c r="IO36" s="0"/>
+      <c r="IP36" s="0"/>
+      <c r="IQ36" s="0"/>
+      <c r="IR36" s="0"/>
+      <c r="IS36" s="0"/>
+      <c r="IT36" s="0"/>
+      <c r="IU36" s="0"/>
+      <c r="IV36" s="0"/>
+      <c r="IW36" s="0"/>
+      <c r="IX36" s="0"/>
+      <c r="IY36" s="0"/>
+      <c r="IZ36" s="0"/>
+      <c r="JA36" s="0"/>
+      <c r="JB36" s="0"/>
+      <c r="JC36" s="0"/>
+      <c r="JD36" s="0"/>
+      <c r="JE36" s="0"/>
+      <c r="JF36" s="0"/>
+      <c r="JG36" s="0"/>
+      <c r="JH36" s="0"/>
+      <c r="JI36" s="0"/>
+      <c r="JJ36" s="0"/>
+      <c r="JK36" s="0"/>
+      <c r="JL36" s="0"/>
+      <c r="JM36" s="0"/>
+      <c r="JN36" s="0"/>
+      <c r="JO36" s="0"/>
+      <c r="JP36" s="0"/>
+      <c r="JQ36" s="0"/>
+      <c r="JR36" s="0"/>
+      <c r="JS36" s="0"/>
+      <c r="JT36" s="0"/>
+      <c r="JU36" s="0"/>
+      <c r="JV36" s="0"/>
+      <c r="JW36" s="0"/>
+      <c r="JX36" s="0"/>
+      <c r="JY36" s="0"/>
+      <c r="JZ36" s="0"/>
+      <c r="KA36" s="0"/>
+      <c r="KB36" s="0"/>
+      <c r="KC36" s="0"/>
+      <c r="KD36" s="0"/>
+      <c r="KE36" s="0"/>
+      <c r="KF36" s="0"/>
+      <c r="KG36" s="0"/>
+      <c r="KH36" s="0"/>
+      <c r="KI36" s="0"/>
+      <c r="KJ36" s="0"/>
+      <c r="KK36" s="0"/>
+      <c r="KL36" s="0"/>
+      <c r="KM36" s="0"/>
+      <c r="KN36" s="0"/>
+      <c r="KO36" s="0"/>
+      <c r="KP36" s="0"/>
+      <c r="KQ36" s="0"/>
+      <c r="KR36" s="0"/>
+      <c r="KS36" s="0"/>
+      <c r="KT36" s="0"/>
+      <c r="KU36" s="0"/>
+      <c r="KV36" s="0"/>
+      <c r="KW36" s="0"/>
+      <c r="KX36" s="0"/>
+      <c r="KY36" s="0"/>
+      <c r="KZ36" s="0"/>
+      <c r="LA36" s="0"/>
+      <c r="LB36" s="0"/>
+      <c r="LC36" s="0"/>
+      <c r="LD36" s="0"/>
+      <c r="LE36" s="0"/>
+      <c r="LF36" s="0"/>
+      <c r="LG36" s="0"/>
+      <c r="LH36" s="0"/>
+      <c r="LI36" s="0"/>
+      <c r="LJ36" s="0"/>
+      <c r="LK36" s="0"/>
+      <c r="LL36" s="0"/>
+      <c r="LM36" s="0"/>
+      <c r="LN36" s="0"/>
+      <c r="LO36" s="0"/>
+      <c r="LP36" s="0"/>
+      <c r="LQ36" s="0"/>
+      <c r="LR36" s="0"/>
+      <c r="LS36" s="0"/>
+      <c r="LT36" s="0"/>
+      <c r="LU36" s="0"/>
+      <c r="LV36" s="0"/>
+      <c r="LW36" s="0"/>
+      <c r="LX36" s="0"/>
+      <c r="LY36" s="0"/>
+      <c r="LZ36" s="0"/>
+      <c r="MA36" s="0"/>
+      <c r="MB36" s="0"/>
+      <c r="MC36" s="0"/>
+      <c r="MD36" s="0"/>
+      <c r="ME36" s="0"/>
+      <c r="MF36" s="0"/>
+      <c r="MG36" s="0"/>
+      <c r="MH36" s="0"/>
+      <c r="MI36" s="0"/>
+      <c r="MJ36" s="0"/>
+      <c r="MK36" s="0"/>
+      <c r="ML36" s="0"/>
+      <c r="MM36" s="0"/>
+      <c r="MN36" s="0"/>
+      <c r="MO36" s="0"/>
+      <c r="MP36" s="0"/>
+      <c r="MQ36" s="0"/>
+      <c r="MR36" s="0"/>
+      <c r="MS36" s="0"/>
+      <c r="MT36" s="0"/>
+      <c r="MU36" s="0"/>
+      <c r="MV36" s="0"/>
+      <c r="MW36" s="0"/>
+      <c r="MX36" s="0"/>
+      <c r="MY36" s="0"/>
+      <c r="MZ36" s="0"/>
+      <c r="NA36" s="0"/>
+      <c r="NB36" s="0"/>
+      <c r="NC36" s="0"/>
+      <c r="ND36" s="0"/>
+      <c r="NE36" s="0"/>
+      <c r="NF36" s="0"/>
+      <c r="NG36" s="0"/>
+      <c r="NH36" s="0"/>
+      <c r="NI36" s="0"/>
+      <c r="NJ36" s="0"/>
+      <c r="NK36" s="0"/>
+      <c r="NL36" s="0"/>
+      <c r="NM36" s="0"/>
+      <c r="NN36" s="0"/>
+      <c r="NO36" s="0"/>
+      <c r="NP36" s="0"/>
+      <c r="NQ36" s="0"/>
+      <c r="NR36" s="0"/>
+      <c r="NS36" s="0"/>
+      <c r="NT36" s="0"/>
+      <c r="NU36" s="0"/>
+      <c r="NV36" s="0"/>
+      <c r="NW36" s="0"/>
+      <c r="NX36" s="0"/>
+      <c r="NY36" s="0"/>
+      <c r="NZ36" s="0"/>
+      <c r="OA36" s="0"/>
+      <c r="OB36" s="0"/>
+      <c r="OC36" s="0"/>
+      <c r="OD36" s="0"/>
+      <c r="OE36" s="0"/>
+      <c r="OF36" s="0"/>
+      <c r="OG36" s="0"/>
+      <c r="OH36" s="0"/>
+      <c r="OI36" s="0"/>
+      <c r="OJ36" s="0"/>
+      <c r="OK36" s="0"/>
+      <c r="OL36" s="0"/>
+      <c r="OM36" s="0"/>
+      <c r="ON36" s="0"/>
+      <c r="OO36" s="0"/>
+      <c r="OP36" s="0"/>
+      <c r="OQ36" s="0"/>
+      <c r="OR36" s="0"/>
+      <c r="OS36" s="0"/>
+      <c r="OT36" s="0"/>
+      <c r="OU36" s="0"/>
+      <c r="OV36" s="0"/>
+      <c r="OW36" s="0"/>
+      <c r="OX36" s="0"/>
+      <c r="OY36" s="0"/>
+      <c r="OZ36" s="0"/>
+      <c r="PA36" s="0"/>
+      <c r="PB36" s="0"/>
+      <c r="PC36" s="0"/>
+      <c r="PD36" s="0"/>
+      <c r="PE36" s="0"/>
+      <c r="PF36" s="0"/>
+      <c r="PG36" s="0"/>
+      <c r="PH36" s="0"/>
+      <c r="PI36" s="0"/>
+      <c r="PJ36" s="0"/>
+      <c r="PK36" s="0"/>
+      <c r="PL36" s="0"/>
+      <c r="PM36" s="0"/>
+      <c r="PN36" s="0"/>
+      <c r="PO36" s="0"/>
+      <c r="PP36" s="0"/>
+      <c r="PQ36" s="0"/>
+      <c r="PR36" s="0"/>
+      <c r="PS36" s="0"/>
+      <c r="PT36" s="0"/>
+      <c r="PU36" s="0"/>
+      <c r="PV36" s="0"/>
+      <c r="PW36" s="0"/>
+      <c r="PX36" s="0"/>
+      <c r="PY36" s="0"/>
+      <c r="PZ36" s="0"/>
+      <c r="QA36" s="0"/>
+      <c r="QB36" s="0"/>
+      <c r="QC36" s="0"/>
+      <c r="QD36" s="0"/>
+      <c r="QE36" s="0"/>
+      <c r="QF36" s="0"/>
+      <c r="QG36" s="0"/>
+      <c r="QH36" s="0"/>
+      <c r="QI36" s="0"/>
+      <c r="QJ36" s="0"/>
+      <c r="QK36" s="0"/>
+      <c r="QL36" s="0"/>
+      <c r="QM36" s="0"/>
+      <c r="QN36" s="0"/>
+      <c r="QO36" s="0"/>
+      <c r="QP36" s="0"/>
+      <c r="QQ36" s="0"/>
+      <c r="QR36" s="0"/>
+      <c r="QS36" s="0"/>
+      <c r="QT36" s="0"/>
+      <c r="QU36" s="0"/>
+      <c r="QV36" s="0"/>
+      <c r="QW36" s="0"/>
+      <c r="QX36" s="0"/>
+      <c r="QY36" s="0"/>
+      <c r="QZ36" s="0"/>
+      <c r="RA36" s="0"/>
+      <c r="RB36" s="0"/>
+      <c r="RC36" s="0"/>
+      <c r="RD36" s="0"/>
+      <c r="RE36" s="0"/>
+      <c r="RF36" s="0"/>
+      <c r="RG36" s="0"/>
+      <c r="RH36" s="0"/>
+      <c r="RI36" s="0"/>
+      <c r="RJ36" s="0"/>
+      <c r="RK36" s="0"/>
+      <c r="RL36" s="0"/>
+      <c r="RM36" s="0"/>
+      <c r="RN36" s="0"/>
+      <c r="RO36" s="0"/>
+      <c r="RP36" s="0"/>
+      <c r="RQ36" s="0"/>
+      <c r="RR36" s="0"/>
+      <c r="RS36" s="0"/>
+      <c r="RT36" s="0"/>
+      <c r="RU36" s="0"/>
+      <c r="RV36" s="0"/>
+      <c r="RW36" s="0"/>
+      <c r="RX36" s="0"/>
+      <c r="RY36" s="0"/>
+      <c r="RZ36" s="0"/>
+      <c r="SA36" s="0"/>
+      <c r="SB36" s="0"/>
+      <c r="SC36" s="0"/>
+      <c r="SD36" s="0"/>
+      <c r="SE36" s="0"/>
+      <c r="SF36" s="0"/>
+      <c r="SG36" s="0"/>
+      <c r="SH36" s="0"/>
+      <c r="SI36" s="0"/>
+      <c r="SJ36" s="0"/>
+      <c r="SK36" s="0"/>
+      <c r="SL36" s="0"/>
+      <c r="SM36" s="0"/>
+      <c r="SN36" s="0"/>
+      <c r="SO36" s="0"/>
+      <c r="SP36" s="0"/>
+      <c r="SQ36" s="0"/>
+      <c r="SR36" s="0"/>
+      <c r="SS36" s="0"/>
+      <c r="ST36" s="0"/>
+      <c r="SU36" s="0"/>
+      <c r="SV36" s="0"/>
+      <c r="SW36" s="0"/>
+      <c r="SX36" s="0"/>
+      <c r="SY36" s="0"/>
+      <c r="SZ36" s="0"/>
+      <c r="TA36" s="0"/>
+      <c r="TB36" s="0"/>
+      <c r="TC36" s="0"/>
+      <c r="TD36" s="0"/>
+      <c r="TE36" s="0"/>
+      <c r="TF36" s="0"/>
+      <c r="TG36" s="0"/>
+      <c r="TH36" s="0"/>
+      <c r="TI36" s="0"/>
+      <c r="TJ36" s="0"/>
+      <c r="TK36" s="0"/>
+      <c r="TL36" s="0"/>
+      <c r="TM36" s="0"/>
+      <c r="TN36" s="0"/>
+      <c r="TO36" s="0"/>
+      <c r="TP36" s="0"/>
+      <c r="TQ36" s="0"/>
+      <c r="TR36" s="0"/>
+      <c r="TS36" s="0"/>
+      <c r="TT36" s="0"/>
+      <c r="TU36" s="0"/>
+      <c r="TV36" s="0"/>
+      <c r="TW36" s="0"/>
+      <c r="TX36" s="0"/>
+      <c r="TY36" s="0"/>
+      <c r="TZ36" s="0"/>
+      <c r="UA36" s="0"/>
+      <c r="UB36" s="0"/>
+      <c r="UC36" s="0"/>
+      <c r="UD36" s="0"/>
+      <c r="UE36" s="0"/>
+      <c r="UF36" s="0"/>
+      <c r="UG36" s="0"/>
+      <c r="UH36" s="0"/>
+      <c r="UI36" s="0"/>
+      <c r="UJ36" s="0"/>
+      <c r="UK36" s="0"/>
+      <c r="UL36" s="0"/>
+      <c r="UM36" s="0"/>
+      <c r="UN36" s="0"/>
+      <c r="UO36" s="0"/>
+      <c r="UP36" s="0"/>
+      <c r="UQ36" s="0"/>
+      <c r="UR36" s="0"/>
+      <c r="US36" s="0"/>
+      <c r="UT36" s="0"/>
+      <c r="UU36" s="0"/>
+      <c r="UV36" s="0"/>
+      <c r="UW36" s="0"/>
+      <c r="UX36" s="0"/>
+      <c r="UY36" s="0"/>
+      <c r="UZ36" s="0"/>
+      <c r="VA36" s="0"/>
+      <c r="VB36" s="0"/>
+      <c r="VC36" s="0"/>
+      <c r="VD36" s="0"/>
+      <c r="VE36" s="0"/>
+      <c r="VF36" s="0"/>
+      <c r="VG36" s="0"/>
+      <c r="VH36" s="0"/>
+      <c r="VI36" s="0"/>
+      <c r="VJ36" s="0"/>
+      <c r="VK36" s="0"/>
+      <c r="VL36" s="0"/>
+      <c r="VM36" s="0"/>
+      <c r="VN36" s="0"/>
+      <c r="VO36" s="0"/>
+      <c r="VP36" s="0"/>
+      <c r="VQ36" s="0"/>
+      <c r="VR36" s="0"/>
+      <c r="VS36" s="0"/>
+      <c r="VT36" s="0"/>
+      <c r="VU36" s="0"/>
+      <c r="VV36" s="0"/>
+      <c r="VW36" s="0"/>
+      <c r="VX36" s="0"/>
+      <c r="VY36" s="0"/>
+      <c r="VZ36" s="0"/>
+      <c r="WA36" s="0"/>
+      <c r="WB36" s="0"/>
+      <c r="WC36" s="0"/>
+      <c r="WD36" s="0"/>
+      <c r="WE36" s="0"/>
+      <c r="WF36" s="0"/>
+      <c r="WG36" s="0"/>
+      <c r="WH36" s="0"/>
+      <c r="WI36" s="0"/>
+      <c r="WJ36" s="0"/>
+      <c r="WK36" s="0"/>
+      <c r="WL36" s="0"/>
+      <c r="WM36" s="0"/>
+      <c r="WN36" s="0"/>
+      <c r="WO36" s="0"/>
+      <c r="WP36" s="0"/>
+      <c r="WQ36" s="0"/>
+      <c r="WR36" s="0"/>
+      <c r="WS36" s="0"/>
+      <c r="WT36" s="0"/>
+      <c r="WU36" s="0"/>
+      <c r="WV36" s="0"/>
+      <c r="WW36" s="0"/>
+      <c r="WX36" s="0"/>
+      <c r="WY36" s="0"/>
+      <c r="WZ36" s="0"/>
+      <c r="XA36" s="0"/>
+      <c r="XB36" s="0"/>
+      <c r="XC36" s="0"/>
+      <c r="XD36" s="0"/>
+      <c r="XE36" s="0"/>
+      <c r="XF36" s="0"/>
+      <c r="XG36" s="0"/>
+      <c r="XH36" s="0"/>
+      <c r="XI36" s="0"/>
+      <c r="XJ36" s="0"/>
+      <c r="XK36" s="0"/>
+      <c r="XL36" s="0"/>
+      <c r="XM36" s="0"/>
+      <c r="XN36" s="0"/>
+      <c r="XO36" s="0"/>
+      <c r="XP36" s="0"/>
+      <c r="XQ36" s="0"/>
+      <c r="XR36" s="0"/>
+      <c r="XS36" s="0"/>
+      <c r="XT36" s="0"/>
+      <c r="XU36" s="0"/>
+      <c r="XV36" s="0"/>
+      <c r="XW36" s="0"/>
+      <c r="XX36" s="0"/>
+      <c r="XY36" s="0"/>
+      <c r="XZ36" s="0"/>
+      <c r="YA36" s="0"/>
+      <c r="YB36" s="0"/>
+      <c r="YC36" s="0"/>
+      <c r="YD36" s="0"/>
+      <c r="YE36" s="0"/>
+      <c r="YF36" s="0"/>
+      <c r="YG36" s="0"/>
+      <c r="YH36" s="0"/>
+      <c r="YI36" s="0"/>
+      <c r="YJ36" s="0"/>
+      <c r="YK36" s="0"/>
+      <c r="YL36" s="0"/>
+      <c r="YM36" s="0"/>
+      <c r="YN36" s="0"/>
+      <c r="YO36" s="0"/>
+      <c r="YP36" s="0"/>
+      <c r="YQ36" s="0"/>
+      <c r="YR36" s="0"/>
+      <c r="YS36" s="0"/>
+      <c r="YT36" s="0"/>
+      <c r="YU36" s="0"/>
+      <c r="YV36" s="0"/>
+      <c r="YW36" s="0"/>
+      <c r="YX36" s="0"/>
+      <c r="YY36" s="0"/>
+      <c r="YZ36" s="0"/>
+      <c r="ZA36" s="0"/>
+      <c r="ZB36" s="0"/>
+      <c r="ZC36" s="0"/>
+      <c r="ZD36" s="0"/>
+      <c r="ZE36" s="0"/>
+      <c r="ZF36" s="0"/>
+      <c r="ZG36" s="0"/>
+      <c r="ZH36" s="0"/>
+      <c r="ZI36" s="0"/>
+      <c r="ZJ36" s="0"/>
+      <c r="ZK36" s="0"/>
+      <c r="ZL36" s="0"/>
+      <c r="ZM36" s="0"/>
+      <c r="ZN36" s="0"/>
+      <c r="ZO36" s="0"/>
+      <c r="ZP36" s="0"/>
+      <c r="ZQ36" s="0"/>
+      <c r="ZR36" s="0"/>
+      <c r="ZS36" s="0"/>
+      <c r="ZT36" s="0"/>
+      <c r="ZU36" s="0"/>
+      <c r="ZV36" s="0"/>
+      <c r="ZW36" s="0"/>
+      <c r="ZX36" s="0"/>
+      <c r="ZY36" s="0"/>
+      <c r="ZZ36" s="0"/>
+      <c r="AAA36" s="0"/>
+      <c r="AAB36" s="0"/>
+      <c r="AAC36" s="0"/>
+      <c r="AAD36" s="0"/>
+      <c r="AAE36" s="0"/>
+      <c r="AAF36" s="0"/>
+      <c r="AAG36" s="0"/>
+      <c r="AAH36" s="0"/>
+      <c r="AAI36" s="0"/>
+      <c r="AAJ36" s="0"/>
+      <c r="AAK36" s="0"/>
+      <c r="AAL36" s="0"/>
+      <c r="AAM36" s="0"/>
+      <c r="AAN36" s="0"/>
+      <c r="AAO36" s="0"/>
+      <c r="AAP36" s="0"/>
+      <c r="AAQ36" s="0"/>
+      <c r="AAR36" s="0"/>
+      <c r="AAS36" s="0"/>
+      <c r="AAT36" s="0"/>
+      <c r="AAU36" s="0"/>
+      <c r="AAV36" s="0"/>
+      <c r="AAW36" s="0"/>
+      <c r="AAX36" s="0"/>
+      <c r="AAY36" s="0"/>
+      <c r="AAZ36" s="0"/>
+      <c r="ABA36" s="0"/>
+      <c r="ABB36" s="0"/>
+      <c r="ABC36" s="0"/>
+      <c r="ABD36" s="0"/>
+      <c r="ABE36" s="0"/>
+      <c r="ABF36" s="0"/>
+      <c r="ABG36" s="0"/>
+      <c r="ABH36" s="0"/>
+      <c r="ABI36" s="0"/>
+      <c r="ABJ36" s="0"/>
+      <c r="ABK36" s="0"/>
+      <c r="ABL36" s="0"/>
+      <c r="ABM36" s="0"/>
+      <c r="ABN36" s="0"/>
+      <c r="ABO36" s="0"/>
+      <c r="ABP36" s="0"/>
+      <c r="ABQ36" s="0"/>
+      <c r="ABR36" s="0"/>
+      <c r="ABS36" s="0"/>
+      <c r="ABT36" s="0"/>
+      <c r="ABU36" s="0"/>
+      <c r="ABV36" s="0"/>
+      <c r="ABW36" s="0"/>
+      <c r="ABX36" s="0"/>
+      <c r="ABY36" s="0"/>
+      <c r="ABZ36" s="0"/>
+      <c r="ACA36" s="0"/>
+      <c r="ACB36" s="0"/>
+      <c r="ACC36" s="0"/>
+      <c r="ACD36" s="0"/>
+      <c r="ACE36" s="0"/>
+      <c r="ACF36" s="0"/>
+      <c r="ACG36" s="0"/>
+      <c r="ACH36" s="0"/>
+      <c r="ACI36" s="0"/>
+      <c r="ACJ36" s="0"/>
+      <c r="ACK36" s="0"/>
+      <c r="ACL36" s="0"/>
+      <c r="ACM36" s="0"/>
+      <c r="ACN36" s="0"/>
+      <c r="ACO36" s="0"/>
+      <c r="ACP36" s="0"/>
+      <c r="ACQ36" s="0"/>
+      <c r="ACR36" s="0"/>
+      <c r="ACS36" s="0"/>
+      <c r="ACT36" s="0"/>
+      <c r="ACU36" s="0"/>
+      <c r="ACV36" s="0"/>
+      <c r="ACW36" s="0"/>
+      <c r="ACX36" s="0"/>
+      <c r="ACY36" s="0"/>
+      <c r="ACZ36" s="0"/>
+      <c r="ADA36" s="0"/>
+      <c r="ADB36" s="0"/>
+      <c r="ADC36" s="0"/>
+      <c r="ADD36" s="0"/>
+      <c r="ADE36" s="0"/>
+      <c r="ADF36" s="0"/>
+      <c r="ADG36" s="0"/>
+      <c r="ADH36" s="0"/>
+      <c r="ADI36" s="0"/>
+      <c r="ADJ36" s="0"/>
+      <c r="ADK36" s="0"/>
+      <c r="ADL36" s="0"/>
+      <c r="ADM36" s="0"/>
+      <c r="ADN36" s="0"/>
+      <c r="ADO36" s="0"/>
+      <c r="ADP36" s="0"/>
+      <c r="ADQ36" s="0"/>
+      <c r="ADR36" s="0"/>
+      <c r="ADS36" s="0"/>
+      <c r="ADT36" s="0"/>
+      <c r="ADU36" s="0"/>
+      <c r="ADV36" s="0"/>
+      <c r="ADW36" s="0"/>
+      <c r="ADX36" s="0"/>
+      <c r="ADY36" s="0"/>
+      <c r="ADZ36" s="0"/>
+      <c r="AEA36" s="0"/>
+      <c r="AEB36" s="0"/>
+      <c r="AEC36" s="0"/>
+      <c r="AED36" s="0"/>
+      <c r="AEE36" s="0"/>
+      <c r="AEF36" s="0"/>
+      <c r="AEG36" s="0"/>
+      <c r="AEH36" s="0"/>
+      <c r="AEI36" s="0"/>
+      <c r="AEJ36" s="0"/>
+      <c r="AEK36" s="0"/>
+      <c r="AEL36" s="0"/>
+      <c r="AEM36" s="0"/>
+      <c r="AEN36" s="0"/>
+      <c r="AEO36" s="0"/>
+      <c r="AEP36" s="0"/>
+      <c r="AEQ36" s="0"/>
+      <c r="AER36" s="0"/>
+      <c r="AES36" s="0"/>
+      <c r="AET36" s="0"/>
+      <c r="AEU36" s="0"/>
+      <c r="AEV36" s="0"/>
+      <c r="AEW36" s="0"/>
+      <c r="AEX36" s="0"/>
+      <c r="AEY36" s="0"/>
+      <c r="AEZ36" s="0"/>
+      <c r="AFA36" s="0"/>
+      <c r="AFB36" s="0"/>
+      <c r="AFC36" s="0"/>
+      <c r="AFD36" s="0"/>
+      <c r="AFE36" s="0"/>
+      <c r="AFF36" s="0"/>
+      <c r="AFG36" s="0"/>
+      <c r="AFH36" s="0"/>
+      <c r="AFI36" s="0"/>
+      <c r="AFJ36" s="0"/>
+      <c r="AFK36" s="0"/>
+      <c r="AFL36" s="0"/>
+      <c r="AFM36" s="0"/>
+      <c r="AFN36" s="0"/>
+      <c r="AFO36" s="0"/>
+      <c r="AFP36" s="0"/>
+      <c r="AFQ36" s="0"/>
+      <c r="AFR36" s="0"/>
+      <c r="AFS36" s="0"/>
+      <c r="AFT36" s="0"/>
+      <c r="AFU36" s="0"/>
+      <c r="AFV36" s="0"/>
+      <c r="AFW36" s="0"/>
+      <c r="AFX36" s="0"/>
+      <c r="AFY36" s="0"/>
+      <c r="AFZ36" s="0"/>
+      <c r="AGA36" s="0"/>
+      <c r="AGB36" s="0"/>
+      <c r="AGC36" s="0"/>
+      <c r="AGD36" s="0"/>
+      <c r="AGE36" s="0"/>
+      <c r="AGF36" s="0"/>
+      <c r="AGG36" s="0"/>
+      <c r="AGH36" s="0"/>
+      <c r="AGI36" s="0"/>
+      <c r="AGJ36" s="0"/>
+      <c r="AGK36" s="0"/>
+      <c r="AGL36" s="0"/>
+      <c r="AGM36" s="0"/>
+      <c r="AGN36" s="0"/>
+      <c r="AGO36" s="0"/>
+      <c r="AGP36" s="0"/>
+      <c r="AGQ36" s="0"/>
+      <c r="AGR36" s="0"/>
+      <c r="AGS36" s="0"/>
+      <c r="AGT36" s="0"/>
+      <c r="AGU36" s="0"/>
+      <c r="AGV36" s="0"/>
+      <c r="AGW36" s="0"/>
+      <c r="AGX36" s="0"/>
+      <c r="AGY36" s="0"/>
+      <c r="AGZ36" s="0"/>
+      <c r="AHA36" s="0"/>
+      <c r="AHB36" s="0"/>
+      <c r="AHC36" s="0"/>
+      <c r="AHD36" s="0"/>
+      <c r="AHE36" s="0"/>
+      <c r="AHF36" s="0"/>
+      <c r="AHG36" s="0"/>
+      <c r="AHH36" s="0"/>
+      <c r="AHI36" s="0"/>
+      <c r="AHJ36" s="0"/>
+      <c r="AHK36" s="0"/>
+      <c r="AHL36" s="0"/>
+      <c r="AHM36" s="0"/>
+      <c r="AHN36" s="0"/>
+      <c r="AHO36" s="0"/>
+      <c r="AHP36" s="0"/>
+      <c r="AHQ36" s="0"/>
+      <c r="AHR36" s="0"/>
+      <c r="AHS36" s="0"/>
+      <c r="AHT36" s="0"/>
+      <c r="AHU36" s="0"/>
+      <c r="AHV36" s="0"/>
+      <c r="AHW36" s="0"/>
+      <c r="AHX36" s="0"/>
+      <c r="AHY36" s="0"/>
+      <c r="AHZ36" s="0"/>
+      <c r="AIA36" s="0"/>
+      <c r="AIB36" s="0"/>
+      <c r="AIC36" s="0"/>
+      <c r="AID36" s="0"/>
+      <c r="AIE36" s="0"/>
+      <c r="AIF36" s="0"/>
+      <c r="AIG36" s="0"/>
+      <c r="AIH36" s="0"/>
+      <c r="AII36" s="0"/>
+      <c r="AIJ36" s="0"/>
+      <c r="AIK36" s="0"/>
+      <c r="AIL36" s="0"/>
+      <c r="AIM36" s="0"/>
+      <c r="AIN36" s="0"/>
+      <c r="AIO36" s="0"/>
+      <c r="AIP36" s="0"/>
+      <c r="AIQ36" s="0"/>
+      <c r="AIR36" s="0"/>
+      <c r="AIS36" s="0"/>
+      <c r="AIT36" s="0"/>
+      <c r="AIU36" s="0"/>
+      <c r="AIV36" s="0"/>
+      <c r="AIW36" s="0"/>
+      <c r="AIX36" s="0"/>
+      <c r="AIY36" s="0"/>
+      <c r="AIZ36" s="0"/>
+      <c r="AJA36" s="0"/>
+      <c r="AJB36" s="0"/>
+      <c r="AJC36" s="0"/>
+      <c r="AJD36" s="0"/>
+      <c r="AJE36" s="0"/>
+      <c r="AJF36" s="0"/>
+      <c r="AJG36" s="0"/>
+      <c r="AJH36" s="0"/>
+      <c r="AJI36" s="0"/>
+      <c r="AJJ36" s="0"/>
+      <c r="AJK36" s="0"/>
+      <c r="AJL36" s="0"/>
+      <c r="AJM36" s="0"/>
+      <c r="AJN36" s="0"/>
+      <c r="AJO36" s="0"/>
+      <c r="AJP36" s="0"/>
+      <c r="AJQ36" s="0"/>
+      <c r="AJR36" s="0"/>
+      <c r="AJS36" s="0"/>
+      <c r="AJT36" s="0"/>
+      <c r="AJU36" s="0"/>
+      <c r="AJV36" s="0"/>
+      <c r="AJW36" s="0"/>
+      <c r="AJX36" s="0"/>
+      <c r="AJY36" s="0"/>
+      <c r="AJZ36" s="0"/>
+      <c r="AKA36" s="0"/>
+      <c r="AKB36" s="0"/>
+      <c r="AKC36" s="0"/>
+      <c r="AKD36" s="0"/>
+      <c r="AKE36" s="0"/>
+      <c r="AKF36" s="0"/>
+      <c r="AKG36" s="0"/>
+      <c r="AKH36" s="0"/>
+      <c r="AKI36" s="0"/>
+      <c r="AKJ36" s="0"/>
+      <c r="AKK36" s="0"/>
+      <c r="AKL36" s="0"/>
+      <c r="AKM36" s="0"/>
+      <c r="AKN36" s="0"/>
+      <c r="AKO36" s="0"/>
+      <c r="AKP36" s="0"/>
+      <c r="AKQ36" s="0"/>
+      <c r="AKR36" s="0"/>
+      <c r="AKS36" s="0"/>
+      <c r="AKT36" s="0"/>
+      <c r="AKU36" s="0"/>
+      <c r="AKV36" s="0"/>
+      <c r="AKW36" s="0"/>
+      <c r="AKX36" s="0"/>
+      <c r="AKY36" s="0"/>
+      <c r="AKZ36" s="0"/>
+      <c r="ALA36" s="0"/>
+      <c r="ALB36" s="0"/>
+      <c r="ALC36" s="0"/>
+      <c r="ALD36" s="0"/>
+      <c r="ALE36" s="0"/>
+      <c r="ALF36" s="0"/>
+      <c r="ALG36" s="0"/>
+      <c r="ALH36" s="0"/>
+      <c r="ALI36" s="0"/>
+      <c r="ALJ36" s="0"/>
+      <c r="ALK36" s="0"/>
+      <c r="ALL36" s="0"/>
+      <c r="ALM36" s="0"/>
+      <c r="ALN36" s="0"/>
+      <c r="ALO36" s="0"/>
+      <c r="ALP36" s="0"/>
+      <c r="ALQ36" s="0"/>
+      <c r="ALR36" s="0"/>
+      <c r="ALS36" s="0"/>
+      <c r="ALT36" s="0"/>
+      <c r="ALU36" s="0"/>
+      <c r="ALV36" s="0"/>
+      <c r="ALW36" s="0"/>
+      <c r="ALX36" s="0"/>
+      <c r="ALY36" s="0"/>
+      <c r="ALZ36" s="0"/>
+      <c r="AMA36" s="0"/>
+      <c r="AMB36" s="0"/>
+      <c r="AMC36" s="0"/>
+      <c r="AMD36" s="0"/>
+      <c r="AME36" s="0"/>
+      <c r="AMF36" s="0"/>
+      <c r="AMG36" s="0"/>
+      <c r="AMH36" s="0"/>
+      <c r="AMI36" s="0"/>
+      <c r="AMJ36" s="0"/>
     </row>
-    <row r="37" s="56" customFormat="true" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="49" t="n">
+    <row r="37" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="36" t="n">
         <v>61186</v>
       </c>
-      <c r="B37" s="50" t="n">
+      <c r="B37" s="49" t="n">
         <v>4</v>
       </c>
-      <c r="C37" s="51" t="s">
+      <c r="C37" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="D37" s="51" t="s">
+      <c r="D37" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="E37" s="52" t="s">
+      <c r="E37" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="F37" s="52" t="s">
+      <c r="F37" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="G37" s="52" t="s">
+      <c r="G37" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="H37" s="53" t="n">
+      <c r="H37" s="40" t="n">
         <v>40522</v>
       </c>
-      <c r="I37" s="53" t="n">
+      <c r="I37" s="40" t="n">
         <v>40522</v>
       </c>
-      <c r="J37" s="54" t="n">
+      <c r="J37" s="41" t="n">
         <v>44174</v>
       </c>
-      <c r="K37" s="55" t="n">
+      <c r="K37" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="L37" s="49" t="s">
+      <c r="L37" s="36" t="s">
         <v>257</v>
       </c>
-      <c r="M37" s="51" t="s">
+      <c r="M37" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="N37" s="52" t="s">
+      <c r="N37" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="O37" s="52" t="s">
+      <c r="O37" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="P37" s="52" t="s">
+      <c r="P37" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q37" s="51" t="s">
+      <c r="Q37" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="R37" s="51" t="s">
+      <c r="R37" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="S37" s="51" t="s">
+      <c r="S37" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="T37" s="51"/>
-      <c r="U37" s="52"/>
-      <c r="V37" s="51"/>
-      <c r="W37" s="52"/>
+      <c r="T37" s="38"/>
+      <c r="U37" s="39"/>
+      <c r="V37" s="38"/>
+      <c r="W37" s="39"/>
+      <c r="Y37" s="0"/>
+      <c r="Z37" s="0"/>
+      <c r="AA37" s="0"/>
+      <c r="AB37" s="0"/>
+      <c r="AC37" s="0"/>
+      <c r="AD37" s="0"/>
+      <c r="AE37" s="0"/>
+      <c r="AF37" s="0"/>
+      <c r="AG37" s="0"/>
+      <c r="AH37" s="0"/>
+      <c r="AI37" s="0"/>
+      <c r="AJ37" s="0"/>
+      <c r="AK37" s="0"/>
+      <c r="AL37" s="0"/>
+      <c r="AM37" s="0"/>
+      <c r="AN37" s="0"/>
+      <c r="AO37" s="0"/>
+      <c r="AP37" s="0"/>
+      <c r="AQ37" s="0"/>
+      <c r="AR37" s="0"/>
+      <c r="AS37" s="0"/>
+      <c r="AT37" s="0"/>
+      <c r="AU37" s="0"/>
+      <c r="AV37" s="0"/>
+      <c r="AW37" s="0"/>
+      <c r="AX37" s="0"/>
+      <c r="AY37" s="0"/>
+      <c r="AZ37" s="0"/>
+      <c r="BA37" s="0"/>
+      <c r="BB37" s="0"/>
+      <c r="BC37" s="0"/>
+      <c r="BD37" s="0"/>
+      <c r="BE37" s="0"/>
+      <c r="BF37" s="0"/>
+      <c r="BG37" s="0"/>
+      <c r="BH37" s="0"/>
+      <c r="BI37" s="0"/>
+      <c r="BJ37" s="0"/>
+      <c r="BK37" s="0"/>
+      <c r="BL37" s="0"/>
+      <c r="BM37" s="0"/>
+      <c r="BN37" s="0"/>
+      <c r="BO37" s="0"/>
+      <c r="BP37" s="0"/>
+      <c r="BQ37" s="0"/>
+      <c r="BR37" s="0"/>
+      <c r="BS37" s="0"/>
+      <c r="BT37" s="0"/>
+      <c r="BU37" s="0"/>
+      <c r="BV37" s="0"/>
+      <c r="BW37" s="0"/>
+      <c r="BX37" s="0"/>
+      <c r="BY37" s="0"/>
+      <c r="BZ37" s="0"/>
+      <c r="CA37" s="0"/>
+      <c r="CB37" s="0"/>
+      <c r="CC37" s="0"/>
+      <c r="CD37" s="0"/>
+      <c r="CE37" s="0"/>
+      <c r="CF37" s="0"/>
+      <c r="CG37" s="0"/>
+      <c r="CH37" s="0"/>
+      <c r="CI37" s="0"/>
+      <c r="CJ37" s="0"/>
+      <c r="CK37" s="0"/>
+      <c r="CL37" s="0"/>
+      <c r="CM37" s="0"/>
+      <c r="CN37" s="0"/>
+      <c r="CO37" s="0"/>
+      <c r="CP37" s="0"/>
+      <c r="CQ37" s="0"/>
+      <c r="CR37" s="0"/>
+      <c r="CS37" s="0"/>
+      <c r="CT37" s="0"/>
+      <c r="CU37" s="0"/>
+      <c r="CV37" s="0"/>
+      <c r="CW37" s="0"/>
+      <c r="CX37" s="0"/>
+      <c r="CY37" s="0"/>
+      <c r="CZ37" s="0"/>
+      <c r="DA37" s="0"/>
+      <c r="DB37" s="0"/>
+      <c r="DC37" s="0"/>
+      <c r="DD37" s="0"/>
+      <c r="DE37" s="0"/>
+      <c r="DF37" s="0"/>
+      <c r="DG37" s="0"/>
+      <c r="DH37" s="0"/>
+      <c r="DI37" s="0"/>
+      <c r="DJ37" s="0"/>
+      <c r="DK37" s="0"/>
+      <c r="DL37" s="0"/>
+      <c r="DM37" s="0"/>
+      <c r="DN37" s="0"/>
+      <c r="DO37" s="0"/>
+      <c r="DP37" s="0"/>
+      <c r="DQ37" s="0"/>
+      <c r="DR37" s="0"/>
+      <c r="DS37" s="0"/>
+      <c r="DT37" s="0"/>
+      <c r="DU37" s="0"/>
+      <c r="DV37" s="0"/>
+      <c r="DW37" s="0"/>
+      <c r="DX37" s="0"/>
+      <c r="DY37" s="0"/>
+      <c r="DZ37" s="0"/>
+      <c r="EA37" s="0"/>
+      <c r="EB37" s="0"/>
+      <c r="EC37" s="0"/>
+      <c r="ED37" s="0"/>
+      <c r="EE37" s="0"/>
+      <c r="EF37" s="0"/>
+      <c r="EG37" s="0"/>
+      <c r="EH37" s="0"/>
+      <c r="EI37" s="0"/>
+      <c r="EJ37" s="0"/>
+      <c r="EK37" s="0"/>
+      <c r="EL37" s="0"/>
+      <c r="EM37" s="0"/>
+      <c r="EN37" s="0"/>
+      <c r="EO37" s="0"/>
+      <c r="EP37" s="0"/>
+      <c r="EQ37" s="0"/>
+      <c r="ER37" s="0"/>
+      <c r="ES37" s="0"/>
+      <c r="ET37" s="0"/>
+      <c r="EU37" s="0"/>
+      <c r="EV37" s="0"/>
+      <c r="EW37" s="0"/>
+      <c r="EX37" s="0"/>
+      <c r="EY37" s="0"/>
+      <c r="EZ37" s="0"/>
+      <c r="FA37" s="0"/>
+      <c r="FB37" s="0"/>
+      <c r="FC37" s="0"/>
+      <c r="FD37" s="0"/>
+      <c r="FE37" s="0"/>
+      <c r="FF37" s="0"/>
+      <c r="FG37" s="0"/>
+      <c r="FH37" s="0"/>
+      <c r="FI37" s="0"/>
+      <c r="FJ37" s="0"/>
+      <c r="FK37" s="0"/>
+      <c r="FL37" s="0"/>
+      <c r="FM37" s="0"/>
+      <c r="FN37" s="0"/>
+      <c r="FO37" s="0"/>
+      <c r="FP37" s="0"/>
+      <c r="FQ37" s="0"/>
+      <c r="FR37" s="0"/>
+      <c r="FS37" s="0"/>
+      <c r="FT37" s="0"/>
+      <c r="FU37" s="0"/>
+      <c r="FV37" s="0"/>
+      <c r="FW37" s="0"/>
+      <c r="FX37" s="0"/>
+      <c r="FY37" s="0"/>
+      <c r="FZ37" s="0"/>
+      <c r="GA37" s="0"/>
+      <c r="GB37" s="0"/>
+      <c r="GC37" s="0"/>
+      <c r="GD37" s="0"/>
+      <c r="GE37" s="0"/>
+      <c r="GF37" s="0"/>
+      <c r="GG37" s="0"/>
+      <c r="GH37" s="0"/>
+      <c r="GI37" s="0"/>
+      <c r="GJ37" s="0"/>
+      <c r="GK37" s="0"/>
+      <c r="GL37" s="0"/>
+      <c r="GM37" s="0"/>
+      <c r="GN37" s="0"/>
+      <c r="GO37" s="0"/>
+      <c r="GP37" s="0"/>
+      <c r="GQ37" s="0"/>
+      <c r="GR37" s="0"/>
+      <c r="GS37" s="0"/>
+      <c r="GT37" s="0"/>
+      <c r="GU37" s="0"/>
+      <c r="GV37" s="0"/>
+      <c r="GW37" s="0"/>
+      <c r="GX37" s="0"/>
+      <c r="GY37" s="0"/>
+      <c r="GZ37" s="0"/>
+      <c r="HA37" s="0"/>
+      <c r="HB37" s="0"/>
+      <c r="HC37" s="0"/>
+      <c r="HD37" s="0"/>
+      <c r="HE37" s="0"/>
+      <c r="HF37" s="0"/>
+      <c r="HG37" s="0"/>
+      <c r="HH37" s="0"/>
+      <c r="HI37" s="0"/>
+      <c r="HJ37" s="0"/>
+      <c r="HK37" s="0"/>
+      <c r="HL37" s="0"/>
+      <c r="HM37" s="0"/>
+      <c r="HN37" s="0"/>
+      <c r="HO37" s="0"/>
+      <c r="HP37" s="0"/>
+      <c r="HQ37" s="0"/>
+      <c r="HR37" s="0"/>
+      <c r="HS37" s="0"/>
+      <c r="HT37" s="0"/>
+      <c r="HU37" s="0"/>
+      <c r="HV37" s="0"/>
+      <c r="HW37" s="0"/>
+      <c r="HX37" s="0"/>
+      <c r="HY37" s="0"/>
+      <c r="HZ37" s="0"/>
+      <c r="IA37" s="0"/>
+      <c r="IB37" s="0"/>
+      <c r="IC37" s="0"/>
+      <c r="ID37" s="0"/>
+      <c r="IE37" s="0"/>
+      <c r="IF37" s="0"/>
+      <c r="IG37" s="0"/>
+      <c r="IH37" s="0"/>
+      <c r="II37" s="0"/>
+      <c r="IJ37" s="0"/>
+      <c r="IK37" s="0"/>
+      <c r="IL37" s="0"/>
+      <c r="IM37" s="0"/>
+      <c r="IN37" s="0"/>
+      <c r="IO37" s="0"/>
+      <c r="IP37" s="0"/>
+      <c r="IQ37" s="0"/>
+      <c r="IR37" s="0"/>
+      <c r="IS37" s="0"/>
+      <c r="IT37" s="0"/>
+      <c r="IU37" s="0"/>
+      <c r="IV37" s="0"/>
+      <c r="IW37" s="0"/>
+      <c r="IX37" s="0"/>
+      <c r="IY37" s="0"/>
+      <c r="IZ37" s="0"/>
+      <c r="JA37" s="0"/>
+      <c r="JB37" s="0"/>
+      <c r="JC37" s="0"/>
+      <c r="JD37" s="0"/>
+      <c r="JE37" s="0"/>
+      <c r="JF37" s="0"/>
+      <c r="JG37" s="0"/>
+      <c r="JH37" s="0"/>
+      <c r="JI37" s="0"/>
+      <c r="JJ37" s="0"/>
+      <c r="JK37" s="0"/>
+      <c r="JL37" s="0"/>
+      <c r="JM37" s="0"/>
+      <c r="JN37" s="0"/>
+      <c r="JO37" s="0"/>
+      <c r="JP37" s="0"/>
+      <c r="JQ37" s="0"/>
+      <c r="JR37" s="0"/>
+      <c r="JS37" s="0"/>
+      <c r="JT37" s="0"/>
+      <c r="JU37" s="0"/>
+      <c r="JV37" s="0"/>
+      <c r="JW37" s="0"/>
+      <c r="JX37" s="0"/>
+      <c r="JY37" s="0"/>
+      <c r="JZ37" s="0"/>
+      <c r="KA37" s="0"/>
+      <c r="KB37" s="0"/>
+      <c r="KC37" s="0"/>
+      <c r="KD37" s="0"/>
+      <c r="KE37" s="0"/>
+      <c r="KF37" s="0"/>
+      <c r="KG37" s="0"/>
+      <c r="KH37" s="0"/>
+      <c r="KI37" s="0"/>
+      <c r="KJ37" s="0"/>
+      <c r="KK37" s="0"/>
+      <c r="KL37" s="0"/>
+      <c r="KM37" s="0"/>
+      <c r="KN37" s="0"/>
+      <c r="KO37" s="0"/>
+      <c r="KP37" s="0"/>
+      <c r="KQ37" s="0"/>
+      <c r="KR37" s="0"/>
+      <c r="KS37" s="0"/>
+      <c r="KT37" s="0"/>
+      <c r="KU37" s="0"/>
+      <c r="KV37" s="0"/>
+      <c r="KW37" s="0"/>
+      <c r="KX37" s="0"/>
+      <c r="KY37" s="0"/>
+      <c r="KZ37" s="0"/>
+      <c r="LA37" s="0"/>
+      <c r="LB37" s="0"/>
+      <c r="LC37" s="0"/>
+      <c r="LD37" s="0"/>
+      <c r="LE37" s="0"/>
+      <c r="LF37" s="0"/>
+      <c r="LG37" s="0"/>
+      <c r="LH37" s="0"/>
+      <c r="LI37" s="0"/>
+      <c r="LJ37" s="0"/>
+      <c r="LK37" s="0"/>
+      <c r="LL37" s="0"/>
+      <c r="LM37" s="0"/>
+      <c r="LN37" s="0"/>
+      <c r="LO37" s="0"/>
+      <c r="LP37" s="0"/>
+      <c r="LQ37" s="0"/>
+      <c r="LR37" s="0"/>
+      <c r="LS37" s="0"/>
+      <c r="LT37" s="0"/>
+      <c r="LU37" s="0"/>
+      <c r="LV37" s="0"/>
+      <c r="LW37" s="0"/>
+      <c r="LX37" s="0"/>
+      <c r="LY37" s="0"/>
+      <c r="LZ37" s="0"/>
+      <c r="MA37" s="0"/>
+      <c r="MB37" s="0"/>
+      <c r="MC37" s="0"/>
+      <c r="MD37" s="0"/>
+      <c r="ME37" s="0"/>
+      <c r="MF37" s="0"/>
+      <c r="MG37" s="0"/>
+      <c r="MH37" s="0"/>
+      <c r="MI37" s="0"/>
+      <c r="MJ37" s="0"/>
+      <c r="MK37" s="0"/>
+      <c r="ML37" s="0"/>
+      <c r="MM37" s="0"/>
+      <c r="MN37" s="0"/>
+      <c r="MO37" s="0"/>
+      <c r="MP37" s="0"/>
+      <c r="MQ37" s="0"/>
+      <c r="MR37" s="0"/>
+      <c r="MS37" s="0"/>
+      <c r="MT37" s="0"/>
+      <c r="MU37" s="0"/>
+      <c r="MV37" s="0"/>
+      <c r="MW37" s="0"/>
+      <c r="MX37" s="0"/>
+      <c r="MY37" s="0"/>
+      <c r="MZ37" s="0"/>
+      <c r="NA37" s="0"/>
+      <c r="NB37" s="0"/>
+      <c r="NC37" s="0"/>
+      <c r="ND37" s="0"/>
+      <c r="NE37" s="0"/>
+      <c r="NF37" s="0"/>
+      <c r="NG37" s="0"/>
+      <c r="NH37" s="0"/>
+      <c r="NI37" s="0"/>
+      <c r="NJ37" s="0"/>
+      <c r="NK37" s="0"/>
+      <c r="NL37" s="0"/>
+      <c r="NM37" s="0"/>
+      <c r="NN37" s="0"/>
+      <c r="NO37" s="0"/>
+      <c r="NP37" s="0"/>
+      <c r="NQ37" s="0"/>
+      <c r="NR37" s="0"/>
+      <c r="NS37" s="0"/>
+      <c r="NT37" s="0"/>
+      <c r="NU37" s="0"/>
+      <c r="NV37" s="0"/>
+      <c r="NW37" s="0"/>
+      <c r="NX37" s="0"/>
+      <c r="NY37" s="0"/>
+      <c r="NZ37" s="0"/>
+      <c r="OA37" s="0"/>
+      <c r="OB37" s="0"/>
+      <c r="OC37" s="0"/>
+      <c r="OD37" s="0"/>
+      <c r="OE37" s="0"/>
+      <c r="OF37" s="0"/>
+      <c r="OG37" s="0"/>
+      <c r="OH37" s="0"/>
+      <c r="OI37" s="0"/>
+      <c r="OJ37" s="0"/>
+      <c r="OK37" s="0"/>
+      <c r="OL37" s="0"/>
+      <c r="OM37" s="0"/>
+      <c r="ON37" s="0"/>
+      <c r="OO37" s="0"/>
+      <c r="OP37" s="0"/>
+      <c r="OQ37" s="0"/>
+      <c r="OR37" s="0"/>
+      <c r="OS37" s="0"/>
+      <c r="OT37" s="0"/>
+      <c r="OU37" s="0"/>
+      <c r="OV37" s="0"/>
+      <c r="OW37" s="0"/>
+      <c r="OX37" s="0"/>
+      <c r="OY37" s="0"/>
+      <c r="OZ37" s="0"/>
+      <c r="PA37" s="0"/>
+      <c r="PB37" s="0"/>
+      <c r="PC37" s="0"/>
+      <c r="PD37" s="0"/>
+      <c r="PE37" s="0"/>
+      <c r="PF37" s="0"/>
+      <c r="PG37" s="0"/>
+      <c r="PH37" s="0"/>
+      <c r="PI37" s="0"/>
+      <c r="PJ37" s="0"/>
+      <c r="PK37" s="0"/>
+      <c r="PL37" s="0"/>
+      <c r="PM37" s="0"/>
+      <c r="PN37" s="0"/>
+      <c r="PO37" s="0"/>
+      <c r="PP37" s="0"/>
+      <c r="PQ37" s="0"/>
+      <c r="PR37" s="0"/>
+      <c r="PS37" s="0"/>
+      <c r="PT37" s="0"/>
+      <c r="PU37" s="0"/>
+      <c r="PV37" s="0"/>
+      <c r="PW37" s="0"/>
+      <c r="PX37" s="0"/>
+      <c r="PY37" s="0"/>
+      <c r="PZ37" s="0"/>
+      <c r="QA37" s="0"/>
+      <c r="QB37" s="0"/>
+      <c r="QC37" s="0"/>
+      <c r="QD37" s="0"/>
+      <c r="QE37" s="0"/>
+      <c r="QF37" s="0"/>
+      <c r="QG37" s="0"/>
+      <c r="QH37" s="0"/>
+      <c r="QI37" s="0"/>
+      <c r="QJ37" s="0"/>
+      <c r="QK37" s="0"/>
+      <c r="QL37" s="0"/>
+      <c r="QM37" s="0"/>
+      <c r="QN37" s="0"/>
+      <c r="QO37" s="0"/>
+      <c r="QP37" s="0"/>
+      <c r="QQ37" s="0"/>
+      <c r="QR37" s="0"/>
+      <c r="QS37" s="0"/>
+      <c r="QT37" s="0"/>
+      <c r="QU37" s="0"/>
+      <c r="QV37" s="0"/>
+      <c r="QW37" s="0"/>
+      <c r="QX37" s="0"/>
+      <c r="QY37" s="0"/>
+      <c r="QZ37" s="0"/>
+      <c r="RA37" s="0"/>
+      <c r="RB37" s="0"/>
+      <c r="RC37" s="0"/>
+      <c r="RD37" s="0"/>
+      <c r="RE37" s="0"/>
+      <c r="RF37" s="0"/>
+      <c r="RG37" s="0"/>
+      <c r="RH37" s="0"/>
+      <c r="RI37" s="0"/>
+      <c r="RJ37" s="0"/>
+      <c r="RK37" s="0"/>
+      <c r="RL37" s="0"/>
+      <c r="RM37" s="0"/>
+      <c r="RN37" s="0"/>
+      <c r="RO37" s="0"/>
+      <c r="RP37" s="0"/>
+      <c r="RQ37" s="0"/>
+      <c r="RR37" s="0"/>
+      <c r="RS37" s="0"/>
+      <c r="RT37" s="0"/>
+      <c r="RU37" s="0"/>
+      <c r="RV37" s="0"/>
+      <c r="RW37" s="0"/>
+      <c r="RX37" s="0"/>
+      <c r="RY37" s="0"/>
+      <c r="RZ37" s="0"/>
+      <c r="SA37" s="0"/>
+      <c r="SB37" s="0"/>
+      <c r="SC37" s="0"/>
+      <c r="SD37" s="0"/>
+      <c r="SE37" s="0"/>
+      <c r="SF37" s="0"/>
+      <c r="SG37" s="0"/>
+      <c r="SH37" s="0"/>
+      <c r="SI37" s="0"/>
+      <c r="SJ37" s="0"/>
+      <c r="SK37" s="0"/>
+      <c r="SL37" s="0"/>
+      <c r="SM37" s="0"/>
+      <c r="SN37" s="0"/>
+      <c r="SO37" s="0"/>
+      <c r="SP37" s="0"/>
+      <c r="SQ37" s="0"/>
+      <c r="SR37" s="0"/>
+      <c r="SS37" s="0"/>
+      <c r="ST37" s="0"/>
+      <c r="SU37" s="0"/>
+      <c r="SV37" s="0"/>
+      <c r="SW37" s="0"/>
+      <c r="SX37" s="0"/>
+      <c r="SY37" s="0"/>
+      <c r="SZ37" s="0"/>
+      <c r="TA37" s="0"/>
+      <c r="TB37" s="0"/>
+      <c r="TC37" s="0"/>
+      <c r="TD37" s="0"/>
+      <c r="TE37" s="0"/>
+      <c r="TF37" s="0"/>
+      <c r="TG37" s="0"/>
+      <c r="TH37" s="0"/>
+      <c r="TI37" s="0"/>
+      <c r="TJ37" s="0"/>
+      <c r="TK37" s="0"/>
+      <c r="TL37" s="0"/>
+      <c r="TM37" s="0"/>
+      <c r="TN37" s="0"/>
+      <c r="TO37" s="0"/>
+      <c r="TP37" s="0"/>
+      <c r="TQ37" s="0"/>
+      <c r="TR37" s="0"/>
+      <c r="TS37" s="0"/>
+      <c r="TT37" s="0"/>
+      <c r="TU37" s="0"/>
+      <c r="TV37" s="0"/>
+      <c r="TW37" s="0"/>
+      <c r="TX37" s="0"/>
+      <c r="TY37" s="0"/>
+      <c r="TZ37" s="0"/>
+      <c r="UA37" s="0"/>
+      <c r="UB37" s="0"/>
+      <c r="UC37" s="0"/>
+      <c r="UD37" s="0"/>
+      <c r="UE37" s="0"/>
+      <c r="UF37" s="0"/>
+      <c r="UG37" s="0"/>
+      <c r="UH37" s="0"/>
+      <c r="UI37" s="0"/>
+      <c r="UJ37" s="0"/>
+      <c r="UK37" s="0"/>
+      <c r="UL37" s="0"/>
+      <c r="UM37" s="0"/>
+      <c r="UN37" s="0"/>
+      <c r="UO37" s="0"/>
+      <c r="UP37" s="0"/>
+      <c r="UQ37" s="0"/>
+      <c r="UR37" s="0"/>
+      <c r="US37" s="0"/>
+      <c r="UT37" s="0"/>
+      <c r="UU37" s="0"/>
+      <c r="UV37" s="0"/>
+      <c r="UW37" s="0"/>
+      <c r="UX37" s="0"/>
+      <c r="UY37" s="0"/>
+      <c r="UZ37" s="0"/>
+      <c r="VA37" s="0"/>
+      <c r="VB37" s="0"/>
+      <c r="VC37" s="0"/>
+      <c r="VD37" s="0"/>
+      <c r="VE37" s="0"/>
+      <c r="VF37" s="0"/>
+      <c r="VG37" s="0"/>
+      <c r="VH37" s="0"/>
+      <c r="VI37" s="0"/>
+      <c r="VJ37" s="0"/>
+      <c r="VK37" s="0"/>
+      <c r="VL37" s="0"/>
+      <c r="VM37" s="0"/>
+      <c r="VN37" s="0"/>
+      <c r="VO37" s="0"/>
+      <c r="VP37" s="0"/>
+      <c r="VQ37" s="0"/>
+      <c r="VR37" s="0"/>
+      <c r="VS37" s="0"/>
+      <c r="VT37" s="0"/>
+      <c r="VU37" s="0"/>
+      <c r="VV37" s="0"/>
+      <c r="VW37" s="0"/>
+      <c r="VX37" s="0"/>
+      <c r="VY37" s="0"/>
+      <c r="VZ37" s="0"/>
+      <c r="WA37" s="0"/>
+      <c r="WB37" s="0"/>
+      <c r="WC37" s="0"/>
+      <c r="WD37" s="0"/>
+      <c r="WE37" s="0"/>
+      <c r="WF37" s="0"/>
+      <c r="WG37" s="0"/>
+      <c r="WH37" s="0"/>
+      <c r="WI37" s="0"/>
+      <c r="WJ37" s="0"/>
+      <c r="WK37" s="0"/>
+      <c r="WL37" s="0"/>
+      <c r="WM37" s="0"/>
+      <c r="WN37" s="0"/>
+      <c r="WO37" s="0"/>
+      <c r="WP37" s="0"/>
+      <c r="WQ37" s="0"/>
+      <c r="WR37" s="0"/>
+      <c r="WS37" s="0"/>
+      <c r="WT37" s="0"/>
+      <c r="WU37" s="0"/>
+      <c r="WV37" s="0"/>
+      <c r="WW37" s="0"/>
+      <c r="WX37" s="0"/>
+      <c r="WY37" s="0"/>
+      <c r="WZ37" s="0"/>
+      <c r="XA37" s="0"/>
+      <c r="XB37" s="0"/>
+      <c r="XC37" s="0"/>
+      <c r="XD37" s="0"/>
+      <c r="XE37" s="0"/>
+      <c r="XF37" s="0"/>
+      <c r="XG37" s="0"/>
+      <c r="XH37" s="0"/>
+      <c r="XI37" s="0"/>
+      <c r="XJ37" s="0"/>
+      <c r="XK37" s="0"/>
+      <c r="XL37" s="0"/>
+      <c r="XM37" s="0"/>
+      <c r="XN37" s="0"/>
+      <c r="XO37" s="0"/>
+      <c r="XP37" s="0"/>
+      <c r="XQ37" s="0"/>
+      <c r="XR37" s="0"/>
+      <c r="XS37" s="0"/>
+      <c r="XT37" s="0"/>
+      <c r="XU37" s="0"/>
+      <c r="XV37" s="0"/>
+      <c r="XW37" s="0"/>
+      <c r="XX37" s="0"/>
+      <c r="XY37" s="0"/>
+      <c r="XZ37" s="0"/>
+      <c r="YA37" s="0"/>
+      <c r="YB37" s="0"/>
+      <c r="YC37" s="0"/>
+      <c r="YD37" s="0"/>
+      <c r="YE37" s="0"/>
+      <c r="YF37" s="0"/>
+      <c r="YG37" s="0"/>
+      <c r="YH37" s="0"/>
+      <c r="YI37" s="0"/>
+      <c r="YJ37" s="0"/>
+      <c r="YK37" s="0"/>
+      <c r="YL37" s="0"/>
+      <c r="YM37" s="0"/>
+      <c r="YN37" s="0"/>
+      <c r="YO37" s="0"/>
+      <c r="YP37" s="0"/>
+      <c r="YQ37" s="0"/>
+      <c r="YR37" s="0"/>
+      <c r="YS37" s="0"/>
+      <c r="YT37" s="0"/>
+      <c r="YU37" s="0"/>
+      <c r="YV37" s="0"/>
+      <c r="YW37" s="0"/>
+      <c r="YX37" s="0"/>
+      <c r="YY37" s="0"/>
+      <c r="YZ37" s="0"/>
+      <c r="ZA37" s="0"/>
+      <c r="ZB37" s="0"/>
+      <c r="ZC37" s="0"/>
+      <c r="ZD37" s="0"/>
+      <c r="ZE37" s="0"/>
+      <c r="ZF37" s="0"/>
+      <c r="ZG37" s="0"/>
+      <c r="ZH37" s="0"/>
+      <c r="ZI37" s="0"/>
+      <c r="ZJ37" s="0"/>
+      <c r="ZK37" s="0"/>
+      <c r="ZL37" s="0"/>
+      <c r="ZM37" s="0"/>
+      <c r="ZN37" s="0"/>
+      <c r="ZO37" s="0"/>
+      <c r="ZP37" s="0"/>
+      <c r="ZQ37" s="0"/>
+      <c r="ZR37" s="0"/>
+      <c r="ZS37" s="0"/>
+      <c r="ZT37" s="0"/>
+      <c r="ZU37" s="0"/>
+      <c r="ZV37" s="0"/>
+      <c r="ZW37" s="0"/>
+      <c r="ZX37" s="0"/>
+      <c r="ZY37" s="0"/>
+      <c r="ZZ37" s="0"/>
+      <c r="AAA37" s="0"/>
+      <c r="AAB37" s="0"/>
+      <c r="AAC37" s="0"/>
+      <c r="AAD37" s="0"/>
+      <c r="AAE37" s="0"/>
+      <c r="AAF37" s="0"/>
+      <c r="AAG37" s="0"/>
+      <c r="AAH37" s="0"/>
+      <c r="AAI37" s="0"/>
+      <c r="AAJ37" s="0"/>
+      <c r="AAK37" s="0"/>
+      <c r="AAL37" s="0"/>
+      <c r="AAM37" s="0"/>
+      <c r="AAN37" s="0"/>
+      <c r="AAO37" s="0"/>
+      <c r="AAP37" s="0"/>
+      <c r="AAQ37" s="0"/>
+      <c r="AAR37" s="0"/>
+      <c r="AAS37" s="0"/>
+      <c r="AAT37" s="0"/>
+      <c r="AAU37" s="0"/>
+      <c r="AAV37" s="0"/>
+      <c r="AAW37" s="0"/>
+      <c r="AAX37" s="0"/>
+      <c r="AAY37" s="0"/>
+      <c r="AAZ37" s="0"/>
+      <c r="ABA37" s="0"/>
+      <c r="ABB37" s="0"/>
+      <c r="ABC37" s="0"/>
+      <c r="ABD37" s="0"/>
+      <c r="ABE37" s="0"/>
+      <c r="ABF37" s="0"/>
+      <c r="ABG37" s="0"/>
+      <c r="ABH37" s="0"/>
+      <c r="ABI37" s="0"/>
+      <c r="ABJ37" s="0"/>
+      <c r="ABK37" s="0"/>
+      <c r="ABL37" s="0"/>
+      <c r="ABM37" s="0"/>
+      <c r="ABN37" s="0"/>
+      <c r="ABO37" s="0"/>
+      <c r="ABP37" s="0"/>
+      <c r="ABQ37" s="0"/>
+      <c r="ABR37" s="0"/>
+      <c r="ABS37" s="0"/>
+      <c r="ABT37" s="0"/>
+      <c r="ABU37" s="0"/>
+      <c r="ABV37" s="0"/>
+      <c r="ABW37" s="0"/>
+      <c r="ABX37" s="0"/>
+      <c r="ABY37" s="0"/>
+      <c r="ABZ37" s="0"/>
+      <c r="ACA37" s="0"/>
+      <c r="ACB37" s="0"/>
+      <c r="ACC37" s="0"/>
+      <c r="ACD37" s="0"/>
+      <c r="ACE37" s="0"/>
+      <c r="ACF37" s="0"/>
+      <c r="ACG37" s="0"/>
+      <c r="ACH37" s="0"/>
+      <c r="ACI37" s="0"/>
+      <c r="ACJ37" s="0"/>
+      <c r="ACK37" s="0"/>
+      <c r="ACL37" s="0"/>
+      <c r="ACM37" s="0"/>
+      <c r="ACN37" s="0"/>
+      <c r="ACO37" s="0"/>
+      <c r="ACP37" s="0"/>
+      <c r="ACQ37" s="0"/>
+      <c r="ACR37" s="0"/>
+      <c r="ACS37" s="0"/>
+      <c r="ACT37" s="0"/>
+      <c r="ACU37" s="0"/>
+      <c r="ACV37" s="0"/>
+      <c r="ACW37" s="0"/>
+      <c r="ACX37" s="0"/>
+      <c r="ACY37" s="0"/>
+      <c r="ACZ37" s="0"/>
+      <c r="ADA37" s="0"/>
+      <c r="ADB37" s="0"/>
+      <c r="ADC37" s="0"/>
+      <c r="ADD37" s="0"/>
+      <c r="ADE37" s="0"/>
+      <c r="ADF37" s="0"/>
+      <c r="ADG37" s="0"/>
+      <c r="ADH37" s="0"/>
+      <c r="ADI37" s="0"/>
+      <c r="ADJ37" s="0"/>
+      <c r="ADK37" s="0"/>
+      <c r="ADL37" s="0"/>
+      <c r="ADM37" s="0"/>
+      <c r="ADN37" s="0"/>
+      <c r="ADO37" s="0"/>
+      <c r="ADP37" s="0"/>
+      <c r="ADQ37" s="0"/>
+      <c r="ADR37" s="0"/>
+      <c r="ADS37" s="0"/>
+      <c r="ADT37" s="0"/>
+      <c r="ADU37" s="0"/>
+      <c r="ADV37" s="0"/>
+      <c r="ADW37" s="0"/>
+      <c r="ADX37" s="0"/>
+      <c r="ADY37" s="0"/>
+      <c r="ADZ37" s="0"/>
+      <c r="AEA37" s="0"/>
+      <c r="AEB37" s="0"/>
+      <c r="AEC37" s="0"/>
+      <c r="AED37" s="0"/>
+      <c r="AEE37" s="0"/>
+      <c r="AEF37" s="0"/>
+      <c r="AEG37" s="0"/>
+      <c r="AEH37" s="0"/>
+      <c r="AEI37" s="0"/>
+      <c r="AEJ37" s="0"/>
+      <c r="AEK37" s="0"/>
+      <c r="AEL37" s="0"/>
+      <c r="AEM37" s="0"/>
+      <c r="AEN37" s="0"/>
+      <c r="AEO37" s="0"/>
+      <c r="AEP37" s="0"/>
+      <c r="AEQ37" s="0"/>
+      <c r="AER37" s="0"/>
+      <c r="AES37" s="0"/>
+      <c r="AET37" s="0"/>
+      <c r="AEU37" s="0"/>
+      <c r="AEV37" s="0"/>
+      <c r="AEW37" s="0"/>
+      <c r="AEX37" s="0"/>
+      <c r="AEY37" s="0"/>
+      <c r="AEZ37" s="0"/>
+      <c r="AFA37" s="0"/>
+      <c r="AFB37" s="0"/>
+      <c r="AFC37" s="0"/>
+      <c r="AFD37" s="0"/>
+      <c r="AFE37" s="0"/>
+      <c r="AFF37" s="0"/>
+      <c r="AFG37" s="0"/>
+      <c r="AFH37" s="0"/>
+      <c r="AFI37" s="0"/>
+      <c r="AFJ37" s="0"/>
+      <c r="AFK37" s="0"/>
+      <c r="AFL37" s="0"/>
+      <c r="AFM37" s="0"/>
+      <c r="AFN37" s="0"/>
+      <c r="AFO37" s="0"/>
+      <c r="AFP37" s="0"/>
+      <c r="AFQ37" s="0"/>
+      <c r="AFR37" s="0"/>
+      <c r="AFS37" s="0"/>
+      <c r="AFT37" s="0"/>
+      <c r="AFU37" s="0"/>
+      <c r="AFV37" s="0"/>
+      <c r="AFW37" s="0"/>
+      <c r="AFX37" s="0"/>
+      <c r="AFY37" s="0"/>
+      <c r="AFZ37" s="0"/>
+      <c r="AGA37" s="0"/>
+      <c r="AGB37" s="0"/>
+      <c r="AGC37" s="0"/>
+      <c r="AGD37" s="0"/>
+      <c r="AGE37" s="0"/>
+      <c r="AGF37" s="0"/>
+      <c r="AGG37" s="0"/>
+      <c r="AGH37" s="0"/>
+      <c r="AGI37" s="0"/>
+      <c r="AGJ37" s="0"/>
+      <c r="AGK37" s="0"/>
+      <c r="AGL37" s="0"/>
+      <c r="AGM37" s="0"/>
+      <c r="AGN37" s="0"/>
+      <c r="AGO37" s="0"/>
+      <c r="AGP37" s="0"/>
+      <c r="AGQ37" s="0"/>
+      <c r="AGR37" s="0"/>
+      <c r="AGS37" s="0"/>
+      <c r="AGT37" s="0"/>
+      <c r="AGU37" s="0"/>
+      <c r="AGV37" s="0"/>
+      <c r="AGW37" s="0"/>
+      <c r="AGX37" s="0"/>
+      <c r="AGY37" s="0"/>
+      <c r="AGZ37" s="0"/>
+      <c r="AHA37" s="0"/>
+      <c r="AHB37" s="0"/>
+      <c r="AHC37" s="0"/>
+      <c r="AHD37" s="0"/>
+      <c r="AHE37" s="0"/>
+      <c r="AHF37" s="0"/>
+      <c r="AHG37" s="0"/>
+      <c r="AHH37" s="0"/>
+      <c r="AHI37" s="0"/>
+      <c r="AHJ37" s="0"/>
+      <c r="AHK37" s="0"/>
+      <c r="AHL37" s="0"/>
+      <c r="AHM37" s="0"/>
+      <c r="AHN37" s="0"/>
+      <c r="AHO37" s="0"/>
+      <c r="AHP37" s="0"/>
+      <c r="AHQ37" s="0"/>
+      <c r="AHR37" s="0"/>
+      <c r="AHS37" s="0"/>
+      <c r="AHT37" s="0"/>
+      <c r="AHU37" s="0"/>
+      <c r="AHV37" s="0"/>
+      <c r="AHW37" s="0"/>
+      <c r="AHX37" s="0"/>
+      <c r="AHY37" s="0"/>
+      <c r="AHZ37" s="0"/>
+      <c r="AIA37" s="0"/>
+      <c r="AIB37" s="0"/>
+      <c r="AIC37" s="0"/>
+      <c r="AID37" s="0"/>
+      <c r="AIE37" s="0"/>
+      <c r="AIF37" s="0"/>
+      <c r="AIG37" s="0"/>
+      <c r="AIH37" s="0"/>
+      <c r="AII37" s="0"/>
+      <c r="AIJ37" s="0"/>
+      <c r="AIK37" s="0"/>
+      <c r="AIL37" s="0"/>
+      <c r="AIM37" s="0"/>
+      <c r="AIN37" s="0"/>
+      <c r="AIO37" s="0"/>
+      <c r="AIP37" s="0"/>
+      <c r="AIQ37" s="0"/>
+      <c r="AIR37" s="0"/>
+      <c r="AIS37" s="0"/>
+      <c r="AIT37" s="0"/>
+      <c r="AIU37" s="0"/>
+      <c r="AIV37" s="0"/>
+      <c r="AIW37" s="0"/>
+      <c r="AIX37" s="0"/>
+      <c r="AIY37" s="0"/>
+      <c r="AIZ37" s="0"/>
+      <c r="AJA37" s="0"/>
+      <c r="AJB37" s="0"/>
+      <c r="AJC37" s="0"/>
+      <c r="AJD37" s="0"/>
+      <c r="AJE37" s="0"/>
+      <c r="AJF37" s="0"/>
+      <c r="AJG37" s="0"/>
+      <c r="AJH37" s="0"/>
+      <c r="AJI37" s="0"/>
+      <c r="AJJ37" s="0"/>
+      <c r="AJK37" s="0"/>
+      <c r="AJL37" s="0"/>
+      <c r="AJM37" s="0"/>
+      <c r="AJN37" s="0"/>
+      <c r="AJO37" s="0"/>
+      <c r="AJP37" s="0"/>
+      <c r="AJQ37" s="0"/>
+      <c r="AJR37" s="0"/>
+      <c r="AJS37" s="0"/>
+      <c r="AJT37" s="0"/>
+      <c r="AJU37" s="0"/>
+      <c r="AJV37" s="0"/>
+      <c r="AJW37" s="0"/>
+      <c r="AJX37" s="0"/>
+      <c r="AJY37" s="0"/>
+      <c r="AJZ37" s="0"/>
+      <c r="AKA37" s="0"/>
+      <c r="AKB37" s="0"/>
+      <c r="AKC37" s="0"/>
+      <c r="AKD37" s="0"/>
+      <c r="AKE37" s="0"/>
+      <c r="AKF37" s="0"/>
+      <c r="AKG37" s="0"/>
+      <c r="AKH37" s="0"/>
+      <c r="AKI37" s="0"/>
+      <c r="AKJ37" s="0"/>
+      <c r="AKK37" s="0"/>
+      <c r="AKL37" s="0"/>
+      <c r="AKM37" s="0"/>
+      <c r="AKN37" s="0"/>
+      <c r="AKO37" s="0"/>
+      <c r="AKP37" s="0"/>
+      <c r="AKQ37" s="0"/>
+      <c r="AKR37" s="0"/>
+      <c r="AKS37" s="0"/>
+      <c r="AKT37" s="0"/>
+      <c r="AKU37" s="0"/>
+      <c r="AKV37" s="0"/>
+      <c r="AKW37" s="0"/>
+      <c r="AKX37" s="0"/>
+      <c r="AKY37" s="0"/>
+      <c r="AKZ37" s="0"/>
+      <c r="ALA37" s="0"/>
+      <c r="ALB37" s="0"/>
+      <c r="ALC37" s="0"/>
+      <c r="ALD37" s="0"/>
+      <c r="ALE37" s="0"/>
+      <c r="ALF37" s="0"/>
+      <c r="ALG37" s="0"/>
+      <c r="ALH37" s="0"/>
+      <c r="ALI37" s="0"/>
+      <c r="ALJ37" s="0"/>
+      <c r="ALK37" s="0"/>
+      <c r="ALL37" s="0"/>
+      <c r="ALM37" s="0"/>
+      <c r="ALN37" s="0"/>
+      <c r="ALO37" s="0"/>
+      <c r="ALP37" s="0"/>
+      <c r="ALQ37" s="0"/>
+      <c r="ALR37" s="0"/>
+      <c r="ALS37" s="0"/>
+      <c r="ALT37" s="0"/>
+      <c r="ALU37" s="0"/>
+      <c r="ALV37" s="0"/>
+      <c r="ALW37" s="0"/>
+      <c r="ALX37" s="0"/>
+      <c r="ALY37" s="0"/>
+      <c r="ALZ37" s="0"/>
+      <c r="AMA37" s="0"/>
+      <c r="AMB37" s="0"/>
+      <c r="AMC37" s="0"/>
+      <c r="AMD37" s="0"/>
+      <c r="AME37" s="0"/>
+      <c r="AMF37" s="0"/>
+      <c r="AMG37" s="0"/>
+      <c r="AMH37" s="0"/>
+      <c r="AMI37" s="0"/>
+      <c r="AMJ37" s="0"/>
     </row>
-    <row r="38" s="56" customFormat="true" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="49" t="n">
+    <row r="38" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="36" t="n">
         <v>58734</v>
       </c>
-      <c r="B38" s="50" t="n">
+      <c r="B38" s="49" t="n">
         <v>1</v>
       </c>
-      <c r="C38" s="51" t="s">
+      <c r="C38" s="38" t="s">
         <v>259</v>
       </c>
-      <c r="D38" s="51" t="s">
+      <c r="D38" s="38" t="s">
         <v>260</v>
       </c>
-      <c r="E38" s="52" t="s">
+      <c r="E38" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="F38" s="52" t="s">
+      <c r="F38" s="39" t="s">
         <v>235</v>
       </c>
-      <c r="G38" s="52" t="s">
+      <c r="G38" s="39" t="s">
         <v>261</v>
       </c>
-      <c r="H38" s="53" t="n">
+      <c r="H38" s="40" t="n">
         <v>39848</v>
       </c>
-      <c r="I38" s="53" t="n">
+      <c r="I38" s="40" t="n">
         <v>39848</v>
       </c>
-      <c r="J38" s="54" t="n">
+      <c r="J38" s="41" t="n">
         <v>43499</v>
       </c>
-      <c r="K38" s="55" t="n">
+      <c r="K38" s="48" t="n">
         <v>1</v>
       </c>
-      <c r="L38" s="49" t="s">
+      <c r="L38" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="M38" s="51" t="s">
+      <c r="M38" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="N38" s="52" t="s">
+      <c r="N38" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="O38" s="52" t="s">
+      <c r="O38" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="P38" s="52" t="s">
+      <c r="P38" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="Q38" s="51" t="s">
+      <c r="Q38" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="R38" s="51" t="s">
+      <c r="R38" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="S38" s="51" t="s">
+      <c r="S38" s="38" t="s">
         <v>264</v>
       </c>
-      <c r="T38" s="51"/>
-      <c r="U38" s="52"/>
-      <c r="V38" s="51"/>
-      <c r="W38" s="52"/>
+      <c r="T38" s="38"/>
+      <c r="U38" s="39"/>
+      <c r="V38" s="38"/>
+      <c r="W38" s="39"/>
+      <c r="Y38" s="0"/>
+      <c r="Z38" s="0"/>
+      <c r="AA38" s="0"/>
+      <c r="AB38" s="0"/>
+      <c r="AC38" s="0"/>
+      <c r="AD38" s="0"/>
+      <c r="AE38" s="0"/>
+      <c r="AF38" s="0"/>
+      <c r="AG38" s="0"/>
+      <c r="AH38" s="0"/>
+      <c r="AI38" s="0"/>
+      <c r="AJ38" s="0"/>
+      <c r="AK38" s="0"/>
+      <c r="AL38" s="0"/>
+      <c r="AM38" s="0"/>
+      <c r="AN38" s="0"/>
+      <c r="AO38" s="0"/>
+      <c r="AP38" s="0"/>
+      <c r="AQ38" s="0"/>
+      <c r="AR38" s="0"/>
+      <c r="AS38" s="0"/>
+      <c r="AT38" s="0"/>
+      <c r="AU38" s="0"/>
+      <c r="AV38" s="0"/>
+      <c r="AW38" s="0"/>
+      <c r="AX38" s="0"/>
+      <c r="AY38" s="0"/>
+      <c r="AZ38" s="0"/>
+      <c r="BA38" s="0"/>
+      <c r="BB38" s="0"/>
+      <c r="BC38" s="0"/>
+      <c r="BD38" s="0"/>
+      <c r="BE38" s="0"/>
+      <c r="BF38" s="0"/>
+      <c r="BG38" s="0"/>
+      <c r="BH38" s="0"/>
+      <c r="BI38" s="0"/>
+      <c r="BJ38" s="0"/>
+      <c r="BK38" s="0"/>
+      <c r="BL38" s="0"/>
+      <c r="BM38" s="0"/>
+      <c r="BN38" s="0"/>
+      <c r="BO38" s="0"/>
+      <c r="BP38" s="0"/>
+      <c r="BQ38" s="0"/>
+      <c r="BR38" s="0"/>
+      <c r="BS38" s="0"/>
+      <c r="BT38" s="0"/>
+      <c r="BU38" s="0"/>
+      <c r="BV38" s="0"/>
+      <c r="BW38" s="0"/>
+      <c r="BX38" s="0"/>
+      <c r="BY38" s="0"/>
+      <c r="BZ38" s="0"/>
+      <c r="CA38" s="0"/>
+      <c r="CB38" s="0"/>
+      <c r="CC38" s="0"/>
+      <c r="CD38" s="0"/>
+      <c r="CE38" s="0"/>
+      <c r="CF38" s="0"/>
+      <c r="CG38" s="0"/>
+      <c r="CH38" s="0"/>
+      <c r="CI38" s="0"/>
+      <c r="CJ38" s="0"/>
+      <c r="CK38" s="0"/>
+      <c r="CL38" s="0"/>
+      <c r="CM38" s="0"/>
+      <c r="CN38" s="0"/>
+      <c r="CO38" s="0"/>
+      <c r="CP38" s="0"/>
+      <c r="CQ38" s="0"/>
+      <c r="CR38" s="0"/>
+      <c r="CS38" s="0"/>
+      <c r="CT38" s="0"/>
+      <c r="CU38" s="0"/>
+      <c r="CV38" s="0"/>
+      <c r="CW38" s="0"/>
+      <c r="CX38" s="0"/>
+      <c r="CY38" s="0"/>
+      <c r="CZ38" s="0"/>
+      <c r="DA38" s="0"/>
+      <c r="DB38" s="0"/>
+      <c r="DC38" s="0"/>
+      <c r="DD38" s="0"/>
+      <c r="DE38" s="0"/>
+      <c r="DF38" s="0"/>
+      <c r="DG38" s="0"/>
+      <c r="DH38" s="0"/>
+      <c r="DI38" s="0"/>
+      <c r="DJ38" s="0"/>
+      <c r="DK38" s="0"/>
+      <c r="DL38" s="0"/>
+      <c r="DM38" s="0"/>
+      <c r="DN38" s="0"/>
+      <c r="DO38" s="0"/>
+      <c r="DP38" s="0"/>
+      <c r="DQ38" s="0"/>
+      <c r="DR38" s="0"/>
+      <c r="DS38" s="0"/>
+      <c r="DT38" s="0"/>
+      <c r="DU38" s="0"/>
+      <c r="DV38" s="0"/>
+      <c r="DW38" s="0"/>
+      <c r="DX38" s="0"/>
+      <c r="DY38" s="0"/>
+      <c r="DZ38" s="0"/>
+      <c r="EA38" s="0"/>
+      <c r="EB38" s="0"/>
+      <c r="EC38" s="0"/>
+      <c r="ED38" s="0"/>
+      <c r="EE38" s="0"/>
+      <c r="EF38" s="0"/>
+      <c r="EG38" s="0"/>
+      <c r="EH38" s="0"/>
+      <c r="EI38" s="0"/>
+      <c r="EJ38" s="0"/>
+      <c r="EK38" s="0"/>
+      <c r="EL38" s="0"/>
+      <c r="EM38" s="0"/>
+      <c r="EN38" s="0"/>
+      <c r="EO38" s="0"/>
+      <c r="EP38" s="0"/>
+      <c r="EQ38" s="0"/>
+      <c r="ER38" s="0"/>
+      <c r="ES38" s="0"/>
+      <c r="ET38" s="0"/>
+      <c r="EU38" s="0"/>
+      <c r="EV38" s="0"/>
+      <c r="EW38" s="0"/>
+      <c r="EX38" s="0"/>
+      <c r="EY38" s="0"/>
+      <c r="EZ38" s="0"/>
+      <c r="FA38" s="0"/>
+      <c r="FB38" s="0"/>
+      <c r="FC38" s="0"/>
+      <c r="FD38" s="0"/>
+      <c r="FE38" s="0"/>
+      <c r="FF38" s="0"/>
+      <c r="FG38" s="0"/>
+      <c r="FH38" s="0"/>
+      <c r="FI38" s="0"/>
+      <c r="FJ38" s="0"/>
+      <c r="FK38" s="0"/>
+      <c r="FL38" s="0"/>
+      <c r="FM38" s="0"/>
+      <c r="FN38" s="0"/>
+      <c r="FO38" s="0"/>
+      <c r="FP38" s="0"/>
+      <c r="FQ38" s="0"/>
+      <c r="FR38" s="0"/>
+      <c r="FS38" s="0"/>
+      <c r="FT38" s="0"/>
+      <c r="FU38" s="0"/>
+      <c r="FV38" s="0"/>
+      <c r="FW38" s="0"/>
+      <c r="FX38" s="0"/>
+      <c r="FY38" s="0"/>
+      <c r="FZ38" s="0"/>
+      <c r="GA38" s="0"/>
+      <c r="GB38" s="0"/>
+      <c r="GC38" s="0"/>
+      <c r="GD38" s="0"/>
+      <c r="GE38" s="0"/>
+      <c r="GF38" s="0"/>
+      <c r="GG38" s="0"/>
+      <c r="GH38" s="0"/>
+      <c r="GI38" s="0"/>
+      <c r="GJ38" s="0"/>
+      <c r="GK38" s="0"/>
+      <c r="GL38" s="0"/>
+      <c r="GM38" s="0"/>
+      <c r="GN38" s="0"/>
+      <c r="GO38" s="0"/>
+      <c r="GP38" s="0"/>
+      <c r="GQ38" s="0"/>
+      <c r="GR38" s="0"/>
+      <c r="GS38" s="0"/>
+      <c r="GT38" s="0"/>
+      <c r="GU38" s="0"/>
+      <c r="GV38" s="0"/>
+      <c r="GW38" s="0"/>
+      <c r="GX38" s="0"/>
+      <c r="GY38" s="0"/>
+      <c r="GZ38" s="0"/>
+      <c r="HA38" s="0"/>
+      <c r="HB38" s="0"/>
+      <c r="HC38" s="0"/>
+      <c r="HD38" s="0"/>
+      <c r="HE38" s="0"/>
+      <c r="HF38" s="0"/>
+      <c r="HG38" s="0"/>
+      <c r="HH38" s="0"/>
+      <c r="HI38" s="0"/>
+      <c r="HJ38" s="0"/>
+      <c r="HK38" s="0"/>
+      <c r="HL38" s="0"/>
+      <c r="HM38" s="0"/>
+      <c r="HN38" s="0"/>
+      <c r="HO38" s="0"/>
+      <c r="HP38" s="0"/>
+      <c r="HQ38" s="0"/>
+      <c r="HR38" s="0"/>
+      <c r="HS38" s="0"/>
+      <c r="HT38" s="0"/>
+      <c r="HU38" s="0"/>
+      <c r="HV38" s="0"/>
+      <c r="HW38" s="0"/>
+      <c r="HX38" s="0"/>
+      <c r="HY38" s="0"/>
+      <c r="HZ38" s="0"/>
+      <c r="IA38" s="0"/>
+      <c r="IB38" s="0"/>
+      <c r="IC38" s="0"/>
+      <c r="ID38" s="0"/>
+      <c r="IE38" s="0"/>
+      <c r="IF38" s="0"/>
+      <c r="IG38" s="0"/>
+      <c r="IH38" s="0"/>
+      <c r="II38" s="0"/>
+      <c r="IJ38" s="0"/>
+      <c r="IK38" s="0"/>
+      <c r="IL38" s="0"/>
+      <c r="IM38" s="0"/>
+      <c r="IN38" s="0"/>
+      <c r="IO38" s="0"/>
+      <c r="IP38" s="0"/>
+      <c r="IQ38" s="0"/>
+      <c r="IR38" s="0"/>
+      <c r="IS38" s="0"/>
+      <c r="IT38" s="0"/>
+      <c r="IU38" s="0"/>
+      <c r="IV38" s="0"/>
+      <c r="IW38" s="0"/>
+      <c r="IX38" s="0"/>
+      <c r="IY38" s="0"/>
+      <c r="IZ38" s="0"/>
+      <c r="JA38" s="0"/>
+      <c r="JB38" s="0"/>
+      <c r="JC38" s="0"/>
+      <c r="JD38" s="0"/>
+      <c r="JE38" s="0"/>
+      <c r="JF38" s="0"/>
+      <c r="JG38" s="0"/>
+      <c r="JH38" s="0"/>
+      <c r="JI38" s="0"/>
+      <c r="JJ38" s="0"/>
+      <c r="JK38" s="0"/>
+      <c r="JL38" s="0"/>
+      <c r="JM38" s="0"/>
+      <c r="JN38" s="0"/>
+      <c r="JO38" s="0"/>
+      <c r="JP38" s="0"/>
+      <c r="JQ38" s="0"/>
+      <c r="JR38" s="0"/>
+      <c r="JS38" s="0"/>
+      <c r="JT38" s="0"/>
+      <c r="JU38" s="0"/>
+      <c r="JV38" s="0"/>
+      <c r="JW38" s="0"/>
+      <c r="JX38" s="0"/>
+      <c r="JY38" s="0"/>
+      <c r="JZ38" s="0"/>
+      <c r="KA38" s="0"/>
+      <c r="KB38" s="0"/>
+      <c r="KC38" s="0"/>
+      <c r="KD38" s="0"/>
+      <c r="KE38" s="0"/>
+      <c r="KF38" s="0"/>
+      <c r="KG38" s="0"/>
+      <c r="KH38" s="0"/>
+      <c r="KI38" s="0"/>
+      <c r="KJ38" s="0"/>
+      <c r="KK38" s="0"/>
+      <c r="KL38" s="0"/>
+      <c r="KM38" s="0"/>
+      <c r="KN38" s="0"/>
+      <c r="KO38" s="0"/>
+      <c r="KP38" s="0"/>
+      <c r="KQ38" s="0"/>
+      <c r="KR38" s="0"/>
+      <c r="KS38" s="0"/>
+      <c r="KT38" s="0"/>
+      <c r="KU38" s="0"/>
+      <c r="KV38" s="0"/>
+      <c r="KW38" s="0"/>
+      <c r="KX38" s="0"/>
+      <c r="KY38" s="0"/>
+      <c r="KZ38" s="0"/>
+      <c r="LA38" s="0"/>
+      <c r="LB38" s="0"/>
+      <c r="LC38" s="0"/>
+      <c r="LD38" s="0"/>
+      <c r="LE38" s="0"/>
+      <c r="LF38" s="0"/>
+      <c r="LG38" s="0"/>
+      <c r="LH38" s="0"/>
+      <c r="LI38" s="0"/>
+      <c r="LJ38" s="0"/>
+      <c r="LK38" s="0"/>
+      <c r="LL38" s="0"/>
+      <c r="LM38" s="0"/>
+      <c r="LN38" s="0"/>
+      <c r="LO38" s="0"/>
+      <c r="LP38" s="0"/>
+      <c r="LQ38" s="0"/>
+      <c r="LR38" s="0"/>
+      <c r="LS38" s="0"/>
+      <c r="LT38" s="0"/>
+      <c r="LU38" s="0"/>
+      <c r="LV38" s="0"/>
+      <c r="LW38" s="0"/>
+      <c r="LX38" s="0"/>
+      <c r="LY38" s="0"/>
+      <c r="LZ38" s="0"/>
+      <c r="MA38" s="0"/>
+      <c r="MB38" s="0"/>
+      <c r="MC38" s="0"/>
+      <c r="MD38" s="0"/>
+      <c r="ME38" s="0"/>
+      <c r="MF38" s="0"/>
+      <c r="MG38" s="0"/>
+      <c r="MH38" s="0"/>
+      <c r="MI38" s="0"/>
+      <c r="MJ38" s="0"/>
+      <c r="MK38" s="0"/>
+      <c r="ML38" s="0"/>
+      <c r="MM38" s="0"/>
+      <c r="MN38" s="0"/>
+      <c r="MO38" s="0"/>
+      <c r="MP38" s="0"/>
+      <c r="MQ38" s="0"/>
+      <c r="MR38" s="0"/>
+      <c r="MS38" s="0"/>
+      <c r="MT38" s="0"/>
+      <c r="MU38" s="0"/>
+      <c r="MV38" s="0"/>
+      <c r="MW38" s="0"/>
+      <c r="MX38" s="0"/>
+      <c r="MY38" s="0"/>
+      <c r="MZ38" s="0"/>
+      <c r="NA38" s="0"/>
+      <c r="NB38" s="0"/>
+      <c r="NC38" s="0"/>
+      <c r="ND38" s="0"/>
+      <c r="NE38" s="0"/>
+      <c r="NF38" s="0"/>
+      <c r="NG38" s="0"/>
+      <c r="NH38" s="0"/>
+      <c r="NI38" s="0"/>
+      <c r="NJ38" s="0"/>
+      <c r="NK38" s="0"/>
+      <c r="NL38" s="0"/>
+      <c r="NM38" s="0"/>
+      <c r="NN38" s="0"/>
+      <c r="NO38" s="0"/>
+      <c r="NP38" s="0"/>
+      <c r="NQ38" s="0"/>
+      <c r="NR38" s="0"/>
+      <c r="NS38" s="0"/>
+      <c r="NT38" s="0"/>
+      <c r="NU38" s="0"/>
+      <c r="NV38" s="0"/>
+      <c r="NW38" s="0"/>
+      <c r="NX38" s="0"/>
+      <c r="NY38" s="0"/>
+      <c r="NZ38" s="0"/>
+      <c r="OA38" s="0"/>
+      <c r="OB38" s="0"/>
+      <c r="OC38" s="0"/>
+      <c r="OD38" s="0"/>
+      <c r="OE38" s="0"/>
+      <c r="OF38" s="0"/>
+      <c r="OG38" s="0"/>
+      <c r="OH38" s="0"/>
+      <c r="OI38" s="0"/>
+      <c r="OJ38" s="0"/>
+      <c r="OK38" s="0"/>
+      <c r="OL38" s="0"/>
+      <c r="OM38" s="0"/>
+      <c r="ON38" s="0"/>
+      <c r="OO38" s="0"/>
+      <c r="OP38" s="0"/>
+      <c r="OQ38" s="0"/>
+      <c r="OR38" s="0"/>
+      <c r="OS38" s="0"/>
+      <c r="OT38" s="0"/>
+      <c r="OU38" s="0"/>
+      <c r="OV38" s="0"/>
+      <c r="OW38" s="0"/>
+      <c r="OX38" s="0"/>
+      <c r="OY38" s="0"/>
+      <c r="OZ38" s="0"/>
+      <c r="PA38" s="0"/>
+      <c r="PB38" s="0"/>
+      <c r="PC38" s="0"/>
+      <c r="PD38" s="0"/>
+      <c r="PE38" s="0"/>
+      <c r="PF38" s="0"/>
+      <c r="PG38" s="0"/>
+      <c r="PH38" s="0"/>
+      <c r="PI38" s="0"/>
+      <c r="PJ38" s="0"/>
+      <c r="PK38" s="0"/>
+      <c r="PL38" s="0"/>
+      <c r="PM38" s="0"/>
+      <c r="PN38" s="0"/>
+      <c r="PO38" s="0"/>
+      <c r="PP38" s="0"/>
+      <c r="PQ38" s="0"/>
+      <c r="PR38" s="0"/>
+      <c r="PS38" s="0"/>
+      <c r="PT38" s="0"/>
+      <c r="PU38" s="0"/>
+      <c r="PV38" s="0"/>
+      <c r="PW38" s="0"/>
+      <c r="PX38" s="0"/>
+      <c r="PY38" s="0"/>
+      <c r="PZ38" s="0"/>
+      <c r="QA38" s="0"/>
+      <c r="QB38" s="0"/>
+      <c r="QC38" s="0"/>
+      <c r="QD38" s="0"/>
+      <c r="QE38" s="0"/>
+      <c r="QF38" s="0"/>
+      <c r="QG38" s="0"/>
+      <c r="QH38" s="0"/>
+      <c r="QI38" s="0"/>
+      <c r="QJ38" s="0"/>
+      <c r="QK38" s="0"/>
+      <c r="QL38" s="0"/>
+      <c r="QM38" s="0"/>
+      <c r="QN38" s="0"/>
+      <c r="QO38" s="0"/>
+      <c r="QP38" s="0"/>
+      <c r="QQ38" s="0"/>
+      <c r="QR38" s="0"/>
+      <c r="QS38" s="0"/>
+      <c r="QT38" s="0"/>
+      <c r="QU38" s="0"/>
+      <c r="QV38" s="0"/>
+      <c r="QW38" s="0"/>
+      <c r="QX38" s="0"/>
+      <c r="QY38" s="0"/>
+      <c r="QZ38" s="0"/>
+      <c r="RA38" s="0"/>
+      <c r="RB38" s="0"/>
+      <c r="RC38" s="0"/>
+      <c r="RD38" s="0"/>
+      <c r="RE38" s="0"/>
+      <c r="RF38" s="0"/>
+      <c r="RG38" s="0"/>
+      <c r="RH38" s="0"/>
+      <c r="RI38" s="0"/>
+      <c r="RJ38" s="0"/>
+      <c r="RK38" s="0"/>
+      <c r="RL38" s="0"/>
+      <c r="RM38" s="0"/>
+      <c r="RN38" s="0"/>
+      <c r="RO38" s="0"/>
+      <c r="RP38" s="0"/>
+      <c r="RQ38" s="0"/>
+      <c r="RR38" s="0"/>
+      <c r="RS38" s="0"/>
+      <c r="RT38" s="0"/>
+      <c r="RU38" s="0"/>
+      <c r="RV38" s="0"/>
+      <c r="RW38" s="0"/>
+      <c r="RX38" s="0"/>
+      <c r="RY38" s="0"/>
+      <c r="RZ38" s="0"/>
+      <c r="SA38" s="0"/>
+      <c r="SB38" s="0"/>
+      <c r="SC38" s="0"/>
+      <c r="SD38" s="0"/>
+      <c r="SE38" s="0"/>
+      <c r="SF38" s="0"/>
+      <c r="SG38" s="0"/>
+      <c r="SH38" s="0"/>
+      <c r="SI38" s="0"/>
+      <c r="SJ38" s="0"/>
+      <c r="SK38" s="0"/>
+      <c r="SL38" s="0"/>
+      <c r="SM38" s="0"/>
+      <c r="SN38" s="0"/>
+      <c r="SO38" s="0"/>
+      <c r="SP38" s="0"/>
+      <c r="SQ38" s="0"/>
+      <c r="SR38" s="0"/>
+      <c r="SS38" s="0"/>
+      <c r="ST38" s="0"/>
+      <c r="SU38" s="0"/>
+      <c r="SV38" s="0"/>
+      <c r="SW38" s="0"/>
+      <c r="SX38" s="0"/>
+      <c r="SY38" s="0"/>
+      <c r="SZ38" s="0"/>
+      <c r="TA38" s="0"/>
+      <c r="TB38" s="0"/>
+      <c r="TC38" s="0"/>
+      <c r="TD38" s="0"/>
+      <c r="TE38" s="0"/>
+      <c r="TF38" s="0"/>
+      <c r="TG38" s="0"/>
+      <c r="TH38" s="0"/>
+      <c r="TI38" s="0"/>
+      <c r="TJ38" s="0"/>
+      <c r="TK38" s="0"/>
+      <c r="TL38" s="0"/>
+      <c r="TM38" s="0"/>
+      <c r="TN38" s="0"/>
+      <c r="TO38" s="0"/>
+      <c r="TP38" s="0"/>
+      <c r="TQ38" s="0"/>
+      <c r="TR38" s="0"/>
+      <c r="TS38" s="0"/>
+      <c r="TT38" s="0"/>
+      <c r="TU38" s="0"/>
+      <c r="TV38" s="0"/>
+      <c r="TW38" s="0"/>
+      <c r="TX38" s="0"/>
+      <c r="TY38" s="0"/>
+      <c r="TZ38" s="0"/>
+      <c r="UA38" s="0"/>
+      <c r="UB38" s="0"/>
+      <c r="UC38" s="0"/>
+      <c r="UD38" s="0"/>
+      <c r="UE38" s="0"/>
+      <c r="UF38" s="0"/>
+      <c r="UG38" s="0"/>
+      <c r="UH38" s="0"/>
+      <c r="UI38" s="0"/>
+      <c r="UJ38" s="0"/>
+      <c r="UK38" s="0"/>
+      <c r="UL38" s="0"/>
+      <c r="UM38" s="0"/>
+      <c r="UN38" s="0"/>
+      <c r="UO38" s="0"/>
+      <c r="UP38" s="0"/>
+      <c r="UQ38" s="0"/>
+      <c r="UR38" s="0"/>
+      <c r="US38" s="0"/>
+      <c r="UT38" s="0"/>
+      <c r="UU38" s="0"/>
+      <c r="UV38" s="0"/>
+      <c r="UW38" s="0"/>
+      <c r="UX38" s="0"/>
+      <c r="UY38" s="0"/>
+      <c r="UZ38" s="0"/>
+      <c r="VA38" s="0"/>
+      <c r="VB38" s="0"/>
+      <c r="VC38" s="0"/>
+      <c r="VD38" s="0"/>
+      <c r="VE38" s="0"/>
+      <c r="VF38" s="0"/>
+      <c r="VG38" s="0"/>
+      <c r="VH38" s="0"/>
+      <c r="VI38" s="0"/>
+      <c r="VJ38" s="0"/>
+      <c r="VK38" s="0"/>
+      <c r="VL38" s="0"/>
+      <c r="VM38" s="0"/>
+      <c r="VN38" s="0"/>
+      <c r="VO38" s="0"/>
+      <c r="VP38" s="0"/>
+      <c r="VQ38" s="0"/>
+      <c r="VR38" s="0"/>
+      <c r="VS38" s="0"/>
+      <c r="VT38" s="0"/>
+      <c r="VU38" s="0"/>
+      <c r="VV38" s="0"/>
+      <c r="VW38" s="0"/>
+      <c r="VX38" s="0"/>
+      <c r="VY38" s="0"/>
+      <c r="VZ38" s="0"/>
+      <c r="WA38" s="0"/>
+      <c r="WB38" s="0"/>
+      <c r="WC38" s="0"/>
+      <c r="WD38" s="0"/>
+      <c r="WE38" s="0"/>
+      <c r="WF38" s="0"/>
+      <c r="WG38" s="0"/>
+      <c r="WH38" s="0"/>
+      <c r="WI38" s="0"/>
+      <c r="WJ38" s="0"/>
+      <c r="WK38" s="0"/>
+      <c r="WL38" s="0"/>
+      <c r="WM38" s="0"/>
+      <c r="WN38" s="0"/>
+      <c r="WO38" s="0"/>
+      <c r="WP38" s="0"/>
+      <c r="WQ38" s="0"/>
+      <c r="WR38" s="0"/>
+      <c r="WS38" s="0"/>
+      <c r="WT38" s="0"/>
+      <c r="WU38" s="0"/>
+      <c r="WV38" s="0"/>
+      <c r="WW38" s="0"/>
+      <c r="WX38" s="0"/>
+      <c r="WY38" s="0"/>
+      <c r="WZ38" s="0"/>
+      <c r="XA38" s="0"/>
+      <c r="XB38" s="0"/>
+      <c r="XC38" s="0"/>
+      <c r="XD38" s="0"/>
+      <c r="XE38" s="0"/>
+      <c r="XF38" s="0"/>
+      <c r="XG38" s="0"/>
+      <c r="XH38" s="0"/>
+      <c r="XI38" s="0"/>
+      <c r="XJ38" s="0"/>
+      <c r="XK38" s="0"/>
+      <c r="XL38" s="0"/>
+      <c r="XM38" s="0"/>
+      <c r="XN38" s="0"/>
+      <c r="XO38" s="0"/>
+      <c r="XP38" s="0"/>
+      <c r="XQ38" s="0"/>
+      <c r="XR38" s="0"/>
+      <c r="XS38" s="0"/>
+      <c r="XT38" s="0"/>
+      <c r="XU38" s="0"/>
+      <c r="XV38" s="0"/>
+      <c r="XW38" s="0"/>
+      <c r="XX38" s="0"/>
+      <c r="XY38" s="0"/>
+      <c r="XZ38" s="0"/>
+      <c r="YA38" s="0"/>
+      <c r="YB38" s="0"/>
+      <c r="YC38" s="0"/>
+      <c r="YD38" s="0"/>
+      <c r="YE38" s="0"/>
+      <c r="YF38" s="0"/>
+      <c r="YG38" s="0"/>
+      <c r="YH38" s="0"/>
+      <c r="YI38" s="0"/>
+      <c r="YJ38" s="0"/>
+      <c r="YK38" s="0"/>
+      <c r="YL38" s="0"/>
+      <c r="YM38" s="0"/>
+      <c r="YN38" s="0"/>
+      <c r="YO38" s="0"/>
+      <c r="YP38" s="0"/>
+      <c r="YQ38" s="0"/>
+      <c r="YR38" s="0"/>
+      <c r="YS38" s="0"/>
+      <c r="YT38" s="0"/>
+      <c r="YU38" s="0"/>
+      <c r="YV38" s="0"/>
+      <c r="YW38" s="0"/>
+      <c r="YX38" s="0"/>
+      <c r="YY38" s="0"/>
+      <c r="YZ38" s="0"/>
+      <c r="ZA38" s="0"/>
+      <c r="ZB38" s="0"/>
+      <c r="ZC38" s="0"/>
+      <c r="ZD38" s="0"/>
+      <c r="ZE38" s="0"/>
+      <c r="ZF38" s="0"/>
+      <c r="ZG38" s="0"/>
+      <c r="ZH38" s="0"/>
+      <c r="ZI38" s="0"/>
+      <c r="ZJ38" s="0"/>
+      <c r="ZK38" s="0"/>
+      <c r="ZL38" s="0"/>
+      <c r="ZM38" s="0"/>
+      <c r="ZN38" s="0"/>
+      <c r="ZO38" s="0"/>
+      <c r="ZP38" s="0"/>
+      <c r="ZQ38" s="0"/>
+      <c r="ZR38" s="0"/>
+      <c r="ZS38" s="0"/>
+      <c r="ZT38" s="0"/>
+      <c r="ZU38" s="0"/>
+      <c r="ZV38" s="0"/>
+      <c r="ZW38" s="0"/>
+      <c r="ZX38" s="0"/>
+      <c r="ZY38" s="0"/>
+      <c r="ZZ38" s="0"/>
+      <c r="AAA38" s="0"/>
+      <c r="AAB38" s="0"/>
+      <c r="AAC38" s="0"/>
+      <c r="AAD38" s="0"/>
+      <c r="AAE38" s="0"/>
+      <c r="AAF38" s="0"/>
+      <c r="AAG38" s="0"/>
+      <c r="AAH38" s="0"/>
+      <c r="AAI38" s="0"/>
+      <c r="AAJ38" s="0"/>
+      <c r="AAK38" s="0"/>
+      <c r="AAL38" s="0"/>
+      <c r="AAM38" s="0"/>
+      <c r="AAN38" s="0"/>
+      <c r="AAO38" s="0"/>
+      <c r="AAP38" s="0"/>
+      <c r="AAQ38" s="0"/>
+      <c r="AAR38" s="0"/>
+      <c r="AAS38" s="0"/>
+      <c r="AAT38" s="0"/>
+      <c r="AAU38" s="0"/>
+      <c r="AAV38" s="0"/>
+      <c r="AAW38" s="0"/>
+      <c r="AAX38" s="0"/>
+      <c r="AAY38" s="0"/>
+      <c r="AAZ38" s="0"/>
+      <c r="ABA38" s="0"/>
+      <c r="ABB38" s="0"/>
+      <c r="ABC38" s="0"/>
+      <c r="ABD38" s="0"/>
+      <c r="ABE38" s="0"/>
+      <c r="ABF38" s="0"/>
+      <c r="ABG38" s="0"/>
+      <c r="ABH38" s="0"/>
+      <c r="ABI38" s="0"/>
+      <c r="ABJ38" s="0"/>
+      <c r="ABK38" s="0"/>
+      <c r="ABL38" s="0"/>
+      <c r="ABM38" s="0"/>
+      <c r="ABN38" s="0"/>
+      <c r="ABO38" s="0"/>
+      <c r="ABP38" s="0"/>
+      <c r="ABQ38" s="0"/>
+      <c r="ABR38" s="0"/>
+      <c r="ABS38" s="0"/>
+      <c r="ABT38" s="0"/>
+      <c r="ABU38" s="0"/>
+      <c r="ABV38" s="0"/>
+      <c r="ABW38" s="0"/>
+      <c r="ABX38" s="0"/>
+      <c r="ABY38" s="0"/>
+      <c r="ABZ38" s="0"/>
+      <c r="ACA38" s="0"/>
+      <c r="ACB38" s="0"/>
+      <c r="ACC38" s="0"/>
+      <c r="ACD38" s="0"/>
+      <c r="ACE38" s="0"/>
+      <c r="ACF38" s="0"/>
+      <c r="ACG38" s="0"/>
+      <c r="ACH38" s="0"/>
+      <c r="ACI38" s="0"/>
+      <c r="ACJ38" s="0"/>
+      <c r="ACK38" s="0"/>
+      <c r="ACL38" s="0"/>
+      <c r="ACM38" s="0"/>
+      <c r="ACN38" s="0"/>
+      <c r="ACO38" s="0"/>
+      <c r="ACP38" s="0"/>
+      <c r="ACQ38" s="0"/>
+      <c r="ACR38" s="0"/>
+      <c r="ACS38" s="0"/>
+      <c r="ACT38" s="0"/>
+      <c r="ACU38" s="0"/>
+      <c r="ACV38" s="0"/>
+      <c r="ACW38" s="0"/>
+      <c r="ACX38" s="0"/>
+      <c r="ACY38" s="0"/>
+      <c r="ACZ38" s="0"/>
+      <c r="ADA38" s="0"/>
+      <c r="ADB38" s="0"/>
+      <c r="ADC38" s="0"/>
+      <c r="ADD38" s="0"/>
+      <c r="ADE38" s="0"/>
+      <c r="ADF38" s="0"/>
+      <c r="ADG38" s="0"/>
+      <c r="ADH38" s="0"/>
+      <c r="ADI38" s="0"/>
+      <c r="ADJ38" s="0"/>
+      <c r="ADK38" s="0"/>
+      <c r="ADL38" s="0"/>
+      <c r="ADM38" s="0"/>
+      <c r="ADN38" s="0"/>
+      <c r="ADO38" s="0"/>
+      <c r="ADP38" s="0"/>
+      <c r="ADQ38" s="0"/>
+      <c r="ADR38" s="0"/>
+      <c r="ADS38" s="0"/>
+      <c r="ADT38" s="0"/>
+      <c r="ADU38" s="0"/>
+      <c r="ADV38" s="0"/>
+      <c r="ADW38" s="0"/>
+      <c r="ADX38" s="0"/>
+      <c r="ADY38" s="0"/>
+      <c r="ADZ38" s="0"/>
+      <c r="AEA38" s="0"/>
+      <c r="AEB38" s="0"/>
+      <c r="AEC38" s="0"/>
+      <c r="AED38" s="0"/>
+      <c r="AEE38" s="0"/>
+      <c r="AEF38" s="0"/>
+      <c r="AEG38" s="0"/>
+      <c r="AEH38" s="0"/>
+      <c r="AEI38" s="0"/>
+      <c r="AEJ38" s="0"/>
+      <c r="AEK38" s="0"/>
+      <c r="AEL38" s="0"/>
+      <c r="AEM38" s="0"/>
+      <c r="AEN38" s="0"/>
+      <c r="AEO38" s="0"/>
+      <c r="AEP38" s="0"/>
+      <c r="AEQ38" s="0"/>
+      <c r="AER38" s="0"/>
+      <c r="AES38" s="0"/>
+      <c r="AET38" s="0"/>
+      <c r="AEU38" s="0"/>
+      <c r="AEV38" s="0"/>
+      <c r="AEW38" s="0"/>
+      <c r="AEX38" s="0"/>
+      <c r="AEY38" s="0"/>
+      <c r="AEZ38" s="0"/>
+      <c r="AFA38" s="0"/>
+      <c r="AFB38" s="0"/>
+      <c r="AFC38" s="0"/>
+      <c r="AFD38" s="0"/>
+      <c r="AFE38" s="0"/>
+      <c r="AFF38" s="0"/>
+      <c r="AFG38" s="0"/>
+      <c r="AFH38" s="0"/>
+      <c r="AFI38" s="0"/>
+      <c r="AFJ38" s="0"/>
+      <c r="AFK38" s="0"/>
+      <c r="AFL38" s="0"/>
+      <c r="AFM38" s="0"/>
+      <c r="AFN38" s="0"/>
+      <c r="AFO38" s="0"/>
+      <c r="AFP38" s="0"/>
+      <c r="AFQ38" s="0"/>
+      <c r="AFR38" s="0"/>
+      <c r="AFS38" s="0"/>
+      <c r="AFT38" s="0"/>
+      <c r="AFU38" s="0"/>
+      <c r="AFV38" s="0"/>
+      <c r="AFW38" s="0"/>
+      <c r="AFX38" s="0"/>
+      <c r="AFY38" s="0"/>
+      <c r="AFZ38" s="0"/>
+      <c r="AGA38" s="0"/>
+      <c r="AGB38" s="0"/>
+      <c r="AGC38" s="0"/>
+      <c r="AGD38" s="0"/>
+      <c r="AGE38" s="0"/>
+      <c r="AGF38" s="0"/>
+      <c r="AGG38" s="0"/>
+      <c r="AGH38" s="0"/>
+      <c r="AGI38" s="0"/>
+      <c r="AGJ38" s="0"/>
+      <c r="AGK38" s="0"/>
+      <c r="AGL38" s="0"/>
+      <c r="AGM38" s="0"/>
+      <c r="AGN38" s="0"/>
+      <c r="AGO38" s="0"/>
+      <c r="AGP38" s="0"/>
+      <c r="AGQ38" s="0"/>
+      <c r="AGR38" s="0"/>
+      <c r="AGS38" s="0"/>
+      <c r="AGT38" s="0"/>
+      <c r="AGU38" s="0"/>
+      <c r="AGV38" s="0"/>
+      <c r="AGW38" s="0"/>
+      <c r="AGX38" s="0"/>
+      <c r="AGY38" s="0"/>
+      <c r="AGZ38" s="0"/>
+      <c r="AHA38" s="0"/>
+      <c r="AHB38" s="0"/>
+      <c r="AHC38" s="0"/>
+      <c r="AHD38" s="0"/>
+      <c r="AHE38" s="0"/>
+      <c r="AHF38" s="0"/>
+      <c r="AHG38" s="0"/>
+      <c r="AHH38" s="0"/>
+      <c r="AHI38" s="0"/>
+      <c r="AHJ38" s="0"/>
+      <c r="AHK38" s="0"/>
+      <c r="AHL38" s="0"/>
+      <c r="AHM38" s="0"/>
+      <c r="AHN38" s="0"/>
+      <c r="AHO38" s="0"/>
+      <c r="AHP38" s="0"/>
+      <c r="AHQ38" s="0"/>
+      <c r="AHR38" s="0"/>
+      <c r="AHS38" s="0"/>
+      <c r="AHT38" s="0"/>
+      <c r="AHU38" s="0"/>
+      <c r="AHV38" s="0"/>
+      <c r="AHW38" s="0"/>
+      <c r="AHX38" s="0"/>
+      <c r="AHY38" s="0"/>
+      <c r="AHZ38" s="0"/>
+      <c r="AIA38" s="0"/>
+      <c r="AIB38" s="0"/>
+      <c r="AIC38" s="0"/>
+      <c r="AID38" s="0"/>
+      <c r="AIE38" s="0"/>
+      <c r="AIF38" s="0"/>
+      <c r="AIG38" s="0"/>
+      <c r="AIH38" s="0"/>
+      <c r="AII38" s="0"/>
+      <c r="AIJ38" s="0"/>
+      <c r="AIK38" s="0"/>
+      <c r="AIL38" s="0"/>
+      <c r="AIM38" s="0"/>
+      <c r="AIN38" s="0"/>
+      <c r="AIO38" s="0"/>
+      <c r="AIP38" s="0"/>
+      <c r="AIQ38" s="0"/>
+      <c r="AIR38" s="0"/>
+      <c r="AIS38" s="0"/>
+      <c r="AIT38" s="0"/>
+      <c r="AIU38" s="0"/>
+      <c r="AIV38" s="0"/>
+      <c r="AIW38" s="0"/>
+      <c r="AIX38" s="0"/>
+      <c r="AIY38" s="0"/>
+      <c r="AIZ38" s="0"/>
+      <c r="AJA38" s="0"/>
+      <c r="AJB38" s="0"/>
+      <c r="AJC38" s="0"/>
+      <c r="AJD38" s="0"/>
+      <c r="AJE38" s="0"/>
+      <c r="AJF38" s="0"/>
+      <c r="AJG38" s="0"/>
+      <c r="AJH38" s="0"/>
+      <c r="AJI38" s="0"/>
+      <c r="AJJ38" s="0"/>
+      <c r="AJK38" s="0"/>
+      <c r="AJL38" s="0"/>
+      <c r="AJM38" s="0"/>
+      <c r="AJN38" s="0"/>
+      <c r="AJO38" s="0"/>
+      <c r="AJP38" s="0"/>
+      <c r="AJQ38" s="0"/>
+      <c r="AJR38" s="0"/>
+      <c r="AJS38" s="0"/>
+      <c r="AJT38" s="0"/>
+      <c r="AJU38" s="0"/>
+      <c r="AJV38" s="0"/>
+      <c r="AJW38" s="0"/>
+      <c r="AJX38" s="0"/>
+      <c r="AJY38" s="0"/>
+      <c r="AJZ38" s="0"/>
+      <c r="AKA38" s="0"/>
+      <c r="AKB38" s="0"/>
+      <c r="AKC38" s="0"/>
+      <c r="AKD38" s="0"/>
+      <c r="AKE38" s="0"/>
+      <c r="AKF38" s="0"/>
+      <c r="AKG38" s="0"/>
+      <c r="AKH38" s="0"/>
+      <c r="AKI38" s="0"/>
+      <c r="AKJ38" s="0"/>
+      <c r="AKK38" s="0"/>
+      <c r="AKL38" s="0"/>
+      <c r="AKM38" s="0"/>
+      <c r="AKN38" s="0"/>
+      <c r="AKO38" s="0"/>
+      <c r="AKP38" s="0"/>
+      <c r="AKQ38" s="0"/>
+      <c r="AKR38" s="0"/>
+      <c r="AKS38" s="0"/>
+      <c r="AKT38" s="0"/>
+      <c r="AKU38" s="0"/>
+      <c r="AKV38" s="0"/>
+      <c r="AKW38" s="0"/>
+      <c r="AKX38" s="0"/>
+      <c r="AKY38" s="0"/>
+      <c r="AKZ38" s="0"/>
+      <c r="ALA38" s="0"/>
+      <c r="ALB38" s="0"/>
+      <c r="ALC38" s="0"/>
+      <c r="ALD38" s="0"/>
+      <c r="ALE38" s="0"/>
+      <c r="ALF38" s="0"/>
+      <c r="ALG38" s="0"/>
+      <c r="ALH38" s="0"/>
+      <c r="ALI38" s="0"/>
+      <c r="ALJ38" s="0"/>
+      <c r="ALK38" s="0"/>
+      <c r="ALL38" s="0"/>
+      <c r="ALM38" s="0"/>
+      <c r="ALN38" s="0"/>
+      <c r="ALO38" s="0"/>
+      <c r="ALP38" s="0"/>
+      <c r="ALQ38" s="0"/>
+      <c r="ALR38" s="0"/>
+      <c r="ALS38" s="0"/>
+      <c r="ALT38" s="0"/>
+      <c r="ALU38" s="0"/>
+      <c r="ALV38" s="0"/>
+      <c r="ALW38" s="0"/>
+      <c r="ALX38" s="0"/>
+      <c r="ALY38" s="0"/>
+      <c r="ALZ38" s="0"/>
+      <c r="AMA38" s="0"/>
+      <c r="AMB38" s="0"/>
+      <c r="AMC38" s="0"/>
+      <c r="AMD38" s="0"/>
+      <c r="AME38" s="0"/>
+      <c r="AMF38" s="0"/>
+      <c r="AMG38" s="0"/>
+      <c r="AMH38" s="0"/>
+      <c r="AMI38" s="0"/>
+      <c r="AMJ38" s="0"/>
     </row>
-    <row r="39" s="56" customFormat="true" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="49" t="n">
+    <row r="39" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="36" t="n">
         <v>55561</v>
       </c>
-      <c r="B39" s="50" t="n">
+      <c r="B39" s="49" t="n">
         <v>2</v>
       </c>
-      <c r="C39" s="51" t="s">
+      <c r="C39" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="D39" s="51" t="s">
+      <c r="D39" s="38" t="s">
         <v>266</v>
       </c>
-      <c r="E39" s="52" t="s">
+      <c r="E39" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="F39" s="52" t="s">
+      <c r="F39" s="39" t="s">
         <v>267</v>
       </c>
-      <c r="G39" s="52" t="s">
+      <c r="G39" s="39" t="s">
         <v>268</v>
       </c>
-      <c r="H39" s="53" t="n">
+      <c r="H39" s="40" t="n">
         <v>37232</v>
       </c>
-      <c r="I39" s="53" t="n">
+      <c r="I39" s="40" t="n">
         <v>37232</v>
       </c>
-      <c r="J39" s="54" t="n">
+      <c r="J39" s="41" t="n">
         <v>43732</v>
       </c>
-      <c r="K39" s="55" t="n">
+      <c r="K39" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="L39" s="49" t="s">
+      <c r="L39" s="36" t="s">
         <v>269</v>
       </c>
-      <c r="M39" s="51" t="s">
+      <c r="M39" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="N39" s="52" t="s">
+      <c r="N39" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="O39" s="52" t="s">
+      <c r="O39" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="P39" s="52" t="s">
+      <c r="P39" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="Q39" s="51" t="s">
+      <c r="Q39" s="38" t="s">
         <v>270</v>
       </c>
-      <c r="R39" s="51" t="s">
+      <c r="R39" s="38" t="s">
         <v>271</v>
       </c>
-      <c r="S39" s="51" t="s">
+      <c r="S39" s="38" t="s">
         <v>272</v>
       </c>
-      <c r="T39" s="51"/>
-      <c r="U39" s="52"/>
-      <c r="V39" s="51"/>
-      <c r="W39" s="52" t="s">
+      <c r="T39" s="38"/>
+      <c r="U39" s="39"/>
+      <c r="V39" s="38"/>
+      <c r="W39" s="39" t="s">
         <v>273</v>
       </c>
+      <c r="Y39" s="0"/>
+      <c r="Z39" s="0"/>
+      <c r="AA39" s="0"/>
+      <c r="AB39" s="0"/>
+      <c r="AC39" s="0"/>
+      <c r="AD39" s="0"/>
+      <c r="AE39" s="0"/>
+      <c r="AF39" s="0"/>
+      <c r="AG39" s="0"/>
+      <c r="AH39" s="0"/>
+      <c r="AI39" s="0"/>
+      <c r="AJ39" s="0"/>
+      <c r="AK39" s="0"/>
+      <c r="AL39" s="0"/>
+      <c r="AM39" s="0"/>
+      <c r="AN39" s="0"/>
+      <c r="AO39" s="0"/>
+      <c r="AP39" s="0"/>
+      <c r="AQ39" s="0"/>
+      <c r="AR39" s="0"/>
+      <c r="AS39" s="0"/>
+      <c r="AT39" s="0"/>
+      <c r="AU39" s="0"/>
+      <c r="AV39" s="0"/>
+      <c r="AW39" s="0"/>
+      <c r="AX39" s="0"/>
+      <c r="AY39" s="0"/>
+      <c r="AZ39" s="0"/>
+      <c r="BA39" s="0"/>
+      <c r="BB39" s="0"/>
+      <c r="BC39" s="0"/>
+      <c r="BD39" s="0"/>
+      <c r="BE39" s="0"/>
+      <c r="BF39" s="0"/>
+      <c r="BG39" s="0"/>
+      <c r="BH39" s="0"/>
+      <c r="BI39" s="0"/>
+      <c r="BJ39" s="0"/>
+      <c r="BK39" s="0"/>
+      <c r="BL39" s="0"/>
+      <c r="BM39" s="0"/>
+      <c r="BN39" s="0"/>
+      <c r="BO39" s="0"/>
+      <c r="BP39" s="0"/>
+      <c r="BQ39" s="0"/>
+      <c r="BR39" s="0"/>
+      <c r="BS39" s="0"/>
+      <c r="BT39" s="0"/>
+      <c r="BU39" s="0"/>
+      <c r="BV39" s="0"/>
+      <c r="BW39" s="0"/>
+      <c r="BX39" s="0"/>
+      <c r="BY39" s="0"/>
+      <c r="BZ39" s="0"/>
+      <c r="CA39" s="0"/>
+      <c r="CB39" s="0"/>
+      <c r="CC39" s="0"/>
+      <c r="CD39" s="0"/>
+      <c r="CE39" s="0"/>
+      <c r="CF39" s="0"/>
+      <c r="CG39" s="0"/>
+      <c r="CH39" s="0"/>
+      <c r="CI39" s="0"/>
+      <c r="CJ39" s="0"/>
+      <c r="CK39" s="0"/>
+      <c r="CL39" s="0"/>
+      <c r="CM39" s="0"/>
+      <c r="CN39" s="0"/>
+      <c r="CO39" s="0"/>
+      <c r="CP39" s="0"/>
+      <c r="CQ39" s="0"/>
+      <c r="CR39" s="0"/>
+      <c r="CS39" s="0"/>
+      <c r="CT39" s="0"/>
+      <c r="CU39" s="0"/>
+      <c r="CV39" s="0"/>
+      <c r="CW39" s="0"/>
+      <c r="CX39" s="0"/>
+      <c r="CY39" s="0"/>
+      <c r="CZ39" s="0"/>
+      <c r="DA39" s="0"/>
+      <c r="DB39" s="0"/>
+      <c r="DC39" s="0"/>
+      <c r="DD39" s="0"/>
+      <c r="DE39" s="0"/>
+      <c r="DF39" s="0"/>
+      <c r="DG39" s="0"/>
+      <c r="DH39" s="0"/>
+      <c r="DI39" s="0"/>
+      <c r="DJ39" s="0"/>
+      <c r="DK39" s="0"/>
+      <c r="DL39" s="0"/>
+      <c r="DM39" s="0"/>
+      <c r="DN39" s="0"/>
+      <c r="DO39" s="0"/>
+      <c r="DP39" s="0"/>
+      <c r="DQ39" s="0"/>
+      <c r="DR39" s="0"/>
+      <c r="DS39" s="0"/>
+      <c r="DT39" s="0"/>
+      <c r="DU39" s="0"/>
+      <c r="DV39" s="0"/>
+      <c r="DW39" s="0"/>
+      <c r="DX39" s="0"/>
+      <c r="DY39" s="0"/>
+      <c r="DZ39" s="0"/>
+      <c r="EA39" s="0"/>
+      <c r="EB39" s="0"/>
+      <c r="EC39" s="0"/>
+      <c r="ED39" s="0"/>
+      <c r="EE39" s="0"/>
+      <c r="EF39" s="0"/>
+      <c r="EG39" s="0"/>
+      <c r="EH39" s="0"/>
+      <c r="EI39" s="0"/>
+      <c r="EJ39" s="0"/>
+      <c r="EK39" s="0"/>
+      <c r="EL39" s="0"/>
+      <c r="EM39" s="0"/>
+      <c r="EN39" s="0"/>
+      <c r="EO39" s="0"/>
+      <c r="EP39" s="0"/>
+      <c r="EQ39" s="0"/>
+      <c r="ER39" s="0"/>
+      <c r="ES39" s="0"/>
+      <c r="ET39" s="0"/>
+      <c r="EU39" s="0"/>
+      <c r="EV39" s="0"/>
+      <c r="EW39" s="0"/>
+      <c r="EX39" s="0"/>
+      <c r="EY39" s="0"/>
+      <c r="EZ39" s="0"/>
+      <c r="FA39" s="0"/>
+      <c r="FB39" s="0"/>
+      <c r="FC39" s="0"/>
+      <c r="FD39" s="0"/>
+      <c r="FE39" s="0"/>
+      <c r="FF39" s="0"/>
+      <c r="FG39" s="0"/>
+      <c r="FH39" s="0"/>
+      <c r="FI39" s="0"/>
+      <c r="FJ39" s="0"/>
+      <c r="FK39" s="0"/>
+      <c r="FL39" s="0"/>
+      <c r="FM39" s="0"/>
+      <c r="FN39" s="0"/>
+      <c r="FO39" s="0"/>
+      <c r="FP39" s="0"/>
+      <c r="FQ39" s="0"/>
+      <c r="FR39" s="0"/>
+      <c r="FS39" s="0"/>
+      <c r="FT39" s="0"/>
+      <c r="FU39" s="0"/>
+      <c r="FV39" s="0"/>
+      <c r="FW39" s="0"/>
+      <c r="FX39" s="0"/>
+      <c r="FY39" s="0"/>
+      <c r="FZ39" s="0"/>
+      <c r="GA39" s="0"/>
+      <c r="GB39" s="0"/>
+      <c r="GC39" s="0"/>
+      <c r="GD39" s="0"/>
+      <c r="GE39" s="0"/>
+      <c r="GF39" s="0"/>
+      <c r="GG39" s="0"/>
+      <c r="GH39" s="0"/>
+      <c r="GI39" s="0"/>
+      <c r="GJ39" s="0"/>
+      <c r="GK39" s="0"/>
+      <c r="GL39" s="0"/>
+      <c r="GM39" s="0"/>
+      <c r="GN39" s="0"/>
+      <c r="GO39" s="0"/>
+      <c r="GP39" s="0"/>
+      <c r="GQ39" s="0"/>
+      <c r="GR39" s="0"/>
+      <c r="GS39" s="0"/>
+      <c r="GT39" s="0"/>
+      <c r="GU39" s="0"/>
+      <c r="GV39" s="0"/>
+      <c r="GW39" s="0"/>
+      <c r="GX39" s="0"/>
+      <c r="GY39" s="0"/>
+      <c r="GZ39" s="0"/>
+      <c r="HA39" s="0"/>
+      <c r="HB39" s="0"/>
+      <c r="HC39" s="0"/>
+      <c r="HD39" s="0"/>
+      <c r="HE39" s="0"/>
+      <c r="HF39" s="0"/>
+      <c r="HG39" s="0"/>
+      <c r="HH39" s="0"/>
+      <c r="HI39" s="0"/>
+      <c r="HJ39" s="0"/>
+      <c r="HK39" s="0"/>
+      <c r="HL39" s="0"/>
+      <c r="HM39" s="0"/>
+      <c r="HN39" s="0"/>
+      <c r="HO39" s="0"/>
+      <c r="HP39" s="0"/>
+      <c r="HQ39" s="0"/>
+      <c r="HR39" s="0"/>
+      <c r="HS39" s="0"/>
+      <c r="HT39" s="0"/>
+      <c r="HU39" s="0"/>
+      <c r="HV39" s="0"/>
+      <c r="HW39" s="0"/>
+      <c r="HX39" s="0"/>
+      <c r="HY39" s="0"/>
+      <c r="HZ39" s="0"/>
+      <c r="IA39" s="0"/>
+      <c r="IB39" s="0"/>
+      <c r="IC39" s="0"/>
+      <c r="ID39" s="0"/>
+      <c r="IE39" s="0"/>
+      <c r="IF39" s="0"/>
+      <c r="IG39" s="0"/>
+      <c r="IH39" s="0"/>
+      <c r="II39" s="0"/>
+      <c r="IJ39" s="0"/>
+      <c r="IK39" s="0"/>
+      <c r="IL39" s="0"/>
+      <c r="IM39" s="0"/>
+      <c r="IN39" s="0"/>
+      <c r="IO39" s="0"/>
+      <c r="IP39" s="0"/>
+      <c r="IQ39" s="0"/>
+      <c r="IR39" s="0"/>
+      <c r="IS39" s="0"/>
+      <c r="IT39" s="0"/>
+      <c r="IU39" s="0"/>
+      <c r="IV39" s="0"/>
+      <c r="IW39" s="0"/>
+      <c r="IX39" s="0"/>
+      <c r="IY39" s="0"/>
+      <c r="IZ39" s="0"/>
+      <c r="JA39" s="0"/>
+      <c r="JB39" s="0"/>
+      <c r="JC39" s="0"/>
+      <c r="JD39" s="0"/>
+      <c r="JE39" s="0"/>
+      <c r="JF39" s="0"/>
+      <c r="JG39" s="0"/>
+      <c r="JH39" s="0"/>
+      <c r="JI39" s="0"/>
+      <c r="JJ39" s="0"/>
+      <c r="JK39" s="0"/>
+      <c r="JL39" s="0"/>
+      <c r="JM39" s="0"/>
+      <c r="JN39" s="0"/>
+      <c r="JO39" s="0"/>
+      <c r="JP39" s="0"/>
+      <c r="JQ39" s="0"/>
+      <c r="JR39" s="0"/>
+      <c r="JS39" s="0"/>
+      <c r="JT39" s="0"/>
+      <c r="JU39" s="0"/>
+      <c r="JV39" s="0"/>
+      <c r="JW39" s="0"/>
+      <c r="JX39" s="0"/>
+      <c r="JY39" s="0"/>
+      <c r="JZ39" s="0"/>
+      <c r="KA39" s="0"/>
+      <c r="KB39" s="0"/>
+      <c r="KC39" s="0"/>
+      <c r="KD39" s="0"/>
+      <c r="KE39" s="0"/>
+      <c r="KF39" s="0"/>
+      <c r="KG39" s="0"/>
+      <c r="KH39" s="0"/>
+      <c r="KI39" s="0"/>
+      <c r="KJ39" s="0"/>
+      <c r="KK39" s="0"/>
+      <c r="KL39" s="0"/>
+      <c r="KM39" s="0"/>
+      <c r="KN39" s="0"/>
+      <c r="KO39" s="0"/>
+      <c r="KP39" s="0"/>
+      <c r="KQ39" s="0"/>
+      <c r="KR39" s="0"/>
+      <c r="KS39" s="0"/>
+      <c r="KT39" s="0"/>
+      <c r="KU39" s="0"/>
+      <c r="KV39" s="0"/>
+      <c r="KW39" s="0"/>
+      <c r="KX39" s="0"/>
+      <c r="KY39" s="0"/>
+      <c r="KZ39" s="0"/>
+      <c r="LA39" s="0"/>
+      <c r="LB39" s="0"/>
+      <c r="LC39" s="0"/>
+      <c r="LD39" s="0"/>
+      <c r="LE39" s="0"/>
+      <c r="LF39" s="0"/>
+      <c r="LG39" s="0"/>
+      <c r="LH39" s="0"/>
+      <c r="LI39" s="0"/>
+      <c r="LJ39" s="0"/>
+      <c r="LK39" s="0"/>
+      <c r="LL39" s="0"/>
+      <c r="LM39" s="0"/>
+      <c r="LN39" s="0"/>
+      <c r="LO39" s="0"/>
+      <c r="LP39" s="0"/>
+      <c r="LQ39" s="0"/>
+      <c r="LR39" s="0"/>
+      <c r="LS39" s="0"/>
+      <c r="LT39" s="0"/>
+      <c r="LU39" s="0"/>
+      <c r="LV39" s="0"/>
+      <c r="LW39" s="0"/>
+      <c r="LX39" s="0"/>
+      <c r="LY39" s="0"/>
+      <c r="LZ39" s="0"/>
+      <c r="MA39" s="0"/>
+      <c r="MB39" s="0"/>
+      <c r="MC39" s="0"/>
+      <c r="MD39" s="0"/>
+      <c r="ME39" s="0"/>
+      <c r="MF39" s="0"/>
+      <c r="MG39" s="0"/>
+      <c r="MH39" s="0"/>
+      <c r="MI39" s="0"/>
+      <c r="MJ39" s="0"/>
+      <c r="MK39" s="0"/>
+      <c r="ML39" s="0"/>
+      <c r="MM39" s="0"/>
+      <c r="MN39" s="0"/>
+      <c r="MO39" s="0"/>
+      <c r="MP39" s="0"/>
+      <c r="MQ39" s="0"/>
+      <c r="MR39" s="0"/>
+      <c r="MS39" s="0"/>
+      <c r="MT39" s="0"/>
+      <c r="MU39" s="0"/>
+      <c r="MV39" s="0"/>
+      <c r="MW39" s="0"/>
+      <c r="MX39" s="0"/>
+      <c r="MY39" s="0"/>
+      <c r="MZ39" s="0"/>
+      <c r="NA39" s="0"/>
+      <c r="NB39" s="0"/>
+      <c r="NC39" s="0"/>
+      <c r="ND39" s="0"/>
+      <c r="NE39" s="0"/>
+      <c r="NF39" s="0"/>
+      <c r="NG39" s="0"/>
+      <c r="NH39" s="0"/>
+      <c r="NI39" s="0"/>
+      <c r="NJ39" s="0"/>
+      <c r="NK39" s="0"/>
+      <c r="NL39" s="0"/>
+      <c r="NM39" s="0"/>
+      <c r="NN39" s="0"/>
+      <c r="NO39" s="0"/>
+      <c r="NP39" s="0"/>
+      <c r="NQ39" s="0"/>
+      <c r="NR39" s="0"/>
+      <c r="NS39" s="0"/>
+      <c r="NT39" s="0"/>
+      <c r="NU39" s="0"/>
+      <c r="NV39" s="0"/>
+      <c r="NW39" s="0"/>
+      <c r="NX39" s="0"/>
+      <c r="NY39" s="0"/>
+      <c r="NZ39" s="0"/>
+      <c r="OA39" s="0"/>
+      <c r="OB39" s="0"/>
+      <c r="OC39" s="0"/>
+      <c r="OD39" s="0"/>
+      <c r="OE39" s="0"/>
+      <c r="OF39" s="0"/>
+      <c r="OG39" s="0"/>
+      <c r="OH39" s="0"/>
+      <c r="OI39" s="0"/>
+      <c r="OJ39" s="0"/>
+      <c r="OK39" s="0"/>
+      <c r="OL39" s="0"/>
+      <c r="OM39" s="0"/>
+      <c r="ON39" s="0"/>
+      <c r="OO39" s="0"/>
+      <c r="OP39" s="0"/>
+      <c r="OQ39" s="0"/>
+      <c r="OR39" s="0"/>
+      <c r="OS39" s="0"/>
+      <c r="OT39" s="0"/>
+      <c r="OU39" s="0"/>
+      <c r="OV39" s="0"/>
+      <c r="OW39" s="0"/>
+      <c r="OX39" s="0"/>
+      <c r="OY39" s="0"/>
+      <c r="OZ39" s="0"/>
+      <c r="PA39" s="0"/>
+      <c r="PB39" s="0"/>
+      <c r="PC39" s="0"/>
+      <c r="PD39" s="0"/>
+      <c r="PE39" s="0"/>
+      <c r="PF39" s="0"/>
+      <c r="PG39" s="0"/>
+      <c r="PH39" s="0"/>
+      <c r="PI39" s="0"/>
+      <c r="PJ39" s="0"/>
+      <c r="PK39" s="0"/>
+      <c r="PL39" s="0"/>
+      <c r="PM39" s="0"/>
+      <c r="PN39" s="0"/>
+      <c r="PO39" s="0"/>
+      <c r="PP39" s="0"/>
+      <c r="PQ39" s="0"/>
+      <c r="PR39" s="0"/>
+      <c r="PS39" s="0"/>
+      <c r="PT39" s="0"/>
+      <c r="PU39" s="0"/>
+      <c r="PV39" s="0"/>
+      <c r="PW39" s="0"/>
+      <c r="PX39" s="0"/>
+      <c r="PY39" s="0"/>
+      <c r="PZ39" s="0"/>
+      <c r="QA39" s="0"/>
+      <c r="QB39" s="0"/>
+      <c r="QC39" s="0"/>
+      <c r="QD39" s="0"/>
+      <c r="QE39" s="0"/>
+      <c r="QF39" s="0"/>
+      <c r="QG39" s="0"/>
+      <c r="QH39" s="0"/>
+      <c r="QI39" s="0"/>
+      <c r="QJ39" s="0"/>
+      <c r="QK39" s="0"/>
+      <c r="QL39" s="0"/>
+      <c r="QM39" s="0"/>
+      <c r="QN39" s="0"/>
+      <c r="QO39" s="0"/>
+      <c r="QP39" s="0"/>
+      <c r="QQ39" s="0"/>
+      <c r="QR39" s="0"/>
+      <c r="QS39" s="0"/>
+      <c r="QT39" s="0"/>
+      <c r="QU39" s="0"/>
+      <c r="QV39" s="0"/>
+      <c r="QW39" s="0"/>
+      <c r="QX39" s="0"/>
+      <c r="QY39" s="0"/>
+      <c r="QZ39" s="0"/>
+      <c r="RA39" s="0"/>
+      <c r="RB39" s="0"/>
+      <c r="RC39" s="0"/>
+      <c r="RD39" s="0"/>
+      <c r="RE39" s="0"/>
+      <c r="RF39" s="0"/>
+      <c r="RG39" s="0"/>
+      <c r="RH39" s="0"/>
+      <c r="RI39" s="0"/>
+      <c r="RJ39" s="0"/>
+      <c r="RK39" s="0"/>
+      <c r="RL39" s="0"/>
+      <c r="RM39" s="0"/>
+      <c r="RN39" s="0"/>
+      <c r="RO39" s="0"/>
+      <c r="RP39" s="0"/>
+      <c r="RQ39" s="0"/>
+      <c r="RR39" s="0"/>
+      <c r="RS39" s="0"/>
+      <c r="RT39" s="0"/>
+      <c r="RU39" s="0"/>
+      <c r="RV39" s="0"/>
+      <c r="RW39" s="0"/>
+      <c r="RX39" s="0"/>
+      <c r="RY39" s="0"/>
+      <c r="RZ39" s="0"/>
+      <c r="SA39" s="0"/>
+      <c r="SB39" s="0"/>
+      <c r="SC39" s="0"/>
+      <c r="SD39" s="0"/>
+      <c r="SE39" s="0"/>
+      <c r="SF39" s="0"/>
+      <c r="SG39" s="0"/>
+      <c r="SH39" s="0"/>
+      <c r="SI39" s="0"/>
+      <c r="SJ39" s="0"/>
+      <c r="SK39" s="0"/>
+      <c r="SL39" s="0"/>
+      <c r="SM39" s="0"/>
+      <c r="SN39" s="0"/>
+      <c r="SO39" s="0"/>
+      <c r="SP39" s="0"/>
+      <c r="SQ39" s="0"/>
+      <c r="SR39" s="0"/>
+      <c r="SS39" s="0"/>
+      <c r="ST39" s="0"/>
+      <c r="SU39" s="0"/>
+      <c r="SV39" s="0"/>
+      <c r="SW39" s="0"/>
+      <c r="SX39" s="0"/>
+      <c r="SY39" s="0"/>
+      <c r="SZ39" s="0"/>
+      <c r="TA39" s="0"/>
+      <c r="TB39" s="0"/>
+      <c r="TC39" s="0"/>
+      <c r="TD39" s="0"/>
+      <c r="TE39" s="0"/>
+      <c r="TF39" s="0"/>
+      <c r="TG39" s="0"/>
+      <c r="TH39" s="0"/>
+      <c r="TI39" s="0"/>
+      <c r="TJ39" s="0"/>
+      <c r="TK39" s="0"/>
+      <c r="TL39" s="0"/>
+      <c r="TM39" s="0"/>
+      <c r="TN39" s="0"/>
+      <c r="TO39" s="0"/>
+      <c r="TP39" s="0"/>
+      <c r="TQ39" s="0"/>
+      <c r="TR39" s="0"/>
+      <c r="TS39" s="0"/>
+      <c r="TT39" s="0"/>
+      <c r="TU39" s="0"/>
+      <c r="TV39" s="0"/>
+      <c r="TW39" s="0"/>
+      <c r="TX39" s="0"/>
+      <c r="TY39" s="0"/>
+      <c r="TZ39" s="0"/>
+      <c r="UA39" s="0"/>
+      <c r="UB39" s="0"/>
+      <c r="UC39" s="0"/>
+      <c r="UD39" s="0"/>
+      <c r="UE39" s="0"/>
+      <c r="UF39" s="0"/>
+      <c r="UG39" s="0"/>
+      <c r="UH39" s="0"/>
+      <c r="UI39" s="0"/>
+      <c r="UJ39" s="0"/>
+      <c r="UK39" s="0"/>
+      <c r="UL39" s="0"/>
+      <c r="UM39" s="0"/>
+      <c r="UN39" s="0"/>
+      <c r="UO39" s="0"/>
+      <c r="UP39" s="0"/>
+      <c r="UQ39" s="0"/>
+      <c r="UR39" s="0"/>
+      <c r="US39" s="0"/>
+      <c r="UT39" s="0"/>
+      <c r="UU39" s="0"/>
+      <c r="UV39" s="0"/>
+      <c r="UW39" s="0"/>
+      <c r="UX39" s="0"/>
+      <c r="UY39" s="0"/>
+      <c r="UZ39" s="0"/>
+      <c r="VA39" s="0"/>
+      <c r="VB39" s="0"/>
+      <c r="VC39" s="0"/>
+      <c r="VD39" s="0"/>
+      <c r="VE39" s="0"/>
+      <c r="VF39" s="0"/>
+      <c r="VG39" s="0"/>
+      <c r="VH39" s="0"/>
+      <c r="VI39" s="0"/>
+      <c r="VJ39" s="0"/>
+      <c r="VK39" s="0"/>
+      <c r="VL39" s="0"/>
+      <c r="VM39" s="0"/>
+      <c r="VN39" s="0"/>
+      <c r="VO39" s="0"/>
+      <c r="VP39" s="0"/>
+      <c r="VQ39" s="0"/>
+      <c r="VR39" s="0"/>
+      <c r="VS39" s="0"/>
+      <c r="VT39" s="0"/>
+      <c r="VU39" s="0"/>
+      <c r="VV39" s="0"/>
+      <c r="VW39" s="0"/>
+      <c r="VX39" s="0"/>
+      <c r="VY39" s="0"/>
+      <c r="VZ39" s="0"/>
+      <c r="WA39" s="0"/>
+      <c r="WB39" s="0"/>
+      <c r="WC39" s="0"/>
+      <c r="WD39" s="0"/>
+      <c r="WE39" s="0"/>
+      <c r="WF39" s="0"/>
+      <c r="WG39" s="0"/>
+      <c r="WH39" s="0"/>
+      <c r="WI39" s="0"/>
+      <c r="WJ39" s="0"/>
+      <c r="WK39" s="0"/>
+      <c r="WL39" s="0"/>
+      <c r="WM39" s="0"/>
+      <c r="WN39" s="0"/>
+      <c r="WO39" s="0"/>
+      <c r="WP39" s="0"/>
+      <c r="WQ39" s="0"/>
+      <c r="WR39" s="0"/>
+      <c r="WS39" s="0"/>
+      <c r="WT39" s="0"/>
+      <c r="WU39" s="0"/>
+      <c r="WV39" s="0"/>
+      <c r="WW39" s="0"/>
+      <c r="WX39" s="0"/>
+      <c r="WY39" s="0"/>
+      <c r="WZ39" s="0"/>
+      <c r="XA39" s="0"/>
+      <c r="XB39" s="0"/>
+      <c r="XC39" s="0"/>
+      <c r="XD39" s="0"/>
+      <c r="XE39" s="0"/>
+      <c r="XF39" s="0"/>
+      <c r="XG39" s="0"/>
+      <c r="XH39" s="0"/>
+      <c r="XI39" s="0"/>
+      <c r="XJ39" s="0"/>
+      <c r="XK39" s="0"/>
+      <c r="XL39" s="0"/>
+      <c r="XM39" s="0"/>
+      <c r="XN39" s="0"/>
+      <c r="XO39" s="0"/>
+      <c r="XP39" s="0"/>
+      <c r="XQ39" s="0"/>
+      <c r="XR39" s="0"/>
+      <c r="XS39" s="0"/>
+      <c r="XT39" s="0"/>
+      <c r="XU39" s="0"/>
+      <c r="XV39" s="0"/>
+      <c r="XW39" s="0"/>
+      <c r="XX39" s="0"/>
+      <c r="XY39" s="0"/>
+      <c r="XZ39" s="0"/>
+      <c r="YA39" s="0"/>
+      <c r="YB39" s="0"/>
+      <c r="YC39" s="0"/>
+      <c r="YD39" s="0"/>
+      <c r="YE39" s="0"/>
+      <c r="YF39" s="0"/>
+      <c r="YG39" s="0"/>
+      <c r="YH39" s="0"/>
+      <c r="YI39" s="0"/>
+      <c r="YJ39" s="0"/>
+      <c r="YK39" s="0"/>
+      <c r="YL39" s="0"/>
+      <c r="YM39" s="0"/>
+      <c r="YN39" s="0"/>
+      <c r="YO39" s="0"/>
+      <c r="YP39" s="0"/>
+      <c r="YQ39" s="0"/>
+      <c r="YR39" s="0"/>
+      <c r="YS39" s="0"/>
+      <c r="YT39" s="0"/>
+      <c r="YU39" s="0"/>
+      <c r="YV39" s="0"/>
+      <c r="YW39" s="0"/>
+      <c r="YX39" s="0"/>
+      <c r="YY39" s="0"/>
+      <c r="YZ39" s="0"/>
+      <c r="ZA39" s="0"/>
+      <c r="ZB39" s="0"/>
+      <c r="ZC39" s="0"/>
+      <c r="ZD39" s="0"/>
+      <c r="ZE39" s="0"/>
+      <c r="ZF39" s="0"/>
+      <c r="ZG39" s="0"/>
+      <c r="ZH39" s="0"/>
+      <c r="ZI39" s="0"/>
+      <c r="ZJ39" s="0"/>
+      <c r="ZK39" s="0"/>
+      <c r="ZL39" s="0"/>
+      <c r="ZM39" s="0"/>
+      <c r="ZN39" s="0"/>
+      <c r="ZO39" s="0"/>
+      <c r="ZP39" s="0"/>
+      <c r="ZQ39" s="0"/>
+      <c r="ZR39" s="0"/>
+      <c r="ZS39" s="0"/>
+      <c r="ZT39" s="0"/>
+      <c r="ZU39" s="0"/>
+      <c r="ZV39" s="0"/>
+      <c r="ZW39" s="0"/>
+      <c r="ZX39" s="0"/>
+      <c r="ZY39" s="0"/>
+      <c r="ZZ39" s="0"/>
+      <c r="AAA39" s="0"/>
+      <c r="AAB39" s="0"/>
+      <c r="AAC39" s="0"/>
+      <c r="AAD39" s="0"/>
+      <c r="AAE39" s="0"/>
+      <c r="AAF39" s="0"/>
+      <c r="AAG39" s="0"/>
+      <c r="AAH39" s="0"/>
+      <c r="AAI39" s="0"/>
+      <c r="AAJ39" s="0"/>
+      <c r="AAK39" s="0"/>
+      <c r="AAL39" s="0"/>
+      <c r="AAM39" s="0"/>
+      <c r="AAN39" s="0"/>
+      <c r="AAO39" s="0"/>
+      <c r="AAP39" s="0"/>
+      <c r="AAQ39" s="0"/>
+      <c r="AAR39" s="0"/>
+      <c r="AAS39" s="0"/>
+      <c r="AAT39" s="0"/>
+      <c r="AAU39" s="0"/>
+      <c r="AAV39" s="0"/>
+      <c r="AAW39" s="0"/>
+      <c r="AAX39" s="0"/>
+      <c r="AAY39" s="0"/>
+      <c r="AAZ39" s="0"/>
+      <c r="ABA39" s="0"/>
+      <c r="ABB39" s="0"/>
+      <c r="ABC39" s="0"/>
+      <c r="ABD39" s="0"/>
+      <c r="ABE39" s="0"/>
+      <c r="ABF39" s="0"/>
+      <c r="ABG39" s="0"/>
+      <c r="ABH39" s="0"/>
+      <c r="ABI39" s="0"/>
+      <c r="ABJ39" s="0"/>
+      <c r="ABK39" s="0"/>
+      <c r="ABL39" s="0"/>
+      <c r="ABM39" s="0"/>
+      <c r="ABN39" s="0"/>
+      <c r="ABO39" s="0"/>
+      <c r="ABP39" s="0"/>
+      <c r="ABQ39" s="0"/>
+      <c r="ABR39" s="0"/>
+      <c r="ABS39" s="0"/>
+      <c r="ABT39" s="0"/>
+      <c r="ABU39" s="0"/>
+      <c r="ABV39" s="0"/>
+      <c r="ABW39" s="0"/>
+      <c r="ABX39" s="0"/>
+      <c r="ABY39" s="0"/>
+      <c r="ABZ39" s="0"/>
+      <c r="ACA39" s="0"/>
+      <c r="ACB39" s="0"/>
+      <c r="ACC39" s="0"/>
+      <c r="ACD39" s="0"/>
+      <c r="ACE39" s="0"/>
+      <c r="ACF39" s="0"/>
+      <c r="ACG39" s="0"/>
+      <c r="ACH39" s="0"/>
+      <c r="ACI39" s="0"/>
+      <c r="ACJ39" s="0"/>
+      <c r="ACK39" s="0"/>
+      <c r="ACL39" s="0"/>
+      <c r="ACM39" s="0"/>
+      <c r="ACN39" s="0"/>
+      <c r="ACO39" s="0"/>
+      <c r="ACP39" s="0"/>
+      <c r="ACQ39" s="0"/>
+      <c r="ACR39" s="0"/>
+      <c r="ACS39" s="0"/>
+      <c r="ACT39" s="0"/>
+      <c r="ACU39" s="0"/>
+      <c r="ACV39" s="0"/>
+      <c r="ACW39" s="0"/>
+      <c r="ACX39" s="0"/>
+      <c r="ACY39" s="0"/>
+      <c r="ACZ39" s="0"/>
+      <c r="ADA39" s="0"/>
+      <c r="ADB39" s="0"/>
+      <c r="ADC39" s="0"/>
+      <c r="ADD39" s="0"/>
+      <c r="ADE39" s="0"/>
+      <c r="ADF39" s="0"/>
+      <c r="ADG39" s="0"/>
+      <c r="ADH39" s="0"/>
+      <c r="ADI39" s="0"/>
+      <c r="ADJ39" s="0"/>
+      <c r="ADK39" s="0"/>
+      <c r="ADL39" s="0"/>
+      <c r="ADM39" s="0"/>
+      <c r="ADN39" s="0"/>
+      <c r="ADO39" s="0"/>
+      <c r="ADP39" s="0"/>
+      <c r="ADQ39" s="0"/>
+      <c r="ADR39" s="0"/>
+      <c r="ADS39" s="0"/>
+      <c r="ADT39" s="0"/>
+      <c r="ADU39" s="0"/>
+      <c r="ADV39" s="0"/>
+      <c r="ADW39" s="0"/>
+      <c r="ADX39" s="0"/>
+      <c r="ADY39" s="0"/>
+      <c r="ADZ39" s="0"/>
+      <c r="AEA39" s="0"/>
+      <c r="AEB39" s="0"/>
+      <c r="AEC39" s="0"/>
+      <c r="AED39" s="0"/>
+      <c r="AEE39" s="0"/>
+      <c r="AEF39" s="0"/>
+      <c r="AEG39" s="0"/>
+      <c r="AEH39" s="0"/>
+      <c r="AEI39" s="0"/>
+      <c r="AEJ39" s="0"/>
+      <c r="AEK39" s="0"/>
+      <c r="AEL39" s="0"/>
+      <c r="AEM39" s="0"/>
+      <c r="AEN39" s="0"/>
+      <c r="AEO39" s="0"/>
+      <c r="AEP39" s="0"/>
+      <c r="AEQ39" s="0"/>
+      <c r="AER39" s="0"/>
+      <c r="AES39" s="0"/>
+      <c r="AET39" s="0"/>
+      <c r="AEU39" s="0"/>
+      <c r="AEV39" s="0"/>
+      <c r="AEW39" s="0"/>
+      <c r="AEX39" s="0"/>
+      <c r="AEY39" s="0"/>
+      <c r="AEZ39" s="0"/>
+      <c r="AFA39" s="0"/>
+      <c r="AFB39" s="0"/>
+      <c r="AFC39" s="0"/>
+      <c r="AFD39" s="0"/>
+      <c r="AFE39" s="0"/>
+      <c r="AFF39" s="0"/>
+      <c r="AFG39" s="0"/>
+      <c r="AFH39" s="0"/>
+      <c r="AFI39" s="0"/>
+      <c r="AFJ39" s="0"/>
+      <c r="AFK39" s="0"/>
+      <c r="AFL39" s="0"/>
+      <c r="AFM39" s="0"/>
+      <c r="AFN39" s="0"/>
+      <c r="AFO39" s="0"/>
+      <c r="AFP39" s="0"/>
+      <c r="AFQ39" s="0"/>
+      <c r="AFR39" s="0"/>
+      <c r="AFS39" s="0"/>
+      <c r="AFT39" s="0"/>
+      <c r="AFU39" s="0"/>
+      <c r="AFV39" s="0"/>
+      <c r="AFW39" s="0"/>
+      <c r="AFX39" s="0"/>
+      <c r="AFY39" s="0"/>
+      <c r="AFZ39" s="0"/>
+      <c r="AGA39" s="0"/>
+      <c r="AGB39" s="0"/>
+      <c r="AGC39" s="0"/>
+      <c r="AGD39" s="0"/>
+      <c r="AGE39" s="0"/>
+      <c r="AGF39" s="0"/>
+      <c r="AGG39" s="0"/>
+      <c r="AGH39" s="0"/>
+      <c r="AGI39" s="0"/>
+      <c r="AGJ39" s="0"/>
+      <c r="AGK39" s="0"/>
+      <c r="AGL39" s="0"/>
+      <c r="AGM39" s="0"/>
+      <c r="AGN39" s="0"/>
+      <c r="AGO39" s="0"/>
+      <c r="AGP39" s="0"/>
+      <c r="AGQ39" s="0"/>
+      <c r="AGR39" s="0"/>
+      <c r="AGS39" s="0"/>
+      <c r="AGT39" s="0"/>
+      <c r="AGU39" s="0"/>
+      <c r="AGV39" s="0"/>
+      <c r="AGW39" s="0"/>
+      <c r="AGX39" s="0"/>
+      <c r="AGY39" s="0"/>
+      <c r="AGZ39" s="0"/>
+      <c r="AHA39" s="0"/>
+      <c r="AHB39" s="0"/>
+      <c r="AHC39" s="0"/>
+      <c r="AHD39" s="0"/>
+      <c r="AHE39" s="0"/>
+      <c r="AHF39" s="0"/>
+      <c r="AHG39" s="0"/>
+      <c r="AHH39" s="0"/>
+      <c r="AHI39" s="0"/>
+      <c r="AHJ39" s="0"/>
+      <c r="AHK39" s="0"/>
+      <c r="AHL39" s="0"/>
+      <c r="AHM39" s="0"/>
+      <c r="AHN39" s="0"/>
+      <c r="AHO39" s="0"/>
+      <c r="AHP39" s="0"/>
+      <c r="AHQ39" s="0"/>
+      <c r="AHR39" s="0"/>
+      <c r="AHS39" s="0"/>
+      <c r="AHT39" s="0"/>
+      <c r="AHU39" s="0"/>
+      <c r="AHV39" s="0"/>
+      <c r="AHW39" s="0"/>
+      <c r="AHX39" s="0"/>
+      <c r="AHY39" s="0"/>
+      <c r="AHZ39" s="0"/>
+      <c r="AIA39" s="0"/>
+      <c r="AIB39" s="0"/>
+      <c r="AIC39" s="0"/>
+      <c r="AID39" s="0"/>
+      <c r="AIE39" s="0"/>
+      <c r="AIF39" s="0"/>
+      <c r="AIG39" s="0"/>
+      <c r="AIH39" s="0"/>
+      <c r="AII39" s="0"/>
+      <c r="AIJ39" s="0"/>
+      <c r="AIK39" s="0"/>
+      <c r="AIL39" s="0"/>
+      <c r="AIM39" s="0"/>
+      <c r="AIN39" s="0"/>
+      <c r="AIO39" s="0"/>
+      <c r="AIP39" s="0"/>
+      <c r="AIQ39" s="0"/>
+      <c r="AIR39" s="0"/>
+      <c r="AIS39" s="0"/>
+      <c r="AIT39" s="0"/>
+      <c r="AIU39" s="0"/>
+      <c r="AIV39" s="0"/>
+      <c r="AIW39" s="0"/>
+      <c r="AIX39" s="0"/>
+      <c r="AIY39" s="0"/>
+      <c r="AIZ39" s="0"/>
+      <c r="AJA39" s="0"/>
+      <c r="AJB39" s="0"/>
+      <c r="AJC39" s="0"/>
+      <c r="AJD39" s="0"/>
+      <c r="AJE39" s="0"/>
+      <c r="AJF39" s="0"/>
+      <c r="AJG39" s="0"/>
+      <c r="AJH39" s="0"/>
+      <c r="AJI39" s="0"/>
+      <c r="AJJ39" s="0"/>
+      <c r="AJK39" s="0"/>
+      <c r="AJL39" s="0"/>
+      <c r="AJM39" s="0"/>
+      <c r="AJN39" s="0"/>
+      <c r="AJO39" s="0"/>
+      <c r="AJP39" s="0"/>
+      <c r="AJQ39" s="0"/>
+      <c r="AJR39" s="0"/>
+      <c r="AJS39" s="0"/>
+      <c r="AJT39" s="0"/>
+      <c r="AJU39" s="0"/>
+      <c r="AJV39" s="0"/>
+      <c r="AJW39" s="0"/>
+      <c r="AJX39" s="0"/>
+      <c r="AJY39" s="0"/>
+      <c r="AJZ39" s="0"/>
+      <c r="AKA39" s="0"/>
+      <c r="AKB39" s="0"/>
+      <c r="AKC39" s="0"/>
+      <c r="AKD39" s="0"/>
+      <c r="AKE39" s="0"/>
+      <c r="AKF39" s="0"/>
+      <c r="AKG39" s="0"/>
+      <c r="AKH39" s="0"/>
+      <c r="AKI39" s="0"/>
+      <c r="AKJ39" s="0"/>
+      <c r="AKK39" s="0"/>
+      <c r="AKL39" s="0"/>
+      <c r="AKM39" s="0"/>
+      <c r="AKN39" s="0"/>
+      <c r="AKO39" s="0"/>
+      <c r="AKP39" s="0"/>
+      <c r="AKQ39" s="0"/>
+      <c r="AKR39" s="0"/>
+      <c r="AKS39" s="0"/>
+      <c r="AKT39" s="0"/>
+      <c r="AKU39" s="0"/>
+      <c r="AKV39" s="0"/>
+      <c r="AKW39" s="0"/>
+      <c r="AKX39" s="0"/>
+      <c r="AKY39" s="0"/>
+      <c r="AKZ39" s="0"/>
+      <c r="ALA39" s="0"/>
+      <c r="ALB39" s="0"/>
+      <c r="ALC39" s="0"/>
+      <c r="ALD39" s="0"/>
+      <c r="ALE39" s="0"/>
+      <c r="ALF39" s="0"/>
+      <c r="ALG39" s="0"/>
+      <c r="ALH39" s="0"/>
+      <c r="ALI39" s="0"/>
+      <c r="ALJ39" s="0"/>
+      <c r="ALK39" s="0"/>
+      <c r="ALL39" s="0"/>
+      <c r="ALM39" s="0"/>
+      <c r="ALN39" s="0"/>
+      <c r="ALO39" s="0"/>
+      <c r="ALP39" s="0"/>
+      <c r="ALQ39" s="0"/>
+      <c r="ALR39" s="0"/>
+      <c r="ALS39" s="0"/>
+      <c r="ALT39" s="0"/>
+      <c r="ALU39" s="0"/>
+      <c r="ALV39" s="0"/>
+      <c r="ALW39" s="0"/>
+      <c r="ALX39" s="0"/>
+      <c r="ALY39" s="0"/>
+      <c r="ALZ39" s="0"/>
+      <c r="AMA39" s="0"/>
+      <c r="AMB39" s="0"/>
+      <c r="AMC39" s="0"/>
+      <c r="AMD39" s="0"/>
+      <c r="AME39" s="0"/>
+      <c r="AMF39" s="0"/>
+      <c r="AMG39" s="0"/>
+      <c r="AMH39" s="0"/>
+      <c r="AMI39" s="0"/>
+      <c r="AMJ39" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>65160</v>
+      </c>
+      <c r="B40" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="M40" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="N40" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="O40" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="P40" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q40" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="R40" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="S40" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="T40" s="0"/>
+      <c r="U40" s="0"/>
+      <c r="V40" s="0"/>
+      <c r="W40" s="0"/>
+      <c r="Y40" s="0"/>
+      <c r="Z40" s="0"/>
+      <c r="AA40" s="0"/>
+      <c r="AB40" s="0"/>
+      <c r="AC40" s="0"/>
+      <c r="AD40" s="0"/>
+      <c r="AE40" s="0"/>
+      <c r="AF40" s="0"/>
+      <c r="AG40" s="0"/>
+      <c r="AH40" s="0"/>
+      <c r="AI40" s="0"/>
+      <c r="AJ40" s="0"/>
+      <c r="AK40" s="0"/>
+      <c r="AL40" s="0"/>
+      <c r="AM40" s="0"/>
+      <c r="AN40" s="0"/>
+      <c r="AO40" s="0"/>
+      <c r="AP40" s="0"/>
+      <c r="AQ40" s="0"/>
+      <c r="AR40" s="0"/>
+      <c r="AS40" s="0"/>
+      <c r="AT40" s="0"/>
+      <c r="AU40" s="0"/>
+      <c r="AV40" s="0"/>
+      <c r="AW40" s="0"/>
+      <c r="AX40" s="0"/>
+      <c r="AY40" s="0"/>
+      <c r="AZ40" s="0"/>
+      <c r="BA40" s="0"/>
+      <c r="BB40" s="0"/>
+      <c r="BC40" s="0"/>
+      <c r="BD40" s="0"/>
+      <c r="BE40" s="0"/>
+      <c r="BF40" s="0"/>
+      <c r="BG40" s="0"/>
+      <c r="BH40" s="0"/>
+      <c r="BI40" s="0"/>
+      <c r="BJ40" s="0"/>
+      <c r="BK40" s="0"/>
+      <c r="BL40" s="0"/>
+      <c r="BM40" s="0"/>
+      <c r="BN40" s="0"/>
+      <c r="BO40" s="0"/>
+      <c r="BP40" s="0"/>
+      <c r="BQ40" s="0"/>
+      <c r="BR40" s="0"/>
+      <c r="BS40" s="0"/>
+      <c r="BT40" s="0"/>
+      <c r="BU40" s="0"/>
+      <c r="BV40" s="0"/>
+      <c r="BW40" s="0"/>
+      <c r="BX40" s="0"/>
+      <c r="BY40" s="0"/>
+      <c r="BZ40" s="0"/>
+      <c r="CA40" s="0"/>
+      <c r="CB40" s="0"/>
+      <c r="CC40" s="0"/>
+      <c r="CD40" s="0"/>
+      <c r="CE40" s="0"/>
+      <c r="CF40" s="0"/>
+      <c r="CG40" s="0"/>
+      <c r="CH40" s="0"/>
+      <c r="CI40" s="0"/>
+      <c r="CJ40" s="0"/>
+      <c r="CK40" s="0"/>
+      <c r="CL40" s="0"/>
+      <c r="CM40" s="0"/>
+      <c r="CN40" s="0"/>
+      <c r="CO40" s="0"/>
+      <c r="CP40" s="0"/>
+      <c r="CQ40" s="0"/>
+      <c r="CR40" s="0"/>
+      <c r="CS40" s="0"/>
+      <c r="CT40" s="0"/>
+      <c r="CU40" s="0"/>
+      <c r="CV40" s="0"/>
+      <c r="CW40" s="0"/>
+      <c r="CX40" s="0"/>
+      <c r="CY40" s="0"/>
+      <c r="CZ40" s="0"/>
+      <c r="DA40" s="0"/>
+      <c r="DB40" s="0"/>
+      <c r="DC40" s="0"/>
+      <c r="DD40" s="0"/>
+      <c r="DE40" s="0"/>
+      <c r="DF40" s="0"/>
+      <c r="DG40" s="0"/>
+      <c r="DH40" s="0"/>
+      <c r="DI40" s="0"/>
+      <c r="DJ40" s="0"/>
+      <c r="DK40" s="0"/>
+      <c r="DL40" s="0"/>
+      <c r="DM40" s="0"/>
+      <c r="DN40" s="0"/>
+      <c r="DO40" s="0"/>
+      <c r="DP40" s="0"/>
+      <c r="DQ40" s="0"/>
+      <c r="DR40" s="0"/>
+      <c r="DS40" s="0"/>
+      <c r="DT40" s="0"/>
+      <c r="DU40" s="0"/>
+      <c r="DV40" s="0"/>
+      <c r="DW40" s="0"/>
+      <c r="DX40" s="0"/>
+      <c r="DY40" s="0"/>
+      <c r="DZ40" s="0"/>
+      <c r="EA40" s="0"/>
+      <c r="EB40" s="0"/>
+      <c r="EC40" s="0"/>
+      <c r="ED40" s="0"/>
+      <c r="EE40" s="0"/>
+      <c r="EF40" s="0"/>
+      <c r="EG40" s="0"/>
+      <c r="EH40" s="0"/>
+      <c r="EI40" s="0"/>
+      <c r="EJ40" s="0"/>
+      <c r="EK40" s="0"/>
+      <c r="EL40" s="0"/>
+      <c r="EM40" s="0"/>
+      <c r="EN40" s="0"/>
+      <c r="EO40" s="0"/>
+      <c r="EP40" s="0"/>
+      <c r="EQ40" s="0"/>
+      <c r="ER40" s="0"/>
+      <c r="ES40" s="0"/>
+      <c r="ET40" s="0"/>
+      <c r="EU40" s="0"/>
+      <c r="EV40" s="0"/>
+      <c r="EW40" s="0"/>
+      <c r="EX40" s="0"/>
+      <c r="EY40" s="0"/>
+      <c r="EZ40" s="0"/>
+      <c r="FA40" s="0"/>
+      <c r="FB40" s="0"/>
+      <c r="FC40" s="0"/>
+      <c r="FD40" s="0"/>
+      <c r="FE40" s="0"/>
+      <c r="FF40" s="0"/>
+      <c r="FG40" s="0"/>
+      <c r="FH40" s="0"/>
+      <c r="FI40" s="0"/>
+      <c r="FJ40" s="0"/>
+      <c r="FK40" s="0"/>
+      <c r="FL40" s="0"/>
+      <c r="FM40" s="0"/>
+      <c r="FN40" s="0"/>
+      <c r="FO40" s="0"/>
+      <c r="FP40" s="0"/>
+      <c r="FQ40" s="0"/>
+      <c r="FR40" s="0"/>
+      <c r="FS40" s="0"/>
+      <c r="FT40" s="0"/>
+      <c r="FU40" s="0"/>
+      <c r="FV40" s="0"/>
+      <c r="FW40" s="0"/>
+      <c r="FX40" s="0"/>
+      <c r="FY40" s="0"/>
+      <c r="FZ40" s="0"/>
+      <c r="GA40" s="0"/>
+      <c r="GB40" s="0"/>
+      <c r="GC40" s="0"/>
+      <c r="GD40" s="0"/>
+      <c r="GE40" s="0"/>
+      <c r="GF40" s="0"/>
+      <c r="GG40" s="0"/>
+      <c r="GH40" s="0"/>
+      <c r="GI40" s="0"/>
+      <c r="GJ40" s="0"/>
+      <c r="GK40" s="0"/>
+      <c r="GL40" s="0"/>
+      <c r="GM40" s="0"/>
+      <c r="GN40" s="0"/>
+      <c r="GO40" s="0"/>
+      <c r="GP40" s="0"/>
+      <c r="GQ40" s="0"/>
+      <c r="GR40" s="0"/>
+      <c r="GS40" s="0"/>
+      <c r="GT40" s="0"/>
+      <c r="GU40" s="0"/>
+      <c r="GV40" s="0"/>
+      <c r="GW40" s="0"/>
+      <c r="GX40" s="0"/>
+      <c r="GY40" s="0"/>
+      <c r="GZ40" s="0"/>
+      <c r="HA40" s="0"/>
+      <c r="HB40" s="0"/>
+      <c r="HC40" s="0"/>
+      <c r="HD40" s="0"/>
+      <c r="HE40" s="0"/>
+      <c r="HF40" s="0"/>
+      <c r="HG40" s="0"/>
+      <c r="HH40" s="0"/>
+      <c r="HI40" s="0"/>
+      <c r="HJ40" s="0"/>
+      <c r="HK40" s="0"/>
+      <c r="HL40" s="0"/>
+      <c r="HM40" s="0"/>
+      <c r="HN40" s="0"/>
+      <c r="HO40" s="0"/>
+      <c r="HP40" s="0"/>
+      <c r="HQ40" s="0"/>
+      <c r="HR40" s="0"/>
+      <c r="HS40" s="0"/>
+      <c r="HT40" s="0"/>
+      <c r="HU40" s="0"/>
+      <c r="HV40" s="0"/>
+      <c r="HW40" s="0"/>
+      <c r="HX40" s="0"/>
+      <c r="HY40" s="0"/>
+      <c r="HZ40" s="0"/>
+      <c r="IA40" s="0"/>
+      <c r="IB40" s="0"/>
+      <c r="IC40" s="0"/>
+      <c r="ID40" s="0"/>
+      <c r="IE40" s="0"/>
+      <c r="IF40" s="0"/>
+      <c r="IG40" s="0"/>
+      <c r="IH40" s="0"/>
+      <c r="II40" s="0"/>
+      <c r="IJ40" s="0"/>
+      <c r="IK40" s="0"/>
+      <c r="IL40" s="0"/>
+      <c r="IM40" s="0"/>
+      <c r="IN40" s="0"/>
+      <c r="IO40" s="0"/>
+      <c r="IP40" s="0"/>
+      <c r="IQ40" s="0"/>
+      <c r="IR40" s="0"/>
+      <c r="IS40" s="0"/>
+      <c r="IT40" s="0"/>
+      <c r="IU40" s="0"/>
+      <c r="IV40" s="0"/>
+      <c r="IW40" s="0"/>
+      <c r="IX40" s="0"/>
+      <c r="IY40" s="0"/>
+      <c r="IZ40" s="0"/>
+      <c r="JA40" s="0"/>
+      <c r="JB40" s="0"/>
+      <c r="JC40" s="0"/>
+      <c r="JD40" s="0"/>
+      <c r="JE40" s="0"/>
+      <c r="JF40" s="0"/>
+      <c r="JG40" s="0"/>
+      <c r="JH40" s="0"/>
+      <c r="JI40" s="0"/>
+      <c r="JJ40" s="0"/>
+      <c r="JK40" s="0"/>
+      <c r="JL40" s="0"/>
+      <c r="JM40" s="0"/>
+      <c r="JN40" s="0"/>
+      <c r="JO40" s="0"/>
+      <c r="JP40" s="0"/>
+      <c r="JQ40" s="0"/>
+      <c r="JR40" s="0"/>
+      <c r="JS40" s="0"/>
+      <c r="JT40" s="0"/>
+      <c r="JU40" s="0"/>
+      <c r="JV40" s="0"/>
+      <c r="JW40" s="0"/>
+      <c r="JX40" s="0"/>
+      <c r="JY40" s="0"/>
+      <c r="JZ40" s="0"/>
+      <c r="KA40" s="0"/>
+      <c r="KB40" s="0"/>
+      <c r="KC40" s="0"/>
+      <c r="KD40" s="0"/>
+      <c r="KE40" s="0"/>
+      <c r="KF40" s="0"/>
+      <c r="KG40" s="0"/>
+      <c r="KH40" s="0"/>
+      <c r="KI40" s="0"/>
+      <c r="KJ40" s="0"/>
+      <c r="KK40" s="0"/>
+      <c r="KL40" s="0"/>
+      <c r="KM40" s="0"/>
+      <c r="KN40" s="0"/>
+      <c r="KO40" s="0"/>
+      <c r="KP40" s="0"/>
+      <c r="KQ40" s="0"/>
+      <c r="KR40" s="0"/>
+      <c r="KS40" s="0"/>
+      <c r="KT40" s="0"/>
+      <c r="KU40" s="0"/>
+      <c r="KV40" s="0"/>
+      <c r="KW40" s="0"/>
+      <c r="KX40" s="0"/>
+      <c r="KY40" s="0"/>
+      <c r="KZ40" s="0"/>
+      <c r="LA40" s="0"/>
+      <c r="LB40" s="0"/>
+      <c r="LC40" s="0"/>
+      <c r="LD40" s="0"/>
+      <c r="LE40" s="0"/>
+      <c r="LF40" s="0"/>
+      <c r="LG40" s="0"/>
+      <c r="LH40" s="0"/>
+      <c r="LI40" s="0"/>
+      <c r="LJ40" s="0"/>
+      <c r="LK40" s="0"/>
+      <c r="LL40" s="0"/>
+      <c r="LM40" s="0"/>
+      <c r="LN40" s="0"/>
+      <c r="LO40" s="0"/>
+      <c r="LP40" s="0"/>
+      <c r="LQ40" s="0"/>
+      <c r="LR40" s="0"/>
+      <c r="LS40" s="0"/>
+      <c r="LT40" s="0"/>
+      <c r="LU40" s="0"/>
+      <c r="LV40" s="0"/>
+      <c r="LW40" s="0"/>
+      <c r="LX40" s="0"/>
+      <c r="LY40" s="0"/>
+      <c r="LZ40" s="0"/>
+      <c r="MA40" s="0"/>
+      <c r="MB40" s="0"/>
+      <c r="MC40" s="0"/>
+      <c r="MD40" s="0"/>
+      <c r="ME40" s="0"/>
+      <c r="MF40" s="0"/>
+      <c r="MG40" s="0"/>
+      <c r="MH40" s="0"/>
+      <c r="MI40" s="0"/>
+      <c r="MJ40" s="0"/>
+      <c r="MK40" s="0"/>
+      <c r="ML40" s="0"/>
+      <c r="MM40" s="0"/>
+      <c r="MN40" s="0"/>
+      <c r="MO40" s="0"/>
+      <c r="MP40" s="0"/>
+      <c r="MQ40" s="0"/>
+      <c r="MR40" s="0"/>
+      <c r="MS40" s="0"/>
+      <c r="MT40" s="0"/>
+      <c r="MU40" s="0"/>
+      <c r="MV40" s="0"/>
+      <c r="MW40" s="0"/>
+      <c r="MX40" s="0"/>
+      <c r="MY40" s="0"/>
+      <c r="MZ40" s="0"/>
+      <c r="NA40" s="0"/>
+      <c r="NB40" s="0"/>
+      <c r="NC40" s="0"/>
+      <c r="ND40" s="0"/>
+      <c r="NE40" s="0"/>
+      <c r="NF40" s="0"/>
+      <c r="NG40" s="0"/>
+      <c r="NH40" s="0"/>
+      <c r="NI40" s="0"/>
+      <c r="NJ40" s="0"/>
+      <c r="NK40" s="0"/>
+      <c r="NL40" s="0"/>
+      <c r="NM40" s="0"/>
+      <c r="NN40" s="0"/>
+      <c r="NO40" s="0"/>
+      <c r="NP40" s="0"/>
+      <c r="NQ40" s="0"/>
+      <c r="NR40" s="0"/>
+      <c r="NS40" s="0"/>
+      <c r="NT40" s="0"/>
+      <c r="NU40" s="0"/>
+      <c r="NV40" s="0"/>
+      <c r="NW40" s="0"/>
+      <c r="NX40" s="0"/>
+      <c r="NY40" s="0"/>
+      <c r="NZ40" s="0"/>
+      <c r="OA40" s="0"/>
+      <c r="OB40" s="0"/>
+      <c r="OC40" s="0"/>
+      <c r="OD40" s="0"/>
+      <c r="OE40" s="0"/>
+      <c r="OF40" s="0"/>
+      <c r="OG40" s="0"/>
+      <c r="OH40" s="0"/>
+      <c r="OI40" s="0"/>
+      <c r="OJ40" s="0"/>
+      <c r="OK40" s="0"/>
+      <c r="OL40" s="0"/>
+      <c r="OM40" s="0"/>
+      <c r="ON40" s="0"/>
+      <c r="OO40" s="0"/>
+      <c r="OP40" s="0"/>
+      <c r="OQ40" s="0"/>
+      <c r="OR40" s="0"/>
+      <c r="OS40" s="0"/>
+      <c r="OT40" s="0"/>
+      <c r="OU40" s="0"/>
+      <c r="OV40" s="0"/>
+      <c r="OW40" s="0"/>
+      <c r="OX40" s="0"/>
+      <c r="OY40" s="0"/>
+      <c r="OZ40" s="0"/>
+      <c r="PA40" s="0"/>
+      <c r="PB40" s="0"/>
+      <c r="PC40" s="0"/>
+      <c r="PD40" s="0"/>
+      <c r="PE40" s="0"/>
+      <c r="PF40" s="0"/>
+      <c r="PG40" s="0"/>
+      <c r="PH40" s="0"/>
+      <c r="PI40" s="0"/>
+      <c r="PJ40" s="0"/>
+      <c r="PK40" s="0"/>
+      <c r="PL40" s="0"/>
+      <c r="PM40" s="0"/>
+      <c r="PN40" s="0"/>
+      <c r="PO40" s="0"/>
+      <c r="PP40" s="0"/>
+      <c r="PQ40" s="0"/>
+      <c r="PR40" s="0"/>
+      <c r="PS40" s="0"/>
+      <c r="PT40" s="0"/>
+      <c r="PU40" s="0"/>
+      <c r="PV40" s="0"/>
+      <c r="PW40" s="0"/>
+      <c r="PX40" s="0"/>
+      <c r="PY40" s="0"/>
+      <c r="PZ40" s="0"/>
+      <c r="QA40" s="0"/>
+      <c r="QB40" s="0"/>
+      <c r="QC40" s="0"/>
+      <c r="QD40" s="0"/>
+      <c r="QE40" s="0"/>
+      <c r="QF40" s="0"/>
+      <c r="QG40" s="0"/>
+      <c r="QH40" s="0"/>
+      <c r="QI40" s="0"/>
+      <c r="QJ40" s="0"/>
+      <c r="QK40" s="0"/>
+      <c r="QL40" s="0"/>
+      <c r="QM40" s="0"/>
+      <c r="QN40" s="0"/>
+      <c r="QO40" s="0"/>
+      <c r="QP40" s="0"/>
+      <c r="QQ40" s="0"/>
+      <c r="QR40" s="0"/>
+      <c r="QS40" s="0"/>
+      <c r="QT40" s="0"/>
+      <c r="QU40" s="0"/>
+      <c r="QV40" s="0"/>
+      <c r="QW40" s="0"/>
+      <c r="QX40" s="0"/>
+      <c r="QY40" s="0"/>
+      <c r="QZ40" s="0"/>
+      <c r="RA40" s="0"/>
+      <c r="RB40" s="0"/>
+      <c r="RC40" s="0"/>
+      <c r="RD40" s="0"/>
+      <c r="RE40" s="0"/>
+      <c r="RF40" s="0"/>
+      <c r="RG40" s="0"/>
+      <c r="RH40" s="0"/>
+      <c r="RI40" s="0"/>
+      <c r="RJ40" s="0"/>
+      <c r="RK40" s="0"/>
+      <c r="RL40" s="0"/>
+      <c r="RM40" s="0"/>
+      <c r="RN40" s="0"/>
+      <c r="RO40" s="0"/>
+      <c r="RP40" s="0"/>
+      <c r="RQ40" s="0"/>
+      <c r="RR40" s="0"/>
+      <c r="RS40" s="0"/>
+      <c r="RT40" s="0"/>
+      <c r="RU40" s="0"/>
+      <c r="RV40" s="0"/>
+      <c r="RW40" s="0"/>
+      <c r="RX40" s="0"/>
+      <c r="RY40" s="0"/>
+      <c r="RZ40" s="0"/>
+      <c r="SA40" s="0"/>
+      <c r="SB40" s="0"/>
+      <c r="SC40" s="0"/>
+      <c r="SD40" s="0"/>
+      <c r="SE40" s="0"/>
+      <c r="SF40" s="0"/>
+      <c r="SG40" s="0"/>
+      <c r="SH40" s="0"/>
+      <c r="SI40" s="0"/>
+      <c r="SJ40" s="0"/>
+      <c r="SK40" s="0"/>
+      <c r="SL40" s="0"/>
+      <c r="SM40" s="0"/>
+      <c r="SN40" s="0"/>
+      <c r="SO40" s="0"/>
+      <c r="SP40" s="0"/>
+      <c r="SQ40" s="0"/>
+      <c r="SR40" s="0"/>
+      <c r="SS40" s="0"/>
+      <c r="ST40" s="0"/>
+      <c r="SU40" s="0"/>
+      <c r="SV40" s="0"/>
+      <c r="SW40" s="0"/>
+      <c r="SX40" s="0"/>
+      <c r="SY40" s="0"/>
+      <c r="SZ40" s="0"/>
+      <c r="TA40" s="0"/>
+      <c r="TB40" s="0"/>
+      <c r="TC40" s="0"/>
+      <c r="TD40" s="0"/>
+      <c r="TE40" s="0"/>
+      <c r="TF40" s="0"/>
+      <c r="TG40" s="0"/>
+      <c r="TH40" s="0"/>
+      <c r="TI40" s="0"/>
+      <c r="TJ40" s="0"/>
+      <c r="TK40" s="0"/>
+      <c r="TL40" s="0"/>
+      <c r="TM40" s="0"/>
+      <c r="TN40" s="0"/>
+      <c r="TO40" s="0"/>
+      <c r="TP40" s="0"/>
+      <c r="TQ40" s="0"/>
+      <c r="TR40" s="0"/>
+      <c r="TS40" s="0"/>
+      <c r="TT40" s="0"/>
+      <c r="TU40" s="0"/>
+      <c r="TV40" s="0"/>
+      <c r="TW40" s="0"/>
+      <c r="TX40" s="0"/>
+      <c r="TY40" s="0"/>
+      <c r="TZ40" s="0"/>
+      <c r="UA40" s="0"/>
+      <c r="UB40" s="0"/>
+      <c r="UC40" s="0"/>
+      <c r="UD40" s="0"/>
+      <c r="UE40" s="0"/>
+      <c r="UF40" s="0"/>
+      <c r="UG40" s="0"/>
+      <c r="UH40" s="0"/>
+      <c r="UI40" s="0"/>
+      <c r="UJ40" s="0"/>
+      <c r="UK40" s="0"/>
+      <c r="UL40" s="0"/>
+      <c r="UM40" s="0"/>
+      <c r="UN40" s="0"/>
+      <c r="UO40" s="0"/>
+      <c r="UP40" s="0"/>
+      <c r="UQ40" s="0"/>
+      <c r="UR40" s="0"/>
+      <c r="US40" s="0"/>
+      <c r="UT40" s="0"/>
+      <c r="UU40" s="0"/>
+      <c r="UV40" s="0"/>
+      <c r="UW40" s="0"/>
+      <c r="UX40" s="0"/>
+      <c r="UY40" s="0"/>
+      <c r="UZ40" s="0"/>
+      <c r="VA40" s="0"/>
+      <c r="VB40" s="0"/>
+      <c r="VC40" s="0"/>
+      <c r="VD40" s="0"/>
+      <c r="VE40" s="0"/>
+      <c r="VF40" s="0"/>
+      <c r="VG40" s="0"/>
+      <c r="VH40" s="0"/>
+      <c r="VI40" s="0"/>
+      <c r="VJ40" s="0"/>
+      <c r="VK40" s="0"/>
+      <c r="VL40" s="0"/>
+      <c r="VM40" s="0"/>
+      <c r="VN40" s="0"/>
+      <c r="VO40" s="0"/>
+      <c r="VP40" s="0"/>
+      <c r="VQ40" s="0"/>
+      <c r="VR40" s="0"/>
+      <c r="VS40" s="0"/>
+      <c r="VT40" s="0"/>
+      <c r="VU40" s="0"/>
+      <c r="VV40" s="0"/>
+      <c r="VW40" s="0"/>
+      <c r="VX40" s="0"/>
+      <c r="VY40" s="0"/>
+      <c r="VZ40" s="0"/>
+      <c r="WA40" s="0"/>
+      <c r="WB40" s="0"/>
+      <c r="WC40" s="0"/>
+      <c r="WD40" s="0"/>
+      <c r="WE40" s="0"/>
+      <c r="WF40" s="0"/>
+      <c r="WG40" s="0"/>
+      <c r="WH40" s="0"/>
+      <c r="WI40" s="0"/>
+      <c r="WJ40" s="0"/>
+      <c r="WK40" s="0"/>
+      <c r="WL40" s="0"/>
+      <c r="WM40" s="0"/>
+      <c r="WN40" s="0"/>
+      <c r="WO40" s="0"/>
+      <c r="WP40" s="0"/>
+      <c r="WQ40" s="0"/>
+      <c r="WR40" s="0"/>
+      <c r="WS40" s="0"/>
+      <c r="WT40" s="0"/>
+      <c r="WU40" s="0"/>
+      <c r="WV40" s="0"/>
+      <c r="WW40" s="0"/>
+      <c r="WX40" s="0"/>
+      <c r="WY40" s="0"/>
+      <c r="WZ40" s="0"/>
+      <c r="XA40" s="0"/>
+      <c r="XB40" s="0"/>
+      <c r="XC40" s="0"/>
+      <c r="XD40" s="0"/>
+      <c r="XE40" s="0"/>
+      <c r="XF40" s="0"/>
+      <c r="XG40" s="0"/>
+      <c r="XH40" s="0"/>
+      <c r="XI40" s="0"/>
+      <c r="XJ40" s="0"/>
+      <c r="XK40" s="0"/>
+      <c r="XL40" s="0"/>
+      <c r="XM40" s="0"/>
+      <c r="XN40" s="0"/>
+      <c r="XO40" s="0"/>
+      <c r="XP40" s="0"/>
+      <c r="XQ40" s="0"/>
+      <c r="XR40" s="0"/>
+      <c r="XS40" s="0"/>
+      <c r="XT40" s="0"/>
+      <c r="XU40" s="0"/>
+      <c r="XV40" s="0"/>
+      <c r="XW40" s="0"/>
+      <c r="XX40" s="0"/>
+      <c r="XY40" s="0"/>
+      <c r="XZ40" s="0"/>
+      <c r="YA40" s="0"/>
+      <c r="YB40" s="0"/>
+      <c r="YC40" s="0"/>
+      <c r="YD40" s="0"/>
+      <c r="YE40" s="0"/>
+      <c r="YF40" s="0"/>
+      <c r="YG40" s="0"/>
+      <c r="YH40" s="0"/>
+      <c r="YI40" s="0"/>
+      <c r="YJ40" s="0"/>
+      <c r="YK40" s="0"/>
+      <c r="YL40" s="0"/>
+      <c r="YM40" s="0"/>
+      <c r="YN40" s="0"/>
+      <c r="YO40" s="0"/>
+      <c r="YP40" s="0"/>
+      <c r="YQ40" s="0"/>
+      <c r="YR40" s="0"/>
+      <c r="YS40" s="0"/>
+      <c r="YT40" s="0"/>
+      <c r="YU40" s="0"/>
+      <c r="YV40" s="0"/>
+      <c r="YW40" s="0"/>
+      <c r="YX40" s="0"/>
+      <c r="YY40" s="0"/>
+      <c r="YZ40" s="0"/>
+      <c r="ZA40" s="0"/>
+      <c r="ZB40" s="0"/>
+      <c r="ZC40" s="0"/>
+      <c r="ZD40" s="0"/>
+      <c r="ZE40" s="0"/>
+      <c r="ZF40" s="0"/>
+      <c r="ZG40" s="0"/>
+      <c r="ZH40" s="0"/>
+      <c r="ZI40" s="0"/>
+      <c r="ZJ40" s="0"/>
+      <c r="ZK40" s="0"/>
+      <c r="ZL40" s="0"/>
+      <c r="ZM40" s="0"/>
+      <c r="ZN40" s="0"/>
+      <c r="ZO40" s="0"/>
+      <c r="ZP40" s="0"/>
+      <c r="ZQ40" s="0"/>
+      <c r="ZR40" s="0"/>
+      <c r="ZS40" s="0"/>
+      <c r="ZT40" s="0"/>
+      <c r="ZU40" s="0"/>
+      <c r="ZV40" s="0"/>
+      <c r="ZW40" s="0"/>
+      <c r="ZX40" s="0"/>
+      <c r="ZY40" s="0"/>
+      <c r="ZZ40" s="0"/>
+      <c r="AAA40" s="0"/>
+      <c r="AAB40" s="0"/>
+      <c r="AAC40" s="0"/>
+      <c r="AAD40" s="0"/>
+      <c r="AAE40" s="0"/>
+      <c r="AAF40" s="0"/>
+      <c r="AAG40" s="0"/>
+      <c r="AAH40" s="0"/>
+      <c r="AAI40" s="0"/>
+      <c r="AAJ40" s="0"/>
+      <c r="AAK40" s="0"/>
+      <c r="AAL40" s="0"/>
+      <c r="AAM40" s="0"/>
+      <c r="AAN40" s="0"/>
+      <c r="AAO40" s="0"/>
+      <c r="AAP40" s="0"/>
+      <c r="AAQ40" s="0"/>
+      <c r="AAR40" s="0"/>
+      <c r="AAS40" s="0"/>
+      <c r="AAT40" s="0"/>
+      <c r="AAU40" s="0"/>
+      <c r="AAV40" s="0"/>
+      <c r="AAW40" s="0"/>
+      <c r="AAX40" s="0"/>
+      <c r="AAY40" s="0"/>
+      <c r="AAZ40" s="0"/>
+      <c r="ABA40" s="0"/>
+      <c r="ABB40" s="0"/>
+      <c r="ABC40" s="0"/>
+      <c r="ABD40" s="0"/>
+      <c r="ABE40" s="0"/>
+      <c r="ABF40" s="0"/>
+      <c r="ABG40" s="0"/>
+      <c r="ABH40" s="0"/>
+      <c r="ABI40" s="0"/>
+      <c r="ABJ40" s="0"/>
+      <c r="ABK40" s="0"/>
+      <c r="ABL40" s="0"/>
+      <c r="ABM40" s="0"/>
+      <c r="ABN40" s="0"/>
+      <c r="ABO40" s="0"/>
+      <c r="ABP40" s="0"/>
+      <c r="ABQ40" s="0"/>
+      <c r="ABR40" s="0"/>
+      <c r="ABS40" s="0"/>
+      <c r="ABT40" s="0"/>
+      <c r="ABU40" s="0"/>
+      <c r="ABV40" s="0"/>
+      <c r="ABW40" s="0"/>
+      <c r="ABX40" s="0"/>
+      <c r="ABY40" s="0"/>
+      <c r="ABZ40" s="0"/>
+      <c r="ACA40" s="0"/>
+      <c r="ACB40" s="0"/>
+      <c r="ACC40" s="0"/>
+      <c r="ACD40" s="0"/>
+      <c r="ACE40" s="0"/>
+      <c r="ACF40" s="0"/>
+      <c r="ACG40" s="0"/>
+      <c r="ACH40" s="0"/>
+      <c r="ACI40" s="0"/>
+      <c r="ACJ40" s="0"/>
+      <c r="ACK40" s="0"/>
+      <c r="ACL40" s="0"/>
+      <c r="ACM40" s="0"/>
+      <c r="ACN40" s="0"/>
+      <c r="ACO40" s="0"/>
+      <c r="ACP40" s="0"/>
+      <c r="ACQ40" s="0"/>
+      <c r="ACR40" s="0"/>
+      <c r="ACS40" s="0"/>
+      <c r="ACT40" s="0"/>
+      <c r="ACU40" s="0"/>
+      <c r="ACV40" s="0"/>
+      <c r="ACW40" s="0"/>
+      <c r="ACX40" s="0"/>
+      <c r="ACY40" s="0"/>
+      <c r="ACZ40" s="0"/>
+      <c r="ADA40" s="0"/>
+      <c r="ADB40" s="0"/>
+      <c r="ADC40" s="0"/>
+      <c r="ADD40" s="0"/>
+      <c r="ADE40" s="0"/>
+      <c r="ADF40" s="0"/>
+      <c r="ADG40" s="0"/>
+      <c r="ADH40" s="0"/>
+      <c r="ADI40" s="0"/>
+      <c r="ADJ40" s="0"/>
+      <c r="ADK40" s="0"/>
+      <c r="ADL40" s="0"/>
+      <c r="ADM40" s="0"/>
+      <c r="ADN40" s="0"/>
+      <c r="ADO40" s="0"/>
+      <c r="ADP40" s="0"/>
+      <c r="ADQ40" s="0"/>
+      <c r="ADR40" s="0"/>
+      <c r="ADS40" s="0"/>
+      <c r="ADT40" s="0"/>
+      <c r="ADU40" s="0"/>
+      <c r="ADV40" s="0"/>
+      <c r="ADW40" s="0"/>
+      <c r="ADX40" s="0"/>
+      <c r="ADY40" s="0"/>
+      <c r="ADZ40" s="0"/>
+      <c r="AEA40" s="0"/>
+      <c r="AEB40" s="0"/>
+      <c r="AEC40" s="0"/>
+      <c r="AED40" s="0"/>
+      <c r="AEE40" s="0"/>
+      <c r="AEF40" s="0"/>
+      <c r="AEG40" s="0"/>
+      <c r="AEH40" s="0"/>
+      <c r="AEI40" s="0"/>
+      <c r="AEJ40" s="0"/>
+      <c r="AEK40" s="0"/>
+      <c r="AEL40" s="0"/>
+      <c r="AEM40" s="0"/>
+      <c r="AEN40" s="0"/>
+      <c r="AEO40" s="0"/>
+      <c r="AEP40" s="0"/>
+      <c r="AEQ40" s="0"/>
+      <c r="AER40" s="0"/>
+      <c r="AES40" s="0"/>
+      <c r="AET40" s="0"/>
+      <c r="AEU40" s="0"/>
+      <c r="AEV40" s="0"/>
+      <c r="AEW40" s="0"/>
+      <c r="AEX40" s="0"/>
+      <c r="AEY40" s="0"/>
+      <c r="AEZ40" s="0"/>
+      <c r="AFA40" s="0"/>
+      <c r="AFB40" s="0"/>
+      <c r="AFC40" s="0"/>
+      <c r="AFD40" s="0"/>
+      <c r="AFE40" s="0"/>
+      <c r="AFF40" s="0"/>
+      <c r="AFG40" s="0"/>
+      <c r="AFH40" s="0"/>
+      <c r="AFI40" s="0"/>
+      <c r="AFJ40" s="0"/>
+      <c r="AFK40" s="0"/>
+      <c r="AFL40" s="0"/>
+      <c r="AFM40" s="0"/>
+      <c r="AFN40" s="0"/>
+      <c r="AFO40" s="0"/>
+      <c r="AFP40" s="0"/>
+      <c r="AFQ40" s="0"/>
+      <c r="AFR40" s="0"/>
+      <c r="AFS40" s="0"/>
+      <c r="AFT40" s="0"/>
+      <c r="AFU40" s="0"/>
+      <c r="AFV40" s="0"/>
+      <c r="AFW40" s="0"/>
+      <c r="AFX40" s="0"/>
+      <c r="AFY40" s="0"/>
+      <c r="AFZ40" s="0"/>
+      <c r="AGA40" s="0"/>
+      <c r="AGB40" s="0"/>
+      <c r="AGC40" s="0"/>
+      <c r="AGD40" s="0"/>
+      <c r="AGE40" s="0"/>
+      <c r="AGF40" s="0"/>
+      <c r="AGG40" s="0"/>
+      <c r="AGH40" s="0"/>
+      <c r="AGI40" s="0"/>
+      <c r="AGJ40" s="0"/>
+      <c r="AGK40" s="0"/>
+      <c r="AGL40" s="0"/>
+      <c r="AGM40" s="0"/>
+      <c r="AGN40" s="0"/>
+      <c r="AGO40" s="0"/>
+      <c r="AGP40" s="0"/>
+      <c r="AGQ40" s="0"/>
+      <c r="AGR40" s="0"/>
+      <c r="AGS40" s="0"/>
+      <c r="AGT40" s="0"/>
+      <c r="AGU40" s="0"/>
+      <c r="AGV40" s="0"/>
+      <c r="AGW40" s="0"/>
+      <c r="AGX40" s="0"/>
+      <c r="AGY40" s="0"/>
+      <c r="AGZ40" s="0"/>
+      <c r="AHA40" s="0"/>
+      <c r="AHB40" s="0"/>
+      <c r="AHC40" s="0"/>
+      <c r="AHD40" s="0"/>
+      <c r="AHE40" s="0"/>
+      <c r="AHF40" s="0"/>
+      <c r="AHG40" s="0"/>
+      <c r="AHH40" s="0"/>
+      <c r="AHI40" s="0"/>
+      <c r="AHJ40" s="0"/>
+      <c r="AHK40" s="0"/>
+      <c r="AHL40" s="0"/>
+      <c r="AHM40" s="0"/>
+      <c r="AHN40" s="0"/>
+      <c r="AHO40" s="0"/>
+      <c r="AHP40" s="0"/>
+      <c r="AHQ40" s="0"/>
+      <c r="AHR40" s="0"/>
+      <c r="AHS40" s="0"/>
+      <c r="AHT40" s="0"/>
+      <c r="AHU40" s="0"/>
+      <c r="AHV40" s="0"/>
+      <c r="AHW40" s="0"/>
+      <c r="AHX40" s="0"/>
+      <c r="AHY40" s="0"/>
+      <c r="AHZ40" s="0"/>
+      <c r="AIA40" s="0"/>
+      <c r="AIB40" s="0"/>
+      <c r="AIC40" s="0"/>
+      <c r="AID40" s="0"/>
+      <c r="AIE40" s="0"/>
+      <c r="AIF40" s="0"/>
+      <c r="AIG40" s="0"/>
+      <c r="AIH40" s="0"/>
+      <c r="AII40" s="0"/>
+      <c r="AIJ40" s="0"/>
+      <c r="AIK40" s="0"/>
+      <c r="AIL40" s="0"/>
+      <c r="AIM40" s="0"/>
+      <c r="AIN40" s="0"/>
+      <c r="AIO40" s="0"/>
+      <c r="AIP40" s="0"/>
+      <c r="AIQ40" s="0"/>
+      <c r="AIR40" s="0"/>
+      <c r="AIS40" s="0"/>
+      <c r="AIT40" s="0"/>
+      <c r="AIU40" s="0"/>
+      <c r="AIV40" s="0"/>
+      <c r="AIW40" s="0"/>
+      <c r="AIX40" s="0"/>
+      <c r="AIY40" s="0"/>
+      <c r="AIZ40" s="0"/>
+      <c r="AJA40" s="0"/>
+      <c r="AJB40" s="0"/>
+      <c r="AJC40" s="0"/>
+      <c r="AJD40" s="0"/>
+      <c r="AJE40" s="0"/>
+      <c r="AJF40" s="0"/>
+      <c r="AJG40" s="0"/>
+      <c r="AJH40" s="0"/>
+      <c r="AJI40" s="0"/>
+      <c r="AJJ40" s="0"/>
+      <c r="AJK40" s="0"/>
+      <c r="AJL40" s="0"/>
+      <c r="AJM40" s="0"/>
+      <c r="AJN40" s="0"/>
+      <c r="AJO40" s="0"/>
+      <c r="AJP40" s="0"/>
+      <c r="AJQ40" s="0"/>
+      <c r="AJR40" s="0"/>
+      <c r="AJS40" s="0"/>
+      <c r="AJT40" s="0"/>
+      <c r="AJU40" s="0"/>
+      <c r="AJV40" s="0"/>
+      <c r="AJW40" s="0"/>
+      <c r="AJX40" s="0"/>
+      <c r="AJY40" s="0"/>
+      <c r="AJZ40" s="0"/>
+      <c r="AKA40" s="0"/>
+      <c r="AKB40" s="0"/>
+      <c r="AKC40" s="0"/>
+      <c r="AKD40" s="0"/>
+      <c r="AKE40" s="0"/>
+      <c r="AKF40" s="0"/>
+      <c r="AKG40" s="0"/>
+      <c r="AKH40" s="0"/>
+      <c r="AKI40" s="0"/>
+      <c r="AKJ40" s="0"/>
+      <c r="AKK40" s="0"/>
+      <c r="AKL40" s="0"/>
+      <c r="AKM40" s="0"/>
+      <c r="AKN40" s="0"/>
+      <c r="AKO40" s="0"/>
+      <c r="AKP40" s="0"/>
+      <c r="AKQ40" s="0"/>
+      <c r="AKR40" s="0"/>
+      <c r="AKS40" s="0"/>
+      <c r="AKT40" s="0"/>
+      <c r="AKU40" s="0"/>
+      <c r="AKV40" s="0"/>
+      <c r="AKW40" s="0"/>
+      <c r="AKX40" s="0"/>
+      <c r="AKY40" s="0"/>
+      <c r="AKZ40" s="0"/>
+      <c r="ALA40" s="0"/>
+      <c r="ALB40" s="0"/>
+      <c r="ALC40" s="0"/>
+      <c r="ALD40" s="0"/>
+      <c r="ALE40" s="0"/>
+      <c r="ALF40" s="0"/>
+      <c r="ALG40" s="0"/>
+      <c r="ALH40" s="0"/>
+      <c r="ALI40" s="0"/>
+      <c r="ALJ40" s="0"/>
+      <c r="ALK40" s="0"/>
+      <c r="ALL40" s="0"/>
+      <c r="ALM40" s="0"/>
+      <c r="ALN40" s="0"/>
+      <c r="ALO40" s="0"/>
+      <c r="ALP40" s="0"/>
+      <c r="ALQ40" s="0"/>
+      <c r="ALR40" s="0"/>
+      <c r="ALS40" s="0"/>
+      <c r="ALT40" s="0"/>
+      <c r="ALU40" s="0"/>
+      <c r="ALV40" s="0"/>
+      <c r="ALW40" s="0"/>
+      <c r="ALX40" s="0"/>
+      <c r="ALY40" s="0"/>
+      <c r="ALZ40" s="0"/>
+      <c r="AMA40" s="0"/>
+      <c r="AMB40" s="0"/>
+      <c r="AMC40" s="0"/>
+      <c r="AMD40" s="0"/>
+      <c r="AME40" s="0"/>
+      <c r="AMF40" s="0"/>
+      <c r="AMG40" s="0"/>
+      <c r="AMH40" s="0"/>
+      <c r="AMI40" s="0"/>
+      <c r="AMJ40" s="0"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/spec/data/swissmedic_package.xlsx
+++ b/spec/data/swissmedic_package.xlsx
@@ -17,6 +17,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0" vbProcedure="false">'Zugelassene Packungen'!$5:$5</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0" vbProcedure="false">'Zugelassene Packungen'!$5:$5</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0" vbProcedure="false">'Zugelassene Packungen'!$5:$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0" vbProcedure="false">'Zugelassene Packungen'!$5:$5</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="289">
   <si>
     <t xml:space="preserve">Zugelassene Packungen / Conditionnements autorisés</t>
   </si>
@@ -956,18 +957,38 @@
   <si>
     <t xml:space="preserve">Onkologikum</t>
   </si>
+  <si>
+    <t xml:space="preserve">Priorix-Tetra, Pulver und Lösungsmittel zur Herstellung einer Injektionslösung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GlaxoSmithKline AG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J07BD54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">virus morbilli vivus (Stamm: Schwarz), virus parotitis vivus (Stamm: RIT 4385), virus rubella vivus (Stamm: Wistar RA 27/3), virus varicellae vivus (Stamm: OKA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaccinum attenuatum: virus morbilli vivus (Stamm: Schwarz) min. 10^3 U., virus parotitis vivus (Stamm: RIT 4385) min.10^4.4 U., virus rubella vivus (Stamm: Wistar RA 27/3) min.10^3 U., virus varicellae vivus (Stamm: OKA) min.10^3.3 U., lactosum, sorbitolum, mannitolum, aminoacida, residui: neomycini sulfas nihil, pro praeparatione.
+Solvens: aqua ad iniectabilia q.s. ad suspensionem pro 0.5 ml.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aktive Immunisierung gegen Masern, Mumps, Röteln und Varizellen, ab dem vollendeten 12. Lebensmonat</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="00000"/>
     <numFmt numFmtId="166" formatCode="DD/MM/YY;@"/>
     <numFmt numFmtId="167" formatCode="00"/>
     <numFmt numFmtId="168" formatCode="DD/MM/YYYY"/>
     <numFmt numFmtId="169" formatCode="000"/>
+    <numFmt numFmtId="170" formatCode="DD/MM/YYYY"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -1123,7 +1144,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1151,37 +1172,41 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="58">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1205,63 +1230,63 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="21" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="21" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="21" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1281,15 +1306,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1325,23 +1350,23 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1353,15 +1378,48 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Standard 2" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1437,9 +1495,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>444600</xdr:colOff>
+      <xdr:colOff>444240</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>37080</xdr:rowOff>
+      <xdr:rowOff>36720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1453,7 +1511,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="36360" y="360"/>
-          <a:ext cx="1685160" cy="569880"/>
+          <a:ext cx="1684800" cy="569520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1473,12 +1531,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ40"/>
+  <dimension ref="A1:AMJ41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="5" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A40" activeCellId="0" sqref="40:40"/>
+      <selection pane="bottomLeft" activeCell="A41" activeCellId="0" sqref="41:41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19870,6 +19928,69 @@
       <c r="AMI40" s="0"/>
       <c r="AMJ40" s="0"/>
     </row>
+    <row r="41" s="57" customFormat="true" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="50" t="n">
+        <v>58158</v>
+      </c>
+      <c r="B41" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="52" t="s">
+        <v>283</v>
+      </c>
+      <c r="D41" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="E41" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="F41" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="G41" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="H41" s="54" t="n">
+        <v>39296</v>
+      </c>
+      <c r="I41" s="54" t="n">
+        <v>40027</v>
+      </c>
+      <c r="J41" s="55" t="n">
+        <v>44774</v>
+      </c>
+      <c r="K41" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="M41" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="N41" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="O41" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="P41" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q41" s="52" t="s">
+        <v>286</v>
+      </c>
+      <c r="R41" s="52" t="s">
+        <v>287</v>
+      </c>
+      <c r="S41" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="T41" s="52"/>
+      <c r="U41" s="53"/>
+      <c r="V41" s="52"/>
+      <c r="W41" s="53"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>

--- a/spec/data/swissmedic_package.xlsx
+++ b/spec/data/swissmedic_package.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="301">
   <si>
     <t xml:space="preserve">Zugelassene Packungen / Conditionnements autorisés</t>
   </si>
@@ -975,6 +975,42 @@
   </si>
   <si>
     <t xml:space="preserve">aktive Immunisierung gegen Masern, Mumps, Röteln und Varizellen, ab dem vollendeten 12. Lebensmonat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lopresor Retard 200, Divitabs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daiichi Sankyo (Schweiz) AG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02.03.0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C07AB02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metoprololi tartras (2:1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metoprololi tartras (2:1) 200 mg, excipiens pro compresso obducto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betarezeptorenblocker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lopresor 100, Filmtabletten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metoprololi tartras (2:1) 100 mg, excipiens pro compresso obducto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta-Rezeptorenblocker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200</t>
   </si>
 </sst>
 </file>
@@ -1531,12 +1567,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ41"/>
+  <dimension ref="A1:AMJ45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="5" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A41" activeCellId="0" sqref="41:41"/>
+      <selection pane="bottomLeft" activeCell="A44" activeCellId="0" sqref="44:45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17800,1070 +17836,70 @@
       <c r="AMI38" s="0"/>
       <c r="AMJ38" s="0"/>
     </row>
-    <row r="39" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="36" t="n">
+    <row r="39" s="57" customFormat="true" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="50" t="n">
         <v>55561</v>
       </c>
-      <c r="B39" s="49" t="n">
+      <c r="B39" s="51" t="n">
         <v>2</v>
       </c>
-      <c r="C39" s="38" t="s">
+      <c r="C39" s="52" t="s">
         <v>265</v>
       </c>
-      <c r="D39" s="38" t="s">
+      <c r="D39" s="52" t="s">
         <v>266</v>
       </c>
-      <c r="E39" s="39" t="s">
+      <c r="E39" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="F39" s="39" t="s">
+      <c r="F39" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="G39" s="39" t="s">
+      <c r="G39" s="53" t="s">
         <v>268</v>
       </c>
-      <c r="H39" s="40" t="n">
+      <c r="H39" s="54" t="n">
         <v>37232</v>
       </c>
-      <c r="I39" s="40" t="n">
+      <c r="I39" s="54" t="n">
         <v>37232</v>
       </c>
-      <c r="J39" s="41" t="n">
+      <c r="J39" s="55" t="n">
         <v>43732</v>
       </c>
-      <c r="K39" s="48" t="n">
+      <c r="K39" s="56" t="n">
         <v>4</v>
       </c>
-      <c r="L39" s="36" t="s">
+      <c r="L39" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="M39" s="38" t="s">
+      <c r="M39" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="N39" s="39" t="s">
+      <c r="N39" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="O39" s="39" t="s">
+      <c r="O39" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="P39" s="39" t="s">
+      <c r="P39" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="Q39" s="38" t="s">
+      <c r="Q39" s="52" t="s">
         <v>270</v>
       </c>
-      <c r="R39" s="38" t="s">
+      <c r="R39" s="52" t="s">
         <v>271</v>
       </c>
-      <c r="S39" s="38" t="s">
+      <c r="S39" s="52" t="s">
         <v>272</v>
       </c>
-      <c r="T39" s="38"/>
-      <c r="U39" s="39"/>
-      <c r="V39" s="38"/>
-      <c r="W39" s="39" t="s">
+      <c r="T39" s="52"/>
+      <c r="U39" s="53"/>
+      <c r="V39" s="52"/>
+      <c r="W39" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="Y39" s="0"/>
-      <c r="Z39" s="0"/>
-      <c r="AA39" s="0"/>
-      <c r="AB39" s="0"/>
-      <c r="AC39" s="0"/>
-      <c r="AD39" s="0"/>
-      <c r="AE39" s="0"/>
-      <c r="AF39" s="0"/>
-      <c r="AG39" s="0"/>
-      <c r="AH39" s="0"/>
-      <c r="AI39" s="0"/>
-      <c r="AJ39" s="0"/>
-      <c r="AK39" s="0"/>
-      <c r="AL39" s="0"/>
-      <c r="AM39" s="0"/>
-      <c r="AN39" s="0"/>
-      <c r="AO39" s="0"/>
-      <c r="AP39" s="0"/>
-      <c r="AQ39" s="0"/>
-      <c r="AR39" s="0"/>
-      <c r="AS39" s="0"/>
-      <c r="AT39" s="0"/>
-      <c r="AU39" s="0"/>
-      <c r="AV39" s="0"/>
-      <c r="AW39" s="0"/>
-      <c r="AX39" s="0"/>
-      <c r="AY39" s="0"/>
-      <c r="AZ39" s="0"/>
-      <c r="BA39" s="0"/>
-      <c r="BB39" s="0"/>
-      <c r="BC39" s="0"/>
-      <c r="BD39" s="0"/>
-      <c r="BE39" s="0"/>
-      <c r="BF39" s="0"/>
-      <c r="BG39" s="0"/>
-      <c r="BH39" s="0"/>
-      <c r="BI39" s="0"/>
-      <c r="BJ39" s="0"/>
-      <c r="BK39" s="0"/>
-      <c r="BL39" s="0"/>
-      <c r="BM39" s="0"/>
-      <c r="BN39" s="0"/>
-      <c r="BO39" s="0"/>
-      <c r="BP39" s="0"/>
-      <c r="BQ39" s="0"/>
-      <c r="BR39" s="0"/>
-      <c r="BS39" s="0"/>
-      <c r="BT39" s="0"/>
-      <c r="BU39" s="0"/>
-      <c r="BV39" s="0"/>
-      <c r="BW39" s="0"/>
-      <c r="BX39" s="0"/>
-      <c r="BY39" s="0"/>
-      <c r="BZ39" s="0"/>
-      <c r="CA39" s="0"/>
-      <c r="CB39" s="0"/>
-      <c r="CC39" s="0"/>
-      <c r="CD39" s="0"/>
-      <c r="CE39" s="0"/>
-      <c r="CF39" s="0"/>
-      <c r="CG39" s="0"/>
-      <c r="CH39" s="0"/>
-      <c r="CI39" s="0"/>
-      <c r="CJ39" s="0"/>
-      <c r="CK39" s="0"/>
-      <c r="CL39" s="0"/>
-      <c r="CM39" s="0"/>
-      <c r="CN39" s="0"/>
-      <c r="CO39" s="0"/>
-      <c r="CP39" s="0"/>
-      <c r="CQ39" s="0"/>
-      <c r="CR39" s="0"/>
-      <c r="CS39" s="0"/>
-      <c r="CT39" s="0"/>
-      <c r="CU39" s="0"/>
-      <c r="CV39" s="0"/>
-      <c r="CW39" s="0"/>
-      <c r="CX39" s="0"/>
-      <c r="CY39" s="0"/>
-      <c r="CZ39" s="0"/>
-      <c r="DA39" s="0"/>
-      <c r="DB39" s="0"/>
-      <c r="DC39" s="0"/>
-      <c r="DD39" s="0"/>
-      <c r="DE39" s="0"/>
-      <c r="DF39" s="0"/>
-      <c r="DG39" s="0"/>
-      <c r="DH39" s="0"/>
-      <c r="DI39" s="0"/>
-      <c r="DJ39" s="0"/>
-      <c r="DK39" s="0"/>
-      <c r="DL39" s="0"/>
-      <c r="DM39" s="0"/>
-      <c r="DN39" s="0"/>
-      <c r="DO39" s="0"/>
-      <c r="DP39" s="0"/>
-      <c r="DQ39" s="0"/>
-      <c r="DR39" s="0"/>
-      <c r="DS39" s="0"/>
-      <c r="DT39" s="0"/>
-      <c r="DU39" s="0"/>
-      <c r="DV39" s="0"/>
-      <c r="DW39" s="0"/>
-      <c r="DX39" s="0"/>
-      <c r="DY39" s="0"/>
-      <c r="DZ39" s="0"/>
-      <c r="EA39" s="0"/>
-      <c r="EB39" s="0"/>
-      <c r="EC39" s="0"/>
-      <c r="ED39" s="0"/>
-      <c r="EE39" s="0"/>
-      <c r="EF39" s="0"/>
-      <c r="EG39" s="0"/>
-      <c r="EH39" s="0"/>
-      <c r="EI39" s="0"/>
-      <c r="EJ39" s="0"/>
-      <c r="EK39" s="0"/>
-      <c r="EL39" s="0"/>
-      <c r="EM39" s="0"/>
-      <c r="EN39" s="0"/>
-      <c r="EO39" s="0"/>
-      <c r="EP39" s="0"/>
-      <c r="EQ39" s="0"/>
-      <c r="ER39" s="0"/>
-      <c r="ES39" s="0"/>
-      <c r="ET39" s="0"/>
-      <c r="EU39" s="0"/>
-      <c r="EV39" s="0"/>
-      <c r="EW39" s="0"/>
-      <c r="EX39" s="0"/>
-      <c r="EY39" s="0"/>
-      <c r="EZ39" s="0"/>
-      <c r="FA39" s="0"/>
-      <c r="FB39" s="0"/>
-      <c r="FC39" s="0"/>
-      <c r="FD39" s="0"/>
-      <c r="FE39" s="0"/>
-      <c r="FF39" s="0"/>
-      <c r="FG39" s="0"/>
-      <c r="FH39" s="0"/>
-      <c r="FI39" s="0"/>
-      <c r="FJ39" s="0"/>
-      <c r="FK39" s="0"/>
-      <c r="FL39" s="0"/>
-      <c r="FM39" s="0"/>
-      <c r="FN39" s="0"/>
-      <c r="FO39" s="0"/>
-      <c r="FP39" s="0"/>
-      <c r="FQ39" s="0"/>
-      <c r="FR39" s="0"/>
-      <c r="FS39" s="0"/>
-      <c r="FT39" s="0"/>
-      <c r="FU39" s="0"/>
-      <c r="FV39" s="0"/>
-      <c r="FW39" s="0"/>
-      <c r="FX39" s="0"/>
-      <c r="FY39" s="0"/>
-      <c r="FZ39" s="0"/>
-      <c r="GA39" s="0"/>
-      <c r="GB39" s="0"/>
-      <c r="GC39" s="0"/>
-      <c r="GD39" s="0"/>
-      <c r="GE39" s="0"/>
-      <c r="GF39" s="0"/>
-      <c r="GG39" s="0"/>
-      <c r="GH39" s="0"/>
-      <c r="GI39" s="0"/>
-      <c r="GJ39" s="0"/>
-      <c r="GK39" s="0"/>
-      <c r="GL39" s="0"/>
-      <c r="GM39" s="0"/>
-      <c r="GN39" s="0"/>
-      <c r="GO39" s="0"/>
-      <c r="GP39" s="0"/>
-      <c r="GQ39" s="0"/>
-      <c r="GR39" s="0"/>
-      <c r="GS39" s="0"/>
-      <c r="GT39" s="0"/>
-      <c r="GU39" s="0"/>
-      <c r="GV39" s="0"/>
-      <c r="GW39" s="0"/>
-      <c r="GX39" s="0"/>
-      <c r="GY39" s="0"/>
-      <c r="GZ39" s="0"/>
-      <c r="HA39" s="0"/>
-      <c r="HB39" s="0"/>
-      <c r="HC39" s="0"/>
-      <c r="HD39" s="0"/>
-      <c r="HE39" s="0"/>
-      <c r="HF39" s="0"/>
-      <c r="HG39" s="0"/>
-      <c r="HH39" s="0"/>
-      <c r="HI39" s="0"/>
-      <c r="HJ39" s="0"/>
-      <c r="HK39" s="0"/>
-      <c r="HL39" s="0"/>
-      <c r="HM39" s="0"/>
-      <c r="HN39" s="0"/>
-      <c r="HO39" s="0"/>
-      <c r="HP39" s="0"/>
-      <c r="HQ39" s="0"/>
-      <c r="HR39" s="0"/>
-      <c r="HS39" s="0"/>
-      <c r="HT39" s="0"/>
-      <c r="HU39" s="0"/>
-      <c r="HV39" s="0"/>
-      <c r="HW39" s="0"/>
-      <c r="HX39" s="0"/>
-      <c r="HY39" s="0"/>
-      <c r="HZ39" s="0"/>
-      <c r="IA39" s="0"/>
-      <c r="IB39" s="0"/>
-      <c r="IC39" s="0"/>
-      <c r="ID39" s="0"/>
-      <c r="IE39" s="0"/>
-      <c r="IF39" s="0"/>
-      <c r="IG39" s="0"/>
-      <c r="IH39" s="0"/>
-      <c r="II39" s="0"/>
-      <c r="IJ39" s="0"/>
-      <c r="IK39" s="0"/>
-      <c r="IL39" s="0"/>
-      <c r="IM39" s="0"/>
-      <c r="IN39" s="0"/>
-      <c r="IO39" s="0"/>
-      <c r="IP39" s="0"/>
-      <c r="IQ39" s="0"/>
-      <c r="IR39" s="0"/>
-      <c r="IS39" s="0"/>
-      <c r="IT39" s="0"/>
-      <c r="IU39" s="0"/>
-      <c r="IV39" s="0"/>
-      <c r="IW39" s="0"/>
-      <c r="IX39" s="0"/>
-      <c r="IY39" s="0"/>
-      <c r="IZ39" s="0"/>
-      <c r="JA39" s="0"/>
-      <c r="JB39" s="0"/>
-      <c r="JC39" s="0"/>
-      <c r="JD39" s="0"/>
-      <c r="JE39" s="0"/>
-      <c r="JF39" s="0"/>
-      <c r="JG39" s="0"/>
-      <c r="JH39" s="0"/>
-      <c r="JI39" s="0"/>
-      <c r="JJ39" s="0"/>
-      <c r="JK39" s="0"/>
-      <c r="JL39" s="0"/>
-      <c r="JM39" s="0"/>
-      <c r="JN39" s="0"/>
-      <c r="JO39" s="0"/>
-      <c r="JP39" s="0"/>
-      <c r="JQ39" s="0"/>
-      <c r="JR39" s="0"/>
-      <c r="JS39" s="0"/>
-      <c r="JT39" s="0"/>
-      <c r="JU39" s="0"/>
-      <c r="JV39" s="0"/>
-      <c r="JW39" s="0"/>
-      <c r="JX39" s="0"/>
-      <c r="JY39" s="0"/>
-      <c r="JZ39" s="0"/>
-      <c r="KA39" s="0"/>
-      <c r="KB39" s="0"/>
-      <c r="KC39" s="0"/>
-      <c r="KD39" s="0"/>
-      <c r="KE39" s="0"/>
-      <c r="KF39" s="0"/>
-      <c r="KG39" s="0"/>
-      <c r="KH39" s="0"/>
-      <c r="KI39" s="0"/>
-      <c r="KJ39" s="0"/>
-      <c r="KK39" s="0"/>
-      <c r="KL39" s="0"/>
-      <c r="KM39" s="0"/>
-      <c r="KN39" s="0"/>
-      <c r="KO39" s="0"/>
-      <c r="KP39" s="0"/>
-      <c r="KQ39" s="0"/>
-      <c r="KR39" s="0"/>
-      <c r="KS39" s="0"/>
-      <c r="KT39" s="0"/>
-      <c r="KU39" s="0"/>
-      <c r="KV39" s="0"/>
-      <c r="KW39" s="0"/>
-      <c r="KX39" s="0"/>
-      <c r="KY39" s="0"/>
-      <c r="KZ39" s="0"/>
-      <c r="LA39" s="0"/>
-      <c r="LB39" s="0"/>
-      <c r="LC39" s="0"/>
-      <c r="LD39" s="0"/>
-      <c r="LE39" s="0"/>
-      <c r="LF39" s="0"/>
-      <c r="LG39" s="0"/>
-      <c r="LH39" s="0"/>
-      <c r="LI39" s="0"/>
-      <c r="LJ39" s="0"/>
-      <c r="LK39" s="0"/>
-      <c r="LL39" s="0"/>
-      <c r="LM39" s="0"/>
-      <c r="LN39" s="0"/>
-      <c r="LO39" s="0"/>
-      <c r="LP39" s="0"/>
-      <c r="LQ39" s="0"/>
-      <c r="LR39" s="0"/>
-      <c r="LS39" s="0"/>
-      <c r="LT39" s="0"/>
-      <c r="LU39" s="0"/>
-      <c r="LV39" s="0"/>
-      <c r="LW39" s="0"/>
-      <c r="LX39" s="0"/>
-      <c r="LY39" s="0"/>
-      <c r="LZ39" s="0"/>
-      <c r="MA39" s="0"/>
-      <c r="MB39" s="0"/>
-      <c r="MC39" s="0"/>
-      <c r="MD39" s="0"/>
-      <c r="ME39" s="0"/>
-      <c r="MF39" s="0"/>
-      <c r="MG39" s="0"/>
-      <c r="MH39" s="0"/>
-      <c r="MI39" s="0"/>
-      <c r="MJ39" s="0"/>
-      <c r="MK39" s="0"/>
-      <c r="ML39" s="0"/>
-      <c r="MM39" s="0"/>
-      <c r="MN39" s="0"/>
-      <c r="MO39" s="0"/>
-      <c r="MP39" s="0"/>
-      <c r="MQ39" s="0"/>
-      <c r="MR39" s="0"/>
-      <c r="MS39" s="0"/>
-      <c r="MT39" s="0"/>
-      <c r="MU39" s="0"/>
-      <c r="MV39" s="0"/>
-      <c r="MW39" s="0"/>
-      <c r="MX39" s="0"/>
-      <c r="MY39" s="0"/>
-      <c r="MZ39" s="0"/>
-      <c r="NA39" s="0"/>
-      <c r="NB39" s="0"/>
-      <c r="NC39" s="0"/>
-      <c r="ND39" s="0"/>
-      <c r="NE39" s="0"/>
-      <c r="NF39" s="0"/>
-      <c r="NG39" s="0"/>
-      <c r="NH39" s="0"/>
-      <c r="NI39" s="0"/>
-      <c r="NJ39" s="0"/>
-      <c r="NK39" s="0"/>
-      <c r="NL39" s="0"/>
-      <c r="NM39" s="0"/>
-      <c r="NN39" s="0"/>
-      <c r="NO39" s="0"/>
-      <c r="NP39" s="0"/>
-      <c r="NQ39" s="0"/>
-      <c r="NR39" s="0"/>
-      <c r="NS39" s="0"/>
-      <c r="NT39" s="0"/>
-      <c r="NU39" s="0"/>
-      <c r="NV39" s="0"/>
-      <c r="NW39" s="0"/>
-      <c r="NX39" s="0"/>
-      <c r="NY39" s="0"/>
-      <c r="NZ39" s="0"/>
-      <c r="OA39" s="0"/>
-      <c r="OB39" s="0"/>
-      <c r="OC39" s="0"/>
-      <c r="OD39" s="0"/>
-      <c r="OE39" s="0"/>
-      <c r="OF39" s="0"/>
-      <c r="OG39" s="0"/>
-      <c r="OH39" s="0"/>
-      <c r="OI39" s="0"/>
-      <c r="OJ39" s="0"/>
-      <c r="OK39" s="0"/>
-      <c r="OL39" s="0"/>
-      <c r="OM39" s="0"/>
-      <c r="ON39" s="0"/>
-      <c r="OO39" s="0"/>
-      <c r="OP39" s="0"/>
-      <c r="OQ39" s="0"/>
-      <c r="OR39" s="0"/>
-      <c r="OS39" s="0"/>
-      <c r="OT39" s="0"/>
-      <c r="OU39" s="0"/>
-      <c r="OV39" s="0"/>
-      <c r="OW39" s="0"/>
-      <c r="OX39" s="0"/>
-      <c r="OY39" s="0"/>
-      <c r="OZ39" s="0"/>
-      <c r="PA39" s="0"/>
-      <c r="PB39" s="0"/>
-      <c r="PC39" s="0"/>
-      <c r="PD39" s="0"/>
-      <c r="PE39" s="0"/>
-      <c r="PF39" s="0"/>
-      <c r="PG39" s="0"/>
-      <c r="PH39" s="0"/>
-      <c r="PI39" s="0"/>
-      <c r="PJ39" s="0"/>
-      <c r="PK39" s="0"/>
-      <c r="PL39" s="0"/>
-      <c r="PM39" s="0"/>
-      <c r="PN39" s="0"/>
-      <c r="PO39" s="0"/>
-      <c r="PP39" s="0"/>
-      <c r="PQ39" s="0"/>
-      <c r="PR39" s="0"/>
-      <c r="PS39" s="0"/>
-      <c r="PT39" s="0"/>
-      <c r="PU39" s="0"/>
-      <c r="PV39" s="0"/>
-      <c r="PW39" s="0"/>
-      <c r="PX39" s="0"/>
-      <c r="PY39" s="0"/>
-      <c r="PZ39" s="0"/>
-      <c r="QA39" s="0"/>
-      <c r="QB39" s="0"/>
-      <c r="QC39" s="0"/>
-      <c r="QD39" s="0"/>
-      <c r="QE39" s="0"/>
-      <c r="QF39" s="0"/>
-      <c r="QG39" s="0"/>
-      <c r="QH39" s="0"/>
-      <c r="QI39" s="0"/>
-      <c r="QJ39" s="0"/>
-      <c r="QK39" s="0"/>
-      <c r="QL39" s="0"/>
-      <c r="QM39" s="0"/>
-      <c r="QN39" s="0"/>
-      <c r="QO39" s="0"/>
-      <c r="QP39" s="0"/>
-      <c r="QQ39" s="0"/>
-      <c r="QR39" s="0"/>
-      <c r="QS39" s="0"/>
-      <c r="QT39" s="0"/>
-      <c r="QU39" s="0"/>
-      <c r="QV39" s="0"/>
-      <c r="QW39" s="0"/>
-      <c r="QX39" s="0"/>
-      <c r="QY39" s="0"/>
-      <c r="QZ39" s="0"/>
-      <c r="RA39" s="0"/>
-      <c r="RB39" s="0"/>
-      <c r="RC39" s="0"/>
-      <c r="RD39" s="0"/>
-      <c r="RE39" s="0"/>
-      <c r="RF39" s="0"/>
-      <c r="RG39" s="0"/>
-      <c r="RH39" s="0"/>
-      <c r="RI39" s="0"/>
-      <c r="RJ39" s="0"/>
-      <c r="RK39" s="0"/>
-      <c r="RL39" s="0"/>
-      <c r="RM39" s="0"/>
-      <c r="RN39" s="0"/>
-      <c r="RO39" s="0"/>
-      <c r="RP39" s="0"/>
-      <c r="RQ39" s="0"/>
-      <c r="RR39" s="0"/>
-      <c r="RS39" s="0"/>
-      <c r="RT39" s="0"/>
-      <c r="RU39" s="0"/>
-      <c r="RV39" s="0"/>
-      <c r="RW39" s="0"/>
-      <c r="RX39" s="0"/>
-      <c r="RY39" s="0"/>
-      <c r="RZ39" s="0"/>
-      <c r="SA39" s="0"/>
-      <c r="SB39" s="0"/>
-      <c r="SC39" s="0"/>
-      <c r="SD39" s="0"/>
-      <c r="SE39" s="0"/>
-      <c r="SF39" s="0"/>
-      <c r="SG39" s="0"/>
-      <c r="SH39" s="0"/>
-      <c r="SI39" s="0"/>
-      <c r="SJ39" s="0"/>
-      <c r="SK39" s="0"/>
-      <c r="SL39" s="0"/>
-      <c r="SM39" s="0"/>
-      <c r="SN39" s="0"/>
-      <c r="SO39" s="0"/>
-      <c r="SP39" s="0"/>
-      <c r="SQ39" s="0"/>
-      <c r="SR39" s="0"/>
-      <c r="SS39" s="0"/>
-      <c r="ST39" s="0"/>
-      <c r="SU39" s="0"/>
-      <c r="SV39" s="0"/>
-      <c r="SW39" s="0"/>
-      <c r="SX39" s="0"/>
-      <c r="SY39" s="0"/>
-      <c r="SZ39" s="0"/>
-      <c r="TA39" s="0"/>
-      <c r="TB39" s="0"/>
-      <c r="TC39" s="0"/>
-      <c r="TD39" s="0"/>
-      <c r="TE39" s="0"/>
-      <c r="TF39" s="0"/>
-      <c r="TG39" s="0"/>
-      <c r="TH39" s="0"/>
-      <c r="TI39" s="0"/>
-      <c r="TJ39" s="0"/>
-      <c r="TK39" s="0"/>
-      <c r="TL39" s="0"/>
-      <c r="TM39" s="0"/>
-      <c r="TN39" s="0"/>
-      <c r="TO39" s="0"/>
-      <c r="TP39" s="0"/>
-      <c r="TQ39" s="0"/>
-      <c r="TR39" s="0"/>
-      <c r="TS39" s="0"/>
-      <c r="TT39" s="0"/>
-      <c r="TU39" s="0"/>
-      <c r="TV39" s="0"/>
-      <c r="TW39" s="0"/>
-      <c r="TX39" s="0"/>
-      <c r="TY39" s="0"/>
-      <c r="TZ39" s="0"/>
-      <c r="UA39" s="0"/>
-      <c r="UB39" s="0"/>
-      <c r="UC39" s="0"/>
-      <c r="UD39" s="0"/>
-      <c r="UE39" s="0"/>
-      <c r="UF39" s="0"/>
-      <c r="UG39" s="0"/>
-      <c r="UH39" s="0"/>
-      <c r="UI39" s="0"/>
-      <c r="UJ39" s="0"/>
-      <c r="UK39" s="0"/>
-      <c r="UL39" s="0"/>
-      <c r="UM39" s="0"/>
-      <c r="UN39" s="0"/>
-      <c r="UO39" s="0"/>
-      <c r="UP39" s="0"/>
-      <c r="UQ39" s="0"/>
-      <c r="UR39" s="0"/>
-      <c r="US39" s="0"/>
-      <c r="UT39" s="0"/>
-      <c r="UU39" s="0"/>
-      <c r="UV39" s="0"/>
-      <c r="UW39" s="0"/>
-      <c r="UX39" s="0"/>
-      <c r="UY39" s="0"/>
-      <c r="UZ39" s="0"/>
-      <c r="VA39" s="0"/>
-      <c r="VB39" s="0"/>
-      <c r="VC39" s="0"/>
-      <c r="VD39" s="0"/>
-      <c r="VE39" s="0"/>
-      <c r="VF39" s="0"/>
-      <c r="VG39" s="0"/>
-      <c r="VH39" s="0"/>
-      <c r="VI39" s="0"/>
-      <c r="VJ39" s="0"/>
-      <c r="VK39" s="0"/>
-      <c r="VL39" s="0"/>
-      <c r="VM39" s="0"/>
-      <c r="VN39" s="0"/>
-      <c r="VO39" s="0"/>
-      <c r="VP39" s="0"/>
-      <c r="VQ39" s="0"/>
-      <c r="VR39" s="0"/>
-      <c r="VS39" s="0"/>
-      <c r="VT39" s="0"/>
-      <c r="VU39" s="0"/>
-      <c r="VV39" s="0"/>
-      <c r="VW39" s="0"/>
-      <c r="VX39" s="0"/>
-      <c r="VY39" s="0"/>
-      <c r="VZ39" s="0"/>
-      <c r="WA39" s="0"/>
-      <c r="WB39" s="0"/>
-      <c r="WC39" s="0"/>
-      <c r="WD39" s="0"/>
-      <c r="WE39" s="0"/>
-      <c r="WF39" s="0"/>
-      <c r="WG39" s="0"/>
-      <c r="WH39" s="0"/>
-      <c r="WI39" s="0"/>
-      <c r="WJ39" s="0"/>
-      <c r="WK39" s="0"/>
-      <c r="WL39" s="0"/>
-      <c r="WM39" s="0"/>
-      <c r="WN39" s="0"/>
-      <c r="WO39" s="0"/>
-      <c r="WP39" s="0"/>
-      <c r="WQ39" s="0"/>
-      <c r="WR39" s="0"/>
-      <c r="WS39" s="0"/>
-      <c r="WT39" s="0"/>
-      <c r="WU39" s="0"/>
-      <c r="WV39" s="0"/>
-      <c r="WW39" s="0"/>
-      <c r="WX39" s="0"/>
-      <c r="WY39" s="0"/>
-      <c r="WZ39" s="0"/>
-      <c r="XA39" s="0"/>
-      <c r="XB39" s="0"/>
-      <c r="XC39" s="0"/>
-      <c r="XD39" s="0"/>
-      <c r="XE39" s="0"/>
-      <c r="XF39" s="0"/>
-      <c r="XG39" s="0"/>
-      <c r="XH39" s="0"/>
-      <c r="XI39" s="0"/>
-      <c r="XJ39" s="0"/>
-      <c r="XK39" s="0"/>
-      <c r="XL39" s="0"/>
-      <c r="XM39" s="0"/>
-      <c r="XN39" s="0"/>
-      <c r="XO39" s="0"/>
-      <c r="XP39" s="0"/>
-      <c r="XQ39" s="0"/>
-      <c r="XR39" s="0"/>
-      <c r="XS39" s="0"/>
-      <c r="XT39" s="0"/>
-      <c r="XU39" s="0"/>
-      <c r="XV39" s="0"/>
-      <c r="XW39" s="0"/>
-      <c r="XX39" s="0"/>
-      <c r="XY39" s="0"/>
-      <c r="XZ39" s="0"/>
-      <c r="YA39" s="0"/>
-      <c r="YB39" s="0"/>
-      <c r="YC39" s="0"/>
-      <c r="YD39" s="0"/>
-      <c r="YE39" s="0"/>
-      <c r="YF39" s="0"/>
-      <c r="YG39" s="0"/>
-      <c r="YH39" s="0"/>
-      <c r="YI39" s="0"/>
-      <c r="YJ39" s="0"/>
-      <c r="YK39" s="0"/>
-      <c r="YL39" s="0"/>
-      <c r="YM39" s="0"/>
-      <c r="YN39" s="0"/>
-      <c r="YO39" s="0"/>
-      <c r="YP39" s="0"/>
-      <c r="YQ39" s="0"/>
-      <c r="YR39" s="0"/>
-      <c r="YS39" s="0"/>
-      <c r="YT39" s="0"/>
-      <c r="YU39" s="0"/>
-      <c r="YV39" s="0"/>
-      <c r="YW39" s="0"/>
-      <c r="YX39" s="0"/>
-      <c r="YY39" s="0"/>
-      <c r="YZ39" s="0"/>
-      <c r="ZA39" s="0"/>
-      <c r="ZB39" s="0"/>
-      <c r="ZC39" s="0"/>
-      <c r="ZD39" s="0"/>
-      <c r="ZE39" s="0"/>
-      <c r="ZF39" s="0"/>
-      <c r="ZG39" s="0"/>
-      <c r="ZH39" s="0"/>
-      <c r="ZI39" s="0"/>
-      <c r="ZJ39" s="0"/>
-      <c r="ZK39" s="0"/>
-      <c r="ZL39" s="0"/>
-      <c r="ZM39" s="0"/>
-      <c r="ZN39" s="0"/>
-      <c r="ZO39" s="0"/>
-      <c r="ZP39" s="0"/>
-      <c r="ZQ39" s="0"/>
-      <c r="ZR39" s="0"/>
-      <c r="ZS39" s="0"/>
-      <c r="ZT39" s="0"/>
-      <c r="ZU39" s="0"/>
-      <c r="ZV39" s="0"/>
-      <c r="ZW39" s="0"/>
-      <c r="ZX39" s="0"/>
-      <c r="ZY39" s="0"/>
-      <c r="ZZ39" s="0"/>
-      <c r="AAA39" s="0"/>
-      <c r="AAB39" s="0"/>
-      <c r="AAC39" s="0"/>
-      <c r="AAD39" s="0"/>
-      <c r="AAE39" s="0"/>
-      <c r="AAF39" s="0"/>
-      <c r="AAG39" s="0"/>
-      <c r="AAH39" s="0"/>
-      <c r="AAI39" s="0"/>
-      <c r="AAJ39" s="0"/>
-      <c r="AAK39" s="0"/>
-      <c r="AAL39" s="0"/>
-      <c r="AAM39" s="0"/>
-      <c r="AAN39" s="0"/>
-      <c r="AAO39" s="0"/>
-      <c r="AAP39" s="0"/>
-      <c r="AAQ39" s="0"/>
-      <c r="AAR39" s="0"/>
-      <c r="AAS39" s="0"/>
-      <c r="AAT39" s="0"/>
-      <c r="AAU39" s="0"/>
-      <c r="AAV39" s="0"/>
-      <c r="AAW39" s="0"/>
-      <c r="AAX39" s="0"/>
-      <c r="AAY39" s="0"/>
-      <c r="AAZ39" s="0"/>
-      <c r="ABA39" s="0"/>
-      <c r="ABB39" s="0"/>
-      <c r="ABC39" s="0"/>
-      <c r="ABD39" s="0"/>
-      <c r="ABE39" s="0"/>
-      <c r="ABF39" s="0"/>
-      <c r="ABG39" s="0"/>
-      <c r="ABH39" s="0"/>
-      <c r="ABI39" s="0"/>
-      <c r="ABJ39" s="0"/>
-      <c r="ABK39" s="0"/>
-      <c r="ABL39" s="0"/>
-      <c r="ABM39" s="0"/>
-      <c r="ABN39" s="0"/>
-      <c r="ABO39" s="0"/>
-      <c r="ABP39" s="0"/>
-      <c r="ABQ39" s="0"/>
-      <c r="ABR39" s="0"/>
-      <c r="ABS39" s="0"/>
-      <c r="ABT39" s="0"/>
-      <c r="ABU39" s="0"/>
-      <c r="ABV39" s="0"/>
-      <c r="ABW39" s="0"/>
-      <c r="ABX39" s="0"/>
-      <c r="ABY39" s="0"/>
-      <c r="ABZ39" s="0"/>
-      <c r="ACA39" s="0"/>
-      <c r="ACB39" s="0"/>
-      <c r="ACC39" s="0"/>
-      <c r="ACD39" s="0"/>
-      <c r="ACE39" s="0"/>
-      <c r="ACF39" s="0"/>
-      <c r="ACG39" s="0"/>
-      <c r="ACH39" s="0"/>
-      <c r="ACI39" s="0"/>
-      <c r="ACJ39" s="0"/>
-      <c r="ACK39" s="0"/>
-      <c r="ACL39" s="0"/>
-      <c r="ACM39" s="0"/>
-      <c r="ACN39" s="0"/>
-      <c r="ACO39" s="0"/>
-      <c r="ACP39" s="0"/>
-      <c r="ACQ39" s="0"/>
-      <c r="ACR39" s="0"/>
-      <c r="ACS39" s="0"/>
-      <c r="ACT39" s="0"/>
-      <c r="ACU39" s="0"/>
-      <c r="ACV39" s="0"/>
-      <c r="ACW39" s="0"/>
-      <c r="ACX39" s="0"/>
-      <c r="ACY39" s="0"/>
-      <c r="ACZ39" s="0"/>
-      <c r="ADA39" s="0"/>
-      <c r="ADB39" s="0"/>
-      <c r="ADC39" s="0"/>
-      <c r="ADD39" s="0"/>
-      <c r="ADE39" s="0"/>
-      <c r="ADF39" s="0"/>
-      <c r="ADG39" s="0"/>
-      <c r="ADH39" s="0"/>
-      <c r="ADI39" s="0"/>
-      <c r="ADJ39" s="0"/>
-      <c r="ADK39" s="0"/>
-      <c r="ADL39" s="0"/>
-      <c r="ADM39" s="0"/>
-      <c r="ADN39" s="0"/>
-      <c r="ADO39" s="0"/>
-      <c r="ADP39" s="0"/>
-      <c r="ADQ39" s="0"/>
-      <c r="ADR39" s="0"/>
-      <c r="ADS39" s="0"/>
-      <c r="ADT39" s="0"/>
-      <c r="ADU39" s="0"/>
-      <c r="ADV39" s="0"/>
-      <c r="ADW39" s="0"/>
-      <c r="ADX39" s="0"/>
-      <c r="ADY39" s="0"/>
-      <c r="ADZ39" s="0"/>
-      <c r="AEA39" s="0"/>
-      <c r="AEB39" s="0"/>
-      <c r="AEC39" s="0"/>
-      <c r="AED39" s="0"/>
-      <c r="AEE39" s="0"/>
-      <c r="AEF39" s="0"/>
-      <c r="AEG39" s="0"/>
-      <c r="AEH39" s="0"/>
-      <c r="AEI39" s="0"/>
-      <c r="AEJ39" s="0"/>
-      <c r="AEK39" s="0"/>
-      <c r="AEL39" s="0"/>
-      <c r="AEM39" s="0"/>
-      <c r="AEN39" s="0"/>
-      <c r="AEO39" s="0"/>
-      <c r="AEP39" s="0"/>
-      <c r="AEQ39" s="0"/>
-      <c r="AER39" s="0"/>
-      <c r="AES39" s="0"/>
-      <c r="AET39" s="0"/>
-      <c r="AEU39" s="0"/>
-      <c r="AEV39" s="0"/>
-      <c r="AEW39" s="0"/>
-      <c r="AEX39" s="0"/>
-      <c r="AEY39" s="0"/>
-      <c r="AEZ39" s="0"/>
-      <c r="AFA39" s="0"/>
-      <c r="AFB39" s="0"/>
-      <c r="AFC39" s="0"/>
-      <c r="AFD39" s="0"/>
-      <c r="AFE39" s="0"/>
-      <c r="AFF39" s="0"/>
-      <c r="AFG39" s="0"/>
-      <c r="AFH39" s="0"/>
-      <c r="AFI39" s="0"/>
-      <c r="AFJ39" s="0"/>
-      <c r="AFK39" s="0"/>
-      <c r="AFL39" s="0"/>
-      <c r="AFM39" s="0"/>
-      <c r="AFN39" s="0"/>
-      <c r="AFO39" s="0"/>
-      <c r="AFP39" s="0"/>
-      <c r="AFQ39" s="0"/>
-      <c r="AFR39" s="0"/>
-      <c r="AFS39" s="0"/>
-      <c r="AFT39" s="0"/>
-      <c r="AFU39" s="0"/>
-      <c r="AFV39" s="0"/>
-      <c r="AFW39" s="0"/>
-      <c r="AFX39" s="0"/>
-      <c r="AFY39" s="0"/>
-      <c r="AFZ39" s="0"/>
-      <c r="AGA39" s="0"/>
-      <c r="AGB39" s="0"/>
-      <c r="AGC39" s="0"/>
-      <c r="AGD39" s="0"/>
-      <c r="AGE39" s="0"/>
-      <c r="AGF39" s="0"/>
-      <c r="AGG39" s="0"/>
-      <c r="AGH39" s="0"/>
-      <c r="AGI39" s="0"/>
-      <c r="AGJ39" s="0"/>
-      <c r="AGK39" s="0"/>
-      <c r="AGL39" s="0"/>
-      <c r="AGM39" s="0"/>
-      <c r="AGN39" s="0"/>
-      <c r="AGO39" s="0"/>
-      <c r="AGP39" s="0"/>
-      <c r="AGQ39" s="0"/>
-      <c r="AGR39" s="0"/>
-      <c r="AGS39" s="0"/>
-      <c r="AGT39" s="0"/>
-      <c r="AGU39" s="0"/>
-      <c r="AGV39" s="0"/>
-      <c r="AGW39" s="0"/>
-      <c r="AGX39" s="0"/>
-      <c r="AGY39" s="0"/>
-      <c r="AGZ39" s="0"/>
-      <c r="AHA39" s="0"/>
-      <c r="AHB39" s="0"/>
-      <c r="AHC39" s="0"/>
-      <c r="AHD39" s="0"/>
-      <c r="AHE39" s="0"/>
-      <c r="AHF39" s="0"/>
-      <c r="AHG39" s="0"/>
-      <c r="AHH39" s="0"/>
-      <c r="AHI39" s="0"/>
-      <c r="AHJ39" s="0"/>
-      <c r="AHK39" s="0"/>
-      <c r="AHL39" s="0"/>
-      <c r="AHM39" s="0"/>
-      <c r="AHN39" s="0"/>
-      <c r="AHO39" s="0"/>
-      <c r="AHP39" s="0"/>
-      <c r="AHQ39" s="0"/>
-      <c r="AHR39" s="0"/>
-      <c r="AHS39" s="0"/>
-      <c r="AHT39" s="0"/>
-      <c r="AHU39" s="0"/>
-      <c r="AHV39" s="0"/>
-      <c r="AHW39" s="0"/>
-      <c r="AHX39" s="0"/>
-      <c r="AHY39" s="0"/>
-      <c r="AHZ39" s="0"/>
-      <c r="AIA39" s="0"/>
-      <c r="AIB39" s="0"/>
-      <c r="AIC39" s="0"/>
-      <c r="AID39" s="0"/>
-      <c r="AIE39" s="0"/>
-      <c r="AIF39" s="0"/>
-      <c r="AIG39" s="0"/>
-      <c r="AIH39" s="0"/>
-      <c r="AII39" s="0"/>
-      <c r="AIJ39" s="0"/>
-      <c r="AIK39" s="0"/>
-      <c r="AIL39" s="0"/>
-      <c r="AIM39" s="0"/>
-      <c r="AIN39" s="0"/>
-      <c r="AIO39" s="0"/>
-      <c r="AIP39" s="0"/>
-      <c r="AIQ39" s="0"/>
-      <c r="AIR39" s="0"/>
-      <c r="AIS39" s="0"/>
-      <c r="AIT39" s="0"/>
-      <c r="AIU39" s="0"/>
-      <c r="AIV39" s="0"/>
-      <c r="AIW39" s="0"/>
-      <c r="AIX39" s="0"/>
-      <c r="AIY39" s="0"/>
-      <c r="AIZ39" s="0"/>
-      <c r="AJA39" s="0"/>
-      <c r="AJB39" s="0"/>
-      <c r="AJC39" s="0"/>
-      <c r="AJD39" s="0"/>
-      <c r="AJE39" s="0"/>
-      <c r="AJF39" s="0"/>
-      <c r="AJG39" s="0"/>
-      <c r="AJH39" s="0"/>
-      <c r="AJI39" s="0"/>
-      <c r="AJJ39" s="0"/>
-      <c r="AJK39" s="0"/>
-      <c r="AJL39" s="0"/>
-      <c r="AJM39" s="0"/>
-      <c r="AJN39" s="0"/>
-      <c r="AJO39" s="0"/>
-      <c r="AJP39" s="0"/>
-      <c r="AJQ39" s="0"/>
-      <c r="AJR39" s="0"/>
-      <c r="AJS39" s="0"/>
-      <c r="AJT39" s="0"/>
-      <c r="AJU39" s="0"/>
-      <c r="AJV39" s="0"/>
-      <c r="AJW39" s="0"/>
-      <c r="AJX39" s="0"/>
-      <c r="AJY39" s="0"/>
-      <c r="AJZ39" s="0"/>
-      <c r="AKA39" s="0"/>
-      <c r="AKB39" s="0"/>
-      <c r="AKC39" s="0"/>
-      <c r="AKD39" s="0"/>
-      <c r="AKE39" s="0"/>
-      <c r="AKF39" s="0"/>
-      <c r="AKG39" s="0"/>
-      <c r="AKH39" s="0"/>
-      <c r="AKI39" s="0"/>
-      <c r="AKJ39" s="0"/>
-      <c r="AKK39" s="0"/>
-      <c r="AKL39" s="0"/>
-      <c r="AKM39" s="0"/>
-      <c r="AKN39" s="0"/>
-      <c r="AKO39" s="0"/>
-      <c r="AKP39" s="0"/>
-      <c r="AKQ39" s="0"/>
-      <c r="AKR39" s="0"/>
-      <c r="AKS39" s="0"/>
-      <c r="AKT39" s="0"/>
-      <c r="AKU39" s="0"/>
-      <c r="AKV39" s="0"/>
-      <c r="AKW39" s="0"/>
-      <c r="AKX39" s="0"/>
-      <c r="AKY39" s="0"/>
-      <c r="AKZ39" s="0"/>
-      <c r="ALA39" s="0"/>
-      <c r="ALB39" s="0"/>
-      <c r="ALC39" s="0"/>
-      <c r="ALD39" s="0"/>
-      <c r="ALE39" s="0"/>
-      <c r="ALF39" s="0"/>
-      <c r="ALG39" s="0"/>
-      <c r="ALH39" s="0"/>
-      <c r="ALI39" s="0"/>
-      <c r="ALJ39" s="0"/>
-      <c r="ALK39" s="0"/>
-      <c r="ALL39" s="0"/>
-      <c r="ALM39" s="0"/>
-      <c r="ALN39" s="0"/>
-      <c r="ALO39" s="0"/>
-      <c r="ALP39" s="0"/>
-      <c r="ALQ39" s="0"/>
-      <c r="ALR39" s="0"/>
-      <c r="ALS39" s="0"/>
-      <c r="ALT39" s="0"/>
-      <c r="ALU39" s="0"/>
-      <c r="ALV39" s="0"/>
-      <c r="ALW39" s="0"/>
-      <c r="ALX39" s="0"/>
-      <c r="ALY39" s="0"/>
-      <c r="ALZ39" s="0"/>
-      <c r="AMA39" s="0"/>
-      <c r="AMB39" s="0"/>
-      <c r="AMC39" s="0"/>
-      <c r="AMD39" s="0"/>
-      <c r="AME39" s="0"/>
-      <c r="AMF39" s="0"/>
-      <c r="AMG39" s="0"/>
-      <c r="AMH39" s="0"/>
-      <c r="AMI39" s="0"/>
-      <c r="AMJ39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
@@ -19991,6 +19027,258 @@
       <c r="V41" s="52"/>
       <c r="W41" s="53"/>
     </row>
+    <row r="42" s="57" customFormat="true" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="50" t="n">
+        <v>44447</v>
+      </c>
+      <c r="B42" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="52" t="s">
+        <v>289</v>
+      </c>
+      <c r="D42" s="52" t="s">
+        <v>290</v>
+      </c>
+      <c r="E42" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42" s="53" t="s">
+        <v>291</v>
+      </c>
+      <c r="G42" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="H42" s="54" t="n">
+        <v>29980</v>
+      </c>
+      <c r="I42" s="54" t="n">
+        <v>29980</v>
+      </c>
+      <c r="J42" s="55" t="n">
+        <v>43821</v>
+      </c>
+      <c r="K42" s="56" t="n">
+        <v>29</v>
+      </c>
+      <c r="L42" s="50" t="s">
+        <v>293</v>
+      </c>
+      <c r="M42" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="N42" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="O42" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="P42" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q42" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="R42" s="52" t="s">
+        <v>295</v>
+      </c>
+      <c r="S42" s="52" t="s">
+        <v>296</v>
+      </c>
+      <c r="T42" s="52"/>
+      <c r="U42" s="53"/>
+      <c r="V42" s="52"/>
+      <c r="W42" s="53"/>
+    </row>
+    <row r="43" s="57" customFormat="true" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="50" t="n">
+        <v>15219</v>
+      </c>
+      <c r="B43" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="F43" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="H43" s="54" t="n">
+        <v>18429</v>
+      </c>
+      <c r="I43" s="54" t="n">
+        <v>18429</v>
+      </c>
+      <c r="J43" s="55" t="n">
+        <v>44926</v>
+      </c>
+      <c r="K43" s="56" t="n">
+        <v>68</v>
+      </c>
+      <c r="L43" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="M43" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="N43" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="O43" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="P43" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q43" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="R43" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="S43" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="T43" s="52"/>
+      <c r="U43" s="53"/>
+      <c r="V43" s="52"/>
+      <c r="W43" s="53"/>
+    </row>
+    <row r="44" s="57" customFormat="true" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="50" t="n">
+        <v>39252</v>
+      </c>
+      <c r="B44" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="52" t="s">
+        <v>297</v>
+      </c>
+      <c r="D44" s="52" t="s">
+        <v>290</v>
+      </c>
+      <c r="E44" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" s="53" t="s">
+        <v>291</v>
+      </c>
+      <c r="G44" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="H44" s="54" t="n">
+        <v>27529</v>
+      </c>
+      <c r="I44" s="54" t="n">
+        <v>27529</v>
+      </c>
+      <c r="J44" s="55" t="n">
+        <v>43821</v>
+      </c>
+      <c r="K44" s="56" t="n">
+        <v>31</v>
+      </c>
+      <c r="L44" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="M44" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="N44" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="O44" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="P44" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q44" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="R44" s="52" t="s">
+        <v>298</v>
+      </c>
+      <c r="S44" s="52" t="s">
+        <v>299</v>
+      </c>
+      <c r="T44" s="52"/>
+      <c r="U44" s="53"/>
+      <c r="V44" s="52"/>
+      <c r="W44" s="53"/>
+    </row>
+    <row r="45" s="57" customFormat="true" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="50" t="n">
+        <v>39252</v>
+      </c>
+      <c r="B45" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="52" t="s">
+        <v>297</v>
+      </c>
+      <c r="D45" s="52" t="s">
+        <v>290</v>
+      </c>
+      <c r="E45" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="F45" s="53" t="s">
+        <v>291</v>
+      </c>
+      <c r="G45" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="H45" s="54" t="n">
+        <v>27529</v>
+      </c>
+      <c r="I45" s="54" t="n">
+        <v>27529</v>
+      </c>
+      <c r="J45" s="55" t="n">
+        <v>43821</v>
+      </c>
+      <c r="K45" s="56" t="n">
+        <v>58</v>
+      </c>
+      <c r="L45" s="50" t="s">
+        <v>300</v>
+      </c>
+      <c r="M45" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="N45" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="O45" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="P45" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q45" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="R45" s="52" t="s">
+        <v>298</v>
+      </c>
+      <c r="S45" s="52" t="s">
+        <v>299</v>
+      </c>
+      <c r="T45" s="52"/>
+      <c r="U45" s="53"/>
+      <c r="V45" s="52"/>
+      <c r="W45" s="53"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>

--- a/spec/data/swissmedic_package.xlsx
+++ b/spec/data/swissmedic_package.xlsx
@@ -12,16 +12,6 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">'Zugelassene Packungen'!$6:$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">'Zugelassene Packungen'!$6:$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0" vbProcedure="false">'Zugelassene Packungen'!$6:$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0" vbProcedure="false">'Zugelassene Packungen'!$6:$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0" vbProcedure="false">'Zugelassene Packungen'!$6:$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0" vbProcedure="false">'Zugelassene Packungen'!$6:$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0" vbProcedure="false">'Zugelassene Packungen'!$6:$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0" vbProcedure="false">'Zugelassene Packungen'!$6:$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0" vbProcedure="false">'Zugelassene Packungen'!$6:$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0" vbProcedure="false">'Zugelassene Packungen'!$6:$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Zugelassene Packungen'!$6:$6</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -33,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="322">
   <si>
     <t xml:space="preserve">Zugelassene Packungen Humanarzneimittel </t>
   </si>
@@ -249,6 +239,42 @@
     <t xml:space="preserve">aktive Immunisierung gegen Varizellen, ab dem vollendeten 9. Lebensmonat</t>
   </si>
   <si>
+    <t xml:space="preserve">Pethidin HCl Amino 100 mg/2 ml, Injektionslösung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amino AG, Fabrikation pharmazeutischer und chemischer Produkte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synthetika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.01.3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N02AB02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ampulle(n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pethidini hydrochloridum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pethidini hydrochloridum 100 mg, aqua ad iniectabilia q.s. ad solutionem pro 2 ml.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analgetikum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zymafluor 0.25 mg, Tabletten</t>
   </si>
   <si>
@@ -352,9 +378,6 @@
   </si>
   <si>
     <t xml:space="preserve">5 x 2 ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ampulle(n)</t>
   </si>
   <si>
     <t xml:space="preserve">thiamini hydrochloridum, pyridoxini hydrochloridum, cyanocobalaminum, lidocaini hydrochloridum</t>
@@ -950,9 +973,6 @@
   </si>
   <si>
     <t xml:space="preserve">DiaMo Narcotics GmbH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.3.</t>
   </si>
   <si>
     <t xml:space="preserve">N07BC06</t>
@@ -1059,12 +1079,12 @@
   <numFmts count="8">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="00000"/>
-    <numFmt numFmtId="166" formatCode="DD/MM/YY;@"/>
-    <numFmt numFmtId="167" formatCode="DD/MM/YYYY"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="168" formatCode="00"/>
     <numFmt numFmtId="169" formatCode="000"/>
     <numFmt numFmtId="170" formatCode="0"/>
-    <numFmt numFmtId="171" formatCode="[$-807]DD/MM/YYYY"/>
+    <numFmt numFmtId="171" formatCode="[$-807]dd/mm/yyyy"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -1260,7 +1280,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="72">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1485,6 +1505,46 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="170" fontId="13" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1594,9 +1654,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>442800</xdr:colOff>
+      <xdr:colOff>442440</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>35280</xdr:rowOff>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1610,12 +1670,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="36360" y="360"/>
-          <a:ext cx="1682640" cy="568080"/>
+          <a:ext cx="1682280" cy="567720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -1631,9 +1691,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>247320</xdr:colOff>
+      <xdr:colOff>246960</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>48600</xdr:rowOff>
+      <xdr:rowOff>48240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1647,12 +1707,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5400" y="9360"/>
-          <a:ext cx="946080" cy="572400"/>
+          <a:ext cx="945720" cy="572040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -1663,19 +1723,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ48"/>
+  <dimension ref="A1:AMJ49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="9:9"/>
+      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="10:10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="5.9921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="7.39"/>
@@ -1702,7 +1762,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="7" width="7.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="7" width="14.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="7" width="7.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="33" style="7" width="6"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="33" style="7" width="6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9038,7 +9098,7 @@
       <c r="AMI8" s="0"/>
       <c r="AMJ8" s="0"/>
     </row>
-    <row r="9" s="56" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="46" t="n">
         <v>585</v>
       </c>
@@ -9101,54 +9161,1053 @@
       <c r="V9" s="50"/>
       <c r="W9" s="49"/>
       <c r="X9" s="50"/>
+      <c r="Z9" s="0"/>
+      <c r="AA9" s="0"/>
+      <c r="AB9" s="0"/>
+      <c r="AC9" s="0"/>
+      <c r="AD9" s="0"/>
+      <c r="AE9" s="0"/>
+      <c r="AF9" s="0"/>
+      <c r="AG9" s="0"/>
+      <c r="AH9" s="0"/>
+      <c r="AI9" s="0"/>
+      <c r="AJ9" s="0"/>
+      <c r="AK9" s="0"/>
+      <c r="AL9" s="0"/>
+      <c r="AM9" s="0"/>
+      <c r="AN9" s="0"/>
+      <c r="AO9" s="0"/>
+      <c r="AP9" s="0"/>
+      <c r="AQ9" s="0"/>
+      <c r="AR9" s="0"/>
+      <c r="AS9" s="0"/>
+      <c r="AT9" s="0"/>
+      <c r="AU9" s="0"/>
+      <c r="AV9" s="0"/>
+      <c r="AW9" s="0"/>
+      <c r="AX9" s="0"/>
+      <c r="AY9" s="0"/>
+      <c r="AZ9" s="0"/>
+      <c r="BA9" s="0"/>
+      <c r="BB9" s="0"/>
+      <c r="BC9" s="0"/>
+      <c r="BD9" s="0"/>
+      <c r="BE9" s="0"/>
+      <c r="BF9" s="0"/>
+      <c r="BG9" s="0"/>
+      <c r="BH9" s="0"/>
+      <c r="BI9" s="0"/>
+      <c r="BJ9" s="0"/>
+      <c r="BK9" s="0"/>
+      <c r="BL9" s="0"/>
+      <c r="BM9" s="0"/>
+      <c r="BN9" s="0"/>
+      <c r="BO9" s="0"/>
+      <c r="BP9" s="0"/>
+      <c r="BQ9" s="0"/>
+      <c r="BR9" s="0"/>
+      <c r="BS9" s="0"/>
+      <c r="BT9" s="0"/>
+      <c r="BU9" s="0"/>
+      <c r="BV9" s="0"/>
+      <c r="BW9" s="0"/>
+      <c r="BX9" s="0"/>
+      <c r="BY9" s="0"/>
+      <c r="BZ9" s="0"/>
+      <c r="CA9" s="0"/>
+      <c r="CB9" s="0"/>
+      <c r="CC9" s="0"/>
+      <c r="CD9" s="0"/>
+      <c r="CE9" s="0"/>
+      <c r="CF9" s="0"/>
+      <c r="CG9" s="0"/>
+      <c r="CH9" s="0"/>
+      <c r="CI9" s="0"/>
+      <c r="CJ9" s="0"/>
+      <c r="CK9" s="0"/>
+      <c r="CL9" s="0"/>
+      <c r="CM9" s="0"/>
+      <c r="CN9" s="0"/>
+      <c r="CO9" s="0"/>
+      <c r="CP9" s="0"/>
+      <c r="CQ9" s="0"/>
+      <c r="CR9" s="0"/>
+      <c r="CS9" s="0"/>
+      <c r="CT9" s="0"/>
+      <c r="CU9" s="0"/>
+      <c r="CV9" s="0"/>
+      <c r="CW9" s="0"/>
+      <c r="CX9" s="0"/>
+      <c r="CY9" s="0"/>
+      <c r="CZ9" s="0"/>
+      <c r="DA9" s="0"/>
+      <c r="DB9" s="0"/>
+      <c r="DC9" s="0"/>
+      <c r="DD9" s="0"/>
+      <c r="DE9" s="0"/>
+      <c r="DF9" s="0"/>
+      <c r="DG9" s="0"/>
+      <c r="DH9" s="0"/>
+      <c r="DI9" s="0"/>
+      <c r="DJ9" s="0"/>
+      <c r="DK9" s="0"/>
+      <c r="DL9" s="0"/>
+      <c r="DM9" s="0"/>
+      <c r="DN9" s="0"/>
+      <c r="DO9" s="0"/>
+      <c r="DP9" s="0"/>
+      <c r="DQ9" s="0"/>
+      <c r="DR9" s="0"/>
+      <c r="DS9" s="0"/>
+      <c r="DT9" s="0"/>
+      <c r="DU9" s="0"/>
+      <c r="DV9" s="0"/>
+      <c r="DW9" s="0"/>
+      <c r="DX9" s="0"/>
+      <c r="DY9" s="0"/>
+      <c r="DZ9" s="0"/>
+      <c r="EA9" s="0"/>
+      <c r="EB9" s="0"/>
+      <c r="EC9" s="0"/>
+      <c r="ED9" s="0"/>
+      <c r="EE9" s="0"/>
+      <c r="EF9" s="0"/>
+      <c r="EG9" s="0"/>
+      <c r="EH9" s="0"/>
+      <c r="EI9" s="0"/>
+      <c r="EJ9" s="0"/>
+      <c r="EK9" s="0"/>
+      <c r="EL9" s="0"/>
+      <c r="EM9" s="0"/>
+      <c r="EN9" s="0"/>
+      <c r="EO9" s="0"/>
+      <c r="EP9" s="0"/>
+      <c r="EQ9" s="0"/>
+      <c r="ER9" s="0"/>
+      <c r="ES9" s="0"/>
+      <c r="ET9" s="0"/>
+      <c r="EU9" s="0"/>
+      <c r="EV9" s="0"/>
+      <c r="EW9" s="0"/>
+      <c r="EX9" s="0"/>
+      <c r="EY9" s="0"/>
+      <c r="EZ9" s="0"/>
+      <c r="FA9" s="0"/>
+      <c r="FB9" s="0"/>
+      <c r="FC9" s="0"/>
+      <c r="FD9" s="0"/>
+      <c r="FE9" s="0"/>
+      <c r="FF9" s="0"/>
+      <c r="FG9" s="0"/>
+      <c r="FH9" s="0"/>
+      <c r="FI9" s="0"/>
+      <c r="FJ9" s="0"/>
+      <c r="FK9" s="0"/>
+      <c r="FL9" s="0"/>
+      <c r="FM9" s="0"/>
+      <c r="FN9" s="0"/>
+      <c r="FO9" s="0"/>
+      <c r="FP9" s="0"/>
+      <c r="FQ9" s="0"/>
+      <c r="FR9" s="0"/>
+      <c r="FS9" s="0"/>
+      <c r="FT9" s="0"/>
+      <c r="FU9" s="0"/>
+      <c r="FV9" s="0"/>
+      <c r="FW9" s="0"/>
+      <c r="FX9" s="0"/>
+      <c r="FY9" s="0"/>
+      <c r="FZ9" s="0"/>
+      <c r="GA9" s="0"/>
+      <c r="GB9" s="0"/>
+      <c r="GC9" s="0"/>
+      <c r="GD9" s="0"/>
+      <c r="GE9" s="0"/>
+      <c r="GF9" s="0"/>
+      <c r="GG9" s="0"/>
+      <c r="GH9" s="0"/>
+      <c r="GI9" s="0"/>
+      <c r="GJ9" s="0"/>
+      <c r="GK9" s="0"/>
+      <c r="GL9" s="0"/>
+      <c r="GM9" s="0"/>
+      <c r="GN9" s="0"/>
+      <c r="GO9" s="0"/>
+      <c r="GP9" s="0"/>
+      <c r="GQ9" s="0"/>
+      <c r="GR9" s="0"/>
+      <c r="GS9" s="0"/>
+      <c r="GT9" s="0"/>
+      <c r="GU9" s="0"/>
+      <c r="GV9" s="0"/>
+      <c r="GW9" s="0"/>
+      <c r="GX9" s="0"/>
+      <c r="GY9" s="0"/>
+      <c r="GZ9" s="0"/>
+      <c r="HA9" s="0"/>
+      <c r="HB9" s="0"/>
+      <c r="HC9" s="0"/>
+      <c r="HD9" s="0"/>
+      <c r="HE9" s="0"/>
+      <c r="HF9" s="0"/>
+      <c r="HG9" s="0"/>
+      <c r="HH9" s="0"/>
+      <c r="HI9" s="0"/>
+      <c r="HJ9" s="0"/>
+      <c r="HK9" s="0"/>
+      <c r="HL9" s="0"/>
+      <c r="HM9" s="0"/>
+      <c r="HN9" s="0"/>
+      <c r="HO9" s="0"/>
+      <c r="HP9" s="0"/>
+      <c r="HQ9" s="0"/>
+      <c r="HR9" s="0"/>
+      <c r="HS9" s="0"/>
+      <c r="HT9" s="0"/>
+      <c r="HU9" s="0"/>
+      <c r="HV9" s="0"/>
+      <c r="HW9" s="0"/>
+      <c r="HX9" s="0"/>
+      <c r="HY9" s="0"/>
+      <c r="HZ9" s="0"/>
+      <c r="IA9" s="0"/>
+      <c r="IB9" s="0"/>
+      <c r="IC9" s="0"/>
+      <c r="ID9" s="0"/>
+      <c r="IE9" s="0"/>
+      <c r="IF9" s="0"/>
+      <c r="IG9" s="0"/>
+      <c r="IH9" s="0"/>
+      <c r="II9" s="0"/>
+      <c r="IJ9" s="0"/>
+      <c r="IK9" s="0"/>
+      <c r="IL9" s="0"/>
+      <c r="IM9" s="0"/>
+      <c r="IN9" s="0"/>
+      <c r="IO9" s="0"/>
+      <c r="IP9" s="0"/>
+      <c r="IQ9" s="0"/>
+      <c r="IR9" s="0"/>
+      <c r="IS9" s="0"/>
+      <c r="IT9" s="0"/>
+      <c r="IU9" s="0"/>
+      <c r="IV9" s="0"/>
+      <c r="IW9" s="0"/>
+      <c r="IX9" s="0"/>
+      <c r="IY9" s="0"/>
+      <c r="IZ9" s="0"/>
+      <c r="JA9" s="0"/>
+      <c r="JB9" s="0"/>
+      <c r="JC9" s="0"/>
+      <c r="JD9" s="0"/>
+      <c r="JE9" s="0"/>
+      <c r="JF9" s="0"/>
+      <c r="JG9" s="0"/>
+      <c r="JH9" s="0"/>
+      <c r="JI9" s="0"/>
+      <c r="JJ9" s="0"/>
+      <c r="JK9" s="0"/>
+      <c r="JL9" s="0"/>
+      <c r="JM9" s="0"/>
+      <c r="JN9" s="0"/>
+      <c r="JO9" s="0"/>
+      <c r="JP9" s="0"/>
+      <c r="JQ9" s="0"/>
+      <c r="JR9" s="0"/>
+      <c r="JS9" s="0"/>
+      <c r="JT9" s="0"/>
+      <c r="JU9" s="0"/>
+      <c r="JV9" s="0"/>
+      <c r="JW9" s="0"/>
+      <c r="JX9" s="0"/>
+      <c r="JY9" s="0"/>
+      <c r="JZ9" s="0"/>
+      <c r="KA9" s="0"/>
+      <c r="KB9" s="0"/>
+      <c r="KC9" s="0"/>
+      <c r="KD9" s="0"/>
+      <c r="KE9" s="0"/>
+      <c r="KF9" s="0"/>
+      <c r="KG9" s="0"/>
+      <c r="KH9" s="0"/>
+      <c r="KI9" s="0"/>
+      <c r="KJ9" s="0"/>
+      <c r="KK9" s="0"/>
+      <c r="KL9" s="0"/>
+      <c r="KM9" s="0"/>
+      <c r="KN9" s="0"/>
+      <c r="KO9" s="0"/>
+      <c r="KP9" s="0"/>
+      <c r="KQ9" s="0"/>
+      <c r="KR9" s="0"/>
+      <c r="KS9" s="0"/>
+      <c r="KT9" s="0"/>
+      <c r="KU9" s="0"/>
+      <c r="KV9" s="0"/>
+      <c r="KW9" s="0"/>
+      <c r="KX9" s="0"/>
+      <c r="KY9" s="0"/>
+      <c r="KZ9" s="0"/>
+      <c r="LA9" s="0"/>
+      <c r="LB9" s="0"/>
+      <c r="LC9" s="0"/>
+      <c r="LD9" s="0"/>
+      <c r="LE9" s="0"/>
+      <c r="LF9" s="0"/>
+      <c r="LG9" s="0"/>
+      <c r="LH9" s="0"/>
+      <c r="LI9" s="0"/>
+      <c r="LJ9" s="0"/>
+      <c r="LK9" s="0"/>
+      <c r="LL9" s="0"/>
+      <c r="LM9" s="0"/>
+      <c r="LN9" s="0"/>
+      <c r="LO9" s="0"/>
+      <c r="LP9" s="0"/>
+      <c r="LQ9" s="0"/>
+      <c r="LR9" s="0"/>
+      <c r="LS9" s="0"/>
+      <c r="LT9" s="0"/>
+      <c r="LU9" s="0"/>
+      <c r="LV9" s="0"/>
+      <c r="LW9" s="0"/>
+      <c r="LX9" s="0"/>
+      <c r="LY9" s="0"/>
+      <c r="LZ9" s="0"/>
+      <c r="MA9" s="0"/>
+      <c r="MB9" s="0"/>
+      <c r="MC9" s="0"/>
+      <c r="MD9" s="0"/>
+      <c r="ME9" s="0"/>
+      <c r="MF9" s="0"/>
+      <c r="MG9" s="0"/>
+      <c r="MH9" s="0"/>
+      <c r="MI9" s="0"/>
+      <c r="MJ9" s="0"/>
+      <c r="MK9" s="0"/>
+      <c r="ML9" s="0"/>
+      <c r="MM9" s="0"/>
+      <c r="MN9" s="0"/>
+      <c r="MO9" s="0"/>
+      <c r="MP9" s="0"/>
+      <c r="MQ9" s="0"/>
+      <c r="MR9" s="0"/>
+      <c r="MS9" s="0"/>
+      <c r="MT9" s="0"/>
+      <c r="MU9" s="0"/>
+      <c r="MV9" s="0"/>
+      <c r="MW9" s="0"/>
+      <c r="MX9" s="0"/>
+      <c r="MY9" s="0"/>
+      <c r="MZ9" s="0"/>
+      <c r="NA9" s="0"/>
+      <c r="NB9" s="0"/>
+      <c r="NC9" s="0"/>
+      <c r="ND9" s="0"/>
+      <c r="NE9" s="0"/>
+      <c r="NF9" s="0"/>
+      <c r="NG9" s="0"/>
+      <c r="NH9" s="0"/>
+      <c r="NI9" s="0"/>
+      <c r="NJ9" s="0"/>
+      <c r="NK9" s="0"/>
+      <c r="NL9" s="0"/>
+      <c r="NM9" s="0"/>
+      <c r="NN9" s="0"/>
+      <c r="NO9" s="0"/>
+      <c r="NP9" s="0"/>
+      <c r="NQ9" s="0"/>
+      <c r="NR9" s="0"/>
+      <c r="NS9" s="0"/>
+      <c r="NT9" s="0"/>
+      <c r="NU9" s="0"/>
+      <c r="NV9" s="0"/>
+      <c r="NW9" s="0"/>
+      <c r="NX9" s="0"/>
+      <c r="NY9" s="0"/>
+      <c r="NZ9" s="0"/>
+      <c r="OA9" s="0"/>
+      <c r="OB9" s="0"/>
+      <c r="OC9" s="0"/>
+      <c r="OD9" s="0"/>
+      <c r="OE9" s="0"/>
+      <c r="OF9" s="0"/>
+      <c r="OG9" s="0"/>
+      <c r="OH9" s="0"/>
+      <c r="OI9" s="0"/>
+      <c r="OJ9" s="0"/>
+      <c r="OK9" s="0"/>
+      <c r="OL9" s="0"/>
+      <c r="OM9" s="0"/>
+      <c r="ON9" s="0"/>
+      <c r="OO9" s="0"/>
+      <c r="OP9" s="0"/>
+      <c r="OQ9" s="0"/>
+      <c r="OR9" s="0"/>
+      <c r="OS9" s="0"/>
+      <c r="OT9" s="0"/>
+      <c r="OU9" s="0"/>
+      <c r="OV9" s="0"/>
+      <c r="OW9" s="0"/>
+      <c r="OX9" s="0"/>
+      <c r="OY9" s="0"/>
+      <c r="OZ9" s="0"/>
+      <c r="PA9" s="0"/>
+      <c r="PB9" s="0"/>
+      <c r="PC9" s="0"/>
+      <c r="PD9" s="0"/>
+      <c r="PE9" s="0"/>
+      <c r="PF9" s="0"/>
+      <c r="PG9" s="0"/>
+      <c r="PH9" s="0"/>
+      <c r="PI9" s="0"/>
+      <c r="PJ9" s="0"/>
+      <c r="PK9" s="0"/>
+      <c r="PL9" s="0"/>
+      <c r="PM9" s="0"/>
+      <c r="PN9" s="0"/>
+      <c r="PO9" s="0"/>
+      <c r="PP9" s="0"/>
+      <c r="PQ9" s="0"/>
+      <c r="PR9" s="0"/>
+      <c r="PS9" s="0"/>
+      <c r="PT9" s="0"/>
+      <c r="PU9" s="0"/>
+      <c r="PV9" s="0"/>
+      <c r="PW9" s="0"/>
+      <c r="PX9" s="0"/>
+      <c r="PY9" s="0"/>
+      <c r="PZ9" s="0"/>
+      <c r="QA9" s="0"/>
+      <c r="QB9" s="0"/>
+      <c r="QC9" s="0"/>
+      <c r="QD9" s="0"/>
+      <c r="QE9" s="0"/>
+      <c r="QF9" s="0"/>
+      <c r="QG9" s="0"/>
+      <c r="QH9" s="0"/>
+      <c r="QI9" s="0"/>
+      <c r="QJ9" s="0"/>
+      <c r="QK9" s="0"/>
+      <c r="QL9" s="0"/>
+      <c r="QM9" s="0"/>
+      <c r="QN9" s="0"/>
+      <c r="QO9" s="0"/>
+      <c r="QP9" s="0"/>
+      <c r="QQ9" s="0"/>
+      <c r="QR9" s="0"/>
+      <c r="QS9" s="0"/>
+      <c r="QT9" s="0"/>
+      <c r="QU9" s="0"/>
+      <c r="QV9" s="0"/>
+      <c r="QW9" s="0"/>
+      <c r="QX9" s="0"/>
+      <c r="QY9" s="0"/>
+      <c r="QZ9" s="0"/>
+      <c r="RA9" s="0"/>
+      <c r="RB9" s="0"/>
+      <c r="RC9" s="0"/>
+      <c r="RD9" s="0"/>
+      <c r="RE9" s="0"/>
+      <c r="RF9" s="0"/>
+      <c r="RG9" s="0"/>
+      <c r="RH9" s="0"/>
+      <c r="RI9" s="0"/>
+      <c r="RJ9" s="0"/>
+      <c r="RK9" s="0"/>
+      <c r="RL9" s="0"/>
+      <c r="RM9" s="0"/>
+      <c r="RN9" s="0"/>
+      <c r="RO9" s="0"/>
+      <c r="RP9" s="0"/>
+      <c r="RQ9" s="0"/>
+      <c r="RR9" s="0"/>
+      <c r="RS9" s="0"/>
+      <c r="RT9" s="0"/>
+      <c r="RU9" s="0"/>
+      <c r="RV9" s="0"/>
+      <c r="RW9" s="0"/>
+      <c r="RX9" s="0"/>
+      <c r="RY9" s="0"/>
+      <c r="RZ9" s="0"/>
+      <c r="SA9" s="0"/>
+      <c r="SB9" s="0"/>
+      <c r="SC9" s="0"/>
+      <c r="SD9" s="0"/>
+      <c r="SE9" s="0"/>
+      <c r="SF9" s="0"/>
+      <c r="SG9" s="0"/>
+      <c r="SH9" s="0"/>
+      <c r="SI9" s="0"/>
+      <c r="SJ9" s="0"/>
+      <c r="SK9" s="0"/>
+      <c r="SL9" s="0"/>
+      <c r="SM9" s="0"/>
+      <c r="SN9" s="0"/>
+      <c r="SO9" s="0"/>
+      <c r="SP9" s="0"/>
+      <c r="SQ9" s="0"/>
+      <c r="SR9" s="0"/>
+      <c r="SS9" s="0"/>
+      <c r="ST9" s="0"/>
+      <c r="SU9" s="0"/>
+      <c r="SV9" s="0"/>
+      <c r="SW9" s="0"/>
+      <c r="SX9" s="0"/>
+      <c r="SY9" s="0"/>
+      <c r="SZ9" s="0"/>
+      <c r="TA9" s="0"/>
+      <c r="TB9" s="0"/>
+      <c r="TC9" s="0"/>
+      <c r="TD9" s="0"/>
+      <c r="TE9" s="0"/>
+      <c r="TF9" s="0"/>
+      <c r="TG9" s="0"/>
+      <c r="TH9" s="0"/>
+      <c r="TI9" s="0"/>
+      <c r="TJ9" s="0"/>
+      <c r="TK9" s="0"/>
+      <c r="TL9" s="0"/>
+      <c r="TM9" s="0"/>
+      <c r="TN9" s="0"/>
+      <c r="TO9" s="0"/>
+      <c r="TP9" s="0"/>
+      <c r="TQ9" s="0"/>
+      <c r="TR9" s="0"/>
+      <c r="TS9" s="0"/>
+      <c r="TT9" s="0"/>
+      <c r="TU9" s="0"/>
+      <c r="TV9" s="0"/>
+      <c r="TW9" s="0"/>
+      <c r="TX9" s="0"/>
+      <c r="TY9" s="0"/>
+      <c r="TZ9" s="0"/>
+      <c r="UA9" s="0"/>
+      <c r="UB9" s="0"/>
+      <c r="UC9" s="0"/>
+      <c r="UD9" s="0"/>
+      <c r="UE9" s="0"/>
+      <c r="UF9" s="0"/>
+      <c r="UG9" s="0"/>
+      <c r="UH9" s="0"/>
+      <c r="UI9" s="0"/>
+      <c r="UJ9" s="0"/>
+      <c r="UK9" s="0"/>
+      <c r="UL9" s="0"/>
+      <c r="UM9" s="0"/>
+      <c r="UN9" s="0"/>
+      <c r="UO9" s="0"/>
+      <c r="UP9" s="0"/>
+      <c r="UQ9" s="0"/>
+      <c r="UR9" s="0"/>
+      <c r="US9" s="0"/>
+      <c r="UT9" s="0"/>
+      <c r="UU9" s="0"/>
+      <c r="UV9" s="0"/>
+      <c r="UW9" s="0"/>
+      <c r="UX9" s="0"/>
+      <c r="UY9" s="0"/>
+      <c r="UZ9" s="0"/>
+      <c r="VA9" s="0"/>
+      <c r="VB9" s="0"/>
+      <c r="VC9" s="0"/>
+      <c r="VD9" s="0"/>
+      <c r="VE9" s="0"/>
+      <c r="VF9" s="0"/>
+      <c r="VG9" s="0"/>
+      <c r="VH9" s="0"/>
+      <c r="VI9" s="0"/>
+      <c r="VJ9" s="0"/>
+      <c r="VK9" s="0"/>
+      <c r="VL9" s="0"/>
+      <c r="VM9" s="0"/>
+      <c r="VN9" s="0"/>
+      <c r="VO9" s="0"/>
+      <c r="VP9" s="0"/>
+      <c r="VQ9" s="0"/>
+      <c r="VR9" s="0"/>
+      <c r="VS9" s="0"/>
+      <c r="VT9" s="0"/>
+      <c r="VU9" s="0"/>
+      <c r="VV9" s="0"/>
+      <c r="VW9" s="0"/>
+      <c r="VX9" s="0"/>
+      <c r="VY9" s="0"/>
+      <c r="VZ9" s="0"/>
+      <c r="WA9" s="0"/>
+      <c r="WB9" s="0"/>
+      <c r="WC9" s="0"/>
+      <c r="WD9" s="0"/>
+      <c r="WE9" s="0"/>
+      <c r="WF9" s="0"/>
+      <c r="WG9" s="0"/>
+      <c r="WH9" s="0"/>
+      <c r="WI9" s="0"/>
+      <c r="WJ9" s="0"/>
+      <c r="WK9" s="0"/>
+      <c r="WL9" s="0"/>
+      <c r="WM9" s="0"/>
+      <c r="WN9" s="0"/>
+      <c r="WO9" s="0"/>
+      <c r="WP9" s="0"/>
+      <c r="WQ9" s="0"/>
+      <c r="WR9" s="0"/>
+      <c r="WS9" s="0"/>
+      <c r="WT9" s="0"/>
+      <c r="WU9" s="0"/>
+      <c r="WV9" s="0"/>
+      <c r="WW9" s="0"/>
+      <c r="WX9" s="0"/>
+      <c r="WY9" s="0"/>
+      <c r="WZ9" s="0"/>
+      <c r="XA9" s="0"/>
+      <c r="XB9" s="0"/>
+      <c r="XC9" s="0"/>
+      <c r="XD9" s="0"/>
+      <c r="XE9" s="0"/>
+      <c r="XF9" s="0"/>
+      <c r="XG9" s="0"/>
+      <c r="XH9" s="0"/>
+      <c r="XI9" s="0"/>
+      <c r="XJ9" s="0"/>
+      <c r="XK9" s="0"/>
+      <c r="XL9" s="0"/>
+      <c r="XM9" s="0"/>
+      <c r="XN9" s="0"/>
+      <c r="XO9" s="0"/>
+      <c r="XP9" s="0"/>
+      <c r="XQ9" s="0"/>
+      <c r="XR9" s="0"/>
+      <c r="XS9" s="0"/>
+      <c r="XT9" s="0"/>
+      <c r="XU9" s="0"/>
+      <c r="XV9" s="0"/>
+      <c r="XW9" s="0"/>
+      <c r="XX9" s="0"/>
+      <c r="XY9" s="0"/>
+      <c r="XZ9" s="0"/>
+      <c r="YA9" s="0"/>
+      <c r="YB9" s="0"/>
+      <c r="YC9" s="0"/>
+      <c r="YD9" s="0"/>
+      <c r="YE9" s="0"/>
+      <c r="YF9" s="0"/>
+      <c r="YG9" s="0"/>
+      <c r="YH9" s="0"/>
+      <c r="YI9" s="0"/>
+      <c r="YJ9" s="0"/>
+      <c r="YK9" s="0"/>
+      <c r="YL9" s="0"/>
+      <c r="YM9" s="0"/>
+      <c r="YN9" s="0"/>
+      <c r="YO9" s="0"/>
+      <c r="YP9" s="0"/>
+      <c r="YQ9" s="0"/>
+      <c r="YR9" s="0"/>
+      <c r="YS9" s="0"/>
+      <c r="YT9" s="0"/>
+      <c r="YU9" s="0"/>
+      <c r="YV9" s="0"/>
+      <c r="YW9" s="0"/>
+      <c r="YX9" s="0"/>
+      <c r="YY9" s="0"/>
+      <c r="YZ9" s="0"/>
+      <c r="ZA9" s="0"/>
+      <c r="ZB9" s="0"/>
+      <c r="ZC9" s="0"/>
+      <c r="ZD9" s="0"/>
+      <c r="ZE9" s="0"/>
+      <c r="ZF9" s="0"/>
+      <c r="ZG9" s="0"/>
+      <c r="ZH9" s="0"/>
+      <c r="ZI9" s="0"/>
+      <c r="ZJ9" s="0"/>
+      <c r="ZK9" s="0"/>
+      <c r="ZL9" s="0"/>
+      <c r="ZM9" s="0"/>
+      <c r="ZN9" s="0"/>
+      <c r="ZO9" s="0"/>
+      <c r="ZP9" s="0"/>
+      <c r="ZQ9" s="0"/>
+      <c r="ZR9" s="0"/>
+      <c r="ZS9" s="0"/>
+      <c r="ZT9" s="0"/>
+      <c r="ZU9" s="0"/>
+      <c r="ZV9" s="0"/>
+      <c r="ZW9" s="0"/>
+      <c r="ZX9" s="0"/>
+      <c r="ZY9" s="0"/>
+      <c r="ZZ9" s="0"/>
+      <c r="AAA9" s="0"/>
+      <c r="AAB9" s="0"/>
+      <c r="AAC9" s="0"/>
+      <c r="AAD9" s="0"/>
+      <c r="AAE9" s="0"/>
+      <c r="AAF9" s="0"/>
+      <c r="AAG9" s="0"/>
+      <c r="AAH9" s="0"/>
+      <c r="AAI9" s="0"/>
+      <c r="AAJ9" s="0"/>
+      <c r="AAK9" s="0"/>
+      <c r="AAL9" s="0"/>
+      <c r="AAM9" s="0"/>
+      <c r="AAN9" s="0"/>
+      <c r="AAO9" s="0"/>
+      <c r="AAP9" s="0"/>
+      <c r="AAQ9" s="0"/>
+      <c r="AAR9" s="0"/>
+      <c r="AAS9" s="0"/>
+      <c r="AAT9" s="0"/>
+      <c r="AAU9" s="0"/>
+      <c r="AAV9" s="0"/>
+      <c r="AAW9" s="0"/>
+      <c r="AAX9" s="0"/>
+      <c r="AAY9" s="0"/>
+      <c r="AAZ9" s="0"/>
+      <c r="ABA9" s="0"/>
+      <c r="ABB9" s="0"/>
+      <c r="ABC9" s="0"/>
+      <c r="ABD9" s="0"/>
+      <c r="ABE9" s="0"/>
+      <c r="ABF9" s="0"/>
+      <c r="ABG9" s="0"/>
+      <c r="ABH9" s="0"/>
+      <c r="ABI9" s="0"/>
+      <c r="ABJ9" s="0"/>
+      <c r="ABK9" s="0"/>
+      <c r="ABL9" s="0"/>
+      <c r="ABM9" s="0"/>
+      <c r="ABN9" s="0"/>
+      <c r="ABO9" s="0"/>
+      <c r="ABP9" s="0"/>
+      <c r="ABQ9" s="0"/>
+      <c r="ABR9" s="0"/>
+      <c r="ABS9" s="0"/>
+      <c r="ABT9" s="0"/>
+      <c r="ABU9" s="0"/>
+      <c r="ABV9" s="0"/>
+      <c r="ABW9" s="0"/>
+      <c r="ABX9" s="0"/>
+      <c r="ABY9" s="0"/>
+      <c r="ABZ9" s="0"/>
+      <c r="ACA9" s="0"/>
+      <c r="ACB9" s="0"/>
+      <c r="ACC9" s="0"/>
+      <c r="ACD9" s="0"/>
+      <c r="ACE9" s="0"/>
+      <c r="ACF9" s="0"/>
+      <c r="ACG9" s="0"/>
+      <c r="ACH9" s="0"/>
+      <c r="ACI9" s="0"/>
+      <c r="ACJ9" s="0"/>
+      <c r="ACK9" s="0"/>
+      <c r="ACL9" s="0"/>
+      <c r="ACM9" s="0"/>
+      <c r="ACN9" s="0"/>
+      <c r="ACO9" s="0"/>
+      <c r="ACP9" s="0"/>
+      <c r="ACQ9" s="0"/>
+      <c r="ACR9" s="0"/>
+      <c r="ACS9" s="0"/>
+      <c r="ACT9" s="0"/>
+      <c r="ACU9" s="0"/>
+      <c r="ACV9" s="0"/>
+      <c r="ACW9" s="0"/>
+      <c r="ACX9" s="0"/>
+      <c r="ACY9" s="0"/>
+      <c r="ACZ9" s="0"/>
+      <c r="ADA9" s="0"/>
+      <c r="ADB9" s="0"/>
+      <c r="ADC9" s="0"/>
+      <c r="ADD9" s="0"/>
+      <c r="ADE9" s="0"/>
+      <c r="ADF9" s="0"/>
+      <c r="ADG9" s="0"/>
+      <c r="ADH9" s="0"/>
+      <c r="ADI9" s="0"/>
+      <c r="ADJ9" s="0"/>
+      <c r="ADK9" s="0"/>
+      <c r="ADL9" s="0"/>
+      <c r="ADM9" s="0"/>
+      <c r="ADN9" s="0"/>
+      <c r="ADO9" s="0"/>
+      <c r="ADP9" s="0"/>
+      <c r="ADQ9" s="0"/>
+      <c r="ADR9" s="0"/>
+      <c r="ADS9" s="0"/>
+      <c r="ADT9" s="0"/>
+      <c r="ADU9" s="0"/>
+      <c r="ADV9" s="0"/>
+      <c r="ADW9" s="0"/>
+      <c r="ADX9" s="0"/>
+      <c r="ADY9" s="0"/>
+      <c r="ADZ9" s="0"/>
+      <c r="AEA9" s="0"/>
+      <c r="AEB9" s="0"/>
+      <c r="AEC9" s="0"/>
+      <c r="AED9" s="0"/>
+      <c r="AEE9" s="0"/>
+      <c r="AEF9" s="0"/>
+      <c r="AEG9" s="0"/>
+      <c r="AEH9" s="0"/>
+      <c r="AEI9" s="0"/>
+      <c r="AEJ9" s="0"/>
+      <c r="AEK9" s="0"/>
+      <c r="AEL9" s="0"/>
+      <c r="AEM9" s="0"/>
+      <c r="AEN9" s="0"/>
+      <c r="AEO9" s="0"/>
+      <c r="AEP9" s="0"/>
+      <c r="AEQ9" s="0"/>
+      <c r="AER9" s="0"/>
+      <c r="AES9" s="0"/>
+      <c r="AET9" s="0"/>
+      <c r="AEU9" s="0"/>
+      <c r="AEV9" s="0"/>
+      <c r="AEW9" s="0"/>
+      <c r="AEX9" s="0"/>
+      <c r="AEY9" s="0"/>
+      <c r="AEZ9" s="0"/>
+      <c r="AFA9" s="0"/>
+      <c r="AFB9" s="0"/>
+      <c r="AFC9" s="0"/>
+      <c r="AFD9" s="0"/>
+      <c r="AFE9" s="0"/>
+      <c r="AFF9" s="0"/>
+      <c r="AFG9" s="0"/>
+      <c r="AFH9" s="0"/>
+      <c r="AFI9" s="0"/>
+      <c r="AFJ9" s="0"/>
+      <c r="AFK9" s="0"/>
+      <c r="AFL9" s="0"/>
+      <c r="AFM9" s="0"/>
+      <c r="AFN9" s="0"/>
+      <c r="AFO9" s="0"/>
+      <c r="AFP9" s="0"/>
+      <c r="AFQ9" s="0"/>
+      <c r="AFR9" s="0"/>
+      <c r="AFS9" s="0"/>
+      <c r="AFT9" s="0"/>
+      <c r="AFU9" s="0"/>
+      <c r="AFV9" s="0"/>
+      <c r="AFW9" s="0"/>
+      <c r="AFX9" s="0"/>
+      <c r="AFY9" s="0"/>
+      <c r="AFZ9" s="0"/>
+      <c r="AGA9" s="0"/>
+      <c r="AGB9" s="0"/>
+      <c r="AGC9" s="0"/>
+      <c r="AGD9" s="0"/>
+      <c r="AGE9" s="0"/>
+      <c r="AGF9" s="0"/>
+      <c r="AGG9" s="0"/>
+      <c r="AGH9" s="0"/>
+      <c r="AGI9" s="0"/>
+      <c r="AGJ9" s="0"/>
+      <c r="AGK9" s="0"/>
+      <c r="AGL9" s="0"/>
+      <c r="AGM9" s="0"/>
+      <c r="AGN9" s="0"/>
+      <c r="AGO9" s="0"/>
+      <c r="AGP9" s="0"/>
+      <c r="AGQ9" s="0"/>
+      <c r="AGR9" s="0"/>
+      <c r="AGS9" s="0"/>
+      <c r="AGT9" s="0"/>
+      <c r="AGU9" s="0"/>
+      <c r="AGV9" s="0"/>
+      <c r="AGW9" s="0"/>
+      <c r="AGX9" s="0"/>
+      <c r="AGY9" s="0"/>
+      <c r="AGZ9" s="0"/>
+      <c r="AHA9" s="0"/>
+      <c r="AHB9" s="0"/>
+      <c r="AHC9" s="0"/>
+      <c r="AHD9" s="0"/>
+      <c r="AHE9" s="0"/>
+      <c r="AHF9" s="0"/>
+      <c r="AHG9" s="0"/>
+      <c r="AHH9" s="0"/>
+      <c r="AHI9" s="0"/>
+      <c r="AHJ9" s="0"/>
+      <c r="AHK9" s="0"/>
+      <c r="AHL9" s="0"/>
+      <c r="AHM9" s="0"/>
+      <c r="AHN9" s="0"/>
+      <c r="AHO9" s="0"/>
+      <c r="AHP9" s="0"/>
+      <c r="AHQ9" s="0"/>
+      <c r="AHR9" s="0"/>
+      <c r="AHS9" s="0"/>
+      <c r="AHT9" s="0"/>
+      <c r="AHU9" s="0"/>
+      <c r="AHV9" s="0"/>
+      <c r="AHW9" s="0"/>
+      <c r="AHX9" s="0"/>
+      <c r="AHY9" s="0"/>
+      <c r="AHZ9" s="0"/>
+      <c r="AIA9" s="0"/>
+      <c r="AIB9" s="0"/>
+      <c r="AIC9" s="0"/>
+      <c r="AID9" s="0"/>
+      <c r="AIE9" s="0"/>
+      <c r="AIF9" s="0"/>
+      <c r="AIG9" s="0"/>
+      <c r="AIH9" s="0"/>
+      <c r="AII9" s="0"/>
+      <c r="AIJ9" s="0"/>
+      <c r="AIK9" s="0"/>
+      <c r="AIL9" s="0"/>
+      <c r="AIM9" s="0"/>
+      <c r="AIN9" s="0"/>
+      <c r="AIO9" s="0"/>
+      <c r="AIP9" s="0"/>
+      <c r="AIQ9" s="0"/>
+      <c r="AIR9" s="0"/>
+      <c r="AIS9" s="0"/>
+      <c r="AIT9" s="0"/>
+      <c r="AIU9" s="0"/>
+      <c r="AIV9" s="0"/>
+      <c r="AIW9" s="0"/>
+      <c r="AIX9" s="0"/>
+      <c r="AIY9" s="0"/>
+      <c r="AIZ9" s="0"/>
+      <c r="AJA9" s="0"/>
+      <c r="AJB9" s="0"/>
+      <c r="AJC9" s="0"/>
+      <c r="AJD9" s="0"/>
+      <c r="AJE9" s="0"/>
+      <c r="AJF9" s="0"/>
+      <c r="AJG9" s="0"/>
+      <c r="AJH9" s="0"/>
+      <c r="AJI9" s="0"/>
+      <c r="AJJ9" s="0"/>
+      <c r="AJK9" s="0"/>
+      <c r="AJL9" s="0"/>
+      <c r="AJM9" s="0"/>
+      <c r="AJN9" s="0"/>
+      <c r="AJO9" s="0"/>
+      <c r="AJP9" s="0"/>
+      <c r="AJQ9" s="0"/>
+      <c r="AJR9" s="0"/>
+      <c r="AJS9" s="0"/>
+      <c r="AJT9" s="0"/>
+      <c r="AJU9" s="0"/>
+      <c r="AJV9" s="0"/>
+      <c r="AJW9" s="0"/>
+      <c r="AJX9" s="0"/>
+      <c r="AJY9" s="0"/>
+      <c r="AJZ9" s="0"/>
+      <c r="AKA9" s="0"/>
+      <c r="AKB9" s="0"/>
+      <c r="AKC9" s="0"/>
+      <c r="AKD9" s="0"/>
+      <c r="AKE9" s="0"/>
+      <c r="AKF9" s="0"/>
+      <c r="AKG9" s="0"/>
+      <c r="AKH9" s="0"/>
+      <c r="AKI9" s="0"/>
+      <c r="AKJ9" s="0"/>
+      <c r="AKK9" s="0"/>
+      <c r="AKL9" s="0"/>
+      <c r="AKM9" s="0"/>
+      <c r="AKN9" s="0"/>
+      <c r="AKO9" s="0"/>
+      <c r="AKP9" s="0"/>
+      <c r="AKQ9" s="0"/>
+      <c r="AKR9" s="0"/>
+      <c r="AKS9" s="0"/>
+      <c r="AKT9" s="0"/>
+      <c r="AKU9" s="0"/>
+      <c r="AKV9" s="0"/>
+      <c r="AKW9" s="0"/>
+      <c r="AKX9" s="0"/>
+      <c r="AKY9" s="0"/>
+      <c r="AKZ9" s="0"/>
+      <c r="ALA9" s="0"/>
+      <c r="ALB9" s="0"/>
+      <c r="ALC9" s="0"/>
+      <c r="ALD9" s="0"/>
+      <c r="ALE9" s="0"/>
+      <c r="ALF9" s="0"/>
+      <c r="ALG9" s="0"/>
+      <c r="ALH9" s="0"/>
+      <c r="ALI9" s="0"/>
+      <c r="ALJ9" s="0"/>
+      <c r="ALK9" s="0"/>
+      <c r="ALL9" s="0"/>
+      <c r="ALM9" s="0"/>
+      <c r="ALN9" s="0"/>
+      <c r="ALO9" s="0"/>
+      <c r="ALP9" s="0"/>
+      <c r="ALQ9" s="0"/>
+      <c r="ALR9" s="0"/>
+      <c r="ALS9" s="0"/>
+      <c r="ALT9" s="0"/>
+      <c r="ALU9" s="0"/>
+      <c r="ALV9" s="0"/>
+      <c r="ALW9" s="0"/>
+      <c r="ALX9" s="0"/>
+      <c r="ALY9" s="0"/>
+      <c r="ALZ9" s="0"/>
+      <c r="AMA9" s="0"/>
+      <c r="AMB9" s="0"/>
+      <c r="AMC9" s="0"/>
+      <c r="AMD9" s="0"/>
+      <c r="AME9" s="0"/>
+      <c r="AMF9" s="0"/>
+      <c r="AMG9" s="0"/>
+      <c r="AMH9" s="0"/>
+      <c r="AMI9" s="0"/>
+      <c r="AMJ9" s="0"/>
     </row>
-    <row r="10" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="57" t="n">
-        <v>15219</v>
-      </c>
-      <c r="B10" s="58" t="n">
+    <row r="10" s="66" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="56" t="n">
+        <v>13369</v>
+      </c>
+      <c r="B10" s="57" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="58" t="s">
         <v>51</v>
       </c>
       <c r="D10" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="59" t="s">
+      <c r="E10" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="58" t="s">
+      <c r="F10" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="58" t="s">
+      <c r="G10" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="60" t="n">
-        <v>18429</v>
-      </c>
-      <c r="I10" s="60" t="n">
-        <v>18429</v>
-      </c>
-      <c r="J10" s="60" t="n">
-        <v>43100</v>
-      </c>
-      <c r="K10" s="61" t="n">
-        <v>68</v>
-      </c>
-      <c r="L10" s="58" t="s">
+      <c r="H10" s="61" t="n">
+        <v>17189</v>
+      </c>
+      <c r="I10" s="61" t="n">
+        <v>17189</v>
+      </c>
+      <c r="J10" s="62" t="n">
+        <v>44915</v>
+      </c>
+      <c r="K10" s="63" t="n">
+        <v>46</v>
+      </c>
+      <c r="L10" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="58" t="s">
+      <c r="M10" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="N10" s="58" t="s">
+      <c r="N10" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="O10" s="58" t="s">
+      <c r="O10" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="P10" s="58" t="s">
+      <c r="P10" s="60" t="s">
         <v>58</v>
       </c>
       <c r="Q10" s="59" t="s">
@@ -9157,3554 +10216,2555 @@
       <c r="R10" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="S10" s="59"/>
+      <c r="S10" s="65"/>
       <c r="T10" s="59" t="s">
         <v>61</v>
       </c>
       <c r="U10" s="59"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="58"/>
+      <c r="V10" s="60"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="60" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="11" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="57" t="n">
-        <v>16105</v>
-      </c>
-      <c r="B11" s="58" t="n">
+      <c r="A11" s="67" t="n">
+        <v>15219</v>
+      </c>
+      <c r="B11" s="68" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="59" t="s">
+      <c r="C11" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="58" t="s">
+      <c r="D11" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="58" t="s">
+      <c r="E11" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="60" t="n">
-        <v>18872</v>
-      </c>
-      <c r="I11" s="60" t="n">
-        <v>18872</v>
-      </c>
-      <c r="J11" s="60" t="n">
-        <v>43162</v>
-      </c>
-      <c r="K11" s="61" t="n">
-        <v>58</v>
-      </c>
-      <c r="L11" s="58" t="s">
+      <c r="F11" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="M11" s="58" t="s">
+      <c r="G11" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="N11" s="58" t="s">
+      <c r="H11" s="70" t="n">
+        <v>18429</v>
+      </c>
+      <c r="I11" s="70" t="n">
+        <v>18429</v>
+      </c>
+      <c r="J11" s="70" t="n">
+        <v>43100</v>
+      </c>
+      <c r="K11" s="71" t="n">
         <v>68</v>
       </c>
-      <c r="O11" s="58" t="s">
+      <c r="L11" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="P11" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q11" s="59" t="s">
+      <c r="M11" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="R11" s="59" t="s">
+      <c r="N11" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="S11" s="59"/>
-      <c r="T11" s="59" t="s">
+      <c r="O11" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="U11" s="59"/>
-      <c r="V11" s="58"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="58"/>
+      <c r="R11" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="S11" s="69"/>
+      <c r="T11" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="U11" s="69"/>
+      <c r="V11" s="68"/>
+      <c r="W11" s="68"/>
+      <c r="X11" s="68"/>
     </row>
     <row r="12" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="57" t="n">
-        <v>16598</v>
-      </c>
-      <c r="B12" s="58" t="n">
+      <c r="A12" s="67" t="n">
+        <v>16105</v>
+      </c>
+      <c r="B12" s="68" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="58" t="s">
+      <c r="C12" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="58" t="s">
+      <c r="D12" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="H12" s="60" t="n">
-        <v>18833</v>
-      </c>
-      <c r="I12" s="60" t="n">
-        <v>18833</v>
-      </c>
-      <c r="J12" s="60" t="n">
-        <v>43085</v>
-      </c>
-      <c r="K12" s="61" t="n">
-        <v>11</v>
-      </c>
-      <c r="L12" s="58" t="s">
+      <c r="E12" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="M12" s="58" t="s">
+      <c r="G12" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="N12" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="O12" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="P12" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q12" s="59" t="s">
+      <c r="H12" s="70" t="n">
+        <v>18872</v>
+      </c>
+      <c r="I12" s="70" t="n">
+        <v>18872</v>
+      </c>
+      <c r="J12" s="70" t="n">
+        <v>43162</v>
+      </c>
+      <c r="K12" s="71" t="n">
+        <v>58</v>
+      </c>
+      <c r="L12" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="R12" s="59" t="s">
+      <c r="M12" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="S12" s="59"/>
-      <c r="T12" s="59" t="s">
+      <c r="N12" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="U12" s="59"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="58"/>
+      <c r="O12" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q12" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="R12" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="S12" s="69"/>
+      <c r="T12" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="U12" s="69"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="68"/>
     </row>
     <row r="13" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="57" t="n">
-        <v>28486</v>
-      </c>
-      <c r="B13" s="58" t="n">
+      <c r="A13" s="67" t="n">
+        <v>16598</v>
+      </c>
+      <c r="B13" s="68" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="58" t="s">
+      <c r="C13" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="60" t="n">
-        <v>22699</v>
-      </c>
-      <c r="I13" s="60" t="n">
-        <v>22699</v>
-      </c>
-      <c r="J13" s="60" t="n">
-        <v>42513</v>
-      </c>
-      <c r="K13" s="61" t="n">
-        <v>14</v>
-      </c>
-      <c r="L13" s="58" t="s">
+      <c r="D13" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="M13" s="58" t="s">
+      <c r="E13" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="N13" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="O13" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="P13" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q13" s="59" t="s">
+      <c r="G13" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="R13" s="59" t="s">
+      <c r="H13" s="70" t="n">
+        <v>18833</v>
+      </c>
+      <c r="I13" s="70" t="n">
+        <v>18833</v>
+      </c>
+      <c r="J13" s="70" t="n">
+        <v>43085</v>
+      </c>
+      <c r="K13" s="71" t="n">
+        <v>11</v>
+      </c>
+      <c r="L13" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59" t="s">
+      <c r="M13" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="U13" s="59"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="58"/>
+      <c r="N13" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="O13" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q13" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="R13" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="S13" s="69"/>
+      <c r="T13" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="U13" s="69"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="68"/>
     </row>
     <row r="14" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="57" t="n">
-        <v>30015</v>
-      </c>
-      <c r="B14" s="58" t="n">
-        <v>2</v>
-      </c>
-      <c r="C14" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="59" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="G14" s="58" t="s">
+      <c r="A14" s="67" t="n">
+        <v>28486</v>
+      </c>
+      <c r="B14" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="H14" s="60" t="n">
-        <v>23410</v>
-      </c>
-      <c r="I14" s="60" t="n">
-        <v>23410</v>
-      </c>
-      <c r="J14" s="60" t="n">
-        <v>43552</v>
-      </c>
-      <c r="K14" s="61" t="n">
-        <v>10</v>
-      </c>
-      <c r="L14" s="58" t="s">
+      <c r="D14" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="M14" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="N14" s="58" t="s">
+      <c r="E14" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" s="70" t="n">
+        <v>22699</v>
+      </c>
+      <c r="I14" s="70" t="n">
+        <v>22699</v>
+      </c>
+      <c r="J14" s="70" t="n">
+        <v>42513</v>
+      </c>
+      <c r="K14" s="71" t="n">
+        <v>14</v>
+      </c>
+      <c r="L14" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="M14" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="N14" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="O14" s="58" t="s">
+      <c r="O14" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="P14" s="58" t="s">
+      <c r="P14" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="Q14" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="R14" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="S14" s="59"/>
-      <c r="T14" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="U14" s="59"/>
-      <c r="V14" s="58"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="58"/>
+      <c r="Q14" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="R14" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="S14" s="69"/>
+      <c r="T14" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="U14" s="69"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="68"/>
+      <c r="X14" s="68"/>
     </row>
     <row r="15" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="57" t="n">
-        <v>31644</v>
-      </c>
-      <c r="B15" s="58" t="n">
+      <c r="A15" s="67" t="n">
+        <v>30015</v>
+      </c>
+      <c r="B15" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="C15" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="G15" s="58" t="s">
+      <c r="C15" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="H15" s="60" t="n">
-        <v>24645</v>
-      </c>
-      <c r="I15" s="60" t="n">
-        <v>34421</v>
-      </c>
-      <c r="J15" s="60" t="n">
-        <v>42781</v>
-      </c>
-      <c r="K15" s="61" t="n">
-        <v>11</v>
-      </c>
-      <c r="L15" s="58" t="s">
+      <c r="D15" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="M15" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="N15" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="O15" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="P15" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q15" s="59" t="s">
+      <c r="E15" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="R15" s="59" t="s">
+      <c r="G15" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59" t="s">
+      <c r="H15" s="70" t="n">
+        <v>23410</v>
+      </c>
+      <c r="I15" s="70" t="n">
+        <v>23410</v>
+      </c>
+      <c r="J15" s="70" t="n">
+        <v>43552</v>
+      </c>
+      <c r="K15" s="71" t="n">
+        <v>10</v>
+      </c>
+      <c r="L15" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="U15" s="59"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="58"/>
+      <c r="M15" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="N15" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="O15" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="P15" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q15" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="R15" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="S15" s="69"/>
+      <c r="T15" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="U15" s="69"/>
+      <c r="V15" s="68"/>
+      <c r="W15" s="68"/>
+      <c r="X15" s="68"/>
     </row>
     <row r="16" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="57" t="n">
-        <v>32475</v>
-      </c>
-      <c r="B16" s="58" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="59" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="E16" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="58" t="s">
+      <c r="A16" s="67" t="n">
+        <v>31644</v>
+      </c>
+      <c r="B16" s="68" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="H16" s="60" t="n">
-        <v>24267</v>
-      </c>
-      <c r="I16" s="60" t="n">
-        <v>24267</v>
-      </c>
-      <c r="J16" s="60" t="n">
-        <v>42480</v>
-      </c>
-      <c r="K16" s="61" t="n">
-        <v>19</v>
-      </c>
-      <c r="L16" s="58" t="s">
+      <c r="D16" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="M16" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="N16" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="O16" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="P16" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q16" s="59" t="s">
+      <c r="E16" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="R16" s="59" t="s">
+      <c r="G16" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="S16" s="59"/>
-      <c r="T16" s="59" t="s">
+      <c r="H16" s="70" t="n">
+        <v>24645</v>
+      </c>
+      <c r="I16" s="70" t="n">
+        <v>34421</v>
+      </c>
+      <c r="J16" s="70" t="n">
+        <v>42781</v>
+      </c>
+      <c r="K16" s="71" t="n">
+        <v>11</v>
+      </c>
+      <c r="L16" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="U16" s="59"/>
-      <c r="V16" s="58"/>
-      <c r="W16" s="58"/>
-      <c r="X16" s="58"/>
+      <c r="M16" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="N16" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="O16" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q16" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="R16" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="S16" s="69"/>
+      <c r="T16" s="69" t="s">
+        <v>116</v>
+      </c>
+      <c r="U16" s="69"/>
+      <c r="V16" s="68"/>
+      <c r="W16" s="68"/>
+      <c r="X16" s="68"/>
     </row>
     <row r="17" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="57" t="n">
-        <v>35366</v>
-      </c>
-      <c r="B17" s="58" t="n">
+      <c r="A17" s="67" t="n">
+        <v>32475</v>
+      </c>
+      <c r="B17" s="68" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="H17" s="60" t="n">
-        <v>25696</v>
-      </c>
-      <c r="I17" s="60" t="n">
-        <v>25696</v>
-      </c>
-      <c r="J17" s="60" t="n">
-        <v>42781</v>
-      </c>
-      <c r="K17" s="61" t="n">
-        <v>16</v>
-      </c>
-      <c r="L17" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="M17" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="N17" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="O17" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="P17" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q17" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="R17" s="59" t="s">
+      <c r="C17" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="S17" s="59"/>
-      <c r="T17" s="59" t="s">
-        <v>105</v>
-      </c>
-      <c r="U17" s="59"/>
-      <c r="V17" s="58"/>
-      <c r="W17" s="58"/>
-      <c r="X17" s="58"/>
+      <c r="D17" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="H17" s="70" t="n">
+        <v>24267</v>
+      </c>
+      <c r="I17" s="70" t="n">
+        <v>24267</v>
+      </c>
+      <c r="J17" s="70" t="n">
+        <v>42480</v>
+      </c>
+      <c r="K17" s="71" t="n">
+        <v>19</v>
+      </c>
+      <c r="L17" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="M17" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="N17" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="O17" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="P17" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q17" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="R17" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="S17" s="69"/>
+      <c r="T17" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="U17" s="69"/>
+      <c r="V17" s="68"/>
+      <c r="W17" s="68"/>
+      <c r="X17" s="68"/>
     </row>
     <row r="18" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="57" t="n">
-        <v>43454</v>
-      </c>
-      <c r="B18" s="58" t="n">
+      <c r="A18" s="67" t="n">
+        <v>35366</v>
+      </c>
+      <c r="B18" s="68" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="F18" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="G18" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="H18" s="60" t="n">
-        <v>29650</v>
-      </c>
-      <c r="I18" s="60" t="n">
-        <v>29650</v>
-      </c>
-      <c r="J18" s="60" t="n">
-        <v>43905</v>
-      </c>
-      <c r="K18" s="61" t="n">
-        <v>99</v>
-      </c>
-      <c r="L18" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="M18" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="N18" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="O18" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="P18" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q18" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="R18" s="59" t="s">
-        <v>124</v>
-      </c>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59" t="s">
+      <c r="C18" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="U18" s="59"/>
-      <c r="V18" s="58"/>
-      <c r="W18" s="58"/>
-      <c r="X18" s="58"/>
+      <c r="D18" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="H18" s="70" t="n">
+        <v>25696</v>
+      </c>
+      <c r="I18" s="70" t="n">
+        <v>25696</v>
+      </c>
+      <c r="J18" s="70" t="n">
+        <v>42781</v>
+      </c>
+      <c r="K18" s="71" t="n">
+        <v>16</v>
+      </c>
+      <c r="L18" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="M18" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="N18" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="O18" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="P18" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q18" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="R18" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="S18" s="69"/>
+      <c r="T18" s="69" t="s">
+        <v>116</v>
+      </c>
+      <c r="U18" s="69"/>
+      <c r="V18" s="68"/>
+      <c r="W18" s="68"/>
+      <c r="X18" s="68"/>
     </row>
     <row r="19" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="57" t="n">
-        <v>44625</v>
-      </c>
-      <c r="B19" s="58" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="G19" s="58" t="s">
+      <c r="A19" s="67" t="n">
+        <v>43454</v>
+      </c>
+      <c r="B19" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="H19" s="60" t="n">
-        <v>30098</v>
-      </c>
-      <c r="I19" s="60" t="n">
-        <v>30098</v>
-      </c>
-      <c r="J19" s="60" t="n">
-        <v>42842</v>
-      </c>
-      <c r="K19" s="61" t="n">
-        <v>59</v>
-      </c>
-      <c r="L19" s="58" t="s">
+      <c r="D19" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="M19" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="N19" s="58" t="s">
+      <c r="F19" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="O19" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="P19" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q19" s="59" t="s">
+      <c r="G19" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="R19" s="59" t="s">
+      <c r="H19" s="70" t="n">
+        <v>29650</v>
+      </c>
+      <c r="I19" s="70" t="n">
+        <v>29650</v>
+      </c>
+      <c r="J19" s="70" t="n">
+        <v>43905</v>
+      </c>
+      <c r="K19" s="71" t="n">
+        <v>99</v>
+      </c>
+      <c r="L19" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="S19" s="59"/>
-      <c r="T19" s="59" t="s">
+      <c r="M19" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="N19" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="O19" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="P19" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q19" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="U19" s="59"/>
-      <c r="V19" s="58"/>
-      <c r="W19" s="58"/>
-      <c r="X19" s="58"/>
+      <c r="R19" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="S19" s="69"/>
+      <c r="T19" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="U19" s="69"/>
+      <c r="V19" s="68"/>
+      <c r="W19" s="68"/>
+      <c r="X19" s="68"/>
     </row>
     <row r="20" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="57" t="n">
-        <v>45882</v>
-      </c>
-      <c r="B20" s="58" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="59" t="s">
-        <v>135</v>
-      </c>
-      <c r="D20" s="59" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="58" t="s">
+      <c r="A20" s="67" t="n">
+        <v>44625</v>
+      </c>
+      <c r="B20" s="68" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="G20" s="58" t="s">
+      <c r="D20" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="H20" s="60" t="n">
-        <v>31180</v>
-      </c>
-      <c r="I20" s="60" t="n">
-        <v>31180</v>
-      </c>
-      <c r="J20" s="60" t="n">
-        <v>43340</v>
-      </c>
-      <c r="K20" s="61" t="n">
-        <v>20</v>
-      </c>
-      <c r="L20" s="58" t="s">
+      <c r="E20" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="M20" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="N20" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="O20" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="P20" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q20" s="59" t="s">
+      <c r="G20" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="R20" s="59" t="s">
+      <c r="H20" s="70" t="n">
+        <v>30098</v>
+      </c>
+      <c r="I20" s="70" t="n">
+        <v>30098</v>
+      </c>
+      <c r="J20" s="70" t="n">
+        <v>42842</v>
+      </c>
+      <c r="K20" s="71" t="n">
+        <v>59</v>
+      </c>
+      <c r="L20" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="S20" s="59"/>
-      <c r="T20" s="59" t="s">
+      <c r="M20" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="N20" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="U20" s="59"/>
-      <c r="V20" s="58"/>
-      <c r="W20" s="58"/>
-      <c r="X20" s="58"/>
+      <c r="O20" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="P20" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q20" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="R20" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="S20" s="69"/>
+      <c r="T20" s="69" t="s">
+        <v>145</v>
+      </c>
+      <c r="U20" s="69"/>
+      <c r="V20" s="68"/>
+      <c r="W20" s="68"/>
+      <c r="X20" s="68"/>
     </row>
     <row r="21" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="57" t="n">
-        <v>53290</v>
-      </c>
-      <c r="B21" s="58" t="n">
+      <c r="A21" s="67" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B21" s="68" t="n">
         <v>1</v>
       </c>
-      <c r="C21" s="59" t="s">
-        <v>143</v>
-      </c>
-      <c r="D21" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="E21" s="59" t="s">
-        <v>145</v>
-      </c>
-      <c r="F21" s="58" t="s">
+      <c r="C21" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="G21" s="58" t="s">
+      <c r="D21" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="H21" s="60" t="n">
-        <v>35026</v>
-      </c>
-      <c r="I21" s="60" t="n">
-        <v>35026</v>
-      </c>
-      <c r="J21" s="60" t="n">
-        <v>43002</v>
-      </c>
-      <c r="K21" s="61" t="n">
-        <v>19</v>
-      </c>
-      <c r="L21" s="58" t="s">
+      <c r="E21" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="M21" s="58" t="s">
+      <c r="G21" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="N21" s="58" t="s">
+      <c r="H21" s="70" t="n">
+        <v>31180</v>
+      </c>
+      <c r="I21" s="70" t="n">
+        <v>31180</v>
+      </c>
+      <c r="J21" s="70" t="n">
+        <v>43340</v>
+      </c>
+      <c r="K21" s="71" t="n">
+        <v>20</v>
+      </c>
+      <c r="L21" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="M21" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="N21" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="O21" s="58" t="s">
+      <c r="O21" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="P21" s="58" t="s">
+      <c r="P21" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="Q21" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="R21" s="59" t="s">
+      <c r="Q21" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="S21" s="59"/>
-      <c r="T21" s="59" t="s">
+      <c r="R21" s="69" t="s">
         <v>152</v>
       </c>
-      <c r="U21" s="59"/>
-      <c r="V21" s="58" t="s">
+      <c r="S21" s="69"/>
+      <c r="T21" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="W21" s="58" t="s">
-        <v>154</v>
-      </c>
-      <c r="X21" s="58"/>
+      <c r="U21" s="69"/>
+      <c r="V21" s="68"/>
+      <c r="W21" s="68"/>
+      <c r="X21" s="68"/>
     </row>
     <row r="22" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="57" t="n">
-        <v>53662</v>
-      </c>
-      <c r="B22" s="58" t="n">
+      <c r="A22" s="67" t="n">
+        <v>53290</v>
+      </c>
+      <c r="B22" s="68" t="n">
         <v>1</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="D22" s="59" t="s">
+      <c r="E22" s="69" t="s">
         <v>156</v>
       </c>
-      <c r="E22" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="58" t="s">
+      <c r="F22" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="G22" s="58" t="s">
+      <c r="G22" s="68" t="s">
         <v>158</v>
       </c>
-      <c r="H22" s="60" t="n">
-        <v>35123</v>
-      </c>
-      <c r="I22" s="60" t="n">
-        <v>35123</v>
-      </c>
-      <c r="J22" s="60" t="n">
-        <v>42851</v>
-      </c>
-      <c r="K22" s="61" t="n">
-        <v>13</v>
-      </c>
-      <c r="L22" s="58" t="s">
+      <c r="H22" s="70" t="n">
+        <v>35026</v>
+      </c>
+      <c r="I22" s="70" t="n">
+        <v>35026</v>
+      </c>
+      <c r="J22" s="70" t="n">
+        <v>43002</v>
+      </c>
+      <c r="K22" s="71" t="n">
+        <v>19</v>
+      </c>
+      <c r="L22" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="M22" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="N22" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="O22" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="P22" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q22" s="59" t="s">
+      <c r="M22" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="R22" s="59" t="s">
+      <c r="N22" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="O22" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="P22" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q22" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="S22" s="59"/>
-      <c r="T22" s="59" t="s">
+      <c r="R22" s="69" t="s">
         <v>162</v>
       </c>
-      <c r="U22" s="59"/>
-      <c r="V22" s="58"/>
-      <c r="W22" s="58"/>
-      <c r="X22" s="58"/>
+      <c r="S22" s="69"/>
+      <c r="T22" s="69" t="s">
+        <v>163</v>
+      </c>
+      <c r="U22" s="69"/>
+      <c r="V22" s="68" t="s">
+        <v>164</v>
+      </c>
+      <c r="W22" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="X22" s="68"/>
     </row>
     <row r="23" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="57" t="n">
+      <c r="A23" s="67" t="n">
+        <v>53662</v>
+      </c>
+      <c r="B23" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="69" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="68" t="s">
+        <v>168</v>
+      </c>
+      <c r="G23" s="68" t="s">
+        <v>169</v>
+      </c>
+      <c r="H23" s="70" t="n">
+        <v>35123</v>
+      </c>
+      <c r="I23" s="70" t="n">
+        <v>35123</v>
+      </c>
+      <c r="J23" s="70" t="n">
+        <v>42851</v>
+      </c>
+      <c r="K23" s="71" t="n">
+        <v>13</v>
+      </c>
+      <c r="L23" s="68" t="s">
+        <v>170</v>
+      </c>
+      <c r="M23" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="N23" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="O23" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="P23" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q23" s="69" t="s">
+        <v>171</v>
+      </c>
+      <c r="R23" s="69" t="s">
+        <v>172</v>
+      </c>
+      <c r="S23" s="69"/>
+      <c r="T23" s="69" t="s">
+        <v>173</v>
+      </c>
+      <c r="U23" s="69"/>
+      <c r="V23" s="68"/>
+      <c r="W23" s="68"/>
+      <c r="X23" s="68"/>
+    </row>
+    <row r="24" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="67" t="n">
         <v>54015</v>
       </c>
-      <c r="B23" s="58" t="n">
+      <c r="B24" s="68" t="n">
         <v>1</v>
       </c>
-      <c r="C23" s="59" t="s">
-        <v>163</v>
-      </c>
-      <c r="D23" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="E23" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="G23" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="H23" s="60" t="n">
+      <c r="C24" s="69" t="s">
+        <v>174</v>
+      </c>
+      <c r="D24" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="E24" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="68" t="s">
+        <v>176</v>
+      </c>
+      <c r="H24" s="70" t="n">
         <v>35488</v>
       </c>
-      <c r="I23" s="60" t="n">
+      <c r="I24" s="70" t="n">
         <v>35488</v>
       </c>
-      <c r="J23" s="60" t="n">
+      <c r="J24" s="70" t="n">
         <v>42921</v>
       </c>
-      <c r="K23" s="61" t="n">
+      <c r="K24" s="71" t="n">
         <v>11</v>
       </c>
-      <c r="L23" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="M23" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="N23" s="58" t="s">
+      <c r="L24" s="68" t="s">
+        <v>177</v>
+      </c>
+      <c r="M24" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="N24" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="O23" s="58" t="s">
+      <c r="O24" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="P23" s="58" t="s">
+      <c r="P24" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="Q23" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="R23" s="59" t="s">
-        <v>168</v>
-      </c>
-      <c r="S23" s="59"/>
-      <c r="T23" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="U23" s="59"/>
-      <c r="V23" s="58"/>
-      <c r="W23" s="58"/>
-      <c r="X23" s="58"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="37" t="n">
-        <v>54534</v>
-      </c>
-      <c r="B24" s="58" t="n">
-        <v>4</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="D24" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="E24" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="F24" s="40" t="s">
-        <v>172</v>
-      </c>
-      <c r="G24" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="H24" s="41" t="n">
-        <v>36879</v>
-      </c>
-      <c r="I24" s="41" t="n">
-        <v>42480</v>
-      </c>
-      <c r="J24" s="42" t="n">
-        <v>44143</v>
-      </c>
-      <c r="K24" s="45" t="n">
-        <v>1</v>
-      </c>
-      <c r="L24" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="M24" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="N24" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="O24" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="P24" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q24" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="R24" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="U24" s="39"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="39"/>
-      <c r="X24" s="40"/>
+      <c r="Q24" s="69" t="s">
+        <v>178</v>
+      </c>
+      <c r="R24" s="69" t="s">
+        <v>179</v>
+      </c>
+      <c r="S24" s="69"/>
+      <c r="T24" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="U24" s="69"/>
+      <c r="V24" s="68"/>
+      <c r="W24" s="68"/>
+      <c r="X24" s="68"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="57" t="n">
+      <c r="A25" s="37" t="n">
+        <v>54534</v>
+      </c>
+      <c r="B25" s="68" t="n">
+        <v>4</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="E25" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="G25" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="H25" s="41" t="n">
+        <v>36879</v>
+      </c>
+      <c r="I25" s="41" t="n">
+        <v>42480</v>
+      </c>
+      <c r="J25" s="42" t="n">
+        <v>44143</v>
+      </c>
+      <c r="K25" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="M25" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="N25" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="O25" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="P25" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q25" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="R25" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="U25" s="39"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="40"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="67" t="n">
         <v>55558</v>
       </c>
-      <c r="B25" s="58" t="n">
+      <c r="B26" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="C25" s="59" t="s">
-        <v>177</v>
-      </c>
-      <c r="D25" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="E25" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="58" t="s">
-        <v>179</v>
-      </c>
-      <c r="G25" s="58" t="s">
-        <v>180</v>
-      </c>
-      <c r="H25" s="60" t="n">
+      <c r="C26" s="69" t="s">
+        <v>188</v>
+      </c>
+      <c r="D26" s="69" t="s">
+        <v>189</v>
+      </c>
+      <c r="E26" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="68" t="s">
+        <v>190</v>
+      </c>
+      <c r="G26" s="68" t="s">
+        <v>191</v>
+      </c>
+      <c r="H26" s="70" t="n">
         <v>37232</v>
       </c>
-      <c r="I25" s="60" t="n">
+      <c r="I26" s="70" t="n">
         <v>37232</v>
       </c>
-      <c r="J25" s="60" t="n">
+      <c r="J26" s="70" t="n">
         <v>42896</v>
       </c>
-      <c r="K25" s="61" t="n">
+      <c r="K26" s="71" t="n">
         <v>5</v>
       </c>
-      <c r="L25" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="M25" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="N25" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="O25" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="P25" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q25" s="59" t="s">
-        <v>181</v>
-      </c>
-      <c r="R25" s="59" t="s">
-        <v>182</v>
-      </c>
-      <c r="S25" s="59"/>
-      <c r="T25" s="59" t="s">
-        <v>134</v>
-      </c>
-      <c r="U25" s="59"/>
-      <c r="V25" s="58"/>
-      <c r="W25" s="58"/>
-      <c r="X25" s="58"/>
+      <c r="L26" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="M26" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="N26" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="O26" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="P26" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q26" s="69" t="s">
+        <v>192</v>
+      </c>
+      <c r="R26" s="69" t="s">
+        <v>193</v>
+      </c>
+      <c r="S26" s="69"/>
+      <c r="T26" s="69" t="s">
+        <v>145</v>
+      </c>
+      <c r="U26" s="69"/>
+      <c r="V26" s="68"/>
+      <c r="W26" s="68"/>
+      <c r="X26" s="68"/>
     </row>
-    <row r="26" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="37" t="n">
+    <row r="27" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="37" t="n">
         <v>66297</v>
       </c>
-      <c r="B26" s="44" t="n">
+      <c r="B27" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="C26" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="E26" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="G26" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="H26" s="41" t="n">
+      <c r="C27" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="G27" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="H27" s="41" t="n">
         <v>42559</v>
       </c>
-      <c r="I26" s="41" t="n">
+      <c r="I27" s="41" t="n">
         <v>42559</v>
       </c>
-      <c r="J26" s="42" t="n">
+      <c r="J27" s="42" t="n">
         <v>44384</v>
       </c>
-      <c r="K26" s="45" t="n">
+      <c r="K27" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="L26" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="M26" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="N26" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="O26" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="P26" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q26" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="R26" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="U26" s="39"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="39"/>
-      <c r="X26" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="Z26" s="0"/>
-      <c r="AA26" s="0"/>
-      <c r="AB26" s="0"/>
-      <c r="AC26" s="0"/>
-      <c r="AD26" s="0"/>
-      <c r="AE26" s="0"/>
-      <c r="AF26" s="0"/>
-      <c r="AG26" s="0"/>
-      <c r="AH26" s="0"/>
-      <c r="AI26" s="0"/>
-      <c r="AJ26" s="0"/>
-      <c r="AK26" s="0"/>
-      <c r="AL26" s="0"/>
-      <c r="AM26" s="0"/>
-      <c r="AN26" s="0"/>
-      <c r="AO26" s="0"/>
-      <c r="AP26" s="0"/>
-      <c r="AQ26" s="0"/>
-      <c r="AR26" s="0"/>
-      <c r="AS26" s="0"/>
-      <c r="AT26" s="0"/>
-      <c r="AU26" s="0"/>
-      <c r="AV26" s="0"/>
-      <c r="AW26" s="0"/>
-      <c r="AX26" s="0"/>
-      <c r="AY26" s="0"/>
-      <c r="AZ26" s="0"/>
-      <c r="BA26" s="0"/>
-      <c r="BB26" s="0"/>
-      <c r="BC26" s="0"/>
-      <c r="BD26" s="0"/>
-      <c r="BE26" s="0"/>
-      <c r="BF26" s="0"/>
-      <c r="BG26" s="0"/>
-      <c r="BH26" s="0"/>
-      <c r="BI26" s="0"/>
-      <c r="BJ26" s="0"/>
-      <c r="BK26" s="0"/>
-      <c r="BL26" s="0"/>
-      <c r="BM26" s="0"/>
-      <c r="BN26" s="0"/>
-      <c r="BO26" s="0"/>
-      <c r="BP26" s="0"/>
-      <c r="BQ26" s="0"/>
-      <c r="BR26" s="0"/>
-      <c r="BS26" s="0"/>
-      <c r="BT26" s="0"/>
-      <c r="BU26" s="0"/>
-      <c r="BV26" s="0"/>
-      <c r="BW26" s="0"/>
-      <c r="BX26" s="0"/>
-      <c r="BY26" s="0"/>
-      <c r="BZ26" s="0"/>
-      <c r="CA26" s="0"/>
-      <c r="CB26" s="0"/>
-      <c r="CC26" s="0"/>
-      <c r="CD26" s="0"/>
-      <c r="CE26" s="0"/>
-      <c r="CF26" s="0"/>
-      <c r="CG26" s="0"/>
-      <c r="CH26" s="0"/>
-      <c r="CI26" s="0"/>
-      <c r="CJ26" s="0"/>
-      <c r="CK26" s="0"/>
-      <c r="CL26" s="0"/>
-      <c r="CM26" s="0"/>
-      <c r="CN26" s="0"/>
-      <c r="CO26" s="0"/>
-      <c r="CP26" s="0"/>
-      <c r="CQ26" s="0"/>
-      <c r="CR26" s="0"/>
-      <c r="CS26" s="0"/>
-      <c r="CT26" s="0"/>
-      <c r="CU26" s="0"/>
-      <c r="CV26" s="0"/>
-      <c r="CW26" s="0"/>
-      <c r="CX26" s="0"/>
-      <c r="CY26" s="0"/>
-      <c r="CZ26" s="0"/>
-      <c r="DA26" s="0"/>
-      <c r="DB26" s="0"/>
-      <c r="DC26" s="0"/>
-      <c r="DD26" s="0"/>
-      <c r="DE26" s="0"/>
-      <c r="DF26" s="0"/>
-      <c r="DG26" s="0"/>
-      <c r="DH26" s="0"/>
-      <c r="DI26" s="0"/>
-      <c r="DJ26" s="0"/>
-      <c r="DK26" s="0"/>
-      <c r="DL26" s="0"/>
-      <c r="DM26" s="0"/>
-      <c r="DN26" s="0"/>
-      <c r="DO26" s="0"/>
-      <c r="DP26" s="0"/>
-      <c r="DQ26" s="0"/>
-      <c r="DR26" s="0"/>
-      <c r="DS26" s="0"/>
-      <c r="DT26" s="0"/>
-      <c r="DU26" s="0"/>
-      <c r="DV26" s="0"/>
-      <c r="DW26" s="0"/>
-      <c r="DX26" s="0"/>
-      <c r="DY26" s="0"/>
-      <c r="DZ26" s="0"/>
-      <c r="EA26" s="0"/>
-      <c r="EB26" s="0"/>
-      <c r="EC26" s="0"/>
-      <c r="ED26" s="0"/>
-      <c r="EE26" s="0"/>
-      <c r="EF26" s="0"/>
-      <c r="EG26" s="0"/>
-      <c r="EH26" s="0"/>
-      <c r="EI26" s="0"/>
-      <c r="EJ26" s="0"/>
-      <c r="EK26" s="0"/>
-      <c r="EL26" s="0"/>
-      <c r="EM26" s="0"/>
-      <c r="EN26" s="0"/>
-      <c r="EO26" s="0"/>
-      <c r="EP26" s="0"/>
-      <c r="EQ26" s="0"/>
-      <c r="ER26" s="0"/>
-      <c r="ES26" s="0"/>
-      <c r="ET26" s="0"/>
-      <c r="EU26" s="0"/>
-      <c r="EV26" s="0"/>
-      <c r="EW26" s="0"/>
-      <c r="EX26" s="0"/>
-      <c r="EY26" s="0"/>
-      <c r="EZ26" s="0"/>
-      <c r="FA26" s="0"/>
-      <c r="FB26" s="0"/>
-      <c r="FC26" s="0"/>
-      <c r="FD26" s="0"/>
-      <c r="FE26" s="0"/>
-      <c r="FF26" s="0"/>
-      <c r="FG26" s="0"/>
-      <c r="FH26" s="0"/>
-      <c r="FI26" s="0"/>
-      <c r="FJ26" s="0"/>
-      <c r="FK26" s="0"/>
-      <c r="FL26" s="0"/>
-      <c r="FM26" s="0"/>
-      <c r="FN26" s="0"/>
-      <c r="FO26" s="0"/>
-      <c r="FP26" s="0"/>
-      <c r="FQ26" s="0"/>
-      <c r="FR26" s="0"/>
-      <c r="FS26" s="0"/>
-      <c r="FT26" s="0"/>
-      <c r="FU26" s="0"/>
-      <c r="FV26" s="0"/>
-      <c r="FW26" s="0"/>
-      <c r="FX26" s="0"/>
-      <c r="FY26" s="0"/>
-      <c r="FZ26" s="0"/>
-      <c r="GA26" s="0"/>
-      <c r="GB26" s="0"/>
-      <c r="GC26" s="0"/>
-      <c r="GD26" s="0"/>
-      <c r="GE26" s="0"/>
-      <c r="GF26" s="0"/>
-      <c r="GG26" s="0"/>
-      <c r="GH26" s="0"/>
-      <c r="GI26" s="0"/>
-      <c r="GJ26" s="0"/>
-      <c r="GK26" s="0"/>
-      <c r="GL26" s="0"/>
-      <c r="GM26" s="0"/>
-      <c r="GN26" s="0"/>
-      <c r="GO26" s="0"/>
-      <c r="GP26" s="0"/>
-      <c r="GQ26" s="0"/>
-      <c r="GR26" s="0"/>
-      <c r="GS26" s="0"/>
-      <c r="GT26" s="0"/>
-      <c r="GU26" s="0"/>
-      <c r="GV26" s="0"/>
-      <c r="GW26" s="0"/>
-      <c r="GX26" s="0"/>
-      <c r="GY26" s="0"/>
-      <c r="GZ26" s="0"/>
-      <c r="HA26" s="0"/>
-      <c r="HB26" s="0"/>
-      <c r="HC26" s="0"/>
-      <c r="HD26" s="0"/>
-      <c r="HE26" s="0"/>
-      <c r="HF26" s="0"/>
-      <c r="HG26" s="0"/>
-      <c r="HH26" s="0"/>
-      <c r="HI26" s="0"/>
-      <c r="HJ26" s="0"/>
-      <c r="HK26" s="0"/>
-      <c r="HL26" s="0"/>
-      <c r="HM26" s="0"/>
-      <c r="HN26" s="0"/>
-      <c r="HO26" s="0"/>
-      <c r="HP26" s="0"/>
-      <c r="HQ26" s="0"/>
-      <c r="HR26" s="0"/>
-      <c r="HS26" s="0"/>
-      <c r="HT26" s="0"/>
-      <c r="HU26" s="0"/>
-      <c r="HV26" s="0"/>
-      <c r="HW26" s="0"/>
-      <c r="HX26" s="0"/>
-      <c r="HY26" s="0"/>
-      <c r="HZ26" s="0"/>
-      <c r="IA26" s="0"/>
-      <c r="IB26" s="0"/>
-      <c r="IC26" s="0"/>
-      <c r="ID26" s="0"/>
-      <c r="IE26" s="0"/>
-      <c r="IF26" s="0"/>
-      <c r="IG26" s="0"/>
-      <c r="IH26" s="0"/>
-      <c r="II26" s="0"/>
-      <c r="IJ26" s="0"/>
-      <c r="IK26" s="0"/>
-      <c r="IL26" s="0"/>
-      <c r="IM26" s="0"/>
-      <c r="IN26" s="0"/>
-      <c r="IO26" s="0"/>
-      <c r="IP26" s="0"/>
-      <c r="IQ26" s="0"/>
-      <c r="IR26" s="0"/>
-      <c r="IS26" s="0"/>
-      <c r="IT26" s="0"/>
-      <c r="IU26" s="0"/>
-      <c r="IV26" s="0"/>
-      <c r="IW26" s="0"/>
-      <c r="IX26" s="0"/>
-      <c r="IY26" s="0"/>
-      <c r="IZ26" s="0"/>
-      <c r="JA26" s="0"/>
-      <c r="JB26" s="0"/>
-      <c r="JC26" s="0"/>
-      <c r="JD26" s="0"/>
-      <c r="JE26" s="0"/>
-      <c r="JF26" s="0"/>
-      <c r="JG26" s="0"/>
-      <c r="JH26" s="0"/>
-      <c r="JI26" s="0"/>
-      <c r="JJ26" s="0"/>
-      <c r="JK26" s="0"/>
-      <c r="JL26" s="0"/>
-      <c r="JM26" s="0"/>
-      <c r="JN26" s="0"/>
-      <c r="JO26" s="0"/>
-      <c r="JP26" s="0"/>
-      <c r="JQ26" s="0"/>
-      <c r="JR26" s="0"/>
-      <c r="JS26" s="0"/>
-      <c r="JT26" s="0"/>
-      <c r="JU26" s="0"/>
-      <c r="JV26" s="0"/>
-      <c r="JW26" s="0"/>
-      <c r="JX26" s="0"/>
-      <c r="JY26" s="0"/>
-      <c r="JZ26" s="0"/>
-      <c r="KA26" s="0"/>
-      <c r="KB26" s="0"/>
-      <c r="KC26" s="0"/>
-      <c r="KD26" s="0"/>
-      <c r="KE26" s="0"/>
-      <c r="KF26" s="0"/>
-      <c r="KG26" s="0"/>
-      <c r="KH26" s="0"/>
-      <c r="KI26" s="0"/>
-      <c r="KJ26" s="0"/>
-      <c r="KK26" s="0"/>
-      <c r="KL26" s="0"/>
-      <c r="KM26" s="0"/>
-      <c r="KN26" s="0"/>
-      <c r="KO26" s="0"/>
-      <c r="KP26" s="0"/>
-      <c r="KQ26" s="0"/>
-      <c r="KR26" s="0"/>
-      <c r="KS26" s="0"/>
-      <c r="KT26" s="0"/>
-      <c r="KU26" s="0"/>
-      <c r="KV26" s="0"/>
-      <c r="KW26" s="0"/>
-      <c r="KX26" s="0"/>
-      <c r="KY26" s="0"/>
-      <c r="KZ26" s="0"/>
-      <c r="LA26" s="0"/>
-      <c r="LB26" s="0"/>
-      <c r="LC26" s="0"/>
-      <c r="LD26" s="0"/>
-      <c r="LE26" s="0"/>
-      <c r="LF26" s="0"/>
-      <c r="LG26" s="0"/>
-      <c r="LH26" s="0"/>
-      <c r="LI26" s="0"/>
-      <c r="LJ26" s="0"/>
-      <c r="LK26" s="0"/>
-      <c r="LL26" s="0"/>
-      <c r="LM26" s="0"/>
-      <c r="LN26" s="0"/>
-      <c r="LO26" s="0"/>
-      <c r="LP26" s="0"/>
-      <c r="LQ26" s="0"/>
-      <c r="LR26" s="0"/>
-      <c r="LS26" s="0"/>
-      <c r="LT26" s="0"/>
-      <c r="LU26" s="0"/>
-      <c r="LV26" s="0"/>
-      <c r="LW26" s="0"/>
-      <c r="LX26" s="0"/>
-      <c r="LY26" s="0"/>
-      <c r="LZ26" s="0"/>
-      <c r="MA26" s="0"/>
-      <c r="MB26" s="0"/>
-      <c r="MC26" s="0"/>
-      <c r="MD26" s="0"/>
-      <c r="ME26" s="0"/>
-      <c r="MF26" s="0"/>
-      <c r="MG26" s="0"/>
-      <c r="MH26" s="0"/>
-      <c r="MI26" s="0"/>
-      <c r="MJ26" s="0"/>
-      <c r="MK26" s="0"/>
-      <c r="ML26" s="0"/>
-      <c r="MM26" s="0"/>
-      <c r="MN26" s="0"/>
-      <c r="MO26" s="0"/>
-      <c r="MP26" s="0"/>
-      <c r="MQ26" s="0"/>
-      <c r="MR26" s="0"/>
-      <c r="MS26" s="0"/>
-      <c r="MT26" s="0"/>
-      <c r="MU26" s="0"/>
-      <c r="MV26" s="0"/>
-      <c r="MW26" s="0"/>
-      <c r="MX26" s="0"/>
-      <c r="MY26" s="0"/>
-      <c r="MZ26" s="0"/>
-      <c r="NA26" s="0"/>
-      <c r="NB26" s="0"/>
-      <c r="NC26" s="0"/>
-      <c r="ND26" s="0"/>
-      <c r="NE26" s="0"/>
-      <c r="NF26" s="0"/>
-      <c r="NG26" s="0"/>
-      <c r="NH26" s="0"/>
-      <c r="NI26" s="0"/>
-      <c r="NJ26" s="0"/>
-      <c r="NK26" s="0"/>
-      <c r="NL26" s="0"/>
-      <c r="NM26" s="0"/>
-      <c r="NN26" s="0"/>
-      <c r="NO26" s="0"/>
-      <c r="NP26" s="0"/>
-      <c r="NQ26" s="0"/>
-      <c r="NR26" s="0"/>
-      <c r="NS26" s="0"/>
-      <c r="NT26" s="0"/>
-      <c r="NU26" s="0"/>
-      <c r="NV26" s="0"/>
-      <c r="NW26" s="0"/>
-      <c r="NX26" s="0"/>
-      <c r="NY26" s="0"/>
-      <c r="NZ26" s="0"/>
-      <c r="OA26" s="0"/>
-      <c r="OB26" s="0"/>
-      <c r="OC26" s="0"/>
-      <c r="OD26" s="0"/>
-      <c r="OE26" s="0"/>
-      <c r="OF26" s="0"/>
-      <c r="OG26" s="0"/>
-      <c r="OH26" s="0"/>
-      <c r="OI26" s="0"/>
-      <c r="OJ26" s="0"/>
-      <c r="OK26" s="0"/>
-      <c r="OL26" s="0"/>
-      <c r="OM26" s="0"/>
-      <c r="ON26" s="0"/>
-      <c r="OO26" s="0"/>
-      <c r="OP26" s="0"/>
-      <c r="OQ26" s="0"/>
-      <c r="OR26" s="0"/>
-      <c r="OS26" s="0"/>
-      <c r="OT26" s="0"/>
-      <c r="OU26" s="0"/>
-      <c r="OV26" s="0"/>
-      <c r="OW26" s="0"/>
-      <c r="OX26" s="0"/>
-      <c r="OY26" s="0"/>
-      <c r="OZ26" s="0"/>
-      <c r="PA26" s="0"/>
-      <c r="PB26" s="0"/>
-      <c r="PC26" s="0"/>
-      <c r="PD26" s="0"/>
-      <c r="PE26" s="0"/>
-      <c r="PF26" s="0"/>
-      <c r="PG26" s="0"/>
-      <c r="PH26" s="0"/>
-      <c r="PI26" s="0"/>
-      <c r="PJ26" s="0"/>
-      <c r="PK26" s="0"/>
-      <c r="PL26" s="0"/>
-      <c r="PM26" s="0"/>
-      <c r="PN26" s="0"/>
-      <c r="PO26" s="0"/>
-      <c r="PP26" s="0"/>
-      <c r="PQ26" s="0"/>
-      <c r="PR26" s="0"/>
-      <c r="PS26" s="0"/>
-      <c r="PT26" s="0"/>
-      <c r="PU26" s="0"/>
-      <c r="PV26" s="0"/>
-      <c r="PW26" s="0"/>
-      <c r="PX26" s="0"/>
-      <c r="PY26" s="0"/>
-      <c r="PZ26" s="0"/>
-      <c r="QA26" s="0"/>
-      <c r="QB26" s="0"/>
-      <c r="QC26" s="0"/>
-      <c r="QD26" s="0"/>
-      <c r="QE26" s="0"/>
-      <c r="QF26" s="0"/>
-      <c r="QG26" s="0"/>
-      <c r="QH26" s="0"/>
-      <c r="QI26" s="0"/>
-      <c r="QJ26" s="0"/>
-      <c r="QK26" s="0"/>
-      <c r="QL26" s="0"/>
-      <c r="QM26" s="0"/>
-      <c r="QN26" s="0"/>
-      <c r="QO26" s="0"/>
-      <c r="QP26" s="0"/>
-      <c r="QQ26" s="0"/>
-      <c r="QR26" s="0"/>
-      <c r="QS26" s="0"/>
-      <c r="QT26" s="0"/>
-      <c r="QU26" s="0"/>
-      <c r="QV26" s="0"/>
-      <c r="QW26" s="0"/>
-      <c r="QX26" s="0"/>
-      <c r="QY26" s="0"/>
-      <c r="QZ26" s="0"/>
-      <c r="RA26" s="0"/>
-      <c r="RB26" s="0"/>
-      <c r="RC26" s="0"/>
-      <c r="RD26" s="0"/>
-      <c r="RE26" s="0"/>
-      <c r="RF26" s="0"/>
-      <c r="RG26" s="0"/>
-      <c r="RH26" s="0"/>
-      <c r="RI26" s="0"/>
-      <c r="RJ26" s="0"/>
-      <c r="RK26" s="0"/>
-      <c r="RL26" s="0"/>
-      <c r="RM26" s="0"/>
-      <c r="RN26" s="0"/>
-      <c r="RO26" s="0"/>
-      <c r="RP26" s="0"/>
-      <c r="RQ26" s="0"/>
-      <c r="RR26" s="0"/>
-      <c r="RS26" s="0"/>
-      <c r="RT26" s="0"/>
-      <c r="RU26" s="0"/>
-      <c r="RV26" s="0"/>
-      <c r="RW26" s="0"/>
-      <c r="RX26" s="0"/>
-      <c r="RY26" s="0"/>
-      <c r="RZ26" s="0"/>
-      <c r="SA26" s="0"/>
-      <c r="SB26" s="0"/>
-      <c r="SC26" s="0"/>
-      <c r="SD26" s="0"/>
-      <c r="SE26" s="0"/>
-      <c r="SF26" s="0"/>
-      <c r="SG26" s="0"/>
-      <c r="SH26" s="0"/>
-      <c r="SI26" s="0"/>
-      <c r="SJ26" s="0"/>
-      <c r="SK26" s="0"/>
-      <c r="SL26" s="0"/>
-      <c r="SM26" s="0"/>
-      <c r="SN26" s="0"/>
-      <c r="SO26" s="0"/>
-      <c r="SP26" s="0"/>
-      <c r="SQ26" s="0"/>
-      <c r="SR26" s="0"/>
-      <c r="SS26" s="0"/>
-      <c r="ST26" s="0"/>
-      <c r="SU26" s="0"/>
-      <c r="SV26" s="0"/>
-      <c r="SW26" s="0"/>
-      <c r="SX26" s="0"/>
-      <c r="SY26" s="0"/>
-      <c r="SZ26" s="0"/>
-      <c r="TA26" s="0"/>
-      <c r="TB26" s="0"/>
-      <c r="TC26" s="0"/>
-      <c r="TD26" s="0"/>
-      <c r="TE26" s="0"/>
-      <c r="TF26" s="0"/>
-      <c r="TG26" s="0"/>
-      <c r="TH26" s="0"/>
-      <c r="TI26" s="0"/>
-      <c r="TJ26" s="0"/>
-      <c r="TK26" s="0"/>
-      <c r="TL26" s="0"/>
-      <c r="TM26" s="0"/>
-      <c r="TN26" s="0"/>
-      <c r="TO26" s="0"/>
-      <c r="TP26" s="0"/>
-      <c r="TQ26" s="0"/>
-      <c r="TR26" s="0"/>
-      <c r="TS26" s="0"/>
-      <c r="TT26" s="0"/>
-      <c r="TU26" s="0"/>
-      <c r="TV26" s="0"/>
-      <c r="TW26" s="0"/>
-      <c r="TX26" s="0"/>
-      <c r="TY26" s="0"/>
-      <c r="TZ26" s="0"/>
-      <c r="UA26" s="0"/>
-      <c r="UB26" s="0"/>
-      <c r="UC26" s="0"/>
-      <c r="UD26" s="0"/>
-      <c r="UE26" s="0"/>
-      <c r="UF26" s="0"/>
-      <c r="UG26" s="0"/>
-      <c r="UH26" s="0"/>
-      <c r="UI26" s="0"/>
-      <c r="UJ26" s="0"/>
-      <c r="UK26" s="0"/>
-      <c r="UL26" s="0"/>
-      <c r="UM26" s="0"/>
-      <c r="UN26" s="0"/>
-      <c r="UO26" s="0"/>
-      <c r="UP26" s="0"/>
-      <c r="UQ26" s="0"/>
-      <c r="UR26" s="0"/>
-      <c r="US26" s="0"/>
-      <c r="UT26" s="0"/>
-      <c r="UU26" s="0"/>
-      <c r="UV26" s="0"/>
-      <c r="UW26" s="0"/>
-      <c r="UX26" s="0"/>
-      <c r="UY26" s="0"/>
-      <c r="UZ26" s="0"/>
-      <c r="VA26" s="0"/>
-      <c r="VB26" s="0"/>
-      <c r="VC26" s="0"/>
-      <c r="VD26" s="0"/>
-      <c r="VE26" s="0"/>
-      <c r="VF26" s="0"/>
-      <c r="VG26" s="0"/>
-      <c r="VH26" s="0"/>
-      <c r="VI26" s="0"/>
-      <c r="VJ26" s="0"/>
-      <c r="VK26" s="0"/>
-      <c r="VL26" s="0"/>
-      <c r="VM26" s="0"/>
-      <c r="VN26" s="0"/>
-      <c r="VO26" s="0"/>
-      <c r="VP26" s="0"/>
-      <c r="VQ26" s="0"/>
-      <c r="VR26" s="0"/>
-      <c r="VS26" s="0"/>
-      <c r="VT26" s="0"/>
-      <c r="VU26" s="0"/>
-      <c r="VV26" s="0"/>
-      <c r="VW26" s="0"/>
-      <c r="VX26" s="0"/>
-      <c r="VY26" s="0"/>
-      <c r="VZ26" s="0"/>
-      <c r="WA26" s="0"/>
-      <c r="WB26" s="0"/>
-      <c r="WC26" s="0"/>
-      <c r="WD26" s="0"/>
-      <c r="WE26" s="0"/>
-      <c r="WF26" s="0"/>
-      <c r="WG26" s="0"/>
-      <c r="WH26" s="0"/>
-      <c r="WI26" s="0"/>
-      <c r="WJ26" s="0"/>
-      <c r="WK26" s="0"/>
-      <c r="WL26" s="0"/>
-      <c r="WM26" s="0"/>
-      <c r="WN26" s="0"/>
-      <c r="WO26" s="0"/>
-      <c r="WP26" s="0"/>
-      <c r="WQ26" s="0"/>
-      <c r="WR26" s="0"/>
-      <c r="WS26" s="0"/>
-      <c r="WT26" s="0"/>
-      <c r="WU26" s="0"/>
-      <c r="WV26" s="0"/>
-      <c r="WW26" s="0"/>
-      <c r="WX26" s="0"/>
-      <c r="WY26" s="0"/>
-      <c r="WZ26" s="0"/>
-      <c r="XA26" s="0"/>
-      <c r="XB26" s="0"/>
-      <c r="XC26" s="0"/>
-      <c r="XD26" s="0"/>
-      <c r="XE26" s="0"/>
-      <c r="XF26" s="0"/>
-      <c r="XG26" s="0"/>
-      <c r="XH26" s="0"/>
-      <c r="XI26" s="0"/>
-      <c r="XJ26" s="0"/>
-      <c r="XK26" s="0"/>
-      <c r="XL26" s="0"/>
-      <c r="XM26" s="0"/>
-      <c r="XN26" s="0"/>
-      <c r="XO26" s="0"/>
-      <c r="XP26" s="0"/>
-      <c r="XQ26" s="0"/>
-      <c r="XR26" s="0"/>
-      <c r="XS26" s="0"/>
-      <c r="XT26" s="0"/>
-      <c r="XU26" s="0"/>
-      <c r="XV26" s="0"/>
-      <c r="XW26" s="0"/>
-      <c r="XX26" s="0"/>
-      <c r="XY26" s="0"/>
-      <c r="XZ26" s="0"/>
-      <c r="YA26" s="0"/>
-      <c r="YB26" s="0"/>
-      <c r="YC26" s="0"/>
-      <c r="YD26" s="0"/>
-      <c r="YE26" s="0"/>
-      <c r="YF26" s="0"/>
-      <c r="YG26" s="0"/>
-      <c r="YH26" s="0"/>
-      <c r="YI26" s="0"/>
-      <c r="YJ26" s="0"/>
-      <c r="YK26" s="0"/>
-      <c r="YL26" s="0"/>
-      <c r="YM26" s="0"/>
-      <c r="YN26" s="0"/>
-      <c r="YO26" s="0"/>
-      <c r="YP26" s="0"/>
-      <c r="YQ26" s="0"/>
-      <c r="YR26" s="0"/>
-      <c r="YS26" s="0"/>
-      <c r="YT26" s="0"/>
-      <c r="YU26" s="0"/>
-      <c r="YV26" s="0"/>
-      <c r="YW26" s="0"/>
-      <c r="YX26" s="0"/>
-      <c r="YY26" s="0"/>
-      <c r="YZ26" s="0"/>
-      <c r="ZA26" s="0"/>
-      <c r="ZB26" s="0"/>
-      <c r="ZC26" s="0"/>
-      <c r="ZD26" s="0"/>
-      <c r="ZE26" s="0"/>
-      <c r="ZF26" s="0"/>
-      <c r="ZG26" s="0"/>
-      <c r="ZH26" s="0"/>
-      <c r="ZI26" s="0"/>
-      <c r="ZJ26" s="0"/>
-      <c r="ZK26" s="0"/>
-      <c r="ZL26" s="0"/>
-      <c r="ZM26" s="0"/>
-      <c r="ZN26" s="0"/>
-      <c r="ZO26" s="0"/>
-      <c r="ZP26" s="0"/>
-      <c r="ZQ26" s="0"/>
-      <c r="ZR26" s="0"/>
-      <c r="ZS26" s="0"/>
-      <c r="ZT26" s="0"/>
-      <c r="ZU26" s="0"/>
-      <c r="ZV26" s="0"/>
-      <c r="ZW26" s="0"/>
-      <c r="ZX26" s="0"/>
-      <c r="ZY26" s="0"/>
-      <c r="ZZ26" s="0"/>
-      <c r="AAA26" s="0"/>
-      <c r="AAB26" s="0"/>
-      <c r="AAC26" s="0"/>
-      <c r="AAD26" s="0"/>
-      <c r="AAE26" s="0"/>
-      <c r="AAF26" s="0"/>
-      <c r="AAG26" s="0"/>
-      <c r="AAH26" s="0"/>
-      <c r="AAI26" s="0"/>
-      <c r="AAJ26" s="0"/>
-      <c r="AAK26" s="0"/>
-      <c r="AAL26" s="0"/>
-      <c r="AAM26" s="0"/>
-      <c r="AAN26" s="0"/>
-      <c r="AAO26" s="0"/>
-      <c r="AAP26" s="0"/>
-      <c r="AAQ26" s="0"/>
-      <c r="AAR26" s="0"/>
-      <c r="AAS26" s="0"/>
-      <c r="AAT26" s="0"/>
-      <c r="AAU26" s="0"/>
-      <c r="AAV26" s="0"/>
-      <c r="AAW26" s="0"/>
-      <c r="AAX26" s="0"/>
-      <c r="AAY26" s="0"/>
-      <c r="AAZ26" s="0"/>
-      <c r="ABA26" s="0"/>
-      <c r="ABB26" s="0"/>
-      <c r="ABC26" s="0"/>
-      <c r="ABD26" s="0"/>
-      <c r="ABE26" s="0"/>
-      <c r="ABF26" s="0"/>
-      <c r="ABG26" s="0"/>
-      <c r="ABH26" s="0"/>
-      <c r="ABI26" s="0"/>
-      <c r="ABJ26" s="0"/>
-      <c r="ABK26" s="0"/>
-      <c r="ABL26" s="0"/>
-      <c r="ABM26" s="0"/>
-      <c r="ABN26" s="0"/>
-      <c r="ABO26" s="0"/>
-      <c r="ABP26" s="0"/>
-      <c r="ABQ26" s="0"/>
-      <c r="ABR26" s="0"/>
-      <c r="ABS26" s="0"/>
-      <c r="ABT26" s="0"/>
-      <c r="ABU26" s="0"/>
-      <c r="ABV26" s="0"/>
-      <c r="ABW26" s="0"/>
-      <c r="ABX26" s="0"/>
-      <c r="ABY26" s="0"/>
-      <c r="ABZ26" s="0"/>
-      <c r="ACA26" s="0"/>
-      <c r="ACB26" s="0"/>
-      <c r="ACC26" s="0"/>
-      <c r="ACD26" s="0"/>
-      <c r="ACE26" s="0"/>
-      <c r="ACF26" s="0"/>
-      <c r="ACG26" s="0"/>
-      <c r="ACH26" s="0"/>
-      <c r="ACI26" s="0"/>
-      <c r="ACJ26" s="0"/>
-      <c r="ACK26" s="0"/>
-      <c r="ACL26" s="0"/>
-      <c r="ACM26" s="0"/>
-      <c r="ACN26" s="0"/>
-      <c r="ACO26" s="0"/>
-      <c r="ACP26" s="0"/>
-      <c r="ACQ26" s="0"/>
-      <c r="ACR26" s="0"/>
-      <c r="ACS26" s="0"/>
-      <c r="ACT26" s="0"/>
-      <c r="ACU26" s="0"/>
-      <c r="ACV26" s="0"/>
-      <c r="ACW26" s="0"/>
-      <c r="ACX26" s="0"/>
-      <c r="ACY26" s="0"/>
-      <c r="ACZ26" s="0"/>
-      <c r="ADA26" s="0"/>
-      <c r="ADB26" s="0"/>
-      <c r="ADC26" s="0"/>
-      <c r="ADD26" s="0"/>
-      <c r="ADE26" s="0"/>
-      <c r="ADF26" s="0"/>
-      <c r="ADG26" s="0"/>
-      <c r="ADH26" s="0"/>
-      <c r="ADI26" s="0"/>
-      <c r="ADJ26" s="0"/>
-      <c r="ADK26" s="0"/>
-      <c r="ADL26" s="0"/>
-      <c r="ADM26" s="0"/>
-      <c r="ADN26" s="0"/>
-      <c r="ADO26" s="0"/>
-      <c r="ADP26" s="0"/>
-      <c r="ADQ26" s="0"/>
-      <c r="ADR26" s="0"/>
-      <c r="ADS26" s="0"/>
-      <c r="ADT26" s="0"/>
-      <c r="ADU26" s="0"/>
-      <c r="ADV26" s="0"/>
-      <c r="ADW26" s="0"/>
-      <c r="ADX26" s="0"/>
-      <c r="ADY26" s="0"/>
-      <c r="ADZ26" s="0"/>
-      <c r="AEA26" s="0"/>
-      <c r="AEB26" s="0"/>
-      <c r="AEC26" s="0"/>
-      <c r="AED26" s="0"/>
-      <c r="AEE26" s="0"/>
-      <c r="AEF26" s="0"/>
-      <c r="AEG26" s="0"/>
-      <c r="AEH26" s="0"/>
-      <c r="AEI26" s="0"/>
-      <c r="AEJ26" s="0"/>
-      <c r="AEK26" s="0"/>
-      <c r="AEL26" s="0"/>
-      <c r="AEM26" s="0"/>
-      <c r="AEN26" s="0"/>
-      <c r="AEO26" s="0"/>
-      <c r="AEP26" s="0"/>
-      <c r="AEQ26" s="0"/>
-      <c r="AER26" s="0"/>
-      <c r="AES26" s="0"/>
-      <c r="AET26" s="0"/>
-      <c r="AEU26" s="0"/>
-      <c r="AEV26" s="0"/>
-      <c r="AEW26" s="0"/>
-      <c r="AEX26" s="0"/>
-      <c r="AEY26" s="0"/>
-      <c r="AEZ26" s="0"/>
-      <c r="AFA26" s="0"/>
-      <c r="AFB26" s="0"/>
-      <c r="AFC26" s="0"/>
-      <c r="AFD26" s="0"/>
-      <c r="AFE26" s="0"/>
-      <c r="AFF26" s="0"/>
-      <c r="AFG26" s="0"/>
-      <c r="AFH26" s="0"/>
-      <c r="AFI26" s="0"/>
-      <c r="AFJ26" s="0"/>
-      <c r="AFK26" s="0"/>
-      <c r="AFL26" s="0"/>
-      <c r="AFM26" s="0"/>
-      <c r="AFN26" s="0"/>
-      <c r="AFO26" s="0"/>
-      <c r="AFP26" s="0"/>
-      <c r="AFQ26" s="0"/>
-      <c r="AFR26" s="0"/>
-      <c r="AFS26" s="0"/>
-      <c r="AFT26" s="0"/>
-      <c r="AFU26" s="0"/>
-      <c r="AFV26" s="0"/>
-      <c r="AFW26" s="0"/>
-      <c r="AFX26" s="0"/>
-      <c r="AFY26" s="0"/>
-      <c r="AFZ26" s="0"/>
-      <c r="AGA26" s="0"/>
-      <c r="AGB26" s="0"/>
-      <c r="AGC26" s="0"/>
-      <c r="AGD26" s="0"/>
-      <c r="AGE26" s="0"/>
-      <c r="AGF26" s="0"/>
-      <c r="AGG26" s="0"/>
-      <c r="AGH26" s="0"/>
-      <c r="AGI26" s="0"/>
-      <c r="AGJ26" s="0"/>
-      <c r="AGK26" s="0"/>
-      <c r="AGL26" s="0"/>
-      <c r="AGM26" s="0"/>
-      <c r="AGN26" s="0"/>
-      <c r="AGO26" s="0"/>
-      <c r="AGP26" s="0"/>
-      <c r="AGQ26" s="0"/>
-      <c r="AGR26" s="0"/>
-      <c r="AGS26" s="0"/>
-      <c r="AGT26" s="0"/>
-      <c r="AGU26" s="0"/>
-      <c r="AGV26" s="0"/>
-      <c r="AGW26" s="0"/>
-      <c r="AGX26" s="0"/>
-      <c r="AGY26" s="0"/>
-      <c r="AGZ26" s="0"/>
-      <c r="AHA26" s="0"/>
-      <c r="AHB26" s="0"/>
-      <c r="AHC26" s="0"/>
-      <c r="AHD26" s="0"/>
-      <c r="AHE26" s="0"/>
-      <c r="AHF26" s="0"/>
-      <c r="AHG26" s="0"/>
-      <c r="AHH26" s="0"/>
-      <c r="AHI26" s="0"/>
-      <c r="AHJ26" s="0"/>
-      <c r="AHK26" s="0"/>
-      <c r="AHL26" s="0"/>
-      <c r="AHM26" s="0"/>
-      <c r="AHN26" s="0"/>
-      <c r="AHO26" s="0"/>
-      <c r="AHP26" s="0"/>
-      <c r="AHQ26" s="0"/>
-      <c r="AHR26" s="0"/>
-      <c r="AHS26" s="0"/>
-      <c r="AHT26" s="0"/>
-      <c r="AHU26" s="0"/>
-      <c r="AHV26" s="0"/>
-      <c r="AHW26" s="0"/>
-      <c r="AHX26" s="0"/>
-      <c r="AHY26" s="0"/>
-      <c r="AHZ26" s="0"/>
-      <c r="AIA26" s="0"/>
-      <c r="AIB26" s="0"/>
-      <c r="AIC26" s="0"/>
-      <c r="AID26" s="0"/>
-      <c r="AIE26" s="0"/>
-      <c r="AIF26" s="0"/>
-      <c r="AIG26" s="0"/>
-      <c r="AIH26" s="0"/>
-      <c r="AII26" s="0"/>
-      <c r="AIJ26" s="0"/>
-      <c r="AIK26" s="0"/>
-      <c r="AIL26" s="0"/>
-      <c r="AIM26" s="0"/>
-      <c r="AIN26" s="0"/>
-      <c r="AIO26" s="0"/>
-      <c r="AIP26" s="0"/>
-      <c r="AIQ26" s="0"/>
-      <c r="AIR26" s="0"/>
-      <c r="AIS26" s="0"/>
-      <c r="AIT26" s="0"/>
-      <c r="AIU26" s="0"/>
-      <c r="AIV26" s="0"/>
-      <c r="AIW26" s="0"/>
-      <c r="AIX26" s="0"/>
-      <c r="AIY26" s="0"/>
-      <c r="AIZ26" s="0"/>
-      <c r="AJA26" s="0"/>
-      <c r="AJB26" s="0"/>
-      <c r="AJC26" s="0"/>
-      <c r="AJD26" s="0"/>
-      <c r="AJE26" s="0"/>
-      <c r="AJF26" s="0"/>
-      <c r="AJG26" s="0"/>
-      <c r="AJH26" s="0"/>
-      <c r="AJI26" s="0"/>
-      <c r="AJJ26" s="0"/>
-      <c r="AJK26" s="0"/>
-      <c r="AJL26" s="0"/>
-      <c r="AJM26" s="0"/>
-      <c r="AJN26" s="0"/>
-      <c r="AJO26" s="0"/>
-      <c r="AJP26" s="0"/>
-      <c r="AJQ26" s="0"/>
-      <c r="AJR26" s="0"/>
-      <c r="AJS26" s="0"/>
-      <c r="AJT26" s="0"/>
-      <c r="AJU26" s="0"/>
-      <c r="AJV26" s="0"/>
-      <c r="AJW26" s="0"/>
-      <c r="AJX26" s="0"/>
-      <c r="AJY26" s="0"/>
-      <c r="AJZ26" s="0"/>
-      <c r="AKA26" s="0"/>
-      <c r="AKB26" s="0"/>
-      <c r="AKC26" s="0"/>
-      <c r="AKD26" s="0"/>
-      <c r="AKE26" s="0"/>
-      <c r="AKF26" s="0"/>
-      <c r="AKG26" s="0"/>
-      <c r="AKH26" s="0"/>
-      <c r="AKI26" s="0"/>
-      <c r="AKJ26" s="0"/>
-      <c r="AKK26" s="0"/>
-      <c r="AKL26" s="0"/>
-      <c r="AKM26" s="0"/>
-      <c r="AKN26" s="0"/>
-      <c r="AKO26" s="0"/>
-      <c r="AKP26" s="0"/>
-      <c r="AKQ26" s="0"/>
-      <c r="AKR26" s="0"/>
-      <c r="AKS26" s="0"/>
-      <c r="AKT26" s="0"/>
-      <c r="AKU26" s="0"/>
-      <c r="AKV26" s="0"/>
-      <c r="AKW26" s="0"/>
-      <c r="AKX26" s="0"/>
-      <c r="AKY26" s="0"/>
-      <c r="AKZ26" s="0"/>
-      <c r="ALA26" s="0"/>
-      <c r="ALB26" s="0"/>
-      <c r="ALC26" s="0"/>
-      <c r="ALD26" s="0"/>
-      <c r="ALE26" s="0"/>
-      <c r="ALF26" s="0"/>
-      <c r="ALG26" s="0"/>
-      <c r="ALH26" s="0"/>
-      <c r="ALI26" s="0"/>
-      <c r="ALJ26" s="0"/>
-      <c r="ALK26" s="0"/>
-      <c r="ALL26" s="0"/>
-      <c r="ALM26" s="0"/>
-      <c r="ALN26" s="0"/>
-      <c r="ALO26" s="0"/>
-      <c r="ALP26" s="0"/>
-      <c r="ALQ26" s="0"/>
-      <c r="ALR26" s="0"/>
-      <c r="ALS26" s="0"/>
-      <c r="ALT26" s="0"/>
-      <c r="ALU26" s="0"/>
-      <c r="ALV26" s="0"/>
-      <c r="ALW26" s="0"/>
-      <c r="ALX26" s="0"/>
-      <c r="ALY26" s="0"/>
-      <c r="ALZ26" s="0"/>
-      <c r="AMA26" s="0"/>
-      <c r="AMB26" s="0"/>
-      <c r="AMC26" s="0"/>
-      <c r="AMD26" s="0"/>
-      <c r="AME26" s="0"/>
-      <c r="AMF26" s="0"/>
-      <c r="AMG26" s="0"/>
-      <c r="AMH26" s="0"/>
-      <c r="AMI26" s="0"/>
-      <c r="AMJ26" s="0"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="57" t="n">
-        <v>55594</v>
-      </c>
-      <c r="B27" s="58" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" s="59" t="s">
-        <v>193</v>
-      </c>
-      <c r="D27" s="59" t="s">
-        <v>136</v>
-      </c>
-      <c r="E27" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="G27" s="58" t="s">
-        <v>195</v>
-      </c>
-      <c r="H27" s="60" t="n">
-        <v>37172</v>
-      </c>
-      <c r="I27" s="60" t="n">
-        <v>37172</v>
-      </c>
-      <c r="J27" s="60" t="n">
-        <v>43863</v>
-      </c>
-      <c r="K27" s="61" t="n">
-        <v>1</v>
-      </c>
-      <c r="L27" s="58" t="s">
-        <v>196</v>
-      </c>
-      <c r="M27" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="N27" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="O27" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="P27" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q27" s="59" t="s">
-        <v>197</v>
-      </c>
-      <c r="R27" s="59" t="s">
+      <c r="L27" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="S27" s="59"/>
-      <c r="T27" s="59" t="s">
+      <c r="M27" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="U27" s="59"/>
-      <c r="V27" s="58"/>
-      <c r="W27" s="58"/>
-      <c r="X27" s="58"/>
+      <c r="N27" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="O27" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="P27" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q27" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="R27" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="U27" s="39"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z27" s="0"/>
+      <c r="AA27" s="0"/>
+      <c r="AB27" s="0"/>
+      <c r="AC27" s="0"/>
+      <c r="AD27" s="0"/>
+      <c r="AE27" s="0"/>
+      <c r="AF27" s="0"/>
+      <c r="AG27" s="0"/>
+      <c r="AH27" s="0"/>
+      <c r="AI27" s="0"/>
+      <c r="AJ27" s="0"/>
+      <c r="AK27" s="0"/>
+      <c r="AL27" s="0"/>
+      <c r="AM27" s="0"/>
+      <c r="AN27" s="0"/>
+      <c r="AO27" s="0"/>
+      <c r="AP27" s="0"/>
+      <c r="AQ27" s="0"/>
+      <c r="AR27" s="0"/>
+      <c r="AS27" s="0"/>
+      <c r="AT27" s="0"/>
+      <c r="AU27" s="0"/>
+      <c r="AV27" s="0"/>
+      <c r="AW27" s="0"/>
+      <c r="AX27" s="0"/>
+      <c r="AY27" s="0"/>
+      <c r="AZ27" s="0"/>
+      <c r="BA27" s="0"/>
+      <c r="BB27" s="0"/>
+      <c r="BC27" s="0"/>
+      <c r="BD27" s="0"/>
+      <c r="BE27" s="0"/>
+      <c r="BF27" s="0"/>
+      <c r="BG27" s="0"/>
+      <c r="BH27" s="0"/>
+      <c r="BI27" s="0"/>
+      <c r="BJ27" s="0"/>
+      <c r="BK27" s="0"/>
+      <c r="BL27" s="0"/>
+      <c r="BM27" s="0"/>
+      <c r="BN27" s="0"/>
+      <c r="BO27" s="0"/>
+      <c r="BP27" s="0"/>
+      <c r="BQ27" s="0"/>
+      <c r="BR27" s="0"/>
+      <c r="BS27" s="0"/>
+      <c r="BT27" s="0"/>
+      <c r="BU27" s="0"/>
+      <c r="BV27" s="0"/>
+      <c r="BW27" s="0"/>
+      <c r="BX27" s="0"/>
+      <c r="BY27" s="0"/>
+      <c r="BZ27" s="0"/>
+      <c r="CA27" s="0"/>
+      <c r="CB27" s="0"/>
+      <c r="CC27" s="0"/>
+      <c r="CD27" s="0"/>
+      <c r="CE27" s="0"/>
+      <c r="CF27" s="0"/>
+      <c r="CG27" s="0"/>
+      <c r="CH27" s="0"/>
+      <c r="CI27" s="0"/>
+      <c r="CJ27" s="0"/>
+      <c r="CK27" s="0"/>
+      <c r="CL27" s="0"/>
+      <c r="CM27" s="0"/>
+      <c r="CN27" s="0"/>
+      <c r="CO27" s="0"/>
+      <c r="CP27" s="0"/>
+      <c r="CQ27" s="0"/>
+      <c r="CR27" s="0"/>
+      <c r="CS27" s="0"/>
+      <c r="CT27" s="0"/>
+      <c r="CU27" s="0"/>
+      <c r="CV27" s="0"/>
+      <c r="CW27" s="0"/>
+      <c r="CX27" s="0"/>
+      <c r="CY27" s="0"/>
+      <c r="CZ27" s="0"/>
+      <c r="DA27" s="0"/>
+      <c r="DB27" s="0"/>
+      <c r="DC27" s="0"/>
+      <c r="DD27" s="0"/>
+      <c r="DE27" s="0"/>
+      <c r="DF27" s="0"/>
+      <c r="DG27" s="0"/>
+      <c r="DH27" s="0"/>
+      <c r="DI27" s="0"/>
+      <c r="DJ27" s="0"/>
+      <c r="DK27" s="0"/>
+      <c r="DL27" s="0"/>
+      <c r="DM27" s="0"/>
+      <c r="DN27" s="0"/>
+      <c r="DO27" s="0"/>
+      <c r="DP27" s="0"/>
+      <c r="DQ27" s="0"/>
+      <c r="DR27" s="0"/>
+      <c r="DS27" s="0"/>
+      <c r="DT27" s="0"/>
+      <c r="DU27" s="0"/>
+      <c r="DV27" s="0"/>
+      <c r="DW27" s="0"/>
+      <c r="DX27" s="0"/>
+      <c r="DY27" s="0"/>
+      <c r="DZ27" s="0"/>
+      <c r="EA27" s="0"/>
+      <c r="EB27" s="0"/>
+      <c r="EC27" s="0"/>
+      <c r="ED27" s="0"/>
+      <c r="EE27" s="0"/>
+      <c r="EF27" s="0"/>
+      <c r="EG27" s="0"/>
+      <c r="EH27" s="0"/>
+      <c r="EI27" s="0"/>
+      <c r="EJ27" s="0"/>
+      <c r="EK27" s="0"/>
+      <c r="EL27" s="0"/>
+      <c r="EM27" s="0"/>
+      <c r="EN27" s="0"/>
+      <c r="EO27" s="0"/>
+      <c r="EP27" s="0"/>
+      <c r="EQ27" s="0"/>
+      <c r="ER27" s="0"/>
+      <c r="ES27" s="0"/>
+      <c r="ET27" s="0"/>
+      <c r="EU27" s="0"/>
+      <c r="EV27" s="0"/>
+      <c r="EW27" s="0"/>
+      <c r="EX27" s="0"/>
+      <c r="EY27" s="0"/>
+      <c r="EZ27" s="0"/>
+      <c r="FA27" s="0"/>
+      <c r="FB27" s="0"/>
+      <c r="FC27" s="0"/>
+      <c r="FD27" s="0"/>
+      <c r="FE27" s="0"/>
+      <c r="FF27" s="0"/>
+      <c r="FG27" s="0"/>
+      <c r="FH27" s="0"/>
+      <c r="FI27" s="0"/>
+      <c r="FJ27" s="0"/>
+      <c r="FK27" s="0"/>
+      <c r="FL27" s="0"/>
+      <c r="FM27" s="0"/>
+      <c r="FN27" s="0"/>
+      <c r="FO27" s="0"/>
+      <c r="FP27" s="0"/>
+      <c r="FQ27" s="0"/>
+      <c r="FR27" s="0"/>
+      <c r="FS27" s="0"/>
+      <c r="FT27" s="0"/>
+      <c r="FU27" s="0"/>
+      <c r="FV27" s="0"/>
+      <c r="FW27" s="0"/>
+      <c r="FX27" s="0"/>
+      <c r="FY27" s="0"/>
+      <c r="FZ27" s="0"/>
+      <c r="GA27" s="0"/>
+      <c r="GB27" s="0"/>
+      <c r="GC27" s="0"/>
+      <c r="GD27" s="0"/>
+      <c r="GE27" s="0"/>
+      <c r="GF27" s="0"/>
+      <c r="GG27" s="0"/>
+      <c r="GH27" s="0"/>
+      <c r="GI27" s="0"/>
+      <c r="GJ27" s="0"/>
+      <c r="GK27" s="0"/>
+      <c r="GL27" s="0"/>
+      <c r="GM27" s="0"/>
+      <c r="GN27" s="0"/>
+      <c r="GO27" s="0"/>
+      <c r="GP27" s="0"/>
+      <c r="GQ27" s="0"/>
+      <c r="GR27" s="0"/>
+      <c r="GS27" s="0"/>
+      <c r="GT27" s="0"/>
+      <c r="GU27" s="0"/>
+      <c r="GV27" s="0"/>
+      <c r="GW27" s="0"/>
+      <c r="GX27" s="0"/>
+      <c r="GY27" s="0"/>
+      <c r="GZ27" s="0"/>
+      <c r="HA27" s="0"/>
+      <c r="HB27" s="0"/>
+      <c r="HC27" s="0"/>
+      <c r="HD27" s="0"/>
+      <c r="HE27" s="0"/>
+      <c r="HF27" s="0"/>
+      <c r="HG27" s="0"/>
+      <c r="HH27" s="0"/>
+      <c r="HI27" s="0"/>
+      <c r="HJ27" s="0"/>
+      <c r="HK27" s="0"/>
+      <c r="HL27" s="0"/>
+      <c r="HM27" s="0"/>
+      <c r="HN27" s="0"/>
+      <c r="HO27" s="0"/>
+      <c r="HP27" s="0"/>
+      <c r="HQ27" s="0"/>
+      <c r="HR27" s="0"/>
+      <c r="HS27" s="0"/>
+      <c r="HT27" s="0"/>
+      <c r="HU27" s="0"/>
+      <c r="HV27" s="0"/>
+      <c r="HW27" s="0"/>
+      <c r="HX27" s="0"/>
+      <c r="HY27" s="0"/>
+      <c r="HZ27" s="0"/>
+      <c r="IA27" s="0"/>
+      <c r="IB27" s="0"/>
+      <c r="IC27" s="0"/>
+      <c r="ID27" s="0"/>
+      <c r="IE27" s="0"/>
+      <c r="IF27" s="0"/>
+      <c r="IG27" s="0"/>
+      <c r="IH27" s="0"/>
+      <c r="II27" s="0"/>
+      <c r="IJ27" s="0"/>
+      <c r="IK27" s="0"/>
+      <c r="IL27" s="0"/>
+      <c r="IM27" s="0"/>
+      <c r="IN27" s="0"/>
+      <c r="IO27" s="0"/>
+      <c r="IP27" s="0"/>
+      <c r="IQ27" s="0"/>
+      <c r="IR27" s="0"/>
+      <c r="IS27" s="0"/>
+      <c r="IT27" s="0"/>
+      <c r="IU27" s="0"/>
+      <c r="IV27" s="0"/>
+      <c r="IW27" s="0"/>
+      <c r="IX27" s="0"/>
+      <c r="IY27" s="0"/>
+      <c r="IZ27" s="0"/>
+      <c r="JA27" s="0"/>
+      <c r="JB27" s="0"/>
+      <c r="JC27" s="0"/>
+      <c r="JD27" s="0"/>
+      <c r="JE27" s="0"/>
+      <c r="JF27" s="0"/>
+      <c r="JG27" s="0"/>
+      <c r="JH27" s="0"/>
+      <c r="JI27" s="0"/>
+      <c r="JJ27" s="0"/>
+      <c r="JK27" s="0"/>
+      <c r="JL27" s="0"/>
+      <c r="JM27" s="0"/>
+      <c r="JN27" s="0"/>
+      <c r="JO27" s="0"/>
+      <c r="JP27" s="0"/>
+      <c r="JQ27" s="0"/>
+      <c r="JR27" s="0"/>
+      <c r="JS27" s="0"/>
+      <c r="JT27" s="0"/>
+      <c r="JU27" s="0"/>
+      <c r="JV27" s="0"/>
+      <c r="JW27" s="0"/>
+      <c r="JX27" s="0"/>
+      <c r="JY27" s="0"/>
+      <c r="JZ27" s="0"/>
+      <c r="KA27" s="0"/>
+      <c r="KB27" s="0"/>
+      <c r="KC27" s="0"/>
+      <c r="KD27" s="0"/>
+      <c r="KE27" s="0"/>
+      <c r="KF27" s="0"/>
+      <c r="KG27" s="0"/>
+      <c r="KH27" s="0"/>
+      <c r="KI27" s="0"/>
+      <c r="KJ27" s="0"/>
+      <c r="KK27" s="0"/>
+      <c r="KL27" s="0"/>
+      <c r="KM27" s="0"/>
+      <c r="KN27" s="0"/>
+      <c r="KO27" s="0"/>
+      <c r="KP27" s="0"/>
+      <c r="KQ27" s="0"/>
+      <c r="KR27" s="0"/>
+      <c r="KS27" s="0"/>
+      <c r="KT27" s="0"/>
+      <c r="KU27" s="0"/>
+      <c r="KV27" s="0"/>
+      <c r="KW27" s="0"/>
+      <c r="KX27" s="0"/>
+      <c r="KY27" s="0"/>
+      <c r="KZ27" s="0"/>
+      <c r="LA27" s="0"/>
+      <c r="LB27" s="0"/>
+      <c r="LC27" s="0"/>
+      <c r="LD27" s="0"/>
+      <c r="LE27" s="0"/>
+      <c r="LF27" s="0"/>
+      <c r="LG27" s="0"/>
+      <c r="LH27" s="0"/>
+      <c r="LI27" s="0"/>
+      <c r="LJ27" s="0"/>
+      <c r="LK27" s="0"/>
+      <c r="LL27" s="0"/>
+      <c r="LM27" s="0"/>
+      <c r="LN27" s="0"/>
+      <c r="LO27" s="0"/>
+      <c r="LP27" s="0"/>
+      <c r="LQ27" s="0"/>
+      <c r="LR27" s="0"/>
+      <c r="LS27" s="0"/>
+      <c r="LT27" s="0"/>
+      <c r="LU27" s="0"/>
+      <c r="LV27" s="0"/>
+      <c r="LW27" s="0"/>
+      <c r="LX27" s="0"/>
+      <c r="LY27" s="0"/>
+      <c r="LZ27" s="0"/>
+      <c r="MA27" s="0"/>
+      <c r="MB27" s="0"/>
+      <c r="MC27" s="0"/>
+      <c r="MD27" s="0"/>
+      <c r="ME27" s="0"/>
+      <c r="MF27" s="0"/>
+      <c r="MG27" s="0"/>
+      <c r="MH27" s="0"/>
+      <c r="MI27" s="0"/>
+      <c r="MJ27" s="0"/>
+      <c r="MK27" s="0"/>
+      <c r="ML27" s="0"/>
+      <c r="MM27" s="0"/>
+      <c r="MN27" s="0"/>
+      <c r="MO27" s="0"/>
+      <c r="MP27" s="0"/>
+      <c r="MQ27" s="0"/>
+      <c r="MR27" s="0"/>
+      <c r="MS27" s="0"/>
+      <c r="MT27" s="0"/>
+      <c r="MU27" s="0"/>
+      <c r="MV27" s="0"/>
+      <c r="MW27" s="0"/>
+      <c r="MX27" s="0"/>
+      <c r="MY27" s="0"/>
+      <c r="MZ27" s="0"/>
+      <c r="NA27" s="0"/>
+      <c r="NB27" s="0"/>
+      <c r="NC27" s="0"/>
+      <c r="ND27" s="0"/>
+      <c r="NE27" s="0"/>
+      <c r="NF27" s="0"/>
+      <c r="NG27" s="0"/>
+      <c r="NH27" s="0"/>
+      <c r="NI27" s="0"/>
+      <c r="NJ27" s="0"/>
+      <c r="NK27" s="0"/>
+      <c r="NL27" s="0"/>
+      <c r="NM27" s="0"/>
+      <c r="NN27" s="0"/>
+      <c r="NO27" s="0"/>
+      <c r="NP27" s="0"/>
+      <c r="NQ27" s="0"/>
+      <c r="NR27" s="0"/>
+      <c r="NS27" s="0"/>
+      <c r="NT27" s="0"/>
+      <c r="NU27" s="0"/>
+      <c r="NV27" s="0"/>
+      <c r="NW27" s="0"/>
+      <c r="NX27" s="0"/>
+      <c r="NY27" s="0"/>
+      <c r="NZ27" s="0"/>
+      <c r="OA27" s="0"/>
+      <c r="OB27" s="0"/>
+      <c r="OC27" s="0"/>
+      <c r="OD27" s="0"/>
+      <c r="OE27" s="0"/>
+      <c r="OF27" s="0"/>
+      <c r="OG27" s="0"/>
+      <c r="OH27" s="0"/>
+      <c r="OI27" s="0"/>
+      <c r="OJ27" s="0"/>
+      <c r="OK27" s="0"/>
+      <c r="OL27" s="0"/>
+      <c r="OM27" s="0"/>
+      <c r="ON27" s="0"/>
+      <c r="OO27" s="0"/>
+      <c r="OP27" s="0"/>
+      <c r="OQ27" s="0"/>
+      <c r="OR27" s="0"/>
+      <c r="OS27" s="0"/>
+      <c r="OT27" s="0"/>
+      <c r="OU27" s="0"/>
+      <c r="OV27" s="0"/>
+      <c r="OW27" s="0"/>
+      <c r="OX27" s="0"/>
+      <c r="OY27" s="0"/>
+      <c r="OZ27" s="0"/>
+      <c r="PA27" s="0"/>
+      <c r="PB27" s="0"/>
+      <c r="PC27" s="0"/>
+      <c r="PD27" s="0"/>
+      <c r="PE27" s="0"/>
+      <c r="PF27" s="0"/>
+      <c r="PG27" s="0"/>
+      <c r="PH27" s="0"/>
+      <c r="PI27" s="0"/>
+      <c r="PJ27" s="0"/>
+      <c r="PK27" s="0"/>
+      <c r="PL27" s="0"/>
+      <c r="PM27" s="0"/>
+      <c r="PN27" s="0"/>
+      <c r="PO27" s="0"/>
+      <c r="PP27" s="0"/>
+      <c r="PQ27" s="0"/>
+      <c r="PR27" s="0"/>
+      <c r="PS27" s="0"/>
+      <c r="PT27" s="0"/>
+      <c r="PU27" s="0"/>
+      <c r="PV27" s="0"/>
+      <c r="PW27" s="0"/>
+      <c r="PX27" s="0"/>
+      <c r="PY27" s="0"/>
+      <c r="PZ27" s="0"/>
+      <c r="QA27" s="0"/>
+      <c r="QB27" s="0"/>
+      <c r="QC27" s="0"/>
+      <c r="QD27" s="0"/>
+      <c r="QE27" s="0"/>
+      <c r="QF27" s="0"/>
+      <c r="QG27" s="0"/>
+      <c r="QH27" s="0"/>
+      <c r="QI27" s="0"/>
+      <c r="QJ27" s="0"/>
+      <c r="QK27" s="0"/>
+      <c r="QL27" s="0"/>
+      <c r="QM27" s="0"/>
+      <c r="QN27" s="0"/>
+      <c r="QO27" s="0"/>
+      <c r="QP27" s="0"/>
+      <c r="QQ27" s="0"/>
+      <c r="QR27" s="0"/>
+      <c r="QS27" s="0"/>
+      <c r="QT27" s="0"/>
+      <c r="QU27" s="0"/>
+      <c r="QV27" s="0"/>
+      <c r="QW27" s="0"/>
+      <c r="QX27" s="0"/>
+      <c r="QY27" s="0"/>
+      <c r="QZ27" s="0"/>
+      <c r="RA27" s="0"/>
+      <c r="RB27" s="0"/>
+      <c r="RC27" s="0"/>
+      <c r="RD27" s="0"/>
+      <c r="RE27" s="0"/>
+      <c r="RF27" s="0"/>
+      <c r="RG27" s="0"/>
+      <c r="RH27" s="0"/>
+      <c r="RI27" s="0"/>
+      <c r="RJ27" s="0"/>
+      <c r="RK27" s="0"/>
+      <c r="RL27" s="0"/>
+      <c r="RM27" s="0"/>
+      <c r="RN27" s="0"/>
+      <c r="RO27" s="0"/>
+      <c r="RP27" s="0"/>
+      <c r="RQ27" s="0"/>
+      <c r="RR27" s="0"/>
+      <c r="RS27" s="0"/>
+      <c r="RT27" s="0"/>
+      <c r="RU27" s="0"/>
+      <c r="RV27" s="0"/>
+      <c r="RW27" s="0"/>
+      <c r="RX27" s="0"/>
+      <c r="RY27" s="0"/>
+      <c r="RZ27" s="0"/>
+      <c r="SA27" s="0"/>
+      <c r="SB27" s="0"/>
+      <c r="SC27" s="0"/>
+      <c r="SD27" s="0"/>
+      <c r="SE27" s="0"/>
+      <c r="SF27" s="0"/>
+      <c r="SG27" s="0"/>
+      <c r="SH27" s="0"/>
+      <c r="SI27" s="0"/>
+      <c r="SJ27" s="0"/>
+      <c r="SK27" s="0"/>
+      <c r="SL27" s="0"/>
+      <c r="SM27" s="0"/>
+      <c r="SN27" s="0"/>
+      <c r="SO27" s="0"/>
+      <c r="SP27" s="0"/>
+      <c r="SQ27" s="0"/>
+      <c r="SR27" s="0"/>
+      <c r="SS27" s="0"/>
+      <c r="ST27" s="0"/>
+      <c r="SU27" s="0"/>
+      <c r="SV27" s="0"/>
+      <c r="SW27" s="0"/>
+      <c r="SX27" s="0"/>
+      <c r="SY27" s="0"/>
+      <c r="SZ27" s="0"/>
+      <c r="TA27" s="0"/>
+      <c r="TB27" s="0"/>
+      <c r="TC27" s="0"/>
+      <c r="TD27" s="0"/>
+      <c r="TE27" s="0"/>
+      <c r="TF27" s="0"/>
+      <c r="TG27" s="0"/>
+      <c r="TH27" s="0"/>
+      <c r="TI27" s="0"/>
+      <c r="TJ27" s="0"/>
+      <c r="TK27" s="0"/>
+      <c r="TL27" s="0"/>
+      <c r="TM27" s="0"/>
+      <c r="TN27" s="0"/>
+      <c r="TO27" s="0"/>
+      <c r="TP27" s="0"/>
+      <c r="TQ27" s="0"/>
+      <c r="TR27" s="0"/>
+      <c r="TS27" s="0"/>
+      <c r="TT27" s="0"/>
+      <c r="TU27" s="0"/>
+      <c r="TV27" s="0"/>
+      <c r="TW27" s="0"/>
+      <c r="TX27" s="0"/>
+      <c r="TY27" s="0"/>
+      <c r="TZ27" s="0"/>
+      <c r="UA27" s="0"/>
+      <c r="UB27" s="0"/>
+      <c r="UC27" s="0"/>
+      <c r="UD27" s="0"/>
+      <c r="UE27" s="0"/>
+      <c r="UF27" s="0"/>
+      <c r="UG27" s="0"/>
+      <c r="UH27" s="0"/>
+      <c r="UI27" s="0"/>
+      <c r="UJ27" s="0"/>
+      <c r="UK27" s="0"/>
+      <c r="UL27" s="0"/>
+      <c r="UM27" s="0"/>
+      <c r="UN27" s="0"/>
+      <c r="UO27" s="0"/>
+      <c r="UP27" s="0"/>
+      <c r="UQ27" s="0"/>
+      <c r="UR27" s="0"/>
+      <c r="US27" s="0"/>
+      <c r="UT27" s="0"/>
+      <c r="UU27" s="0"/>
+      <c r="UV27" s="0"/>
+      <c r="UW27" s="0"/>
+      <c r="UX27" s="0"/>
+      <c r="UY27" s="0"/>
+      <c r="UZ27" s="0"/>
+      <c r="VA27" s="0"/>
+      <c r="VB27" s="0"/>
+      <c r="VC27" s="0"/>
+      <c r="VD27" s="0"/>
+      <c r="VE27" s="0"/>
+      <c r="VF27" s="0"/>
+      <c r="VG27" s="0"/>
+      <c r="VH27" s="0"/>
+      <c r="VI27" s="0"/>
+      <c r="VJ27" s="0"/>
+      <c r="VK27" s="0"/>
+      <c r="VL27" s="0"/>
+      <c r="VM27" s="0"/>
+      <c r="VN27" s="0"/>
+      <c r="VO27" s="0"/>
+      <c r="VP27" s="0"/>
+      <c r="VQ27" s="0"/>
+      <c r="VR27" s="0"/>
+      <c r="VS27" s="0"/>
+      <c r="VT27" s="0"/>
+      <c r="VU27" s="0"/>
+      <c r="VV27" s="0"/>
+      <c r="VW27" s="0"/>
+      <c r="VX27" s="0"/>
+      <c r="VY27" s="0"/>
+      <c r="VZ27" s="0"/>
+      <c r="WA27" s="0"/>
+      <c r="WB27" s="0"/>
+      <c r="WC27" s="0"/>
+      <c r="WD27" s="0"/>
+      <c r="WE27" s="0"/>
+      <c r="WF27" s="0"/>
+      <c r="WG27" s="0"/>
+      <c r="WH27" s="0"/>
+      <c r="WI27" s="0"/>
+      <c r="WJ27" s="0"/>
+      <c r="WK27" s="0"/>
+      <c r="WL27" s="0"/>
+      <c r="WM27" s="0"/>
+      <c r="WN27" s="0"/>
+      <c r="WO27" s="0"/>
+      <c r="WP27" s="0"/>
+      <c r="WQ27" s="0"/>
+      <c r="WR27" s="0"/>
+      <c r="WS27" s="0"/>
+      <c r="WT27" s="0"/>
+      <c r="WU27" s="0"/>
+      <c r="WV27" s="0"/>
+      <c r="WW27" s="0"/>
+      <c r="WX27" s="0"/>
+      <c r="WY27" s="0"/>
+      <c r="WZ27" s="0"/>
+      <c r="XA27" s="0"/>
+      <c r="XB27" s="0"/>
+      <c r="XC27" s="0"/>
+      <c r="XD27" s="0"/>
+      <c r="XE27" s="0"/>
+      <c r="XF27" s="0"/>
+      <c r="XG27" s="0"/>
+      <c r="XH27" s="0"/>
+      <c r="XI27" s="0"/>
+      <c r="XJ27" s="0"/>
+      <c r="XK27" s="0"/>
+      <c r="XL27" s="0"/>
+      <c r="XM27" s="0"/>
+      <c r="XN27" s="0"/>
+      <c r="XO27" s="0"/>
+      <c r="XP27" s="0"/>
+      <c r="XQ27" s="0"/>
+      <c r="XR27" s="0"/>
+      <c r="XS27" s="0"/>
+      <c r="XT27" s="0"/>
+      <c r="XU27" s="0"/>
+      <c r="XV27" s="0"/>
+      <c r="XW27" s="0"/>
+      <c r="XX27" s="0"/>
+      <c r="XY27" s="0"/>
+      <c r="XZ27" s="0"/>
+      <c r="YA27" s="0"/>
+      <c r="YB27" s="0"/>
+      <c r="YC27" s="0"/>
+      <c r="YD27" s="0"/>
+      <c r="YE27" s="0"/>
+      <c r="YF27" s="0"/>
+      <c r="YG27" s="0"/>
+      <c r="YH27" s="0"/>
+      <c r="YI27" s="0"/>
+      <c r="YJ27" s="0"/>
+      <c r="YK27" s="0"/>
+      <c r="YL27" s="0"/>
+      <c r="YM27" s="0"/>
+      <c r="YN27" s="0"/>
+      <c r="YO27" s="0"/>
+      <c r="YP27" s="0"/>
+      <c r="YQ27" s="0"/>
+      <c r="YR27" s="0"/>
+      <c r="YS27" s="0"/>
+      <c r="YT27" s="0"/>
+      <c r="YU27" s="0"/>
+      <c r="YV27" s="0"/>
+      <c r="YW27" s="0"/>
+      <c r="YX27" s="0"/>
+      <c r="YY27" s="0"/>
+      <c r="YZ27" s="0"/>
+      <c r="ZA27" s="0"/>
+      <c r="ZB27" s="0"/>
+      <c r="ZC27" s="0"/>
+      <c r="ZD27" s="0"/>
+      <c r="ZE27" s="0"/>
+      <c r="ZF27" s="0"/>
+      <c r="ZG27" s="0"/>
+      <c r="ZH27" s="0"/>
+      <c r="ZI27" s="0"/>
+      <c r="ZJ27" s="0"/>
+      <c r="ZK27" s="0"/>
+      <c r="ZL27" s="0"/>
+      <c r="ZM27" s="0"/>
+      <c r="ZN27" s="0"/>
+      <c r="ZO27" s="0"/>
+      <c r="ZP27" s="0"/>
+      <c r="ZQ27" s="0"/>
+      <c r="ZR27" s="0"/>
+      <c r="ZS27" s="0"/>
+      <c r="ZT27" s="0"/>
+      <c r="ZU27" s="0"/>
+      <c r="ZV27" s="0"/>
+      <c r="ZW27" s="0"/>
+      <c r="ZX27" s="0"/>
+      <c r="ZY27" s="0"/>
+      <c r="ZZ27" s="0"/>
+      <c r="AAA27" s="0"/>
+      <c r="AAB27" s="0"/>
+      <c r="AAC27" s="0"/>
+      <c r="AAD27" s="0"/>
+      <c r="AAE27" s="0"/>
+      <c r="AAF27" s="0"/>
+      <c r="AAG27" s="0"/>
+      <c r="AAH27" s="0"/>
+      <c r="AAI27" s="0"/>
+      <c r="AAJ27" s="0"/>
+      <c r="AAK27" s="0"/>
+      <c r="AAL27" s="0"/>
+      <c r="AAM27" s="0"/>
+      <c r="AAN27" s="0"/>
+      <c r="AAO27" s="0"/>
+      <c r="AAP27" s="0"/>
+      <c r="AAQ27" s="0"/>
+      <c r="AAR27" s="0"/>
+      <c r="AAS27" s="0"/>
+      <c r="AAT27" s="0"/>
+      <c r="AAU27" s="0"/>
+      <c r="AAV27" s="0"/>
+      <c r="AAW27" s="0"/>
+      <c r="AAX27" s="0"/>
+      <c r="AAY27" s="0"/>
+      <c r="AAZ27" s="0"/>
+      <c r="ABA27" s="0"/>
+      <c r="ABB27" s="0"/>
+      <c r="ABC27" s="0"/>
+      <c r="ABD27" s="0"/>
+      <c r="ABE27" s="0"/>
+      <c r="ABF27" s="0"/>
+      <c r="ABG27" s="0"/>
+      <c r="ABH27" s="0"/>
+      <c r="ABI27" s="0"/>
+      <c r="ABJ27" s="0"/>
+      <c r="ABK27" s="0"/>
+      <c r="ABL27" s="0"/>
+      <c r="ABM27" s="0"/>
+      <c r="ABN27" s="0"/>
+      <c r="ABO27" s="0"/>
+      <c r="ABP27" s="0"/>
+      <c r="ABQ27" s="0"/>
+      <c r="ABR27" s="0"/>
+      <c r="ABS27" s="0"/>
+      <c r="ABT27" s="0"/>
+      <c r="ABU27" s="0"/>
+      <c r="ABV27" s="0"/>
+      <c r="ABW27" s="0"/>
+      <c r="ABX27" s="0"/>
+      <c r="ABY27" s="0"/>
+      <c r="ABZ27" s="0"/>
+      <c r="ACA27" s="0"/>
+      <c r="ACB27" s="0"/>
+      <c r="ACC27" s="0"/>
+      <c r="ACD27" s="0"/>
+      <c r="ACE27" s="0"/>
+      <c r="ACF27" s="0"/>
+      <c r="ACG27" s="0"/>
+      <c r="ACH27" s="0"/>
+      <c r="ACI27" s="0"/>
+      <c r="ACJ27" s="0"/>
+      <c r="ACK27" s="0"/>
+      <c r="ACL27" s="0"/>
+      <c r="ACM27" s="0"/>
+      <c r="ACN27" s="0"/>
+      <c r="ACO27" s="0"/>
+      <c r="ACP27" s="0"/>
+      <c r="ACQ27" s="0"/>
+      <c r="ACR27" s="0"/>
+      <c r="ACS27" s="0"/>
+      <c r="ACT27" s="0"/>
+      <c r="ACU27" s="0"/>
+      <c r="ACV27" s="0"/>
+      <c r="ACW27" s="0"/>
+      <c r="ACX27" s="0"/>
+      <c r="ACY27" s="0"/>
+      <c r="ACZ27" s="0"/>
+      <c r="ADA27" s="0"/>
+      <c r="ADB27" s="0"/>
+      <c r="ADC27" s="0"/>
+      <c r="ADD27" s="0"/>
+      <c r="ADE27" s="0"/>
+      <c r="ADF27" s="0"/>
+      <c r="ADG27" s="0"/>
+      <c r="ADH27" s="0"/>
+      <c r="ADI27" s="0"/>
+      <c r="ADJ27" s="0"/>
+      <c r="ADK27" s="0"/>
+      <c r="ADL27" s="0"/>
+      <c r="ADM27" s="0"/>
+      <c r="ADN27" s="0"/>
+      <c r="ADO27" s="0"/>
+      <c r="ADP27" s="0"/>
+      <c r="ADQ27" s="0"/>
+      <c r="ADR27" s="0"/>
+      <c r="ADS27" s="0"/>
+      <c r="ADT27" s="0"/>
+      <c r="ADU27" s="0"/>
+      <c r="ADV27" s="0"/>
+      <c r="ADW27" s="0"/>
+      <c r="ADX27" s="0"/>
+      <c r="ADY27" s="0"/>
+      <c r="ADZ27" s="0"/>
+      <c r="AEA27" s="0"/>
+      <c r="AEB27" s="0"/>
+      <c r="AEC27" s="0"/>
+      <c r="AED27" s="0"/>
+      <c r="AEE27" s="0"/>
+      <c r="AEF27" s="0"/>
+      <c r="AEG27" s="0"/>
+      <c r="AEH27" s="0"/>
+      <c r="AEI27" s="0"/>
+      <c r="AEJ27" s="0"/>
+      <c r="AEK27" s="0"/>
+      <c r="AEL27" s="0"/>
+      <c r="AEM27" s="0"/>
+      <c r="AEN27" s="0"/>
+      <c r="AEO27" s="0"/>
+      <c r="AEP27" s="0"/>
+      <c r="AEQ27" s="0"/>
+      <c r="AER27" s="0"/>
+      <c r="AES27" s="0"/>
+      <c r="AET27" s="0"/>
+      <c r="AEU27" s="0"/>
+      <c r="AEV27" s="0"/>
+      <c r="AEW27" s="0"/>
+      <c r="AEX27" s="0"/>
+      <c r="AEY27" s="0"/>
+      <c r="AEZ27" s="0"/>
+      <c r="AFA27" s="0"/>
+      <c r="AFB27" s="0"/>
+      <c r="AFC27" s="0"/>
+      <c r="AFD27" s="0"/>
+      <c r="AFE27" s="0"/>
+      <c r="AFF27" s="0"/>
+      <c r="AFG27" s="0"/>
+      <c r="AFH27" s="0"/>
+      <c r="AFI27" s="0"/>
+      <c r="AFJ27" s="0"/>
+      <c r="AFK27" s="0"/>
+      <c r="AFL27" s="0"/>
+      <c r="AFM27" s="0"/>
+      <c r="AFN27" s="0"/>
+      <c r="AFO27" s="0"/>
+      <c r="AFP27" s="0"/>
+      <c r="AFQ27" s="0"/>
+      <c r="AFR27" s="0"/>
+      <c r="AFS27" s="0"/>
+      <c r="AFT27" s="0"/>
+      <c r="AFU27" s="0"/>
+      <c r="AFV27" s="0"/>
+      <c r="AFW27" s="0"/>
+      <c r="AFX27" s="0"/>
+      <c r="AFY27" s="0"/>
+      <c r="AFZ27" s="0"/>
+      <c r="AGA27" s="0"/>
+      <c r="AGB27" s="0"/>
+      <c r="AGC27" s="0"/>
+      <c r="AGD27" s="0"/>
+      <c r="AGE27" s="0"/>
+      <c r="AGF27" s="0"/>
+      <c r="AGG27" s="0"/>
+      <c r="AGH27" s="0"/>
+      <c r="AGI27" s="0"/>
+      <c r="AGJ27" s="0"/>
+      <c r="AGK27" s="0"/>
+      <c r="AGL27" s="0"/>
+      <c r="AGM27" s="0"/>
+      <c r="AGN27" s="0"/>
+      <c r="AGO27" s="0"/>
+      <c r="AGP27" s="0"/>
+      <c r="AGQ27" s="0"/>
+      <c r="AGR27" s="0"/>
+      <c r="AGS27" s="0"/>
+      <c r="AGT27" s="0"/>
+      <c r="AGU27" s="0"/>
+      <c r="AGV27" s="0"/>
+      <c r="AGW27" s="0"/>
+      <c r="AGX27" s="0"/>
+      <c r="AGY27" s="0"/>
+      <c r="AGZ27" s="0"/>
+      <c r="AHA27" s="0"/>
+      <c r="AHB27" s="0"/>
+      <c r="AHC27" s="0"/>
+      <c r="AHD27" s="0"/>
+      <c r="AHE27" s="0"/>
+      <c r="AHF27" s="0"/>
+      <c r="AHG27" s="0"/>
+      <c r="AHH27" s="0"/>
+      <c r="AHI27" s="0"/>
+      <c r="AHJ27" s="0"/>
+      <c r="AHK27" s="0"/>
+      <c r="AHL27" s="0"/>
+      <c r="AHM27" s="0"/>
+      <c r="AHN27" s="0"/>
+      <c r="AHO27" s="0"/>
+      <c r="AHP27" s="0"/>
+      <c r="AHQ27" s="0"/>
+      <c r="AHR27" s="0"/>
+      <c r="AHS27" s="0"/>
+      <c r="AHT27" s="0"/>
+      <c r="AHU27" s="0"/>
+      <c r="AHV27" s="0"/>
+      <c r="AHW27" s="0"/>
+      <c r="AHX27" s="0"/>
+      <c r="AHY27" s="0"/>
+      <c r="AHZ27" s="0"/>
+      <c r="AIA27" s="0"/>
+      <c r="AIB27" s="0"/>
+      <c r="AIC27" s="0"/>
+      <c r="AID27" s="0"/>
+      <c r="AIE27" s="0"/>
+      <c r="AIF27" s="0"/>
+      <c r="AIG27" s="0"/>
+      <c r="AIH27" s="0"/>
+      <c r="AII27" s="0"/>
+      <c r="AIJ27" s="0"/>
+      <c r="AIK27" s="0"/>
+      <c r="AIL27" s="0"/>
+      <c r="AIM27" s="0"/>
+      <c r="AIN27" s="0"/>
+      <c r="AIO27" s="0"/>
+      <c r="AIP27" s="0"/>
+      <c r="AIQ27" s="0"/>
+      <c r="AIR27" s="0"/>
+      <c r="AIS27" s="0"/>
+      <c r="AIT27" s="0"/>
+      <c r="AIU27" s="0"/>
+      <c r="AIV27" s="0"/>
+      <c r="AIW27" s="0"/>
+      <c r="AIX27" s="0"/>
+      <c r="AIY27" s="0"/>
+      <c r="AIZ27" s="0"/>
+      <c r="AJA27" s="0"/>
+      <c r="AJB27" s="0"/>
+      <c r="AJC27" s="0"/>
+      <c r="AJD27" s="0"/>
+      <c r="AJE27" s="0"/>
+      <c r="AJF27" s="0"/>
+      <c r="AJG27" s="0"/>
+      <c r="AJH27" s="0"/>
+      <c r="AJI27" s="0"/>
+      <c r="AJJ27" s="0"/>
+      <c r="AJK27" s="0"/>
+      <c r="AJL27" s="0"/>
+      <c r="AJM27" s="0"/>
+      <c r="AJN27" s="0"/>
+      <c r="AJO27" s="0"/>
+      <c r="AJP27" s="0"/>
+      <c r="AJQ27" s="0"/>
+      <c r="AJR27" s="0"/>
+      <c r="AJS27" s="0"/>
+      <c r="AJT27" s="0"/>
+      <c r="AJU27" s="0"/>
+      <c r="AJV27" s="0"/>
+      <c r="AJW27" s="0"/>
+      <c r="AJX27" s="0"/>
+      <c r="AJY27" s="0"/>
+      <c r="AJZ27" s="0"/>
+      <c r="AKA27" s="0"/>
+      <c r="AKB27" s="0"/>
+      <c r="AKC27" s="0"/>
+      <c r="AKD27" s="0"/>
+      <c r="AKE27" s="0"/>
+      <c r="AKF27" s="0"/>
+      <c r="AKG27" s="0"/>
+      <c r="AKH27" s="0"/>
+      <c r="AKI27" s="0"/>
+      <c r="AKJ27" s="0"/>
+      <c r="AKK27" s="0"/>
+      <c r="AKL27" s="0"/>
+      <c r="AKM27" s="0"/>
+      <c r="AKN27" s="0"/>
+      <c r="AKO27" s="0"/>
+      <c r="AKP27" s="0"/>
+      <c r="AKQ27" s="0"/>
+      <c r="AKR27" s="0"/>
+      <c r="AKS27" s="0"/>
+      <c r="AKT27" s="0"/>
+      <c r="AKU27" s="0"/>
+      <c r="AKV27" s="0"/>
+      <c r="AKW27" s="0"/>
+      <c r="AKX27" s="0"/>
+      <c r="AKY27" s="0"/>
+      <c r="AKZ27" s="0"/>
+      <c r="ALA27" s="0"/>
+      <c r="ALB27" s="0"/>
+      <c r="ALC27" s="0"/>
+      <c r="ALD27" s="0"/>
+      <c r="ALE27" s="0"/>
+      <c r="ALF27" s="0"/>
+      <c r="ALG27" s="0"/>
+      <c r="ALH27" s="0"/>
+      <c r="ALI27" s="0"/>
+      <c r="ALJ27" s="0"/>
+      <c r="ALK27" s="0"/>
+      <c r="ALL27" s="0"/>
+      <c r="ALM27" s="0"/>
+      <c r="ALN27" s="0"/>
+      <c r="ALO27" s="0"/>
+      <c r="ALP27" s="0"/>
+      <c r="ALQ27" s="0"/>
+      <c r="ALR27" s="0"/>
+      <c r="ALS27" s="0"/>
+      <c r="ALT27" s="0"/>
+      <c r="ALU27" s="0"/>
+      <c r="ALV27" s="0"/>
+      <c r="ALW27" s="0"/>
+      <c r="ALX27" s="0"/>
+      <c r="ALY27" s="0"/>
+      <c r="ALZ27" s="0"/>
+      <c r="AMA27" s="0"/>
+      <c r="AMB27" s="0"/>
+      <c r="AMC27" s="0"/>
+      <c r="AMD27" s="0"/>
+      <c r="AME27" s="0"/>
+      <c r="AMF27" s="0"/>
+      <c r="AMG27" s="0"/>
+      <c r="AMH27" s="0"/>
+      <c r="AMI27" s="0"/>
+      <c r="AMJ27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="57" t="n">
-        <v>55674</v>
-      </c>
-      <c r="B28" s="58" t="n">
+      <c r="A28" s="67" t="n">
+        <v>55594</v>
+      </c>
+      <c r="B28" s="68" t="n">
         <v>1</v>
       </c>
-      <c r="C28" s="59" t="s">
-        <v>200</v>
-      </c>
-      <c r="D28" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="E28" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="F28" s="58" t="s">
-        <v>201</v>
-      </c>
-      <c r="G28" s="58" t="s">
-        <v>202</v>
-      </c>
-      <c r="H28" s="60" t="n">
-        <v>37321</v>
-      </c>
-      <c r="I28" s="60" t="n">
-        <v>37321</v>
-      </c>
-      <c r="J28" s="60" t="n">
-        <v>42798</v>
-      </c>
-      <c r="K28" s="61" t="n">
-        <v>5</v>
-      </c>
-      <c r="L28" s="58" t="s">
-        <v>203</v>
-      </c>
-      <c r="M28" s="58" t="s">
+      <c r="C28" s="69" t="s">
         <v>204</v>
       </c>
-      <c r="N28" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="O28" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="P28" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q28" s="59" t="s">
+      <c r="D28" s="69" t="s">
+        <v>147</v>
+      </c>
+      <c r="E28" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="68" t="s">
         <v>205</v>
       </c>
-      <c r="R28" s="59" t="s">
+      <c r="G28" s="68" t="s">
         <v>206</v>
       </c>
-      <c r="S28" s="59"/>
-      <c r="T28" s="59" t="s">
+      <c r="H28" s="70" t="n">
+        <v>37172</v>
+      </c>
+      <c r="I28" s="70" t="n">
+        <v>37172</v>
+      </c>
+      <c r="J28" s="70" t="n">
+        <v>43863</v>
+      </c>
+      <c r="K28" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" s="68" t="s">
         <v>207</v>
       </c>
-      <c r="U28" s="59"/>
-      <c r="V28" s="58"/>
-      <c r="W28" s="58"/>
-      <c r="X28" s="58"/>
+      <c r="M28" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="N28" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="O28" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="P28" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q28" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="R28" s="69" t="s">
+        <v>209</v>
+      </c>
+      <c r="S28" s="69"/>
+      <c r="T28" s="69" t="s">
+        <v>210</v>
+      </c>
+      <c r="U28" s="69"/>
+      <c r="V28" s="68"/>
+      <c r="W28" s="68"/>
+      <c r="X28" s="68"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="37" t="n">
-        <v>56352</v>
-      </c>
-      <c r="B29" s="44" t="n">
-        <v>7</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="D29" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="E29" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="F29" s="40" t="s">
-        <v>210</v>
-      </c>
-      <c r="G29" s="40" t="s">
+      <c r="A29" s="67" t="n">
+        <v>55674</v>
+      </c>
+      <c r="B29" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="69" t="s">
         <v>211</v>
       </c>
-      <c r="H29" s="41" t="n">
-        <v>38034</v>
-      </c>
-      <c r="I29" s="41" t="n">
-        <v>41071</v>
-      </c>
-      <c r="J29" s="42" t="n">
-        <v>43512</v>
-      </c>
-      <c r="K29" s="45" t="n">
-        <v>17</v>
-      </c>
-      <c r="L29" s="37" t="s">
+      <c r="D29" s="69" t="s">
+        <v>189</v>
+      </c>
+      <c r="E29" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="68" t="s">
         <v>212</v>
       </c>
-      <c r="M29" s="39" t="s">
+      <c r="G29" s="68" t="s">
         <v>213</v>
       </c>
-      <c r="N29" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="O29" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="P29" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q29" s="39" t="s">
+      <c r="H29" s="70" t="n">
+        <v>37321</v>
+      </c>
+      <c r="I29" s="70" t="n">
+        <v>37321</v>
+      </c>
+      <c r="J29" s="70" t="n">
+        <v>42798</v>
+      </c>
+      <c r="K29" s="71" t="n">
+        <v>5</v>
+      </c>
+      <c r="L29" s="68" t="s">
         <v>214</v>
       </c>
-      <c r="R29" s="39" t="s">
+      <c r="M29" s="68" t="s">
         <v>215</v>
       </c>
-      <c r="S29" s="39"/>
-      <c r="T29" s="39" t="s">
+      <c r="N29" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="O29" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="P29" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q29" s="69" t="s">
         <v>216</v>
       </c>
-      <c r="U29" s="39"/>
-      <c r="V29" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="W29" s="39"/>
-      <c r="X29" s="40"/>
+      <c r="R29" s="69" t="s">
+        <v>217</v>
+      </c>
+      <c r="S29" s="69"/>
+      <c r="T29" s="69" t="s">
+        <v>218</v>
+      </c>
+      <c r="U29" s="69"/>
+      <c r="V29" s="68"/>
+      <c r="W29" s="68"/>
+      <c r="X29" s="68"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="57" t="n">
-        <v>58943</v>
-      </c>
-      <c r="B30" s="58" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" s="59" t="s">
-        <v>217</v>
-      </c>
-      <c r="D30" s="59" t="s">
-        <v>218</v>
-      </c>
-      <c r="E30" s="59" t="s">
+      <c r="A30" s="37" t="n">
+        <v>56352</v>
+      </c>
+      <c r="B30" s="44" t="n">
+        <v>7</v>
+      </c>
+      <c r="C30" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="F30" s="58" t="s">
+      <c r="D30" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="G30" s="58"/>
-      <c r="H30" s="60" t="n">
-        <v>42110</v>
-      </c>
-      <c r="I30" s="60" t="n">
-        <v>42110</v>
-      </c>
-      <c r="J30" s="60" t="n">
-        <v>43936</v>
-      </c>
-      <c r="K30" s="61" t="n">
-        <v>1</v>
-      </c>
-      <c r="L30" s="58" t="s">
+      <c r="E30" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="F30" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="M30" s="58" t="s">
+      <c r="G30" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="N30" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="O30" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="P30" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="59"/>
-      <c r="S30" s="59"/>
-      <c r="T30" s="59" t="s">
+      <c r="H30" s="41" t="n">
+        <v>38034</v>
+      </c>
+      <c r="I30" s="41" t="n">
+        <v>41071</v>
+      </c>
+      <c r="J30" s="42" t="n">
+        <v>43512</v>
+      </c>
+      <c r="K30" s="45" t="n">
+        <v>17</v>
+      </c>
+      <c r="L30" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="U30" s="59" t="s">
+      <c r="M30" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="V30" s="58"/>
-      <c r="W30" s="58"/>
-      <c r="X30" s="58"/>
+      <c r="N30" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="O30" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="P30" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q30" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="R30" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="S30" s="39"/>
+      <c r="T30" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="U30" s="39"/>
+      <c r="V30" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="W30" s="39"/>
+      <c r="X30" s="40"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="57" t="n">
-        <v>59267</v>
-      </c>
-      <c r="B31" s="58" t="n">
-        <v>7</v>
-      </c>
-      <c r="C31" s="59" t="s">
-        <v>225</v>
-      </c>
-      <c r="D31" s="59" t="s">
-        <v>226</v>
-      </c>
-      <c r="E31" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="F31" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="G31" s="58" t="s">
-        <v>227</v>
-      </c>
-      <c r="H31" s="60" t="n">
-        <v>40128</v>
-      </c>
-      <c r="I31" s="60" t="n">
-        <v>42257</v>
-      </c>
-      <c r="J31" s="60" t="n">
-        <v>43779</v>
-      </c>
-      <c r="K31" s="61" t="n">
-        <v>11</v>
-      </c>
-      <c r="L31" s="58" t="s">
+      <c r="A31" s="67" t="n">
+        <v>58943</v>
+      </c>
+      <c r="B31" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="69" t="s">
         <v>228</v>
       </c>
-      <c r="M31" s="58" t="s">
+      <c r="D31" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="N31" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="O31" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="P31" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q31" s="59" t="s">
+      <c r="E31" s="69" t="s">
         <v>230</v>
       </c>
-      <c r="R31" s="59" t="s">
+      <c r="F31" s="68" t="s">
         <v>231</v>
       </c>
-      <c r="S31" s="59"/>
-      <c r="T31" s="59" t="s">
+      <c r="G31" s="68"/>
+      <c r="H31" s="70" t="n">
+        <v>42110</v>
+      </c>
+      <c r="I31" s="70" t="n">
+        <v>42110</v>
+      </c>
+      <c r="J31" s="70" t="n">
+        <v>43936</v>
+      </c>
+      <c r="K31" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" s="68" t="s">
         <v>232</v>
       </c>
-      <c r="U31" s="59"/>
-      <c r="V31" s="58"/>
-      <c r="W31" s="58"/>
-      <c r="X31" s="58"/>
+      <c r="M31" s="68" t="s">
+        <v>233</v>
+      </c>
+      <c r="N31" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="O31" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="P31" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q31" s="69"/>
+      <c r="R31" s="69"/>
+      <c r="S31" s="69"/>
+      <c r="T31" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="U31" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="V31" s="68"/>
+      <c r="W31" s="68"/>
+      <c r="X31" s="68"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="57" t="n">
+      <c r="A32" s="67" t="n">
+        <v>59267</v>
+      </c>
+      <c r="B32" s="68" t="n">
+        <v>7</v>
+      </c>
+      <c r="C32" s="69" t="s">
+        <v>236</v>
+      </c>
+      <c r="D32" s="69" t="s">
+        <v>237</v>
+      </c>
+      <c r="E32" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" s="68" t="s">
+        <v>238</v>
+      </c>
+      <c r="H32" s="70" t="n">
+        <v>40128</v>
+      </c>
+      <c r="I32" s="70" t="n">
+        <v>42257</v>
+      </c>
+      <c r="J32" s="70" t="n">
+        <v>43779</v>
+      </c>
+      <c r="K32" s="71" t="n">
+        <v>11</v>
+      </c>
+      <c r="L32" s="68" t="s">
+        <v>239</v>
+      </c>
+      <c r="M32" s="68" t="s">
+        <v>240</v>
+      </c>
+      <c r="N32" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="O32" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="P32" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q32" s="69" t="s">
+        <v>241</v>
+      </c>
+      <c r="R32" s="69" t="s">
+        <v>242</v>
+      </c>
+      <c r="S32" s="69"/>
+      <c r="T32" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="U32" s="69"/>
+      <c r="V32" s="68"/>
+      <c r="W32" s="68"/>
+      <c r="X32" s="68"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="67" t="n">
         <v>61186</v>
       </c>
-      <c r="B32" s="58" t="n">
+      <c r="B33" s="68" t="n">
         <v>1</v>
       </c>
-      <c r="C32" s="59" t="s">
-        <v>233</v>
-      </c>
-      <c r="D32" s="59" t="s">
-        <v>136</v>
-      </c>
-      <c r="E32" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="F32" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="G32" s="58" t="s">
-        <v>195</v>
-      </c>
-      <c r="H32" s="60" t="n">
+      <c r="C33" s="69" t="s">
+        <v>244</v>
+      </c>
+      <c r="D33" s="69" t="s">
+        <v>147</v>
+      </c>
+      <c r="E33" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="68" t="s">
+        <v>205</v>
+      </c>
+      <c r="G33" s="68" t="s">
+        <v>206</v>
+      </c>
+      <c r="H33" s="70" t="n">
         <v>40522</v>
       </c>
-      <c r="I32" s="60" t="n">
+      <c r="I33" s="70" t="n">
         <v>40522</v>
       </c>
-      <c r="J32" s="60" t="n">
+      <c r="J33" s="70" t="n">
         <v>44174</v>
       </c>
-      <c r="K32" s="61" t="n">
+      <c r="K33" s="71" t="n">
         <v>1</v>
       </c>
-      <c r="L32" s="58" t="s">
-        <v>234</v>
-      </c>
-      <c r="M32" s="58" t="s">
-        <v>235</v>
-      </c>
-      <c r="N32" s="58" t="s">
+      <c r="L33" s="68" t="s">
+        <v>245</v>
+      </c>
+      <c r="M33" s="68" t="s">
+        <v>246</v>
+      </c>
+      <c r="N33" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="O32" s="58" t="s">
+      <c r="O33" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="P32" s="58" t="s">
+      <c r="P33" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="Q32" s="59" t="s">
-        <v>236</v>
-      </c>
-      <c r="R32" s="59" t="s">
-        <v>237</v>
-      </c>
-      <c r="S32" s="59"/>
-      <c r="T32" s="59" t="s">
-        <v>199</v>
-      </c>
-      <c r="U32" s="59"/>
-      <c r="V32" s="58"/>
-      <c r="W32" s="58"/>
-      <c r="X32" s="58"/>
-    </row>
-    <row r="33" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="57" t="n">
-        <v>62069</v>
-      </c>
-      <c r="B33" s="58" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" s="59" t="s">
-        <v>238</v>
-      </c>
-      <c r="D33" s="59" t="s">
-        <v>239</v>
-      </c>
-      <c r="E33" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="F33" s="58" t="s">
-        <v>240</v>
-      </c>
-      <c r="G33" s="58" t="s">
-        <v>241</v>
-      </c>
-      <c r="H33" s="60" t="n">
-        <v>40610</v>
-      </c>
-      <c r="I33" s="60" t="n">
-        <v>40610</v>
-      </c>
-      <c r="J33" s="60" t="n">
-        <v>44262</v>
-      </c>
-      <c r="K33" s="61" t="n">
-        <v>8</v>
-      </c>
-      <c r="L33" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="M33" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="N33" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="O33" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="P33" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q33" s="59" t="s">
-        <v>242</v>
-      </c>
-      <c r="R33" s="59" t="s">
-        <v>243</v>
-      </c>
-      <c r="S33" s="59"/>
-      <c r="T33" s="59" t="s">
-        <v>244</v>
-      </c>
-      <c r="U33" s="59"/>
-      <c r="V33" s="58"/>
-      <c r="W33" s="58"/>
-      <c r="X33" s="58"/>
-      <c r="Z33" s="0"/>
-      <c r="AA33" s="0"/>
-      <c r="AB33" s="0"/>
-      <c r="AC33" s="0"/>
-      <c r="AD33" s="0"/>
-      <c r="AE33" s="0"/>
-      <c r="AF33" s="0"/>
-      <c r="AG33" s="0"/>
-      <c r="AH33" s="0"/>
-      <c r="AI33" s="0"/>
-      <c r="AJ33" s="0"/>
-      <c r="AK33" s="0"/>
-      <c r="AL33" s="0"/>
-      <c r="AM33" s="0"/>
-      <c r="AN33" s="0"/>
-      <c r="AO33" s="0"/>
-      <c r="AP33" s="0"/>
-      <c r="AQ33" s="0"/>
-      <c r="AR33" s="0"/>
-      <c r="AS33" s="0"/>
-      <c r="AT33" s="0"/>
-      <c r="AU33" s="0"/>
-      <c r="AV33" s="0"/>
-      <c r="AW33" s="0"/>
-      <c r="AX33" s="0"/>
-      <c r="AY33" s="0"/>
-      <c r="AZ33" s="0"/>
-      <c r="BA33" s="0"/>
-      <c r="BB33" s="0"/>
-      <c r="BC33" s="0"/>
-      <c r="BD33" s="0"/>
-      <c r="BE33" s="0"/>
-      <c r="BF33" s="0"/>
-      <c r="BG33" s="0"/>
-      <c r="BH33" s="0"/>
-      <c r="BI33" s="0"/>
-      <c r="BJ33" s="0"/>
-      <c r="BK33" s="0"/>
-      <c r="BL33" s="0"/>
-      <c r="BM33" s="0"/>
-      <c r="BN33" s="0"/>
-      <c r="BO33" s="0"/>
-      <c r="BP33" s="0"/>
-      <c r="BQ33" s="0"/>
-      <c r="BR33" s="0"/>
-      <c r="BS33" s="0"/>
-      <c r="BT33" s="0"/>
-      <c r="BU33" s="0"/>
-      <c r="BV33" s="0"/>
-      <c r="BW33" s="0"/>
-      <c r="BX33" s="0"/>
-      <c r="BY33" s="0"/>
-      <c r="BZ33" s="0"/>
-      <c r="CA33" s="0"/>
-      <c r="CB33" s="0"/>
-      <c r="CC33" s="0"/>
-      <c r="CD33" s="0"/>
-      <c r="CE33" s="0"/>
-      <c r="CF33" s="0"/>
-      <c r="CG33" s="0"/>
-      <c r="CH33" s="0"/>
-      <c r="CI33" s="0"/>
-      <c r="CJ33" s="0"/>
-      <c r="CK33" s="0"/>
-      <c r="CL33" s="0"/>
-      <c r="CM33" s="0"/>
-      <c r="CN33" s="0"/>
-      <c r="CO33" s="0"/>
-      <c r="CP33" s="0"/>
-      <c r="CQ33" s="0"/>
-      <c r="CR33" s="0"/>
-      <c r="CS33" s="0"/>
-      <c r="CT33" s="0"/>
-      <c r="CU33" s="0"/>
-      <c r="CV33" s="0"/>
-      <c r="CW33" s="0"/>
-      <c r="CX33" s="0"/>
-      <c r="CY33" s="0"/>
-      <c r="CZ33" s="0"/>
-      <c r="DA33" s="0"/>
-      <c r="DB33" s="0"/>
-      <c r="DC33" s="0"/>
-      <c r="DD33" s="0"/>
-      <c r="DE33" s="0"/>
-      <c r="DF33" s="0"/>
-      <c r="DG33" s="0"/>
-      <c r="DH33" s="0"/>
-      <c r="DI33" s="0"/>
-      <c r="DJ33" s="0"/>
-      <c r="DK33" s="0"/>
-      <c r="DL33" s="0"/>
-      <c r="DM33" s="0"/>
-      <c r="DN33" s="0"/>
-      <c r="DO33" s="0"/>
-      <c r="DP33" s="0"/>
-      <c r="DQ33" s="0"/>
-      <c r="DR33" s="0"/>
-      <c r="DS33" s="0"/>
-      <c r="DT33" s="0"/>
-      <c r="DU33" s="0"/>
-      <c r="DV33" s="0"/>
-      <c r="DW33" s="0"/>
-      <c r="DX33" s="0"/>
-      <c r="DY33" s="0"/>
-      <c r="DZ33" s="0"/>
-      <c r="EA33" s="0"/>
-      <c r="EB33" s="0"/>
-      <c r="EC33" s="0"/>
-      <c r="ED33" s="0"/>
-      <c r="EE33" s="0"/>
-      <c r="EF33" s="0"/>
-      <c r="EG33" s="0"/>
-      <c r="EH33" s="0"/>
-      <c r="EI33" s="0"/>
-      <c r="EJ33" s="0"/>
-      <c r="EK33" s="0"/>
-      <c r="EL33" s="0"/>
-      <c r="EM33" s="0"/>
-      <c r="EN33" s="0"/>
-      <c r="EO33" s="0"/>
-      <c r="EP33" s="0"/>
-      <c r="EQ33" s="0"/>
-      <c r="ER33" s="0"/>
-      <c r="ES33" s="0"/>
-      <c r="ET33" s="0"/>
-      <c r="EU33" s="0"/>
-      <c r="EV33" s="0"/>
-      <c r="EW33" s="0"/>
-      <c r="EX33" s="0"/>
-      <c r="EY33" s="0"/>
-      <c r="EZ33" s="0"/>
-      <c r="FA33" s="0"/>
-      <c r="FB33" s="0"/>
-      <c r="FC33" s="0"/>
-      <c r="FD33" s="0"/>
-      <c r="FE33" s="0"/>
-      <c r="FF33" s="0"/>
-      <c r="FG33" s="0"/>
-      <c r="FH33" s="0"/>
-      <c r="FI33" s="0"/>
-      <c r="FJ33" s="0"/>
-      <c r="FK33" s="0"/>
-      <c r="FL33" s="0"/>
-      <c r="FM33" s="0"/>
-      <c r="FN33" s="0"/>
-      <c r="FO33" s="0"/>
-      <c r="FP33" s="0"/>
-      <c r="FQ33" s="0"/>
-      <c r="FR33" s="0"/>
-      <c r="FS33" s="0"/>
-      <c r="FT33" s="0"/>
-      <c r="FU33" s="0"/>
-      <c r="FV33" s="0"/>
-      <c r="FW33" s="0"/>
-      <c r="FX33" s="0"/>
-      <c r="FY33" s="0"/>
-      <c r="FZ33" s="0"/>
-      <c r="GA33" s="0"/>
-      <c r="GB33" s="0"/>
-      <c r="GC33" s="0"/>
-      <c r="GD33" s="0"/>
-      <c r="GE33" s="0"/>
-      <c r="GF33" s="0"/>
-      <c r="GG33" s="0"/>
-      <c r="GH33" s="0"/>
-      <c r="GI33" s="0"/>
-      <c r="GJ33" s="0"/>
-      <c r="GK33" s="0"/>
-      <c r="GL33" s="0"/>
-      <c r="GM33" s="0"/>
-      <c r="GN33" s="0"/>
-      <c r="GO33" s="0"/>
-      <c r="GP33" s="0"/>
-      <c r="GQ33" s="0"/>
-      <c r="GR33" s="0"/>
-      <c r="GS33" s="0"/>
-      <c r="GT33" s="0"/>
-      <c r="GU33" s="0"/>
-      <c r="GV33" s="0"/>
-      <c r="GW33" s="0"/>
-      <c r="GX33" s="0"/>
-      <c r="GY33" s="0"/>
-      <c r="GZ33" s="0"/>
-      <c r="HA33" s="0"/>
-      <c r="HB33" s="0"/>
-      <c r="HC33" s="0"/>
-      <c r="HD33" s="0"/>
-      <c r="HE33" s="0"/>
-      <c r="HF33" s="0"/>
-      <c r="HG33" s="0"/>
-      <c r="HH33" s="0"/>
-      <c r="HI33" s="0"/>
-      <c r="HJ33" s="0"/>
-      <c r="HK33" s="0"/>
-      <c r="HL33" s="0"/>
-      <c r="HM33" s="0"/>
-      <c r="HN33" s="0"/>
-      <c r="HO33" s="0"/>
-      <c r="HP33" s="0"/>
-      <c r="HQ33" s="0"/>
-      <c r="HR33" s="0"/>
-      <c r="HS33" s="0"/>
-      <c r="HT33" s="0"/>
-      <c r="HU33" s="0"/>
-      <c r="HV33" s="0"/>
-      <c r="HW33" s="0"/>
-      <c r="HX33" s="0"/>
-      <c r="HY33" s="0"/>
-      <c r="HZ33" s="0"/>
-      <c r="IA33" s="0"/>
-      <c r="IB33" s="0"/>
-      <c r="IC33" s="0"/>
-      <c r="ID33" s="0"/>
-      <c r="IE33" s="0"/>
-      <c r="IF33" s="0"/>
-      <c r="IG33" s="0"/>
-      <c r="IH33" s="0"/>
-      <c r="II33" s="0"/>
-      <c r="IJ33" s="0"/>
-      <c r="IK33" s="0"/>
-      <c r="IL33" s="0"/>
-      <c r="IM33" s="0"/>
-      <c r="IN33" s="0"/>
-      <c r="IO33" s="0"/>
-      <c r="IP33" s="0"/>
-      <c r="IQ33" s="0"/>
-      <c r="IR33" s="0"/>
-      <c r="IS33" s="0"/>
-      <c r="IT33" s="0"/>
-      <c r="IU33" s="0"/>
-      <c r="IV33" s="0"/>
-      <c r="IW33" s="0"/>
-      <c r="IX33" s="0"/>
-      <c r="IY33" s="0"/>
-      <c r="IZ33" s="0"/>
-      <c r="JA33" s="0"/>
-      <c r="JB33" s="0"/>
-      <c r="JC33" s="0"/>
-      <c r="JD33" s="0"/>
-      <c r="JE33" s="0"/>
-      <c r="JF33" s="0"/>
-      <c r="JG33" s="0"/>
-      <c r="JH33" s="0"/>
-      <c r="JI33" s="0"/>
-      <c r="JJ33" s="0"/>
-      <c r="JK33" s="0"/>
-      <c r="JL33" s="0"/>
-      <c r="JM33" s="0"/>
-      <c r="JN33" s="0"/>
-      <c r="JO33" s="0"/>
-      <c r="JP33" s="0"/>
-      <c r="JQ33" s="0"/>
-      <c r="JR33" s="0"/>
-      <c r="JS33" s="0"/>
-      <c r="JT33" s="0"/>
-      <c r="JU33" s="0"/>
-      <c r="JV33" s="0"/>
-      <c r="JW33" s="0"/>
-      <c r="JX33" s="0"/>
-      <c r="JY33" s="0"/>
-      <c r="JZ33" s="0"/>
-      <c r="KA33" s="0"/>
-      <c r="KB33" s="0"/>
-      <c r="KC33" s="0"/>
-      <c r="KD33" s="0"/>
-      <c r="KE33" s="0"/>
-      <c r="KF33" s="0"/>
-      <c r="KG33" s="0"/>
-      <c r="KH33" s="0"/>
-      <c r="KI33" s="0"/>
-      <c r="KJ33" s="0"/>
-      <c r="KK33" s="0"/>
-      <c r="KL33" s="0"/>
-      <c r="KM33" s="0"/>
-      <c r="KN33" s="0"/>
-      <c r="KO33" s="0"/>
-      <c r="KP33" s="0"/>
-      <c r="KQ33" s="0"/>
-      <c r="KR33" s="0"/>
-      <c r="KS33" s="0"/>
-      <c r="KT33" s="0"/>
-      <c r="KU33" s="0"/>
-      <c r="KV33" s="0"/>
-      <c r="KW33" s="0"/>
-      <c r="KX33" s="0"/>
-      <c r="KY33" s="0"/>
-      <c r="KZ33" s="0"/>
-      <c r="LA33" s="0"/>
-      <c r="LB33" s="0"/>
-      <c r="LC33" s="0"/>
-      <c r="LD33" s="0"/>
-      <c r="LE33" s="0"/>
-      <c r="LF33" s="0"/>
-      <c r="LG33" s="0"/>
-      <c r="LH33" s="0"/>
-      <c r="LI33" s="0"/>
-      <c r="LJ33" s="0"/>
-      <c r="LK33" s="0"/>
-      <c r="LL33" s="0"/>
-      <c r="LM33" s="0"/>
-      <c r="LN33" s="0"/>
-      <c r="LO33" s="0"/>
-      <c r="LP33" s="0"/>
-      <c r="LQ33" s="0"/>
-      <c r="LR33" s="0"/>
-      <c r="LS33" s="0"/>
-      <c r="LT33" s="0"/>
-      <c r="LU33" s="0"/>
-      <c r="LV33" s="0"/>
-      <c r="LW33" s="0"/>
-      <c r="LX33" s="0"/>
-      <c r="LY33" s="0"/>
-      <c r="LZ33" s="0"/>
-      <c r="MA33" s="0"/>
-      <c r="MB33" s="0"/>
-      <c r="MC33" s="0"/>
-      <c r="MD33" s="0"/>
-      <c r="ME33" s="0"/>
-      <c r="MF33" s="0"/>
-      <c r="MG33" s="0"/>
-      <c r="MH33" s="0"/>
-      <c r="MI33" s="0"/>
-      <c r="MJ33" s="0"/>
-      <c r="MK33" s="0"/>
-      <c r="ML33" s="0"/>
-      <c r="MM33" s="0"/>
-      <c r="MN33" s="0"/>
-      <c r="MO33" s="0"/>
-      <c r="MP33" s="0"/>
-      <c r="MQ33" s="0"/>
-      <c r="MR33" s="0"/>
-      <c r="MS33" s="0"/>
-      <c r="MT33" s="0"/>
-      <c r="MU33" s="0"/>
-      <c r="MV33" s="0"/>
-      <c r="MW33" s="0"/>
-      <c r="MX33" s="0"/>
-      <c r="MY33" s="0"/>
-      <c r="MZ33" s="0"/>
-      <c r="NA33" s="0"/>
-      <c r="NB33" s="0"/>
-      <c r="NC33" s="0"/>
-      <c r="ND33" s="0"/>
-      <c r="NE33" s="0"/>
-      <c r="NF33" s="0"/>
-      <c r="NG33" s="0"/>
-      <c r="NH33" s="0"/>
-      <c r="NI33" s="0"/>
-      <c r="NJ33" s="0"/>
-      <c r="NK33" s="0"/>
-      <c r="NL33" s="0"/>
-      <c r="NM33" s="0"/>
-      <c r="NN33" s="0"/>
-      <c r="NO33" s="0"/>
-      <c r="NP33" s="0"/>
-      <c r="NQ33" s="0"/>
-      <c r="NR33" s="0"/>
-      <c r="NS33" s="0"/>
-      <c r="NT33" s="0"/>
-      <c r="NU33" s="0"/>
-      <c r="NV33" s="0"/>
-      <c r="NW33" s="0"/>
-      <c r="NX33" s="0"/>
-      <c r="NY33" s="0"/>
-      <c r="NZ33" s="0"/>
-      <c r="OA33" s="0"/>
-      <c r="OB33" s="0"/>
-      <c r="OC33" s="0"/>
-      <c r="OD33" s="0"/>
-      <c r="OE33" s="0"/>
-      <c r="OF33" s="0"/>
-      <c r="OG33" s="0"/>
-      <c r="OH33" s="0"/>
-      <c r="OI33" s="0"/>
-      <c r="OJ33" s="0"/>
-      <c r="OK33" s="0"/>
-      <c r="OL33" s="0"/>
-      <c r="OM33" s="0"/>
-      <c r="ON33" s="0"/>
-      <c r="OO33" s="0"/>
-      <c r="OP33" s="0"/>
-      <c r="OQ33" s="0"/>
-      <c r="OR33" s="0"/>
-      <c r="OS33" s="0"/>
-      <c r="OT33" s="0"/>
-      <c r="OU33" s="0"/>
-      <c r="OV33" s="0"/>
-      <c r="OW33" s="0"/>
-      <c r="OX33" s="0"/>
-      <c r="OY33" s="0"/>
-      <c r="OZ33" s="0"/>
-      <c r="PA33" s="0"/>
-      <c r="PB33" s="0"/>
-      <c r="PC33" s="0"/>
-      <c r="PD33" s="0"/>
-      <c r="PE33" s="0"/>
-      <c r="PF33" s="0"/>
-      <c r="PG33" s="0"/>
-      <c r="PH33" s="0"/>
-      <c r="PI33" s="0"/>
-      <c r="PJ33" s="0"/>
-      <c r="PK33" s="0"/>
-      <c r="PL33" s="0"/>
-      <c r="PM33" s="0"/>
-      <c r="PN33" s="0"/>
-      <c r="PO33" s="0"/>
-      <c r="PP33" s="0"/>
-      <c r="PQ33" s="0"/>
-      <c r="PR33" s="0"/>
-      <c r="PS33" s="0"/>
-      <c r="PT33" s="0"/>
-      <c r="PU33" s="0"/>
-      <c r="PV33" s="0"/>
-      <c r="PW33" s="0"/>
-      <c r="PX33" s="0"/>
-      <c r="PY33" s="0"/>
-      <c r="PZ33" s="0"/>
-      <c r="QA33" s="0"/>
-      <c r="QB33" s="0"/>
-      <c r="QC33" s="0"/>
-      <c r="QD33" s="0"/>
-      <c r="QE33" s="0"/>
-      <c r="QF33" s="0"/>
-      <c r="QG33" s="0"/>
-      <c r="QH33" s="0"/>
-      <c r="QI33" s="0"/>
-      <c r="QJ33" s="0"/>
-      <c r="QK33" s="0"/>
-      <c r="QL33" s="0"/>
-      <c r="QM33" s="0"/>
-      <c r="QN33" s="0"/>
-      <c r="QO33" s="0"/>
-      <c r="QP33" s="0"/>
-      <c r="QQ33" s="0"/>
-      <c r="QR33" s="0"/>
-      <c r="QS33" s="0"/>
-      <c r="QT33" s="0"/>
-      <c r="QU33" s="0"/>
-      <c r="QV33" s="0"/>
-      <c r="QW33" s="0"/>
-      <c r="QX33" s="0"/>
-      <c r="QY33" s="0"/>
-      <c r="QZ33" s="0"/>
-      <c r="RA33" s="0"/>
-      <c r="RB33" s="0"/>
-      <c r="RC33" s="0"/>
-      <c r="RD33" s="0"/>
-      <c r="RE33" s="0"/>
-      <c r="RF33" s="0"/>
-      <c r="RG33" s="0"/>
-      <c r="RH33" s="0"/>
-      <c r="RI33" s="0"/>
-      <c r="RJ33" s="0"/>
-      <c r="RK33" s="0"/>
-      <c r="RL33" s="0"/>
-      <c r="RM33" s="0"/>
-      <c r="RN33" s="0"/>
-      <c r="RO33" s="0"/>
-      <c r="RP33" s="0"/>
-      <c r="RQ33" s="0"/>
-      <c r="RR33" s="0"/>
-      <c r="RS33" s="0"/>
-      <c r="RT33" s="0"/>
-      <c r="RU33" s="0"/>
-      <c r="RV33" s="0"/>
-      <c r="RW33" s="0"/>
-      <c r="RX33" s="0"/>
-      <c r="RY33" s="0"/>
-      <c r="RZ33" s="0"/>
-      <c r="SA33" s="0"/>
-      <c r="SB33" s="0"/>
-      <c r="SC33" s="0"/>
-      <c r="SD33" s="0"/>
-      <c r="SE33" s="0"/>
-      <c r="SF33" s="0"/>
-      <c r="SG33" s="0"/>
-      <c r="SH33" s="0"/>
-      <c r="SI33" s="0"/>
-      <c r="SJ33" s="0"/>
-      <c r="SK33" s="0"/>
-      <c r="SL33" s="0"/>
-      <c r="SM33" s="0"/>
-      <c r="SN33" s="0"/>
-      <c r="SO33" s="0"/>
-      <c r="SP33" s="0"/>
-      <c r="SQ33" s="0"/>
-      <c r="SR33" s="0"/>
-      <c r="SS33" s="0"/>
-      <c r="ST33" s="0"/>
-      <c r="SU33" s="0"/>
-      <c r="SV33" s="0"/>
-      <c r="SW33" s="0"/>
-      <c r="SX33" s="0"/>
-      <c r="SY33" s="0"/>
-      <c r="SZ33" s="0"/>
-      <c r="TA33" s="0"/>
-      <c r="TB33" s="0"/>
-      <c r="TC33" s="0"/>
-      <c r="TD33" s="0"/>
-      <c r="TE33" s="0"/>
-      <c r="TF33" s="0"/>
-      <c r="TG33" s="0"/>
-      <c r="TH33" s="0"/>
-      <c r="TI33" s="0"/>
-      <c r="TJ33" s="0"/>
-      <c r="TK33" s="0"/>
-      <c r="TL33" s="0"/>
-      <c r="TM33" s="0"/>
-      <c r="TN33" s="0"/>
-      <c r="TO33" s="0"/>
-      <c r="TP33" s="0"/>
-      <c r="TQ33" s="0"/>
-      <c r="TR33" s="0"/>
-      <c r="TS33" s="0"/>
-      <c r="TT33" s="0"/>
-      <c r="TU33" s="0"/>
-      <c r="TV33" s="0"/>
-      <c r="TW33" s="0"/>
-      <c r="TX33" s="0"/>
-      <c r="TY33" s="0"/>
-      <c r="TZ33" s="0"/>
-      <c r="UA33" s="0"/>
-      <c r="UB33" s="0"/>
-      <c r="UC33" s="0"/>
-      <c r="UD33" s="0"/>
-      <c r="UE33" s="0"/>
-      <c r="UF33" s="0"/>
-      <c r="UG33" s="0"/>
-      <c r="UH33" s="0"/>
-      <c r="UI33" s="0"/>
-      <c r="UJ33" s="0"/>
-      <c r="UK33" s="0"/>
-      <c r="UL33" s="0"/>
-      <c r="UM33" s="0"/>
-      <c r="UN33" s="0"/>
-      <c r="UO33" s="0"/>
-      <c r="UP33" s="0"/>
-      <c r="UQ33" s="0"/>
-      <c r="UR33" s="0"/>
-      <c r="US33" s="0"/>
-      <c r="UT33" s="0"/>
-      <c r="UU33" s="0"/>
-      <c r="UV33" s="0"/>
-      <c r="UW33" s="0"/>
-      <c r="UX33" s="0"/>
-      <c r="UY33" s="0"/>
-      <c r="UZ33" s="0"/>
-      <c r="VA33" s="0"/>
-      <c r="VB33" s="0"/>
-      <c r="VC33" s="0"/>
-      <c r="VD33" s="0"/>
-      <c r="VE33" s="0"/>
-      <c r="VF33" s="0"/>
-      <c r="VG33" s="0"/>
-      <c r="VH33" s="0"/>
-      <c r="VI33" s="0"/>
-      <c r="VJ33" s="0"/>
-      <c r="VK33" s="0"/>
-      <c r="VL33" s="0"/>
-      <c r="VM33" s="0"/>
-      <c r="VN33" s="0"/>
-      <c r="VO33" s="0"/>
-      <c r="VP33" s="0"/>
-      <c r="VQ33" s="0"/>
-      <c r="VR33" s="0"/>
-      <c r="VS33" s="0"/>
-      <c r="VT33" s="0"/>
-      <c r="VU33" s="0"/>
-      <c r="VV33" s="0"/>
-      <c r="VW33" s="0"/>
-      <c r="VX33" s="0"/>
-      <c r="VY33" s="0"/>
-      <c r="VZ33" s="0"/>
-      <c r="WA33" s="0"/>
-      <c r="WB33" s="0"/>
-      <c r="WC33" s="0"/>
-      <c r="WD33" s="0"/>
-      <c r="WE33" s="0"/>
-      <c r="WF33" s="0"/>
-      <c r="WG33" s="0"/>
-      <c r="WH33" s="0"/>
-      <c r="WI33" s="0"/>
-      <c r="WJ33" s="0"/>
-      <c r="WK33" s="0"/>
-      <c r="WL33" s="0"/>
-      <c r="WM33" s="0"/>
-      <c r="WN33" s="0"/>
-      <c r="WO33" s="0"/>
-      <c r="WP33" s="0"/>
-      <c r="WQ33" s="0"/>
-      <c r="WR33" s="0"/>
-      <c r="WS33" s="0"/>
-      <c r="WT33" s="0"/>
-      <c r="WU33" s="0"/>
-      <c r="WV33" s="0"/>
-      <c r="WW33" s="0"/>
-      <c r="WX33" s="0"/>
-      <c r="WY33" s="0"/>
-      <c r="WZ33" s="0"/>
-      <c r="XA33" s="0"/>
-      <c r="XB33" s="0"/>
-      <c r="XC33" s="0"/>
-      <c r="XD33" s="0"/>
-      <c r="XE33" s="0"/>
-      <c r="XF33" s="0"/>
-      <c r="XG33" s="0"/>
-      <c r="XH33" s="0"/>
-      <c r="XI33" s="0"/>
-      <c r="XJ33" s="0"/>
-      <c r="XK33" s="0"/>
-      <c r="XL33" s="0"/>
-      <c r="XM33" s="0"/>
-      <c r="XN33" s="0"/>
-      <c r="XO33" s="0"/>
-      <c r="XP33" s="0"/>
-      <c r="XQ33" s="0"/>
-      <c r="XR33" s="0"/>
-      <c r="XS33" s="0"/>
-      <c r="XT33" s="0"/>
-      <c r="XU33" s="0"/>
-      <c r="XV33" s="0"/>
-      <c r="XW33" s="0"/>
-      <c r="XX33" s="0"/>
-      <c r="XY33" s="0"/>
-      <c r="XZ33" s="0"/>
-      <c r="YA33" s="0"/>
-      <c r="YB33" s="0"/>
-      <c r="YC33" s="0"/>
-      <c r="YD33" s="0"/>
-      <c r="YE33" s="0"/>
-      <c r="YF33" s="0"/>
-      <c r="YG33" s="0"/>
-      <c r="YH33" s="0"/>
-      <c r="YI33" s="0"/>
-      <c r="YJ33" s="0"/>
-      <c r="YK33" s="0"/>
-      <c r="YL33" s="0"/>
-      <c r="YM33" s="0"/>
-      <c r="YN33" s="0"/>
-      <c r="YO33" s="0"/>
-      <c r="YP33" s="0"/>
-      <c r="YQ33" s="0"/>
-      <c r="YR33" s="0"/>
-      <c r="YS33" s="0"/>
-      <c r="YT33" s="0"/>
-      <c r="YU33" s="0"/>
-      <c r="YV33" s="0"/>
-      <c r="YW33" s="0"/>
-      <c r="YX33" s="0"/>
-      <c r="YY33" s="0"/>
-      <c r="YZ33" s="0"/>
-      <c r="ZA33" s="0"/>
-      <c r="ZB33" s="0"/>
-      <c r="ZC33" s="0"/>
-      <c r="ZD33" s="0"/>
-      <c r="ZE33" s="0"/>
-      <c r="ZF33" s="0"/>
-      <c r="ZG33" s="0"/>
-      <c r="ZH33" s="0"/>
-      <c r="ZI33" s="0"/>
-      <c r="ZJ33" s="0"/>
-      <c r="ZK33" s="0"/>
-      <c r="ZL33" s="0"/>
-      <c r="ZM33" s="0"/>
-      <c r="ZN33" s="0"/>
-      <c r="ZO33" s="0"/>
-      <c r="ZP33" s="0"/>
-      <c r="ZQ33" s="0"/>
-      <c r="ZR33" s="0"/>
-      <c r="ZS33" s="0"/>
-      <c r="ZT33" s="0"/>
-      <c r="ZU33" s="0"/>
-      <c r="ZV33" s="0"/>
-      <c r="ZW33" s="0"/>
-      <c r="ZX33" s="0"/>
-      <c r="ZY33" s="0"/>
-      <c r="ZZ33" s="0"/>
-      <c r="AAA33" s="0"/>
-      <c r="AAB33" s="0"/>
-      <c r="AAC33" s="0"/>
-      <c r="AAD33" s="0"/>
-      <c r="AAE33" s="0"/>
-      <c r="AAF33" s="0"/>
-      <c r="AAG33" s="0"/>
-      <c r="AAH33" s="0"/>
-      <c r="AAI33" s="0"/>
-      <c r="AAJ33" s="0"/>
-      <c r="AAK33" s="0"/>
-      <c r="AAL33" s="0"/>
-      <c r="AAM33" s="0"/>
-      <c r="AAN33" s="0"/>
-      <c r="AAO33" s="0"/>
-      <c r="AAP33" s="0"/>
-      <c r="AAQ33" s="0"/>
-      <c r="AAR33" s="0"/>
-      <c r="AAS33" s="0"/>
-      <c r="AAT33" s="0"/>
-      <c r="AAU33" s="0"/>
-      <c r="AAV33" s="0"/>
-      <c r="AAW33" s="0"/>
-      <c r="AAX33" s="0"/>
-      <c r="AAY33" s="0"/>
-      <c r="AAZ33" s="0"/>
-      <c r="ABA33" s="0"/>
-      <c r="ABB33" s="0"/>
-      <c r="ABC33" s="0"/>
-      <c r="ABD33" s="0"/>
-      <c r="ABE33" s="0"/>
-      <c r="ABF33" s="0"/>
-      <c r="ABG33" s="0"/>
-      <c r="ABH33" s="0"/>
-      <c r="ABI33" s="0"/>
-      <c r="ABJ33" s="0"/>
-      <c r="ABK33" s="0"/>
-      <c r="ABL33" s="0"/>
-      <c r="ABM33" s="0"/>
-      <c r="ABN33" s="0"/>
-      <c r="ABO33" s="0"/>
-      <c r="ABP33" s="0"/>
-      <c r="ABQ33" s="0"/>
-      <c r="ABR33" s="0"/>
-      <c r="ABS33" s="0"/>
-      <c r="ABT33" s="0"/>
-      <c r="ABU33" s="0"/>
-      <c r="ABV33" s="0"/>
-      <c r="ABW33" s="0"/>
-      <c r="ABX33" s="0"/>
-      <c r="ABY33" s="0"/>
-      <c r="ABZ33" s="0"/>
-      <c r="ACA33" s="0"/>
-      <c r="ACB33" s="0"/>
-      <c r="ACC33" s="0"/>
-      <c r="ACD33" s="0"/>
-      <c r="ACE33" s="0"/>
-      <c r="ACF33" s="0"/>
-      <c r="ACG33" s="0"/>
-      <c r="ACH33" s="0"/>
-      <c r="ACI33" s="0"/>
-      <c r="ACJ33" s="0"/>
-      <c r="ACK33" s="0"/>
-      <c r="ACL33" s="0"/>
-      <c r="ACM33" s="0"/>
-      <c r="ACN33" s="0"/>
-      <c r="ACO33" s="0"/>
-      <c r="ACP33" s="0"/>
-      <c r="ACQ33" s="0"/>
-      <c r="ACR33" s="0"/>
-      <c r="ACS33" s="0"/>
-      <c r="ACT33" s="0"/>
-      <c r="ACU33" s="0"/>
-      <c r="ACV33" s="0"/>
-      <c r="ACW33" s="0"/>
-      <c r="ACX33" s="0"/>
-      <c r="ACY33" s="0"/>
-      <c r="ACZ33" s="0"/>
-      <c r="ADA33" s="0"/>
-      <c r="ADB33" s="0"/>
-      <c r="ADC33" s="0"/>
-      <c r="ADD33" s="0"/>
-      <c r="ADE33" s="0"/>
-      <c r="ADF33" s="0"/>
-      <c r="ADG33" s="0"/>
-      <c r="ADH33" s="0"/>
-      <c r="ADI33" s="0"/>
-      <c r="ADJ33" s="0"/>
-      <c r="ADK33" s="0"/>
-      <c r="ADL33" s="0"/>
-      <c r="ADM33" s="0"/>
-      <c r="ADN33" s="0"/>
-      <c r="ADO33" s="0"/>
-      <c r="ADP33" s="0"/>
-      <c r="ADQ33" s="0"/>
-      <c r="ADR33" s="0"/>
-      <c r="ADS33" s="0"/>
-      <c r="ADT33" s="0"/>
-      <c r="ADU33" s="0"/>
-      <c r="ADV33" s="0"/>
-      <c r="ADW33" s="0"/>
-      <c r="ADX33" s="0"/>
-      <c r="ADY33" s="0"/>
-      <c r="ADZ33" s="0"/>
-      <c r="AEA33" s="0"/>
-      <c r="AEB33" s="0"/>
-      <c r="AEC33" s="0"/>
-      <c r="AED33" s="0"/>
-      <c r="AEE33" s="0"/>
-      <c r="AEF33" s="0"/>
-      <c r="AEG33" s="0"/>
-      <c r="AEH33" s="0"/>
-      <c r="AEI33" s="0"/>
-      <c r="AEJ33" s="0"/>
-      <c r="AEK33" s="0"/>
-      <c r="AEL33" s="0"/>
-      <c r="AEM33" s="0"/>
-      <c r="AEN33" s="0"/>
-      <c r="AEO33" s="0"/>
-      <c r="AEP33" s="0"/>
-      <c r="AEQ33" s="0"/>
-      <c r="AER33" s="0"/>
-      <c r="AES33" s="0"/>
-      <c r="AET33" s="0"/>
-      <c r="AEU33" s="0"/>
-      <c r="AEV33" s="0"/>
-      <c r="AEW33" s="0"/>
-      <c r="AEX33" s="0"/>
-      <c r="AEY33" s="0"/>
-      <c r="AEZ33" s="0"/>
-      <c r="AFA33" s="0"/>
-      <c r="AFB33" s="0"/>
-      <c r="AFC33" s="0"/>
-      <c r="AFD33" s="0"/>
-      <c r="AFE33" s="0"/>
-      <c r="AFF33" s="0"/>
-      <c r="AFG33" s="0"/>
-      <c r="AFH33" s="0"/>
-      <c r="AFI33" s="0"/>
-      <c r="AFJ33" s="0"/>
-      <c r="AFK33" s="0"/>
-      <c r="AFL33" s="0"/>
-      <c r="AFM33" s="0"/>
-      <c r="AFN33" s="0"/>
-      <c r="AFO33" s="0"/>
-      <c r="AFP33" s="0"/>
-      <c r="AFQ33" s="0"/>
-      <c r="AFR33" s="0"/>
-      <c r="AFS33" s="0"/>
-      <c r="AFT33" s="0"/>
-      <c r="AFU33" s="0"/>
-      <c r="AFV33" s="0"/>
-      <c r="AFW33" s="0"/>
-      <c r="AFX33" s="0"/>
-      <c r="AFY33" s="0"/>
-      <c r="AFZ33" s="0"/>
-      <c r="AGA33" s="0"/>
-      <c r="AGB33" s="0"/>
-      <c r="AGC33" s="0"/>
-      <c r="AGD33" s="0"/>
-      <c r="AGE33" s="0"/>
-      <c r="AGF33" s="0"/>
-      <c r="AGG33" s="0"/>
-      <c r="AGH33" s="0"/>
-      <c r="AGI33" s="0"/>
-      <c r="AGJ33" s="0"/>
-      <c r="AGK33" s="0"/>
-      <c r="AGL33" s="0"/>
-      <c r="AGM33" s="0"/>
-      <c r="AGN33" s="0"/>
-      <c r="AGO33" s="0"/>
-      <c r="AGP33" s="0"/>
-      <c r="AGQ33" s="0"/>
-      <c r="AGR33" s="0"/>
-      <c r="AGS33" s="0"/>
-      <c r="AGT33" s="0"/>
-      <c r="AGU33" s="0"/>
-      <c r="AGV33" s="0"/>
-      <c r="AGW33" s="0"/>
-      <c r="AGX33" s="0"/>
-      <c r="AGY33" s="0"/>
-      <c r="AGZ33" s="0"/>
-      <c r="AHA33" s="0"/>
-      <c r="AHB33" s="0"/>
-      <c r="AHC33" s="0"/>
-      <c r="AHD33" s="0"/>
-      <c r="AHE33" s="0"/>
-      <c r="AHF33" s="0"/>
-      <c r="AHG33" s="0"/>
-      <c r="AHH33" s="0"/>
-      <c r="AHI33" s="0"/>
-      <c r="AHJ33" s="0"/>
-      <c r="AHK33" s="0"/>
-      <c r="AHL33" s="0"/>
-      <c r="AHM33" s="0"/>
-      <c r="AHN33" s="0"/>
-      <c r="AHO33" s="0"/>
-      <c r="AHP33" s="0"/>
-      <c r="AHQ33" s="0"/>
-      <c r="AHR33" s="0"/>
-      <c r="AHS33" s="0"/>
-      <c r="AHT33" s="0"/>
-      <c r="AHU33" s="0"/>
-      <c r="AHV33" s="0"/>
-      <c r="AHW33" s="0"/>
-      <c r="AHX33" s="0"/>
-      <c r="AHY33" s="0"/>
-      <c r="AHZ33" s="0"/>
-      <c r="AIA33" s="0"/>
-      <c r="AIB33" s="0"/>
-      <c r="AIC33" s="0"/>
-      <c r="AID33" s="0"/>
-      <c r="AIE33" s="0"/>
-      <c r="AIF33" s="0"/>
-      <c r="AIG33" s="0"/>
-      <c r="AIH33" s="0"/>
-      <c r="AII33" s="0"/>
-      <c r="AIJ33" s="0"/>
-      <c r="AIK33" s="0"/>
-      <c r="AIL33" s="0"/>
-      <c r="AIM33" s="0"/>
-      <c r="AIN33" s="0"/>
-      <c r="AIO33" s="0"/>
-      <c r="AIP33" s="0"/>
-      <c r="AIQ33" s="0"/>
-      <c r="AIR33" s="0"/>
-      <c r="AIS33" s="0"/>
-      <c r="AIT33" s="0"/>
-      <c r="AIU33" s="0"/>
-      <c r="AIV33" s="0"/>
-      <c r="AIW33" s="0"/>
-      <c r="AIX33" s="0"/>
-      <c r="AIY33" s="0"/>
-      <c r="AIZ33" s="0"/>
-      <c r="AJA33" s="0"/>
-      <c r="AJB33" s="0"/>
-      <c r="AJC33" s="0"/>
-      <c r="AJD33" s="0"/>
-      <c r="AJE33" s="0"/>
-      <c r="AJF33" s="0"/>
-      <c r="AJG33" s="0"/>
-      <c r="AJH33" s="0"/>
-      <c r="AJI33" s="0"/>
-      <c r="AJJ33" s="0"/>
-      <c r="AJK33" s="0"/>
-      <c r="AJL33" s="0"/>
-      <c r="AJM33" s="0"/>
-      <c r="AJN33" s="0"/>
-      <c r="AJO33" s="0"/>
-      <c r="AJP33" s="0"/>
-      <c r="AJQ33" s="0"/>
-      <c r="AJR33" s="0"/>
-      <c r="AJS33" s="0"/>
-      <c r="AJT33" s="0"/>
-      <c r="AJU33" s="0"/>
-      <c r="AJV33" s="0"/>
-      <c r="AJW33" s="0"/>
-      <c r="AJX33" s="0"/>
-      <c r="AJY33" s="0"/>
-      <c r="AJZ33" s="0"/>
-      <c r="AKA33" s="0"/>
-      <c r="AKB33" s="0"/>
-      <c r="AKC33" s="0"/>
-      <c r="AKD33" s="0"/>
-      <c r="AKE33" s="0"/>
-      <c r="AKF33" s="0"/>
-      <c r="AKG33" s="0"/>
-      <c r="AKH33" s="0"/>
-      <c r="AKI33" s="0"/>
-      <c r="AKJ33" s="0"/>
-      <c r="AKK33" s="0"/>
-      <c r="AKL33" s="0"/>
-      <c r="AKM33" s="0"/>
-      <c r="AKN33" s="0"/>
-      <c r="AKO33" s="0"/>
-      <c r="AKP33" s="0"/>
-      <c r="AKQ33" s="0"/>
-      <c r="AKR33" s="0"/>
-      <c r="AKS33" s="0"/>
-      <c r="AKT33" s="0"/>
-      <c r="AKU33" s="0"/>
-      <c r="AKV33" s="0"/>
-      <c r="AKW33" s="0"/>
-      <c r="AKX33" s="0"/>
-      <c r="AKY33" s="0"/>
-      <c r="AKZ33" s="0"/>
-      <c r="ALA33" s="0"/>
-      <c r="ALB33" s="0"/>
-      <c r="ALC33" s="0"/>
-      <c r="ALD33" s="0"/>
-      <c r="ALE33" s="0"/>
-      <c r="ALF33" s="0"/>
-      <c r="ALG33" s="0"/>
-      <c r="ALH33" s="0"/>
-      <c r="ALI33" s="0"/>
-      <c r="ALJ33" s="0"/>
-      <c r="ALK33" s="0"/>
-      <c r="ALL33" s="0"/>
-      <c r="ALM33" s="0"/>
-      <c r="ALN33" s="0"/>
-      <c r="ALO33" s="0"/>
-      <c r="ALP33" s="0"/>
-      <c r="ALQ33" s="0"/>
-      <c r="ALR33" s="0"/>
-      <c r="ALS33" s="0"/>
-      <c r="ALT33" s="0"/>
-      <c r="ALU33" s="0"/>
-      <c r="ALV33" s="0"/>
-      <c r="ALW33" s="0"/>
-      <c r="ALX33" s="0"/>
-      <c r="ALY33" s="0"/>
-      <c r="ALZ33" s="0"/>
-      <c r="AMA33" s="0"/>
-      <c r="AMB33" s="0"/>
-      <c r="AMC33" s="0"/>
-      <c r="AMD33" s="0"/>
-      <c r="AME33" s="0"/>
-      <c r="AMF33" s="0"/>
-      <c r="AMG33" s="0"/>
-      <c r="AMH33" s="0"/>
-      <c r="AMI33" s="0"/>
-      <c r="AMJ33" s="0"/>
+      <c r="Q33" s="69" t="s">
+        <v>247</v>
+      </c>
+      <c r="R33" s="69" t="s">
+        <v>248</v>
+      </c>
+      <c r="S33" s="69"/>
+      <c r="T33" s="69" t="s">
+        <v>210</v>
+      </c>
+      <c r="U33" s="69"/>
+      <c r="V33" s="68"/>
+      <c r="W33" s="68"/>
+      <c r="X33" s="68"/>
     </row>
     <row r="34" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="57" t="n">
-        <v>62132</v>
-      </c>
-      <c r="B34" s="58" t="n">
+      <c r="A34" s="67" t="n">
+        <v>62069</v>
+      </c>
+      <c r="B34" s="68" t="n">
         <v>1</v>
       </c>
-      <c r="C34" s="59" t="s">
-        <v>245</v>
-      </c>
-      <c r="D34" s="59" t="s">
-        <v>246</v>
-      </c>
-      <c r="E34" s="59" t="s">
-        <v>145</v>
-      </c>
-      <c r="F34" s="58" t="s">
-        <v>247</v>
-      </c>
-      <c r="G34" s="58" t="s">
-        <v>248</v>
-      </c>
-      <c r="H34" s="60" t="n">
-        <v>41337</v>
-      </c>
-      <c r="I34" s="60" t="n">
-        <v>41337</v>
-      </c>
-      <c r="J34" s="60" t="n">
-        <v>43162</v>
-      </c>
-      <c r="K34" s="61" t="n">
-        <v>1</v>
-      </c>
-      <c r="L34" s="58" t="s">
-        <v>212</v>
-      </c>
-      <c r="M34" s="58" t="s">
+      <c r="C34" s="69" t="s">
         <v>249</v>
       </c>
-      <c r="N34" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="O34" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="P34" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q34" s="59" t="s">
+      <c r="D34" s="69" t="s">
         <v>250</v>
       </c>
-      <c r="R34" s="59" t="s">
+      <c r="E34" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="68" t="s">
         <v>251</v>
       </c>
-      <c r="S34" s="59"/>
-      <c r="T34" s="59" t="s">
+      <c r="G34" s="68" t="s">
         <v>252</v>
       </c>
-      <c r="U34" s="59"/>
-      <c r="V34" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="W34" s="58"/>
-      <c r="X34" s="58"/>
+      <c r="H34" s="70" t="n">
+        <v>40610</v>
+      </c>
+      <c r="I34" s="70" t="n">
+        <v>40610</v>
+      </c>
+      <c r="J34" s="70" t="n">
+        <v>44262</v>
+      </c>
+      <c r="K34" s="71" t="n">
+        <v>8</v>
+      </c>
+      <c r="L34" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="M34" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="N34" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="O34" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="P34" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q34" s="69" t="s">
+        <v>253</v>
+      </c>
+      <c r="R34" s="69" t="s">
+        <v>254</v>
+      </c>
+      <c r="S34" s="69"/>
+      <c r="T34" s="69" t="s">
+        <v>255</v>
+      </c>
+      <c r="U34" s="69"/>
+      <c r="V34" s="68"/>
+      <c r="W34" s="68"/>
+      <c r="X34" s="68"/>
       <c r="Z34" s="0"/>
       <c r="AA34" s="0"/>
       <c r="AB34" s="0"/>
@@ -13706,68 +13766,70 @@
       <c r="AMJ34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="37" t="n">
-        <v>65856</v>
-      </c>
-      <c r="B35" s="44" t="n">
+      <c r="A35" s="67" t="n">
+        <v>62132</v>
+      </c>
+      <c r="B35" s="68" t="n">
         <v>1</v>
       </c>
-      <c r="C35" s="39" t="s">
-        <v>253</v>
-      </c>
-      <c r="D35" s="39" t="s">
-        <v>254</v>
-      </c>
-      <c r="E35" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="F35" s="40" t="s">
-        <v>255</v>
-      </c>
-      <c r="G35" s="40" t="s">
+      <c r="C35" s="69" t="s">
         <v>256</v>
       </c>
-      <c r="H35" s="41" t="n">
-        <v>42404</v>
-      </c>
-      <c r="I35" s="41" t="n">
-        <v>42404</v>
-      </c>
-      <c r="J35" s="42" t="n">
-        <v>44230</v>
-      </c>
-      <c r="K35" s="45" t="n">
+      <c r="D35" s="69" t="s">
+        <v>257</v>
+      </c>
+      <c r="E35" s="69" t="s">
+        <v>156</v>
+      </c>
+      <c r="F35" s="68" t="s">
+        <v>258</v>
+      </c>
+      <c r="G35" s="68" t="s">
+        <v>259</v>
+      </c>
+      <c r="H35" s="70" t="n">
+        <v>41337</v>
+      </c>
+      <c r="I35" s="70" t="n">
+        <v>41337</v>
+      </c>
+      <c r="J35" s="70" t="n">
+        <v>43162</v>
+      </c>
+      <c r="K35" s="71" t="n">
         <v>1</v>
       </c>
-      <c r="L35" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="M35" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="N35" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="O35" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="P35" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q35" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="R35" s="39" t="s">
-        <v>258</v>
-      </c>
-      <c r="S35" s="39"/>
-      <c r="T35" s="39" t="s">
-        <v>259</v>
-      </c>
-      <c r="U35" s="39"/>
-      <c r="V35" s="40"/>
-      <c r="W35" s="39"/>
-      <c r="X35" s="40"/>
+      <c r="L35" s="68" t="s">
+        <v>223</v>
+      </c>
+      <c r="M35" s="68" t="s">
+        <v>260</v>
+      </c>
+      <c r="N35" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="O35" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="P35" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q35" s="69" t="s">
+        <v>261</v>
+      </c>
+      <c r="R35" s="69" t="s">
+        <v>262</v>
+      </c>
+      <c r="S35" s="69"/>
+      <c r="T35" s="69" t="s">
+        <v>263</v>
+      </c>
+      <c r="U35" s="69"/>
+      <c r="V35" s="68" t="s">
+        <v>164</v>
+      </c>
+      <c r="W35" s="68"/>
+      <c r="X35" s="68"/>
       <c r="Z35" s="0"/>
       <c r="AA35" s="0"/>
       <c r="AB35" s="0"/>
@@ -14768,64 +14830,64 @@
       <c r="AMI35" s="0"/>
       <c r="AMJ35" s="0"/>
     </row>
-    <row r="36" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="37" t="n">
-        <v>65857</v>
+        <v>65856</v>
       </c>
       <c r="B36" s="44" t="n">
         <v>1</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="E36" s="40" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F36" s="40" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="G36" s="40" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="H36" s="41" t="n">
-        <v>42929</v>
+        <v>42404</v>
       </c>
       <c r="I36" s="41" t="n">
-        <v>42929</v>
+        <v>42404</v>
       </c>
       <c r="J36" s="42" t="n">
-        <v>44754</v>
+        <v>44230</v>
       </c>
       <c r="K36" s="45" t="n">
         <v>1</v>
       </c>
       <c r="L36" s="37" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
       <c r="M36" s="39" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="N36" s="40" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="O36" s="40" t="s">
-        <v>261</v>
+        <v>80</v>
       </c>
       <c r="P36" s="40" t="s">
-        <v>261</v>
+        <v>80</v>
       </c>
       <c r="Q36" s="39" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="R36" s="39" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="S36" s="39"/>
       <c r="T36" s="39" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="U36" s="39"/>
       <c r="V36" s="40"/>
@@ -15839,19 +15901,19 @@
         <v>1</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="D37" s="39" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="E37" s="40" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F37" s="40" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="G37" s="40" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="H37" s="41" t="n">
         <v>42929</v>
@@ -15863,32 +15925,32 @@
         <v>44754</v>
       </c>
       <c r="K37" s="45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L37" s="37" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="M37" s="39" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="N37" s="40" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="O37" s="40" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="P37" s="40" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="Q37" s="39" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="R37" s="39" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="S37" s="39"/>
       <c r="T37" s="39" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="U37" s="39"/>
       <c r="V37" s="40"/>
@@ -16894,64 +16956,64 @@
       <c r="AMI37" s="0"/>
       <c r="AMJ37" s="0"/>
     </row>
-    <row r="38" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="37" t="n">
-        <v>55674</v>
+        <v>65857</v>
       </c>
       <c r="B38" s="44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="D38" s="39" t="s">
         <v>265</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F38" s="40" t="s">
-        <v>201</v>
+        <v>266</v>
       </c>
       <c r="G38" s="40" t="s">
-        <v>202</v>
+        <v>267</v>
       </c>
       <c r="H38" s="41" t="n">
-        <v>37321</v>
+        <v>42929</v>
       </c>
       <c r="I38" s="41" t="n">
-        <v>37321</v>
+        <v>42929</v>
       </c>
       <c r="J38" s="42" t="n">
-        <v>44624</v>
+        <v>44754</v>
       </c>
       <c r="K38" s="45" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L38" s="37" t="s">
-        <v>203</v>
+        <v>274</v>
       </c>
       <c r="M38" s="39" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="N38" s="40" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="O38" s="40" t="s">
-        <v>131</v>
+        <v>272</v>
       </c>
       <c r="P38" s="40" t="s">
-        <v>131</v>
+        <v>272</v>
       </c>
       <c r="Q38" s="39" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
       <c r="R38" s="39" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="S38" s="39"/>
       <c r="T38" s="39" t="s">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="U38" s="39"/>
       <c r="V38" s="40"/>
@@ -17957,64 +18019,64 @@
       <c r="AMI38" s="0"/>
       <c r="AMJ38" s="0"/>
     </row>
-    <row r="39" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="37" t="n">
-        <v>43454</v>
+        <v>55674</v>
       </c>
       <c r="B39" s="44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>118</v>
+        <v>275</v>
       </c>
       <c r="D39" s="39" t="s">
-        <v>73</v>
+        <v>276</v>
       </c>
       <c r="E39" s="40" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="F39" s="40" t="s">
-        <v>120</v>
+        <v>212</v>
       </c>
       <c r="G39" s="40" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="H39" s="41" t="n">
-        <v>29650</v>
+        <v>37321</v>
       </c>
       <c r="I39" s="41" t="n">
-        <v>29650</v>
+        <v>37321</v>
       </c>
       <c r="J39" s="42" t="n">
-        <v>43905</v>
+        <v>44624</v>
       </c>
       <c r="K39" s="45" t="n">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="L39" s="37" t="s">
-        <v>267</v>
+        <v>214</v>
       </c>
       <c r="M39" s="39" t="s">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="N39" s="40" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="O39" s="40" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="P39" s="40" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="Q39" s="39" t="s">
-        <v>123</v>
+        <v>216</v>
       </c>
       <c r="R39" s="39" t="s">
-        <v>124</v>
+        <v>277</v>
       </c>
       <c r="S39" s="39"/>
       <c r="T39" s="39" t="s">
-        <v>125</v>
+        <v>218</v>
       </c>
       <c r="U39" s="39"/>
       <c r="V39" s="40"/>
@@ -19020,64 +19082,64 @@
       <c r="AMI39" s="0"/>
       <c r="AMJ39" s="0"/>
     </row>
-    <row r="40" customFormat="false" ht="639.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="37" t="n">
-        <v>61186</v>
+        <v>43454</v>
       </c>
       <c r="B40" s="44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>268</v>
+        <v>129</v>
       </c>
       <c r="D40" s="39" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="F40" s="40" t="s">
-        <v>194</v>
+        <v>131</v>
       </c>
       <c r="G40" s="40" t="s">
-        <v>195</v>
+        <v>132</v>
       </c>
       <c r="H40" s="41" t="n">
-        <v>40522</v>
+        <v>29650</v>
       </c>
       <c r="I40" s="41" t="n">
-        <v>40522</v>
+        <v>29650</v>
       </c>
       <c r="J40" s="42" t="n">
-        <v>44174</v>
+        <v>43905</v>
       </c>
       <c r="K40" s="45" t="n">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="L40" s="37" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="M40" s="39" t="s">
-        <v>235</v>
+        <v>89</v>
       </c>
       <c r="N40" s="40" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="O40" s="40" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="P40" s="40" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="Q40" s="39" t="s">
-        <v>236</v>
+        <v>134</v>
       </c>
       <c r="R40" s="39" t="s">
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="S40" s="39"/>
       <c r="T40" s="39" t="s">
-        <v>199</v>
+        <v>136</v>
       </c>
       <c r="U40" s="39"/>
       <c r="V40" s="40"/>
@@ -20083,64 +20145,64 @@
       <c r="AMI40" s="0"/>
       <c r="AMJ40" s="0"/>
     </row>
-    <row r="41" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="639.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="37" t="n">
-        <v>58734</v>
+        <v>61186</v>
       </c>
       <c r="B41" s="44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>272</v>
+        <v>147</v>
       </c>
       <c r="E41" s="40" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F41" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="G41" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="H41" s="41" t="n">
+        <v>40522</v>
+      </c>
+      <c r="I41" s="41" t="n">
+        <v>40522</v>
+      </c>
+      <c r="J41" s="42" t="n">
+        <v>44174</v>
+      </c>
+      <c r="K41" s="45" t="n">
+        <v>4</v>
+      </c>
+      <c r="L41" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="M41" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="N41" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="O41" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="P41" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q41" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="G41" s="40" t="s">
-        <v>273</v>
-      </c>
-      <c r="H41" s="41" t="n">
-        <v>39848</v>
-      </c>
-      <c r="I41" s="41" t="n">
-        <v>39848</v>
-      </c>
-      <c r="J41" s="42" t="n">
-        <v>43499</v>
-      </c>
-      <c r="K41" s="45" t="n">
-        <v>1</v>
-      </c>
-      <c r="L41" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="M41" s="39" t="s">
-        <v>249</v>
-      </c>
-      <c r="N41" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="O41" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="P41" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q41" s="39" t="s">
-        <v>274</v>
-      </c>
       <c r="R41" s="39" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="S41" s="39"/>
       <c r="T41" s="39" t="s">
-        <v>276</v>
+        <v>210</v>
       </c>
       <c r="U41" s="39"/>
       <c r="V41" s="40"/>
@@ -21146,71 +21208,69 @@
       <c r="AMI41" s="0"/>
       <c r="AMJ41" s="0"/>
     </row>
-    <row r="42" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="37" t="n">
-        <v>55561</v>
+        <v>58734</v>
       </c>
       <c r="B42" s="44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D42" s="39" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="E42" s="40" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F42" s="40" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="G42" s="40" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H42" s="41" t="n">
-        <v>37232</v>
+        <v>39848</v>
       </c>
       <c r="I42" s="41" t="n">
-        <v>37232</v>
+        <v>39848</v>
       </c>
       <c r="J42" s="42" t="n">
-        <v>43732</v>
+        <v>43499</v>
       </c>
       <c r="K42" s="45" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L42" s="37" t="s">
-        <v>281</v>
+        <v>223</v>
       </c>
       <c r="M42" s="39" t="s">
-        <v>86</v>
+        <v>260</v>
       </c>
       <c r="N42" s="40" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="O42" s="40" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="P42" s="40" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="Q42" s="39" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="R42" s="39" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="S42" s="39"/>
       <c r="T42" s="39" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="U42" s="39"/>
       <c r="V42" s="40"/>
       <c r="W42" s="39"/>
-      <c r="X42" s="40" t="s">
-        <v>285</v>
-      </c>
+      <c r="X42" s="40"/>
       <c r="Z42" s="0"/>
       <c r="AA42" s="0"/>
       <c r="AB42" s="0"/>
@@ -22211,69 +22271,71 @@
       <c r="AMI42" s="0"/>
       <c r="AMJ42" s="0"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
-        <v>65160</v>
+    <row r="43" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="37" t="n">
+        <v>55561</v>
       </c>
       <c r="B43" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="F43" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="G43" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="H43" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="39" t="s">
         <v>288</v>
       </c>
-      <c r="I43" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="J43" s="0" t="s">
+      <c r="D43" s="39" t="s">
         <v>289</v>
       </c>
-      <c r="K43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L43" s="0" t="s">
+      <c r="E43" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="F43" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="G43" s="40" t="s">
         <v>290</v>
       </c>
-      <c r="M43" s="0" t="s">
+      <c r="H43" s="41" t="n">
+        <v>37232</v>
+      </c>
+      <c r="I43" s="41" t="n">
+        <v>37232</v>
+      </c>
+      <c r="J43" s="42" t="n">
+        <v>43732</v>
+      </c>
+      <c r="K43" s="45" t="n">
+        <v>4</v>
+      </c>
+      <c r="L43" s="37" t="s">
         <v>291</v>
       </c>
-      <c r="N43" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="O43" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="P43" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q43" s="0" t="s">
+      <c r="M43" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="N43" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="O43" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="P43" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q43" s="39" t="s">
         <v>292</v>
       </c>
-      <c r="R43" s="0" t="s">
+      <c r="R43" s="39" t="s">
         <v>293</v>
       </c>
-      <c r="S43" s="0"/>
-      <c r="T43" s="0" t="s">
+      <c r="S43" s="39"/>
+      <c r="T43" s="39" t="s">
         <v>294</v>
       </c>
-      <c r="U43" s="0"/>
-      <c r="V43" s="0"/>
-      <c r="W43" s="0"/>
-      <c r="X43" s="0"/>
+      <c r="U43" s="39"/>
+      <c r="V43" s="40"/>
+      <c r="W43" s="39"/>
+      <c r="X43" s="40" t="s">
+        <v>295</v>
+      </c>
       <c r="Z43" s="0"/>
       <c r="AA43" s="0"/>
       <c r="AB43" s="0"/>
@@ -23274,69 +23336,69 @@
       <c r="AMI43" s="0"/>
       <c r="AMJ43" s="0"/>
     </row>
-    <row r="44" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="37" t="n">
-        <v>58158</v>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>65160</v>
       </c>
       <c r="B44" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="C44" s="39" t="s">
-        <v>295</v>
-      </c>
-      <c r="D44" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="E44" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="F44" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="G44" s="40" t="s">
+      <c r="C44" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="H44" s="41" t="n">
-        <v>39296</v>
-      </c>
-      <c r="I44" s="41" t="n">
-        <v>40027</v>
-      </c>
-      <c r="J44" s="42" t="n">
-        <v>44774</v>
-      </c>
-      <c r="K44" s="45" t="n">
+      <c r="D44" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="K44" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L44" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="M44" s="39" t="s">
-        <v>249</v>
-      </c>
-      <c r="N44" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="O44" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="P44" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q44" s="39" t="s">
-        <v>297</v>
-      </c>
-      <c r="R44" s="39" t="s">
-        <v>298</v>
-      </c>
-      <c r="S44" s="39"/>
-      <c r="T44" s="39" t="s">
-        <v>299</v>
-      </c>
-      <c r="U44" s="39"/>
-      <c r="V44" s="40"/>
-      <c r="W44" s="39"/>
-      <c r="X44" s="40"/>
+      <c r="L44" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="M44" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="N44" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="O44" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="P44" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q44" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="R44" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="S44" s="0"/>
+      <c r="T44" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="U44" s="0"/>
+      <c r="V44" s="0"/>
+      <c r="W44" s="0"/>
+      <c r="X44" s="0"/>
       <c r="Z44" s="0"/>
       <c r="AA44" s="0"/>
       <c r="AB44" s="0"/>
@@ -24337,45 +24399,45 @@
       <c r="AMI44" s="0"/>
       <c r="AMJ44" s="0"/>
     </row>
-    <row r="45" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="37" t="n">
-        <v>44447</v>
+        <v>58158</v>
       </c>
       <c r="B45" s="44" t="n">
         <v>1</v>
       </c>
       <c r="C45" s="39" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D45" s="39" t="s">
-        <v>301</v>
+        <v>42</v>
       </c>
       <c r="E45" s="40" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F45" s="40" t="s">
-        <v>302</v>
+        <v>44</v>
       </c>
       <c r="G45" s="40" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H45" s="41" t="n">
-        <v>29980</v>
+        <v>39296</v>
       </c>
       <c r="I45" s="41" t="n">
-        <v>29980</v>
+        <v>40027</v>
       </c>
       <c r="J45" s="42" t="n">
-        <v>43821</v>
+        <v>44774</v>
       </c>
       <c r="K45" s="45" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="L45" s="37" t="s">
-        <v>304</v>
+        <v>223</v>
       </c>
       <c r="M45" s="39" t="s">
-        <v>57</v>
+        <v>260</v>
       </c>
       <c r="N45" s="40" t="s">
         <v>35</v>
@@ -24387,14 +24449,14 @@
         <v>35</v>
       </c>
       <c r="Q45" s="39" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="R45" s="39" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="S45" s="39"/>
       <c r="T45" s="39" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="U45" s="39"/>
       <c r="V45" s="40"/>
@@ -25402,62 +25464,62 @@
     </row>
     <row r="46" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="37" t="n">
-        <v>15219</v>
+        <v>44447</v>
       </c>
       <c r="B46" s="44" t="n">
         <v>1</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>51</v>
+        <v>310</v>
       </c>
       <c r="D46" s="39" t="s">
-        <v>52</v>
+        <v>311</v>
       </c>
       <c r="E46" s="40" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F46" s="40" t="s">
-        <v>54</v>
+        <v>312</v>
       </c>
       <c r="G46" s="40" t="s">
-        <v>55</v>
+        <v>313</v>
       </c>
       <c r="H46" s="41" t="n">
-        <v>18429</v>
+        <v>29980</v>
       </c>
       <c r="I46" s="41" t="n">
-        <v>18429</v>
+        <v>29980</v>
       </c>
       <c r="J46" s="42" t="n">
-        <v>44926</v>
+        <v>43821</v>
       </c>
       <c r="K46" s="45" t="n">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="L46" s="37" t="s">
-        <v>56</v>
+        <v>314</v>
       </c>
       <c r="M46" s="39" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="N46" s="40" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="O46" s="40" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="P46" s="40" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="Q46" s="39" t="s">
-        <v>59</v>
+        <v>315</v>
       </c>
       <c r="R46" s="39" t="s">
-        <v>60</v>
+        <v>316</v>
       </c>
       <c r="S46" s="39"/>
       <c r="T46" s="39" t="s">
-        <v>61</v>
+        <v>317</v>
       </c>
       <c r="U46" s="39"/>
       <c r="V46" s="40"/>
@@ -26463,64 +26525,64 @@
       <c r="AMI46" s="0"/>
       <c r="AMJ46" s="0"/>
     </row>
-    <row r="47" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="37" t="n">
-        <v>39252</v>
+        <v>15219</v>
       </c>
       <c r="B47" s="44" t="n">
         <v>1</v>
       </c>
       <c r="C47" s="39" t="s">
-        <v>308</v>
+        <v>63</v>
       </c>
       <c r="D47" s="39" t="s">
-        <v>301</v>
+        <v>64</v>
       </c>
       <c r="E47" s="40" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F47" s="40" t="s">
-        <v>302</v>
+        <v>66</v>
       </c>
       <c r="G47" s="40" t="s">
-        <v>303</v>
+        <v>67</v>
       </c>
       <c r="H47" s="41" t="n">
-        <v>27529</v>
+        <v>18429</v>
       </c>
       <c r="I47" s="41" t="n">
-        <v>27529</v>
+        <v>18429</v>
       </c>
       <c r="J47" s="42" t="n">
-        <v>43821</v>
+        <v>44926</v>
       </c>
       <c r="K47" s="45" t="n">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="L47" s="37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M47" s="39" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="N47" s="40" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="O47" s="40" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="P47" s="40" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="Q47" s="39" t="s">
-        <v>305</v>
+        <v>71</v>
       </c>
       <c r="R47" s="39" t="s">
-        <v>309</v>
+        <v>72</v>
       </c>
       <c r="S47" s="39"/>
       <c r="T47" s="39" t="s">
-        <v>310</v>
+        <v>73</v>
       </c>
       <c r="U47" s="39"/>
       <c r="V47" s="40"/>
@@ -27534,19 +27596,19 @@
         <v>1</v>
       </c>
       <c r="C48" s="39" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="D48" s="39" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="E48" s="40" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F48" s="40" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="G48" s="40" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="H48" s="41" t="n">
         <v>27529</v>
@@ -27558,13 +27620,13 @@
         <v>43821</v>
       </c>
       <c r="K48" s="45" t="n">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="L48" s="37" t="s">
-        <v>311</v>
+        <v>78</v>
       </c>
       <c r="M48" s="39" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="N48" s="40" t="s">
         <v>35</v>
@@ -27576,14 +27638,14 @@
         <v>35</v>
       </c>
       <c r="Q48" s="39" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="R48" s="39" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="S48" s="39"/>
       <c r="T48" s="39" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="U48" s="39"/>
       <c r="V48" s="40"/>
@@ -28589,13 +28651,1076 @@
       <c r="AMI48" s="0"/>
       <c r="AMJ48" s="0"/>
     </row>
+    <row r="49" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="37" t="n">
+        <v>39252</v>
+      </c>
+      <c r="B49" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" s="39" t="s">
+        <v>318</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="E49" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49" s="40" t="s">
+        <v>312</v>
+      </c>
+      <c r="G49" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="H49" s="41" t="n">
+        <v>27529</v>
+      </c>
+      <c r="I49" s="41" t="n">
+        <v>27529</v>
+      </c>
+      <c r="J49" s="42" t="n">
+        <v>43821</v>
+      </c>
+      <c r="K49" s="45" t="n">
+        <v>58</v>
+      </c>
+      <c r="L49" s="37" t="s">
+        <v>321</v>
+      </c>
+      <c r="M49" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="N49" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="O49" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="P49" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q49" s="39" t="s">
+        <v>315</v>
+      </c>
+      <c r="R49" s="39" t="s">
+        <v>319</v>
+      </c>
+      <c r="S49" s="39"/>
+      <c r="T49" s="39" t="s">
+        <v>320</v>
+      </c>
+      <c r="U49" s="39"/>
+      <c r="V49" s="40"/>
+      <c r="W49" s="39"/>
+      <c r="X49" s="40"/>
+      <c r="Z49" s="0"/>
+      <c r="AA49" s="0"/>
+      <c r="AB49" s="0"/>
+      <c r="AC49" s="0"/>
+      <c r="AD49" s="0"/>
+      <c r="AE49" s="0"/>
+      <c r="AF49" s="0"/>
+      <c r="AG49" s="0"/>
+      <c r="AH49" s="0"/>
+      <c r="AI49" s="0"/>
+      <c r="AJ49" s="0"/>
+      <c r="AK49" s="0"/>
+      <c r="AL49" s="0"/>
+      <c r="AM49" s="0"/>
+      <c r="AN49" s="0"/>
+      <c r="AO49" s="0"/>
+      <c r="AP49" s="0"/>
+      <c r="AQ49" s="0"/>
+      <c r="AR49" s="0"/>
+      <c r="AS49" s="0"/>
+      <c r="AT49" s="0"/>
+      <c r="AU49" s="0"/>
+      <c r="AV49" s="0"/>
+      <c r="AW49" s="0"/>
+      <c r="AX49" s="0"/>
+      <c r="AY49" s="0"/>
+      <c r="AZ49" s="0"/>
+      <c r="BA49" s="0"/>
+      <c r="BB49" s="0"/>
+      <c r="BC49" s="0"/>
+      <c r="BD49" s="0"/>
+      <c r="BE49" s="0"/>
+      <c r="BF49" s="0"/>
+      <c r="BG49" s="0"/>
+      <c r="BH49" s="0"/>
+      <c r="BI49" s="0"/>
+      <c r="BJ49" s="0"/>
+      <c r="BK49" s="0"/>
+      <c r="BL49" s="0"/>
+      <c r="BM49" s="0"/>
+      <c r="BN49" s="0"/>
+      <c r="BO49" s="0"/>
+      <c r="BP49" s="0"/>
+      <c r="BQ49" s="0"/>
+      <c r="BR49" s="0"/>
+      <c r="BS49" s="0"/>
+      <c r="BT49" s="0"/>
+      <c r="BU49" s="0"/>
+      <c r="BV49" s="0"/>
+      <c r="BW49" s="0"/>
+      <c r="BX49" s="0"/>
+      <c r="BY49" s="0"/>
+      <c r="BZ49" s="0"/>
+      <c r="CA49" s="0"/>
+      <c r="CB49" s="0"/>
+      <c r="CC49" s="0"/>
+      <c r="CD49" s="0"/>
+      <c r="CE49" s="0"/>
+      <c r="CF49" s="0"/>
+      <c r="CG49" s="0"/>
+      <c r="CH49" s="0"/>
+      <c r="CI49" s="0"/>
+      <c r="CJ49" s="0"/>
+      <c r="CK49" s="0"/>
+      <c r="CL49" s="0"/>
+      <c r="CM49" s="0"/>
+      <c r="CN49" s="0"/>
+      <c r="CO49" s="0"/>
+      <c r="CP49" s="0"/>
+      <c r="CQ49" s="0"/>
+      <c r="CR49" s="0"/>
+      <c r="CS49" s="0"/>
+      <c r="CT49" s="0"/>
+      <c r="CU49" s="0"/>
+      <c r="CV49" s="0"/>
+      <c r="CW49" s="0"/>
+      <c r="CX49" s="0"/>
+      <c r="CY49" s="0"/>
+      <c r="CZ49" s="0"/>
+      <c r="DA49" s="0"/>
+      <c r="DB49" s="0"/>
+      <c r="DC49" s="0"/>
+      <c r="DD49" s="0"/>
+      <c r="DE49" s="0"/>
+      <c r="DF49" s="0"/>
+      <c r="DG49" s="0"/>
+      <c r="DH49" s="0"/>
+      <c r="DI49" s="0"/>
+      <c r="DJ49" s="0"/>
+      <c r="DK49" s="0"/>
+      <c r="DL49" s="0"/>
+      <c r="DM49" s="0"/>
+      <c r="DN49" s="0"/>
+      <c r="DO49" s="0"/>
+      <c r="DP49" s="0"/>
+      <c r="DQ49" s="0"/>
+      <c r="DR49" s="0"/>
+      <c r="DS49" s="0"/>
+      <c r="DT49" s="0"/>
+      <c r="DU49" s="0"/>
+      <c r="DV49" s="0"/>
+      <c r="DW49" s="0"/>
+      <c r="DX49" s="0"/>
+      <c r="DY49" s="0"/>
+      <c r="DZ49" s="0"/>
+      <c r="EA49" s="0"/>
+      <c r="EB49" s="0"/>
+      <c r="EC49" s="0"/>
+      <c r="ED49" s="0"/>
+      <c r="EE49" s="0"/>
+      <c r="EF49" s="0"/>
+      <c r="EG49" s="0"/>
+      <c r="EH49" s="0"/>
+      <c r="EI49" s="0"/>
+      <c r="EJ49" s="0"/>
+      <c r="EK49" s="0"/>
+      <c r="EL49" s="0"/>
+      <c r="EM49" s="0"/>
+      <c r="EN49" s="0"/>
+      <c r="EO49" s="0"/>
+      <c r="EP49" s="0"/>
+      <c r="EQ49" s="0"/>
+      <c r="ER49" s="0"/>
+      <c r="ES49" s="0"/>
+      <c r="ET49" s="0"/>
+      <c r="EU49" s="0"/>
+      <c r="EV49" s="0"/>
+      <c r="EW49" s="0"/>
+      <c r="EX49" s="0"/>
+      <c r="EY49" s="0"/>
+      <c r="EZ49" s="0"/>
+      <c r="FA49" s="0"/>
+      <c r="FB49" s="0"/>
+      <c r="FC49" s="0"/>
+      <c r="FD49" s="0"/>
+      <c r="FE49" s="0"/>
+      <c r="FF49" s="0"/>
+      <c r="FG49" s="0"/>
+      <c r="FH49" s="0"/>
+      <c r="FI49" s="0"/>
+      <c r="FJ49" s="0"/>
+      <c r="FK49" s="0"/>
+      <c r="FL49" s="0"/>
+      <c r="FM49" s="0"/>
+      <c r="FN49" s="0"/>
+      <c r="FO49" s="0"/>
+      <c r="FP49" s="0"/>
+      <c r="FQ49" s="0"/>
+      <c r="FR49" s="0"/>
+      <c r="FS49" s="0"/>
+      <c r="FT49" s="0"/>
+      <c r="FU49" s="0"/>
+      <c r="FV49" s="0"/>
+      <c r="FW49" s="0"/>
+      <c r="FX49" s="0"/>
+      <c r="FY49" s="0"/>
+      <c r="FZ49" s="0"/>
+      <c r="GA49" s="0"/>
+      <c r="GB49" s="0"/>
+      <c r="GC49" s="0"/>
+      <c r="GD49" s="0"/>
+      <c r="GE49" s="0"/>
+      <c r="GF49" s="0"/>
+      <c r="GG49" s="0"/>
+      <c r="GH49" s="0"/>
+      <c r="GI49" s="0"/>
+      <c r="GJ49" s="0"/>
+      <c r="GK49" s="0"/>
+      <c r="GL49" s="0"/>
+      <c r="GM49" s="0"/>
+      <c r="GN49" s="0"/>
+      <c r="GO49" s="0"/>
+      <c r="GP49" s="0"/>
+      <c r="GQ49" s="0"/>
+      <c r="GR49" s="0"/>
+      <c r="GS49" s="0"/>
+      <c r="GT49" s="0"/>
+      <c r="GU49" s="0"/>
+      <c r="GV49" s="0"/>
+      <c r="GW49" s="0"/>
+      <c r="GX49" s="0"/>
+      <c r="GY49" s="0"/>
+      <c r="GZ49" s="0"/>
+      <c r="HA49" s="0"/>
+      <c r="HB49" s="0"/>
+      <c r="HC49" s="0"/>
+      <c r="HD49" s="0"/>
+      <c r="HE49" s="0"/>
+      <c r="HF49" s="0"/>
+      <c r="HG49" s="0"/>
+      <c r="HH49" s="0"/>
+      <c r="HI49" s="0"/>
+      <c r="HJ49" s="0"/>
+      <c r="HK49" s="0"/>
+      <c r="HL49" s="0"/>
+      <c r="HM49" s="0"/>
+      <c r="HN49" s="0"/>
+      <c r="HO49" s="0"/>
+      <c r="HP49" s="0"/>
+      <c r="HQ49" s="0"/>
+      <c r="HR49" s="0"/>
+      <c r="HS49" s="0"/>
+      <c r="HT49" s="0"/>
+      <c r="HU49" s="0"/>
+      <c r="HV49" s="0"/>
+      <c r="HW49" s="0"/>
+      <c r="HX49" s="0"/>
+      <c r="HY49" s="0"/>
+      <c r="HZ49" s="0"/>
+      <c r="IA49" s="0"/>
+      <c r="IB49" s="0"/>
+      <c r="IC49" s="0"/>
+      <c r="ID49" s="0"/>
+      <c r="IE49" s="0"/>
+      <c r="IF49" s="0"/>
+      <c r="IG49" s="0"/>
+      <c r="IH49" s="0"/>
+      <c r="II49" s="0"/>
+      <c r="IJ49" s="0"/>
+      <c r="IK49" s="0"/>
+      <c r="IL49" s="0"/>
+      <c r="IM49" s="0"/>
+      <c r="IN49" s="0"/>
+      <c r="IO49" s="0"/>
+      <c r="IP49" s="0"/>
+      <c r="IQ49" s="0"/>
+      <c r="IR49" s="0"/>
+      <c r="IS49" s="0"/>
+      <c r="IT49" s="0"/>
+      <c r="IU49" s="0"/>
+      <c r="IV49" s="0"/>
+      <c r="IW49" s="0"/>
+      <c r="IX49" s="0"/>
+      <c r="IY49" s="0"/>
+      <c r="IZ49" s="0"/>
+      <c r="JA49" s="0"/>
+      <c r="JB49" s="0"/>
+      <c r="JC49" s="0"/>
+      <c r="JD49" s="0"/>
+      <c r="JE49" s="0"/>
+      <c r="JF49" s="0"/>
+      <c r="JG49" s="0"/>
+      <c r="JH49" s="0"/>
+      <c r="JI49" s="0"/>
+      <c r="JJ49" s="0"/>
+      <c r="JK49" s="0"/>
+      <c r="JL49" s="0"/>
+      <c r="JM49" s="0"/>
+      <c r="JN49" s="0"/>
+      <c r="JO49" s="0"/>
+      <c r="JP49" s="0"/>
+      <c r="JQ49" s="0"/>
+      <c r="JR49" s="0"/>
+      <c r="JS49" s="0"/>
+      <c r="JT49" s="0"/>
+      <c r="JU49" s="0"/>
+      <c r="JV49" s="0"/>
+      <c r="JW49" s="0"/>
+      <c r="JX49" s="0"/>
+      <c r="JY49" s="0"/>
+      <c r="JZ49" s="0"/>
+      <c r="KA49" s="0"/>
+      <c r="KB49" s="0"/>
+      <c r="KC49" s="0"/>
+      <c r="KD49" s="0"/>
+      <c r="KE49" s="0"/>
+      <c r="KF49" s="0"/>
+      <c r="KG49" s="0"/>
+      <c r="KH49" s="0"/>
+      <c r="KI49" s="0"/>
+      <c r="KJ49" s="0"/>
+      <c r="KK49" s="0"/>
+      <c r="KL49" s="0"/>
+      <c r="KM49" s="0"/>
+      <c r="KN49" s="0"/>
+      <c r="KO49" s="0"/>
+      <c r="KP49" s="0"/>
+      <c r="KQ49" s="0"/>
+      <c r="KR49" s="0"/>
+      <c r="KS49" s="0"/>
+      <c r="KT49" s="0"/>
+      <c r="KU49" s="0"/>
+      <c r="KV49" s="0"/>
+      <c r="KW49" s="0"/>
+      <c r="KX49" s="0"/>
+      <c r="KY49" s="0"/>
+      <c r="KZ49" s="0"/>
+      <c r="LA49" s="0"/>
+      <c r="LB49" s="0"/>
+      <c r="LC49" s="0"/>
+      <c r="LD49" s="0"/>
+      <c r="LE49" s="0"/>
+      <c r="LF49" s="0"/>
+      <c r="LG49" s="0"/>
+      <c r="LH49" s="0"/>
+      <c r="LI49" s="0"/>
+      <c r="LJ49" s="0"/>
+      <c r="LK49" s="0"/>
+      <c r="LL49" s="0"/>
+      <c r="LM49" s="0"/>
+      <c r="LN49" s="0"/>
+      <c r="LO49" s="0"/>
+      <c r="LP49" s="0"/>
+      <c r="LQ49" s="0"/>
+      <c r="LR49" s="0"/>
+      <c r="LS49" s="0"/>
+      <c r="LT49" s="0"/>
+      <c r="LU49" s="0"/>
+      <c r="LV49" s="0"/>
+      <c r="LW49" s="0"/>
+      <c r="LX49" s="0"/>
+      <c r="LY49" s="0"/>
+      <c r="LZ49" s="0"/>
+      <c r="MA49" s="0"/>
+      <c r="MB49" s="0"/>
+      <c r="MC49" s="0"/>
+      <c r="MD49" s="0"/>
+      <c r="ME49" s="0"/>
+      <c r="MF49" s="0"/>
+      <c r="MG49" s="0"/>
+      <c r="MH49" s="0"/>
+      <c r="MI49" s="0"/>
+      <c r="MJ49" s="0"/>
+      <c r="MK49" s="0"/>
+      <c r="ML49" s="0"/>
+      <c r="MM49" s="0"/>
+      <c r="MN49" s="0"/>
+      <c r="MO49" s="0"/>
+      <c r="MP49" s="0"/>
+      <c r="MQ49" s="0"/>
+      <c r="MR49" s="0"/>
+      <c r="MS49" s="0"/>
+      <c r="MT49" s="0"/>
+      <c r="MU49" s="0"/>
+      <c r="MV49" s="0"/>
+      <c r="MW49" s="0"/>
+      <c r="MX49" s="0"/>
+      <c r="MY49" s="0"/>
+      <c r="MZ49" s="0"/>
+      <c r="NA49" s="0"/>
+      <c r="NB49" s="0"/>
+      <c r="NC49" s="0"/>
+      <c r="ND49" s="0"/>
+      <c r="NE49" s="0"/>
+      <c r="NF49" s="0"/>
+      <c r="NG49" s="0"/>
+      <c r="NH49" s="0"/>
+      <c r="NI49" s="0"/>
+      <c r="NJ49" s="0"/>
+      <c r="NK49" s="0"/>
+      <c r="NL49" s="0"/>
+      <c r="NM49" s="0"/>
+      <c r="NN49" s="0"/>
+      <c r="NO49" s="0"/>
+      <c r="NP49" s="0"/>
+      <c r="NQ49" s="0"/>
+      <c r="NR49" s="0"/>
+      <c r="NS49" s="0"/>
+      <c r="NT49" s="0"/>
+      <c r="NU49" s="0"/>
+      <c r="NV49" s="0"/>
+      <c r="NW49" s="0"/>
+      <c r="NX49" s="0"/>
+      <c r="NY49" s="0"/>
+      <c r="NZ49" s="0"/>
+      <c r="OA49" s="0"/>
+      <c r="OB49" s="0"/>
+      <c r="OC49" s="0"/>
+      <c r="OD49" s="0"/>
+      <c r="OE49" s="0"/>
+      <c r="OF49" s="0"/>
+      <c r="OG49" s="0"/>
+      <c r="OH49" s="0"/>
+      <c r="OI49" s="0"/>
+      <c r="OJ49" s="0"/>
+      <c r="OK49" s="0"/>
+      <c r="OL49" s="0"/>
+      <c r="OM49" s="0"/>
+      <c r="ON49" s="0"/>
+      <c r="OO49" s="0"/>
+      <c r="OP49" s="0"/>
+      <c r="OQ49" s="0"/>
+      <c r="OR49" s="0"/>
+      <c r="OS49" s="0"/>
+      <c r="OT49" s="0"/>
+      <c r="OU49" s="0"/>
+      <c r="OV49" s="0"/>
+      <c r="OW49" s="0"/>
+      <c r="OX49" s="0"/>
+      <c r="OY49" s="0"/>
+      <c r="OZ49" s="0"/>
+      <c r="PA49" s="0"/>
+      <c r="PB49" s="0"/>
+      <c r="PC49" s="0"/>
+      <c r="PD49" s="0"/>
+      <c r="PE49" s="0"/>
+      <c r="PF49" s="0"/>
+      <c r="PG49" s="0"/>
+      <c r="PH49" s="0"/>
+      <c r="PI49" s="0"/>
+      <c r="PJ49" s="0"/>
+      <c r="PK49" s="0"/>
+      <c r="PL49" s="0"/>
+      <c r="PM49" s="0"/>
+      <c r="PN49" s="0"/>
+      <c r="PO49" s="0"/>
+      <c r="PP49" s="0"/>
+      <c r="PQ49" s="0"/>
+      <c r="PR49" s="0"/>
+      <c r="PS49" s="0"/>
+      <c r="PT49" s="0"/>
+      <c r="PU49" s="0"/>
+      <c r="PV49" s="0"/>
+      <c r="PW49" s="0"/>
+      <c r="PX49" s="0"/>
+      <c r="PY49" s="0"/>
+      <c r="PZ49" s="0"/>
+      <c r="QA49" s="0"/>
+      <c r="QB49" s="0"/>
+      <c r="QC49" s="0"/>
+      <c r="QD49" s="0"/>
+      <c r="QE49" s="0"/>
+      <c r="QF49" s="0"/>
+      <c r="QG49" s="0"/>
+      <c r="QH49" s="0"/>
+      <c r="QI49" s="0"/>
+      <c r="QJ49" s="0"/>
+      <c r="QK49" s="0"/>
+      <c r="QL49" s="0"/>
+      <c r="QM49" s="0"/>
+      <c r="QN49" s="0"/>
+      <c r="QO49" s="0"/>
+      <c r="QP49" s="0"/>
+      <c r="QQ49" s="0"/>
+      <c r="QR49" s="0"/>
+      <c r="QS49" s="0"/>
+      <c r="QT49" s="0"/>
+      <c r="QU49" s="0"/>
+      <c r="QV49" s="0"/>
+      <c r="QW49" s="0"/>
+      <c r="QX49" s="0"/>
+      <c r="QY49" s="0"/>
+      <c r="QZ49" s="0"/>
+      <c r="RA49" s="0"/>
+      <c r="RB49" s="0"/>
+      <c r="RC49" s="0"/>
+      <c r="RD49" s="0"/>
+      <c r="RE49" s="0"/>
+      <c r="RF49" s="0"/>
+      <c r="RG49" s="0"/>
+      <c r="RH49" s="0"/>
+      <c r="RI49" s="0"/>
+      <c r="RJ49" s="0"/>
+      <c r="RK49" s="0"/>
+      <c r="RL49" s="0"/>
+      <c r="RM49" s="0"/>
+      <c r="RN49" s="0"/>
+      <c r="RO49" s="0"/>
+      <c r="RP49" s="0"/>
+      <c r="RQ49" s="0"/>
+      <c r="RR49" s="0"/>
+      <c r="RS49" s="0"/>
+      <c r="RT49" s="0"/>
+      <c r="RU49" s="0"/>
+      <c r="RV49" s="0"/>
+      <c r="RW49" s="0"/>
+      <c r="RX49" s="0"/>
+      <c r="RY49" s="0"/>
+      <c r="RZ49" s="0"/>
+      <c r="SA49" s="0"/>
+      <c r="SB49" s="0"/>
+      <c r="SC49" s="0"/>
+      <c r="SD49" s="0"/>
+      <c r="SE49" s="0"/>
+      <c r="SF49" s="0"/>
+      <c r="SG49" s="0"/>
+      <c r="SH49" s="0"/>
+      <c r="SI49" s="0"/>
+      <c r="SJ49" s="0"/>
+      <c r="SK49" s="0"/>
+      <c r="SL49" s="0"/>
+      <c r="SM49" s="0"/>
+      <c r="SN49" s="0"/>
+      <c r="SO49" s="0"/>
+      <c r="SP49" s="0"/>
+      <c r="SQ49" s="0"/>
+      <c r="SR49" s="0"/>
+      <c r="SS49" s="0"/>
+      <c r="ST49" s="0"/>
+      <c r="SU49" s="0"/>
+      <c r="SV49" s="0"/>
+      <c r="SW49" s="0"/>
+      <c r="SX49" s="0"/>
+      <c r="SY49" s="0"/>
+      <c r="SZ49" s="0"/>
+      <c r="TA49" s="0"/>
+      <c r="TB49" s="0"/>
+      <c r="TC49" s="0"/>
+      <c r="TD49" s="0"/>
+      <c r="TE49" s="0"/>
+      <c r="TF49" s="0"/>
+      <c r="TG49" s="0"/>
+      <c r="TH49" s="0"/>
+      <c r="TI49" s="0"/>
+      <c r="TJ49" s="0"/>
+      <c r="TK49" s="0"/>
+      <c r="TL49" s="0"/>
+      <c r="TM49" s="0"/>
+      <c r="TN49" s="0"/>
+      <c r="TO49" s="0"/>
+      <c r="TP49" s="0"/>
+      <c r="TQ49" s="0"/>
+      <c r="TR49" s="0"/>
+      <c r="TS49" s="0"/>
+      <c r="TT49" s="0"/>
+      <c r="TU49" s="0"/>
+      <c r="TV49" s="0"/>
+      <c r="TW49" s="0"/>
+      <c r="TX49" s="0"/>
+      <c r="TY49" s="0"/>
+      <c r="TZ49" s="0"/>
+      <c r="UA49" s="0"/>
+      <c r="UB49" s="0"/>
+      <c r="UC49" s="0"/>
+      <c r="UD49" s="0"/>
+      <c r="UE49" s="0"/>
+      <c r="UF49" s="0"/>
+      <c r="UG49" s="0"/>
+      <c r="UH49" s="0"/>
+      <c r="UI49" s="0"/>
+      <c r="UJ49" s="0"/>
+      <c r="UK49" s="0"/>
+      <c r="UL49" s="0"/>
+      <c r="UM49" s="0"/>
+      <c r="UN49" s="0"/>
+      <c r="UO49" s="0"/>
+      <c r="UP49" s="0"/>
+      <c r="UQ49" s="0"/>
+      <c r="UR49" s="0"/>
+      <c r="US49" s="0"/>
+      <c r="UT49" s="0"/>
+      <c r="UU49" s="0"/>
+      <c r="UV49" s="0"/>
+      <c r="UW49" s="0"/>
+      <c r="UX49" s="0"/>
+      <c r="UY49" s="0"/>
+      <c r="UZ49" s="0"/>
+      <c r="VA49" s="0"/>
+      <c r="VB49" s="0"/>
+      <c r="VC49" s="0"/>
+      <c r="VD49" s="0"/>
+      <c r="VE49" s="0"/>
+      <c r="VF49" s="0"/>
+      <c r="VG49" s="0"/>
+      <c r="VH49" s="0"/>
+      <c r="VI49" s="0"/>
+      <c r="VJ49" s="0"/>
+      <c r="VK49" s="0"/>
+      <c r="VL49" s="0"/>
+      <c r="VM49" s="0"/>
+      <c r="VN49" s="0"/>
+      <c r="VO49" s="0"/>
+      <c r="VP49" s="0"/>
+      <c r="VQ49" s="0"/>
+      <c r="VR49" s="0"/>
+      <c r="VS49" s="0"/>
+      <c r="VT49" s="0"/>
+      <c r="VU49" s="0"/>
+      <c r="VV49" s="0"/>
+      <c r="VW49" s="0"/>
+      <c r="VX49" s="0"/>
+      <c r="VY49" s="0"/>
+      <c r="VZ49" s="0"/>
+      <c r="WA49" s="0"/>
+      <c r="WB49" s="0"/>
+      <c r="WC49" s="0"/>
+      <c r="WD49" s="0"/>
+      <c r="WE49" s="0"/>
+      <c r="WF49" s="0"/>
+      <c r="WG49" s="0"/>
+      <c r="WH49" s="0"/>
+      <c r="WI49" s="0"/>
+      <c r="WJ49" s="0"/>
+      <c r="WK49" s="0"/>
+      <c r="WL49" s="0"/>
+      <c r="WM49" s="0"/>
+      <c r="WN49" s="0"/>
+      <c r="WO49" s="0"/>
+      <c r="WP49" s="0"/>
+      <c r="WQ49" s="0"/>
+      <c r="WR49" s="0"/>
+      <c r="WS49" s="0"/>
+      <c r="WT49" s="0"/>
+      <c r="WU49" s="0"/>
+      <c r="WV49" s="0"/>
+      <c r="WW49" s="0"/>
+      <c r="WX49" s="0"/>
+      <c r="WY49" s="0"/>
+      <c r="WZ49" s="0"/>
+      <c r="XA49" s="0"/>
+      <c r="XB49" s="0"/>
+      <c r="XC49" s="0"/>
+      <c r="XD49" s="0"/>
+      <c r="XE49" s="0"/>
+      <c r="XF49" s="0"/>
+      <c r="XG49" s="0"/>
+      <c r="XH49" s="0"/>
+      <c r="XI49" s="0"/>
+      <c r="XJ49" s="0"/>
+      <c r="XK49" s="0"/>
+      <c r="XL49" s="0"/>
+      <c r="XM49" s="0"/>
+      <c r="XN49" s="0"/>
+      <c r="XO49" s="0"/>
+      <c r="XP49" s="0"/>
+      <c r="XQ49" s="0"/>
+      <c r="XR49" s="0"/>
+      <c r="XS49" s="0"/>
+      <c r="XT49" s="0"/>
+      <c r="XU49" s="0"/>
+      <c r="XV49" s="0"/>
+      <c r="XW49" s="0"/>
+      <c r="XX49" s="0"/>
+      <c r="XY49" s="0"/>
+      <c r="XZ49" s="0"/>
+      <c r="YA49" s="0"/>
+      <c r="YB49" s="0"/>
+      <c r="YC49" s="0"/>
+      <c r="YD49" s="0"/>
+      <c r="YE49" s="0"/>
+      <c r="YF49" s="0"/>
+      <c r="YG49" s="0"/>
+      <c r="YH49" s="0"/>
+      <c r="YI49" s="0"/>
+      <c r="YJ49" s="0"/>
+      <c r="YK49" s="0"/>
+      <c r="YL49" s="0"/>
+      <c r="YM49" s="0"/>
+      <c r="YN49" s="0"/>
+      <c r="YO49" s="0"/>
+      <c r="YP49" s="0"/>
+      <c r="YQ49" s="0"/>
+      <c r="YR49" s="0"/>
+      <c r="YS49" s="0"/>
+      <c r="YT49" s="0"/>
+      <c r="YU49" s="0"/>
+      <c r="YV49" s="0"/>
+      <c r="YW49" s="0"/>
+      <c r="YX49" s="0"/>
+      <c r="YY49" s="0"/>
+      <c r="YZ49" s="0"/>
+      <c r="ZA49" s="0"/>
+      <c r="ZB49" s="0"/>
+      <c r="ZC49" s="0"/>
+      <c r="ZD49" s="0"/>
+      <c r="ZE49" s="0"/>
+      <c r="ZF49" s="0"/>
+      <c r="ZG49" s="0"/>
+      <c r="ZH49" s="0"/>
+      <c r="ZI49" s="0"/>
+      <c r="ZJ49" s="0"/>
+      <c r="ZK49" s="0"/>
+      <c r="ZL49" s="0"/>
+      <c r="ZM49" s="0"/>
+      <c r="ZN49" s="0"/>
+      <c r="ZO49" s="0"/>
+      <c r="ZP49" s="0"/>
+      <c r="ZQ49" s="0"/>
+      <c r="ZR49" s="0"/>
+      <c r="ZS49" s="0"/>
+      <c r="ZT49" s="0"/>
+      <c r="ZU49" s="0"/>
+      <c r="ZV49" s="0"/>
+      <c r="ZW49" s="0"/>
+      <c r="ZX49" s="0"/>
+      <c r="ZY49" s="0"/>
+      <c r="ZZ49" s="0"/>
+      <c r="AAA49" s="0"/>
+      <c r="AAB49" s="0"/>
+      <c r="AAC49" s="0"/>
+      <c r="AAD49" s="0"/>
+      <c r="AAE49" s="0"/>
+      <c r="AAF49" s="0"/>
+      <c r="AAG49" s="0"/>
+      <c r="AAH49" s="0"/>
+      <c r="AAI49" s="0"/>
+      <c r="AAJ49" s="0"/>
+      <c r="AAK49" s="0"/>
+      <c r="AAL49" s="0"/>
+      <c r="AAM49" s="0"/>
+      <c r="AAN49" s="0"/>
+      <c r="AAO49" s="0"/>
+      <c r="AAP49" s="0"/>
+      <c r="AAQ49" s="0"/>
+      <c r="AAR49" s="0"/>
+      <c r="AAS49" s="0"/>
+      <c r="AAT49" s="0"/>
+      <c r="AAU49" s="0"/>
+      <c r="AAV49" s="0"/>
+      <c r="AAW49" s="0"/>
+      <c r="AAX49" s="0"/>
+      <c r="AAY49" s="0"/>
+      <c r="AAZ49" s="0"/>
+      <c r="ABA49" s="0"/>
+      <c r="ABB49" s="0"/>
+      <c r="ABC49" s="0"/>
+      <c r="ABD49" s="0"/>
+      <c r="ABE49" s="0"/>
+      <c r="ABF49" s="0"/>
+      <c r="ABG49" s="0"/>
+      <c r="ABH49" s="0"/>
+      <c r="ABI49" s="0"/>
+      <c r="ABJ49" s="0"/>
+      <c r="ABK49" s="0"/>
+      <c r="ABL49" s="0"/>
+      <c r="ABM49" s="0"/>
+      <c r="ABN49" s="0"/>
+      <c r="ABO49" s="0"/>
+      <c r="ABP49" s="0"/>
+      <c r="ABQ49" s="0"/>
+      <c r="ABR49" s="0"/>
+      <c r="ABS49" s="0"/>
+      <c r="ABT49" s="0"/>
+      <c r="ABU49" s="0"/>
+      <c r="ABV49" s="0"/>
+      <c r="ABW49" s="0"/>
+      <c r="ABX49" s="0"/>
+      <c r="ABY49" s="0"/>
+      <c r="ABZ49" s="0"/>
+      <c r="ACA49" s="0"/>
+      <c r="ACB49" s="0"/>
+      <c r="ACC49" s="0"/>
+      <c r="ACD49" s="0"/>
+      <c r="ACE49" s="0"/>
+      <c r="ACF49" s="0"/>
+      <c r="ACG49" s="0"/>
+      <c r="ACH49" s="0"/>
+      <c r="ACI49" s="0"/>
+      <c r="ACJ49" s="0"/>
+      <c r="ACK49" s="0"/>
+      <c r="ACL49" s="0"/>
+      <c r="ACM49" s="0"/>
+      <c r="ACN49" s="0"/>
+      <c r="ACO49" s="0"/>
+      <c r="ACP49" s="0"/>
+      <c r="ACQ49" s="0"/>
+      <c r="ACR49" s="0"/>
+      <c r="ACS49" s="0"/>
+      <c r="ACT49" s="0"/>
+      <c r="ACU49" s="0"/>
+      <c r="ACV49" s="0"/>
+      <c r="ACW49" s="0"/>
+      <c r="ACX49" s="0"/>
+      <c r="ACY49" s="0"/>
+      <c r="ACZ49" s="0"/>
+      <c r="ADA49" s="0"/>
+      <c r="ADB49" s="0"/>
+      <c r="ADC49" s="0"/>
+      <c r="ADD49" s="0"/>
+      <c r="ADE49" s="0"/>
+      <c r="ADF49" s="0"/>
+      <c r="ADG49" s="0"/>
+      <c r="ADH49" s="0"/>
+      <c r="ADI49" s="0"/>
+      <c r="ADJ49" s="0"/>
+      <c r="ADK49" s="0"/>
+      <c r="ADL49" s="0"/>
+      <c r="ADM49" s="0"/>
+      <c r="ADN49" s="0"/>
+      <c r="ADO49" s="0"/>
+      <c r="ADP49" s="0"/>
+      <c r="ADQ49" s="0"/>
+      <c r="ADR49" s="0"/>
+      <c r="ADS49" s="0"/>
+      <c r="ADT49" s="0"/>
+      <c r="ADU49" s="0"/>
+      <c r="ADV49" s="0"/>
+      <c r="ADW49" s="0"/>
+      <c r="ADX49" s="0"/>
+      <c r="ADY49" s="0"/>
+      <c r="ADZ49" s="0"/>
+      <c r="AEA49" s="0"/>
+      <c r="AEB49" s="0"/>
+      <c r="AEC49" s="0"/>
+      <c r="AED49" s="0"/>
+      <c r="AEE49" s="0"/>
+      <c r="AEF49" s="0"/>
+      <c r="AEG49" s="0"/>
+      <c r="AEH49" s="0"/>
+      <c r="AEI49" s="0"/>
+      <c r="AEJ49" s="0"/>
+      <c r="AEK49" s="0"/>
+      <c r="AEL49" s="0"/>
+      <c r="AEM49" s="0"/>
+      <c r="AEN49" s="0"/>
+      <c r="AEO49" s="0"/>
+      <c r="AEP49" s="0"/>
+      <c r="AEQ49" s="0"/>
+      <c r="AER49" s="0"/>
+      <c r="AES49" s="0"/>
+      <c r="AET49" s="0"/>
+      <c r="AEU49" s="0"/>
+      <c r="AEV49" s="0"/>
+      <c r="AEW49" s="0"/>
+      <c r="AEX49" s="0"/>
+      <c r="AEY49" s="0"/>
+      <c r="AEZ49" s="0"/>
+      <c r="AFA49" s="0"/>
+      <c r="AFB49" s="0"/>
+      <c r="AFC49" s="0"/>
+      <c r="AFD49" s="0"/>
+      <c r="AFE49" s="0"/>
+      <c r="AFF49" s="0"/>
+      <c r="AFG49" s="0"/>
+      <c r="AFH49" s="0"/>
+      <c r="AFI49" s="0"/>
+      <c r="AFJ49" s="0"/>
+      <c r="AFK49" s="0"/>
+      <c r="AFL49" s="0"/>
+      <c r="AFM49" s="0"/>
+      <c r="AFN49" s="0"/>
+      <c r="AFO49" s="0"/>
+      <c r="AFP49" s="0"/>
+      <c r="AFQ49" s="0"/>
+      <c r="AFR49" s="0"/>
+      <c r="AFS49" s="0"/>
+      <c r="AFT49" s="0"/>
+      <c r="AFU49" s="0"/>
+      <c r="AFV49" s="0"/>
+      <c r="AFW49" s="0"/>
+      <c r="AFX49" s="0"/>
+      <c r="AFY49" s="0"/>
+      <c r="AFZ49" s="0"/>
+      <c r="AGA49" s="0"/>
+      <c r="AGB49" s="0"/>
+      <c r="AGC49" s="0"/>
+      <c r="AGD49" s="0"/>
+      <c r="AGE49" s="0"/>
+      <c r="AGF49" s="0"/>
+      <c r="AGG49" s="0"/>
+      <c r="AGH49" s="0"/>
+      <c r="AGI49" s="0"/>
+      <c r="AGJ49" s="0"/>
+      <c r="AGK49" s="0"/>
+      <c r="AGL49" s="0"/>
+      <c r="AGM49" s="0"/>
+      <c r="AGN49" s="0"/>
+      <c r="AGO49" s="0"/>
+      <c r="AGP49" s="0"/>
+      <c r="AGQ49" s="0"/>
+      <c r="AGR49" s="0"/>
+      <c r="AGS49" s="0"/>
+      <c r="AGT49" s="0"/>
+      <c r="AGU49" s="0"/>
+      <c r="AGV49" s="0"/>
+      <c r="AGW49" s="0"/>
+      <c r="AGX49" s="0"/>
+      <c r="AGY49" s="0"/>
+      <c r="AGZ49" s="0"/>
+      <c r="AHA49" s="0"/>
+      <c r="AHB49" s="0"/>
+      <c r="AHC49" s="0"/>
+      <c r="AHD49" s="0"/>
+      <c r="AHE49" s="0"/>
+      <c r="AHF49" s="0"/>
+      <c r="AHG49" s="0"/>
+      <c r="AHH49" s="0"/>
+      <c r="AHI49" s="0"/>
+      <c r="AHJ49" s="0"/>
+      <c r="AHK49" s="0"/>
+      <c r="AHL49" s="0"/>
+      <c r="AHM49" s="0"/>
+      <c r="AHN49" s="0"/>
+      <c r="AHO49" s="0"/>
+      <c r="AHP49" s="0"/>
+      <c r="AHQ49" s="0"/>
+      <c r="AHR49" s="0"/>
+      <c r="AHS49" s="0"/>
+      <c r="AHT49" s="0"/>
+      <c r="AHU49" s="0"/>
+      <c r="AHV49" s="0"/>
+      <c r="AHW49" s="0"/>
+      <c r="AHX49" s="0"/>
+      <c r="AHY49" s="0"/>
+      <c r="AHZ49" s="0"/>
+      <c r="AIA49" s="0"/>
+      <c r="AIB49" s="0"/>
+      <c r="AIC49" s="0"/>
+      <c r="AID49" s="0"/>
+      <c r="AIE49" s="0"/>
+      <c r="AIF49" s="0"/>
+      <c r="AIG49" s="0"/>
+      <c r="AIH49" s="0"/>
+      <c r="AII49" s="0"/>
+      <c r="AIJ49" s="0"/>
+      <c r="AIK49" s="0"/>
+      <c r="AIL49" s="0"/>
+      <c r="AIM49" s="0"/>
+      <c r="AIN49" s="0"/>
+      <c r="AIO49" s="0"/>
+      <c r="AIP49" s="0"/>
+      <c r="AIQ49" s="0"/>
+      <c r="AIR49" s="0"/>
+      <c r="AIS49" s="0"/>
+      <c r="AIT49" s="0"/>
+      <c r="AIU49" s="0"/>
+      <c r="AIV49" s="0"/>
+      <c r="AIW49" s="0"/>
+      <c r="AIX49" s="0"/>
+      <c r="AIY49" s="0"/>
+      <c r="AIZ49" s="0"/>
+      <c r="AJA49" s="0"/>
+      <c r="AJB49" s="0"/>
+      <c r="AJC49" s="0"/>
+      <c r="AJD49" s="0"/>
+      <c r="AJE49" s="0"/>
+      <c r="AJF49" s="0"/>
+      <c r="AJG49" s="0"/>
+      <c r="AJH49" s="0"/>
+      <c r="AJI49" s="0"/>
+      <c r="AJJ49" s="0"/>
+      <c r="AJK49" s="0"/>
+      <c r="AJL49" s="0"/>
+      <c r="AJM49" s="0"/>
+      <c r="AJN49" s="0"/>
+      <c r="AJO49" s="0"/>
+      <c r="AJP49" s="0"/>
+      <c r="AJQ49" s="0"/>
+      <c r="AJR49" s="0"/>
+      <c r="AJS49" s="0"/>
+      <c r="AJT49" s="0"/>
+      <c r="AJU49" s="0"/>
+      <c r="AJV49" s="0"/>
+      <c r="AJW49" s="0"/>
+      <c r="AJX49" s="0"/>
+      <c r="AJY49" s="0"/>
+      <c r="AJZ49" s="0"/>
+      <c r="AKA49" s="0"/>
+      <c r="AKB49" s="0"/>
+      <c r="AKC49" s="0"/>
+      <c r="AKD49" s="0"/>
+      <c r="AKE49" s="0"/>
+      <c r="AKF49" s="0"/>
+      <c r="AKG49" s="0"/>
+      <c r="AKH49" s="0"/>
+      <c r="AKI49" s="0"/>
+      <c r="AKJ49" s="0"/>
+      <c r="AKK49" s="0"/>
+      <c r="AKL49" s="0"/>
+      <c r="AKM49" s="0"/>
+      <c r="AKN49" s="0"/>
+      <c r="AKO49" s="0"/>
+      <c r="AKP49" s="0"/>
+      <c r="AKQ49" s="0"/>
+      <c r="AKR49" s="0"/>
+      <c r="AKS49" s="0"/>
+      <c r="AKT49" s="0"/>
+      <c r="AKU49" s="0"/>
+      <c r="AKV49" s="0"/>
+      <c r="AKW49" s="0"/>
+      <c r="AKX49" s="0"/>
+      <c r="AKY49" s="0"/>
+      <c r="AKZ49" s="0"/>
+      <c r="ALA49" s="0"/>
+      <c r="ALB49" s="0"/>
+      <c r="ALC49" s="0"/>
+      <c r="ALD49" s="0"/>
+      <c r="ALE49" s="0"/>
+      <c r="ALF49" s="0"/>
+      <c r="ALG49" s="0"/>
+      <c r="ALH49" s="0"/>
+      <c r="ALI49" s="0"/>
+      <c r="ALJ49" s="0"/>
+      <c r="ALK49" s="0"/>
+      <c r="ALL49" s="0"/>
+      <c r="ALM49" s="0"/>
+      <c r="ALN49" s="0"/>
+      <c r="ALO49" s="0"/>
+      <c r="ALP49" s="0"/>
+      <c r="ALQ49" s="0"/>
+      <c r="ALR49" s="0"/>
+      <c r="ALS49" s="0"/>
+      <c r="ALT49" s="0"/>
+      <c r="ALU49" s="0"/>
+      <c r="ALV49" s="0"/>
+      <c r="ALW49" s="0"/>
+      <c r="ALX49" s="0"/>
+      <c r="ALY49" s="0"/>
+      <c r="ALZ49" s="0"/>
+      <c r="AMA49" s="0"/>
+      <c r="AMB49" s="0"/>
+      <c r="AMC49" s="0"/>
+      <c r="AMD49" s="0"/>
+      <c r="AME49" s="0"/>
+      <c r="AMF49" s="0"/>
+      <c r="AMG49" s="0"/>
+      <c r="AMH49" s="0"/>
+      <c r="AMI49" s="0"/>
+      <c r="AMJ49" s="0"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A5:O5"/>
   </mergeCells>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.340277777777778" right="0" top="0.275694444444444" bottom="0.472222222222222" header="0.511805555555555" footer="0.0784722222222222"/>
-  <pageSetup paperSize="8" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="8" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter>&amp;C&amp;9Swissmedic · Hallerstrasse 7 · CH-3000 Bern 9 · www.swissmedic.ch · Tel. +41 58 462 02 11 · Fax +41 58 462 02 12&amp;R&amp;9&amp;P/&amp;N</oddFooter>
